--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72BFB008-5FA6-4648-8FE2-263EC657F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D04220-6CC5-7B42-99A7-574E16B5F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="616">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1765,6 +1765,108 @@
     <t>312</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6363402644</t>
+  </si>
+  <si>
+    <t>SALUDPUBLICACMPEREIRA@COLSU.CO</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>ANA CLEOFE CORDOBA CAMACHO</t>
+  </si>
+  <si>
+    <t>AUXILIAR EN ENFERMERIA</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>EPIDEMIOLOGOGA</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>LEIDY JOHANA OIRTIZ</t>
+  </si>
+  <si>
+    <t>AUXILIAR ENFERMERIA</t>
+  </si>
+  <si>
+    <t>JUAN PABLO SANCHEZ</t>
+  </si>
+  <si>
+    <t>AUX AREA MEDICA</t>
+  </si>
+  <si>
+    <t>JUAN.SANCHEZ@SOMOSEMI.COM</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>LUZ BIVIANA EESCOBAR</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1772,15 +1874,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1803,10 +1900,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2189,9 +2285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF229"/>
+  <dimension ref="A1:CF257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2205,8 +2303,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>581</v>
+      <c r="D1" t="s">
+        <v>615</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -60358,6 +60456,7118 @@
         <v>99</v>
       </c>
       <c r="CF229" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="230" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>83</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C230" t="s">
+        <v>545</v>
+      </c>
+      <c r="D230" t="s">
+        <v>85</v>
+      </c>
+      <c r="E230" t="s">
+        <v>267</v>
+      </c>
+      <c r="F230" t="s">
+        <v>132</v>
+      </c>
+      <c r="G230" t="s">
+        <v>88</v>
+      </c>
+      <c r="H230" t="s">
+        <v>545</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0</v>
+      </c>
+      <c r="AU230">
+        <v>0</v>
+      </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
+      <c r="AW230">
+        <v>0</v>
+      </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
+      <c r="AY230">
+        <v>0</v>
+      </c>
+      <c r="AZ230">
+        <v>0</v>
+      </c>
+      <c r="BA230">
+        <v>0</v>
+      </c>
+      <c r="BB230">
+        <v>0</v>
+      </c>
+      <c r="BC230">
+        <v>0</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>0</v>
+      </c>
+      <c r="BG230">
+        <v>1</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>1</v>
+      </c>
+      <c r="BJ230">
+        <v>2</v>
+      </c>
+      <c r="BK230">
+        <v>0</v>
+      </c>
+      <c r="BL230">
+        <v>4</v>
+      </c>
+      <c r="BM230">
+        <v>25</v>
+      </c>
+      <c r="BN230">
+        <v>16</v>
+      </c>
+      <c r="BO230">
+        <v>59</v>
+      </c>
+      <c r="BP230">
+        <v>207</v>
+      </c>
+      <c r="BQ230">
+        <v>789</v>
+      </c>
+      <c r="BR230">
+        <v>692</v>
+      </c>
+      <c r="BS230">
+        <v>779</v>
+      </c>
+      <c r="BT230">
+        <v>2567</v>
+      </c>
+      <c r="BU230" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV230" s="1">
+        <v>44614</v>
+      </c>
+      <c r="BW230" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX230" t="s">
+        <v>448</v>
+      </c>
+      <c r="BY230" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ230" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA230" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB230" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC230" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD230" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE230" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF230" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="231" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>83</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C231" t="s">
+        <v>581</v>
+      </c>
+      <c r="D231" t="s">
+        <v>85</v>
+      </c>
+      <c r="E231" t="s">
+        <v>267</v>
+      </c>
+      <c r="F231" t="s">
+        <v>102</v>
+      </c>
+      <c r="G231" t="s">
+        <v>88</v>
+      </c>
+      <c r="H231" t="s">
+        <v>582</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>0</v>
+      </c>
+      <c r="AR231">
+        <v>0</v>
+      </c>
+      <c r="AS231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <v>0</v>
+      </c>
+      <c r="AU231">
+        <v>0</v>
+      </c>
+      <c r="AV231">
+        <v>0</v>
+      </c>
+      <c r="AW231">
+        <v>0</v>
+      </c>
+      <c r="AX231">
+        <v>0</v>
+      </c>
+      <c r="AY231">
+        <v>0</v>
+      </c>
+      <c r="AZ231">
+        <v>0</v>
+      </c>
+      <c r="BA231">
+        <v>0</v>
+      </c>
+      <c r="BB231">
+        <v>0</v>
+      </c>
+      <c r="BC231">
+        <v>0</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>3</v>
+      </c>
+      <c r="BF231">
+        <v>1</v>
+      </c>
+      <c r="BG231">
+        <v>11</v>
+      </c>
+      <c r="BH231">
+        <v>2</v>
+      </c>
+      <c r="BI231">
+        <v>5</v>
+      </c>
+      <c r="BJ231">
+        <v>7</v>
+      </c>
+      <c r="BK231">
+        <v>1</v>
+      </c>
+      <c r="BL231">
+        <v>30</v>
+      </c>
+      <c r="BM231">
+        <v>41</v>
+      </c>
+      <c r="BN231">
+        <v>68</v>
+      </c>
+      <c r="BO231">
+        <v>120</v>
+      </c>
+      <c r="BP231">
+        <v>641</v>
+      </c>
+      <c r="BQ231">
+        <v>1889</v>
+      </c>
+      <c r="BR231">
+        <v>1572</v>
+      </c>
+      <c r="BS231">
+        <v>1274</v>
+      </c>
+      <c r="BT231">
+        <v>5605</v>
+      </c>
+      <c r="BU231" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV231" s="1">
+        <v>44618</v>
+      </c>
+      <c r="BW231" t="s">
+        <v>515</v>
+      </c>
+      <c r="BX231" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY231" t="s">
+        <v>583</v>
+      </c>
+      <c r="BZ231" t="s">
+        <v>584</v>
+      </c>
+      <c r="CA231" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB231" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC231" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD231" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE231" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF231" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="232" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>83</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C232" t="s">
+        <v>581</v>
+      </c>
+      <c r="D232" t="s">
+        <v>85</v>
+      </c>
+      <c r="E232" t="s">
+        <v>115</v>
+      </c>
+      <c r="F232" t="s">
+        <v>116</v>
+      </c>
+      <c r="G232" t="s">
+        <v>88</v>
+      </c>
+      <c r="H232" t="s">
+        <v>585</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>0</v>
+      </c>
+      <c r="AR232">
+        <v>0</v>
+      </c>
+      <c r="AS232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <v>0</v>
+      </c>
+      <c r="AU232">
+        <v>0</v>
+      </c>
+      <c r="AV232">
+        <v>0</v>
+      </c>
+      <c r="AW232">
+        <v>0</v>
+      </c>
+      <c r="AX232">
+        <v>0</v>
+      </c>
+      <c r="AY232">
+        <v>0</v>
+      </c>
+      <c r="AZ232">
+        <v>0</v>
+      </c>
+      <c r="BA232">
+        <v>0</v>
+      </c>
+      <c r="BB232">
+        <v>0</v>
+      </c>
+      <c r="BC232">
+        <v>0</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>3</v>
+      </c>
+      <c r="BF232">
+        <v>6</v>
+      </c>
+      <c r="BG232">
+        <v>23</v>
+      </c>
+      <c r="BH232">
+        <v>24</v>
+      </c>
+      <c r="BI232">
+        <v>16</v>
+      </c>
+      <c r="BJ232">
+        <v>13</v>
+      </c>
+      <c r="BK232">
+        <v>37</v>
+      </c>
+      <c r="BL232">
+        <v>122</v>
+      </c>
+      <c r="BM232">
+        <v>114</v>
+      </c>
+      <c r="BN232">
+        <v>67</v>
+      </c>
+      <c r="BO232">
+        <v>157</v>
+      </c>
+      <c r="BP232">
+        <v>418</v>
+      </c>
+      <c r="BQ232">
+        <v>754</v>
+      </c>
+      <c r="BR232">
+        <v>713</v>
+      </c>
+      <c r="BS232">
+        <v>612</v>
+      </c>
+      <c r="BT232">
+        <v>2835</v>
+      </c>
+      <c r="BU232" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV232" s="1">
+        <v>44618</v>
+      </c>
+      <c r="BW232" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX232" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY232" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ232" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA232" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB232" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC232" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD232" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE232" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF232" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>83</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C233" t="s">
+        <v>581</v>
+      </c>
+      <c r="D233" t="s">
+        <v>85</v>
+      </c>
+      <c r="E233" t="s">
+        <v>115</v>
+      </c>
+      <c r="F233" t="s">
+        <v>102</v>
+      </c>
+      <c r="G233" t="s">
+        <v>88</v>
+      </c>
+      <c r="H233" t="s">
+        <v>586</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
+      <c r="AR233">
+        <v>0</v>
+      </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
+      <c r="AU233">
+        <v>0</v>
+      </c>
+      <c r="AV233">
+        <v>0</v>
+      </c>
+      <c r="AW233">
+        <v>0</v>
+      </c>
+      <c r="AX233">
+        <v>0</v>
+      </c>
+      <c r="AY233">
+        <v>0</v>
+      </c>
+      <c r="AZ233">
+        <v>0</v>
+      </c>
+      <c r="BA233">
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <v>0</v>
+      </c>
+      <c r="BC233">
+        <v>0</v>
+      </c>
+      <c r="BD233">
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <v>4</v>
+      </c>
+      <c r="BF233">
+        <v>2</v>
+      </c>
+      <c r="BG233">
+        <v>19</v>
+      </c>
+      <c r="BH233">
+        <v>10</v>
+      </c>
+      <c r="BI233">
+        <v>14</v>
+      </c>
+      <c r="BJ233">
+        <v>12</v>
+      </c>
+      <c r="BK233">
+        <v>34</v>
+      </c>
+      <c r="BL233">
+        <v>95</v>
+      </c>
+      <c r="BM233">
+        <v>36</v>
+      </c>
+      <c r="BN233">
+        <v>18</v>
+      </c>
+      <c r="BO233">
+        <v>58</v>
+      </c>
+      <c r="BP233">
+        <v>174</v>
+      </c>
+      <c r="BQ233">
+        <v>649</v>
+      </c>
+      <c r="BR233">
+        <v>781</v>
+      </c>
+      <c r="BS233">
+        <v>759</v>
+      </c>
+      <c r="BT233">
+        <v>2475</v>
+      </c>
+      <c r="BU233" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV233" s="1">
+        <v>44618</v>
+      </c>
+      <c r="BW233" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX233" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY233" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ233" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA233" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB233" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC233" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD233" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE233" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF233" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>83</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C234" t="s">
+        <v>581</v>
+      </c>
+      <c r="D234" t="s">
+        <v>85</v>
+      </c>
+      <c r="E234" t="s">
+        <v>123</v>
+      </c>
+      <c r="F234" t="s">
+        <v>102</v>
+      </c>
+      <c r="G234" t="s">
+        <v>88</v>
+      </c>
+      <c r="H234" t="s">
+        <v>587</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
+      <c r="R234">
+        <v>1</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
+      <c r="V234">
+        <v>2</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>7</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>0</v>
+      </c>
+      <c r="AD234">
+        <v>0</v>
+      </c>
+      <c r="AE234">
+        <v>0</v>
+      </c>
+      <c r="AF234">
+        <v>0</v>
+      </c>
+      <c r="AG234">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>0</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>0</v>
+      </c>
+      <c r="AK234">
+        <v>0</v>
+      </c>
+      <c r="AL234">
+        <v>1</v>
+      </c>
+      <c r="AM234">
+        <v>0</v>
+      </c>
+      <c r="AN234">
+        <v>1</v>
+      </c>
+      <c r="AO234">
+        <v>0</v>
+      </c>
+      <c r="AP234">
+        <v>0</v>
+      </c>
+      <c r="AQ234">
+        <v>0</v>
+      </c>
+      <c r="AR234">
+        <v>0</v>
+      </c>
+      <c r="AS234">
+        <v>0</v>
+      </c>
+      <c r="AT234">
+        <v>0</v>
+      </c>
+      <c r="AU234">
+        <v>0</v>
+      </c>
+      <c r="AV234">
+        <v>0</v>
+      </c>
+      <c r="AW234">
+        <v>0</v>
+      </c>
+      <c r="AX234">
+        <v>0</v>
+      </c>
+      <c r="AY234">
+        <v>0</v>
+      </c>
+      <c r="AZ234">
+        <v>0</v>
+      </c>
+      <c r="BA234">
+        <v>0</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>0</v>
+      </c>
+      <c r="BD234">
+        <v>0</v>
+      </c>
+      <c r="BE234">
+        <v>4</v>
+      </c>
+      <c r="BF234">
+        <v>3</v>
+      </c>
+      <c r="BG234">
+        <v>4</v>
+      </c>
+      <c r="BH234">
+        <v>2</v>
+      </c>
+      <c r="BI234">
+        <v>1</v>
+      </c>
+      <c r="BJ234">
+        <v>3</v>
+      </c>
+      <c r="BK234">
+        <v>3</v>
+      </c>
+      <c r="BL234">
+        <v>20</v>
+      </c>
+      <c r="BM234">
+        <v>11</v>
+      </c>
+      <c r="BN234">
+        <v>17</v>
+      </c>
+      <c r="BO234">
+        <v>13</v>
+      </c>
+      <c r="BP234">
+        <v>15</v>
+      </c>
+      <c r="BQ234">
+        <v>19</v>
+      </c>
+      <c r="BR234">
+        <v>22</v>
+      </c>
+      <c r="BS234">
+        <v>14</v>
+      </c>
+      <c r="BT234">
+        <v>111</v>
+      </c>
+      <c r="BU234" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV234" s="1">
+        <v>44619</v>
+      </c>
+      <c r="BW234" t="s">
+        <v>407</v>
+      </c>
+      <c r="BX234" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY234" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ234" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA234" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB234" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC234" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD234" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE234" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF234" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="235" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>83</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C235" t="s">
+        <v>545</v>
+      </c>
+      <c r="D235" t="s">
+        <v>85</v>
+      </c>
+      <c r="E235" t="s">
+        <v>180</v>
+      </c>
+      <c r="F235" t="s">
+        <v>288</v>
+      </c>
+      <c r="G235" t="s">
+        <v>88</v>
+      </c>
+      <c r="H235" t="s">
+        <v>124</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0</v>
+      </c>
+      <c r="V235">
+        <v>0</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+      <c r="AB235">
+        <v>0</v>
+      </c>
+      <c r="AC235">
+        <v>0</v>
+      </c>
+      <c r="AD235">
+        <v>0</v>
+      </c>
+      <c r="AE235">
+        <v>0</v>
+      </c>
+      <c r="AF235">
+        <v>0</v>
+      </c>
+      <c r="AG235">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>0</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>0</v>
+      </c>
+      <c r="AK235">
+        <v>0</v>
+      </c>
+      <c r="AL235">
+        <v>0</v>
+      </c>
+      <c r="AM235">
+        <v>0</v>
+      </c>
+      <c r="AN235">
+        <v>0</v>
+      </c>
+      <c r="AO235">
+        <v>0</v>
+      </c>
+      <c r="AP235">
+        <v>0</v>
+      </c>
+      <c r="AQ235">
+        <v>0</v>
+      </c>
+      <c r="AR235">
+        <v>0</v>
+      </c>
+      <c r="AS235">
+        <v>0</v>
+      </c>
+      <c r="AT235">
+        <v>0</v>
+      </c>
+      <c r="AU235">
+        <v>0</v>
+      </c>
+      <c r="AV235">
+        <v>0</v>
+      </c>
+      <c r="AW235">
+        <v>0</v>
+      </c>
+      <c r="AX235">
+        <v>0</v>
+      </c>
+      <c r="AY235">
+        <v>0</v>
+      </c>
+      <c r="AZ235">
+        <v>0</v>
+      </c>
+      <c r="BA235">
+        <v>0</v>
+      </c>
+      <c r="BB235">
+        <v>0</v>
+      </c>
+      <c r="BC235">
+        <v>0</v>
+      </c>
+      <c r="BD235">
+        <v>0</v>
+      </c>
+      <c r="BE235">
+        <v>1</v>
+      </c>
+      <c r="BF235">
+        <v>2</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>2</v>
+      </c>
+      <c r="BI235">
+        <v>0</v>
+      </c>
+      <c r="BJ235">
+        <v>0</v>
+      </c>
+      <c r="BK235">
+        <v>0</v>
+      </c>
+      <c r="BL235">
+        <v>8</v>
+      </c>
+      <c r="BM235">
+        <v>2</v>
+      </c>
+      <c r="BN235">
+        <v>8</v>
+      </c>
+      <c r="BO235">
+        <v>37</v>
+      </c>
+      <c r="BP235">
+        <v>65</v>
+      </c>
+      <c r="BQ235">
+        <v>194</v>
+      </c>
+      <c r="BR235">
+        <v>484</v>
+      </c>
+      <c r="BS235">
+        <v>965</v>
+      </c>
+      <c r="BT235">
+        <v>1755</v>
+      </c>
+      <c r="BU235" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV235" s="1">
+        <v>44613</v>
+      </c>
+      <c r="BW235" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX235" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY235" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ235" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA235" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB235" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC235" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD235" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE235" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF235" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="236" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>83</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C236" t="s">
+        <v>581</v>
+      </c>
+      <c r="D236" t="s">
+        <v>85</v>
+      </c>
+      <c r="E236" t="s">
+        <v>101</v>
+      </c>
+      <c r="F236" t="s">
+        <v>102</v>
+      </c>
+      <c r="G236" t="s">
+        <v>88</v>
+      </c>
+      <c r="H236" t="s">
+        <v>588</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+      <c r="AB236">
+        <v>0</v>
+      </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
+      <c r="AF236">
+        <v>0</v>
+      </c>
+      <c r="AG236">
+        <v>0</v>
+      </c>
+      <c r="AH236">
+        <v>0</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>0</v>
+      </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>0</v>
+      </c>
+      <c r="AO236">
+        <v>0</v>
+      </c>
+      <c r="AP236">
+        <v>0</v>
+      </c>
+      <c r="AQ236">
+        <v>0</v>
+      </c>
+      <c r="AR236">
+        <v>0</v>
+      </c>
+      <c r="AS236">
+        <v>0</v>
+      </c>
+      <c r="AT236">
+        <v>0</v>
+      </c>
+      <c r="AU236">
+        <v>0</v>
+      </c>
+      <c r="AV236">
+        <v>0</v>
+      </c>
+      <c r="AW236">
+        <v>0</v>
+      </c>
+      <c r="AX236">
+        <v>0</v>
+      </c>
+      <c r="AY236">
+        <v>0</v>
+      </c>
+      <c r="AZ236">
+        <v>0</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>0</v>
+      </c>
+      <c r="BC236">
+        <v>0</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>4</v>
+      </c>
+      <c r="BG236">
+        <v>7</v>
+      </c>
+      <c r="BH236">
+        <v>5</v>
+      </c>
+      <c r="BI236">
+        <v>10</v>
+      </c>
+      <c r="BJ236">
+        <v>24</v>
+      </c>
+      <c r="BK236">
+        <v>5</v>
+      </c>
+      <c r="BL236">
+        <v>55</v>
+      </c>
+      <c r="BM236">
+        <v>45</v>
+      </c>
+      <c r="BN236">
+        <v>30</v>
+      </c>
+      <c r="BO236">
+        <v>85</v>
+      </c>
+      <c r="BP236">
+        <v>394</v>
+      </c>
+      <c r="BQ236">
+        <v>967</v>
+      </c>
+      <c r="BR236">
+        <v>1246</v>
+      </c>
+      <c r="BS236">
+        <v>838</v>
+      </c>
+      <c r="BT236">
+        <v>3605</v>
+      </c>
+      <c r="BU236" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV236" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW236" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX236" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY236" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ236" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA236" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB236" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC236" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD236" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE236" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF236" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="237" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>83</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C237" t="s">
+        <v>581</v>
+      </c>
+      <c r="D237" t="s">
+        <v>85</v>
+      </c>
+      <c r="E237" t="s">
+        <v>101</v>
+      </c>
+      <c r="F237" t="s">
+        <v>110</v>
+      </c>
+      <c r="G237" t="s">
+        <v>88</v>
+      </c>
+      <c r="H237" t="s">
+        <v>589</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+      <c r="AB237">
+        <v>0</v>
+      </c>
+      <c r="AC237">
+        <v>0</v>
+      </c>
+      <c r="AD237">
+        <v>0</v>
+      </c>
+      <c r="AE237">
+        <v>0</v>
+      </c>
+      <c r="AF237">
+        <v>0</v>
+      </c>
+      <c r="AG237">
+        <v>0</v>
+      </c>
+      <c r="AH237">
+        <v>0</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>0</v>
+      </c>
+      <c r="AK237">
+        <v>0</v>
+      </c>
+      <c r="AL237">
+        <v>0</v>
+      </c>
+      <c r="AM237">
+        <v>0</v>
+      </c>
+      <c r="AN237">
+        <v>0</v>
+      </c>
+      <c r="AO237">
+        <v>0</v>
+      </c>
+      <c r="AP237">
+        <v>0</v>
+      </c>
+      <c r="AQ237">
+        <v>0</v>
+      </c>
+      <c r="AR237">
+        <v>0</v>
+      </c>
+      <c r="AS237">
+        <v>0</v>
+      </c>
+      <c r="AT237">
+        <v>0</v>
+      </c>
+      <c r="AU237">
+        <v>0</v>
+      </c>
+      <c r="AV237">
+        <v>0</v>
+      </c>
+      <c r="AW237">
+        <v>0</v>
+      </c>
+      <c r="AX237">
+        <v>0</v>
+      </c>
+      <c r="AY237">
+        <v>0</v>
+      </c>
+      <c r="AZ237">
+        <v>0</v>
+      </c>
+      <c r="BA237">
+        <v>0</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>0</v>
+      </c>
+      <c r="BD237">
+        <v>0</v>
+      </c>
+      <c r="BE237">
+        <v>1</v>
+      </c>
+      <c r="BF237">
+        <v>3</v>
+      </c>
+      <c r="BG237">
+        <v>17</v>
+      </c>
+      <c r="BH237">
+        <v>13</v>
+      </c>
+      <c r="BI237">
+        <v>32</v>
+      </c>
+      <c r="BJ237">
+        <v>22</v>
+      </c>
+      <c r="BK237">
+        <v>4</v>
+      </c>
+      <c r="BL237">
+        <v>92</v>
+      </c>
+      <c r="BM237">
+        <v>24</v>
+      </c>
+      <c r="BN237">
+        <v>37</v>
+      </c>
+      <c r="BO237">
+        <v>106</v>
+      </c>
+      <c r="BP237">
+        <v>332</v>
+      </c>
+      <c r="BQ237">
+        <v>385</v>
+      </c>
+      <c r="BR237">
+        <v>517</v>
+      </c>
+      <c r="BS237">
+        <v>436</v>
+      </c>
+      <c r="BT237">
+        <v>1837</v>
+      </c>
+      <c r="BU237" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV237" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW237" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX237" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY237" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ237" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA237" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB237" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC237" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD237" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE237" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF237" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>83</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C238" t="s">
+        <v>581</v>
+      </c>
+      <c r="D238" t="s">
+        <v>85</v>
+      </c>
+      <c r="E238" t="s">
+        <v>101</v>
+      </c>
+      <c r="F238" t="s">
+        <v>113</v>
+      </c>
+      <c r="G238" t="s">
+        <v>88</v>
+      </c>
+      <c r="H238" t="s">
+        <v>590</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>3</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
+      <c r="P238">
+        <v>8</v>
+      </c>
+      <c r="Q238">
+        <v>6</v>
+      </c>
+      <c r="R238">
+        <v>6</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>12</v>
+      </c>
+      <c r="U238">
+        <v>32</v>
+      </c>
+      <c r="V238">
+        <v>20</v>
+      </c>
+      <c r="W238">
+        <v>34</v>
+      </c>
+      <c r="X238">
+        <v>114</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+      <c r="AB238">
+        <v>0</v>
+      </c>
+      <c r="AC238">
+        <v>1</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238">
+        <v>1</v>
+      </c>
+      <c r="AF238">
+        <v>2</v>
+      </c>
+      <c r="AG238">
+        <v>1</v>
+      </c>
+      <c r="AH238">
+        <v>0</v>
+      </c>
+      <c r="AI238">
+        <v>1</v>
+      </c>
+      <c r="AJ238">
+        <v>3</v>
+      </c>
+      <c r="AK238">
+        <v>3</v>
+      </c>
+      <c r="AL238">
+        <v>9</v>
+      </c>
+      <c r="AM238">
+        <v>24</v>
+      </c>
+      <c r="AN238">
+        <v>41</v>
+      </c>
+      <c r="AO238">
+        <v>0</v>
+      </c>
+      <c r="AP238">
+        <v>0</v>
+      </c>
+      <c r="AQ238">
+        <v>0</v>
+      </c>
+      <c r="AR238">
+        <v>0</v>
+      </c>
+      <c r="AS238">
+        <v>1</v>
+      </c>
+      <c r="AT238">
+        <v>1</v>
+      </c>
+      <c r="AU238">
+        <v>2</v>
+      </c>
+      <c r="AV238">
+        <v>4</v>
+      </c>
+      <c r="AW238">
+        <v>0</v>
+      </c>
+      <c r="AX238">
+        <v>0</v>
+      </c>
+      <c r="AY238">
+        <v>0</v>
+      </c>
+      <c r="AZ238">
+        <v>0</v>
+      </c>
+      <c r="BA238">
+        <v>1</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>4</v>
+      </c>
+      <c r="BD238">
+        <v>9</v>
+      </c>
+      <c r="BE238">
+        <v>8</v>
+      </c>
+      <c r="BF238">
+        <v>8</v>
+      </c>
+      <c r="BG238">
+        <v>17</v>
+      </c>
+      <c r="BH238">
+        <v>9</v>
+      </c>
+      <c r="BI238">
+        <v>3</v>
+      </c>
+      <c r="BJ238">
+        <v>3</v>
+      </c>
+      <c r="BK238">
+        <v>2</v>
+      </c>
+      <c r="BL238">
+        <v>50</v>
+      </c>
+      <c r="BM238">
+        <v>45</v>
+      </c>
+      <c r="BN238">
+        <v>42</v>
+      </c>
+      <c r="BO238">
+        <v>103</v>
+      </c>
+      <c r="BP238">
+        <v>237</v>
+      </c>
+      <c r="BQ238">
+        <v>523</v>
+      </c>
+      <c r="BR238">
+        <v>305</v>
+      </c>
+      <c r="BS238">
+        <v>251</v>
+      </c>
+      <c r="BT238">
+        <v>1506</v>
+      </c>
+      <c r="BU238" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV238" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX238" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY238" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ238" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA238" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB238" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC238" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD238" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE238" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF238" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="239" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>83</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C239" t="s">
+        <v>581</v>
+      </c>
+      <c r="D239" t="s">
+        <v>85</v>
+      </c>
+      <c r="E239" t="s">
+        <v>131</v>
+      </c>
+      <c r="F239" t="s">
+        <v>102</v>
+      </c>
+      <c r="G239" t="s">
+        <v>88</v>
+      </c>
+      <c r="H239" t="s">
+        <v>591</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239">
+        <v>2</v>
+      </c>
+      <c r="Q239">
+        <v>1</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>1</v>
+      </c>
+      <c r="T239">
+        <v>7</v>
+      </c>
+      <c r="U239">
+        <v>3</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="W239">
+        <v>12</v>
+      </c>
+      <c r="X239">
+        <v>26</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>0</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>0</v>
+      </c>
+      <c r="AK239">
+        <v>0</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>0</v>
+      </c>
+      <c r="AO239">
+        <v>0</v>
+      </c>
+      <c r="AP239">
+        <v>0</v>
+      </c>
+      <c r="AQ239">
+        <v>0</v>
+      </c>
+      <c r="AR239">
+        <v>0</v>
+      </c>
+      <c r="AS239">
+        <v>0</v>
+      </c>
+      <c r="AT239">
+        <v>0</v>
+      </c>
+      <c r="AU239">
+        <v>0</v>
+      </c>
+      <c r="AV239">
+        <v>0</v>
+      </c>
+      <c r="AW239">
+        <v>0</v>
+      </c>
+      <c r="AX239">
+        <v>0</v>
+      </c>
+      <c r="AY239">
+        <v>0</v>
+      </c>
+      <c r="AZ239">
+        <v>0</v>
+      </c>
+      <c r="BA239">
+        <v>0</v>
+      </c>
+      <c r="BB239">
+        <v>0</v>
+      </c>
+      <c r="BC239">
+        <v>0</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>7</v>
+      </c>
+      <c r="BF239">
+        <v>3</v>
+      </c>
+      <c r="BG239">
+        <v>10</v>
+      </c>
+      <c r="BH239">
+        <v>7</v>
+      </c>
+      <c r="BI239">
+        <v>6</v>
+      </c>
+      <c r="BJ239">
+        <v>1</v>
+      </c>
+      <c r="BK239">
+        <v>2</v>
+      </c>
+      <c r="BL239">
+        <v>36</v>
+      </c>
+      <c r="BM239">
+        <v>39</v>
+      </c>
+      <c r="BN239">
+        <v>23</v>
+      </c>
+      <c r="BO239">
+        <v>40</v>
+      </c>
+      <c r="BP239">
+        <v>122</v>
+      </c>
+      <c r="BQ239">
+        <v>179</v>
+      </c>
+      <c r="BR239">
+        <v>165</v>
+      </c>
+      <c r="BS239">
+        <v>248</v>
+      </c>
+      <c r="BT239">
+        <v>816</v>
+      </c>
+      <c r="BU239" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV239" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW239" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX239" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY239" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ239" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA239" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB239" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC239" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD239" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE239" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF239" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="240" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>83</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C240" t="s">
+        <v>581</v>
+      </c>
+      <c r="D240" t="s">
+        <v>85</v>
+      </c>
+      <c r="E240" t="s">
+        <v>131</v>
+      </c>
+      <c r="F240" t="s">
+        <v>376</v>
+      </c>
+      <c r="G240" t="s">
+        <v>88</v>
+      </c>
+      <c r="H240" t="s">
+        <v>592</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240">
+        <v>0</v>
+      </c>
+      <c r="AF240">
+        <v>0</v>
+      </c>
+      <c r="AG240">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>0</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>0</v>
+      </c>
+      <c r="AK240">
+        <v>0</v>
+      </c>
+      <c r="AL240">
+        <v>0</v>
+      </c>
+      <c r="AM240">
+        <v>0</v>
+      </c>
+      <c r="AN240">
+        <v>0</v>
+      </c>
+      <c r="AO240">
+        <v>0</v>
+      </c>
+      <c r="AP240">
+        <v>0</v>
+      </c>
+      <c r="AQ240">
+        <v>0</v>
+      </c>
+      <c r="AR240">
+        <v>0</v>
+      </c>
+      <c r="AS240">
+        <v>0</v>
+      </c>
+      <c r="AT240">
+        <v>0</v>
+      </c>
+      <c r="AU240">
+        <v>0</v>
+      </c>
+      <c r="AV240">
+        <v>0</v>
+      </c>
+      <c r="AW240">
+        <v>0</v>
+      </c>
+      <c r="AX240">
+        <v>0</v>
+      </c>
+      <c r="AY240">
+        <v>0</v>
+      </c>
+      <c r="AZ240">
+        <v>0</v>
+      </c>
+      <c r="BA240">
+        <v>0</v>
+      </c>
+      <c r="BB240">
+        <v>0</v>
+      </c>
+      <c r="BC240">
+        <v>0</v>
+      </c>
+      <c r="BD240">
+        <v>0</v>
+      </c>
+      <c r="BE240">
+        <v>0</v>
+      </c>
+      <c r="BF240">
+        <v>0</v>
+      </c>
+      <c r="BG240">
+        <v>1</v>
+      </c>
+      <c r="BH240">
+        <v>0</v>
+      </c>
+      <c r="BI240">
+        <v>0</v>
+      </c>
+      <c r="BJ240">
+        <v>0</v>
+      </c>
+      <c r="BK240">
+        <v>1</v>
+      </c>
+      <c r="BL240">
+        <v>2</v>
+      </c>
+      <c r="BM240">
+        <v>5</v>
+      </c>
+      <c r="BN240">
+        <v>8</v>
+      </c>
+      <c r="BO240">
+        <v>34</v>
+      </c>
+      <c r="BP240">
+        <v>57</v>
+      </c>
+      <c r="BQ240">
+        <v>46</v>
+      </c>
+      <c r="BR240">
+        <v>79</v>
+      </c>
+      <c r="BS240">
+        <v>104</v>
+      </c>
+      <c r="BT240">
+        <v>333</v>
+      </c>
+      <c r="BU240" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV240" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW240" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX240" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY240" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ240" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA240" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB240" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC240" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD240" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE240" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF240" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="241" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>83</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C241" t="s">
+        <v>581</v>
+      </c>
+      <c r="D241" t="s">
+        <v>85</v>
+      </c>
+      <c r="E241" t="s">
+        <v>131</v>
+      </c>
+      <c r="F241" t="s">
+        <v>336</v>
+      </c>
+      <c r="G241" t="s">
+        <v>88</v>
+      </c>
+      <c r="H241" t="s">
+        <v>593</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+      <c r="AB241">
+        <v>0</v>
+      </c>
+      <c r="AC241">
+        <v>0</v>
+      </c>
+      <c r="AD241">
+        <v>0</v>
+      </c>
+      <c r="AE241">
+        <v>0</v>
+      </c>
+      <c r="AF241">
+        <v>0</v>
+      </c>
+      <c r="AG241">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>0</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>0</v>
+      </c>
+      <c r="AK241">
+        <v>0</v>
+      </c>
+      <c r="AL241">
+        <v>0</v>
+      </c>
+      <c r="AM241">
+        <v>0</v>
+      </c>
+      <c r="AN241">
+        <v>0</v>
+      </c>
+      <c r="AO241">
+        <v>0</v>
+      </c>
+      <c r="AP241">
+        <v>0</v>
+      </c>
+      <c r="AQ241">
+        <v>0</v>
+      </c>
+      <c r="AR241">
+        <v>0</v>
+      </c>
+      <c r="AS241">
+        <v>0</v>
+      </c>
+      <c r="AT241">
+        <v>0</v>
+      </c>
+      <c r="AU241">
+        <v>0</v>
+      </c>
+      <c r="AV241">
+        <v>0</v>
+      </c>
+      <c r="AW241">
+        <v>0</v>
+      </c>
+      <c r="AX241">
+        <v>0</v>
+      </c>
+      <c r="AY241">
+        <v>0</v>
+      </c>
+      <c r="AZ241">
+        <v>0</v>
+      </c>
+      <c r="BA241">
+        <v>0</v>
+      </c>
+      <c r="BB241">
+        <v>0</v>
+      </c>
+      <c r="BC241">
+        <v>0</v>
+      </c>
+      <c r="BD241">
+        <v>0</v>
+      </c>
+      <c r="BE241">
+        <v>0</v>
+      </c>
+      <c r="BF241">
+        <v>0</v>
+      </c>
+      <c r="BG241">
+        <v>1</v>
+      </c>
+      <c r="BH241">
+        <v>0</v>
+      </c>
+      <c r="BI241">
+        <v>0</v>
+      </c>
+      <c r="BJ241">
+        <v>0</v>
+      </c>
+      <c r="BK241">
+        <v>0</v>
+      </c>
+      <c r="BL241">
+        <v>1</v>
+      </c>
+      <c r="BM241">
+        <v>5</v>
+      </c>
+      <c r="BN241">
+        <v>9</v>
+      </c>
+      <c r="BO241">
+        <v>17</v>
+      </c>
+      <c r="BP241">
+        <v>16</v>
+      </c>
+      <c r="BQ241">
+        <v>12</v>
+      </c>
+      <c r="BR241">
+        <v>14</v>
+      </c>
+      <c r="BS241">
+        <v>19</v>
+      </c>
+      <c r="BT241">
+        <v>92</v>
+      </c>
+      <c r="BU241" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV241" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW241" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX241" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY241" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ241" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA241" t="s">
+        <v>338</v>
+      </c>
+      <c r="CB241" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC241" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD241" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE241" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF241" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="242" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>83</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44617</v>
+      </c>
+      <c r="C242" t="s">
+        <v>581</v>
+      </c>
+      <c r="D242" t="s">
+        <v>85</v>
+      </c>
+      <c r="E242" t="s">
+        <v>131</v>
+      </c>
+      <c r="F242" t="s">
+        <v>139</v>
+      </c>
+      <c r="G242" t="s">
+        <v>88</v>
+      </c>
+      <c r="H242" t="s">
+        <v>594</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="Q242">
+        <v>10</v>
+      </c>
+      <c r="R242">
+        <v>1</v>
+      </c>
+      <c r="S242">
+        <v>1</v>
+      </c>
+      <c r="T242">
+        <v>6</v>
+      </c>
+      <c r="U242">
+        <v>8</v>
+      </c>
+      <c r="V242">
+        <v>5</v>
+      </c>
+      <c r="W242">
+        <v>17</v>
+      </c>
+      <c r="X242">
+        <v>48</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+      <c r="AB242">
+        <v>0</v>
+      </c>
+      <c r="AC242">
+        <v>0</v>
+      </c>
+      <c r="AD242">
+        <v>0</v>
+      </c>
+      <c r="AE242">
+        <v>0</v>
+      </c>
+      <c r="AF242">
+        <v>0</v>
+      </c>
+      <c r="AG242">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>0</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>0</v>
+      </c>
+      <c r="AK242">
+        <v>0</v>
+      </c>
+      <c r="AL242">
+        <v>0</v>
+      </c>
+      <c r="AM242">
+        <v>0</v>
+      </c>
+      <c r="AN242">
+        <v>0</v>
+      </c>
+      <c r="AO242">
+        <v>0</v>
+      </c>
+      <c r="AP242">
+        <v>0</v>
+      </c>
+      <c r="AQ242">
+        <v>0</v>
+      </c>
+      <c r="AR242">
+        <v>0</v>
+      </c>
+      <c r="AS242">
+        <v>0</v>
+      </c>
+      <c r="AT242">
+        <v>0</v>
+      </c>
+      <c r="AU242">
+        <v>0</v>
+      </c>
+      <c r="AV242">
+        <v>0</v>
+      </c>
+      <c r="AW242">
+        <v>0</v>
+      </c>
+      <c r="AX242">
+        <v>0</v>
+      </c>
+      <c r="AY242">
+        <v>0</v>
+      </c>
+      <c r="AZ242">
+        <v>0</v>
+      </c>
+      <c r="BA242">
+        <v>0</v>
+      </c>
+      <c r="BB242">
+        <v>0</v>
+      </c>
+      <c r="BC242">
+        <v>0</v>
+      </c>
+      <c r="BD242">
+        <v>0</v>
+      </c>
+      <c r="BE242">
+        <v>2</v>
+      </c>
+      <c r="BF242">
+        <v>2</v>
+      </c>
+      <c r="BG242">
+        <v>8</v>
+      </c>
+      <c r="BH242">
+        <v>1</v>
+      </c>
+      <c r="BI242">
+        <v>0</v>
+      </c>
+      <c r="BJ242">
+        <v>0</v>
+      </c>
+      <c r="BK242">
+        <v>3</v>
+      </c>
+      <c r="BL242">
+        <v>16</v>
+      </c>
+      <c r="BM242">
+        <v>40</v>
+      </c>
+      <c r="BN242">
+        <v>26</v>
+      </c>
+      <c r="BO242">
+        <v>55</v>
+      </c>
+      <c r="BP242">
+        <v>133</v>
+      </c>
+      <c r="BQ242">
+        <v>239</v>
+      </c>
+      <c r="BR242">
+        <v>166</v>
+      </c>
+      <c r="BS242">
+        <v>275</v>
+      </c>
+      <c r="BT242">
+        <v>934</v>
+      </c>
+      <c r="BU242" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV242" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW242" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX242" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY242" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ242" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA242" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB242" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC242" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD242" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE242" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF242" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="243" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>83</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C243" t="s">
+        <v>581</v>
+      </c>
+      <c r="D243" t="s">
+        <v>85</v>
+      </c>
+      <c r="E243" t="s">
+        <v>218</v>
+      </c>
+      <c r="F243" t="s">
+        <v>102</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>595</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>4</v>
+      </c>
+      <c r="P243">
+        <v>10</v>
+      </c>
+      <c r="Q243">
+        <v>14</v>
+      </c>
+      <c r="R243">
+        <v>8</v>
+      </c>
+      <c r="S243">
+        <v>21</v>
+      </c>
+      <c r="T243">
+        <v>61</v>
+      </c>
+      <c r="U243">
+        <v>173</v>
+      </c>
+      <c r="V243">
+        <v>104</v>
+      </c>
+      <c r="W243">
+        <v>132</v>
+      </c>
+      <c r="X243">
+        <v>513</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+      <c r="AB243">
+        <v>0</v>
+      </c>
+      <c r="AC243">
+        <v>0</v>
+      </c>
+      <c r="AD243">
+        <v>0</v>
+      </c>
+      <c r="AE243">
+        <v>0</v>
+      </c>
+      <c r="AF243">
+        <v>0</v>
+      </c>
+      <c r="AG243">
+        <v>0</v>
+      </c>
+      <c r="AH243">
+        <v>0</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <v>7</v>
+      </c>
+      <c r="AL243">
+        <v>12</v>
+      </c>
+      <c r="AM243">
+        <v>25</v>
+      </c>
+      <c r="AN243">
+        <v>44</v>
+      </c>
+      <c r="AO243">
+        <v>0</v>
+      </c>
+      <c r="AP243">
+        <v>0</v>
+      </c>
+      <c r="AQ243">
+        <v>0</v>
+      </c>
+      <c r="AR243">
+        <v>0</v>
+      </c>
+      <c r="AS243">
+        <v>0</v>
+      </c>
+      <c r="AT243">
+        <v>0</v>
+      </c>
+      <c r="AU243">
+        <v>2</v>
+      </c>
+      <c r="AV243">
+        <v>2</v>
+      </c>
+      <c r="AW243">
+        <v>0</v>
+      </c>
+      <c r="AX243">
+        <v>0</v>
+      </c>
+      <c r="AY243">
+        <v>0</v>
+      </c>
+      <c r="AZ243">
+        <v>0</v>
+      </c>
+      <c r="BA243">
+        <v>0</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>4</v>
+      </c>
+      <c r="BD243">
+        <v>7</v>
+      </c>
+      <c r="BE243">
+        <v>12</v>
+      </c>
+      <c r="BF243">
+        <v>7</v>
+      </c>
+      <c r="BG243">
+        <v>12</v>
+      </c>
+      <c r="BH243">
+        <v>6</v>
+      </c>
+      <c r="BI243">
+        <v>6</v>
+      </c>
+      <c r="BJ243">
+        <v>2</v>
+      </c>
+      <c r="BK243">
+        <v>3</v>
+      </c>
+      <c r="BL243">
+        <v>48</v>
+      </c>
+      <c r="BM243">
+        <v>50</v>
+      </c>
+      <c r="BN243">
+        <v>40</v>
+      </c>
+      <c r="BO243">
+        <v>95</v>
+      </c>
+      <c r="BP243">
+        <v>196</v>
+      </c>
+      <c r="BQ243">
+        <v>521</v>
+      </c>
+      <c r="BR243">
+        <v>284</v>
+      </c>
+      <c r="BS243">
+        <v>194</v>
+      </c>
+      <c r="BT243">
+        <v>1380</v>
+      </c>
+      <c r="BU243" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV243" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW243" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX243" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY243" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ243" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA243" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB243" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC243" t="s">
+        <v>225</v>
+      </c>
+      <c r="CD243" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE243" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF243" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>83</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C244" t="s">
+        <v>581</v>
+      </c>
+      <c r="D244" t="s">
+        <v>85</v>
+      </c>
+      <c r="E244" t="s">
+        <v>226</v>
+      </c>
+      <c r="F244" t="s">
+        <v>102</v>
+      </c>
+      <c r="G244" t="s">
+        <v>88</v>
+      </c>
+      <c r="H244" t="s">
+        <v>596</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244">
+        <v>6</v>
+      </c>
+      <c r="V244">
+        <v>10</v>
+      </c>
+      <c r="W244">
+        <v>21</v>
+      </c>
+      <c r="X244">
+        <v>38</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>0</v>
+      </c>
+      <c r="AD244">
+        <v>0</v>
+      </c>
+      <c r="AE244">
+        <v>0</v>
+      </c>
+      <c r="AF244">
+        <v>0</v>
+      </c>
+      <c r="AG244">
+        <v>0</v>
+      </c>
+      <c r="AH244">
+        <v>0</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <v>1</v>
+      </c>
+      <c r="AL244">
+        <v>3</v>
+      </c>
+      <c r="AM244">
+        <v>50</v>
+      </c>
+      <c r="AN244">
+        <v>54</v>
+      </c>
+      <c r="AO244">
+        <v>0</v>
+      </c>
+      <c r="AP244">
+        <v>0</v>
+      </c>
+      <c r="AQ244">
+        <v>0</v>
+      </c>
+      <c r="AR244">
+        <v>0</v>
+      </c>
+      <c r="AS244">
+        <v>0</v>
+      </c>
+      <c r="AT244">
+        <v>0</v>
+      </c>
+      <c r="AU244">
+        <v>0</v>
+      </c>
+      <c r="AV244">
+        <v>0</v>
+      </c>
+      <c r="AW244">
+        <v>0</v>
+      </c>
+      <c r="AX244">
+        <v>0</v>
+      </c>
+      <c r="AY244">
+        <v>0</v>
+      </c>
+      <c r="AZ244">
+        <v>0</v>
+      </c>
+      <c r="BA244">
+        <v>1</v>
+      </c>
+      <c r="BB244">
+        <v>0</v>
+      </c>
+      <c r="BC244">
+        <v>2</v>
+      </c>
+      <c r="BD244">
+        <v>3</v>
+      </c>
+      <c r="BE244">
+        <v>0</v>
+      </c>
+      <c r="BF244">
+        <v>0</v>
+      </c>
+      <c r="BG244">
+        <v>0</v>
+      </c>
+      <c r="BH244">
+        <v>0</v>
+      </c>
+      <c r="BI244">
+        <v>0</v>
+      </c>
+      <c r="BJ244">
+        <v>0</v>
+      </c>
+      <c r="BK244">
+        <v>0</v>
+      </c>
+      <c r="BL244">
+        <v>0</v>
+      </c>
+      <c r="BM244">
+        <v>0</v>
+      </c>
+      <c r="BN244">
+        <v>0</v>
+      </c>
+      <c r="BO244">
+        <v>0</v>
+      </c>
+      <c r="BP244">
+        <v>0</v>
+      </c>
+      <c r="BQ244">
+        <v>0</v>
+      </c>
+      <c r="BR244">
+        <v>0</v>
+      </c>
+      <c r="BS244">
+        <v>0</v>
+      </c>
+      <c r="BT244">
+        <v>0</v>
+      </c>
+      <c r="BU244" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV244" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW244" t="s">
+        <v>228</v>
+      </c>
+      <c r="BX244" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY244" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ244" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA244" t="s">
+        <v>231</v>
+      </c>
+      <c r="CB244" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC244" t="s">
+        <v>232</v>
+      </c>
+      <c r="CD244" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE244" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF244" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="245" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>83</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C245" t="s">
+        <v>581</v>
+      </c>
+      <c r="D245" t="s">
+        <v>85</v>
+      </c>
+      <c r="E245" t="s">
+        <v>212</v>
+      </c>
+      <c r="F245" t="s">
+        <v>102</v>
+      </c>
+      <c r="G245" t="s">
+        <v>88</v>
+      </c>
+      <c r="H245" t="s">
+        <v>597</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>1</v>
+      </c>
+      <c r="U245">
+        <v>17</v>
+      </c>
+      <c r="V245">
+        <v>9</v>
+      </c>
+      <c r="W245">
+        <v>24</v>
+      </c>
+      <c r="X245">
+        <v>52</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+      <c r="AB245">
+        <v>0</v>
+      </c>
+      <c r="AC245">
+        <v>0</v>
+      </c>
+      <c r="AD245">
+        <v>0</v>
+      </c>
+      <c r="AE245">
+        <v>0</v>
+      </c>
+      <c r="AF245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
+        <v>0</v>
+      </c>
+      <c r="AH245">
+        <v>0</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
+      <c r="AL245">
+        <v>0</v>
+      </c>
+      <c r="AM245">
+        <v>0</v>
+      </c>
+      <c r="AN245">
+        <v>0</v>
+      </c>
+      <c r="AO245">
+        <v>0</v>
+      </c>
+      <c r="AP245">
+        <v>0</v>
+      </c>
+      <c r="AQ245">
+        <v>0</v>
+      </c>
+      <c r="AR245">
+        <v>0</v>
+      </c>
+      <c r="AS245">
+        <v>0</v>
+      </c>
+      <c r="AT245">
+        <v>0</v>
+      </c>
+      <c r="AU245">
+        <v>0</v>
+      </c>
+      <c r="AV245">
+        <v>0</v>
+      </c>
+      <c r="AW245">
+        <v>0</v>
+      </c>
+      <c r="AX245">
+        <v>0</v>
+      </c>
+      <c r="AY245">
+        <v>0</v>
+      </c>
+      <c r="AZ245">
+        <v>0</v>
+      </c>
+      <c r="BA245">
+        <v>0</v>
+      </c>
+      <c r="BB245">
+        <v>0</v>
+      </c>
+      <c r="BC245">
+        <v>0</v>
+      </c>
+      <c r="BD245">
+        <v>0</v>
+      </c>
+      <c r="BE245">
+        <v>1</v>
+      </c>
+      <c r="BF245">
+        <v>2</v>
+      </c>
+      <c r="BG245">
+        <v>1</v>
+      </c>
+      <c r="BH245">
+        <v>0</v>
+      </c>
+      <c r="BI245">
+        <v>0</v>
+      </c>
+      <c r="BJ245">
+        <v>0</v>
+      </c>
+      <c r="BK245">
+        <v>0</v>
+      </c>
+      <c r="BL245">
+        <v>4</v>
+      </c>
+      <c r="BM245">
+        <v>10</v>
+      </c>
+      <c r="BN245">
+        <v>8</v>
+      </c>
+      <c r="BO245">
+        <v>14</v>
+      </c>
+      <c r="BP245">
+        <v>30</v>
+      </c>
+      <c r="BQ245">
+        <v>69</v>
+      </c>
+      <c r="BR245">
+        <v>114</v>
+      </c>
+      <c r="BS245">
+        <v>233</v>
+      </c>
+      <c r="BT245">
+        <v>478</v>
+      </c>
+      <c r="BU245" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV245" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW245" t="s">
+        <v>598</v>
+      </c>
+      <c r="BX245" t="s">
+        <v>599</v>
+      </c>
+      <c r="BY245" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ245" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA245" t="s">
+        <v>216</v>
+      </c>
+      <c r="CB245" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC245" t="s">
+        <v>217</v>
+      </c>
+      <c r="CD245" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE245" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF245" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>83</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C246" t="s">
+        <v>581</v>
+      </c>
+      <c r="D246" t="s">
+        <v>85</v>
+      </c>
+      <c r="E246" t="s">
+        <v>165</v>
+      </c>
+      <c r="F246" t="s">
+        <v>102</v>
+      </c>
+      <c r="G246" t="s">
+        <v>88</v>
+      </c>
+      <c r="H246" t="s">
+        <v>600</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>0</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+      <c r="AB246">
+        <v>0</v>
+      </c>
+      <c r="AC246">
+        <v>0</v>
+      </c>
+      <c r="AD246">
+        <v>0</v>
+      </c>
+      <c r="AE246">
+        <v>0</v>
+      </c>
+      <c r="AF246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>0</v>
+      </c>
+      <c r="AH246">
+        <v>0</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <v>0</v>
+      </c>
+      <c r="AL246">
+        <v>0</v>
+      </c>
+      <c r="AM246">
+        <v>0</v>
+      </c>
+      <c r="AN246">
+        <v>0</v>
+      </c>
+      <c r="AO246">
+        <v>0</v>
+      </c>
+      <c r="AP246">
+        <v>0</v>
+      </c>
+      <c r="AQ246">
+        <v>0</v>
+      </c>
+      <c r="AR246">
+        <v>0</v>
+      </c>
+      <c r="AS246">
+        <v>0</v>
+      </c>
+      <c r="AT246">
+        <v>0</v>
+      </c>
+      <c r="AU246">
+        <v>0</v>
+      </c>
+      <c r="AV246">
+        <v>0</v>
+      </c>
+      <c r="AW246">
+        <v>0</v>
+      </c>
+      <c r="AX246">
+        <v>0</v>
+      </c>
+      <c r="AY246">
+        <v>0</v>
+      </c>
+      <c r="AZ246">
+        <v>0</v>
+      </c>
+      <c r="BA246">
+        <v>0</v>
+      </c>
+      <c r="BB246">
+        <v>0</v>
+      </c>
+      <c r="BC246">
+        <v>0</v>
+      </c>
+      <c r="BD246">
+        <v>0</v>
+      </c>
+      <c r="BE246">
+        <v>0</v>
+      </c>
+      <c r="BF246">
+        <v>1</v>
+      </c>
+      <c r="BG246">
+        <v>0</v>
+      </c>
+      <c r="BH246">
+        <v>0</v>
+      </c>
+      <c r="BI246">
+        <v>1</v>
+      </c>
+      <c r="BJ246">
+        <v>5</v>
+      </c>
+      <c r="BK246">
+        <v>2</v>
+      </c>
+      <c r="BL246">
+        <v>9</v>
+      </c>
+      <c r="BM246">
+        <v>2</v>
+      </c>
+      <c r="BN246">
+        <v>2</v>
+      </c>
+      <c r="BO246">
+        <v>3</v>
+      </c>
+      <c r="BP246">
+        <v>105</v>
+      </c>
+      <c r="BQ246">
+        <v>151</v>
+      </c>
+      <c r="BR246">
+        <v>300</v>
+      </c>
+      <c r="BS246">
+        <v>434</v>
+      </c>
+      <c r="BT246">
+        <v>997</v>
+      </c>
+      <c r="BU246" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV246" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW246" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX246" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY246" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ246" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA246" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB246" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC246" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD246" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE246" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF246" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="247" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>83</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C247" t="s">
+        <v>581</v>
+      </c>
+      <c r="D247" t="s">
+        <v>85</v>
+      </c>
+      <c r="E247" t="s">
+        <v>255</v>
+      </c>
+      <c r="F247" t="s">
+        <v>102</v>
+      </c>
+      <c r="G247" t="s">
+        <v>88</v>
+      </c>
+      <c r="H247" t="s">
+        <v>601</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>3</v>
+      </c>
+      <c r="P247">
+        <v>8</v>
+      </c>
+      <c r="Q247">
+        <v>4</v>
+      </c>
+      <c r="R247">
+        <v>3</v>
+      </c>
+      <c r="S247">
+        <v>8</v>
+      </c>
+      <c r="T247">
+        <v>15</v>
+      </c>
+      <c r="U247">
+        <v>15</v>
+      </c>
+      <c r="V247">
+        <v>32</v>
+      </c>
+      <c r="W247">
+        <v>90</v>
+      </c>
+      <c r="X247">
+        <v>167</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>0</v>
+      </c>
+      <c r="AH247">
+        <v>0</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
+      <c r="AO247">
+        <v>0</v>
+      </c>
+      <c r="AP247">
+        <v>0</v>
+      </c>
+      <c r="AQ247">
+        <v>0</v>
+      </c>
+      <c r="AR247">
+        <v>0</v>
+      </c>
+      <c r="AS247">
+        <v>0</v>
+      </c>
+      <c r="AT247">
+        <v>0</v>
+      </c>
+      <c r="AU247">
+        <v>0</v>
+      </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
+      <c r="AW247">
+        <v>0</v>
+      </c>
+      <c r="AX247">
+        <v>0</v>
+      </c>
+      <c r="AY247">
+        <v>0</v>
+      </c>
+      <c r="AZ247">
+        <v>1</v>
+      </c>
+      <c r="BA247">
+        <v>0</v>
+      </c>
+      <c r="BB247">
+        <v>0</v>
+      </c>
+      <c r="BC247">
+        <v>2</v>
+      </c>
+      <c r="BD247">
+        <v>3</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>0</v>
+      </c>
+      <c r="BG247">
+        <v>0</v>
+      </c>
+      <c r="BH247">
+        <v>0</v>
+      </c>
+      <c r="BI247">
+        <v>0</v>
+      </c>
+      <c r="BJ247">
+        <v>0</v>
+      </c>
+      <c r="BK247">
+        <v>0</v>
+      </c>
+      <c r="BL247">
+        <v>0</v>
+      </c>
+      <c r="BM247">
+        <v>0</v>
+      </c>
+      <c r="BN247">
+        <v>0</v>
+      </c>
+      <c r="BO247">
+        <v>0</v>
+      </c>
+      <c r="BP247">
+        <v>0</v>
+      </c>
+      <c r="BQ247">
+        <v>0</v>
+      </c>
+      <c r="BR247">
+        <v>0</v>
+      </c>
+      <c r="BS247">
+        <v>0</v>
+      </c>
+      <c r="BT247">
+        <v>0</v>
+      </c>
+      <c r="BU247" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV247" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW247" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX247" t="s">
+        <v>602</v>
+      </c>
+      <c r="BY247" t="s">
+        <v>259</v>
+      </c>
+      <c r="BZ247" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA247" t="s">
+        <v>265</v>
+      </c>
+      <c r="CB247" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC247" t="s">
+        <v>262</v>
+      </c>
+      <c r="CD247" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE247" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF247" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="248" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>83</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C248" t="s">
+        <v>581</v>
+      </c>
+      <c r="D248" t="s">
+        <v>85</v>
+      </c>
+      <c r="E248" t="s">
+        <v>255</v>
+      </c>
+      <c r="F248" t="s">
+        <v>132</v>
+      </c>
+      <c r="G248" t="s">
+        <v>88</v>
+      </c>
+      <c r="H248" t="s">
+        <v>603</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>3</v>
+      </c>
+      <c r="P248">
+        <v>9</v>
+      </c>
+      <c r="Q248">
+        <v>4</v>
+      </c>
+      <c r="R248">
+        <v>4</v>
+      </c>
+      <c r="S248">
+        <v>10</v>
+      </c>
+      <c r="T248">
+        <v>17</v>
+      </c>
+      <c r="U248">
+        <v>16</v>
+      </c>
+      <c r="V248">
+        <v>32</v>
+      </c>
+      <c r="W248">
+        <v>98</v>
+      </c>
+      <c r="X248">
+        <v>181</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>0</v>
+      </c>
+      <c r="AH248">
+        <v>0</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
+      <c r="AO248">
+        <v>0</v>
+      </c>
+      <c r="AP248">
+        <v>0</v>
+      </c>
+      <c r="AQ248">
+        <v>0</v>
+      </c>
+      <c r="AR248">
+        <v>0</v>
+      </c>
+      <c r="AS248">
+        <v>0</v>
+      </c>
+      <c r="AT248">
+        <v>0</v>
+      </c>
+      <c r="AU248">
+        <v>0</v>
+      </c>
+      <c r="AV248">
+        <v>0</v>
+      </c>
+      <c r="AW248">
+        <v>0</v>
+      </c>
+      <c r="AX248">
+        <v>0</v>
+      </c>
+      <c r="AY248">
+        <v>1</v>
+      </c>
+      <c r="AZ248">
+        <v>0</v>
+      </c>
+      <c r="BA248">
+        <v>0</v>
+      </c>
+      <c r="BB248">
+        <v>5</v>
+      </c>
+      <c r="BC248">
+        <v>17</v>
+      </c>
+      <c r="BD248">
+        <v>23</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>0</v>
+      </c>
+      <c r="BG248">
+        <v>6</v>
+      </c>
+      <c r="BH248">
+        <v>0</v>
+      </c>
+      <c r="BI248">
+        <v>1</v>
+      </c>
+      <c r="BJ248">
+        <v>0</v>
+      </c>
+      <c r="BK248">
+        <v>0</v>
+      </c>
+      <c r="BL248">
+        <v>7</v>
+      </c>
+      <c r="BM248">
+        <v>15</v>
+      </c>
+      <c r="BN248">
+        <v>19</v>
+      </c>
+      <c r="BO248">
+        <v>47</v>
+      </c>
+      <c r="BP248">
+        <v>66</v>
+      </c>
+      <c r="BQ248">
+        <v>66</v>
+      </c>
+      <c r="BR248">
+        <v>80</v>
+      </c>
+      <c r="BS248">
+        <v>159</v>
+      </c>
+      <c r="BT248">
+        <v>452</v>
+      </c>
+      <c r="BU248" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV248" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW248" t="s">
+        <v>257</v>
+      </c>
+      <c r="BX248" t="s">
+        <v>258</v>
+      </c>
+      <c r="BY248" t="s">
+        <v>259</v>
+      </c>
+      <c r="BZ248" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA248" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB248" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC248" t="s">
+        <v>262</v>
+      </c>
+      <c r="CD248" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE248" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF248" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="249" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>83</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C249" t="s">
+        <v>581</v>
+      </c>
+      <c r="D249" t="s">
+        <v>85</v>
+      </c>
+      <c r="E249" t="s">
+        <v>233</v>
+      </c>
+      <c r="F249" t="s">
+        <v>102</v>
+      </c>
+      <c r="G249" t="s">
+        <v>88</v>
+      </c>
+      <c r="H249" t="s">
+        <v>604</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>1</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>5</v>
+      </c>
+      <c r="X249">
+        <v>6</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>0</v>
+      </c>
+      <c r="AD249">
+        <v>0</v>
+      </c>
+      <c r="AE249">
+        <v>0</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>0</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <v>0</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
+      <c r="AO249">
+        <v>0</v>
+      </c>
+      <c r="AP249">
+        <v>0</v>
+      </c>
+      <c r="AQ249">
+        <v>0</v>
+      </c>
+      <c r="AR249">
+        <v>0</v>
+      </c>
+      <c r="AS249">
+        <v>0</v>
+      </c>
+      <c r="AT249">
+        <v>0</v>
+      </c>
+      <c r="AU249">
+        <v>0</v>
+      </c>
+      <c r="AV249">
+        <v>0</v>
+      </c>
+      <c r="AW249">
+        <v>0</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>0</v>
+      </c>
+      <c r="AZ249">
+        <v>0</v>
+      </c>
+      <c r="BA249">
+        <v>0</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>0</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>1</v>
+      </c>
+      <c r="BG249">
+        <v>3</v>
+      </c>
+      <c r="BH249">
+        <v>2</v>
+      </c>
+      <c r="BI249">
+        <v>10</v>
+      </c>
+      <c r="BJ249">
+        <v>19</v>
+      </c>
+      <c r="BK249">
+        <v>4</v>
+      </c>
+      <c r="BL249">
+        <v>39</v>
+      </c>
+      <c r="BM249">
+        <v>4</v>
+      </c>
+      <c r="BN249">
+        <v>3</v>
+      </c>
+      <c r="BO249">
+        <v>12</v>
+      </c>
+      <c r="BP249">
+        <v>57</v>
+      </c>
+      <c r="BQ249">
+        <v>176</v>
+      </c>
+      <c r="BR249">
+        <v>207</v>
+      </c>
+      <c r="BS249">
+        <v>264</v>
+      </c>
+      <c r="BT249">
+        <v>723</v>
+      </c>
+      <c r="BU249" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV249" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW249" t="s">
+        <v>235</v>
+      </c>
+      <c r="BX249" t="s">
+        <v>236</v>
+      </c>
+      <c r="BY249" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ249" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA249" t="s">
+        <v>238</v>
+      </c>
+      <c r="CB249" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC249" t="s">
+        <v>239</v>
+      </c>
+      <c r="CD249" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE249" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF249" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>83</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C250" t="s">
+        <v>581</v>
+      </c>
+      <c r="D250" t="s">
+        <v>85</v>
+      </c>
+      <c r="E250" t="s">
+        <v>203</v>
+      </c>
+      <c r="F250" t="s">
+        <v>102</v>
+      </c>
+      <c r="G250" t="s">
+        <v>88</v>
+      </c>
+      <c r="H250" t="s">
+        <v>605</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+      <c r="AD250">
+        <v>0</v>
+      </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
+      <c r="AO250">
+        <v>0</v>
+      </c>
+      <c r="AP250">
+        <v>0</v>
+      </c>
+      <c r="AQ250">
+        <v>0</v>
+      </c>
+      <c r="AR250">
+        <v>0</v>
+      </c>
+      <c r="AS250">
+        <v>0</v>
+      </c>
+      <c r="AT250">
+        <v>0</v>
+      </c>
+      <c r="AU250">
+        <v>0</v>
+      </c>
+      <c r="AV250">
+        <v>0</v>
+      </c>
+      <c r="AW250">
+        <v>0</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
+      <c r="AZ250">
+        <v>0</v>
+      </c>
+      <c r="BA250">
+        <v>0</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>0</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>3</v>
+      </c>
+      <c r="BF250">
+        <v>0</v>
+      </c>
+      <c r="BG250">
+        <v>6</v>
+      </c>
+      <c r="BH250">
+        <v>20</v>
+      </c>
+      <c r="BI250">
+        <v>5</v>
+      </c>
+      <c r="BJ250">
+        <v>8</v>
+      </c>
+      <c r="BK250">
+        <v>16</v>
+      </c>
+      <c r="BL250">
+        <v>58</v>
+      </c>
+      <c r="BM250">
+        <v>3</v>
+      </c>
+      <c r="BN250">
+        <v>0</v>
+      </c>
+      <c r="BO250">
+        <v>6</v>
+      </c>
+      <c r="BP250">
+        <v>20</v>
+      </c>
+      <c r="BQ250">
+        <v>5</v>
+      </c>
+      <c r="BR250">
+        <v>8</v>
+      </c>
+      <c r="BS250">
+        <v>16</v>
+      </c>
+      <c r="BT250">
+        <v>58</v>
+      </c>
+      <c r="BU250" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV250" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW250" t="s">
+        <v>205</v>
+      </c>
+      <c r="BX250" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY250" t="s">
+        <v>550</v>
+      </c>
+      <c r="BZ250" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA250" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB250" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC250" t="s">
+        <v>210</v>
+      </c>
+      <c r="CD250" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE250" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF250" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="251" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>83</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C251" t="s">
+        <v>581</v>
+      </c>
+      <c r="D251" t="s">
+        <v>85</v>
+      </c>
+      <c r="E251" t="s">
+        <v>267</v>
+      </c>
+      <c r="F251" t="s">
+        <v>132</v>
+      </c>
+      <c r="G251" t="s">
+        <v>88</v>
+      </c>
+      <c r="H251" t="s">
+        <v>581</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+      <c r="AB251">
+        <v>0</v>
+      </c>
+      <c r="AC251">
+        <v>0</v>
+      </c>
+      <c r="AD251">
+        <v>0</v>
+      </c>
+      <c r="AE251">
+        <v>0</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>0</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>0</v>
+      </c>
+      <c r="AM251">
+        <v>0</v>
+      </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
+      <c r="AO251">
+        <v>0</v>
+      </c>
+      <c r="AP251">
+        <v>0</v>
+      </c>
+      <c r="AQ251">
+        <v>0</v>
+      </c>
+      <c r="AR251">
+        <v>0</v>
+      </c>
+      <c r="AS251">
+        <v>0</v>
+      </c>
+      <c r="AT251">
+        <v>0</v>
+      </c>
+      <c r="AU251">
+        <v>0</v>
+      </c>
+      <c r="AV251">
+        <v>0</v>
+      </c>
+      <c r="AW251">
+        <v>0</v>
+      </c>
+      <c r="AX251">
+        <v>0</v>
+      </c>
+      <c r="AY251">
+        <v>0</v>
+      </c>
+      <c r="AZ251">
+        <v>0</v>
+      </c>
+      <c r="BA251">
+        <v>0</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>0</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>0</v>
+      </c>
+      <c r="BG251">
+        <v>1</v>
+      </c>
+      <c r="BH251">
+        <v>2</v>
+      </c>
+      <c r="BI251">
+        <v>1</v>
+      </c>
+      <c r="BJ251">
+        <v>1</v>
+      </c>
+      <c r="BK251">
+        <v>0</v>
+      </c>
+      <c r="BL251">
+        <v>5</v>
+      </c>
+      <c r="BM251">
+        <v>25</v>
+      </c>
+      <c r="BN251">
+        <v>13</v>
+      </c>
+      <c r="BO251">
+        <v>43</v>
+      </c>
+      <c r="BP251">
+        <v>287</v>
+      </c>
+      <c r="BQ251">
+        <v>806</v>
+      </c>
+      <c r="BR251">
+        <v>731</v>
+      </c>
+      <c r="BS251">
+        <v>686</v>
+      </c>
+      <c r="BT251">
+        <v>2591</v>
+      </c>
+      <c r="BU251" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV251" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW251" t="s">
+        <v>606</v>
+      </c>
+      <c r="BX251" t="s">
+        <v>607</v>
+      </c>
+      <c r="BY251" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ251" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA251" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB251" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC251" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD251" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE251" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF251" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="252" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>83</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C252" t="s">
+        <v>581</v>
+      </c>
+      <c r="D252" t="s">
+        <v>85</v>
+      </c>
+      <c r="E252" t="s">
+        <v>247</v>
+      </c>
+      <c r="F252" t="s">
+        <v>102</v>
+      </c>
+      <c r="G252" t="s">
+        <v>88</v>
+      </c>
+      <c r="H252" t="s">
+        <v>502</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+      <c r="AB252">
+        <v>0</v>
+      </c>
+      <c r="AC252">
+        <v>0</v>
+      </c>
+      <c r="AD252">
+        <v>0</v>
+      </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>0</v>
+      </c>
+      <c r="AH252">
+        <v>0</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
+      <c r="AL252">
+        <v>0</v>
+      </c>
+      <c r="AM252">
+        <v>0</v>
+      </c>
+      <c r="AN252">
+        <v>0</v>
+      </c>
+      <c r="AO252">
+        <v>0</v>
+      </c>
+      <c r="AP252">
+        <v>0</v>
+      </c>
+      <c r="AQ252">
+        <v>0</v>
+      </c>
+      <c r="AR252">
+        <v>0</v>
+      </c>
+      <c r="AS252">
+        <v>0</v>
+      </c>
+      <c r="AT252">
+        <v>0</v>
+      </c>
+      <c r="AU252">
+        <v>0</v>
+      </c>
+      <c r="AV252">
+        <v>0</v>
+      </c>
+      <c r="AW252">
+        <v>0</v>
+      </c>
+      <c r="AX252">
+        <v>0</v>
+      </c>
+      <c r="AY252">
+        <v>0</v>
+      </c>
+      <c r="AZ252">
+        <v>0</v>
+      </c>
+      <c r="BA252">
+        <v>0</v>
+      </c>
+      <c r="BB252">
+        <v>0</v>
+      </c>
+      <c r="BC252">
+        <v>0</v>
+      </c>
+      <c r="BD252">
+        <v>0</v>
+      </c>
+      <c r="BE252">
+        <v>39</v>
+      </c>
+      <c r="BF252">
+        <v>50</v>
+      </c>
+      <c r="BG252">
+        <v>190</v>
+      </c>
+      <c r="BH252">
+        <v>276</v>
+      </c>
+      <c r="BI252">
+        <v>282</v>
+      </c>
+      <c r="BJ252">
+        <v>316</v>
+      </c>
+      <c r="BK252">
+        <v>1297</v>
+      </c>
+      <c r="BL252">
+        <v>2450</v>
+      </c>
+      <c r="BM252">
+        <v>39</v>
+      </c>
+      <c r="BN252">
+        <v>50</v>
+      </c>
+      <c r="BO252">
+        <v>190</v>
+      </c>
+      <c r="BP252">
+        <v>276</v>
+      </c>
+      <c r="BQ252">
+        <v>282</v>
+      </c>
+      <c r="BR252">
+        <v>316</v>
+      </c>
+      <c r="BS252">
+        <v>1297</v>
+      </c>
+      <c r="BT252">
+        <v>2450</v>
+      </c>
+      <c r="BU252" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV252" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW252" t="s">
+        <v>608</v>
+      </c>
+      <c r="BX252" t="s">
+        <v>609</v>
+      </c>
+      <c r="BY252" t="s">
+        <v>251</v>
+      </c>
+      <c r="BZ252" t="s">
+        <v>610</v>
+      </c>
+      <c r="CA252" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB252" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC252" t="s">
+        <v>254</v>
+      </c>
+      <c r="CD252" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE252" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF252" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="253" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>83</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C253" t="s">
+        <v>581</v>
+      </c>
+      <c r="D253" t="s">
+        <v>85</v>
+      </c>
+      <c r="E253" t="s">
+        <v>187</v>
+      </c>
+      <c r="F253" t="s">
+        <v>102</v>
+      </c>
+      <c r="G253" t="s">
+        <v>88</v>
+      </c>
+      <c r="H253" t="s">
+        <v>611</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+      <c r="AB253">
+        <v>0</v>
+      </c>
+      <c r="AC253">
+        <v>0</v>
+      </c>
+      <c r="AD253">
+        <v>0</v>
+      </c>
+      <c r="AE253">
+        <v>0</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>0</v>
+      </c>
+      <c r="AH253">
+        <v>0</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <v>0</v>
+      </c>
+      <c r="AL253">
+        <v>0</v>
+      </c>
+      <c r="AM253">
+        <v>0</v>
+      </c>
+      <c r="AN253">
+        <v>0</v>
+      </c>
+      <c r="AO253">
+        <v>0</v>
+      </c>
+      <c r="AP253">
+        <v>0</v>
+      </c>
+      <c r="AQ253">
+        <v>0</v>
+      </c>
+      <c r="AR253">
+        <v>0</v>
+      </c>
+      <c r="AS253">
+        <v>0</v>
+      </c>
+      <c r="AT253">
+        <v>0</v>
+      </c>
+      <c r="AU253">
+        <v>0</v>
+      </c>
+      <c r="AV253">
+        <v>0</v>
+      </c>
+      <c r="AW253">
+        <v>0</v>
+      </c>
+      <c r="AX253">
+        <v>0</v>
+      </c>
+      <c r="AY253">
+        <v>0</v>
+      </c>
+      <c r="AZ253">
+        <v>0</v>
+      </c>
+      <c r="BA253">
+        <v>0</v>
+      </c>
+      <c r="BB253">
+        <v>0</v>
+      </c>
+      <c r="BC253">
+        <v>0</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>0</v>
+      </c>
+      <c r="BG253">
+        <v>1</v>
+      </c>
+      <c r="BH253">
+        <v>0</v>
+      </c>
+      <c r="BI253">
+        <v>0</v>
+      </c>
+      <c r="BJ253">
+        <v>0</v>
+      </c>
+      <c r="BK253">
+        <v>0</v>
+      </c>
+      <c r="BL253">
+        <v>1</v>
+      </c>
+      <c r="BM253">
+        <v>2</v>
+      </c>
+      <c r="BN253">
+        <v>3</v>
+      </c>
+      <c r="BO253">
+        <v>4</v>
+      </c>
+      <c r="BP253">
+        <v>7</v>
+      </c>
+      <c r="BQ253">
+        <v>26</v>
+      </c>
+      <c r="BR253">
+        <v>24</v>
+      </c>
+      <c r="BS253">
+        <v>43</v>
+      </c>
+      <c r="BT253">
+        <v>109</v>
+      </c>
+      <c r="BU253" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV253" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW253" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX253" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY253" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ253" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA253" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB253" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC253" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD253" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE253" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF253" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>83</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C254" t="s">
+        <v>581</v>
+      </c>
+      <c r="D254" t="s">
+        <v>85</v>
+      </c>
+      <c r="E254" t="s">
+        <v>187</v>
+      </c>
+      <c r="F254" t="s">
+        <v>102</v>
+      </c>
+      <c r="G254" t="s">
+        <v>88</v>
+      </c>
+      <c r="H254" t="s">
+        <v>612</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+      <c r="AB254">
+        <v>0</v>
+      </c>
+      <c r="AC254">
+        <v>0</v>
+      </c>
+      <c r="AD254">
+        <v>0</v>
+      </c>
+      <c r="AE254">
+        <v>0</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>0</v>
+      </c>
+      <c r="AH254">
+        <v>0</v>
+      </c>
+      <c r="AI254">
+        <v>0</v>
+      </c>
+      <c r="AJ254">
+        <v>0</v>
+      </c>
+      <c r="AK254">
+        <v>0</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>0</v>
+      </c>
+      <c r="AN254">
+        <v>0</v>
+      </c>
+      <c r="AO254">
+        <v>0</v>
+      </c>
+      <c r="AP254">
+        <v>0</v>
+      </c>
+      <c r="AQ254">
+        <v>0</v>
+      </c>
+      <c r="AR254">
+        <v>0</v>
+      </c>
+      <c r="AS254">
+        <v>0</v>
+      </c>
+      <c r="AT254">
+        <v>0</v>
+      </c>
+      <c r="AU254">
+        <v>0</v>
+      </c>
+      <c r="AV254">
+        <v>0</v>
+      </c>
+      <c r="AW254">
+        <v>0</v>
+      </c>
+      <c r="AX254">
+        <v>0</v>
+      </c>
+      <c r="AY254">
+        <v>0</v>
+      </c>
+      <c r="AZ254">
+        <v>0</v>
+      </c>
+      <c r="BA254">
+        <v>0</v>
+      </c>
+      <c r="BB254">
+        <v>0</v>
+      </c>
+      <c r="BC254">
+        <v>0</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>0</v>
+      </c>
+      <c r="BG254">
+        <v>1</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>0</v>
+      </c>
+      <c r="BJ254">
+        <v>0</v>
+      </c>
+      <c r="BK254">
+        <v>0</v>
+      </c>
+      <c r="BL254">
+        <v>1</v>
+      </c>
+      <c r="BM254">
+        <v>2</v>
+      </c>
+      <c r="BN254">
+        <v>3</v>
+      </c>
+      <c r="BO254">
+        <v>4</v>
+      </c>
+      <c r="BP254">
+        <v>7</v>
+      </c>
+      <c r="BQ254">
+        <v>26</v>
+      </c>
+      <c r="BR254">
+        <v>24</v>
+      </c>
+      <c r="BS254">
+        <v>43</v>
+      </c>
+      <c r="BT254">
+        <v>109</v>
+      </c>
+      <c r="BU254" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV254" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW254" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX254" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY254" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ254" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA254" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB254" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC254" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD254" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE254" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF254" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="255" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>83</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C255" t="s">
+        <v>581</v>
+      </c>
+      <c r="D255" t="s">
+        <v>85</v>
+      </c>
+      <c r="E255" t="s">
+        <v>115</v>
+      </c>
+      <c r="F255" t="s">
+        <v>172</v>
+      </c>
+      <c r="G255" t="s">
+        <v>88</v>
+      </c>
+      <c r="H255" t="s">
+        <v>321</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+      <c r="AB255">
+        <v>0</v>
+      </c>
+      <c r="AC255">
+        <v>0</v>
+      </c>
+      <c r="AD255">
+        <v>0</v>
+      </c>
+      <c r="AE255">
+        <v>0</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>0</v>
+      </c>
+      <c r="AI255">
+        <v>0</v>
+      </c>
+      <c r="AJ255">
+        <v>0</v>
+      </c>
+      <c r="AK255">
+        <v>0</v>
+      </c>
+      <c r="AL255">
+        <v>0</v>
+      </c>
+      <c r="AM255">
+        <v>0</v>
+      </c>
+      <c r="AN255">
+        <v>0</v>
+      </c>
+      <c r="AO255">
+        <v>0</v>
+      </c>
+      <c r="AP255">
+        <v>0</v>
+      </c>
+      <c r="AQ255">
+        <v>0</v>
+      </c>
+      <c r="AR255">
+        <v>0</v>
+      </c>
+      <c r="AS255">
+        <v>0</v>
+      </c>
+      <c r="AT255">
+        <v>0</v>
+      </c>
+      <c r="AU255">
+        <v>0</v>
+      </c>
+      <c r="AV255">
+        <v>0</v>
+      </c>
+      <c r="AW255">
+        <v>0</v>
+      </c>
+      <c r="AX255">
+        <v>0</v>
+      </c>
+      <c r="AY255">
+        <v>0</v>
+      </c>
+      <c r="AZ255">
+        <v>0</v>
+      </c>
+      <c r="BA255">
+        <v>0</v>
+      </c>
+      <c r="BB255">
+        <v>0</v>
+      </c>
+      <c r="BC255">
+        <v>0</v>
+      </c>
+      <c r="BD255">
+        <v>0</v>
+      </c>
+      <c r="BE255">
+        <v>0</v>
+      </c>
+      <c r="BF255">
+        <v>0</v>
+      </c>
+      <c r="BG255">
+        <v>0</v>
+      </c>
+      <c r="BH255">
+        <v>0</v>
+      </c>
+      <c r="BI255">
+        <v>0</v>
+      </c>
+      <c r="BJ255">
+        <v>0</v>
+      </c>
+      <c r="BK255">
+        <v>1</v>
+      </c>
+      <c r="BL255">
+        <v>1</v>
+      </c>
+      <c r="BM255">
+        <v>3</v>
+      </c>
+      <c r="BN255">
+        <v>2</v>
+      </c>
+      <c r="BO255">
+        <v>0</v>
+      </c>
+      <c r="BP255">
+        <v>5</v>
+      </c>
+      <c r="BQ255">
+        <v>88</v>
+      </c>
+      <c r="BR255">
+        <v>57</v>
+      </c>
+      <c r="BS255">
+        <v>12</v>
+      </c>
+      <c r="BT255">
+        <v>167</v>
+      </c>
+      <c r="BU255" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV255" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW255" t="s">
+        <v>174</v>
+      </c>
+      <c r="BX255" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY255" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ255" t="s">
+        <v>331</v>
+      </c>
+      <c r="CA255" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB255" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC255" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD255" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE255" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF255" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="256" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>83</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C256" t="s">
+        <v>581</v>
+      </c>
+      <c r="D256" t="s">
+        <v>85</v>
+      </c>
+      <c r="E256" t="s">
+        <v>86</v>
+      </c>
+      <c r="F256" t="s">
+        <v>87</v>
+      </c>
+      <c r="G256" t="s">
+        <v>88</v>
+      </c>
+      <c r="H256" t="s">
+        <v>613</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+      <c r="AB256">
+        <v>0</v>
+      </c>
+      <c r="AC256">
+        <v>0</v>
+      </c>
+      <c r="AD256">
+        <v>0</v>
+      </c>
+      <c r="AE256">
+        <v>0</v>
+      </c>
+      <c r="AF256">
+        <v>0</v>
+      </c>
+      <c r="AG256">
+        <v>0</v>
+      </c>
+      <c r="AH256">
+        <v>0</v>
+      </c>
+      <c r="AI256">
+        <v>0</v>
+      </c>
+      <c r="AJ256">
+        <v>0</v>
+      </c>
+      <c r="AK256">
+        <v>0</v>
+      </c>
+      <c r="AL256">
+        <v>0</v>
+      </c>
+      <c r="AM256">
+        <v>0</v>
+      </c>
+      <c r="AN256">
+        <v>0</v>
+      </c>
+      <c r="AO256">
+        <v>0</v>
+      </c>
+      <c r="AP256">
+        <v>0</v>
+      </c>
+      <c r="AQ256">
+        <v>0</v>
+      </c>
+      <c r="AR256">
+        <v>0</v>
+      </c>
+      <c r="AS256">
+        <v>0</v>
+      </c>
+      <c r="AT256">
+        <v>0</v>
+      </c>
+      <c r="AU256">
+        <v>0</v>
+      </c>
+      <c r="AV256">
+        <v>0</v>
+      </c>
+      <c r="AW256">
+        <v>0</v>
+      </c>
+      <c r="AX256">
+        <v>0</v>
+      </c>
+      <c r="AY256">
+        <v>0</v>
+      </c>
+      <c r="AZ256">
+        <v>0</v>
+      </c>
+      <c r="BA256">
+        <v>0</v>
+      </c>
+      <c r="BB256">
+        <v>0</v>
+      </c>
+      <c r="BC256">
+        <v>0</v>
+      </c>
+      <c r="BD256">
+        <v>0</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>0</v>
+      </c>
+      <c r="BG256">
+        <v>0</v>
+      </c>
+      <c r="BH256">
+        <v>0</v>
+      </c>
+      <c r="BI256">
+        <v>4</v>
+      </c>
+      <c r="BJ256">
+        <v>0</v>
+      </c>
+      <c r="BK256">
+        <v>0</v>
+      </c>
+      <c r="BL256">
+        <v>4</v>
+      </c>
+      <c r="BM256">
+        <v>0</v>
+      </c>
+      <c r="BN256">
+        <v>0</v>
+      </c>
+      <c r="BO256">
+        <v>0</v>
+      </c>
+      <c r="BP256">
+        <v>0</v>
+      </c>
+      <c r="BQ256">
+        <v>4</v>
+      </c>
+      <c r="BR256">
+        <v>0</v>
+      </c>
+      <c r="BS256">
+        <v>0</v>
+      </c>
+      <c r="BT256">
+        <v>4</v>
+      </c>
+      <c r="BU256" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV256" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW256" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX256" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY256" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ256" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA256" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB256" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC256" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD256" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE256" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF256" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="257" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>83</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C257" t="s">
+        <v>581</v>
+      </c>
+      <c r="D257" t="s">
+        <v>85</v>
+      </c>
+      <c r="E257" t="s">
+        <v>180</v>
+      </c>
+      <c r="F257" t="s">
+        <v>145</v>
+      </c>
+      <c r="G257" t="s">
+        <v>88</v>
+      </c>
+      <c r="H257" t="s">
+        <v>416</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+      <c r="AB257">
+        <v>0</v>
+      </c>
+      <c r="AC257">
+        <v>0</v>
+      </c>
+      <c r="AD257">
+        <v>0</v>
+      </c>
+      <c r="AE257">
+        <v>0</v>
+      </c>
+      <c r="AF257">
+        <v>0</v>
+      </c>
+      <c r="AG257">
+        <v>0</v>
+      </c>
+      <c r="AH257">
+        <v>0</v>
+      </c>
+      <c r="AI257">
+        <v>0</v>
+      </c>
+      <c r="AJ257">
+        <v>0</v>
+      </c>
+      <c r="AK257">
+        <v>0</v>
+      </c>
+      <c r="AL257">
+        <v>0</v>
+      </c>
+      <c r="AM257">
+        <v>0</v>
+      </c>
+      <c r="AN257">
+        <v>0</v>
+      </c>
+      <c r="AO257">
+        <v>0</v>
+      </c>
+      <c r="AP257">
+        <v>0</v>
+      </c>
+      <c r="AQ257">
+        <v>0</v>
+      </c>
+      <c r="AR257">
+        <v>0</v>
+      </c>
+      <c r="AS257">
+        <v>0</v>
+      </c>
+      <c r="AT257">
+        <v>0</v>
+      </c>
+      <c r="AU257">
+        <v>0</v>
+      </c>
+      <c r="AV257">
+        <v>0</v>
+      </c>
+      <c r="AW257">
+        <v>0</v>
+      </c>
+      <c r="AX257">
+        <v>0</v>
+      </c>
+      <c r="AY257">
+        <v>0</v>
+      </c>
+      <c r="AZ257">
+        <v>0</v>
+      </c>
+      <c r="BA257">
+        <v>0</v>
+      </c>
+      <c r="BB257">
+        <v>0</v>
+      </c>
+      <c r="BC257">
+        <v>0</v>
+      </c>
+      <c r="BD257">
+        <v>0</v>
+      </c>
+      <c r="BE257">
+        <v>1</v>
+      </c>
+      <c r="BF257">
+        <v>1</v>
+      </c>
+      <c r="BG257">
+        <v>1</v>
+      </c>
+      <c r="BH257">
+        <v>2</v>
+      </c>
+      <c r="BI257">
+        <v>10</v>
+      </c>
+      <c r="BJ257">
+        <v>3</v>
+      </c>
+      <c r="BK257">
+        <v>4</v>
+      </c>
+      <c r="BL257">
+        <v>22</v>
+      </c>
+      <c r="BM257">
+        <v>6</v>
+      </c>
+      <c r="BN257">
+        <v>5</v>
+      </c>
+      <c r="BO257">
+        <v>32</v>
+      </c>
+      <c r="BP257">
+        <v>171</v>
+      </c>
+      <c r="BQ257">
+        <v>648</v>
+      </c>
+      <c r="BR257">
+        <v>1063</v>
+      </c>
+      <c r="BS257">
+        <v>3232</v>
+      </c>
+      <c r="BT257">
+        <v>5157</v>
+      </c>
+      <c r="BU257" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV257" s="1">
+        <v>44620</v>
+      </c>
+      <c r="BW257" t="s">
+        <v>614</v>
+      </c>
+      <c r="BX257" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY257" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ257" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA257" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB257" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC257" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD257" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE257" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF257" t="s">
         <v>397</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE7457B-34BF-254C-985A-CD4CE8D6B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D7724C-51A6-0347-9E9E-7DDA55104DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5394" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="681">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1957,6 +1957,111 @@
     <t>LEIJGUTIERRE@COLSANITAS.COM</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>LINA MARCELA HENAO</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>SALUDPUBLICACMPEREIRA@COLS.COM</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MARIA MORALESG</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>FLORELBA@SALUDPEREIRAGOV.CO</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>2486</t>
+  </si>
+  <si>
+    <t>JANETH OROZCO</t>
+  </si>
+  <si>
+    <t>6063515252</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>JANETH MILEAN ROZCO</t>
+  </si>
+  <si>
+    <t>2489</t>
+  </si>
+  <si>
+    <t>2490</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>GLORIA  SULAY GONZALEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>ENFERMERA DE INFECCIONES Y VI</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>3155442080</t>
+  </si>
+  <si>
+    <t>3175564435</t>
+  </si>
+  <si>
+    <t>JUAN.SANCHEZ@GRUPOEMI.COM</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>LUZ..ESCOBAR@IDIME.COM</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1964,10 +2069,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1990,9 +2100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF296"/>
+  <dimension ref="A1:CF332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2393,8 +2504,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>645</v>
+      <c r="D1" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -77565,6 +77676,9150 @@
       </c>
       <c r="CF296" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="297" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>83</v>
+      </c>
+      <c r="B297" s="1">
+        <v>44631</v>
+      </c>
+      <c r="C297" t="s">
+        <v>113</v>
+      </c>
+      <c r="D297" t="s">
+        <v>85</v>
+      </c>
+      <c r="E297" t="s">
+        <v>278</v>
+      </c>
+      <c r="F297" t="s">
+        <v>102</v>
+      </c>
+      <c r="G297" t="s">
+        <v>88</v>
+      </c>
+      <c r="H297" t="s">
+        <v>645</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <v>0</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>0</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
+      </c>
+      <c r="AB297">
+        <v>0</v>
+      </c>
+      <c r="AC297">
+        <v>0</v>
+      </c>
+      <c r="AD297">
+        <v>0</v>
+      </c>
+      <c r="AE297">
+        <v>0</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>0</v>
+      </c>
+      <c r="AH297">
+        <v>0</v>
+      </c>
+      <c r="AI297">
+        <v>0</v>
+      </c>
+      <c r="AJ297">
+        <v>0</v>
+      </c>
+      <c r="AK297">
+        <v>0</v>
+      </c>
+      <c r="AL297">
+        <v>0</v>
+      </c>
+      <c r="AM297">
+        <v>0</v>
+      </c>
+      <c r="AN297">
+        <v>0</v>
+      </c>
+      <c r="AO297">
+        <v>0</v>
+      </c>
+      <c r="AP297">
+        <v>0</v>
+      </c>
+      <c r="AQ297">
+        <v>0</v>
+      </c>
+      <c r="AR297">
+        <v>0</v>
+      </c>
+      <c r="AS297">
+        <v>0</v>
+      </c>
+      <c r="AT297">
+        <v>0</v>
+      </c>
+      <c r="AU297">
+        <v>0</v>
+      </c>
+      <c r="AV297">
+        <v>0</v>
+      </c>
+      <c r="AW297">
+        <v>0</v>
+      </c>
+      <c r="AX297">
+        <v>0</v>
+      </c>
+      <c r="AY297">
+        <v>0</v>
+      </c>
+      <c r="AZ297">
+        <v>0</v>
+      </c>
+      <c r="BA297">
+        <v>0</v>
+      </c>
+      <c r="BB297">
+        <v>0</v>
+      </c>
+      <c r="BC297">
+        <v>0</v>
+      </c>
+      <c r="BD297">
+        <v>0</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>0</v>
+      </c>
+      <c r="BG297">
+        <v>0</v>
+      </c>
+      <c r="BH297">
+        <v>0</v>
+      </c>
+      <c r="BI297">
+        <v>2</v>
+      </c>
+      <c r="BJ297">
+        <v>1</v>
+      </c>
+      <c r="BK297">
+        <v>2</v>
+      </c>
+      <c r="BL297">
+        <v>5</v>
+      </c>
+      <c r="BM297">
+        <v>0</v>
+      </c>
+      <c r="BN297">
+        <v>0</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <v>0</v>
+      </c>
+      <c r="BQ297">
+        <v>2</v>
+      </c>
+      <c r="BR297">
+        <v>1</v>
+      </c>
+      <c r="BS297">
+        <v>2</v>
+      </c>
+      <c r="BT297">
+        <v>5</v>
+      </c>
+      <c r="BU297" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV297" s="1">
+        <v>44631</v>
+      </c>
+      <c r="BW297" t="s">
+        <v>646</v>
+      </c>
+      <c r="BX297" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY297" t="s">
+        <v>281</v>
+      </c>
+      <c r="BZ297" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA297" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB297" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC297" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD297" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE297" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF297" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="298" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>83</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C298" t="s">
+        <v>113</v>
+      </c>
+      <c r="D298" t="s">
+        <v>85</v>
+      </c>
+      <c r="E298" t="s">
+        <v>268</v>
+      </c>
+      <c r="F298" t="s">
+        <v>102</v>
+      </c>
+      <c r="G298" t="s">
+        <v>88</v>
+      </c>
+      <c r="H298" t="s">
+        <v>647</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>0</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>0</v>
+      </c>
+      <c r="AB298">
+        <v>0</v>
+      </c>
+      <c r="AC298">
+        <v>0</v>
+      </c>
+      <c r="AD298">
+        <v>0</v>
+      </c>
+      <c r="AE298">
+        <v>0</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>0</v>
+      </c>
+      <c r="AH298">
+        <v>0</v>
+      </c>
+      <c r="AI298">
+        <v>0</v>
+      </c>
+      <c r="AJ298">
+        <v>0</v>
+      </c>
+      <c r="AK298">
+        <v>0</v>
+      </c>
+      <c r="AL298">
+        <v>0</v>
+      </c>
+      <c r="AM298">
+        <v>0</v>
+      </c>
+      <c r="AN298">
+        <v>0</v>
+      </c>
+      <c r="AO298">
+        <v>0</v>
+      </c>
+      <c r="AP298">
+        <v>0</v>
+      </c>
+      <c r="AQ298">
+        <v>0</v>
+      </c>
+      <c r="AR298">
+        <v>0</v>
+      </c>
+      <c r="AS298">
+        <v>0</v>
+      </c>
+      <c r="AT298">
+        <v>0</v>
+      </c>
+      <c r="AU298">
+        <v>0</v>
+      </c>
+      <c r="AV298">
+        <v>0</v>
+      </c>
+      <c r="AW298">
+        <v>0</v>
+      </c>
+      <c r="AX298">
+        <v>0</v>
+      </c>
+      <c r="AY298">
+        <v>0</v>
+      </c>
+      <c r="AZ298">
+        <v>0</v>
+      </c>
+      <c r="BA298">
+        <v>0</v>
+      </c>
+      <c r="BB298">
+        <v>0</v>
+      </c>
+      <c r="BC298">
+        <v>0</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>3</v>
+      </c>
+      <c r="BF298">
+        <v>0</v>
+      </c>
+      <c r="BG298">
+        <v>4</v>
+      </c>
+      <c r="BH298">
+        <v>3</v>
+      </c>
+      <c r="BI298">
+        <v>8</v>
+      </c>
+      <c r="BJ298">
+        <v>6</v>
+      </c>
+      <c r="BK298">
+        <v>2</v>
+      </c>
+      <c r="BL298">
+        <v>26</v>
+      </c>
+      <c r="BM298">
+        <v>32</v>
+      </c>
+      <c r="BN298">
+        <v>67</v>
+      </c>
+      <c r="BO298">
+        <v>130</v>
+      </c>
+      <c r="BP298">
+        <v>677</v>
+      </c>
+      <c r="BQ298">
+        <v>1757</v>
+      </c>
+      <c r="BR298">
+        <v>1413</v>
+      </c>
+      <c r="BS298">
+        <v>1163</v>
+      </c>
+      <c r="BT298">
+        <v>5239</v>
+      </c>
+      <c r="BU298" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV298" s="1">
+        <v>44632</v>
+      </c>
+      <c r="BW298" t="s">
+        <v>515</v>
+      </c>
+      <c r="BX298" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY298" t="s">
+        <v>618</v>
+      </c>
+      <c r="BZ298" t="s">
+        <v>648</v>
+      </c>
+      <c r="CA298" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB298" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC298" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD298" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE298" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF298" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>83</v>
+      </c>
+      <c r="B299" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C299" t="s">
+        <v>113</v>
+      </c>
+      <c r="D299" t="s">
+        <v>85</v>
+      </c>
+      <c r="E299" t="s">
+        <v>115</v>
+      </c>
+      <c r="F299" t="s">
+        <v>102</v>
+      </c>
+      <c r="G299" t="s">
+        <v>88</v>
+      </c>
+      <c r="H299" t="s">
+        <v>649</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299">
+        <v>0</v>
+      </c>
+      <c r="V299">
+        <v>0</v>
+      </c>
+      <c r="W299">
+        <v>0</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
+      <c r="Z299">
+        <v>0</v>
+      </c>
+      <c r="AA299">
+        <v>0</v>
+      </c>
+      <c r="AB299">
+        <v>0</v>
+      </c>
+      <c r="AC299">
+        <v>0</v>
+      </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
+      <c r="AE299">
+        <v>0</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>0</v>
+      </c>
+      <c r="AH299">
+        <v>0</v>
+      </c>
+      <c r="AI299">
+        <v>0</v>
+      </c>
+      <c r="AJ299">
+        <v>0</v>
+      </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
+      <c r="AL299">
+        <v>0</v>
+      </c>
+      <c r="AM299">
+        <v>0</v>
+      </c>
+      <c r="AN299">
+        <v>0</v>
+      </c>
+      <c r="AO299">
+        <v>0</v>
+      </c>
+      <c r="AP299">
+        <v>0</v>
+      </c>
+      <c r="AQ299">
+        <v>0</v>
+      </c>
+      <c r="AR299">
+        <v>0</v>
+      </c>
+      <c r="AS299">
+        <v>0</v>
+      </c>
+      <c r="AT299">
+        <v>0</v>
+      </c>
+      <c r="AU299">
+        <v>0</v>
+      </c>
+      <c r="AV299">
+        <v>0</v>
+      </c>
+      <c r="AW299">
+        <v>0</v>
+      </c>
+      <c r="AX299">
+        <v>0</v>
+      </c>
+      <c r="AY299">
+        <v>0</v>
+      </c>
+      <c r="AZ299">
+        <v>0</v>
+      </c>
+      <c r="BA299">
+        <v>0</v>
+      </c>
+      <c r="BB299">
+        <v>0</v>
+      </c>
+      <c r="BC299">
+        <v>0</v>
+      </c>
+      <c r="BD299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>3</v>
+      </c>
+      <c r="BF299">
+        <v>5</v>
+      </c>
+      <c r="BG299">
+        <v>24</v>
+      </c>
+      <c r="BH299">
+        <v>9</v>
+      </c>
+      <c r="BI299">
+        <v>14</v>
+      </c>
+      <c r="BJ299">
+        <v>8</v>
+      </c>
+      <c r="BK299">
+        <v>45</v>
+      </c>
+      <c r="BL299">
+        <v>108</v>
+      </c>
+      <c r="BM299">
+        <v>38</v>
+      </c>
+      <c r="BN299">
+        <v>14</v>
+      </c>
+      <c r="BO299">
+        <v>87</v>
+      </c>
+      <c r="BP299">
+        <v>221</v>
+      </c>
+      <c r="BQ299">
+        <v>618</v>
+      </c>
+      <c r="BR299">
+        <v>802</v>
+      </c>
+      <c r="BS299">
+        <v>797</v>
+      </c>
+      <c r="BT299">
+        <v>2577</v>
+      </c>
+      <c r="BU299" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV299" s="1">
+        <v>44632</v>
+      </c>
+      <c r="BW299" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX299" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY299" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ299" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA299" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB299" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC299" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD299" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE299" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF299" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>83</v>
+      </c>
+      <c r="B300" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C300" t="s">
+        <v>113</v>
+      </c>
+      <c r="D300" t="s">
+        <v>85</v>
+      </c>
+      <c r="E300" t="s">
+        <v>115</v>
+      </c>
+      <c r="F300" t="s">
+        <v>116</v>
+      </c>
+      <c r="G300" t="s">
+        <v>88</v>
+      </c>
+      <c r="H300" t="s">
+        <v>650</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0</v>
+      </c>
+      <c r="U300">
+        <v>0</v>
+      </c>
+      <c r="V300">
+        <v>0</v>
+      </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
+      <c r="AA300">
+        <v>0</v>
+      </c>
+      <c r="AB300">
+        <v>0</v>
+      </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>0</v>
+      </c>
+      <c r="AH300">
+        <v>0</v>
+      </c>
+      <c r="AI300">
+        <v>0</v>
+      </c>
+      <c r="AJ300">
+        <v>0</v>
+      </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
+      <c r="AL300">
+        <v>0</v>
+      </c>
+      <c r="AM300">
+        <v>0</v>
+      </c>
+      <c r="AN300">
+        <v>0</v>
+      </c>
+      <c r="AO300">
+        <v>0</v>
+      </c>
+      <c r="AP300">
+        <v>0</v>
+      </c>
+      <c r="AQ300">
+        <v>0</v>
+      </c>
+      <c r="AR300">
+        <v>0</v>
+      </c>
+      <c r="AS300">
+        <v>0</v>
+      </c>
+      <c r="AT300">
+        <v>0</v>
+      </c>
+      <c r="AU300">
+        <v>0</v>
+      </c>
+      <c r="AV300">
+        <v>0</v>
+      </c>
+      <c r="AW300">
+        <v>0</v>
+      </c>
+      <c r="AX300">
+        <v>0</v>
+      </c>
+      <c r="AY300">
+        <v>0</v>
+      </c>
+      <c r="AZ300">
+        <v>0</v>
+      </c>
+      <c r="BA300">
+        <v>0</v>
+      </c>
+      <c r="BB300">
+        <v>0</v>
+      </c>
+      <c r="BC300">
+        <v>0</v>
+      </c>
+      <c r="BD300">
+        <v>0</v>
+      </c>
+      <c r="BE300">
+        <v>10</v>
+      </c>
+      <c r="BF300">
+        <v>8</v>
+      </c>
+      <c r="BG300">
+        <v>28</v>
+      </c>
+      <c r="BH300">
+        <v>30</v>
+      </c>
+      <c r="BI300">
+        <v>16</v>
+      </c>
+      <c r="BJ300">
+        <v>19</v>
+      </c>
+      <c r="BK300">
+        <v>23</v>
+      </c>
+      <c r="BL300">
+        <v>134</v>
+      </c>
+      <c r="BM300">
+        <v>110</v>
+      </c>
+      <c r="BN300">
+        <v>79</v>
+      </c>
+      <c r="BO300">
+        <v>166</v>
+      </c>
+      <c r="BP300">
+        <v>416</v>
+      </c>
+      <c r="BQ300">
+        <v>776</v>
+      </c>
+      <c r="BR300">
+        <v>797</v>
+      </c>
+      <c r="BS300">
+        <v>679</v>
+      </c>
+      <c r="BT300">
+        <v>3023</v>
+      </c>
+      <c r="BU300" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV300" s="1">
+        <v>44632</v>
+      </c>
+      <c r="BW300" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX300" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY300" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ300" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA300" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB300" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC300" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD300" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE300" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF300" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>83</v>
+      </c>
+      <c r="B301" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C301" t="s">
+        <v>581</v>
+      </c>
+      <c r="D301" t="s">
+        <v>85</v>
+      </c>
+      <c r="E301" t="s">
+        <v>181</v>
+      </c>
+      <c r="F301" t="s">
+        <v>289</v>
+      </c>
+      <c r="G301" t="s">
+        <v>88</v>
+      </c>
+      <c r="H301" t="s">
+        <v>276</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>0</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+      <c r="AB301">
+        <v>0</v>
+      </c>
+      <c r="AC301">
+        <v>0</v>
+      </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>0</v>
+      </c>
+      <c r="AH301">
+        <v>0</v>
+      </c>
+      <c r="AI301">
+        <v>0</v>
+      </c>
+      <c r="AJ301">
+        <v>0</v>
+      </c>
+      <c r="AK301">
+        <v>0</v>
+      </c>
+      <c r="AL301">
+        <v>0</v>
+      </c>
+      <c r="AM301">
+        <v>0</v>
+      </c>
+      <c r="AN301">
+        <v>0</v>
+      </c>
+      <c r="AO301">
+        <v>0</v>
+      </c>
+      <c r="AP301">
+        <v>0</v>
+      </c>
+      <c r="AQ301">
+        <v>0</v>
+      </c>
+      <c r="AR301">
+        <v>0</v>
+      </c>
+      <c r="AS301">
+        <v>0</v>
+      </c>
+      <c r="AT301">
+        <v>0</v>
+      </c>
+      <c r="AU301">
+        <v>0</v>
+      </c>
+      <c r="AV301">
+        <v>0</v>
+      </c>
+      <c r="AW301">
+        <v>0</v>
+      </c>
+      <c r="AX301">
+        <v>0</v>
+      </c>
+      <c r="AY301">
+        <v>0</v>
+      </c>
+      <c r="AZ301">
+        <v>0</v>
+      </c>
+      <c r="BA301">
+        <v>0</v>
+      </c>
+      <c r="BB301">
+        <v>0</v>
+      </c>
+      <c r="BC301">
+        <v>0</v>
+      </c>
+      <c r="BD301">
+        <v>0</v>
+      </c>
+      <c r="BE301">
+        <v>1</v>
+      </c>
+      <c r="BF301">
+        <v>0</v>
+      </c>
+      <c r="BG301">
+        <v>1</v>
+      </c>
+      <c r="BH301">
+        <v>1</v>
+      </c>
+      <c r="BI301">
+        <v>0</v>
+      </c>
+      <c r="BJ301">
+        <v>0</v>
+      </c>
+      <c r="BK301">
+        <v>0</v>
+      </c>
+      <c r="BL301">
+        <v>3</v>
+      </c>
+      <c r="BM301">
+        <v>18</v>
+      </c>
+      <c r="BN301">
+        <v>0</v>
+      </c>
+      <c r="BO301">
+        <v>32</v>
+      </c>
+      <c r="BP301">
+        <v>122</v>
+      </c>
+      <c r="BQ301">
+        <v>282</v>
+      </c>
+      <c r="BR301">
+        <v>658</v>
+      </c>
+      <c r="BS301">
+        <v>1299</v>
+      </c>
+      <c r="BT301">
+        <v>2411</v>
+      </c>
+      <c r="BU301" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV301" s="1">
+        <v>44627</v>
+      </c>
+      <c r="BW301" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX301" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY301" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ301" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA301" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB301" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC301" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD301" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE301" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF301" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>83</v>
+      </c>
+      <c r="B302" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C302" t="s">
+        <v>616</v>
+      </c>
+      <c r="D302" t="s">
+        <v>85</v>
+      </c>
+      <c r="E302" t="s">
+        <v>181</v>
+      </c>
+      <c r="F302" t="s">
+        <v>289</v>
+      </c>
+      <c r="G302" t="s">
+        <v>88</v>
+      </c>
+      <c r="H302" t="s">
+        <v>406</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302">
+        <v>0</v>
+      </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
+      <c r="AB302">
+        <v>0</v>
+      </c>
+      <c r="AC302">
+        <v>0</v>
+      </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>0</v>
+      </c>
+      <c r="AH302">
+        <v>0</v>
+      </c>
+      <c r="AI302">
+        <v>0</v>
+      </c>
+      <c r="AJ302">
+        <v>0</v>
+      </c>
+      <c r="AK302">
+        <v>0</v>
+      </c>
+      <c r="AL302">
+        <v>0</v>
+      </c>
+      <c r="AM302">
+        <v>0</v>
+      </c>
+      <c r="AN302">
+        <v>0</v>
+      </c>
+      <c r="AO302">
+        <v>0</v>
+      </c>
+      <c r="AP302">
+        <v>0</v>
+      </c>
+      <c r="AQ302">
+        <v>0</v>
+      </c>
+      <c r="AR302">
+        <v>0</v>
+      </c>
+      <c r="AS302">
+        <v>0</v>
+      </c>
+      <c r="AT302">
+        <v>0</v>
+      </c>
+      <c r="AU302">
+        <v>0</v>
+      </c>
+      <c r="AV302">
+        <v>0</v>
+      </c>
+      <c r="AW302">
+        <v>0</v>
+      </c>
+      <c r="AX302">
+        <v>0</v>
+      </c>
+      <c r="AY302">
+        <v>0</v>
+      </c>
+      <c r="AZ302">
+        <v>0</v>
+      </c>
+      <c r="BA302">
+        <v>0</v>
+      </c>
+      <c r="BB302">
+        <v>0</v>
+      </c>
+      <c r="BC302">
+        <v>0</v>
+      </c>
+      <c r="BD302">
+        <v>0</v>
+      </c>
+      <c r="BE302">
+        <v>0</v>
+      </c>
+      <c r="BF302">
+        <v>1</v>
+      </c>
+      <c r="BG302">
+        <v>6</v>
+      </c>
+      <c r="BH302">
+        <v>1</v>
+      </c>
+      <c r="BI302">
+        <v>0</v>
+      </c>
+      <c r="BJ302">
+        <v>0</v>
+      </c>
+      <c r="BK302">
+        <v>0</v>
+      </c>
+      <c r="BL302">
+        <v>8</v>
+      </c>
+      <c r="BM302">
+        <v>4</v>
+      </c>
+      <c r="BN302">
+        <v>1</v>
+      </c>
+      <c r="BO302">
+        <v>37</v>
+      </c>
+      <c r="BP302">
+        <v>115</v>
+      </c>
+      <c r="BQ302">
+        <v>303</v>
+      </c>
+      <c r="BR302">
+        <v>560</v>
+      </c>
+      <c r="BS302">
+        <v>1208</v>
+      </c>
+      <c r="BT302">
+        <v>2228</v>
+      </c>
+      <c r="BU302" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV302" s="1">
+        <v>44627</v>
+      </c>
+      <c r="BW302" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX302" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY302" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ302" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA302" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB302" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC302" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD302" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE302" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF302" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>83</v>
+      </c>
+      <c r="B303" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C303" t="s">
+        <v>113</v>
+      </c>
+      <c r="D303" t="s">
+        <v>85</v>
+      </c>
+      <c r="E303" t="s">
+        <v>101</v>
+      </c>
+      <c r="F303" t="s">
+        <v>102</v>
+      </c>
+      <c r="G303" t="s">
+        <v>88</v>
+      </c>
+      <c r="H303" t="s">
+        <v>651</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>0</v>
+      </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>0</v>
+      </c>
+      <c r="V303">
+        <v>0</v>
+      </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
+      <c r="AB303">
+        <v>0</v>
+      </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>0</v>
+      </c>
+      <c r="AH303">
+        <v>0</v>
+      </c>
+      <c r="AI303">
+        <v>0</v>
+      </c>
+      <c r="AJ303">
+        <v>0</v>
+      </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
+      <c r="AN303">
+        <v>0</v>
+      </c>
+      <c r="AO303">
+        <v>0</v>
+      </c>
+      <c r="AP303">
+        <v>0</v>
+      </c>
+      <c r="AQ303">
+        <v>0</v>
+      </c>
+      <c r="AR303">
+        <v>0</v>
+      </c>
+      <c r="AS303">
+        <v>0</v>
+      </c>
+      <c r="AT303">
+        <v>0</v>
+      </c>
+      <c r="AU303">
+        <v>0</v>
+      </c>
+      <c r="AV303">
+        <v>0</v>
+      </c>
+      <c r="AW303">
+        <v>0</v>
+      </c>
+      <c r="AX303">
+        <v>0</v>
+      </c>
+      <c r="AY303">
+        <v>0</v>
+      </c>
+      <c r="AZ303">
+        <v>0</v>
+      </c>
+      <c r="BA303">
+        <v>0</v>
+      </c>
+      <c r="BB303">
+        <v>0</v>
+      </c>
+      <c r="BC303">
+        <v>0</v>
+      </c>
+      <c r="BD303">
+        <v>0</v>
+      </c>
+      <c r="BE303">
+        <v>2</v>
+      </c>
+      <c r="BF303">
+        <v>2</v>
+      </c>
+      <c r="BG303">
+        <v>10</v>
+      </c>
+      <c r="BH303">
+        <v>14</v>
+      </c>
+      <c r="BI303">
+        <v>11</v>
+      </c>
+      <c r="BJ303">
+        <v>11</v>
+      </c>
+      <c r="BK303">
+        <v>7</v>
+      </c>
+      <c r="BL303">
+        <v>57</v>
+      </c>
+      <c r="BM303">
+        <v>38</v>
+      </c>
+      <c r="BN303">
+        <v>22</v>
+      </c>
+      <c r="BO303">
+        <v>92</v>
+      </c>
+      <c r="BP303">
+        <v>453</v>
+      </c>
+      <c r="BQ303">
+        <v>905</v>
+      </c>
+      <c r="BR303">
+        <v>1155</v>
+      </c>
+      <c r="BS303">
+        <v>679</v>
+      </c>
+      <c r="BT303">
+        <v>3344</v>
+      </c>
+      <c r="BU303" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV303" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW303" t="s">
+        <v>652</v>
+      </c>
+      <c r="BX303" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY303" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ303" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA303" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB303" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC303" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD303" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE303" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF303" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="304" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>83</v>
+      </c>
+      <c r="B304" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C304" t="s">
+        <v>113</v>
+      </c>
+      <c r="D304" t="s">
+        <v>85</v>
+      </c>
+      <c r="E304" t="s">
+        <v>101</v>
+      </c>
+      <c r="F304" t="s">
+        <v>110</v>
+      </c>
+      <c r="G304" t="s">
+        <v>88</v>
+      </c>
+      <c r="H304" t="s">
+        <v>653</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0</v>
+      </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>0</v>
+      </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>0</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>0</v>
+      </c>
+      <c r="AB304">
+        <v>0</v>
+      </c>
+      <c r="AC304">
+        <v>0</v>
+      </c>
+      <c r="AD304">
+        <v>0</v>
+      </c>
+      <c r="AE304">
+        <v>0</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>0</v>
+      </c>
+      <c r="AH304">
+        <v>0</v>
+      </c>
+      <c r="AI304">
+        <v>0</v>
+      </c>
+      <c r="AJ304">
+        <v>0</v>
+      </c>
+      <c r="AK304">
+        <v>0</v>
+      </c>
+      <c r="AL304">
+        <v>0</v>
+      </c>
+      <c r="AM304">
+        <v>0</v>
+      </c>
+      <c r="AN304">
+        <v>0</v>
+      </c>
+      <c r="AO304">
+        <v>0</v>
+      </c>
+      <c r="AP304">
+        <v>0</v>
+      </c>
+      <c r="AQ304">
+        <v>0</v>
+      </c>
+      <c r="AR304">
+        <v>0</v>
+      </c>
+      <c r="AS304">
+        <v>0</v>
+      </c>
+      <c r="AT304">
+        <v>0</v>
+      </c>
+      <c r="AU304">
+        <v>0</v>
+      </c>
+      <c r="AV304">
+        <v>0</v>
+      </c>
+      <c r="AW304">
+        <v>0</v>
+      </c>
+      <c r="AX304">
+        <v>0</v>
+      </c>
+      <c r="AY304">
+        <v>0</v>
+      </c>
+      <c r="AZ304">
+        <v>0</v>
+      </c>
+      <c r="BA304">
+        <v>0</v>
+      </c>
+      <c r="BB304">
+        <v>0</v>
+      </c>
+      <c r="BC304">
+        <v>0</v>
+      </c>
+      <c r="BD304">
+        <v>0</v>
+      </c>
+      <c r="BE304">
+        <v>3</v>
+      </c>
+      <c r="BF304">
+        <v>3</v>
+      </c>
+      <c r="BG304">
+        <v>27</v>
+      </c>
+      <c r="BH304">
+        <v>15</v>
+      </c>
+      <c r="BI304">
+        <v>39</v>
+      </c>
+      <c r="BJ304">
+        <v>15</v>
+      </c>
+      <c r="BK304">
+        <v>5</v>
+      </c>
+      <c r="BL304">
+        <v>107</v>
+      </c>
+      <c r="BM304">
+        <v>33</v>
+      </c>
+      <c r="BN304">
+        <v>24</v>
+      </c>
+      <c r="BO304">
+        <v>138</v>
+      </c>
+      <c r="BP304">
+        <v>445</v>
+      </c>
+      <c r="BQ304">
+        <v>573</v>
+      </c>
+      <c r="BR304">
+        <v>637</v>
+      </c>
+      <c r="BS304">
+        <v>633</v>
+      </c>
+      <c r="BT304">
+        <v>2483</v>
+      </c>
+      <c r="BU304" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV304" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX304" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY304" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ304" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA304" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB304" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC304" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD304" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE304" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF304" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="305" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>83</v>
+      </c>
+      <c r="B305" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C305" t="s">
+        <v>113</v>
+      </c>
+      <c r="D305" t="s">
+        <v>85</v>
+      </c>
+      <c r="E305" t="s">
+        <v>101</v>
+      </c>
+      <c r="F305" t="s">
+        <v>113</v>
+      </c>
+      <c r="G305" t="s">
+        <v>88</v>
+      </c>
+      <c r="H305" t="s">
+        <v>654</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>4</v>
+      </c>
+      <c r="Q305">
+        <v>3</v>
+      </c>
+      <c r="R305">
+        <v>6</v>
+      </c>
+      <c r="S305">
+        <v>8</v>
+      </c>
+      <c r="T305">
+        <v>15</v>
+      </c>
+      <c r="U305">
+        <v>38</v>
+      </c>
+      <c r="V305">
+        <v>20</v>
+      </c>
+      <c r="W305">
+        <v>30</v>
+      </c>
+      <c r="X305">
+        <v>120</v>
+      </c>
+      <c r="Y305">
+        <v>1</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+      <c r="AB305">
+        <v>0</v>
+      </c>
+      <c r="AC305">
+        <v>0</v>
+      </c>
+      <c r="AD305">
+        <v>0</v>
+      </c>
+      <c r="AE305">
+        <v>1</v>
+      </c>
+      <c r="AF305">
+        <v>2</v>
+      </c>
+      <c r="AG305">
+        <v>3</v>
+      </c>
+      <c r="AH305">
+        <v>1</v>
+      </c>
+      <c r="AI305">
+        <v>2</v>
+      </c>
+      <c r="AJ305">
+        <v>2</v>
+      </c>
+      <c r="AK305">
+        <v>9</v>
+      </c>
+      <c r="AL305">
+        <v>21</v>
+      </c>
+      <c r="AM305">
+        <v>20</v>
+      </c>
+      <c r="AN305">
+        <v>58</v>
+      </c>
+      <c r="AO305">
+        <v>0</v>
+      </c>
+      <c r="AP305">
+        <v>0</v>
+      </c>
+      <c r="AQ305">
+        <v>0</v>
+      </c>
+      <c r="AR305">
+        <v>0</v>
+      </c>
+      <c r="AS305">
+        <v>0</v>
+      </c>
+      <c r="AT305">
+        <v>0</v>
+      </c>
+      <c r="AU305">
+        <v>0</v>
+      </c>
+      <c r="AV305">
+        <v>0</v>
+      </c>
+      <c r="AW305">
+        <v>0</v>
+      </c>
+      <c r="AX305">
+        <v>0</v>
+      </c>
+      <c r="AY305">
+        <v>0</v>
+      </c>
+      <c r="AZ305">
+        <v>0</v>
+      </c>
+      <c r="BA305">
+        <v>0</v>
+      </c>
+      <c r="BB305">
+        <v>1</v>
+      </c>
+      <c r="BC305">
+        <v>2</v>
+      </c>
+      <c r="BD305">
+        <v>3</v>
+      </c>
+      <c r="BE305">
+        <v>9</v>
+      </c>
+      <c r="BF305">
+        <v>4</v>
+      </c>
+      <c r="BG305">
+        <v>35</v>
+      </c>
+      <c r="BH305">
+        <v>15</v>
+      </c>
+      <c r="BI305">
+        <v>5</v>
+      </c>
+      <c r="BJ305">
+        <v>1</v>
+      </c>
+      <c r="BK305">
+        <v>2</v>
+      </c>
+      <c r="BL305">
+        <v>71</v>
+      </c>
+      <c r="BM305">
+        <v>47</v>
+      </c>
+      <c r="BN305">
+        <v>35</v>
+      </c>
+      <c r="BO305">
+        <v>155</v>
+      </c>
+      <c r="BP305">
+        <v>248</v>
+      </c>
+      <c r="BQ305">
+        <v>514</v>
+      </c>
+      <c r="BR305">
+        <v>262</v>
+      </c>
+      <c r="BS305">
+        <v>230</v>
+      </c>
+      <c r="BT305">
+        <v>1491</v>
+      </c>
+      <c r="BU305" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV305" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX305" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY305" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ305" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA305" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB305" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC305" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD305" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE305" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF305" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="306" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>83</v>
+      </c>
+      <c r="B306" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C306" t="s">
+        <v>113</v>
+      </c>
+      <c r="D306" t="s">
+        <v>85</v>
+      </c>
+      <c r="E306" t="s">
+        <v>131</v>
+      </c>
+      <c r="F306" t="s">
+        <v>102</v>
+      </c>
+      <c r="G306" t="s">
+        <v>88</v>
+      </c>
+      <c r="H306" t="s">
+        <v>655</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306">
+        <v>4</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>5</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>1</v>
+      </c>
+      <c r="S306">
+        <v>4</v>
+      </c>
+      <c r="T306">
+        <v>2</v>
+      </c>
+      <c r="U306">
+        <v>4</v>
+      </c>
+      <c r="V306">
+        <v>4</v>
+      </c>
+      <c r="W306">
+        <v>7</v>
+      </c>
+      <c r="X306">
+        <v>22</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
+      </c>
+      <c r="AB306">
+        <v>0</v>
+      </c>
+      <c r="AC306">
+        <v>0</v>
+      </c>
+      <c r="AD306">
+        <v>0</v>
+      </c>
+      <c r="AE306">
+        <v>0</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>0</v>
+      </c>
+      <c r="AH306">
+        <v>0</v>
+      </c>
+      <c r="AI306">
+        <v>0</v>
+      </c>
+      <c r="AJ306">
+        <v>0</v>
+      </c>
+      <c r="AK306">
+        <v>0</v>
+      </c>
+      <c r="AL306">
+        <v>0</v>
+      </c>
+      <c r="AM306">
+        <v>0</v>
+      </c>
+      <c r="AN306">
+        <v>0</v>
+      </c>
+      <c r="AO306">
+        <v>0</v>
+      </c>
+      <c r="AP306">
+        <v>0</v>
+      </c>
+      <c r="AQ306">
+        <v>0</v>
+      </c>
+      <c r="AR306">
+        <v>0</v>
+      </c>
+      <c r="AS306">
+        <v>0</v>
+      </c>
+      <c r="AT306">
+        <v>0</v>
+      </c>
+      <c r="AU306">
+        <v>0</v>
+      </c>
+      <c r="AV306">
+        <v>0</v>
+      </c>
+      <c r="AW306">
+        <v>0</v>
+      </c>
+      <c r="AX306">
+        <v>0</v>
+      </c>
+      <c r="AY306">
+        <v>0</v>
+      </c>
+      <c r="AZ306">
+        <v>0</v>
+      </c>
+      <c r="BA306">
+        <v>0</v>
+      </c>
+      <c r="BB306">
+        <v>0</v>
+      </c>
+      <c r="BC306">
+        <v>0</v>
+      </c>
+      <c r="BD306">
+        <v>0</v>
+      </c>
+      <c r="BE306">
+        <v>4</v>
+      </c>
+      <c r="BF306">
+        <v>6</v>
+      </c>
+      <c r="BG306">
+        <v>6</v>
+      </c>
+      <c r="BH306">
+        <v>4</v>
+      </c>
+      <c r="BI306">
+        <v>4</v>
+      </c>
+      <c r="BJ306">
+        <v>1</v>
+      </c>
+      <c r="BK306">
+        <v>0</v>
+      </c>
+      <c r="BL306">
+        <v>25</v>
+      </c>
+      <c r="BM306">
+        <v>21</v>
+      </c>
+      <c r="BN306">
+        <v>20</v>
+      </c>
+      <c r="BO306">
+        <v>34</v>
+      </c>
+      <c r="BP306">
+        <v>94</v>
+      </c>
+      <c r="BQ306">
+        <v>132</v>
+      </c>
+      <c r="BR306">
+        <v>132</v>
+      </c>
+      <c r="BS306">
+        <v>183</v>
+      </c>
+      <c r="BT306">
+        <v>616</v>
+      </c>
+      <c r="BU306" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV306" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW306" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX306" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY306" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ306" t="s">
+        <v>656</v>
+      </c>
+      <c r="CA306" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB306" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC306" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD306" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE306" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF306" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="307" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>83</v>
+      </c>
+      <c r="B307" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C307" t="s">
+        <v>113</v>
+      </c>
+      <c r="D307" t="s">
+        <v>85</v>
+      </c>
+      <c r="E307" t="s">
+        <v>131</v>
+      </c>
+      <c r="F307" t="s">
+        <v>337</v>
+      </c>
+      <c r="G307" t="s">
+        <v>88</v>
+      </c>
+      <c r="H307" t="s">
+        <v>657</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <v>0</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307">
+        <v>0</v>
+      </c>
+      <c r="V307">
+        <v>0</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>0</v>
+      </c>
+      <c r="AB307">
+        <v>0</v>
+      </c>
+      <c r="AC307">
+        <v>0</v>
+      </c>
+      <c r="AD307">
+        <v>0</v>
+      </c>
+      <c r="AE307">
+        <v>0</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>0</v>
+      </c>
+      <c r="AH307">
+        <v>0</v>
+      </c>
+      <c r="AI307">
+        <v>0</v>
+      </c>
+      <c r="AJ307">
+        <v>0</v>
+      </c>
+      <c r="AK307">
+        <v>0</v>
+      </c>
+      <c r="AL307">
+        <v>0</v>
+      </c>
+      <c r="AM307">
+        <v>0</v>
+      </c>
+      <c r="AN307">
+        <v>0</v>
+      </c>
+      <c r="AO307">
+        <v>0</v>
+      </c>
+      <c r="AP307">
+        <v>0</v>
+      </c>
+      <c r="AQ307">
+        <v>0</v>
+      </c>
+      <c r="AR307">
+        <v>0</v>
+      </c>
+      <c r="AS307">
+        <v>0</v>
+      </c>
+      <c r="AT307">
+        <v>0</v>
+      </c>
+      <c r="AU307">
+        <v>0</v>
+      </c>
+      <c r="AV307">
+        <v>0</v>
+      </c>
+      <c r="AW307">
+        <v>0</v>
+      </c>
+      <c r="AX307">
+        <v>0</v>
+      </c>
+      <c r="AY307">
+        <v>0</v>
+      </c>
+      <c r="AZ307">
+        <v>0</v>
+      </c>
+      <c r="BA307">
+        <v>0</v>
+      </c>
+      <c r="BB307">
+        <v>0</v>
+      </c>
+      <c r="BC307">
+        <v>0</v>
+      </c>
+      <c r="BD307">
+        <v>0</v>
+      </c>
+      <c r="BE307">
+        <v>0</v>
+      </c>
+      <c r="BF307">
+        <v>1</v>
+      </c>
+      <c r="BG307">
+        <v>2</v>
+      </c>
+      <c r="BH307">
+        <v>2</v>
+      </c>
+      <c r="BI307">
+        <v>1</v>
+      </c>
+      <c r="BJ307">
+        <v>1</v>
+      </c>
+      <c r="BK307">
+        <v>1</v>
+      </c>
+      <c r="BL307">
+        <v>8</v>
+      </c>
+      <c r="BM307">
+        <v>6</v>
+      </c>
+      <c r="BN307">
+        <v>1</v>
+      </c>
+      <c r="BO307">
+        <v>8</v>
+      </c>
+      <c r="BP307">
+        <v>18</v>
+      </c>
+      <c r="BQ307">
+        <v>17</v>
+      </c>
+      <c r="BR307">
+        <v>31</v>
+      </c>
+      <c r="BS307">
+        <v>24</v>
+      </c>
+      <c r="BT307">
+        <v>105</v>
+      </c>
+      <c r="BU307" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV307" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW307" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX307" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY307" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ307" t="s">
+        <v>656</v>
+      </c>
+      <c r="CA307" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB307" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC307" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD307" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE307" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF307" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="308" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>83</v>
+      </c>
+      <c r="B308" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C308" t="s">
+        <v>113</v>
+      </c>
+      <c r="D308" t="s">
+        <v>85</v>
+      </c>
+      <c r="E308" t="s">
+        <v>131</v>
+      </c>
+      <c r="F308" t="s">
+        <v>352</v>
+      </c>
+      <c r="G308" t="s">
+        <v>88</v>
+      </c>
+      <c r="H308" t="s">
+        <v>434</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <v>0</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308">
+        <v>0</v>
+      </c>
+      <c r="V308">
+        <v>0</v>
+      </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>0</v>
+      </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
+      <c r="AA308">
+        <v>0</v>
+      </c>
+      <c r="AB308">
+        <v>0</v>
+      </c>
+      <c r="AC308">
+        <v>0</v>
+      </c>
+      <c r="AD308">
+        <v>0</v>
+      </c>
+      <c r="AE308">
+        <v>0</v>
+      </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
+      <c r="AG308">
+        <v>0</v>
+      </c>
+      <c r="AH308">
+        <v>0</v>
+      </c>
+      <c r="AI308">
+        <v>0</v>
+      </c>
+      <c r="AJ308">
+        <v>0</v>
+      </c>
+      <c r="AK308">
+        <v>0</v>
+      </c>
+      <c r="AL308">
+        <v>0</v>
+      </c>
+      <c r="AM308">
+        <v>0</v>
+      </c>
+      <c r="AN308">
+        <v>0</v>
+      </c>
+      <c r="AO308">
+        <v>0</v>
+      </c>
+      <c r="AP308">
+        <v>0</v>
+      </c>
+      <c r="AQ308">
+        <v>0</v>
+      </c>
+      <c r="AR308">
+        <v>0</v>
+      </c>
+      <c r="AS308">
+        <v>0</v>
+      </c>
+      <c r="AT308">
+        <v>0</v>
+      </c>
+      <c r="AU308">
+        <v>0</v>
+      </c>
+      <c r="AV308">
+        <v>0</v>
+      </c>
+      <c r="AW308">
+        <v>0</v>
+      </c>
+      <c r="AX308">
+        <v>0</v>
+      </c>
+      <c r="AY308">
+        <v>0</v>
+      </c>
+      <c r="AZ308">
+        <v>0</v>
+      </c>
+      <c r="BA308">
+        <v>0</v>
+      </c>
+      <c r="BB308">
+        <v>0</v>
+      </c>
+      <c r="BC308">
+        <v>0</v>
+      </c>
+      <c r="BD308">
+        <v>0</v>
+      </c>
+      <c r="BE308">
+        <v>1</v>
+      </c>
+      <c r="BF308">
+        <v>0</v>
+      </c>
+      <c r="BG308">
+        <v>0</v>
+      </c>
+      <c r="BH308">
+        <v>0</v>
+      </c>
+      <c r="BI308">
+        <v>0</v>
+      </c>
+      <c r="BJ308">
+        <v>0</v>
+      </c>
+      <c r="BK308">
+        <v>0</v>
+      </c>
+      <c r="BL308">
+        <v>1</v>
+      </c>
+      <c r="BM308">
+        <v>10</v>
+      </c>
+      <c r="BN308">
+        <v>10</v>
+      </c>
+      <c r="BO308">
+        <v>8</v>
+      </c>
+      <c r="BP308">
+        <v>35</v>
+      </c>
+      <c r="BQ308">
+        <v>44</v>
+      </c>
+      <c r="BR308">
+        <v>47</v>
+      </c>
+      <c r="BS308">
+        <v>56</v>
+      </c>
+      <c r="BT308">
+        <v>210</v>
+      </c>
+      <c r="BU308" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV308" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW308" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX308" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY308" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ308" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA308" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB308" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC308" t="s">
+        <v>354</v>
+      </c>
+      <c r="CD308" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE308" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF308" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="309" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>83</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C309" t="s">
+        <v>113</v>
+      </c>
+      <c r="D309" t="s">
+        <v>85</v>
+      </c>
+      <c r="E309" t="s">
+        <v>131</v>
+      </c>
+      <c r="F309" t="s">
+        <v>113</v>
+      </c>
+      <c r="G309" t="s">
+        <v>88</v>
+      </c>
+      <c r="H309" t="s">
+        <v>436</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>0</v>
+      </c>
+      <c r="S309">
+        <v>0</v>
+      </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
+      <c r="V309">
+        <v>0</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
+      <c r="AB309">
+        <v>0</v>
+      </c>
+      <c r="AC309">
+        <v>0</v>
+      </c>
+      <c r="AD309">
+        <v>0</v>
+      </c>
+      <c r="AE309">
+        <v>0</v>
+      </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
+      <c r="AG309">
+        <v>0</v>
+      </c>
+      <c r="AH309">
+        <v>0</v>
+      </c>
+      <c r="AI309">
+        <v>0</v>
+      </c>
+      <c r="AJ309">
+        <v>0</v>
+      </c>
+      <c r="AK309">
+        <v>0</v>
+      </c>
+      <c r="AL309">
+        <v>0</v>
+      </c>
+      <c r="AM309">
+        <v>0</v>
+      </c>
+      <c r="AN309">
+        <v>0</v>
+      </c>
+      <c r="AO309">
+        <v>0</v>
+      </c>
+      <c r="AP309">
+        <v>0</v>
+      </c>
+      <c r="AQ309">
+        <v>0</v>
+      </c>
+      <c r="AR309">
+        <v>0</v>
+      </c>
+      <c r="AS309">
+        <v>0</v>
+      </c>
+      <c r="AT309">
+        <v>0</v>
+      </c>
+      <c r="AU309">
+        <v>0</v>
+      </c>
+      <c r="AV309">
+        <v>0</v>
+      </c>
+      <c r="AW309">
+        <v>0</v>
+      </c>
+      <c r="AX309">
+        <v>0</v>
+      </c>
+      <c r="AY309">
+        <v>0</v>
+      </c>
+      <c r="AZ309">
+        <v>0</v>
+      </c>
+      <c r="BA309">
+        <v>0</v>
+      </c>
+      <c r="BB309">
+        <v>0</v>
+      </c>
+      <c r="BC309">
+        <v>0</v>
+      </c>
+      <c r="BD309">
+        <v>0</v>
+      </c>
+      <c r="BE309">
+        <v>0</v>
+      </c>
+      <c r="BF309">
+        <v>0</v>
+      </c>
+      <c r="BG309">
+        <v>0</v>
+      </c>
+      <c r="BH309">
+        <v>2</v>
+      </c>
+      <c r="BI309">
+        <v>0</v>
+      </c>
+      <c r="BJ309">
+        <v>0</v>
+      </c>
+      <c r="BK309">
+        <v>0</v>
+      </c>
+      <c r="BL309">
+        <v>2</v>
+      </c>
+      <c r="BM309">
+        <v>12</v>
+      </c>
+      <c r="BN309">
+        <v>13</v>
+      </c>
+      <c r="BO309">
+        <v>15</v>
+      </c>
+      <c r="BP309">
+        <v>44</v>
+      </c>
+      <c r="BQ309">
+        <v>35</v>
+      </c>
+      <c r="BR309">
+        <v>53</v>
+      </c>
+      <c r="BS309">
+        <v>60</v>
+      </c>
+      <c r="BT309">
+        <v>232</v>
+      </c>
+      <c r="BU309" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV309" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW309" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX309" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY309" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ309" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA309" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB309" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC309" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD309" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE309" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF309" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="310" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>83</v>
+      </c>
+      <c r="B310" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C310" t="s">
+        <v>113</v>
+      </c>
+      <c r="D310" t="s">
+        <v>85</v>
+      </c>
+      <c r="E310" t="s">
+        <v>131</v>
+      </c>
+      <c r="F310" t="s">
+        <v>269</v>
+      </c>
+      <c r="G310" t="s">
+        <v>88</v>
+      </c>
+      <c r="H310" t="s">
+        <v>437</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>0</v>
+      </c>
+      <c r="S310">
+        <v>0</v>
+      </c>
+      <c r="T310">
+        <v>0</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+      <c r="V310">
+        <v>0</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>0</v>
+      </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
+      <c r="AB310">
+        <v>0</v>
+      </c>
+      <c r="AC310">
+        <v>0</v>
+      </c>
+      <c r="AD310">
+        <v>0</v>
+      </c>
+      <c r="AE310">
+        <v>0</v>
+      </c>
+      <c r="AF310">
+        <v>0</v>
+      </c>
+      <c r="AG310">
+        <v>0</v>
+      </c>
+      <c r="AH310">
+        <v>0</v>
+      </c>
+      <c r="AI310">
+        <v>0</v>
+      </c>
+      <c r="AJ310">
+        <v>0</v>
+      </c>
+      <c r="AK310">
+        <v>0</v>
+      </c>
+      <c r="AL310">
+        <v>0</v>
+      </c>
+      <c r="AM310">
+        <v>0</v>
+      </c>
+      <c r="AN310">
+        <v>0</v>
+      </c>
+      <c r="AO310">
+        <v>0</v>
+      </c>
+      <c r="AP310">
+        <v>0</v>
+      </c>
+      <c r="AQ310">
+        <v>0</v>
+      </c>
+      <c r="AR310">
+        <v>0</v>
+      </c>
+      <c r="AS310">
+        <v>0</v>
+      </c>
+      <c r="AT310">
+        <v>0</v>
+      </c>
+      <c r="AU310">
+        <v>0</v>
+      </c>
+      <c r="AV310">
+        <v>0</v>
+      </c>
+      <c r="AW310">
+        <v>0</v>
+      </c>
+      <c r="AX310">
+        <v>0</v>
+      </c>
+      <c r="AY310">
+        <v>0</v>
+      </c>
+      <c r="AZ310">
+        <v>0</v>
+      </c>
+      <c r="BA310">
+        <v>0</v>
+      </c>
+      <c r="BB310">
+        <v>0</v>
+      </c>
+      <c r="BC310">
+        <v>0</v>
+      </c>
+      <c r="BD310">
+        <v>0</v>
+      </c>
+      <c r="BE310">
+        <v>0</v>
+      </c>
+      <c r="BF310">
+        <v>0</v>
+      </c>
+      <c r="BG310">
+        <v>1</v>
+      </c>
+      <c r="BH310">
+        <v>1</v>
+      </c>
+      <c r="BI310">
+        <v>0</v>
+      </c>
+      <c r="BJ310">
+        <v>0</v>
+      </c>
+      <c r="BK310">
+        <v>0</v>
+      </c>
+      <c r="BL310">
+        <v>2</v>
+      </c>
+      <c r="BM310">
+        <v>0</v>
+      </c>
+      <c r="BN310">
+        <v>3</v>
+      </c>
+      <c r="BO310">
+        <v>6</v>
+      </c>
+      <c r="BP310">
+        <v>15</v>
+      </c>
+      <c r="BQ310">
+        <v>10</v>
+      </c>
+      <c r="BR310">
+        <v>23</v>
+      </c>
+      <c r="BS310">
+        <v>47</v>
+      </c>
+      <c r="BT310">
+        <v>104</v>
+      </c>
+      <c r="BU310" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV310" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW310" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX310" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY310" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ310" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA310" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB310" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC310" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD310" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE310" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF310" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="311" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>83</v>
+      </c>
+      <c r="B311" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C311" t="s">
+        <v>113</v>
+      </c>
+      <c r="D311" t="s">
+        <v>85</v>
+      </c>
+      <c r="E311" t="s">
+        <v>131</v>
+      </c>
+      <c r="F311" t="s">
+        <v>132</v>
+      </c>
+      <c r="G311" t="s">
+        <v>88</v>
+      </c>
+      <c r="H311" t="s">
+        <v>438</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>0</v>
+      </c>
+      <c r="S311">
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+      <c r="V311">
+        <v>0</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>0</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+      <c r="AB311">
+        <v>0</v>
+      </c>
+      <c r="AC311">
+        <v>0</v>
+      </c>
+      <c r="AD311">
+        <v>0</v>
+      </c>
+      <c r="AE311">
+        <v>0</v>
+      </c>
+      <c r="AF311">
+        <v>0</v>
+      </c>
+      <c r="AG311">
+        <v>0</v>
+      </c>
+      <c r="AH311">
+        <v>0</v>
+      </c>
+      <c r="AI311">
+        <v>0</v>
+      </c>
+      <c r="AJ311">
+        <v>0</v>
+      </c>
+      <c r="AK311">
+        <v>0</v>
+      </c>
+      <c r="AL311">
+        <v>0</v>
+      </c>
+      <c r="AM311">
+        <v>0</v>
+      </c>
+      <c r="AN311">
+        <v>0</v>
+      </c>
+      <c r="AO311">
+        <v>0</v>
+      </c>
+      <c r="AP311">
+        <v>0</v>
+      </c>
+      <c r="AQ311">
+        <v>0</v>
+      </c>
+      <c r="AR311">
+        <v>0</v>
+      </c>
+      <c r="AS311">
+        <v>0</v>
+      </c>
+      <c r="AT311">
+        <v>0</v>
+      </c>
+      <c r="AU311">
+        <v>0</v>
+      </c>
+      <c r="AV311">
+        <v>0</v>
+      </c>
+      <c r="AW311">
+        <v>0</v>
+      </c>
+      <c r="AX311">
+        <v>0</v>
+      </c>
+      <c r="AY311">
+        <v>0</v>
+      </c>
+      <c r="AZ311">
+        <v>0</v>
+      </c>
+      <c r="BA311">
+        <v>0</v>
+      </c>
+      <c r="BB311">
+        <v>0</v>
+      </c>
+      <c r="BC311">
+        <v>0</v>
+      </c>
+      <c r="BD311">
+        <v>0</v>
+      </c>
+      <c r="BE311">
+        <v>5</v>
+      </c>
+      <c r="BF311">
+        <v>7</v>
+      </c>
+      <c r="BG311">
+        <v>14</v>
+      </c>
+      <c r="BH311">
+        <v>9</v>
+      </c>
+      <c r="BI311">
+        <v>2</v>
+      </c>
+      <c r="BJ311">
+        <v>1</v>
+      </c>
+      <c r="BK311">
+        <v>8</v>
+      </c>
+      <c r="BL311">
+        <v>46</v>
+      </c>
+      <c r="BM311">
+        <v>30</v>
+      </c>
+      <c r="BN311">
+        <v>22</v>
+      </c>
+      <c r="BO311">
+        <v>95</v>
+      </c>
+      <c r="BP311">
+        <v>291</v>
+      </c>
+      <c r="BQ311">
+        <v>181</v>
+      </c>
+      <c r="BR311">
+        <v>224</v>
+      </c>
+      <c r="BS311">
+        <v>285</v>
+      </c>
+      <c r="BT311">
+        <v>1128</v>
+      </c>
+      <c r="BU311" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV311" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW311" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX311" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY311" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ311" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA311" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB311" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC311" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD311" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE311" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF311" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="312" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>83</v>
+      </c>
+      <c r="B312" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C312" t="s">
+        <v>113</v>
+      </c>
+      <c r="D312" t="s">
+        <v>85</v>
+      </c>
+      <c r="E312" t="s">
+        <v>131</v>
+      </c>
+      <c r="F312" t="s">
+        <v>139</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
+      </c>
+      <c r="H312" t="s">
+        <v>658</v>
+      </c>
+      <c r="I312">
+        <v>7</v>
+      </c>
+      <c r="J312">
+        <v>3</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>3</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312">
+        <v>2</v>
+      </c>
+      <c r="P312">
+        <v>18</v>
+      </c>
+      <c r="Q312">
+        <v>20</v>
+      </c>
+      <c r="R312">
+        <v>8</v>
+      </c>
+      <c r="S312">
+        <v>23</v>
+      </c>
+      <c r="T312">
+        <v>61</v>
+      </c>
+      <c r="U312">
+        <v>138</v>
+      </c>
+      <c r="V312">
+        <v>43</v>
+      </c>
+      <c r="W312">
+        <v>88</v>
+      </c>
+      <c r="X312">
+        <v>381</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+      <c r="AB312">
+        <v>0</v>
+      </c>
+      <c r="AC312">
+        <v>0</v>
+      </c>
+      <c r="AD312">
+        <v>0</v>
+      </c>
+      <c r="AE312">
+        <v>0</v>
+      </c>
+      <c r="AF312">
+        <v>0</v>
+      </c>
+      <c r="AG312">
+        <v>0</v>
+      </c>
+      <c r="AH312">
+        <v>0</v>
+      </c>
+      <c r="AI312">
+        <v>0</v>
+      </c>
+      <c r="AJ312">
+        <v>0</v>
+      </c>
+      <c r="AK312">
+        <v>0</v>
+      </c>
+      <c r="AL312">
+        <v>0</v>
+      </c>
+      <c r="AM312">
+        <v>0</v>
+      </c>
+      <c r="AN312">
+        <v>0</v>
+      </c>
+      <c r="AO312">
+        <v>0</v>
+      </c>
+      <c r="AP312">
+        <v>0</v>
+      </c>
+      <c r="AQ312">
+        <v>0</v>
+      </c>
+      <c r="AR312">
+        <v>0</v>
+      </c>
+      <c r="AS312">
+        <v>0</v>
+      </c>
+      <c r="AT312">
+        <v>0</v>
+      </c>
+      <c r="AU312">
+        <v>0</v>
+      </c>
+      <c r="AV312">
+        <v>0</v>
+      </c>
+      <c r="AW312">
+        <v>0</v>
+      </c>
+      <c r="AX312">
+        <v>0</v>
+      </c>
+      <c r="AY312">
+        <v>0</v>
+      </c>
+      <c r="AZ312">
+        <v>0</v>
+      </c>
+      <c r="BA312">
+        <v>0</v>
+      </c>
+      <c r="BB312">
+        <v>0</v>
+      </c>
+      <c r="BC312">
+        <v>0</v>
+      </c>
+      <c r="BD312">
+        <v>0</v>
+      </c>
+      <c r="BE312">
+        <v>1</v>
+      </c>
+      <c r="BF312">
+        <v>1</v>
+      </c>
+      <c r="BG312">
+        <v>3</v>
+      </c>
+      <c r="BH312">
+        <v>7</v>
+      </c>
+      <c r="BI312">
+        <v>1</v>
+      </c>
+      <c r="BJ312">
+        <v>0</v>
+      </c>
+      <c r="BK312">
+        <v>0</v>
+      </c>
+      <c r="BL312">
+        <v>13</v>
+      </c>
+      <c r="BM312">
+        <v>28</v>
+      </c>
+      <c r="BN312">
+        <v>13</v>
+      </c>
+      <c r="BO312">
+        <v>45</v>
+      </c>
+      <c r="BP312">
+        <v>153</v>
+      </c>
+      <c r="BQ312">
+        <v>208</v>
+      </c>
+      <c r="BR312">
+        <v>162</v>
+      </c>
+      <c r="BS312">
+        <v>303</v>
+      </c>
+      <c r="BT312">
+        <v>912</v>
+      </c>
+      <c r="BU312" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV312" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW312" t="s">
+        <v>659</v>
+      </c>
+      <c r="BX312" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY312" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ312" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA312" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB312" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC312" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD312" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE312" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF312" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="313" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>83</v>
+      </c>
+      <c r="B313" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C313" t="s">
+        <v>113</v>
+      </c>
+      <c r="D313" t="s">
+        <v>85</v>
+      </c>
+      <c r="E313" t="s">
+        <v>131</v>
+      </c>
+      <c r="F313" t="s">
+        <v>433</v>
+      </c>
+      <c r="G313" t="s">
+        <v>88</v>
+      </c>
+      <c r="H313" t="s">
+        <v>661</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
+      <c r="R313">
+        <v>0</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>0</v>
+      </c>
+      <c r="U313">
+        <v>0</v>
+      </c>
+      <c r="V313">
+        <v>0</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
+        <v>0</v>
+      </c>
+      <c r="AB313">
+        <v>0</v>
+      </c>
+      <c r="AC313">
+        <v>0</v>
+      </c>
+      <c r="AD313">
+        <v>0</v>
+      </c>
+      <c r="AE313">
+        <v>0</v>
+      </c>
+      <c r="AF313">
+        <v>0</v>
+      </c>
+      <c r="AG313">
+        <v>0</v>
+      </c>
+      <c r="AH313">
+        <v>0</v>
+      </c>
+      <c r="AI313">
+        <v>0</v>
+      </c>
+      <c r="AJ313">
+        <v>0</v>
+      </c>
+      <c r="AK313">
+        <v>0</v>
+      </c>
+      <c r="AL313">
+        <v>0</v>
+      </c>
+      <c r="AM313">
+        <v>0</v>
+      </c>
+      <c r="AN313">
+        <v>0</v>
+      </c>
+      <c r="AO313">
+        <v>0</v>
+      </c>
+      <c r="AP313">
+        <v>0</v>
+      </c>
+      <c r="AQ313">
+        <v>0</v>
+      </c>
+      <c r="AR313">
+        <v>0</v>
+      </c>
+      <c r="AS313">
+        <v>0</v>
+      </c>
+      <c r="AT313">
+        <v>0</v>
+      </c>
+      <c r="AU313">
+        <v>0</v>
+      </c>
+      <c r="AV313">
+        <v>0</v>
+      </c>
+      <c r="AW313">
+        <v>0</v>
+      </c>
+      <c r="AX313">
+        <v>0</v>
+      </c>
+      <c r="AY313">
+        <v>0</v>
+      </c>
+      <c r="AZ313">
+        <v>0</v>
+      </c>
+      <c r="BA313">
+        <v>0</v>
+      </c>
+      <c r="BB313">
+        <v>0</v>
+      </c>
+      <c r="BC313">
+        <v>0</v>
+      </c>
+      <c r="BD313">
+        <v>0</v>
+      </c>
+      <c r="BE313">
+        <v>0</v>
+      </c>
+      <c r="BF313">
+        <v>0</v>
+      </c>
+      <c r="BG313">
+        <v>0</v>
+      </c>
+      <c r="BH313">
+        <v>0</v>
+      </c>
+      <c r="BI313">
+        <v>0</v>
+      </c>
+      <c r="BJ313">
+        <v>1</v>
+      </c>
+      <c r="BK313">
+        <v>0</v>
+      </c>
+      <c r="BL313">
+        <v>1</v>
+      </c>
+      <c r="BM313">
+        <v>0</v>
+      </c>
+      <c r="BN313">
+        <v>0</v>
+      </c>
+      <c r="BO313">
+        <v>0</v>
+      </c>
+      <c r="BP313">
+        <v>10</v>
+      </c>
+      <c r="BQ313">
+        <v>10</v>
+      </c>
+      <c r="BR313">
+        <v>28</v>
+      </c>
+      <c r="BS313">
+        <v>37</v>
+      </c>
+      <c r="BT313">
+        <v>85</v>
+      </c>
+      <c r="BU313" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV313" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW313" t="s">
+        <v>659</v>
+      </c>
+      <c r="BX313" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY313" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ313" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA313" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB313" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC313" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD313" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE313" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF313" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="314" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>83</v>
+      </c>
+      <c r="B314" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C314" t="s">
+        <v>113</v>
+      </c>
+      <c r="D314" t="s">
+        <v>85</v>
+      </c>
+      <c r="E314" t="s">
+        <v>131</v>
+      </c>
+      <c r="F314" t="s">
+        <v>146</v>
+      </c>
+      <c r="G314" t="s">
+        <v>88</v>
+      </c>
+      <c r="H314" t="s">
+        <v>662</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>0</v>
+      </c>
+      <c r="S314">
+        <v>0</v>
+      </c>
+      <c r="T314">
+        <v>0</v>
+      </c>
+      <c r="U314">
+        <v>0</v>
+      </c>
+      <c r="V314">
+        <v>0</v>
+      </c>
+      <c r="W314">
+        <v>0</v>
+      </c>
+      <c r="X314">
+        <v>0</v>
+      </c>
+      <c r="Y314">
+        <v>0</v>
+      </c>
+      <c r="Z314">
+        <v>0</v>
+      </c>
+      <c r="AA314">
+        <v>0</v>
+      </c>
+      <c r="AB314">
+        <v>0</v>
+      </c>
+      <c r="AC314">
+        <v>0</v>
+      </c>
+      <c r="AD314">
+        <v>0</v>
+      </c>
+      <c r="AE314">
+        <v>0</v>
+      </c>
+      <c r="AF314">
+        <v>0</v>
+      </c>
+      <c r="AG314">
+        <v>0</v>
+      </c>
+      <c r="AH314">
+        <v>0</v>
+      </c>
+      <c r="AI314">
+        <v>0</v>
+      </c>
+      <c r="AJ314">
+        <v>0</v>
+      </c>
+      <c r="AK314">
+        <v>0</v>
+      </c>
+      <c r="AL314">
+        <v>0</v>
+      </c>
+      <c r="AM314">
+        <v>0</v>
+      </c>
+      <c r="AN314">
+        <v>0</v>
+      </c>
+      <c r="AO314">
+        <v>0</v>
+      </c>
+      <c r="AP314">
+        <v>0</v>
+      </c>
+      <c r="AQ314">
+        <v>0</v>
+      </c>
+      <c r="AR314">
+        <v>0</v>
+      </c>
+      <c r="AS314">
+        <v>0</v>
+      </c>
+      <c r="AT314">
+        <v>0</v>
+      </c>
+      <c r="AU314">
+        <v>0</v>
+      </c>
+      <c r="AV314">
+        <v>0</v>
+      </c>
+      <c r="AW314">
+        <v>0</v>
+      </c>
+      <c r="AX314">
+        <v>0</v>
+      </c>
+      <c r="AY314">
+        <v>0</v>
+      </c>
+      <c r="AZ314">
+        <v>0</v>
+      </c>
+      <c r="BA314">
+        <v>0</v>
+      </c>
+      <c r="BB314">
+        <v>0</v>
+      </c>
+      <c r="BC314">
+        <v>0</v>
+      </c>
+      <c r="BD314">
+        <v>0</v>
+      </c>
+      <c r="BE314">
+        <v>0</v>
+      </c>
+      <c r="BF314">
+        <v>0</v>
+      </c>
+      <c r="BG314">
+        <v>0</v>
+      </c>
+      <c r="BH314">
+        <v>1</v>
+      </c>
+      <c r="BI314">
+        <v>0</v>
+      </c>
+      <c r="BJ314">
+        <v>1</v>
+      </c>
+      <c r="BK314">
+        <v>1</v>
+      </c>
+      <c r="BL314">
+        <v>3</v>
+      </c>
+      <c r="BM314">
+        <v>1</v>
+      </c>
+      <c r="BN314">
+        <v>1</v>
+      </c>
+      <c r="BO314">
+        <v>4</v>
+      </c>
+      <c r="BP314">
+        <v>21</v>
+      </c>
+      <c r="BQ314">
+        <v>17</v>
+      </c>
+      <c r="BR314">
+        <v>26</v>
+      </c>
+      <c r="BS314">
+        <v>39</v>
+      </c>
+      <c r="BT314">
+        <v>109</v>
+      </c>
+      <c r="BU314" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV314" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW314" t="s">
+        <v>663</v>
+      </c>
+      <c r="BX314" t="s">
+        <v>630</v>
+      </c>
+      <c r="BY314" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ314" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA314" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB314" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC314" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD314" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE314" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF314" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="315" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>83</v>
+      </c>
+      <c r="B315" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C315" t="s">
+        <v>113</v>
+      </c>
+      <c r="D315" t="s">
+        <v>85</v>
+      </c>
+      <c r="E315" t="s">
+        <v>131</v>
+      </c>
+      <c r="F315" t="s">
+        <v>116</v>
+      </c>
+      <c r="G315" t="s">
+        <v>88</v>
+      </c>
+      <c r="H315" t="s">
+        <v>664</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>0</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
+      <c r="T315">
+        <v>0</v>
+      </c>
+      <c r="U315">
+        <v>0</v>
+      </c>
+      <c r="V315">
+        <v>0</v>
+      </c>
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+      <c r="AB315">
+        <v>0</v>
+      </c>
+      <c r="AC315">
+        <v>0</v>
+      </c>
+      <c r="AD315">
+        <v>0</v>
+      </c>
+      <c r="AE315">
+        <v>0</v>
+      </c>
+      <c r="AF315">
+        <v>0</v>
+      </c>
+      <c r="AG315">
+        <v>0</v>
+      </c>
+      <c r="AH315">
+        <v>0</v>
+      </c>
+      <c r="AI315">
+        <v>0</v>
+      </c>
+      <c r="AJ315">
+        <v>0</v>
+      </c>
+      <c r="AK315">
+        <v>0</v>
+      </c>
+      <c r="AL315">
+        <v>0</v>
+      </c>
+      <c r="AM315">
+        <v>0</v>
+      </c>
+      <c r="AN315">
+        <v>0</v>
+      </c>
+      <c r="AO315">
+        <v>0</v>
+      </c>
+      <c r="AP315">
+        <v>0</v>
+      </c>
+      <c r="AQ315">
+        <v>0</v>
+      </c>
+      <c r="AR315">
+        <v>0</v>
+      </c>
+      <c r="AS315">
+        <v>0</v>
+      </c>
+      <c r="AT315">
+        <v>0</v>
+      </c>
+      <c r="AU315">
+        <v>0</v>
+      </c>
+      <c r="AV315">
+        <v>0</v>
+      </c>
+      <c r="AW315">
+        <v>0</v>
+      </c>
+      <c r="AX315">
+        <v>0</v>
+      </c>
+      <c r="AY315">
+        <v>0</v>
+      </c>
+      <c r="AZ315">
+        <v>0</v>
+      </c>
+      <c r="BA315">
+        <v>0</v>
+      </c>
+      <c r="BB315">
+        <v>0</v>
+      </c>
+      <c r="BC315">
+        <v>0</v>
+      </c>
+      <c r="BD315">
+        <v>0</v>
+      </c>
+      <c r="BE315">
+        <v>0</v>
+      </c>
+      <c r="BF315">
+        <v>0</v>
+      </c>
+      <c r="BG315">
+        <v>1</v>
+      </c>
+      <c r="BH315">
+        <v>0</v>
+      </c>
+      <c r="BI315">
+        <v>0</v>
+      </c>
+      <c r="BJ315">
+        <v>0</v>
+      </c>
+      <c r="BK315">
+        <v>0</v>
+      </c>
+      <c r="BL315">
+        <v>1</v>
+      </c>
+      <c r="BM315">
+        <v>3</v>
+      </c>
+      <c r="BN315">
+        <v>8</v>
+      </c>
+      <c r="BO315">
+        <v>15</v>
+      </c>
+      <c r="BP315">
+        <v>59</v>
+      </c>
+      <c r="BQ315">
+        <v>53</v>
+      </c>
+      <c r="BR315">
+        <v>94</v>
+      </c>
+      <c r="BS315">
+        <v>83</v>
+      </c>
+      <c r="BT315">
+        <v>315</v>
+      </c>
+      <c r="BU315" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV315" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW315" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX315" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY315" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ315" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA315" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB315" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC315" t="s">
+        <v>329</v>
+      </c>
+      <c r="CD315" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE315" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF315" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="316" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>83</v>
+      </c>
+      <c r="B316" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C316" t="s">
+        <v>113</v>
+      </c>
+      <c r="D316" t="s">
+        <v>85</v>
+      </c>
+      <c r="E316" t="s">
+        <v>131</v>
+      </c>
+      <c r="F316" t="s">
+        <v>151</v>
+      </c>
+      <c r="G316" t="s">
+        <v>88</v>
+      </c>
+      <c r="H316" t="s">
+        <v>665</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>0</v>
+      </c>
+      <c r="S316">
+        <v>0</v>
+      </c>
+      <c r="T316">
+        <v>0</v>
+      </c>
+      <c r="U316">
+        <v>0</v>
+      </c>
+      <c r="V316">
+        <v>0</v>
+      </c>
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+      <c r="AB316">
+        <v>0</v>
+      </c>
+      <c r="AC316">
+        <v>0</v>
+      </c>
+      <c r="AD316">
+        <v>0</v>
+      </c>
+      <c r="AE316">
+        <v>0</v>
+      </c>
+      <c r="AF316">
+        <v>0</v>
+      </c>
+      <c r="AG316">
+        <v>0</v>
+      </c>
+      <c r="AH316">
+        <v>0</v>
+      </c>
+      <c r="AI316">
+        <v>0</v>
+      </c>
+      <c r="AJ316">
+        <v>0</v>
+      </c>
+      <c r="AK316">
+        <v>0</v>
+      </c>
+      <c r="AL316">
+        <v>0</v>
+      </c>
+      <c r="AM316">
+        <v>0</v>
+      </c>
+      <c r="AN316">
+        <v>0</v>
+      </c>
+      <c r="AO316">
+        <v>0</v>
+      </c>
+      <c r="AP316">
+        <v>0</v>
+      </c>
+      <c r="AQ316">
+        <v>0</v>
+      </c>
+      <c r="AR316">
+        <v>0</v>
+      </c>
+      <c r="AS316">
+        <v>0</v>
+      </c>
+      <c r="AT316">
+        <v>0</v>
+      </c>
+      <c r="AU316">
+        <v>0</v>
+      </c>
+      <c r="AV316">
+        <v>0</v>
+      </c>
+      <c r="AW316">
+        <v>0</v>
+      </c>
+      <c r="AX316">
+        <v>0</v>
+      </c>
+      <c r="AY316">
+        <v>0</v>
+      </c>
+      <c r="AZ316">
+        <v>0</v>
+      </c>
+      <c r="BA316">
+        <v>0</v>
+      </c>
+      <c r="BB316">
+        <v>0</v>
+      </c>
+      <c r="BC316">
+        <v>0</v>
+      </c>
+      <c r="BD316">
+        <v>0</v>
+      </c>
+      <c r="BE316">
+        <v>0</v>
+      </c>
+      <c r="BF316">
+        <v>1</v>
+      </c>
+      <c r="BG316">
+        <v>0</v>
+      </c>
+      <c r="BH316">
+        <v>0</v>
+      </c>
+      <c r="BI316">
+        <v>0</v>
+      </c>
+      <c r="BJ316">
+        <v>0</v>
+      </c>
+      <c r="BK316">
+        <v>0</v>
+      </c>
+      <c r="BL316">
+        <v>1</v>
+      </c>
+      <c r="BM316">
+        <v>2</v>
+      </c>
+      <c r="BN316">
+        <v>4</v>
+      </c>
+      <c r="BO316">
+        <v>15</v>
+      </c>
+      <c r="BP316">
+        <v>22</v>
+      </c>
+      <c r="BQ316">
+        <v>53</v>
+      </c>
+      <c r="BR316">
+        <v>50</v>
+      </c>
+      <c r="BS316">
+        <v>50</v>
+      </c>
+      <c r="BT316">
+        <v>196</v>
+      </c>
+      <c r="BU316" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV316" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW316" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX316" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY316" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ316" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA316" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB316" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC316" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD316" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE316" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF316" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="317" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>83</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C317" t="s">
+        <v>113</v>
+      </c>
+      <c r="D317" t="s">
+        <v>85</v>
+      </c>
+      <c r="E317" t="s">
+        <v>219</v>
+      </c>
+      <c r="F317" t="s">
+        <v>102</v>
+      </c>
+      <c r="G317" t="s">
+        <v>88</v>
+      </c>
+      <c r="H317" t="s">
+        <v>666</v>
+      </c>
+      <c r="I317">
+        <v>5</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>4</v>
+      </c>
+      <c r="L317">
+        <v>2</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>5</v>
+      </c>
+      <c r="P317">
+        <v>16</v>
+      </c>
+      <c r="Q317">
+        <v>11</v>
+      </c>
+      <c r="R317">
+        <v>3</v>
+      </c>
+      <c r="S317">
+        <v>33</v>
+      </c>
+      <c r="T317">
+        <v>71</v>
+      </c>
+      <c r="U317">
+        <v>194</v>
+      </c>
+      <c r="V317">
+        <v>103</v>
+      </c>
+      <c r="W317">
+        <v>150</v>
+      </c>
+      <c r="X317">
+        <v>565</v>
+      </c>
+      <c r="Y317">
+        <v>3</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>4</v>
+      </c>
+      <c r="AB317">
+        <v>0</v>
+      </c>
+      <c r="AC317">
+        <v>1</v>
+      </c>
+      <c r="AD317">
+        <v>0</v>
+      </c>
+      <c r="AE317">
+        <v>0</v>
+      </c>
+      <c r="AF317">
+        <v>8</v>
+      </c>
+      <c r="AG317">
+        <v>3</v>
+      </c>
+      <c r="AH317">
+        <v>0</v>
+      </c>
+      <c r="AI317">
+        <v>4</v>
+      </c>
+      <c r="AJ317">
+        <v>1</v>
+      </c>
+      <c r="AK317">
+        <v>12</v>
+      </c>
+      <c r="AL317">
+        <v>15</v>
+      </c>
+      <c r="AM317">
+        <v>26</v>
+      </c>
+      <c r="AN317">
+        <v>61</v>
+      </c>
+      <c r="AO317">
+        <v>0</v>
+      </c>
+      <c r="AP317">
+        <v>0</v>
+      </c>
+      <c r="AQ317">
+        <v>0</v>
+      </c>
+      <c r="AR317">
+        <v>0</v>
+      </c>
+      <c r="AS317">
+        <v>0</v>
+      </c>
+      <c r="AT317">
+        <v>0</v>
+      </c>
+      <c r="AU317">
+        <v>1</v>
+      </c>
+      <c r="AV317">
+        <v>1</v>
+      </c>
+      <c r="AW317">
+        <v>2</v>
+      </c>
+      <c r="AX317">
+        <v>0</v>
+      </c>
+      <c r="AY317">
+        <v>0</v>
+      </c>
+      <c r="AZ317">
+        <v>0</v>
+      </c>
+      <c r="BA317">
+        <v>0</v>
+      </c>
+      <c r="BB317">
+        <v>0</v>
+      </c>
+      <c r="BC317">
+        <v>5</v>
+      </c>
+      <c r="BD317">
+        <v>7</v>
+      </c>
+      <c r="BE317">
+        <v>12</v>
+      </c>
+      <c r="BF317">
+        <v>3</v>
+      </c>
+      <c r="BG317">
+        <v>26</v>
+      </c>
+      <c r="BH317">
+        <v>10</v>
+      </c>
+      <c r="BI317">
+        <v>11</v>
+      </c>
+      <c r="BJ317">
+        <v>4</v>
+      </c>
+      <c r="BK317">
+        <v>3</v>
+      </c>
+      <c r="BL317">
+        <v>69</v>
+      </c>
+      <c r="BM317">
+        <v>39</v>
+      </c>
+      <c r="BN317">
+        <v>19</v>
+      </c>
+      <c r="BO317">
+        <v>98</v>
+      </c>
+      <c r="BP317">
+        <v>194</v>
+      </c>
+      <c r="BQ317">
+        <v>484</v>
+      </c>
+      <c r="BR317">
+        <v>234</v>
+      </c>
+      <c r="BS317">
+        <v>196</v>
+      </c>
+      <c r="BT317">
+        <v>1264</v>
+      </c>
+      <c r="BU317" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV317" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW317" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX317" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY317" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ317" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA317" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB317" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC317" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD317" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE317" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF317" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="318" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>83</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C318" t="s">
+        <v>616</v>
+      </c>
+      <c r="D318" t="s">
+        <v>85</v>
+      </c>
+      <c r="E318" t="s">
+        <v>227</v>
+      </c>
+      <c r="F318" t="s">
+        <v>102</v>
+      </c>
+      <c r="G318" t="s">
+        <v>88</v>
+      </c>
+      <c r="H318" t="s">
+        <v>667</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
+        <v>4</v>
+      </c>
+      <c r="W318">
+        <v>18</v>
+      </c>
+      <c r="X318">
+        <v>24</v>
+      </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+      <c r="AB318">
+        <v>0</v>
+      </c>
+      <c r="AC318">
+        <v>0</v>
+      </c>
+      <c r="AD318">
+        <v>0</v>
+      </c>
+      <c r="AE318">
+        <v>0</v>
+      </c>
+      <c r="AF318">
+        <v>0</v>
+      </c>
+      <c r="AG318">
+        <v>0</v>
+      </c>
+      <c r="AH318">
+        <v>0</v>
+      </c>
+      <c r="AI318">
+        <v>0</v>
+      </c>
+      <c r="AJ318">
+        <v>0</v>
+      </c>
+      <c r="AK318">
+        <v>2</v>
+      </c>
+      <c r="AL318">
+        <v>2</v>
+      </c>
+      <c r="AM318">
+        <v>2</v>
+      </c>
+      <c r="AN318">
+        <v>6</v>
+      </c>
+      <c r="AO318">
+        <v>0</v>
+      </c>
+      <c r="AP318">
+        <v>0</v>
+      </c>
+      <c r="AQ318">
+        <v>0</v>
+      </c>
+      <c r="AR318">
+        <v>0</v>
+      </c>
+      <c r="AS318">
+        <v>0</v>
+      </c>
+      <c r="AT318">
+        <v>0</v>
+      </c>
+      <c r="AU318">
+        <v>0</v>
+      </c>
+      <c r="AV318">
+        <v>0</v>
+      </c>
+      <c r="AW318">
+        <v>0</v>
+      </c>
+      <c r="AX318">
+        <v>0</v>
+      </c>
+      <c r="AY318">
+        <v>0</v>
+      </c>
+      <c r="AZ318">
+        <v>0</v>
+      </c>
+      <c r="BA318">
+        <v>0</v>
+      </c>
+      <c r="BB318">
+        <v>1</v>
+      </c>
+      <c r="BC318">
+        <v>4</v>
+      </c>
+      <c r="BD318">
+        <v>5</v>
+      </c>
+      <c r="BE318">
+        <v>0</v>
+      </c>
+      <c r="BF318">
+        <v>0</v>
+      </c>
+      <c r="BG318">
+        <v>0</v>
+      </c>
+      <c r="BH318">
+        <v>0</v>
+      </c>
+      <c r="BI318">
+        <v>0</v>
+      </c>
+      <c r="BJ318">
+        <v>0</v>
+      </c>
+      <c r="BK318">
+        <v>0</v>
+      </c>
+      <c r="BL318">
+        <v>0</v>
+      </c>
+      <c r="BM318">
+        <v>0</v>
+      </c>
+      <c r="BN318">
+        <v>0</v>
+      </c>
+      <c r="BO318">
+        <v>0</v>
+      </c>
+      <c r="BP318">
+        <v>0</v>
+      </c>
+      <c r="BQ318">
+        <v>0</v>
+      </c>
+      <c r="BR318">
+        <v>0</v>
+      </c>
+      <c r="BS318">
+        <v>0</v>
+      </c>
+      <c r="BT318">
+        <v>0</v>
+      </c>
+      <c r="BU318" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV318" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW318" t="s">
+        <v>668</v>
+      </c>
+      <c r="BX318" t="s">
+        <v>669</v>
+      </c>
+      <c r="BY318" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ318" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA318" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB318" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC318" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD318" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE318" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF318" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="319" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>83</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C319" t="s">
+        <v>113</v>
+      </c>
+      <c r="D319" t="s">
+        <v>85</v>
+      </c>
+      <c r="E319" t="s">
+        <v>213</v>
+      </c>
+      <c r="F319" t="s">
+        <v>102</v>
+      </c>
+      <c r="G319" t="s">
+        <v>88</v>
+      </c>
+      <c r="H319" t="s">
+        <v>670</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+      <c r="O319">
+        <v>2</v>
+      </c>
+      <c r="P319">
+        <v>5</v>
+      </c>
+      <c r="Q319">
+        <v>4</v>
+      </c>
+      <c r="R319">
+        <v>2</v>
+      </c>
+      <c r="S319">
+        <v>2</v>
+      </c>
+      <c r="T319">
+        <v>13</v>
+      </c>
+      <c r="U319">
+        <v>15</v>
+      </c>
+      <c r="V319">
+        <v>38</v>
+      </c>
+      <c r="W319">
+        <v>118</v>
+      </c>
+      <c r="X319">
+        <v>192</v>
+      </c>
+      <c r="Y319">
+        <v>0</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>0</v>
+      </c>
+      <c r="AB319">
+        <v>0</v>
+      </c>
+      <c r="AC319">
+        <v>0</v>
+      </c>
+      <c r="AD319">
+        <v>0</v>
+      </c>
+      <c r="AE319">
+        <v>0</v>
+      </c>
+      <c r="AF319">
+        <v>0</v>
+      </c>
+      <c r="AG319">
+        <v>0</v>
+      </c>
+      <c r="AH319">
+        <v>0</v>
+      </c>
+      <c r="AI319">
+        <v>0</v>
+      </c>
+      <c r="AJ319">
+        <v>0</v>
+      </c>
+      <c r="AK319">
+        <v>0</v>
+      </c>
+      <c r="AL319">
+        <v>0</v>
+      </c>
+      <c r="AM319">
+        <v>0</v>
+      </c>
+      <c r="AN319">
+        <v>0</v>
+      </c>
+      <c r="AO319">
+        <v>0</v>
+      </c>
+      <c r="AP319">
+        <v>0</v>
+      </c>
+      <c r="AQ319">
+        <v>0</v>
+      </c>
+      <c r="AR319">
+        <v>0</v>
+      </c>
+      <c r="AS319">
+        <v>0</v>
+      </c>
+      <c r="AT319">
+        <v>0</v>
+      </c>
+      <c r="AU319">
+        <v>0</v>
+      </c>
+      <c r="AV319">
+        <v>0</v>
+      </c>
+      <c r="AW319">
+        <v>0</v>
+      </c>
+      <c r="AX319">
+        <v>0</v>
+      </c>
+      <c r="AY319">
+        <v>0</v>
+      </c>
+      <c r="AZ319">
+        <v>0</v>
+      </c>
+      <c r="BA319">
+        <v>0</v>
+      </c>
+      <c r="BB319">
+        <v>0</v>
+      </c>
+      <c r="BC319">
+        <v>2</v>
+      </c>
+      <c r="BD319">
+        <v>2</v>
+      </c>
+      <c r="BE319">
+        <v>2</v>
+      </c>
+      <c r="BF319">
+        <v>1</v>
+      </c>
+      <c r="BG319">
+        <v>3</v>
+      </c>
+      <c r="BH319">
+        <v>1</v>
+      </c>
+      <c r="BI319">
+        <v>3</v>
+      </c>
+      <c r="BJ319">
+        <v>0</v>
+      </c>
+      <c r="BK319">
+        <v>3</v>
+      </c>
+      <c r="BL319">
+        <v>13</v>
+      </c>
+      <c r="BM319">
+        <v>20</v>
+      </c>
+      <c r="BN319">
+        <v>7</v>
+      </c>
+      <c r="BO319">
+        <v>14</v>
+      </c>
+      <c r="BP319">
+        <v>57</v>
+      </c>
+      <c r="BQ319">
+        <v>104</v>
+      </c>
+      <c r="BR319">
+        <v>162</v>
+      </c>
+      <c r="BS319">
+        <v>382</v>
+      </c>
+      <c r="BT319">
+        <v>746</v>
+      </c>
+      <c r="BU319" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV319" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW319" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX319" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY319" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ319" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA319" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB319" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC319" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD319" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE319" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF319" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="320" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>83</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C320" t="s">
+        <v>113</v>
+      </c>
+      <c r="D320" t="s">
+        <v>85</v>
+      </c>
+      <c r="E320" t="s">
+        <v>166</v>
+      </c>
+      <c r="F320" t="s">
+        <v>102</v>
+      </c>
+      <c r="G320" t="s">
+        <v>88</v>
+      </c>
+      <c r="H320" t="s">
+        <v>671</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>0</v>
+      </c>
+      <c r="S320">
+        <v>0</v>
+      </c>
+      <c r="T320">
+        <v>0</v>
+      </c>
+      <c r="U320">
+        <v>0</v>
+      </c>
+      <c r="V320">
+        <v>0</v>
+      </c>
+      <c r="W320">
+        <v>0</v>
+      </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <v>0</v>
+      </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
+      <c r="AB320">
+        <v>0</v>
+      </c>
+      <c r="AC320">
+        <v>0</v>
+      </c>
+      <c r="AD320">
+        <v>0</v>
+      </c>
+      <c r="AE320">
+        <v>0</v>
+      </c>
+      <c r="AF320">
+        <v>0</v>
+      </c>
+      <c r="AG320">
+        <v>0</v>
+      </c>
+      <c r="AH320">
+        <v>0</v>
+      </c>
+      <c r="AI320">
+        <v>0</v>
+      </c>
+      <c r="AJ320">
+        <v>0</v>
+      </c>
+      <c r="AK320">
+        <v>0</v>
+      </c>
+      <c r="AL320">
+        <v>0</v>
+      </c>
+      <c r="AM320">
+        <v>0</v>
+      </c>
+      <c r="AN320">
+        <v>0</v>
+      </c>
+      <c r="AO320">
+        <v>0</v>
+      </c>
+      <c r="AP320">
+        <v>0</v>
+      </c>
+      <c r="AQ320">
+        <v>0</v>
+      </c>
+      <c r="AR320">
+        <v>0</v>
+      </c>
+      <c r="AS320">
+        <v>0</v>
+      </c>
+      <c r="AT320">
+        <v>0</v>
+      </c>
+      <c r="AU320">
+        <v>0</v>
+      </c>
+      <c r="AV320">
+        <v>0</v>
+      </c>
+      <c r="AW320">
+        <v>0</v>
+      </c>
+      <c r="AX320">
+        <v>0</v>
+      </c>
+      <c r="AY320">
+        <v>0</v>
+      </c>
+      <c r="AZ320">
+        <v>0</v>
+      </c>
+      <c r="BA320">
+        <v>0</v>
+      </c>
+      <c r="BB320">
+        <v>0</v>
+      </c>
+      <c r="BC320">
+        <v>0</v>
+      </c>
+      <c r="BD320">
+        <v>0</v>
+      </c>
+      <c r="BE320">
+        <v>0</v>
+      </c>
+      <c r="BF320">
+        <v>1</v>
+      </c>
+      <c r="BG320">
+        <v>0</v>
+      </c>
+      <c r="BH320">
+        <v>0</v>
+      </c>
+      <c r="BI320">
+        <v>2</v>
+      </c>
+      <c r="BJ320">
+        <v>4</v>
+      </c>
+      <c r="BK320">
+        <v>1</v>
+      </c>
+      <c r="BL320">
+        <v>8</v>
+      </c>
+      <c r="BM320">
+        <v>4</v>
+      </c>
+      <c r="BN320">
+        <v>1</v>
+      </c>
+      <c r="BO320">
+        <v>5</v>
+      </c>
+      <c r="BP320">
+        <v>98</v>
+      </c>
+      <c r="BQ320">
+        <v>185</v>
+      </c>
+      <c r="BR320">
+        <v>379</v>
+      </c>
+      <c r="BS320">
+        <v>540</v>
+      </c>
+      <c r="BT320">
+        <v>1212</v>
+      </c>
+      <c r="BU320" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV320" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW320" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX320" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY320" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ320" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA320" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB320" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC320" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD320" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE320" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF320" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="321" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>83</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C321" t="s">
+        <v>113</v>
+      </c>
+      <c r="D321" t="s">
+        <v>85</v>
+      </c>
+      <c r="E321" t="s">
+        <v>256</v>
+      </c>
+      <c r="F321" t="s">
+        <v>102</v>
+      </c>
+      <c r="G321" t="s">
+        <v>88</v>
+      </c>
+      <c r="H321" t="s">
+        <v>333</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>2</v>
+      </c>
+      <c r="P321">
+        <v>2</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>0</v>
+      </c>
+      <c r="U321">
+        <v>1</v>
+      </c>
+      <c r="V321">
+        <v>3</v>
+      </c>
+      <c r="W321">
+        <v>18</v>
+      </c>
+      <c r="X321">
+        <v>22</v>
+      </c>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+      <c r="AB321">
+        <v>0</v>
+      </c>
+      <c r="AC321">
+        <v>0</v>
+      </c>
+      <c r="AD321">
+        <v>0</v>
+      </c>
+      <c r="AE321">
+        <v>0</v>
+      </c>
+      <c r="AF321">
+        <v>0</v>
+      </c>
+      <c r="AG321">
+        <v>0</v>
+      </c>
+      <c r="AH321">
+        <v>0</v>
+      </c>
+      <c r="AI321">
+        <v>0</v>
+      </c>
+      <c r="AJ321">
+        <v>0</v>
+      </c>
+      <c r="AK321">
+        <v>0</v>
+      </c>
+      <c r="AL321">
+        <v>0</v>
+      </c>
+      <c r="AM321">
+        <v>0</v>
+      </c>
+      <c r="AN321">
+        <v>0</v>
+      </c>
+      <c r="AO321">
+        <v>0</v>
+      </c>
+      <c r="AP321">
+        <v>0</v>
+      </c>
+      <c r="AQ321">
+        <v>0</v>
+      </c>
+      <c r="AR321">
+        <v>0</v>
+      </c>
+      <c r="AS321">
+        <v>0</v>
+      </c>
+      <c r="AT321">
+        <v>0</v>
+      </c>
+      <c r="AU321">
+        <v>0</v>
+      </c>
+      <c r="AV321">
+        <v>0</v>
+      </c>
+      <c r="AW321">
+        <v>0</v>
+      </c>
+      <c r="AX321">
+        <v>0</v>
+      </c>
+      <c r="AY321">
+        <v>0</v>
+      </c>
+      <c r="AZ321">
+        <v>0</v>
+      </c>
+      <c r="BA321">
+        <v>0</v>
+      </c>
+      <c r="BB321">
+        <v>0</v>
+      </c>
+      <c r="BC321">
+        <v>5</v>
+      </c>
+      <c r="BD321">
+        <v>5</v>
+      </c>
+      <c r="BE321">
+        <v>0</v>
+      </c>
+      <c r="BF321">
+        <v>0</v>
+      </c>
+      <c r="BG321">
+        <v>0</v>
+      </c>
+      <c r="BH321">
+        <v>0</v>
+      </c>
+      <c r="BI321">
+        <v>0</v>
+      </c>
+      <c r="BJ321">
+        <v>0</v>
+      </c>
+      <c r="BK321">
+        <v>0</v>
+      </c>
+      <c r="BL321">
+        <v>0</v>
+      </c>
+      <c r="BM321">
+        <v>0</v>
+      </c>
+      <c r="BN321">
+        <v>0</v>
+      </c>
+      <c r="BO321">
+        <v>0</v>
+      </c>
+      <c r="BP321">
+        <v>0</v>
+      </c>
+      <c r="BQ321">
+        <v>7</v>
+      </c>
+      <c r="BR321">
+        <v>3</v>
+      </c>
+      <c r="BS321">
+        <v>13</v>
+      </c>
+      <c r="BT321">
+        <v>23</v>
+      </c>
+      <c r="BU321" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV321" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW321" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX321" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY321" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ321" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA321" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB321" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC321" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD321" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE321" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF321" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="322" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>83</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C322" t="s">
+        <v>113</v>
+      </c>
+      <c r="D322" t="s">
+        <v>85</v>
+      </c>
+      <c r="E322" t="s">
+        <v>256</v>
+      </c>
+      <c r="F322" t="s">
+        <v>132</v>
+      </c>
+      <c r="G322" t="s">
+        <v>88</v>
+      </c>
+      <c r="H322" t="s">
+        <v>672</v>
+      </c>
+      <c r="I322">
+        <v>2</v>
+      </c>
+      <c r="J322">
+        <v>2</v>
+      </c>
+      <c r="K322">
+        <v>2</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>2</v>
+      </c>
+      <c r="P322">
+        <v>9</v>
+      </c>
+      <c r="Q322">
+        <v>5</v>
+      </c>
+      <c r="R322">
+        <v>5</v>
+      </c>
+      <c r="S322">
+        <v>5</v>
+      </c>
+      <c r="T322">
+        <v>12</v>
+      </c>
+      <c r="U322">
+        <v>9</v>
+      </c>
+      <c r="V322">
+        <v>26</v>
+      </c>
+      <c r="W322">
+        <v>88</v>
+      </c>
+      <c r="X322">
+        <v>150</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+      <c r="AB322">
+        <v>0</v>
+      </c>
+      <c r="AC322">
+        <v>0</v>
+      </c>
+      <c r="AD322">
+        <v>0</v>
+      </c>
+      <c r="AE322">
+        <v>0</v>
+      </c>
+      <c r="AF322">
+        <v>0</v>
+      </c>
+      <c r="AG322">
+        <v>0</v>
+      </c>
+      <c r="AH322">
+        <v>0</v>
+      </c>
+      <c r="AI322">
+        <v>0</v>
+      </c>
+      <c r="AJ322">
+        <v>0</v>
+      </c>
+      <c r="AK322">
+        <v>0</v>
+      </c>
+      <c r="AL322">
+        <v>0</v>
+      </c>
+      <c r="AM322">
+        <v>0</v>
+      </c>
+      <c r="AN322">
+        <v>0</v>
+      </c>
+      <c r="AO322">
+        <v>0</v>
+      </c>
+      <c r="AP322">
+        <v>0</v>
+      </c>
+      <c r="AQ322">
+        <v>0</v>
+      </c>
+      <c r="AR322">
+        <v>0</v>
+      </c>
+      <c r="AS322">
+        <v>0</v>
+      </c>
+      <c r="AT322">
+        <v>0</v>
+      </c>
+      <c r="AU322">
+        <v>0</v>
+      </c>
+      <c r="AV322">
+        <v>0</v>
+      </c>
+      <c r="AW322">
+        <v>0</v>
+      </c>
+      <c r="AX322">
+        <v>0</v>
+      </c>
+      <c r="AY322">
+        <v>0</v>
+      </c>
+      <c r="AZ322">
+        <v>0</v>
+      </c>
+      <c r="BA322">
+        <v>2</v>
+      </c>
+      <c r="BB322">
+        <v>10</v>
+      </c>
+      <c r="BC322">
+        <v>33</v>
+      </c>
+      <c r="BD322">
+        <v>45</v>
+      </c>
+      <c r="BE322">
+        <v>5</v>
+      </c>
+      <c r="BF322">
+        <v>1</v>
+      </c>
+      <c r="BG322">
+        <v>9</v>
+      </c>
+      <c r="BH322">
+        <v>3</v>
+      </c>
+      <c r="BI322">
+        <v>1</v>
+      </c>
+      <c r="BJ322">
+        <v>1</v>
+      </c>
+      <c r="BK322">
+        <v>3</v>
+      </c>
+      <c r="BL322">
+        <v>23</v>
+      </c>
+      <c r="BM322">
+        <v>13</v>
+      </c>
+      <c r="BN322">
+        <v>15</v>
+      </c>
+      <c r="BO322">
+        <v>51</v>
+      </c>
+      <c r="BP322">
+        <v>56</v>
+      </c>
+      <c r="BQ322">
+        <v>46</v>
+      </c>
+      <c r="BR322">
+        <v>58</v>
+      </c>
+      <c r="BS322">
+        <v>138</v>
+      </c>
+      <c r="BT322">
+        <v>377</v>
+      </c>
+      <c r="BU322" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV322" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW322" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX322" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY322" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ322" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA322" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB322" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC322" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD322" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE322" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF322" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="323" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>83</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C323" t="s">
+        <v>113</v>
+      </c>
+      <c r="D323" t="s">
+        <v>85</v>
+      </c>
+      <c r="E323" t="s">
+        <v>234</v>
+      </c>
+      <c r="F323" t="s">
+        <v>102</v>
+      </c>
+      <c r="G323" t="s">
+        <v>88</v>
+      </c>
+      <c r="H323" t="s">
+        <v>288</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323">
+        <v>6</v>
+      </c>
+      <c r="V323">
+        <v>5</v>
+      </c>
+      <c r="W323">
+        <v>14</v>
+      </c>
+      <c r="X323">
+        <v>25</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+      <c r="AB323">
+        <v>0</v>
+      </c>
+      <c r="AC323">
+        <v>0</v>
+      </c>
+      <c r="AD323">
+        <v>0</v>
+      </c>
+      <c r="AE323">
+        <v>0</v>
+      </c>
+      <c r="AF323">
+        <v>0</v>
+      </c>
+      <c r="AG323">
+        <v>0</v>
+      </c>
+      <c r="AH323">
+        <v>0</v>
+      </c>
+      <c r="AI323">
+        <v>0</v>
+      </c>
+      <c r="AJ323">
+        <v>0</v>
+      </c>
+      <c r="AK323">
+        <v>0</v>
+      </c>
+      <c r="AL323">
+        <v>0</v>
+      </c>
+      <c r="AM323">
+        <v>0</v>
+      </c>
+      <c r="AN323">
+        <v>0</v>
+      </c>
+      <c r="AO323">
+        <v>0</v>
+      </c>
+      <c r="AP323">
+        <v>0</v>
+      </c>
+      <c r="AQ323">
+        <v>0</v>
+      </c>
+      <c r="AR323">
+        <v>0</v>
+      </c>
+      <c r="AS323">
+        <v>0</v>
+      </c>
+      <c r="AT323">
+        <v>0</v>
+      </c>
+      <c r="AU323">
+        <v>0</v>
+      </c>
+      <c r="AV323">
+        <v>0</v>
+      </c>
+      <c r="AW323">
+        <v>0</v>
+      </c>
+      <c r="AX323">
+        <v>0</v>
+      </c>
+      <c r="AY323">
+        <v>0</v>
+      </c>
+      <c r="AZ323">
+        <v>0</v>
+      </c>
+      <c r="BA323">
+        <v>0</v>
+      </c>
+      <c r="BB323">
+        <v>0</v>
+      </c>
+      <c r="BC323">
+        <v>0</v>
+      </c>
+      <c r="BD323">
+        <v>0</v>
+      </c>
+      <c r="BE323">
+        <v>0</v>
+      </c>
+      <c r="BF323">
+        <v>1</v>
+      </c>
+      <c r="BG323">
+        <v>2</v>
+      </c>
+      <c r="BH323">
+        <v>3</v>
+      </c>
+      <c r="BI323">
+        <v>13</v>
+      </c>
+      <c r="BJ323">
+        <v>11</v>
+      </c>
+      <c r="BK323">
+        <v>11</v>
+      </c>
+      <c r="BL323">
+        <v>41</v>
+      </c>
+      <c r="BM323">
+        <v>3</v>
+      </c>
+      <c r="BN323">
+        <v>3</v>
+      </c>
+      <c r="BO323">
+        <v>11</v>
+      </c>
+      <c r="BP323">
+        <v>65</v>
+      </c>
+      <c r="BQ323">
+        <v>173</v>
+      </c>
+      <c r="BR323">
+        <v>190</v>
+      </c>
+      <c r="BS323">
+        <v>248</v>
+      </c>
+      <c r="BT323">
+        <v>693</v>
+      </c>
+      <c r="BU323" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV323" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW323" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX323" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY323" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ323" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA323" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB323" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC323" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD323" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE323" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF323" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="324" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>83</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C324" t="s">
+        <v>113</v>
+      </c>
+      <c r="D324" t="s">
+        <v>85</v>
+      </c>
+      <c r="E324" t="s">
+        <v>241</v>
+      </c>
+      <c r="F324" t="s">
+        <v>132</v>
+      </c>
+      <c r="G324" t="s">
+        <v>88</v>
+      </c>
+      <c r="H324" t="s">
+        <v>318</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>0</v>
+      </c>
+      <c r="T324">
+        <v>0</v>
+      </c>
+      <c r="U324">
+        <v>0</v>
+      </c>
+      <c r="V324">
+        <v>0</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+      <c r="AB324">
+        <v>0</v>
+      </c>
+      <c r="AC324">
+        <v>0</v>
+      </c>
+      <c r="AD324">
+        <v>0</v>
+      </c>
+      <c r="AE324">
+        <v>0</v>
+      </c>
+      <c r="AF324">
+        <v>0</v>
+      </c>
+      <c r="AG324">
+        <v>0</v>
+      </c>
+      <c r="AH324">
+        <v>0</v>
+      </c>
+      <c r="AI324">
+        <v>0</v>
+      </c>
+      <c r="AJ324">
+        <v>0</v>
+      </c>
+      <c r="AK324">
+        <v>0</v>
+      </c>
+      <c r="AL324">
+        <v>0</v>
+      </c>
+      <c r="AM324">
+        <v>0</v>
+      </c>
+      <c r="AN324">
+        <v>0</v>
+      </c>
+      <c r="AO324">
+        <v>0</v>
+      </c>
+      <c r="AP324">
+        <v>0</v>
+      </c>
+      <c r="AQ324">
+        <v>0</v>
+      </c>
+      <c r="AR324">
+        <v>0</v>
+      </c>
+      <c r="AS324">
+        <v>0</v>
+      </c>
+      <c r="AT324">
+        <v>0</v>
+      </c>
+      <c r="AU324">
+        <v>0</v>
+      </c>
+      <c r="AV324">
+        <v>0</v>
+      </c>
+      <c r="AW324">
+        <v>0</v>
+      </c>
+      <c r="AX324">
+        <v>0</v>
+      </c>
+      <c r="AY324">
+        <v>0</v>
+      </c>
+      <c r="AZ324">
+        <v>0</v>
+      </c>
+      <c r="BA324">
+        <v>0</v>
+      </c>
+      <c r="BB324">
+        <v>0</v>
+      </c>
+      <c r="BC324">
+        <v>0</v>
+      </c>
+      <c r="BD324">
+        <v>0</v>
+      </c>
+      <c r="BE324">
+        <v>0</v>
+      </c>
+      <c r="BF324">
+        <v>0</v>
+      </c>
+      <c r="BG324">
+        <v>7</v>
+      </c>
+      <c r="BH324">
+        <v>2</v>
+      </c>
+      <c r="BI324">
+        <v>4</v>
+      </c>
+      <c r="BJ324">
+        <v>1</v>
+      </c>
+      <c r="BK324">
+        <v>0</v>
+      </c>
+      <c r="BL324">
+        <v>14</v>
+      </c>
+      <c r="BM324">
+        <v>0</v>
+      </c>
+      <c r="BN324">
+        <v>0</v>
+      </c>
+      <c r="BO324">
+        <v>7</v>
+      </c>
+      <c r="BP324">
+        <v>2</v>
+      </c>
+      <c r="BQ324">
+        <v>4</v>
+      </c>
+      <c r="BR324">
+        <v>1</v>
+      </c>
+      <c r="BS324">
+        <v>0</v>
+      </c>
+      <c r="BT324">
+        <v>14</v>
+      </c>
+      <c r="BU324" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV324" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW324" t="s">
+        <v>349</v>
+      </c>
+      <c r="BX324" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY324" t="s">
+        <v>244</v>
+      </c>
+      <c r="BZ324" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA324" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB324" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC324" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD324" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE324" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF324" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="325" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>83</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C325" t="s">
+        <v>113</v>
+      </c>
+      <c r="D325" t="s">
+        <v>85</v>
+      </c>
+      <c r="E325" t="s">
+        <v>204</v>
+      </c>
+      <c r="F325" t="s">
+        <v>102</v>
+      </c>
+      <c r="G325" t="s">
+        <v>88</v>
+      </c>
+      <c r="H325" t="s">
+        <v>673</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0</v>
+      </c>
+      <c r="S325">
+        <v>0</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+      <c r="V325">
+        <v>0</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+      <c r="AB325">
+        <v>0</v>
+      </c>
+      <c r="AC325">
+        <v>0</v>
+      </c>
+      <c r="AD325">
+        <v>0</v>
+      </c>
+      <c r="AE325">
+        <v>0</v>
+      </c>
+      <c r="AF325">
+        <v>0</v>
+      </c>
+      <c r="AG325">
+        <v>0</v>
+      </c>
+      <c r="AH325">
+        <v>0</v>
+      </c>
+      <c r="AI325">
+        <v>0</v>
+      </c>
+      <c r="AJ325">
+        <v>0</v>
+      </c>
+      <c r="AK325">
+        <v>0</v>
+      </c>
+      <c r="AL325">
+        <v>0</v>
+      </c>
+      <c r="AM325">
+        <v>0</v>
+      </c>
+      <c r="AN325">
+        <v>0</v>
+      </c>
+      <c r="AO325">
+        <v>0</v>
+      </c>
+      <c r="AP325">
+        <v>0</v>
+      </c>
+      <c r="AQ325">
+        <v>0</v>
+      </c>
+      <c r="AR325">
+        <v>0</v>
+      </c>
+      <c r="AS325">
+        <v>0</v>
+      </c>
+      <c r="AT325">
+        <v>0</v>
+      </c>
+      <c r="AU325">
+        <v>0</v>
+      </c>
+      <c r="AV325">
+        <v>0</v>
+      </c>
+      <c r="AW325">
+        <v>0</v>
+      </c>
+      <c r="AX325">
+        <v>0</v>
+      </c>
+      <c r="AY325">
+        <v>0</v>
+      </c>
+      <c r="AZ325">
+        <v>0</v>
+      </c>
+      <c r="BA325">
+        <v>0</v>
+      </c>
+      <c r="BB325">
+        <v>0</v>
+      </c>
+      <c r="BC325">
+        <v>0</v>
+      </c>
+      <c r="BD325">
+        <v>0</v>
+      </c>
+      <c r="BE325">
+        <v>1</v>
+      </c>
+      <c r="BF325">
+        <v>0</v>
+      </c>
+      <c r="BG325">
+        <v>13</v>
+      </c>
+      <c r="BH325">
+        <v>19</v>
+      </c>
+      <c r="BI325">
+        <v>14</v>
+      </c>
+      <c r="BJ325">
+        <v>12</v>
+      </c>
+      <c r="BK325">
+        <v>8</v>
+      </c>
+      <c r="BL325">
+        <v>67</v>
+      </c>
+      <c r="BM325">
+        <v>1</v>
+      </c>
+      <c r="BN325">
+        <v>0</v>
+      </c>
+      <c r="BO325">
+        <v>13</v>
+      </c>
+      <c r="BP325">
+        <v>19</v>
+      </c>
+      <c r="BQ325">
+        <v>14</v>
+      </c>
+      <c r="BR325">
+        <v>12</v>
+      </c>
+      <c r="BS325">
+        <v>8</v>
+      </c>
+      <c r="BT325">
+        <v>67</v>
+      </c>
+      <c r="BU325" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV325" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW325" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX325" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY325" t="s">
+        <v>674</v>
+      </c>
+      <c r="BZ325" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA325" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB325" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC325" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD325" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE325" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF325" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="326" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>83</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C326" t="s">
+        <v>113</v>
+      </c>
+      <c r="D326" t="s">
+        <v>85</v>
+      </c>
+      <c r="E326" t="s">
+        <v>268</v>
+      </c>
+      <c r="F326" t="s">
+        <v>132</v>
+      </c>
+      <c r="G326" t="s">
+        <v>88</v>
+      </c>
+      <c r="H326" t="s">
+        <v>113</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>0</v>
+      </c>
+      <c r="S326">
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <v>0</v>
+      </c>
+      <c r="U326">
+        <v>0</v>
+      </c>
+      <c r="V326">
+        <v>0</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+      <c r="AB326">
+        <v>0</v>
+      </c>
+      <c r="AC326">
+        <v>0</v>
+      </c>
+      <c r="AD326">
+        <v>0</v>
+      </c>
+      <c r="AE326">
+        <v>0</v>
+      </c>
+      <c r="AF326">
+        <v>0</v>
+      </c>
+      <c r="AG326">
+        <v>0</v>
+      </c>
+      <c r="AH326">
+        <v>0</v>
+      </c>
+      <c r="AI326">
+        <v>0</v>
+      </c>
+      <c r="AJ326">
+        <v>0</v>
+      </c>
+      <c r="AK326">
+        <v>0</v>
+      </c>
+      <c r="AL326">
+        <v>0</v>
+      </c>
+      <c r="AM326">
+        <v>0</v>
+      </c>
+      <c r="AN326">
+        <v>0</v>
+      </c>
+      <c r="AO326">
+        <v>0</v>
+      </c>
+      <c r="AP326">
+        <v>0</v>
+      </c>
+      <c r="AQ326">
+        <v>0</v>
+      </c>
+      <c r="AR326">
+        <v>0</v>
+      </c>
+      <c r="AS326">
+        <v>0</v>
+      </c>
+      <c r="AT326">
+        <v>0</v>
+      </c>
+      <c r="AU326">
+        <v>0</v>
+      </c>
+      <c r="AV326">
+        <v>0</v>
+      </c>
+      <c r="AW326">
+        <v>0</v>
+      </c>
+      <c r="AX326">
+        <v>0</v>
+      </c>
+      <c r="AY326">
+        <v>0</v>
+      </c>
+      <c r="AZ326">
+        <v>0</v>
+      </c>
+      <c r="BA326">
+        <v>0</v>
+      </c>
+      <c r="BB326">
+        <v>0</v>
+      </c>
+      <c r="BC326">
+        <v>0</v>
+      </c>
+      <c r="BD326">
+        <v>0</v>
+      </c>
+      <c r="BE326">
+        <v>0</v>
+      </c>
+      <c r="BF326">
+        <v>1</v>
+      </c>
+      <c r="BG326">
+        <v>2</v>
+      </c>
+      <c r="BH326">
+        <v>1</v>
+      </c>
+      <c r="BI326">
+        <v>4</v>
+      </c>
+      <c r="BJ326">
+        <v>1</v>
+      </c>
+      <c r="BK326">
+        <v>1</v>
+      </c>
+      <c r="BL326">
+        <v>10</v>
+      </c>
+      <c r="BM326">
+        <v>38</v>
+      </c>
+      <c r="BN326">
+        <v>40</v>
+      </c>
+      <c r="BO326">
+        <v>100</v>
+      </c>
+      <c r="BP326">
+        <v>250</v>
+      </c>
+      <c r="BQ326">
+        <v>891</v>
+      </c>
+      <c r="BR326">
+        <v>712</v>
+      </c>
+      <c r="BS326">
+        <v>607</v>
+      </c>
+      <c r="BT326">
+        <v>2638</v>
+      </c>
+      <c r="BU326" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV326" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW326" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX326" t="s">
+        <v>448</v>
+      </c>
+      <c r="BY326" t="s">
+        <v>272</v>
+      </c>
+      <c r="BZ326" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA326" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB326" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC326" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD326" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE326" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF326" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="327" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>83</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C327" t="s">
+        <v>616</v>
+      </c>
+      <c r="D327" t="s">
+        <v>85</v>
+      </c>
+      <c r="E327" t="s">
+        <v>248</v>
+      </c>
+      <c r="F327" t="s">
+        <v>102</v>
+      </c>
+      <c r="G327" t="s">
+        <v>88</v>
+      </c>
+      <c r="H327" t="s">
+        <v>538</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>0</v>
+      </c>
+      <c r="S327">
+        <v>0</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+      <c r="V327">
+        <v>0</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
+      <c r="AC327">
+        <v>0</v>
+      </c>
+      <c r="AD327">
+        <v>0</v>
+      </c>
+      <c r="AE327">
+        <v>0</v>
+      </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
+      <c r="AG327">
+        <v>0</v>
+      </c>
+      <c r="AH327">
+        <v>0</v>
+      </c>
+      <c r="AI327">
+        <v>0</v>
+      </c>
+      <c r="AJ327">
+        <v>0</v>
+      </c>
+      <c r="AK327">
+        <v>0</v>
+      </c>
+      <c r="AL327">
+        <v>0</v>
+      </c>
+      <c r="AM327">
+        <v>0</v>
+      </c>
+      <c r="AN327">
+        <v>0</v>
+      </c>
+      <c r="AO327">
+        <v>0</v>
+      </c>
+      <c r="AP327">
+        <v>0</v>
+      </c>
+      <c r="AQ327">
+        <v>0</v>
+      </c>
+      <c r="AR327">
+        <v>0</v>
+      </c>
+      <c r="AS327">
+        <v>0</v>
+      </c>
+      <c r="AT327">
+        <v>0</v>
+      </c>
+      <c r="AU327">
+        <v>0</v>
+      </c>
+      <c r="AV327">
+        <v>0</v>
+      </c>
+      <c r="AW327">
+        <v>0</v>
+      </c>
+      <c r="AX327">
+        <v>0</v>
+      </c>
+      <c r="AY327">
+        <v>0</v>
+      </c>
+      <c r="AZ327">
+        <v>0</v>
+      </c>
+      <c r="BA327">
+        <v>0</v>
+      </c>
+      <c r="BB327">
+        <v>0</v>
+      </c>
+      <c r="BC327">
+        <v>0</v>
+      </c>
+      <c r="BD327">
+        <v>0</v>
+      </c>
+      <c r="BE327">
+        <v>3</v>
+      </c>
+      <c r="BF327">
+        <v>4</v>
+      </c>
+      <c r="BG327">
+        <v>12</v>
+      </c>
+      <c r="BH327">
+        <v>11</v>
+      </c>
+      <c r="BI327">
+        <v>6</v>
+      </c>
+      <c r="BJ327">
+        <v>6</v>
+      </c>
+      <c r="BK327">
+        <v>2</v>
+      </c>
+      <c r="BL327">
+        <v>44</v>
+      </c>
+      <c r="BM327">
+        <v>5</v>
+      </c>
+      <c r="BN327">
+        <v>10</v>
+      </c>
+      <c r="BO327">
+        <v>23</v>
+      </c>
+      <c r="BP327">
+        <v>34</v>
+      </c>
+      <c r="BQ327">
+        <v>32</v>
+      </c>
+      <c r="BR327">
+        <v>40</v>
+      </c>
+      <c r="BS327">
+        <v>158</v>
+      </c>
+      <c r="BT327">
+        <v>302</v>
+      </c>
+      <c r="BU327" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV327" s="1">
+        <v>44627</v>
+      </c>
+      <c r="BW327" t="s">
+        <v>608</v>
+      </c>
+      <c r="BX327" t="s">
+        <v>609</v>
+      </c>
+      <c r="BY327" t="s">
+        <v>675</v>
+      </c>
+      <c r="BZ327" t="s">
+        <v>610</v>
+      </c>
+      <c r="CA327" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB327" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC327" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD327" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE327" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF327" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="328" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>83</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C328" t="s">
+        <v>113</v>
+      </c>
+      <c r="D328" t="s">
+        <v>85</v>
+      </c>
+      <c r="E328" t="s">
+        <v>248</v>
+      </c>
+      <c r="F328" t="s">
+        <v>102</v>
+      </c>
+      <c r="G328" t="s">
+        <v>88</v>
+      </c>
+      <c r="H328" t="s">
+        <v>570</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>0</v>
+      </c>
+      <c r="S328">
+        <v>0</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+      <c r="AB328">
+        <v>0</v>
+      </c>
+      <c r="AC328">
+        <v>0</v>
+      </c>
+      <c r="AD328">
+        <v>0</v>
+      </c>
+      <c r="AE328">
+        <v>0</v>
+      </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
+      <c r="AG328">
+        <v>0</v>
+      </c>
+      <c r="AH328">
+        <v>0</v>
+      </c>
+      <c r="AI328">
+        <v>0</v>
+      </c>
+      <c r="AJ328">
+        <v>0</v>
+      </c>
+      <c r="AK328">
+        <v>0</v>
+      </c>
+      <c r="AL328">
+        <v>0</v>
+      </c>
+      <c r="AM328">
+        <v>0</v>
+      </c>
+      <c r="AN328">
+        <v>0</v>
+      </c>
+      <c r="AO328">
+        <v>0</v>
+      </c>
+      <c r="AP328">
+        <v>0</v>
+      </c>
+      <c r="AQ328">
+        <v>0</v>
+      </c>
+      <c r="AR328">
+        <v>0</v>
+      </c>
+      <c r="AS328">
+        <v>0</v>
+      </c>
+      <c r="AT328">
+        <v>0</v>
+      </c>
+      <c r="AU328">
+        <v>0</v>
+      </c>
+      <c r="AV328">
+        <v>0</v>
+      </c>
+      <c r="AW328">
+        <v>0</v>
+      </c>
+      <c r="AX328">
+        <v>0</v>
+      </c>
+      <c r="AY328">
+        <v>0</v>
+      </c>
+      <c r="AZ328">
+        <v>0</v>
+      </c>
+      <c r="BA328">
+        <v>0</v>
+      </c>
+      <c r="BB328">
+        <v>0</v>
+      </c>
+      <c r="BC328">
+        <v>0</v>
+      </c>
+      <c r="BD328">
+        <v>0</v>
+      </c>
+      <c r="BE328">
+        <v>11</v>
+      </c>
+      <c r="BF328">
+        <v>13</v>
+      </c>
+      <c r="BG328">
+        <v>39</v>
+      </c>
+      <c r="BH328">
+        <v>32</v>
+      </c>
+      <c r="BI328">
+        <v>14</v>
+      </c>
+      <c r="BJ328">
+        <v>8</v>
+      </c>
+      <c r="BK328">
+        <v>28</v>
+      </c>
+      <c r="BL328">
+        <v>145</v>
+      </c>
+      <c r="BM328">
+        <v>19</v>
+      </c>
+      <c r="BN328">
+        <v>30</v>
+      </c>
+      <c r="BO328">
+        <v>103</v>
+      </c>
+      <c r="BP328">
+        <v>146</v>
+      </c>
+      <c r="BQ328">
+        <v>149</v>
+      </c>
+      <c r="BR328">
+        <v>162</v>
+      </c>
+      <c r="BS328">
+        <v>647</v>
+      </c>
+      <c r="BT328">
+        <v>1256</v>
+      </c>
+      <c r="BU328" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV328" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW328" t="s">
+        <v>608</v>
+      </c>
+      <c r="BX328" t="s">
+        <v>609</v>
+      </c>
+      <c r="BY328" t="s">
+        <v>675</v>
+      </c>
+      <c r="BZ328" t="s">
+        <v>676</v>
+      </c>
+      <c r="CA328" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB328" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC328" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD328" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE328" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF328" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="329" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>83</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C329" t="s">
+        <v>113</v>
+      </c>
+      <c r="D329" t="s">
+        <v>85</v>
+      </c>
+      <c r="E329" t="s">
+        <v>86</v>
+      </c>
+      <c r="F329" t="s">
+        <v>87</v>
+      </c>
+      <c r="G329" t="s">
+        <v>88</v>
+      </c>
+      <c r="H329" t="s">
+        <v>677</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0</v>
+      </c>
+      <c r="S329">
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
+      <c r="U329">
+        <v>0</v>
+      </c>
+      <c r="V329">
+        <v>0</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+      <c r="AB329">
+        <v>0</v>
+      </c>
+      <c r="AC329">
+        <v>0</v>
+      </c>
+      <c r="AD329">
+        <v>0</v>
+      </c>
+      <c r="AE329">
+        <v>0</v>
+      </c>
+      <c r="AF329">
+        <v>0</v>
+      </c>
+      <c r="AG329">
+        <v>0</v>
+      </c>
+      <c r="AH329">
+        <v>0</v>
+      </c>
+      <c r="AI329">
+        <v>0</v>
+      </c>
+      <c r="AJ329">
+        <v>0</v>
+      </c>
+      <c r="AK329">
+        <v>0</v>
+      </c>
+      <c r="AL329">
+        <v>0</v>
+      </c>
+      <c r="AM329">
+        <v>0</v>
+      </c>
+      <c r="AN329">
+        <v>0</v>
+      </c>
+      <c r="AO329">
+        <v>0</v>
+      </c>
+      <c r="AP329">
+        <v>0</v>
+      </c>
+      <c r="AQ329">
+        <v>0</v>
+      </c>
+      <c r="AR329">
+        <v>0</v>
+      </c>
+      <c r="AS329">
+        <v>0</v>
+      </c>
+      <c r="AT329">
+        <v>0</v>
+      </c>
+      <c r="AU329">
+        <v>0</v>
+      </c>
+      <c r="AV329">
+        <v>0</v>
+      </c>
+      <c r="AW329">
+        <v>0</v>
+      </c>
+      <c r="AX329">
+        <v>0</v>
+      </c>
+      <c r="AY329">
+        <v>0</v>
+      </c>
+      <c r="AZ329">
+        <v>0</v>
+      </c>
+      <c r="BA329">
+        <v>0</v>
+      </c>
+      <c r="BB329">
+        <v>0</v>
+      </c>
+      <c r="BC329">
+        <v>0</v>
+      </c>
+      <c r="BD329">
+        <v>0</v>
+      </c>
+      <c r="BE329">
+        <v>0</v>
+      </c>
+      <c r="BF329">
+        <v>0</v>
+      </c>
+      <c r="BG329">
+        <v>0</v>
+      </c>
+      <c r="BH329">
+        <v>1</v>
+      </c>
+      <c r="BI329">
+        <v>0</v>
+      </c>
+      <c r="BJ329">
+        <v>1</v>
+      </c>
+      <c r="BK329">
+        <v>1</v>
+      </c>
+      <c r="BL329">
+        <v>3</v>
+      </c>
+      <c r="BM329">
+        <v>0</v>
+      </c>
+      <c r="BN329">
+        <v>0</v>
+      </c>
+      <c r="BO329">
+        <v>0</v>
+      </c>
+      <c r="BP329">
+        <v>1</v>
+      </c>
+      <c r="BQ329">
+        <v>0</v>
+      </c>
+      <c r="BR329">
+        <v>1</v>
+      </c>
+      <c r="BS329">
+        <v>1</v>
+      </c>
+      <c r="BT329">
+        <v>3</v>
+      </c>
+      <c r="BU329" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV329" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW329" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX329" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY329" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ329" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA329" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB329" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC329" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD329" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE329" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF329" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="330" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>83</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C330" t="s">
+        <v>113</v>
+      </c>
+      <c r="D330" t="s">
+        <v>85</v>
+      </c>
+      <c r="E330" t="s">
+        <v>115</v>
+      </c>
+      <c r="F330" t="s">
+        <v>173</v>
+      </c>
+      <c r="G330" t="s">
+        <v>88</v>
+      </c>
+      <c r="H330" t="s">
+        <v>456</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>0</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
+      <c r="U330">
+        <v>0</v>
+      </c>
+      <c r="V330">
+        <v>0</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+      <c r="AB330">
+        <v>0</v>
+      </c>
+      <c r="AC330">
+        <v>0</v>
+      </c>
+      <c r="AD330">
+        <v>0</v>
+      </c>
+      <c r="AE330">
+        <v>0</v>
+      </c>
+      <c r="AF330">
+        <v>0</v>
+      </c>
+      <c r="AG330">
+        <v>0</v>
+      </c>
+      <c r="AH330">
+        <v>0</v>
+      </c>
+      <c r="AI330">
+        <v>0</v>
+      </c>
+      <c r="AJ330">
+        <v>0</v>
+      </c>
+      <c r="AK330">
+        <v>0</v>
+      </c>
+      <c r="AL330">
+        <v>0</v>
+      </c>
+      <c r="AM330">
+        <v>0</v>
+      </c>
+      <c r="AN330">
+        <v>0</v>
+      </c>
+      <c r="AO330">
+        <v>0</v>
+      </c>
+      <c r="AP330">
+        <v>0</v>
+      </c>
+      <c r="AQ330">
+        <v>0</v>
+      </c>
+      <c r="AR330">
+        <v>0</v>
+      </c>
+      <c r="AS330">
+        <v>0</v>
+      </c>
+      <c r="AT330">
+        <v>0</v>
+      </c>
+      <c r="AU330">
+        <v>0</v>
+      </c>
+      <c r="AV330">
+        <v>0</v>
+      </c>
+      <c r="AW330">
+        <v>0</v>
+      </c>
+      <c r="AX330">
+        <v>0</v>
+      </c>
+      <c r="AY330">
+        <v>0</v>
+      </c>
+      <c r="AZ330">
+        <v>0</v>
+      </c>
+      <c r="BA330">
+        <v>0</v>
+      </c>
+      <c r="BB330">
+        <v>0</v>
+      </c>
+      <c r="BC330">
+        <v>0</v>
+      </c>
+      <c r="BD330">
+        <v>0</v>
+      </c>
+      <c r="BE330">
+        <v>0</v>
+      </c>
+      <c r="BF330">
+        <v>0</v>
+      </c>
+      <c r="BG330">
+        <v>0</v>
+      </c>
+      <c r="BH330">
+        <v>0</v>
+      </c>
+      <c r="BI330">
+        <v>0</v>
+      </c>
+      <c r="BJ330">
+        <v>1</v>
+      </c>
+      <c r="BK330">
+        <v>0</v>
+      </c>
+      <c r="BL330">
+        <v>1</v>
+      </c>
+      <c r="BM330">
+        <v>0</v>
+      </c>
+      <c r="BN330">
+        <v>1</v>
+      </c>
+      <c r="BO330">
+        <v>1</v>
+      </c>
+      <c r="BP330">
+        <v>2</v>
+      </c>
+      <c r="BQ330">
+        <v>62</v>
+      </c>
+      <c r="BR330">
+        <v>36</v>
+      </c>
+      <c r="BS330">
+        <v>5</v>
+      </c>
+      <c r="BT330">
+        <v>107</v>
+      </c>
+      <c r="BU330" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV330" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW330" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX330" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY330" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ330" t="s">
+        <v>332</v>
+      </c>
+      <c r="CA330" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB330" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC330" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD330" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE330" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF330" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="331" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>83</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C331" t="s">
+        <v>113</v>
+      </c>
+      <c r="D331" t="s">
+        <v>85</v>
+      </c>
+      <c r="E331" t="s">
+        <v>188</v>
+      </c>
+      <c r="F331" t="s">
+        <v>102</v>
+      </c>
+      <c r="G331" t="s">
+        <v>88</v>
+      </c>
+      <c r="H331" t="s">
+        <v>678</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+      <c r="P331">
+        <v>0</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331">
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+      <c r="V331">
+        <v>0</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+      <c r="AB331">
+        <v>0</v>
+      </c>
+      <c r="AC331">
+        <v>0</v>
+      </c>
+      <c r="AD331">
+        <v>0</v>
+      </c>
+      <c r="AE331">
+        <v>0</v>
+      </c>
+      <c r="AF331">
+        <v>0</v>
+      </c>
+      <c r="AG331">
+        <v>0</v>
+      </c>
+      <c r="AH331">
+        <v>0</v>
+      </c>
+      <c r="AI331">
+        <v>0</v>
+      </c>
+      <c r="AJ331">
+        <v>0</v>
+      </c>
+      <c r="AK331">
+        <v>0</v>
+      </c>
+      <c r="AL331">
+        <v>0</v>
+      </c>
+      <c r="AM331">
+        <v>0</v>
+      </c>
+      <c r="AN331">
+        <v>0</v>
+      </c>
+      <c r="AO331">
+        <v>0</v>
+      </c>
+      <c r="AP331">
+        <v>0</v>
+      </c>
+      <c r="AQ331">
+        <v>0</v>
+      </c>
+      <c r="AR331">
+        <v>0</v>
+      </c>
+      <c r="AS331">
+        <v>0</v>
+      </c>
+      <c r="AT331">
+        <v>0</v>
+      </c>
+      <c r="AU331">
+        <v>0</v>
+      </c>
+      <c r="AV331">
+        <v>0</v>
+      </c>
+      <c r="AW331">
+        <v>0</v>
+      </c>
+      <c r="AX331">
+        <v>0</v>
+      </c>
+      <c r="AY331">
+        <v>0</v>
+      </c>
+      <c r="AZ331">
+        <v>0</v>
+      </c>
+      <c r="BA331">
+        <v>0</v>
+      </c>
+      <c r="BB331">
+        <v>0</v>
+      </c>
+      <c r="BC331">
+        <v>0</v>
+      </c>
+      <c r="BD331">
+        <v>0</v>
+      </c>
+      <c r="BE331">
+        <v>0</v>
+      </c>
+      <c r="BF331">
+        <v>0</v>
+      </c>
+      <c r="BG331">
+        <v>1</v>
+      </c>
+      <c r="BH331">
+        <v>0</v>
+      </c>
+      <c r="BI331">
+        <v>0</v>
+      </c>
+      <c r="BJ331">
+        <v>0</v>
+      </c>
+      <c r="BK331">
+        <v>0</v>
+      </c>
+      <c r="BL331">
+        <v>1</v>
+      </c>
+      <c r="BM331">
+        <v>1</v>
+      </c>
+      <c r="BN331">
+        <v>0</v>
+      </c>
+      <c r="BO331">
+        <v>1</v>
+      </c>
+      <c r="BP331">
+        <v>4</v>
+      </c>
+      <c r="BQ331">
+        <v>20</v>
+      </c>
+      <c r="BR331">
+        <v>20</v>
+      </c>
+      <c r="BS331">
+        <v>29</v>
+      </c>
+      <c r="BT331">
+        <v>75</v>
+      </c>
+      <c r="BU331" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV331" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW331" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX331" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY331" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ331" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA331" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB331" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC331" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD331" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE331" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF331" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>83</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C332" t="s">
+        <v>113</v>
+      </c>
+      <c r="D332" t="s">
+        <v>85</v>
+      </c>
+      <c r="E332" t="s">
+        <v>181</v>
+      </c>
+      <c r="F332" t="s">
+        <v>146</v>
+      </c>
+      <c r="G332" t="s">
+        <v>88</v>
+      </c>
+      <c r="H332" t="s">
+        <v>518</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0</v>
+      </c>
+      <c r="S332">
+        <v>0</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+      <c r="U332">
+        <v>0</v>
+      </c>
+      <c r="V332">
+        <v>0</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+      <c r="AB332">
+        <v>0</v>
+      </c>
+      <c r="AC332">
+        <v>0</v>
+      </c>
+      <c r="AD332">
+        <v>0</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
+      <c r="AG332">
+        <v>0</v>
+      </c>
+      <c r="AH332">
+        <v>0</v>
+      </c>
+      <c r="AI332">
+        <v>0</v>
+      </c>
+      <c r="AJ332">
+        <v>0</v>
+      </c>
+      <c r="AK332">
+        <v>0</v>
+      </c>
+      <c r="AL332">
+        <v>0</v>
+      </c>
+      <c r="AM332">
+        <v>0</v>
+      </c>
+      <c r="AN332">
+        <v>0</v>
+      </c>
+      <c r="AO332">
+        <v>0</v>
+      </c>
+      <c r="AP332">
+        <v>0</v>
+      </c>
+      <c r="AQ332">
+        <v>0</v>
+      </c>
+      <c r="AR332">
+        <v>0</v>
+      </c>
+      <c r="AS332">
+        <v>0</v>
+      </c>
+      <c r="AT332">
+        <v>0</v>
+      </c>
+      <c r="AU332">
+        <v>0</v>
+      </c>
+      <c r="AV332">
+        <v>0</v>
+      </c>
+      <c r="AW332">
+        <v>0</v>
+      </c>
+      <c r="AX332">
+        <v>0</v>
+      </c>
+      <c r="AY332">
+        <v>0</v>
+      </c>
+      <c r="AZ332">
+        <v>0</v>
+      </c>
+      <c r="BA332">
+        <v>0</v>
+      </c>
+      <c r="BB332">
+        <v>0</v>
+      </c>
+      <c r="BC332">
+        <v>0</v>
+      </c>
+      <c r="BD332">
+        <v>0</v>
+      </c>
+      <c r="BE332">
+        <v>1</v>
+      </c>
+      <c r="BF332">
+        <v>0</v>
+      </c>
+      <c r="BG332">
+        <v>5</v>
+      </c>
+      <c r="BH332">
+        <v>5</v>
+      </c>
+      <c r="BI332">
+        <v>9</v>
+      </c>
+      <c r="BJ332">
+        <v>4</v>
+      </c>
+      <c r="BK332">
+        <v>1</v>
+      </c>
+      <c r="BL332">
+        <v>25</v>
+      </c>
+      <c r="BM332">
+        <v>11</v>
+      </c>
+      <c r="BN332">
+        <v>10</v>
+      </c>
+      <c r="BO332">
+        <v>49</v>
+      </c>
+      <c r="BP332">
+        <v>217</v>
+      </c>
+      <c r="BQ332">
+        <v>588</v>
+      </c>
+      <c r="BR332">
+        <v>1061</v>
+      </c>
+      <c r="BS332">
+        <v>3052</v>
+      </c>
+      <c r="BT332">
+        <v>4988</v>
+      </c>
+      <c r="BU332" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV332" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW332" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX332" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY332" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ332" t="s">
+        <v>679</v>
+      </c>
+      <c r="CA332" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB332" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC332" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD332" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE332" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF332" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D7724C-51A6-0347-9E9E-7DDA55104DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97B1E9F-3E68-9B45-A409-7FC589C4216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6600" uniqueCount="713">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2062,6 +2062,102 @@
     <t>LUZ..ESCOBAR@IDIME.COM</t>
   </si>
   <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.4.1$0$0.0</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>LAURADV@VIRRESOLISIPS.COM.CO</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>ANGELA BEATRIZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>ENFERMERA EPIDEMIOLOGA</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>JHONJAIRO OCAMPOR</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>JANAETH MILENA OROZCO VALENCIA</t>
+  </si>
+  <si>
+    <t>2492</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>COORDINADORA OPERATIVA</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>CAROLINA SMITH COBOS SANCHEZ</t>
+  </si>
+  <si>
+    <t>6063420644</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2069,15 +2165,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2100,10 +2191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2486,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF332"/>
+  <dimension ref="A1:CF363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2504,8 +2594,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>680</v>
+      <c r="D1" t="s">
+        <v>712</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -86819,6 +86909,7880 @@
         <v>99</v>
       </c>
       <c r="CF332" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="333" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>83</v>
+      </c>
+      <c r="B333" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C333" t="s">
+        <v>356</v>
+      </c>
+      <c r="D333" t="s">
+        <v>85</v>
+      </c>
+      <c r="E333" t="s">
+        <v>101</v>
+      </c>
+      <c r="F333" t="s">
+        <v>102</v>
+      </c>
+      <c r="G333" t="s">
+        <v>88</v>
+      </c>
+      <c r="H333" t="s">
+        <v>680</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+      <c r="P333">
+        <v>0</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>0</v>
+      </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+      <c r="V333">
+        <v>0</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
+      <c r="AC333">
+        <v>0</v>
+      </c>
+      <c r="AD333">
+        <v>0</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
+      <c r="AH333">
+        <v>0</v>
+      </c>
+      <c r="AI333">
+        <v>0</v>
+      </c>
+      <c r="AJ333">
+        <v>0</v>
+      </c>
+      <c r="AK333">
+        <v>0</v>
+      </c>
+      <c r="AL333">
+        <v>0</v>
+      </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
+      <c r="AN333">
+        <v>0</v>
+      </c>
+      <c r="AO333">
+        <v>0</v>
+      </c>
+      <c r="AP333">
+        <v>0</v>
+      </c>
+      <c r="AQ333">
+        <v>0</v>
+      </c>
+      <c r="AR333">
+        <v>0</v>
+      </c>
+      <c r="AS333">
+        <v>0</v>
+      </c>
+      <c r="AT333">
+        <v>0</v>
+      </c>
+      <c r="AU333">
+        <v>0</v>
+      </c>
+      <c r="AV333">
+        <v>0</v>
+      </c>
+      <c r="AW333">
+        <v>0</v>
+      </c>
+      <c r="AX333">
+        <v>0</v>
+      </c>
+      <c r="AY333">
+        <v>0</v>
+      </c>
+      <c r="AZ333">
+        <v>0</v>
+      </c>
+      <c r="BA333">
+        <v>0</v>
+      </c>
+      <c r="BB333">
+        <v>0</v>
+      </c>
+      <c r="BC333">
+        <v>0</v>
+      </c>
+      <c r="BD333">
+        <v>0</v>
+      </c>
+      <c r="BE333">
+        <v>1</v>
+      </c>
+      <c r="BF333">
+        <v>0</v>
+      </c>
+      <c r="BG333">
+        <v>7</v>
+      </c>
+      <c r="BH333">
+        <v>9</v>
+      </c>
+      <c r="BI333">
+        <v>4</v>
+      </c>
+      <c r="BJ333">
+        <v>8</v>
+      </c>
+      <c r="BK333">
+        <v>5</v>
+      </c>
+      <c r="BL333">
+        <v>34</v>
+      </c>
+      <c r="BM333">
+        <v>30</v>
+      </c>
+      <c r="BN333">
+        <v>22</v>
+      </c>
+      <c r="BO333">
+        <v>71</v>
+      </c>
+      <c r="BP333">
+        <v>306</v>
+      </c>
+      <c r="BQ333">
+        <v>595</v>
+      </c>
+      <c r="BR333">
+        <v>741</v>
+      </c>
+      <c r="BS333">
+        <v>463</v>
+      </c>
+      <c r="BT333">
+        <v>2228</v>
+      </c>
+      <c r="BU333" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV333" s="1">
+        <v>44638</v>
+      </c>
+      <c r="BW333" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX333" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY333" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ333" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA333" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB333" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC333" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD333" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE333" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF333" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="334" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>83</v>
+      </c>
+      <c r="B334" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C334" t="s">
+        <v>356</v>
+      </c>
+      <c r="D334" t="s">
+        <v>85</v>
+      </c>
+      <c r="E334" t="s">
+        <v>101</v>
+      </c>
+      <c r="F334" t="s">
+        <v>110</v>
+      </c>
+      <c r="G334" t="s">
+        <v>88</v>
+      </c>
+      <c r="H334" t="s">
+        <v>682</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>0</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+      <c r="V334">
+        <v>0</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+      <c r="AB334">
+        <v>0</v>
+      </c>
+      <c r="AC334">
+        <v>0</v>
+      </c>
+      <c r="AD334">
+        <v>0</v>
+      </c>
+      <c r="AE334">
+        <v>0</v>
+      </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
+      <c r="AH334">
+        <v>0</v>
+      </c>
+      <c r="AI334">
+        <v>0</v>
+      </c>
+      <c r="AJ334">
+        <v>0</v>
+      </c>
+      <c r="AK334">
+        <v>0</v>
+      </c>
+      <c r="AL334">
+        <v>0</v>
+      </c>
+      <c r="AM334">
+        <v>0</v>
+      </c>
+      <c r="AN334">
+        <v>0</v>
+      </c>
+      <c r="AO334">
+        <v>0</v>
+      </c>
+      <c r="AP334">
+        <v>0</v>
+      </c>
+      <c r="AQ334">
+        <v>0</v>
+      </c>
+      <c r="AR334">
+        <v>0</v>
+      </c>
+      <c r="AS334">
+        <v>0</v>
+      </c>
+      <c r="AT334">
+        <v>0</v>
+      </c>
+      <c r="AU334">
+        <v>0</v>
+      </c>
+      <c r="AV334">
+        <v>0</v>
+      </c>
+      <c r="AW334">
+        <v>0</v>
+      </c>
+      <c r="AX334">
+        <v>0</v>
+      </c>
+      <c r="AY334">
+        <v>0</v>
+      </c>
+      <c r="AZ334">
+        <v>0</v>
+      </c>
+      <c r="BA334">
+        <v>0</v>
+      </c>
+      <c r="BB334">
+        <v>0</v>
+      </c>
+      <c r="BC334">
+        <v>0</v>
+      </c>
+      <c r="BD334">
+        <v>0</v>
+      </c>
+      <c r="BE334">
+        <v>3</v>
+      </c>
+      <c r="BF334">
+        <v>1</v>
+      </c>
+      <c r="BG334">
+        <v>19</v>
+      </c>
+      <c r="BH334">
+        <v>14</v>
+      </c>
+      <c r="BI334">
+        <v>19</v>
+      </c>
+      <c r="BJ334">
+        <v>8</v>
+      </c>
+      <c r="BK334">
+        <v>3</v>
+      </c>
+      <c r="BL334">
+        <v>67</v>
+      </c>
+      <c r="BM334">
+        <v>29</v>
+      </c>
+      <c r="BN334">
+        <v>26</v>
+      </c>
+      <c r="BO334">
+        <v>120</v>
+      </c>
+      <c r="BP334">
+        <v>376</v>
+      </c>
+      <c r="BQ334">
+        <v>466</v>
+      </c>
+      <c r="BR334">
+        <v>600</v>
+      </c>
+      <c r="BS334">
+        <v>393</v>
+      </c>
+      <c r="BT334">
+        <v>2010</v>
+      </c>
+      <c r="BU334" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV334" s="1">
+        <v>44638</v>
+      </c>
+      <c r="BW334" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX334" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY334" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ334" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA334" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB334" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC334" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD334" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE334" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF334" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="335" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>83</v>
+      </c>
+      <c r="B335" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C335" t="s">
+        <v>356</v>
+      </c>
+      <c r="D335" t="s">
+        <v>85</v>
+      </c>
+      <c r="E335" t="s">
+        <v>101</v>
+      </c>
+      <c r="F335" t="s">
+        <v>113</v>
+      </c>
+      <c r="G335" t="s">
+        <v>88</v>
+      </c>
+      <c r="H335" t="s">
+        <v>683</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>1</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+      <c r="P335">
+        <v>6</v>
+      </c>
+      <c r="Q335">
+        <v>8</v>
+      </c>
+      <c r="R335">
+        <v>3</v>
+      </c>
+      <c r="S335">
+        <v>6</v>
+      </c>
+      <c r="T335">
+        <v>14</v>
+      </c>
+      <c r="U335">
+        <v>32</v>
+      </c>
+      <c r="V335">
+        <v>19</v>
+      </c>
+      <c r="W335">
+        <v>28</v>
+      </c>
+      <c r="X335">
+        <v>110</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+      <c r="AB335">
+        <v>0</v>
+      </c>
+      <c r="AC335">
+        <v>0</v>
+      </c>
+      <c r="AD335">
+        <v>0</v>
+      </c>
+      <c r="AE335">
+        <v>0</v>
+      </c>
+      <c r="AF335">
+        <v>0</v>
+      </c>
+      <c r="AG335">
+        <v>0</v>
+      </c>
+      <c r="AH335">
+        <v>0</v>
+      </c>
+      <c r="AI335">
+        <v>1</v>
+      </c>
+      <c r="AJ335">
+        <v>3</v>
+      </c>
+      <c r="AK335">
+        <v>3</v>
+      </c>
+      <c r="AL335">
+        <v>10</v>
+      </c>
+      <c r="AM335">
+        <v>17</v>
+      </c>
+      <c r="AN335">
+        <v>34</v>
+      </c>
+      <c r="AO335">
+        <v>0</v>
+      </c>
+      <c r="AP335">
+        <v>0</v>
+      </c>
+      <c r="AQ335">
+        <v>0</v>
+      </c>
+      <c r="AR335">
+        <v>0</v>
+      </c>
+      <c r="AS335">
+        <v>0</v>
+      </c>
+      <c r="AT335">
+        <v>0</v>
+      </c>
+      <c r="AU335">
+        <v>1</v>
+      </c>
+      <c r="AV335">
+        <v>1</v>
+      </c>
+      <c r="AW335">
+        <v>0</v>
+      </c>
+      <c r="AX335">
+        <v>0</v>
+      </c>
+      <c r="AY335">
+        <v>0</v>
+      </c>
+      <c r="AZ335">
+        <v>0</v>
+      </c>
+      <c r="BA335">
+        <v>0</v>
+      </c>
+      <c r="BB335">
+        <v>1</v>
+      </c>
+      <c r="BC335">
+        <v>11</v>
+      </c>
+      <c r="BD335">
+        <v>12</v>
+      </c>
+      <c r="BE335">
+        <v>6</v>
+      </c>
+      <c r="BF335">
+        <v>8</v>
+      </c>
+      <c r="BG335">
+        <v>17</v>
+      </c>
+      <c r="BH335">
+        <v>16</v>
+      </c>
+      <c r="BI335">
+        <v>6</v>
+      </c>
+      <c r="BJ335">
+        <v>1</v>
+      </c>
+      <c r="BK335">
+        <v>3</v>
+      </c>
+      <c r="BL335">
+        <v>57</v>
+      </c>
+      <c r="BM335">
+        <v>42</v>
+      </c>
+      <c r="BN335">
+        <v>27</v>
+      </c>
+      <c r="BO335">
+        <v>108</v>
+      </c>
+      <c r="BP335">
+        <v>203</v>
+      </c>
+      <c r="BQ335">
+        <v>373</v>
+      </c>
+      <c r="BR335">
+        <v>258</v>
+      </c>
+      <c r="BS335">
+        <v>203</v>
+      </c>
+      <c r="BT335">
+        <v>1214</v>
+      </c>
+      <c r="BU335" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV335" s="1">
+        <v>44638</v>
+      </c>
+      <c r="BW335" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX335" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY335" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ335" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA335" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB335" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC335" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD335" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE335" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF335" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="336" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>83</v>
+      </c>
+      <c r="B336" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C336" t="s">
+        <v>356</v>
+      </c>
+      <c r="D336" t="s">
+        <v>85</v>
+      </c>
+      <c r="E336" t="s">
+        <v>278</v>
+      </c>
+      <c r="F336" t="s">
+        <v>102</v>
+      </c>
+      <c r="G336" t="s">
+        <v>88</v>
+      </c>
+      <c r="H336" t="s">
+        <v>684</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <v>0</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <v>0</v>
+      </c>
+      <c r="S336">
+        <v>0</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+      <c r="U336">
+        <v>0</v>
+      </c>
+      <c r="V336">
+        <v>0</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+      <c r="AB336">
+        <v>0</v>
+      </c>
+      <c r="AC336">
+        <v>0</v>
+      </c>
+      <c r="AD336">
+        <v>0</v>
+      </c>
+      <c r="AE336">
+        <v>0</v>
+      </c>
+      <c r="AF336">
+        <v>0</v>
+      </c>
+      <c r="AG336">
+        <v>0</v>
+      </c>
+      <c r="AH336">
+        <v>0</v>
+      </c>
+      <c r="AI336">
+        <v>0</v>
+      </c>
+      <c r="AJ336">
+        <v>0</v>
+      </c>
+      <c r="AK336">
+        <v>0</v>
+      </c>
+      <c r="AL336">
+        <v>0</v>
+      </c>
+      <c r="AM336">
+        <v>0</v>
+      </c>
+      <c r="AN336">
+        <v>0</v>
+      </c>
+      <c r="AO336">
+        <v>0</v>
+      </c>
+      <c r="AP336">
+        <v>0</v>
+      </c>
+      <c r="AQ336">
+        <v>0</v>
+      </c>
+      <c r="AR336">
+        <v>0</v>
+      </c>
+      <c r="AS336">
+        <v>0</v>
+      </c>
+      <c r="AT336">
+        <v>0</v>
+      </c>
+      <c r="AU336">
+        <v>0</v>
+      </c>
+      <c r="AV336">
+        <v>0</v>
+      </c>
+      <c r="AW336">
+        <v>0</v>
+      </c>
+      <c r="AX336">
+        <v>0</v>
+      </c>
+      <c r="AY336">
+        <v>0</v>
+      </c>
+      <c r="AZ336">
+        <v>0</v>
+      </c>
+      <c r="BA336">
+        <v>0</v>
+      </c>
+      <c r="BB336">
+        <v>0</v>
+      </c>
+      <c r="BC336">
+        <v>0</v>
+      </c>
+      <c r="BD336">
+        <v>0</v>
+      </c>
+      <c r="BE336">
+        <v>0</v>
+      </c>
+      <c r="BF336">
+        <v>0</v>
+      </c>
+      <c r="BG336">
+        <v>0</v>
+      </c>
+      <c r="BH336">
+        <v>0</v>
+      </c>
+      <c r="BI336">
+        <v>1</v>
+      </c>
+      <c r="BJ336">
+        <v>0</v>
+      </c>
+      <c r="BK336">
+        <v>0</v>
+      </c>
+      <c r="BL336">
+        <v>1</v>
+      </c>
+      <c r="BM336">
+        <v>0</v>
+      </c>
+      <c r="BN336">
+        <v>0</v>
+      </c>
+      <c r="BO336">
+        <v>0</v>
+      </c>
+      <c r="BP336">
+        <v>0</v>
+      </c>
+      <c r="BQ336">
+        <v>1</v>
+      </c>
+      <c r="BR336">
+        <v>0</v>
+      </c>
+      <c r="BS336">
+        <v>0</v>
+      </c>
+      <c r="BT336">
+        <v>1</v>
+      </c>
+      <c r="BU336" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV336" s="1">
+        <v>44638</v>
+      </c>
+      <c r="BW336" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX336" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY336" t="s">
+        <v>281</v>
+      </c>
+      <c r="BZ336" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA336" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB336" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC336" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD336" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE336" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF336" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="337" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>83</v>
+      </c>
+      <c r="B337" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C337" t="s">
+        <v>356</v>
+      </c>
+      <c r="D337" t="s">
+        <v>85</v>
+      </c>
+      <c r="E337" t="s">
+        <v>86</v>
+      </c>
+      <c r="F337" t="s">
+        <v>87</v>
+      </c>
+      <c r="G337" t="s">
+        <v>88</v>
+      </c>
+      <c r="H337" t="s">
+        <v>685</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <v>0</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+      <c r="V337">
+        <v>0</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+      <c r="AB337">
+        <v>0</v>
+      </c>
+      <c r="AC337">
+        <v>0</v>
+      </c>
+      <c r="AD337">
+        <v>0</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>0</v>
+      </c>
+      <c r="AH337">
+        <v>0</v>
+      </c>
+      <c r="AI337">
+        <v>0</v>
+      </c>
+      <c r="AJ337">
+        <v>0</v>
+      </c>
+      <c r="AK337">
+        <v>0</v>
+      </c>
+      <c r="AL337">
+        <v>0</v>
+      </c>
+      <c r="AM337">
+        <v>0</v>
+      </c>
+      <c r="AN337">
+        <v>0</v>
+      </c>
+      <c r="AO337">
+        <v>0</v>
+      </c>
+      <c r="AP337">
+        <v>0</v>
+      </c>
+      <c r="AQ337">
+        <v>0</v>
+      </c>
+      <c r="AR337">
+        <v>0</v>
+      </c>
+      <c r="AS337">
+        <v>0</v>
+      </c>
+      <c r="AT337">
+        <v>0</v>
+      </c>
+      <c r="AU337">
+        <v>0</v>
+      </c>
+      <c r="AV337">
+        <v>0</v>
+      </c>
+      <c r="AW337">
+        <v>0</v>
+      </c>
+      <c r="AX337">
+        <v>0</v>
+      </c>
+      <c r="AY337">
+        <v>0</v>
+      </c>
+      <c r="AZ337">
+        <v>0</v>
+      </c>
+      <c r="BA337">
+        <v>0</v>
+      </c>
+      <c r="BB337">
+        <v>0</v>
+      </c>
+      <c r="BC337">
+        <v>0</v>
+      </c>
+      <c r="BD337">
+        <v>0</v>
+      </c>
+      <c r="BE337">
+        <v>0</v>
+      </c>
+      <c r="BF337">
+        <v>0</v>
+      </c>
+      <c r="BG337">
+        <v>0</v>
+      </c>
+      <c r="BH337">
+        <v>1</v>
+      </c>
+      <c r="BI337">
+        <v>0</v>
+      </c>
+      <c r="BJ337">
+        <v>1</v>
+      </c>
+      <c r="BK337">
+        <v>0</v>
+      </c>
+      <c r="BL337">
+        <v>2</v>
+      </c>
+      <c r="BM337">
+        <v>0</v>
+      </c>
+      <c r="BN337">
+        <v>0</v>
+      </c>
+      <c r="BO337">
+        <v>0</v>
+      </c>
+      <c r="BP337">
+        <v>1</v>
+      </c>
+      <c r="BQ337">
+        <v>0</v>
+      </c>
+      <c r="BR337">
+        <v>1</v>
+      </c>
+      <c r="BS337">
+        <v>0</v>
+      </c>
+      <c r="BT337">
+        <v>2</v>
+      </c>
+      <c r="BU337" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV337" s="1">
+        <v>44638</v>
+      </c>
+      <c r="BW337" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX337" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY337" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ337" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA337" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB337" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC337" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD337" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE337" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF337" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="338" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>83</v>
+      </c>
+      <c r="B338" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C338" t="s">
+        <v>545</v>
+      </c>
+      <c r="D338" t="s">
+        <v>85</v>
+      </c>
+      <c r="E338" t="s">
+        <v>115</v>
+      </c>
+      <c r="F338" t="s">
+        <v>102</v>
+      </c>
+      <c r="G338" t="s">
+        <v>88</v>
+      </c>
+      <c r="H338" t="s">
+        <v>686</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <v>0</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+      <c r="U338">
+        <v>0</v>
+      </c>
+      <c r="V338">
+        <v>0</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+      <c r="AB338">
+        <v>0</v>
+      </c>
+      <c r="AC338">
+        <v>0</v>
+      </c>
+      <c r="AD338">
+        <v>0</v>
+      </c>
+      <c r="AE338">
+        <v>0</v>
+      </c>
+      <c r="AF338">
+        <v>0</v>
+      </c>
+      <c r="AG338">
+        <v>0</v>
+      </c>
+      <c r="AH338">
+        <v>0</v>
+      </c>
+      <c r="AI338">
+        <v>0</v>
+      </c>
+      <c r="AJ338">
+        <v>0</v>
+      </c>
+      <c r="AK338">
+        <v>0</v>
+      </c>
+      <c r="AL338">
+        <v>0</v>
+      </c>
+      <c r="AM338">
+        <v>0</v>
+      </c>
+      <c r="AN338">
+        <v>0</v>
+      </c>
+      <c r="AO338">
+        <v>0</v>
+      </c>
+      <c r="AP338">
+        <v>0</v>
+      </c>
+      <c r="AQ338">
+        <v>0</v>
+      </c>
+      <c r="AR338">
+        <v>0</v>
+      </c>
+      <c r="AS338">
+        <v>0</v>
+      </c>
+      <c r="AT338">
+        <v>0</v>
+      </c>
+      <c r="AU338">
+        <v>0</v>
+      </c>
+      <c r="AV338">
+        <v>0</v>
+      </c>
+      <c r="AW338">
+        <v>0</v>
+      </c>
+      <c r="AX338">
+        <v>0</v>
+      </c>
+      <c r="AY338">
+        <v>0</v>
+      </c>
+      <c r="AZ338">
+        <v>0</v>
+      </c>
+      <c r="BA338">
+        <v>0</v>
+      </c>
+      <c r="BB338">
+        <v>0</v>
+      </c>
+      <c r="BC338">
+        <v>0</v>
+      </c>
+      <c r="BD338">
+        <v>0</v>
+      </c>
+      <c r="BE338">
+        <v>2</v>
+      </c>
+      <c r="BF338">
+        <v>1</v>
+      </c>
+      <c r="BG338">
+        <v>11</v>
+      </c>
+      <c r="BH338">
+        <v>5</v>
+      </c>
+      <c r="BI338">
+        <v>7</v>
+      </c>
+      <c r="BJ338">
+        <v>11</v>
+      </c>
+      <c r="BK338">
+        <v>51</v>
+      </c>
+      <c r="BL338">
+        <v>88</v>
+      </c>
+      <c r="BM338">
+        <v>33</v>
+      </c>
+      <c r="BN338">
+        <v>27</v>
+      </c>
+      <c r="BO338">
+        <v>55</v>
+      </c>
+      <c r="BP338">
+        <v>191</v>
+      </c>
+      <c r="BQ338">
+        <v>581</v>
+      </c>
+      <c r="BR338">
+        <v>742</v>
+      </c>
+      <c r="BS338">
+        <v>809</v>
+      </c>
+      <c r="BT338">
+        <v>2438</v>
+      </c>
+      <c r="BU338" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV338" s="1">
+        <v>44611</v>
+      </c>
+      <c r="BW338" t="s">
+        <v>367</v>
+      </c>
+      <c r="BX338" t="s">
+        <v>334</v>
+      </c>
+      <c r="BY338" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ338" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA338" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB338" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC338" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD338" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE338" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF338" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="339" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>83</v>
+      </c>
+      <c r="B339" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C339" t="s">
+        <v>356</v>
+      </c>
+      <c r="D339" t="s">
+        <v>85</v>
+      </c>
+      <c r="E339" t="s">
+        <v>115</v>
+      </c>
+      <c r="F339" t="s">
+        <v>102</v>
+      </c>
+      <c r="G339" t="s">
+        <v>88</v>
+      </c>
+      <c r="H339" t="s">
+        <v>687</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339">
+        <v>0</v>
+      </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
+      <c r="U339">
+        <v>0</v>
+      </c>
+      <c r="V339">
+        <v>0</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+      <c r="AB339">
+        <v>0</v>
+      </c>
+      <c r="AC339">
+        <v>0</v>
+      </c>
+      <c r="AD339">
+        <v>0</v>
+      </c>
+      <c r="AE339">
+        <v>0</v>
+      </c>
+      <c r="AF339">
+        <v>0</v>
+      </c>
+      <c r="AG339">
+        <v>0</v>
+      </c>
+      <c r="AH339">
+        <v>0</v>
+      </c>
+      <c r="AI339">
+        <v>0</v>
+      </c>
+      <c r="AJ339">
+        <v>0</v>
+      </c>
+      <c r="AK339">
+        <v>0</v>
+      </c>
+      <c r="AL339">
+        <v>0</v>
+      </c>
+      <c r="AM339">
+        <v>0</v>
+      </c>
+      <c r="AN339">
+        <v>0</v>
+      </c>
+      <c r="AO339">
+        <v>0</v>
+      </c>
+      <c r="AP339">
+        <v>0</v>
+      </c>
+      <c r="AQ339">
+        <v>0</v>
+      </c>
+      <c r="AR339">
+        <v>0</v>
+      </c>
+      <c r="AS339">
+        <v>0</v>
+      </c>
+      <c r="AT339">
+        <v>0</v>
+      </c>
+      <c r="AU339">
+        <v>0</v>
+      </c>
+      <c r="AV339">
+        <v>0</v>
+      </c>
+      <c r="AW339">
+        <v>0</v>
+      </c>
+      <c r="AX339">
+        <v>0</v>
+      </c>
+      <c r="AY339">
+        <v>0</v>
+      </c>
+      <c r="AZ339">
+        <v>0</v>
+      </c>
+      <c r="BA339">
+        <v>0</v>
+      </c>
+      <c r="BB339">
+        <v>0</v>
+      </c>
+      <c r="BC339">
+        <v>0</v>
+      </c>
+      <c r="BD339">
+        <v>0</v>
+      </c>
+      <c r="BE339">
+        <v>6</v>
+      </c>
+      <c r="BF339">
+        <v>5</v>
+      </c>
+      <c r="BG339">
+        <v>21</v>
+      </c>
+      <c r="BH339">
+        <v>11</v>
+      </c>
+      <c r="BI339">
+        <v>12</v>
+      </c>
+      <c r="BJ339">
+        <v>10</v>
+      </c>
+      <c r="BK339">
+        <v>55</v>
+      </c>
+      <c r="BL339">
+        <v>120</v>
+      </c>
+      <c r="BM339">
+        <v>31</v>
+      </c>
+      <c r="BN339">
+        <v>24</v>
+      </c>
+      <c r="BO339">
+        <v>73</v>
+      </c>
+      <c r="BP339">
+        <v>232</v>
+      </c>
+      <c r="BQ339">
+        <v>634</v>
+      </c>
+      <c r="BR339">
+        <v>845</v>
+      </c>
+      <c r="BS339">
+        <v>865</v>
+      </c>
+      <c r="BT339">
+        <v>2704</v>
+      </c>
+      <c r="BU339" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV339" s="1">
+        <v>44639</v>
+      </c>
+      <c r="BW339" t="s">
+        <v>367</v>
+      </c>
+      <c r="BX339" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY339" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ339" t="s">
+        <v>688</v>
+      </c>
+      <c r="CA339" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB339" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC339" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD339" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE339" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF339" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>83</v>
+      </c>
+      <c r="B340" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C340" t="s">
+        <v>356</v>
+      </c>
+      <c r="D340" t="s">
+        <v>85</v>
+      </c>
+      <c r="E340" t="s">
+        <v>213</v>
+      </c>
+      <c r="F340" t="s">
+        <v>102</v>
+      </c>
+      <c r="G340" t="s">
+        <v>88</v>
+      </c>
+      <c r="H340" t="s">
+        <v>689</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>3</v>
+      </c>
+      <c r="P340">
+        <v>5</v>
+      </c>
+      <c r="Q340">
+        <v>1</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>4</v>
+      </c>
+      <c r="T340">
+        <v>16</v>
+      </c>
+      <c r="U340">
+        <v>21</v>
+      </c>
+      <c r="V340">
+        <v>3</v>
+      </c>
+      <c r="W340">
+        <v>180</v>
+      </c>
+      <c r="X340">
+        <v>225</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+      <c r="AB340">
+        <v>0</v>
+      </c>
+      <c r="AC340">
+        <v>0</v>
+      </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
+      <c r="AE340">
+        <v>0</v>
+      </c>
+      <c r="AF340">
+        <v>0</v>
+      </c>
+      <c r="AG340">
+        <v>0</v>
+      </c>
+      <c r="AH340">
+        <v>0</v>
+      </c>
+      <c r="AI340">
+        <v>0</v>
+      </c>
+      <c r="AJ340">
+        <v>0</v>
+      </c>
+      <c r="AK340">
+        <v>0</v>
+      </c>
+      <c r="AL340">
+        <v>0</v>
+      </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
+      <c r="AN340">
+        <v>0</v>
+      </c>
+      <c r="AO340">
+        <v>0</v>
+      </c>
+      <c r="AP340">
+        <v>0</v>
+      </c>
+      <c r="AQ340">
+        <v>0</v>
+      </c>
+      <c r="AR340">
+        <v>0</v>
+      </c>
+      <c r="AS340">
+        <v>0</v>
+      </c>
+      <c r="AT340">
+        <v>0</v>
+      </c>
+      <c r="AU340">
+        <v>0</v>
+      </c>
+      <c r="AV340">
+        <v>0</v>
+      </c>
+      <c r="AW340">
+        <v>0</v>
+      </c>
+      <c r="AX340">
+        <v>0</v>
+      </c>
+      <c r="AY340">
+        <v>0</v>
+      </c>
+      <c r="AZ340">
+        <v>0</v>
+      </c>
+      <c r="BA340">
+        <v>0</v>
+      </c>
+      <c r="BB340">
+        <v>0</v>
+      </c>
+      <c r="BC340">
+        <v>3</v>
+      </c>
+      <c r="BD340">
+        <v>3</v>
+      </c>
+      <c r="BE340">
+        <v>2</v>
+      </c>
+      <c r="BF340">
+        <v>0</v>
+      </c>
+      <c r="BG340">
+        <v>3</v>
+      </c>
+      <c r="BH340">
+        <v>0</v>
+      </c>
+      <c r="BI340">
+        <v>2</v>
+      </c>
+      <c r="BJ340">
+        <v>1</v>
+      </c>
+      <c r="BK340">
+        <v>2</v>
+      </c>
+      <c r="BL340">
+        <v>10</v>
+      </c>
+      <c r="BM340">
+        <v>24</v>
+      </c>
+      <c r="BN340">
+        <v>2</v>
+      </c>
+      <c r="BO340">
+        <v>19</v>
+      </c>
+      <c r="BP340">
+        <v>40</v>
+      </c>
+      <c r="BQ340">
+        <v>59</v>
+      </c>
+      <c r="BR340">
+        <v>105</v>
+      </c>
+      <c r="BS340">
+        <v>275</v>
+      </c>
+      <c r="BT340">
+        <v>524</v>
+      </c>
+      <c r="BU340" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV340" s="1">
+        <v>44641</v>
+      </c>
+      <c r="BW340" t="s">
+        <v>690</v>
+      </c>
+      <c r="BX340" t="s">
+        <v>691</v>
+      </c>
+      <c r="BY340" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ340" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA340" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB340" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC340" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD340" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE340" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF340" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="341" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>83</v>
+      </c>
+      <c r="B341" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C341" t="s">
+        <v>356</v>
+      </c>
+      <c r="D341" t="s">
+        <v>85</v>
+      </c>
+      <c r="E341" t="s">
+        <v>123</v>
+      </c>
+      <c r="F341" t="s">
+        <v>102</v>
+      </c>
+      <c r="G341" t="s">
+        <v>88</v>
+      </c>
+      <c r="H341" t="s">
+        <v>692</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341">
+        <v>1</v>
+      </c>
+      <c r="R341">
+        <v>0</v>
+      </c>
+      <c r="S341">
+        <v>1</v>
+      </c>
+      <c r="T341">
+        <v>0</v>
+      </c>
+      <c r="U341">
+        <v>0</v>
+      </c>
+      <c r="V341">
+        <v>2</v>
+      </c>
+      <c r="W341">
+        <v>1</v>
+      </c>
+      <c r="X341">
+        <v>5</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+      <c r="AB341">
+        <v>0</v>
+      </c>
+      <c r="AC341">
+        <v>0</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>0</v>
+      </c>
+      <c r="AF341">
+        <v>0</v>
+      </c>
+      <c r="AG341">
+        <v>0</v>
+      </c>
+      <c r="AH341">
+        <v>0</v>
+      </c>
+      <c r="AI341">
+        <v>1</v>
+      </c>
+      <c r="AJ341">
+        <v>0</v>
+      </c>
+      <c r="AK341">
+        <v>0</v>
+      </c>
+      <c r="AL341">
+        <v>2</v>
+      </c>
+      <c r="AM341">
+        <v>1</v>
+      </c>
+      <c r="AN341">
+        <v>4</v>
+      </c>
+      <c r="AO341">
+        <v>0</v>
+      </c>
+      <c r="AP341">
+        <v>0</v>
+      </c>
+      <c r="AQ341">
+        <v>0</v>
+      </c>
+      <c r="AR341">
+        <v>0</v>
+      </c>
+      <c r="AS341">
+        <v>0</v>
+      </c>
+      <c r="AT341">
+        <v>0</v>
+      </c>
+      <c r="AU341">
+        <v>0</v>
+      </c>
+      <c r="AV341">
+        <v>0</v>
+      </c>
+      <c r="AW341">
+        <v>0</v>
+      </c>
+      <c r="AX341">
+        <v>0</v>
+      </c>
+      <c r="AY341">
+        <v>0</v>
+      </c>
+      <c r="AZ341">
+        <v>0</v>
+      </c>
+      <c r="BA341">
+        <v>0</v>
+      </c>
+      <c r="BB341">
+        <v>0</v>
+      </c>
+      <c r="BC341">
+        <v>0</v>
+      </c>
+      <c r="BD341">
+        <v>0</v>
+      </c>
+      <c r="BE341">
+        <v>2</v>
+      </c>
+      <c r="BF341">
+        <v>3</v>
+      </c>
+      <c r="BG341">
+        <v>2</v>
+      </c>
+      <c r="BH341">
+        <v>2</v>
+      </c>
+      <c r="BI341">
+        <v>0</v>
+      </c>
+      <c r="BJ341">
+        <v>0</v>
+      </c>
+      <c r="BK341">
+        <v>3</v>
+      </c>
+      <c r="BL341">
+        <v>12</v>
+      </c>
+      <c r="BM341">
+        <v>11</v>
+      </c>
+      <c r="BN341">
+        <v>23</v>
+      </c>
+      <c r="BO341">
+        <v>14</v>
+      </c>
+      <c r="BP341">
+        <v>19</v>
+      </c>
+      <c r="BQ341">
+        <v>21</v>
+      </c>
+      <c r="BR341">
+        <v>22</v>
+      </c>
+      <c r="BS341">
+        <v>12</v>
+      </c>
+      <c r="BT341">
+        <v>122</v>
+      </c>
+      <c r="BU341" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV341" s="1">
+        <v>44641</v>
+      </c>
+      <c r="BW341" t="s">
+        <v>693</v>
+      </c>
+      <c r="BX341" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY341" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ341" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA341" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB341" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC341" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD341" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE341" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF341" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C342" t="s">
+        <v>356</v>
+      </c>
+      <c r="D342" t="s">
+        <v>85</v>
+      </c>
+      <c r="E342" t="s">
+        <v>131</v>
+      </c>
+      <c r="F342" t="s">
+        <v>102</v>
+      </c>
+      <c r="G342" t="s">
+        <v>88</v>
+      </c>
+      <c r="H342" t="s">
+        <v>694</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+      <c r="P342">
+        <v>0</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <v>0</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+      <c r="U342">
+        <v>0</v>
+      </c>
+      <c r="V342">
+        <v>0</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+      <c r="AB342">
+        <v>0</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
+      <c r="AG342">
+        <v>0</v>
+      </c>
+      <c r="AH342">
+        <v>0</v>
+      </c>
+      <c r="AI342">
+        <v>0</v>
+      </c>
+      <c r="AJ342">
+        <v>0</v>
+      </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AN342">
+        <v>0</v>
+      </c>
+      <c r="AO342">
+        <v>0</v>
+      </c>
+      <c r="AP342">
+        <v>0</v>
+      </c>
+      <c r="AQ342">
+        <v>0</v>
+      </c>
+      <c r="AR342">
+        <v>0</v>
+      </c>
+      <c r="AS342">
+        <v>0</v>
+      </c>
+      <c r="AT342">
+        <v>0</v>
+      </c>
+      <c r="AU342">
+        <v>0</v>
+      </c>
+      <c r="AV342">
+        <v>0</v>
+      </c>
+      <c r="AW342">
+        <v>0</v>
+      </c>
+      <c r="AX342">
+        <v>0</v>
+      </c>
+      <c r="AY342">
+        <v>0</v>
+      </c>
+      <c r="AZ342">
+        <v>0</v>
+      </c>
+      <c r="BA342">
+        <v>0</v>
+      </c>
+      <c r="BB342">
+        <v>0</v>
+      </c>
+      <c r="BC342">
+        <v>0</v>
+      </c>
+      <c r="BD342">
+        <v>0</v>
+      </c>
+      <c r="BE342">
+        <v>2</v>
+      </c>
+      <c r="BF342">
+        <v>6</v>
+      </c>
+      <c r="BG342">
+        <v>11</v>
+      </c>
+      <c r="BH342">
+        <v>3</v>
+      </c>
+      <c r="BI342">
+        <v>4</v>
+      </c>
+      <c r="BJ342">
+        <v>2</v>
+      </c>
+      <c r="BK342">
+        <v>3</v>
+      </c>
+      <c r="BL342">
+        <v>31</v>
+      </c>
+      <c r="BM342">
+        <v>31</v>
+      </c>
+      <c r="BN342">
+        <v>22</v>
+      </c>
+      <c r="BO342">
+        <v>63</v>
+      </c>
+      <c r="BP342">
+        <v>148</v>
+      </c>
+      <c r="BQ342">
+        <v>171</v>
+      </c>
+      <c r="BR342">
+        <v>143</v>
+      </c>
+      <c r="BS342">
+        <v>263</v>
+      </c>
+      <c r="BT342">
+        <v>841</v>
+      </c>
+      <c r="BU342" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV342" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW342" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX342" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY342" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ342" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA342" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB342" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC342" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD342" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE342" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF342" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>83</v>
+      </c>
+      <c r="B343" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C343" t="s">
+        <v>356</v>
+      </c>
+      <c r="D343" t="s">
+        <v>85</v>
+      </c>
+      <c r="E343" t="s">
+        <v>131</v>
+      </c>
+      <c r="F343" t="s">
+        <v>376</v>
+      </c>
+      <c r="G343" t="s">
+        <v>88</v>
+      </c>
+      <c r="H343" t="s">
+        <v>695</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+      <c r="P343">
+        <v>0</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <v>0</v>
+      </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
+      <c r="V343">
+        <v>0</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
+      <c r="AG343">
+        <v>0</v>
+      </c>
+      <c r="AH343">
+        <v>0</v>
+      </c>
+      <c r="AI343">
+        <v>0</v>
+      </c>
+      <c r="AJ343">
+        <v>0</v>
+      </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>0</v>
+      </c>
+      <c r="AO343">
+        <v>0</v>
+      </c>
+      <c r="AP343">
+        <v>0</v>
+      </c>
+      <c r="AQ343">
+        <v>0</v>
+      </c>
+      <c r="AR343">
+        <v>0</v>
+      </c>
+      <c r="AS343">
+        <v>0</v>
+      </c>
+      <c r="AT343">
+        <v>0</v>
+      </c>
+      <c r="AU343">
+        <v>0</v>
+      </c>
+      <c r="AV343">
+        <v>0</v>
+      </c>
+      <c r="AW343">
+        <v>0</v>
+      </c>
+      <c r="AX343">
+        <v>0</v>
+      </c>
+      <c r="AY343">
+        <v>0</v>
+      </c>
+      <c r="AZ343">
+        <v>0</v>
+      </c>
+      <c r="BA343">
+        <v>0</v>
+      </c>
+      <c r="BB343">
+        <v>0</v>
+      </c>
+      <c r="BC343">
+        <v>0</v>
+      </c>
+      <c r="BD343">
+        <v>0</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>0</v>
+      </c>
+      <c r="BG343">
+        <v>0</v>
+      </c>
+      <c r="BH343">
+        <v>0</v>
+      </c>
+      <c r="BI343">
+        <v>0</v>
+      </c>
+      <c r="BJ343">
+        <v>0</v>
+      </c>
+      <c r="BK343">
+        <v>1</v>
+      </c>
+      <c r="BL343">
+        <v>1</v>
+      </c>
+      <c r="BM343">
+        <v>11</v>
+      </c>
+      <c r="BN343">
+        <v>6</v>
+      </c>
+      <c r="BO343">
+        <v>23</v>
+      </c>
+      <c r="BP343">
+        <v>64</v>
+      </c>
+      <c r="BQ343">
+        <v>8</v>
+      </c>
+      <c r="BR343">
+        <v>122</v>
+      </c>
+      <c r="BS343">
+        <v>93</v>
+      </c>
+      <c r="BT343">
+        <v>327</v>
+      </c>
+      <c r="BU343" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV343" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW343" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX343" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY343" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ343" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA343" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB343" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC343" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD343" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE343" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF343" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="344" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>83</v>
+      </c>
+      <c r="B344" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C344" t="s">
+        <v>356</v>
+      </c>
+      <c r="D344" t="s">
+        <v>85</v>
+      </c>
+      <c r="E344" t="s">
+        <v>131</v>
+      </c>
+      <c r="F344" t="s">
+        <v>337</v>
+      </c>
+      <c r="G344" t="s">
+        <v>88</v>
+      </c>
+      <c r="H344" t="s">
+        <v>696</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+      <c r="P344">
+        <v>0</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <v>0</v>
+      </c>
+      <c r="S344">
+        <v>0</v>
+      </c>
+      <c r="T344">
+        <v>0</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+      <c r="V344">
+        <v>0</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+      <c r="AB344">
+        <v>0</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>0</v>
+      </c>
+      <c r="AF344">
+        <v>0</v>
+      </c>
+      <c r="AG344">
+        <v>0</v>
+      </c>
+      <c r="AH344">
+        <v>0</v>
+      </c>
+      <c r="AI344">
+        <v>0</v>
+      </c>
+      <c r="AJ344">
+        <v>0</v>
+      </c>
+      <c r="AK344">
+        <v>0</v>
+      </c>
+      <c r="AL344">
+        <v>0</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AN344">
+        <v>0</v>
+      </c>
+      <c r="AO344">
+        <v>0</v>
+      </c>
+      <c r="AP344">
+        <v>0</v>
+      </c>
+      <c r="AQ344">
+        <v>0</v>
+      </c>
+      <c r="AR344">
+        <v>0</v>
+      </c>
+      <c r="AS344">
+        <v>0</v>
+      </c>
+      <c r="AT344">
+        <v>0</v>
+      </c>
+      <c r="AU344">
+        <v>0</v>
+      </c>
+      <c r="AV344">
+        <v>0</v>
+      </c>
+      <c r="AW344">
+        <v>0</v>
+      </c>
+      <c r="AX344">
+        <v>0</v>
+      </c>
+      <c r="AY344">
+        <v>0</v>
+      </c>
+      <c r="AZ344">
+        <v>0</v>
+      </c>
+      <c r="BA344">
+        <v>0</v>
+      </c>
+      <c r="BB344">
+        <v>0</v>
+      </c>
+      <c r="BC344">
+        <v>0</v>
+      </c>
+      <c r="BD344">
+        <v>0</v>
+      </c>
+      <c r="BE344">
+        <v>1</v>
+      </c>
+      <c r="BF344">
+        <v>0</v>
+      </c>
+      <c r="BG344">
+        <v>0</v>
+      </c>
+      <c r="BH344">
+        <v>1</v>
+      </c>
+      <c r="BI344">
+        <v>0</v>
+      </c>
+      <c r="BJ344">
+        <v>0</v>
+      </c>
+      <c r="BK344">
+        <v>0</v>
+      </c>
+      <c r="BL344">
+        <v>2</v>
+      </c>
+      <c r="BM344">
+        <v>6</v>
+      </c>
+      <c r="BN344">
+        <v>6</v>
+      </c>
+      <c r="BO344">
+        <v>8</v>
+      </c>
+      <c r="BP344">
+        <v>35</v>
+      </c>
+      <c r="BQ344">
+        <v>22</v>
+      </c>
+      <c r="BR344">
+        <v>27</v>
+      </c>
+      <c r="BS344">
+        <v>25</v>
+      </c>
+      <c r="BT344">
+        <v>129</v>
+      </c>
+      <c r="BU344" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV344" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW344" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX344" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY344" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ344" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA344" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB344" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC344" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD344" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE344" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF344" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="345" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>83</v>
+      </c>
+      <c r="B345" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C345" t="s">
+        <v>356</v>
+      </c>
+      <c r="D345" t="s">
+        <v>85</v>
+      </c>
+      <c r="E345" t="s">
+        <v>131</v>
+      </c>
+      <c r="F345" t="s">
+        <v>139</v>
+      </c>
+      <c r="G345" t="s">
+        <v>88</v>
+      </c>
+      <c r="H345" t="s">
+        <v>697</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <v>0</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+      <c r="R345">
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
+      <c r="U345">
+        <v>0</v>
+      </c>
+      <c r="V345">
+        <v>0</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>0</v>
+      </c>
+      <c r="AH345">
+        <v>0</v>
+      </c>
+      <c r="AI345">
+        <v>0</v>
+      </c>
+      <c r="AJ345">
+        <v>0</v>
+      </c>
+      <c r="AK345">
+        <v>0</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>0</v>
+      </c>
+      <c r="AO345">
+        <v>0</v>
+      </c>
+      <c r="AP345">
+        <v>0</v>
+      </c>
+      <c r="AQ345">
+        <v>0</v>
+      </c>
+      <c r="AR345">
+        <v>0</v>
+      </c>
+      <c r="AS345">
+        <v>0</v>
+      </c>
+      <c r="AT345">
+        <v>0</v>
+      </c>
+      <c r="AU345">
+        <v>0</v>
+      </c>
+      <c r="AV345">
+        <v>0</v>
+      </c>
+      <c r="AW345">
+        <v>0</v>
+      </c>
+      <c r="AX345">
+        <v>0</v>
+      </c>
+      <c r="AY345">
+        <v>0</v>
+      </c>
+      <c r="AZ345">
+        <v>0</v>
+      </c>
+      <c r="BA345">
+        <v>0</v>
+      </c>
+      <c r="BB345">
+        <v>0</v>
+      </c>
+      <c r="BC345">
+        <v>0</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>2</v>
+      </c>
+      <c r="BF345">
+        <v>6</v>
+      </c>
+      <c r="BG345">
+        <v>12</v>
+      </c>
+      <c r="BH345">
+        <v>8</v>
+      </c>
+      <c r="BI345">
+        <v>1</v>
+      </c>
+      <c r="BJ345">
+        <v>1</v>
+      </c>
+      <c r="BK345">
+        <v>4</v>
+      </c>
+      <c r="BL345">
+        <v>34</v>
+      </c>
+      <c r="BM345">
+        <v>35</v>
+      </c>
+      <c r="BN345">
+        <v>32</v>
+      </c>
+      <c r="BO345">
+        <v>59</v>
+      </c>
+      <c r="BP345">
+        <v>198</v>
+      </c>
+      <c r="BQ345">
+        <v>257</v>
+      </c>
+      <c r="BR345">
+        <v>208</v>
+      </c>
+      <c r="BS345">
+        <v>428</v>
+      </c>
+      <c r="BT345">
+        <v>1217</v>
+      </c>
+      <c r="BU345" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV345" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW345" t="s">
+        <v>698</v>
+      </c>
+      <c r="BX345" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY345" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ345" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA345" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB345" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC345" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD345" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE345" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF345" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>83</v>
+      </c>
+      <c r="B346" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C346" t="s">
+        <v>356</v>
+      </c>
+      <c r="D346" t="s">
+        <v>85</v>
+      </c>
+      <c r="E346" t="s">
+        <v>131</v>
+      </c>
+      <c r="F346" t="s">
+        <v>433</v>
+      </c>
+      <c r="G346" t="s">
+        <v>88</v>
+      </c>
+      <c r="H346" t="s">
+        <v>699</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+      <c r="P346">
+        <v>0</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+      <c r="R346">
+        <v>0</v>
+      </c>
+      <c r="S346">
+        <v>0</v>
+      </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+      <c r="V346">
+        <v>0</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+      <c r="AB346">
+        <v>0</v>
+      </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>0</v>
+      </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
+      <c r="AG346">
+        <v>0</v>
+      </c>
+      <c r="AH346">
+        <v>0</v>
+      </c>
+      <c r="AI346">
+        <v>0</v>
+      </c>
+      <c r="AJ346">
+        <v>0</v>
+      </c>
+      <c r="AK346">
+        <v>0</v>
+      </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AN346">
+        <v>0</v>
+      </c>
+      <c r="AO346">
+        <v>0</v>
+      </c>
+      <c r="AP346">
+        <v>0</v>
+      </c>
+      <c r="AQ346">
+        <v>0</v>
+      </c>
+      <c r="AR346">
+        <v>0</v>
+      </c>
+      <c r="AS346">
+        <v>0</v>
+      </c>
+      <c r="AT346">
+        <v>0</v>
+      </c>
+      <c r="AU346">
+        <v>0</v>
+      </c>
+      <c r="AV346">
+        <v>0</v>
+      </c>
+      <c r="AW346">
+        <v>0</v>
+      </c>
+      <c r="AX346">
+        <v>0</v>
+      </c>
+      <c r="AY346">
+        <v>0</v>
+      </c>
+      <c r="AZ346">
+        <v>0</v>
+      </c>
+      <c r="BA346">
+        <v>0</v>
+      </c>
+      <c r="BB346">
+        <v>0</v>
+      </c>
+      <c r="BC346">
+        <v>0</v>
+      </c>
+      <c r="BD346">
+        <v>0</v>
+      </c>
+      <c r="BE346">
+        <v>0</v>
+      </c>
+      <c r="BF346">
+        <v>0</v>
+      </c>
+      <c r="BG346">
+        <v>0</v>
+      </c>
+      <c r="BH346">
+        <v>1</v>
+      </c>
+      <c r="BI346">
+        <v>0</v>
+      </c>
+      <c r="BJ346">
+        <v>0</v>
+      </c>
+      <c r="BK346">
+        <v>0</v>
+      </c>
+      <c r="BL346">
+        <v>1</v>
+      </c>
+      <c r="BM346">
+        <v>0</v>
+      </c>
+      <c r="BN346">
+        <v>0</v>
+      </c>
+      <c r="BO346">
+        <v>0</v>
+      </c>
+      <c r="BP346">
+        <v>7</v>
+      </c>
+      <c r="BQ346">
+        <v>4</v>
+      </c>
+      <c r="BR346">
+        <v>25</v>
+      </c>
+      <c r="BS346">
+        <v>42</v>
+      </c>
+      <c r="BT346">
+        <v>78</v>
+      </c>
+      <c r="BU346" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV346" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW346" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX346" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY346" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ346" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA346" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB346" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC346" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD346" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE346" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF346" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="347" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>83</v>
+      </c>
+      <c r="B347" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C347" t="s">
+        <v>356</v>
+      </c>
+      <c r="D347" t="s">
+        <v>85</v>
+      </c>
+      <c r="E347" t="s">
+        <v>131</v>
+      </c>
+      <c r="F347" t="s">
+        <v>146</v>
+      </c>
+      <c r="G347" t="s">
+        <v>88</v>
+      </c>
+      <c r="H347" t="s">
+        <v>700</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <v>0</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+      <c r="V347">
+        <v>0</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+      <c r="AB347">
+        <v>0</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+      <c r="AD347">
+        <v>0</v>
+      </c>
+      <c r="AE347">
+        <v>0</v>
+      </c>
+      <c r="AF347">
+        <v>0</v>
+      </c>
+      <c r="AG347">
+        <v>0</v>
+      </c>
+      <c r="AH347">
+        <v>0</v>
+      </c>
+      <c r="AI347">
+        <v>0</v>
+      </c>
+      <c r="AJ347">
+        <v>0</v>
+      </c>
+      <c r="AK347">
+        <v>0</v>
+      </c>
+      <c r="AL347">
+        <v>0</v>
+      </c>
+      <c r="AM347">
+        <v>0</v>
+      </c>
+      <c r="AN347">
+        <v>0</v>
+      </c>
+      <c r="AO347">
+        <v>0</v>
+      </c>
+      <c r="AP347">
+        <v>0</v>
+      </c>
+      <c r="AQ347">
+        <v>0</v>
+      </c>
+      <c r="AR347">
+        <v>0</v>
+      </c>
+      <c r="AS347">
+        <v>0</v>
+      </c>
+      <c r="AT347">
+        <v>0</v>
+      </c>
+      <c r="AU347">
+        <v>0</v>
+      </c>
+      <c r="AV347">
+        <v>0</v>
+      </c>
+      <c r="AW347">
+        <v>0</v>
+      </c>
+      <c r="AX347">
+        <v>0</v>
+      </c>
+      <c r="AY347">
+        <v>0</v>
+      </c>
+      <c r="AZ347">
+        <v>0</v>
+      </c>
+      <c r="BA347">
+        <v>0</v>
+      </c>
+      <c r="BB347">
+        <v>0</v>
+      </c>
+      <c r="BC347">
+        <v>0</v>
+      </c>
+      <c r="BD347">
+        <v>0</v>
+      </c>
+      <c r="BE347">
+        <v>2</v>
+      </c>
+      <c r="BF347">
+        <v>0</v>
+      </c>
+      <c r="BG347">
+        <v>0</v>
+      </c>
+      <c r="BH347">
+        <v>0</v>
+      </c>
+      <c r="BI347">
+        <v>1</v>
+      </c>
+      <c r="BJ347">
+        <v>1</v>
+      </c>
+      <c r="BK347">
+        <v>0</v>
+      </c>
+      <c r="BL347">
+        <v>4</v>
+      </c>
+      <c r="BM347">
+        <v>4</v>
+      </c>
+      <c r="BN347">
+        <v>1</v>
+      </c>
+      <c r="BO347">
+        <v>3</v>
+      </c>
+      <c r="BP347">
+        <v>14</v>
+      </c>
+      <c r="BQ347">
+        <v>17</v>
+      </c>
+      <c r="BR347">
+        <v>27</v>
+      </c>
+      <c r="BS347">
+        <v>28</v>
+      </c>
+      <c r="BT347">
+        <v>94</v>
+      </c>
+      <c r="BU347" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV347" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW347" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX347" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY347" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ347" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA347" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB347" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC347" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD347" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE347" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF347" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="348" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>83</v>
+      </c>
+      <c r="B348" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C348" t="s">
+        <v>356</v>
+      </c>
+      <c r="D348" t="s">
+        <v>85</v>
+      </c>
+      <c r="E348" t="s">
+        <v>131</v>
+      </c>
+      <c r="F348" t="s">
+        <v>116</v>
+      </c>
+      <c r="G348" t="s">
+        <v>88</v>
+      </c>
+      <c r="H348" t="s">
+        <v>701</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
+      <c r="R348">
+        <v>0</v>
+      </c>
+      <c r="S348">
+        <v>0</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+      <c r="V348">
+        <v>0</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+      <c r="AB348">
+        <v>0</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+      <c r="AD348">
+        <v>0</v>
+      </c>
+      <c r="AE348">
+        <v>0</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>0</v>
+      </c>
+      <c r="AH348">
+        <v>0</v>
+      </c>
+      <c r="AI348">
+        <v>0</v>
+      </c>
+      <c r="AJ348">
+        <v>0</v>
+      </c>
+      <c r="AK348">
+        <v>0</v>
+      </c>
+      <c r="AL348">
+        <v>0</v>
+      </c>
+      <c r="AM348">
+        <v>0</v>
+      </c>
+      <c r="AN348">
+        <v>0</v>
+      </c>
+      <c r="AO348">
+        <v>0</v>
+      </c>
+      <c r="AP348">
+        <v>0</v>
+      </c>
+      <c r="AQ348">
+        <v>0</v>
+      </c>
+      <c r="AR348">
+        <v>0</v>
+      </c>
+      <c r="AS348">
+        <v>0</v>
+      </c>
+      <c r="AT348">
+        <v>0</v>
+      </c>
+      <c r="AU348">
+        <v>0</v>
+      </c>
+      <c r="AV348">
+        <v>0</v>
+      </c>
+      <c r="AW348">
+        <v>0</v>
+      </c>
+      <c r="AX348">
+        <v>0</v>
+      </c>
+      <c r="AY348">
+        <v>0</v>
+      </c>
+      <c r="AZ348">
+        <v>0</v>
+      </c>
+      <c r="BA348">
+        <v>0</v>
+      </c>
+      <c r="BB348">
+        <v>0</v>
+      </c>
+      <c r="BC348">
+        <v>0</v>
+      </c>
+      <c r="BD348">
+        <v>0</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>0</v>
+      </c>
+      <c r="BG348">
+        <v>1</v>
+      </c>
+      <c r="BH348">
+        <v>0</v>
+      </c>
+      <c r="BI348">
+        <v>0</v>
+      </c>
+      <c r="BJ348">
+        <v>0</v>
+      </c>
+      <c r="BK348">
+        <v>0</v>
+      </c>
+      <c r="BL348">
+        <v>1</v>
+      </c>
+      <c r="BM348">
+        <v>2</v>
+      </c>
+      <c r="BN348">
+        <v>7</v>
+      </c>
+      <c r="BO348">
+        <v>10</v>
+      </c>
+      <c r="BP348">
+        <v>41</v>
+      </c>
+      <c r="BQ348">
+        <v>58</v>
+      </c>
+      <c r="BR348">
+        <v>74</v>
+      </c>
+      <c r="BS348">
+        <v>81</v>
+      </c>
+      <c r="BT348">
+        <v>273</v>
+      </c>
+      <c r="BU348" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV348" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW348" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX348" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY348" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ348" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA348" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB348" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC348" t="s">
+        <v>329</v>
+      </c>
+      <c r="CD348" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE348" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF348" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="349" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>83</v>
+      </c>
+      <c r="B349" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C349" t="s">
+        <v>356</v>
+      </c>
+      <c r="D349" t="s">
+        <v>85</v>
+      </c>
+      <c r="E349" t="s">
+        <v>131</v>
+      </c>
+      <c r="F349" t="s">
+        <v>155</v>
+      </c>
+      <c r="G349" t="s">
+        <v>88</v>
+      </c>
+      <c r="H349" t="s">
+        <v>702</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <v>0</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <v>0</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+      <c r="V349">
+        <v>0</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
+        <v>0</v>
+      </c>
+      <c r="AB349">
+        <v>0</v>
+      </c>
+      <c r="AC349">
+        <v>0</v>
+      </c>
+      <c r="AD349">
+        <v>0</v>
+      </c>
+      <c r="AE349">
+        <v>0</v>
+      </c>
+      <c r="AF349">
+        <v>0</v>
+      </c>
+      <c r="AG349">
+        <v>0</v>
+      </c>
+      <c r="AH349">
+        <v>0</v>
+      </c>
+      <c r="AI349">
+        <v>0</v>
+      </c>
+      <c r="AJ349">
+        <v>0</v>
+      </c>
+      <c r="AK349">
+        <v>0</v>
+      </c>
+      <c r="AL349">
+        <v>0</v>
+      </c>
+      <c r="AM349">
+        <v>0</v>
+      </c>
+      <c r="AN349">
+        <v>0</v>
+      </c>
+      <c r="AO349">
+        <v>0</v>
+      </c>
+      <c r="AP349">
+        <v>0</v>
+      </c>
+      <c r="AQ349">
+        <v>0</v>
+      </c>
+      <c r="AR349">
+        <v>0</v>
+      </c>
+      <c r="AS349">
+        <v>0</v>
+      </c>
+      <c r="AT349">
+        <v>0</v>
+      </c>
+      <c r="AU349">
+        <v>0</v>
+      </c>
+      <c r="AV349">
+        <v>0</v>
+      </c>
+      <c r="AW349">
+        <v>0</v>
+      </c>
+      <c r="AX349">
+        <v>0</v>
+      </c>
+      <c r="AY349">
+        <v>0</v>
+      </c>
+      <c r="AZ349">
+        <v>0</v>
+      </c>
+      <c r="BA349">
+        <v>0</v>
+      </c>
+      <c r="BB349">
+        <v>0</v>
+      </c>
+      <c r="BC349">
+        <v>0</v>
+      </c>
+      <c r="BD349">
+        <v>0</v>
+      </c>
+      <c r="BE349">
+        <v>0</v>
+      </c>
+      <c r="BF349">
+        <v>0</v>
+      </c>
+      <c r="BG349">
+        <v>1</v>
+      </c>
+      <c r="BH349">
+        <v>0</v>
+      </c>
+      <c r="BI349">
+        <v>0</v>
+      </c>
+      <c r="BJ349">
+        <v>1</v>
+      </c>
+      <c r="BK349">
+        <v>0</v>
+      </c>
+      <c r="BL349">
+        <v>2</v>
+      </c>
+      <c r="BM349">
+        <v>9</v>
+      </c>
+      <c r="BN349">
+        <v>7</v>
+      </c>
+      <c r="BO349">
+        <v>7</v>
+      </c>
+      <c r="BP349">
+        <v>17</v>
+      </c>
+      <c r="BQ349">
+        <v>15</v>
+      </c>
+      <c r="BR349">
+        <v>37</v>
+      </c>
+      <c r="BS349">
+        <v>37</v>
+      </c>
+      <c r="BT349">
+        <v>129</v>
+      </c>
+      <c r="BU349" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV349" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW349" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX349" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY349" t="s">
+        <v>660</v>
+      </c>
+      <c r="BZ349" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA349" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB349" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC349" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD349" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE349" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF349" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="350" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>83</v>
+      </c>
+      <c r="B350" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C350" t="s">
+        <v>356</v>
+      </c>
+      <c r="D350" t="s">
+        <v>85</v>
+      </c>
+      <c r="E350" t="s">
+        <v>227</v>
+      </c>
+      <c r="F350" t="s">
+        <v>102</v>
+      </c>
+      <c r="G350" t="s">
+        <v>88</v>
+      </c>
+      <c r="H350" t="s">
+        <v>703</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>0</v>
+      </c>
+      <c r="S350">
+        <v>0</v>
+      </c>
+      <c r="T350">
+        <v>1</v>
+      </c>
+      <c r="U350">
+        <v>5</v>
+      </c>
+      <c r="V350">
+        <v>3</v>
+      </c>
+      <c r="W350">
+        <v>17</v>
+      </c>
+      <c r="X350">
+        <v>26</v>
+      </c>
+      <c r="Y350">
+        <v>0</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+      <c r="AB350">
+        <v>0</v>
+      </c>
+      <c r="AC350">
+        <v>0</v>
+      </c>
+      <c r="AD350">
+        <v>0</v>
+      </c>
+      <c r="AE350">
+        <v>0</v>
+      </c>
+      <c r="AF350">
+        <v>0</v>
+      </c>
+      <c r="AG350">
+        <v>0</v>
+      </c>
+      <c r="AH350">
+        <v>0</v>
+      </c>
+      <c r="AI350">
+        <v>0</v>
+      </c>
+      <c r="AJ350">
+        <v>0</v>
+      </c>
+      <c r="AK350">
+        <v>2</v>
+      </c>
+      <c r="AL350">
+        <v>1</v>
+      </c>
+      <c r="AM350">
+        <v>7</v>
+      </c>
+      <c r="AN350">
+        <v>10</v>
+      </c>
+      <c r="AO350">
+        <v>0</v>
+      </c>
+      <c r="AP350">
+        <v>0</v>
+      </c>
+      <c r="AQ350">
+        <v>0</v>
+      </c>
+      <c r="AR350">
+        <v>0</v>
+      </c>
+      <c r="AS350">
+        <v>0</v>
+      </c>
+      <c r="AT350">
+        <v>0</v>
+      </c>
+      <c r="AU350">
+        <v>0</v>
+      </c>
+      <c r="AV350">
+        <v>0</v>
+      </c>
+      <c r="AW350">
+        <v>0</v>
+      </c>
+      <c r="AX350">
+        <v>0</v>
+      </c>
+      <c r="AY350">
+        <v>0</v>
+      </c>
+      <c r="AZ350">
+        <v>0</v>
+      </c>
+      <c r="BA350">
+        <v>0</v>
+      </c>
+      <c r="BB350">
+        <v>1</v>
+      </c>
+      <c r="BC350">
+        <v>3</v>
+      </c>
+      <c r="BD350">
+        <v>4</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>0</v>
+      </c>
+      <c r="BG350">
+        <v>0</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>0</v>
+      </c>
+      <c r="BJ350">
+        <v>0</v>
+      </c>
+      <c r="BK350">
+        <v>0</v>
+      </c>
+      <c r="BL350">
+        <v>0</v>
+      </c>
+      <c r="BM350">
+        <v>0</v>
+      </c>
+      <c r="BN350">
+        <v>0</v>
+      </c>
+      <c r="BO350">
+        <v>0</v>
+      </c>
+      <c r="BP350">
+        <v>0</v>
+      </c>
+      <c r="BQ350">
+        <v>0</v>
+      </c>
+      <c r="BR350">
+        <v>0</v>
+      </c>
+      <c r="BS350">
+        <v>0</v>
+      </c>
+      <c r="BT350">
+        <v>0</v>
+      </c>
+      <c r="BU350" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV350" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW350" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX350" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY350" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ350" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA350" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB350" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC350" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD350" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE350" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF350" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="351" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>83</v>
+      </c>
+      <c r="B351" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C351" t="s">
+        <v>356</v>
+      </c>
+      <c r="D351" t="s">
+        <v>85</v>
+      </c>
+      <c r="E351" t="s">
+        <v>166</v>
+      </c>
+      <c r="F351" t="s">
+        <v>102</v>
+      </c>
+      <c r="G351" t="s">
+        <v>88</v>
+      </c>
+      <c r="H351" t="s">
+        <v>704</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>0</v>
+      </c>
+      <c r="S351">
+        <v>0</v>
+      </c>
+      <c r="T351">
+        <v>0</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+      <c r="V351">
+        <v>0</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
+      <c r="AB351">
+        <v>0</v>
+      </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
+      <c r="AD351">
+        <v>0</v>
+      </c>
+      <c r="AE351">
+        <v>0</v>
+      </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
+      <c r="AG351">
+        <v>0</v>
+      </c>
+      <c r="AH351">
+        <v>0</v>
+      </c>
+      <c r="AI351">
+        <v>0</v>
+      </c>
+      <c r="AJ351">
+        <v>0</v>
+      </c>
+      <c r="AK351">
+        <v>0</v>
+      </c>
+      <c r="AL351">
+        <v>0</v>
+      </c>
+      <c r="AM351">
+        <v>0</v>
+      </c>
+      <c r="AN351">
+        <v>0</v>
+      </c>
+      <c r="AO351">
+        <v>0</v>
+      </c>
+      <c r="AP351">
+        <v>0</v>
+      </c>
+      <c r="AQ351">
+        <v>0</v>
+      </c>
+      <c r="AR351">
+        <v>0</v>
+      </c>
+      <c r="AS351">
+        <v>0</v>
+      </c>
+      <c r="AT351">
+        <v>0</v>
+      </c>
+      <c r="AU351">
+        <v>0</v>
+      </c>
+      <c r="AV351">
+        <v>0</v>
+      </c>
+      <c r="AW351">
+        <v>0</v>
+      </c>
+      <c r="AX351">
+        <v>0</v>
+      </c>
+      <c r="AY351">
+        <v>0</v>
+      </c>
+      <c r="AZ351">
+        <v>0</v>
+      </c>
+      <c r="BA351">
+        <v>0</v>
+      </c>
+      <c r="BB351">
+        <v>0</v>
+      </c>
+      <c r="BC351">
+        <v>0</v>
+      </c>
+      <c r="BD351">
+        <v>0</v>
+      </c>
+      <c r="BE351">
+        <v>0</v>
+      </c>
+      <c r="BF351">
+        <v>0</v>
+      </c>
+      <c r="BG351">
+        <v>0</v>
+      </c>
+      <c r="BH351">
+        <v>1</v>
+      </c>
+      <c r="BI351">
+        <v>1</v>
+      </c>
+      <c r="BJ351">
+        <v>0</v>
+      </c>
+      <c r="BK351">
+        <v>2</v>
+      </c>
+      <c r="BL351">
+        <v>4</v>
+      </c>
+      <c r="BM351">
+        <v>0</v>
+      </c>
+      <c r="BN351">
+        <v>2</v>
+      </c>
+      <c r="BO351">
+        <v>6</v>
+      </c>
+      <c r="BP351">
+        <v>93</v>
+      </c>
+      <c r="BQ351">
+        <v>173</v>
+      </c>
+      <c r="BR351">
+        <v>401</v>
+      </c>
+      <c r="BS351">
+        <v>596</v>
+      </c>
+      <c r="BT351">
+        <v>1271</v>
+      </c>
+      <c r="BU351" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV351" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW351" t="s">
+        <v>285</v>
+      </c>
+      <c r="BX351" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY351" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ351" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA351" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB351" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC351" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD351" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE351" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF351" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="352" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>83</v>
+      </c>
+      <c r="B352" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C352" t="s">
+        <v>356</v>
+      </c>
+      <c r="D352" t="s">
+        <v>85</v>
+      </c>
+      <c r="E352" t="s">
+        <v>241</v>
+      </c>
+      <c r="F352" t="s">
+        <v>132</v>
+      </c>
+      <c r="G352" t="s">
+        <v>88</v>
+      </c>
+      <c r="H352" t="s">
+        <v>316</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+      <c r="V352">
+        <v>0</v>
+      </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
+      <c r="AD352">
+        <v>0</v>
+      </c>
+      <c r="AE352">
+        <v>0</v>
+      </c>
+      <c r="AF352">
+        <v>0</v>
+      </c>
+      <c r="AG352">
+        <v>0</v>
+      </c>
+      <c r="AH352">
+        <v>0</v>
+      </c>
+      <c r="AI352">
+        <v>0</v>
+      </c>
+      <c r="AJ352">
+        <v>0</v>
+      </c>
+      <c r="AK352">
+        <v>0</v>
+      </c>
+      <c r="AL352">
+        <v>0</v>
+      </c>
+      <c r="AM352">
+        <v>0</v>
+      </c>
+      <c r="AN352">
+        <v>0</v>
+      </c>
+      <c r="AO352">
+        <v>0</v>
+      </c>
+      <c r="AP352">
+        <v>0</v>
+      </c>
+      <c r="AQ352">
+        <v>0</v>
+      </c>
+      <c r="AR352">
+        <v>0</v>
+      </c>
+      <c r="AS352">
+        <v>0</v>
+      </c>
+      <c r="AT352">
+        <v>0</v>
+      </c>
+      <c r="AU352">
+        <v>0</v>
+      </c>
+      <c r="AV352">
+        <v>0</v>
+      </c>
+      <c r="AW352">
+        <v>0</v>
+      </c>
+      <c r="AX352">
+        <v>0</v>
+      </c>
+      <c r="AY352">
+        <v>0</v>
+      </c>
+      <c r="AZ352">
+        <v>0</v>
+      </c>
+      <c r="BA352">
+        <v>0</v>
+      </c>
+      <c r="BB352">
+        <v>0</v>
+      </c>
+      <c r="BC352">
+        <v>0</v>
+      </c>
+      <c r="BD352">
+        <v>0</v>
+      </c>
+      <c r="BE352">
+        <v>1</v>
+      </c>
+      <c r="BF352">
+        <v>0</v>
+      </c>
+      <c r="BG352">
+        <v>3</v>
+      </c>
+      <c r="BH352">
+        <v>0</v>
+      </c>
+      <c r="BI352">
+        <v>2</v>
+      </c>
+      <c r="BJ352">
+        <v>0</v>
+      </c>
+      <c r="BK352">
+        <v>0</v>
+      </c>
+      <c r="BL352">
+        <v>6</v>
+      </c>
+      <c r="BM352">
+        <v>1</v>
+      </c>
+      <c r="BN352">
+        <v>0</v>
+      </c>
+      <c r="BO352">
+        <v>3</v>
+      </c>
+      <c r="BP352">
+        <v>0</v>
+      </c>
+      <c r="BQ352">
+        <v>2</v>
+      </c>
+      <c r="BR352">
+        <v>0</v>
+      </c>
+      <c r="BS352">
+        <v>0</v>
+      </c>
+      <c r="BT352">
+        <v>6</v>
+      </c>
+      <c r="BU352" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV352" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW352" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX352" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY352" t="s">
+        <v>244</v>
+      </c>
+      <c r="BZ352" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA352" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB352" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC352" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD352" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE352" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF352" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="353" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>83</v>
+      </c>
+      <c r="B353" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C353" t="s">
+        <v>356</v>
+      </c>
+      <c r="D353" t="s">
+        <v>85</v>
+      </c>
+      <c r="E353" t="s">
+        <v>204</v>
+      </c>
+      <c r="F353" t="s">
+        <v>102</v>
+      </c>
+      <c r="G353" t="s">
+        <v>88</v>
+      </c>
+      <c r="H353" t="s">
+        <v>705</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <v>0</v>
+      </c>
+      <c r="S353">
+        <v>0</v>
+      </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+      <c r="V353">
+        <v>0</v>
+      </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
+      <c r="AB353">
+        <v>0</v>
+      </c>
+      <c r="AC353">
+        <v>0</v>
+      </c>
+      <c r="AD353">
+        <v>0</v>
+      </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
+      <c r="AG353">
+        <v>0</v>
+      </c>
+      <c r="AH353">
+        <v>0</v>
+      </c>
+      <c r="AI353">
+        <v>0</v>
+      </c>
+      <c r="AJ353">
+        <v>0</v>
+      </c>
+      <c r="AK353">
+        <v>0</v>
+      </c>
+      <c r="AL353">
+        <v>0</v>
+      </c>
+      <c r="AM353">
+        <v>0</v>
+      </c>
+      <c r="AN353">
+        <v>0</v>
+      </c>
+      <c r="AO353">
+        <v>0</v>
+      </c>
+      <c r="AP353">
+        <v>0</v>
+      </c>
+      <c r="AQ353">
+        <v>0</v>
+      </c>
+      <c r="AR353">
+        <v>0</v>
+      </c>
+      <c r="AS353">
+        <v>0</v>
+      </c>
+      <c r="AT353">
+        <v>0</v>
+      </c>
+      <c r="AU353">
+        <v>0</v>
+      </c>
+      <c r="AV353">
+        <v>0</v>
+      </c>
+      <c r="AW353">
+        <v>0</v>
+      </c>
+      <c r="AX353">
+        <v>0</v>
+      </c>
+      <c r="AY353">
+        <v>0</v>
+      </c>
+      <c r="AZ353">
+        <v>0</v>
+      </c>
+      <c r="BA353">
+        <v>0</v>
+      </c>
+      <c r="BB353">
+        <v>0</v>
+      </c>
+      <c r="BC353">
+        <v>0</v>
+      </c>
+      <c r="BD353">
+        <v>0</v>
+      </c>
+      <c r="BE353">
+        <v>1</v>
+      </c>
+      <c r="BF353">
+        <v>3</v>
+      </c>
+      <c r="BG353">
+        <v>7</v>
+      </c>
+      <c r="BH353">
+        <v>13</v>
+      </c>
+      <c r="BI353">
+        <v>4</v>
+      </c>
+      <c r="BJ353">
+        <v>7</v>
+      </c>
+      <c r="BK353">
+        <v>11</v>
+      </c>
+      <c r="BL353">
+        <v>46</v>
+      </c>
+      <c r="BM353">
+        <v>1</v>
+      </c>
+      <c r="BN353">
+        <v>3</v>
+      </c>
+      <c r="BO353">
+        <v>7</v>
+      </c>
+      <c r="BP353">
+        <v>13</v>
+      </c>
+      <c r="BQ353">
+        <v>4</v>
+      </c>
+      <c r="BR353">
+        <v>7</v>
+      </c>
+      <c r="BS353">
+        <v>11</v>
+      </c>
+      <c r="BT353">
+        <v>46</v>
+      </c>
+      <c r="BU353" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV353" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW353" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX353" t="s">
+        <v>706</v>
+      </c>
+      <c r="BY353" t="s">
+        <v>674</v>
+      </c>
+      <c r="BZ353" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA353" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB353" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC353" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD353" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE353" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF353" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="354" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>83</v>
+      </c>
+      <c r="B354" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C354" t="s">
+        <v>356</v>
+      </c>
+      <c r="D354" t="s">
+        <v>85</v>
+      </c>
+      <c r="E354" t="s">
+        <v>188</v>
+      </c>
+      <c r="F354" t="s">
+        <v>102</v>
+      </c>
+      <c r="G354" t="s">
+        <v>88</v>
+      </c>
+      <c r="H354" t="s">
+        <v>707</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <v>0</v>
+      </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
+      <c r="U354">
+        <v>0</v>
+      </c>
+      <c r="V354">
+        <v>0</v>
+      </c>
+      <c r="W354">
+        <v>0</v>
+      </c>
+      <c r="X354">
+        <v>0</v>
+      </c>
+      <c r="Y354">
+        <v>0</v>
+      </c>
+      <c r="Z354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>0</v>
+      </c>
+      <c r="AB354">
+        <v>0</v>
+      </c>
+      <c r="AC354">
+        <v>0</v>
+      </c>
+      <c r="AD354">
+        <v>0</v>
+      </c>
+      <c r="AE354">
+        <v>0</v>
+      </c>
+      <c r="AF354">
+        <v>0</v>
+      </c>
+      <c r="AG354">
+        <v>0</v>
+      </c>
+      <c r="AH354">
+        <v>0</v>
+      </c>
+      <c r="AI354">
+        <v>0</v>
+      </c>
+      <c r="AJ354">
+        <v>0</v>
+      </c>
+      <c r="AK354">
+        <v>0</v>
+      </c>
+      <c r="AL354">
+        <v>0</v>
+      </c>
+      <c r="AM354">
+        <v>0</v>
+      </c>
+      <c r="AN354">
+        <v>0</v>
+      </c>
+      <c r="AO354">
+        <v>0</v>
+      </c>
+      <c r="AP354">
+        <v>0</v>
+      </c>
+      <c r="AQ354">
+        <v>0</v>
+      </c>
+      <c r="AR354">
+        <v>0</v>
+      </c>
+      <c r="AS354">
+        <v>0</v>
+      </c>
+      <c r="AT354">
+        <v>0</v>
+      </c>
+      <c r="AU354">
+        <v>0</v>
+      </c>
+      <c r="AV354">
+        <v>0</v>
+      </c>
+      <c r="AW354">
+        <v>0</v>
+      </c>
+      <c r="AX354">
+        <v>0</v>
+      </c>
+      <c r="AY354">
+        <v>0</v>
+      </c>
+      <c r="AZ354">
+        <v>0</v>
+      </c>
+      <c r="BA354">
+        <v>0</v>
+      </c>
+      <c r="BB354">
+        <v>0</v>
+      </c>
+      <c r="BC354">
+        <v>0</v>
+      </c>
+      <c r="BD354">
+        <v>0</v>
+      </c>
+      <c r="BE354">
+        <v>0</v>
+      </c>
+      <c r="BF354">
+        <v>0</v>
+      </c>
+      <c r="BG354">
+        <v>0</v>
+      </c>
+      <c r="BH354">
+        <v>0</v>
+      </c>
+      <c r="BI354">
+        <v>0</v>
+      </c>
+      <c r="BJ354">
+        <v>0</v>
+      </c>
+      <c r="BK354">
+        <v>1</v>
+      </c>
+      <c r="BL354">
+        <v>1</v>
+      </c>
+      <c r="BM354">
+        <v>4</v>
+      </c>
+      <c r="BN354">
+        <v>1</v>
+      </c>
+      <c r="BO354">
+        <v>2</v>
+      </c>
+      <c r="BP354">
+        <v>3</v>
+      </c>
+      <c r="BQ354">
+        <v>16</v>
+      </c>
+      <c r="BR354">
+        <v>10</v>
+      </c>
+      <c r="BS354">
+        <v>32</v>
+      </c>
+      <c r="BT354">
+        <v>68</v>
+      </c>
+      <c r="BU354" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV354" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW354" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX354" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY354" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ354" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA354" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB354" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC354" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD354" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE354" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF354" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="355" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>83</v>
+      </c>
+      <c r="B355" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C355" t="s">
+        <v>356</v>
+      </c>
+      <c r="D355" t="s">
+        <v>85</v>
+      </c>
+      <c r="E355" t="s">
+        <v>115</v>
+      </c>
+      <c r="F355" t="s">
+        <v>173</v>
+      </c>
+      <c r="G355" t="s">
+        <v>88</v>
+      </c>
+      <c r="H355" t="s">
+        <v>509</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <v>0</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>0</v>
+      </c>
+      <c r="S355">
+        <v>0</v>
+      </c>
+      <c r="T355">
+        <v>0</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+      <c r="V355">
+        <v>0</v>
+      </c>
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355">
+        <v>0</v>
+      </c>
+      <c r="Y355">
+        <v>0</v>
+      </c>
+      <c r="Z355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>0</v>
+      </c>
+      <c r="AB355">
+        <v>0</v>
+      </c>
+      <c r="AC355">
+        <v>0</v>
+      </c>
+      <c r="AD355">
+        <v>0</v>
+      </c>
+      <c r="AE355">
+        <v>0</v>
+      </c>
+      <c r="AF355">
+        <v>0</v>
+      </c>
+      <c r="AG355">
+        <v>0</v>
+      </c>
+      <c r="AH355">
+        <v>0</v>
+      </c>
+      <c r="AI355">
+        <v>0</v>
+      </c>
+      <c r="AJ355">
+        <v>0</v>
+      </c>
+      <c r="AK355">
+        <v>0</v>
+      </c>
+      <c r="AL355">
+        <v>0</v>
+      </c>
+      <c r="AM355">
+        <v>0</v>
+      </c>
+      <c r="AN355">
+        <v>0</v>
+      </c>
+      <c r="AO355">
+        <v>0</v>
+      </c>
+      <c r="AP355">
+        <v>0</v>
+      </c>
+      <c r="AQ355">
+        <v>0</v>
+      </c>
+      <c r="AR355">
+        <v>0</v>
+      </c>
+      <c r="AS355">
+        <v>0</v>
+      </c>
+      <c r="AT355">
+        <v>0</v>
+      </c>
+      <c r="AU355">
+        <v>0</v>
+      </c>
+      <c r="AV355">
+        <v>0</v>
+      </c>
+      <c r="AW355">
+        <v>0</v>
+      </c>
+      <c r="AX355">
+        <v>0</v>
+      </c>
+      <c r="AY355">
+        <v>0</v>
+      </c>
+      <c r="AZ355">
+        <v>0</v>
+      </c>
+      <c r="BA355">
+        <v>0</v>
+      </c>
+      <c r="BB355">
+        <v>0</v>
+      </c>
+      <c r="BC355">
+        <v>0</v>
+      </c>
+      <c r="BD355">
+        <v>0</v>
+      </c>
+      <c r="BE355">
+        <v>0</v>
+      </c>
+      <c r="BF355">
+        <v>0</v>
+      </c>
+      <c r="BG355">
+        <v>0</v>
+      </c>
+      <c r="BH355">
+        <v>0</v>
+      </c>
+      <c r="BI355">
+        <v>1</v>
+      </c>
+      <c r="BJ355">
+        <v>3</v>
+      </c>
+      <c r="BK355">
+        <v>0</v>
+      </c>
+      <c r="BL355">
+        <v>4</v>
+      </c>
+      <c r="BM355">
+        <v>3</v>
+      </c>
+      <c r="BN355">
+        <v>0</v>
+      </c>
+      <c r="BO355">
+        <v>1</v>
+      </c>
+      <c r="BP355">
+        <v>3</v>
+      </c>
+      <c r="BQ355">
+        <v>92</v>
+      </c>
+      <c r="BR355">
+        <v>47</v>
+      </c>
+      <c r="BS355">
+        <v>15</v>
+      </c>
+      <c r="BT355">
+        <v>161</v>
+      </c>
+      <c r="BU355" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV355" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW355" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX355" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY355" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ355" t="s">
+        <v>332</v>
+      </c>
+      <c r="CA355" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB355" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC355" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD355" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE355" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF355" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="356" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>83</v>
+      </c>
+      <c r="B356" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C356" t="s">
+        <v>356</v>
+      </c>
+      <c r="D356" t="s">
+        <v>85</v>
+      </c>
+      <c r="E356" t="s">
+        <v>219</v>
+      </c>
+      <c r="F356" t="s">
+        <v>102</v>
+      </c>
+      <c r="G356" t="s">
+        <v>88</v>
+      </c>
+      <c r="H356" t="s">
+        <v>708</v>
+      </c>
+      <c r="I356">
+        <v>4</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>6</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <v>1</v>
+      </c>
+      <c r="P356">
+        <v>15</v>
+      </c>
+      <c r="Q356">
+        <v>9</v>
+      </c>
+      <c r="R356">
+        <v>3</v>
+      </c>
+      <c r="S356">
+        <v>28</v>
+      </c>
+      <c r="T356">
+        <v>69</v>
+      </c>
+      <c r="U356">
+        <v>203</v>
+      </c>
+      <c r="V356">
+        <v>120</v>
+      </c>
+      <c r="W356">
+        <v>155</v>
+      </c>
+      <c r="X356">
+        <v>587</v>
+      </c>
+      <c r="Y356">
+        <v>0</v>
+      </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
+      <c r="AB356">
+        <v>0</v>
+      </c>
+      <c r="AC356">
+        <v>2</v>
+      </c>
+      <c r="AD356">
+        <v>0</v>
+      </c>
+      <c r="AE356">
+        <v>0</v>
+      </c>
+      <c r="AF356">
+        <v>2</v>
+      </c>
+      <c r="AG356">
+        <v>0</v>
+      </c>
+      <c r="AH356">
+        <v>0</v>
+      </c>
+      <c r="AI356">
+        <v>0</v>
+      </c>
+      <c r="AJ356">
+        <v>2</v>
+      </c>
+      <c r="AK356">
+        <v>12</v>
+      </c>
+      <c r="AL356">
+        <v>14</v>
+      </c>
+      <c r="AM356">
+        <v>23</v>
+      </c>
+      <c r="AN356">
+        <v>51</v>
+      </c>
+      <c r="AO356">
+        <v>0</v>
+      </c>
+      <c r="AP356">
+        <v>0</v>
+      </c>
+      <c r="AQ356">
+        <v>0</v>
+      </c>
+      <c r="AR356">
+        <v>0</v>
+      </c>
+      <c r="AS356">
+        <v>0</v>
+      </c>
+      <c r="AT356">
+        <v>0</v>
+      </c>
+      <c r="AU356">
+        <v>0</v>
+      </c>
+      <c r="AV356">
+        <v>0</v>
+      </c>
+      <c r="AW356">
+        <v>0</v>
+      </c>
+      <c r="AX356">
+        <v>0</v>
+      </c>
+      <c r="AY356">
+        <v>0</v>
+      </c>
+      <c r="AZ356">
+        <v>1</v>
+      </c>
+      <c r="BA356">
+        <v>0</v>
+      </c>
+      <c r="BB356">
+        <v>3</v>
+      </c>
+      <c r="BC356">
+        <v>11</v>
+      </c>
+      <c r="BD356">
+        <v>15</v>
+      </c>
+      <c r="BE356">
+        <v>8</v>
+      </c>
+      <c r="BF356">
+        <v>8</v>
+      </c>
+      <c r="BG356">
+        <v>10</v>
+      </c>
+      <c r="BH356">
+        <v>5</v>
+      </c>
+      <c r="BI356">
+        <v>3</v>
+      </c>
+      <c r="BJ356">
+        <v>2</v>
+      </c>
+      <c r="BK356">
+        <v>0</v>
+      </c>
+      <c r="BL356">
+        <v>36</v>
+      </c>
+      <c r="BM356">
+        <v>49</v>
+      </c>
+      <c r="BN356">
+        <v>39</v>
+      </c>
+      <c r="BO356">
+        <v>100</v>
+      </c>
+      <c r="BP356">
+        <v>225</v>
+      </c>
+      <c r="BQ356">
+        <v>490</v>
+      </c>
+      <c r="BR356">
+        <v>275</v>
+      </c>
+      <c r="BS356">
+        <v>243</v>
+      </c>
+      <c r="BT356">
+        <v>1421</v>
+      </c>
+      <c r="BU356" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV356" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW356" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX356" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY356" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ356" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA356" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB356" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC356" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD356" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE356" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF356" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="357" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>83</v>
+      </c>
+      <c r="B357" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C357" t="s">
+        <v>356</v>
+      </c>
+      <c r="D357" t="s">
+        <v>85</v>
+      </c>
+      <c r="E357" t="s">
+        <v>256</v>
+      </c>
+      <c r="F357" t="s">
+        <v>102</v>
+      </c>
+      <c r="G357" t="s">
+        <v>88</v>
+      </c>
+      <c r="H357" t="s">
+        <v>380</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>0</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357">
+        <v>2</v>
+      </c>
+      <c r="V357">
+        <v>4</v>
+      </c>
+      <c r="W357">
+        <v>24</v>
+      </c>
+      <c r="X357">
+        <v>30</v>
+      </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
+      <c r="AB357">
+        <v>0</v>
+      </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
+      <c r="AE357">
+        <v>0</v>
+      </c>
+      <c r="AF357">
+        <v>0</v>
+      </c>
+      <c r="AG357">
+        <v>0</v>
+      </c>
+      <c r="AH357">
+        <v>0</v>
+      </c>
+      <c r="AI357">
+        <v>0</v>
+      </c>
+      <c r="AJ357">
+        <v>0</v>
+      </c>
+      <c r="AK357">
+        <v>0</v>
+      </c>
+      <c r="AL357">
+        <v>0</v>
+      </c>
+      <c r="AM357">
+        <v>0</v>
+      </c>
+      <c r="AN357">
+        <v>0</v>
+      </c>
+      <c r="AO357">
+        <v>0</v>
+      </c>
+      <c r="AP357">
+        <v>0</v>
+      </c>
+      <c r="AQ357">
+        <v>0</v>
+      </c>
+      <c r="AR357">
+        <v>0</v>
+      </c>
+      <c r="AS357">
+        <v>0</v>
+      </c>
+      <c r="AT357">
+        <v>0</v>
+      </c>
+      <c r="AU357">
+        <v>0</v>
+      </c>
+      <c r="AV357">
+        <v>0</v>
+      </c>
+      <c r="AW357">
+        <v>0</v>
+      </c>
+      <c r="AX357">
+        <v>0</v>
+      </c>
+      <c r="AY357">
+        <v>0</v>
+      </c>
+      <c r="AZ357">
+        <v>0</v>
+      </c>
+      <c r="BA357">
+        <v>0</v>
+      </c>
+      <c r="BB357">
+        <v>0</v>
+      </c>
+      <c r="BC357">
+        <v>3</v>
+      </c>
+      <c r="BD357">
+        <v>3</v>
+      </c>
+      <c r="BE357">
+        <v>0</v>
+      </c>
+      <c r="BF357">
+        <v>0</v>
+      </c>
+      <c r="BG357">
+        <v>0</v>
+      </c>
+      <c r="BH357">
+        <v>0</v>
+      </c>
+      <c r="BI357">
+        <v>0</v>
+      </c>
+      <c r="BJ357">
+        <v>0</v>
+      </c>
+      <c r="BK357">
+        <v>0</v>
+      </c>
+      <c r="BL357">
+        <v>0</v>
+      </c>
+      <c r="BM357">
+        <v>0</v>
+      </c>
+      <c r="BN357">
+        <v>0</v>
+      </c>
+      <c r="BO357">
+        <v>0</v>
+      </c>
+      <c r="BP357">
+        <v>1</v>
+      </c>
+      <c r="BQ357">
+        <v>4</v>
+      </c>
+      <c r="BR357">
+        <v>5</v>
+      </c>
+      <c r="BS357">
+        <v>15</v>
+      </c>
+      <c r="BT357">
+        <v>25</v>
+      </c>
+      <c r="BU357" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV357" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW357" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX357" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY357" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ357" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA357" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB357" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC357" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD357" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE357" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF357" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="358" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>83</v>
+      </c>
+      <c r="B358" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C358" t="s">
+        <v>356</v>
+      </c>
+      <c r="D358" t="s">
+        <v>85</v>
+      </c>
+      <c r="E358" t="s">
+        <v>268</v>
+      </c>
+      <c r="F358" t="s">
+        <v>102</v>
+      </c>
+      <c r="G358" t="s">
+        <v>88</v>
+      </c>
+      <c r="H358" t="s">
+        <v>709</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <v>0</v>
+      </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
+      <c r="U358">
+        <v>0</v>
+      </c>
+      <c r="V358">
+        <v>0</v>
+      </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
+        <v>0</v>
+      </c>
+      <c r="AB358">
+        <v>0</v>
+      </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
+      <c r="AD358">
+        <v>0</v>
+      </c>
+      <c r="AE358">
+        <v>0</v>
+      </c>
+      <c r="AF358">
+        <v>0</v>
+      </c>
+      <c r="AG358">
+        <v>0</v>
+      </c>
+      <c r="AH358">
+        <v>0</v>
+      </c>
+      <c r="AI358">
+        <v>0</v>
+      </c>
+      <c r="AJ358">
+        <v>0</v>
+      </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
+      <c r="AL358">
+        <v>0</v>
+      </c>
+      <c r="AM358">
+        <v>0</v>
+      </c>
+      <c r="AN358">
+        <v>0</v>
+      </c>
+      <c r="AO358">
+        <v>0</v>
+      </c>
+      <c r="AP358">
+        <v>0</v>
+      </c>
+      <c r="AQ358">
+        <v>0</v>
+      </c>
+      <c r="AR358">
+        <v>0</v>
+      </c>
+      <c r="AS358">
+        <v>0</v>
+      </c>
+      <c r="AT358">
+        <v>0</v>
+      </c>
+      <c r="AU358">
+        <v>0</v>
+      </c>
+      <c r="AV358">
+        <v>0</v>
+      </c>
+      <c r="AW358">
+        <v>0</v>
+      </c>
+      <c r="AX358">
+        <v>0</v>
+      </c>
+      <c r="AY358">
+        <v>0</v>
+      </c>
+      <c r="AZ358">
+        <v>0</v>
+      </c>
+      <c r="BA358">
+        <v>0</v>
+      </c>
+      <c r="BB358">
+        <v>0</v>
+      </c>
+      <c r="BC358">
+        <v>0</v>
+      </c>
+      <c r="BD358">
+        <v>0</v>
+      </c>
+      <c r="BE358">
+        <v>3</v>
+      </c>
+      <c r="BF358">
+        <v>3</v>
+      </c>
+      <c r="BG358">
+        <v>9</v>
+      </c>
+      <c r="BH358">
+        <v>9</v>
+      </c>
+      <c r="BI358">
+        <v>7</v>
+      </c>
+      <c r="BJ358">
+        <v>3</v>
+      </c>
+      <c r="BK358">
+        <v>1</v>
+      </c>
+      <c r="BL358">
+        <v>35</v>
+      </c>
+      <c r="BM358">
+        <v>55</v>
+      </c>
+      <c r="BN358">
+        <v>69</v>
+      </c>
+      <c r="BO358">
+        <v>171</v>
+      </c>
+      <c r="BP358">
+        <v>722</v>
+      </c>
+      <c r="BQ358">
+        <v>1871</v>
+      </c>
+      <c r="BR358">
+        <v>1549</v>
+      </c>
+      <c r="BS358">
+        <v>1157</v>
+      </c>
+      <c r="BT358">
+        <v>5594</v>
+      </c>
+      <c r="BU358" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV358" s="1">
+        <v>44639</v>
+      </c>
+      <c r="BW358" t="s">
+        <v>710</v>
+      </c>
+      <c r="BX358" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY358" t="s">
+        <v>711</v>
+      </c>
+      <c r="BZ358" t="s">
+        <v>517</v>
+      </c>
+      <c r="CA358" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB358" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC358" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD358" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE358" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF358" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="359" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>83</v>
+      </c>
+      <c r="B359" s="1">
+        <v>44636</v>
+      </c>
+      <c r="C359" t="s">
+        <v>356</v>
+      </c>
+      <c r="D359" t="s">
+        <v>85</v>
+      </c>
+      <c r="E359" t="s">
+        <v>248</v>
+      </c>
+      <c r="F359" t="s">
+        <v>102</v>
+      </c>
+      <c r="G359" t="s">
+        <v>88</v>
+      </c>
+      <c r="H359" t="s">
+        <v>601</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <v>0</v>
+      </c>
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <v>0</v>
+      </c>
+      <c r="U359">
+        <v>0</v>
+      </c>
+      <c r="V359">
+        <v>0</v>
+      </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="Y359">
+        <v>0</v>
+      </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
+      <c r="AB359">
+        <v>0</v>
+      </c>
+      <c r="AC359">
+        <v>0</v>
+      </c>
+      <c r="AD359">
+        <v>0</v>
+      </c>
+      <c r="AE359">
+        <v>0</v>
+      </c>
+      <c r="AF359">
+        <v>0</v>
+      </c>
+      <c r="AG359">
+        <v>0</v>
+      </c>
+      <c r="AH359">
+        <v>0</v>
+      </c>
+      <c r="AI359">
+        <v>0</v>
+      </c>
+      <c r="AJ359">
+        <v>0</v>
+      </c>
+      <c r="AK359">
+        <v>0</v>
+      </c>
+      <c r="AL359">
+        <v>0</v>
+      </c>
+      <c r="AM359">
+        <v>0</v>
+      </c>
+      <c r="AN359">
+        <v>0</v>
+      </c>
+      <c r="AO359">
+        <v>0</v>
+      </c>
+      <c r="AP359">
+        <v>0</v>
+      </c>
+      <c r="AQ359">
+        <v>0</v>
+      </c>
+      <c r="AR359">
+        <v>0</v>
+      </c>
+      <c r="AS359">
+        <v>0</v>
+      </c>
+      <c r="AT359">
+        <v>0</v>
+      </c>
+      <c r="AU359">
+        <v>0</v>
+      </c>
+      <c r="AV359">
+        <v>0</v>
+      </c>
+      <c r="AW359">
+        <v>0</v>
+      </c>
+      <c r="AX359">
+        <v>0</v>
+      </c>
+      <c r="AY359">
+        <v>0</v>
+      </c>
+      <c r="AZ359">
+        <v>0</v>
+      </c>
+      <c r="BA359">
+        <v>0</v>
+      </c>
+      <c r="BB359">
+        <v>0</v>
+      </c>
+      <c r="BC359">
+        <v>0</v>
+      </c>
+      <c r="BD359">
+        <v>0</v>
+      </c>
+      <c r="BE359">
+        <v>8</v>
+      </c>
+      <c r="BF359">
+        <v>7</v>
+      </c>
+      <c r="BG359">
+        <v>49</v>
+      </c>
+      <c r="BH359">
+        <v>40</v>
+      </c>
+      <c r="BI359">
+        <v>15</v>
+      </c>
+      <c r="BJ359">
+        <v>9</v>
+      </c>
+      <c r="BK359">
+        <v>27</v>
+      </c>
+      <c r="BL359">
+        <v>155</v>
+      </c>
+      <c r="BM359">
+        <v>23</v>
+      </c>
+      <c r="BN359">
+        <v>24</v>
+      </c>
+      <c r="BO359">
+        <v>123</v>
+      </c>
+      <c r="BP359">
+        <v>138</v>
+      </c>
+      <c r="BQ359">
+        <v>161</v>
+      </c>
+      <c r="BR359">
+        <v>169</v>
+      </c>
+      <c r="BS359">
+        <v>634</v>
+      </c>
+      <c r="BT359">
+        <v>1272</v>
+      </c>
+      <c r="BU359" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV359" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW359" t="s">
+        <v>608</v>
+      </c>
+      <c r="BX359" t="s">
+        <v>609</v>
+      </c>
+      <c r="BY359" t="s">
+        <v>675</v>
+      </c>
+      <c r="BZ359" t="s">
+        <v>676</v>
+      </c>
+      <c r="CA359" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB359" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC359" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD359" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE359" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF359" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="360" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>83</v>
+      </c>
+      <c r="B360" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C360" t="s">
+        <v>356</v>
+      </c>
+      <c r="D360" t="s">
+        <v>85</v>
+      </c>
+      <c r="E360" t="s">
+        <v>234</v>
+      </c>
+      <c r="F360" t="s">
+        <v>102</v>
+      </c>
+      <c r="G360" t="s">
+        <v>88</v>
+      </c>
+      <c r="H360" t="s">
+        <v>351</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360">
+        <v>0</v>
+      </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <v>3</v>
+      </c>
+      <c r="U360">
+        <v>8</v>
+      </c>
+      <c r="V360">
+        <v>10</v>
+      </c>
+      <c r="W360">
+        <v>13</v>
+      </c>
+      <c r="X360">
+        <v>34</v>
+      </c>
+      <c r="Y360">
+        <v>0</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+      <c r="AB360">
+        <v>0</v>
+      </c>
+      <c r="AC360">
+        <v>0</v>
+      </c>
+      <c r="AD360">
+        <v>0</v>
+      </c>
+      <c r="AE360">
+        <v>0</v>
+      </c>
+      <c r="AF360">
+        <v>0</v>
+      </c>
+      <c r="AG360">
+        <v>0</v>
+      </c>
+      <c r="AH360">
+        <v>0</v>
+      </c>
+      <c r="AI360">
+        <v>0</v>
+      </c>
+      <c r="AJ360">
+        <v>0</v>
+      </c>
+      <c r="AK360">
+        <v>0</v>
+      </c>
+      <c r="AL360">
+        <v>0</v>
+      </c>
+      <c r="AM360">
+        <v>0</v>
+      </c>
+      <c r="AN360">
+        <v>0</v>
+      </c>
+      <c r="AO360">
+        <v>0</v>
+      </c>
+      <c r="AP360">
+        <v>0</v>
+      </c>
+      <c r="AQ360">
+        <v>0</v>
+      </c>
+      <c r="AR360">
+        <v>0</v>
+      </c>
+      <c r="AS360">
+        <v>0</v>
+      </c>
+      <c r="AT360">
+        <v>0</v>
+      </c>
+      <c r="AU360">
+        <v>0</v>
+      </c>
+      <c r="AV360">
+        <v>0</v>
+      </c>
+      <c r="AW360">
+        <v>0</v>
+      </c>
+      <c r="AX360">
+        <v>0</v>
+      </c>
+      <c r="AY360">
+        <v>0</v>
+      </c>
+      <c r="AZ360">
+        <v>0</v>
+      </c>
+      <c r="BA360">
+        <v>0</v>
+      </c>
+      <c r="BB360">
+        <v>0</v>
+      </c>
+      <c r="BC360">
+        <v>0</v>
+      </c>
+      <c r="BD360">
+        <v>0</v>
+      </c>
+      <c r="BE360">
+        <v>1</v>
+      </c>
+      <c r="BF360">
+        <v>1</v>
+      </c>
+      <c r="BG360">
+        <v>4</v>
+      </c>
+      <c r="BH360">
+        <v>4</v>
+      </c>
+      <c r="BI360">
+        <v>13</v>
+      </c>
+      <c r="BJ360">
+        <v>27</v>
+      </c>
+      <c r="BK360">
+        <v>5</v>
+      </c>
+      <c r="BL360">
+        <v>55</v>
+      </c>
+      <c r="BM360">
+        <v>3</v>
+      </c>
+      <c r="BN360">
+        <v>1</v>
+      </c>
+      <c r="BO360">
+        <v>11</v>
+      </c>
+      <c r="BP360">
+        <v>76</v>
+      </c>
+      <c r="BQ360">
+        <v>154</v>
+      </c>
+      <c r="BR360">
+        <v>219</v>
+      </c>
+      <c r="BS360">
+        <v>233</v>
+      </c>
+      <c r="BT360">
+        <v>697</v>
+      </c>
+      <c r="BU360" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV360" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW360" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX360" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY360" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ360" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA360" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB360" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC360" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD360" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE360" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF360" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="361" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>83</v>
+      </c>
+      <c r="B361" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C361" t="s">
+        <v>356</v>
+      </c>
+      <c r="D361" t="s">
+        <v>85</v>
+      </c>
+      <c r="E361" t="s">
+        <v>181</v>
+      </c>
+      <c r="F361" t="s">
+        <v>146</v>
+      </c>
+      <c r="G361" t="s">
+        <v>88</v>
+      </c>
+      <c r="H361" t="s">
+        <v>519</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <v>0</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+      <c r="V361">
+        <v>0</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>0</v>
+      </c>
+      <c r="AB361">
+        <v>0</v>
+      </c>
+      <c r="AC361">
+        <v>0</v>
+      </c>
+      <c r="AD361">
+        <v>0</v>
+      </c>
+      <c r="AE361">
+        <v>0</v>
+      </c>
+      <c r="AF361">
+        <v>0</v>
+      </c>
+      <c r="AG361">
+        <v>0</v>
+      </c>
+      <c r="AH361">
+        <v>0</v>
+      </c>
+      <c r="AI361">
+        <v>0</v>
+      </c>
+      <c r="AJ361">
+        <v>0</v>
+      </c>
+      <c r="AK361">
+        <v>0</v>
+      </c>
+      <c r="AL361">
+        <v>0</v>
+      </c>
+      <c r="AM361">
+        <v>0</v>
+      </c>
+      <c r="AN361">
+        <v>0</v>
+      </c>
+      <c r="AO361">
+        <v>0</v>
+      </c>
+      <c r="AP361">
+        <v>0</v>
+      </c>
+      <c r="AQ361">
+        <v>0</v>
+      </c>
+      <c r="AR361">
+        <v>0</v>
+      </c>
+      <c r="AS361">
+        <v>0</v>
+      </c>
+      <c r="AT361">
+        <v>0</v>
+      </c>
+      <c r="AU361">
+        <v>0</v>
+      </c>
+      <c r="AV361">
+        <v>0</v>
+      </c>
+      <c r="AW361">
+        <v>0</v>
+      </c>
+      <c r="AX361">
+        <v>0</v>
+      </c>
+      <c r="AY361">
+        <v>0</v>
+      </c>
+      <c r="AZ361">
+        <v>0</v>
+      </c>
+      <c r="BA361">
+        <v>0</v>
+      </c>
+      <c r="BB361">
+        <v>0</v>
+      </c>
+      <c r="BC361">
+        <v>0</v>
+      </c>
+      <c r="BD361">
+        <v>0</v>
+      </c>
+      <c r="BE361">
+        <v>3</v>
+      </c>
+      <c r="BF361">
+        <v>3</v>
+      </c>
+      <c r="BG361">
+        <v>16</v>
+      </c>
+      <c r="BH361">
+        <v>12</v>
+      </c>
+      <c r="BI361">
+        <v>12</v>
+      </c>
+      <c r="BJ361">
+        <v>3</v>
+      </c>
+      <c r="BK361">
+        <v>3</v>
+      </c>
+      <c r="BL361">
+        <v>52</v>
+      </c>
+      <c r="BM361">
+        <v>7</v>
+      </c>
+      <c r="BN361">
+        <v>6</v>
+      </c>
+      <c r="BO361">
+        <v>56</v>
+      </c>
+      <c r="BP361">
+        <v>215</v>
+      </c>
+      <c r="BQ361">
+        <v>630</v>
+      </c>
+      <c r="BR361">
+        <v>952</v>
+      </c>
+      <c r="BS361">
+        <v>2921</v>
+      </c>
+      <c r="BT361">
+        <v>4787</v>
+      </c>
+      <c r="BU361" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV361" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW361" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX361" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY361" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ361" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA361" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB361" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC361" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD361" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE361" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF361" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="362" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>83</v>
+      </c>
+      <c r="B362" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C362" t="s">
+        <v>113</v>
+      </c>
+      <c r="D362" t="s">
+        <v>85</v>
+      </c>
+      <c r="E362" t="s">
+        <v>181</v>
+      </c>
+      <c r="F362" t="s">
+        <v>289</v>
+      </c>
+      <c r="G362" t="s">
+        <v>88</v>
+      </c>
+      <c r="H362" t="s">
+        <v>408</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+      <c r="O362">
+        <v>0</v>
+      </c>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+      <c r="U362">
+        <v>0</v>
+      </c>
+      <c r="V362">
+        <v>0</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+      <c r="AB362">
+        <v>0</v>
+      </c>
+      <c r="AC362">
+        <v>0</v>
+      </c>
+      <c r="AD362">
+        <v>0</v>
+      </c>
+      <c r="AE362">
+        <v>0</v>
+      </c>
+      <c r="AF362">
+        <v>0</v>
+      </c>
+      <c r="AG362">
+        <v>0</v>
+      </c>
+      <c r="AH362">
+        <v>0</v>
+      </c>
+      <c r="AI362">
+        <v>0</v>
+      </c>
+      <c r="AJ362">
+        <v>0</v>
+      </c>
+      <c r="AK362">
+        <v>0</v>
+      </c>
+      <c r="AL362">
+        <v>0</v>
+      </c>
+      <c r="AM362">
+        <v>0</v>
+      </c>
+      <c r="AN362">
+        <v>0</v>
+      </c>
+      <c r="AO362">
+        <v>0</v>
+      </c>
+      <c r="AP362">
+        <v>0</v>
+      </c>
+      <c r="AQ362">
+        <v>0</v>
+      </c>
+      <c r="AR362">
+        <v>0</v>
+      </c>
+      <c r="AS362">
+        <v>0</v>
+      </c>
+      <c r="AT362">
+        <v>0</v>
+      </c>
+      <c r="AU362">
+        <v>0</v>
+      </c>
+      <c r="AV362">
+        <v>0</v>
+      </c>
+      <c r="AW362">
+        <v>0</v>
+      </c>
+      <c r="AX362">
+        <v>0</v>
+      </c>
+      <c r="AY362">
+        <v>0</v>
+      </c>
+      <c r="AZ362">
+        <v>0</v>
+      </c>
+      <c r="BA362">
+        <v>0</v>
+      </c>
+      <c r="BB362">
+        <v>0</v>
+      </c>
+      <c r="BC362">
+        <v>0</v>
+      </c>
+      <c r="BD362">
+        <v>0</v>
+      </c>
+      <c r="BE362">
+        <v>1</v>
+      </c>
+      <c r="BF362">
+        <v>1</v>
+      </c>
+      <c r="BG362">
+        <v>1</v>
+      </c>
+      <c r="BH362">
+        <v>1</v>
+      </c>
+      <c r="BI362">
+        <v>0</v>
+      </c>
+      <c r="BJ362">
+        <v>0</v>
+      </c>
+      <c r="BK362">
+        <v>0</v>
+      </c>
+      <c r="BL362">
+        <v>4</v>
+      </c>
+      <c r="BM362">
+        <v>14</v>
+      </c>
+      <c r="BN362">
+        <v>2</v>
+      </c>
+      <c r="BO362">
+        <v>47</v>
+      </c>
+      <c r="BP362">
+        <v>101</v>
+      </c>
+      <c r="BQ362">
+        <v>266</v>
+      </c>
+      <c r="BR362">
+        <v>544</v>
+      </c>
+      <c r="BS362">
+        <v>1057</v>
+      </c>
+      <c r="BT362">
+        <v>2031</v>
+      </c>
+      <c r="BU362" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV362" s="1">
+        <v>44634</v>
+      </c>
+      <c r="BW362" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX362" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY362" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ362" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA362" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB362" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC362" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD362" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE362" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF362" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>83</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C363" t="s">
+        <v>356</v>
+      </c>
+      <c r="D363" t="s">
+        <v>85</v>
+      </c>
+      <c r="E363" t="s">
+        <v>268</v>
+      </c>
+      <c r="F363" t="s">
+        <v>132</v>
+      </c>
+      <c r="G363" t="s">
+        <v>88</v>
+      </c>
+      <c r="H363" t="s">
+        <v>356</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+      <c r="O363">
+        <v>0</v>
+      </c>
+      <c r="P363">
+        <v>0</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>0</v>
+      </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
+      <c r="U363">
+        <v>0</v>
+      </c>
+      <c r="V363">
+        <v>0</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <v>0</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>0</v>
+      </c>
+      <c r="AB363">
+        <v>0</v>
+      </c>
+      <c r="AC363">
+        <v>0</v>
+      </c>
+      <c r="AD363">
+        <v>0</v>
+      </c>
+      <c r="AE363">
+        <v>0</v>
+      </c>
+      <c r="AF363">
+        <v>0</v>
+      </c>
+      <c r="AG363">
+        <v>0</v>
+      </c>
+      <c r="AH363">
+        <v>0</v>
+      </c>
+      <c r="AI363">
+        <v>0</v>
+      </c>
+      <c r="AJ363">
+        <v>0</v>
+      </c>
+      <c r="AK363">
+        <v>0</v>
+      </c>
+      <c r="AL363">
+        <v>0</v>
+      </c>
+      <c r="AM363">
+        <v>0</v>
+      </c>
+      <c r="AN363">
+        <v>0</v>
+      </c>
+      <c r="AO363">
+        <v>0</v>
+      </c>
+      <c r="AP363">
+        <v>0</v>
+      </c>
+      <c r="AQ363">
+        <v>0</v>
+      </c>
+      <c r="AR363">
+        <v>0</v>
+      </c>
+      <c r="AS363">
+        <v>0</v>
+      </c>
+      <c r="AT363">
+        <v>0</v>
+      </c>
+      <c r="AU363">
+        <v>0</v>
+      </c>
+      <c r="AV363">
+        <v>0</v>
+      </c>
+      <c r="AW363">
+        <v>0</v>
+      </c>
+      <c r="AX363">
+        <v>0</v>
+      </c>
+      <c r="AY363">
+        <v>0</v>
+      </c>
+      <c r="AZ363">
+        <v>0</v>
+      </c>
+      <c r="BA363">
+        <v>0</v>
+      </c>
+      <c r="BB363">
+        <v>0</v>
+      </c>
+      <c r="BC363">
+        <v>0</v>
+      </c>
+      <c r="BD363">
+        <v>0</v>
+      </c>
+      <c r="BE363">
+        <v>0</v>
+      </c>
+      <c r="BF363">
+        <v>1</v>
+      </c>
+      <c r="BG363">
+        <v>1</v>
+      </c>
+      <c r="BH363">
+        <v>2</v>
+      </c>
+      <c r="BI363">
+        <v>4</v>
+      </c>
+      <c r="BJ363">
+        <v>2</v>
+      </c>
+      <c r="BK363">
+        <v>0</v>
+      </c>
+      <c r="BL363">
+        <v>10</v>
+      </c>
+      <c r="BM363">
+        <v>62</v>
+      </c>
+      <c r="BN363">
+        <v>47</v>
+      </c>
+      <c r="BO363">
+        <v>70</v>
+      </c>
+      <c r="BP363">
+        <v>368</v>
+      </c>
+      <c r="BQ363">
+        <v>839</v>
+      </c>
+      <c r="BR363">
+        <v>632</v>
+      </c>
+      <c r="BS363">
+        <v>725</v>
+      </c>
+      <c r="BT363">
+        <v>2743</v>
+      </c>
+      <c r="BU363" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV363" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW363" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX363" t="s">
+        <v>271</v>
+      </c>
+      <c r="BY363" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ363" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA363" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB363" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC363" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD363" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE363" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF363" t="s">
         <v>397</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97B1E9F-3E68-9B45-A409-7FC589C4216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6A72FA-92EE-594E-BB93-8479B144FD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6600" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7266" uniqueCount="740">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2158,6 +2158,87 @@
     <t>6063420644</t>
   </si>
   <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>2496</t>
+  </si>
+  <si>
+    <t>2497</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>ENFERMERA  DE  SEGUIMIENTO</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>LEIDY JOHANA  GUTIERREZ</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2165,10 +2246,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2191,9 +2277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2576,7 +2663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF363"/>
+  <dimension ref="A1:CF400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2594,8 +2681,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>712</v>
+      <c r="D1" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -94784,6 +94871,9404 @@
       </c>
       <c r="CF363" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="364" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>83</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C364" t="s">
+        <v>269</v>
+      </c>
+      <c r="D364" t="s">
+        <v>85</v>
+      </c>
+      <c r="E364" t="s">
+        <v>181</v>
+      </c>
+      <c r="F364" t="s">
+        <v>146</v>
+      </c>
+      <c r="G364" t="s">
+        <v>88</v>
+      </c>
+      <c r="H364" t="s">
+        <v>124</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+      <c r="O364">
+        <v>0</v>
+      </c>
+      <c r="P364">
+        <v>0</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364">
+        <v>0</v>
+      </c>
+      <c r="T364">
+        <v>0</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+      <c r="V364">
+        <v>0</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+      <c r="AB364">
+        <v>0</v>
+      </c>
+      <c r="AC364">
+        <v>0</v>
+      </c>
+      <c r="AD364">
+        <v>0</v>
+      </c>
+      <c r="AE364">
+        <v>0</v>
+      </c>
+      <c r="AF364">
+        <v>0</v>
+      </c>
+      <c r="AG364">
+        <v>0</v>
+      </c>
+      <c r="AH364">
+        <v>0</v>
+      </c>
+      <c r="AI364">
+        <v>0</v>
+      </c>
+      <c r="AJ364">
+        <v>0</v>
+      </c>
+      <c r="AK364">
+        <v>0</v>
+      </c>
+      <c r="AL364">
+        <v>0</v>
+      </c>
+      <c r="AM364">
+        <v>0</v>
+      </c>
+      <c r="AN364">
+        <v>0</v>
+      </c>
+      <c r="AO364">
+        <v>0</v>
+      </c>
+      <c r="AP364">
+        <v>0</v>
+      </c>
+      <c r="AQ364">
+        <v>0</v>
+      </c>
+      <c r="AR364">
+        <v>0</v>
+      </c>
+      <c r="AS364">
+        <v>0</v>
+      </c>
+      <c r="AT364">
+        <v>0</v>
+      </c>
+      <c r="AU364">
+        <v>0</v>
+      </c>
+      <c r="AV364">
+        <v>0</v>
+      </c>
+      <c r="AW364">
+        <v>0</v>
+      </c>
+      <c r="AX364">
+        <v>0</v>
+      </c>
+      <c r="AY364">
+        <v>0</v>
+      </c>
+      <c r="AZ364">
+        <v>0</v>
+      </c>
+      <c r="BA364">
+        <v>0</v>
+      </c>
+      <c r="BB364">
+        <v>0</v>
+      </c>
+      <c r="BC364">
+        <v>0</v>
+      </c>
+      <c r="BD364">
+        <v>0</v>
+      </c>
+      <c r="BE364">
+        <v>2</v>
+      </c>
+      <c r="BF364">
+        <v>3</v>
+      </c>
+      <c r="BG364">
+        <v>13</v>
+      </c>
+      <c r="BH364">
+        <v>7</v>
+      </c>
+      <c r="BI364">
+        <v>17</v>
+      </c>
+      <c r="BJ364">
+        <v>9</v>
+      </c>
+      <c r="BK364">
+        <v>8</v>
+      </c>
+      <c r="BL364">
+        <v>59</v>
+      </c>
+      <c r="BM364">
+        <v>8</v>
+      </c>
+      <c r="BN364">
+        <v>6</v>
+      </c>
+      <c r="BO364">
+        <v>52</v>
+      </c>
+      <c r="BP364">
+        <v>161</v>
+      </c>
+      <c r="BQ364">
+        <v>475</v>
+      </c>
+      <c r="BR364">
+        <v>786</v>
+      </c>
+      <c r="BS364">
+        <v>2465</v>
+      </c>
+      <c r="BT364">
+        <v>3953</v>
+      </c>
+      <c r="BU364" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV364" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW364" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX364" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY364" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ364" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA364" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB364" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC364" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD364" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE364" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF364" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="365" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>83</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C365" t="s">
+        <v>356</v>
+      </c>
+      <c r="D365" t="s">
+        <v>85</v>
+      </c>
+      <c r="E365" t="s">
+        <v>181</v>
+      </c>
+      <c r="F365" t="s">
+        <v>289</v>
+      </c>
+      <c r="G365" t="s">
+        <v>88</v>
+      </c>
+      <c r="H365" t="s">
+        <v>410</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+      <c r="O365">
+        <v>0</v>
+      </c>
+      <c r="P365">
+        <v>0</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>0</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365">
+        <v>0</v>
+      </c>
+      <c r="V365">
+        <v>0</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+      <c r="AB365">
+        <v>0</v>
+      </c>
+      <c r="AC365">
+        <v>0</v>
+      </c>
+      <c r="AD365">
+        <v>0</v>
+      </c>
+      <c r="AE365">
+        <v>0</v>
+      </c>
+      <c r="AF365">
+        <v>0</v>
+      </c>
+      <c r="AG365">
+        <v>0</v>
+      </c>
+      <c r="AH365">
+        <v>0</v>
+      </c>
+      <c r="AI365">
+        <v>0</v>
+      </c>
+      <c r="AJ365">
+        <v>0</v>
+      </c>
+      <c r="AK365">
+        <v>0</v>
+      </c>
+      <c r="AL365">
+        <v>0</v>
+      </c>
+      <c r="AM365">
+        <v>0</v>
+      </c>
+      <c r="AN365">
+        <v>0</v>
+      </c>
+      <c r="AO365">
+        <v>0</v>
+      </c>
+      <c r="AP365">
+        <v>0</v>
+      </c>
+      <c r="AQ365">
+        <v>0</v>
+      </c>
+      <c r="AR365">
+        <v>0</v>
+      </c>
+      <c r="AS365">
+        <v>0</v>
+      </c>
+      <c r="AT365">
+        <v>0</v>
+      </c>
+      <c r="AU365">
+        <v>0</v>
+      </c>
+      <c r="AV365">
+        <v>0</v>
+      </c>
+      <c r="AW365">
+        <v>0</v>
+      </c>
+      <c r="AX365">
+        <v>0</v>
+      </c>
+      <c r="AY365">
+        <v>0</v>
+      </c>
+      <c r="AZ365">
+        <v>0</v>
+      </c>
+      <c r="BA365">
+        <v>0</v>
+      </c>
+      <c r="BB365">
+        <v>0</v>
+      </c>
+      <c r="BC365">
+        <v>0</v>
+      </c>
+      <c r="BD365">
+        <v>0</v>
+      </c>
+      <c r="BE365">
+        <v>0</v>
+      </c>
+      <c r="BF365">
+        <v>0</v>
+      </c>
+      <c r="BG365">
+        <v>5</v>
+      </c>
+      <c r="BH365">
+        <v>2</v>
+      </c>
+      <c r="BI365">
+        <v>0</v>
+      </c>
+      <c r="BJ365">
+        <v>0</v>
+      </c>
+      <c r="BK365">
+        <v>0</v>
+      </c>
+      <c r="BL365">
+        <v>7</v>
+      </c>
+      <c r="BM365">
+        <v>17</v>
+      </c>
+      <c r="BN365">
+        <v>0</v>
+      </c>
+      <c r="BO365">
+        <v>43</v>
+      </c>
+      <c r="BP365">
+        <v>105</v>
+      </c>
+      <c r="BQ365">
+        <v>238</v>
+      </c>
+      <c r="BR365">
+        <v>572</v>
+      </c>
+      <c r="BS365">
+        <v>1032</v>
+      </c>
+      <c r="BT365">
+        <v>2007</v>
+      </c>
+      <c r="BU365" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV365" s="1">
+        <v>44643</v>
+      </c>
+      <c r="BW365" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX365" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY365" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ365" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA365" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB365" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC365" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD365" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE365" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF365" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="366" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>83</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C366" t="s">
+        <v>269</v>
+      </c>
+      <c r="D366" t="s">
+        <v>85</v>
+      </c>
+      <c r="E366" t="s">
+        <v>131</v>
+      </c>
+      <c r="F366" t="s">
+        <v>352</v>
+      </c>
+      <c r="G366" t="s">
+        <v>88</v>
+      </c>
+      <c r="H366" t="s">
+        <v>535</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+      <c r="O366">
+        <v>0</v>
+      </c>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>0</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+      <c r="V366">
+        <v>0</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
+      </c>
+      <c r="AB366">
+        <v>0</v>
+      </c>
+      <c r="AC366">
+        <v>0</v>
+      </c>
+      <c r="AD366">
+        <v>0</v>
+      </c>
+      <c r="AE366">
+        <v>0</v>
+      </c>
+      <c r="AF366">
+        <v>0</v>
+      </c>
+      <c r="AG366">
+        <v>0</v>
+      </c>
+      <c r="AH366">
+        <v>0</v>
+      </c>
+      <c r="AI366">
+        <v>0</v>
+      </c>
+      <c r="AJ366">
+        <v>0</v>
+      </c>
+      <c r="AK366">
+        <v>0</v>
+      </c>
+      <c r="AL366">
+        <v>0</v>
+      </c>
+      <c r="AM366">
+        <v>0</v>
+      </c>
+      <c r="AN366">
+        <v>0</v>
+      </c>
+      <c r="AO366">
+        <v>0</v>
+      </c>
+      <c r="AP366">
+        <v>0</v>
+      </c>
+      <c r="AQ366">
+        <v>0</v>
+      </c>
+      <c r="AR366">
+        <v>0</v>
+      </c>
+      <c r="AS366">
+        <v>0</v>
+      </c>
+      <c r="AT366">
+        <v>0</v>
+      </c>
+      <c r="AU366">
+        <v>0</v>
+      </c>
+      <c r="AV366">
+        <v>0</v>
+      </c>
+      <c r="AW366">
+        <v>0</v>
+      </c>
+      <c r="AX366">
+        <v>0</v>
+      </c>
+      <c r="AY366">
+        <v>0</v>
+      </c>
+      <c r="AZ366">
+        <v>0</v>
+      </c>
+      <c r="BA366">
+        <v>0</v>
+      </c>
+      <c r="BB366">
+        <v>0</v>
+      </c>
+      <c r="BC366">
+        <v>0</v>
+      </c>
+      <c r="BD366">
+        <v>0</v>
+      </c>
+      <c r="BE366">
+        <v>0</v>
+      </c>
+      <c r="BF366">
+        <v>1</v>
+      </c>
+      <c r="BG366">
+        <v>1</v>
+      </c>
+      <c r="BH366">
+        <v>0</v>
+      </c>
+      <c r="BI366">
+        <v>0</v>
+      </c>
+      <c r="BJ366">
+        <v>0</v>
+      </c>
+      <c r="BK366">
+        <v>0</v>
+      </c>
+      <c r="BL366">
+        <v>2</v>
+      </c>
+      <c r="BM366">
+        <v>3</v>
+      </c>
+      <c r="BN366">
+        <v>4</v>
+      </c>
+      <c r="BO366">
+        <v>4</v>
+      </c>
+      <c r="BP366">
+        <v>21</v>
+      </c>
+      <c r="BQ366">
+        <v>46</v>
+      </c>
+      <c r="BR366">
+        <v>37</v>
+      </c>
+      <c r="BS366">
+        <v>55</v>
+      </c>
+      <c r="BT366">
+        <v>170</v>
+      </c>
+      <c r="BU366" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV366" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW366" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX366" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY366" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ366" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA366" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB366" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC366" t="s">
+        <v>354</v>
+      </c>
+      <c r="CD366" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE366" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF366" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="367" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>83</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C367" t="s">
+        <v>269</v>
+      </c>
+      <c r="D367" t="s">
+        <v>85</v>
+      </c>
+      <c r="E367" t="s">
+        <v>131</v>
+      </c>
+      <c r="F367" t="s">
+        <v>269</v>
+      </c>
+      <c r="G367" t="s">
+        <v>88</v>
+      </c>
+      <c r="H367" t="s">
+        <v>563</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
+      <c r="P367">
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367">
+        <v>0</v>
+      </c>
+      <c r="T367">
+        <v>0</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
+      </c>
+      <c r="V367">
+        <v>0</v>
+      </c>
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367">
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+      <c r="AB367">
+        <v>0</v>
+      </c>
+      <c r="AC367">
+        <v>0</v>
+      </c>
+      <c r="AD367">
+        <v>0</v>
+      </c>
+      <c r="AE367">
+        <v>0</v>
+      </c>
+      <c r="AF367">
+        <v>0</v>
+      </c>
+      <c r="AG367">
+        <v>0</v>
+      </c>
+      <c r="AH367">
+        <v>0</v>
+      </c>
+      <c r="AI367">
+        <v>0</v>
+      </c>
+      <c r="AJ367">
+        <v>0</v>
+      </c>
+      <c r="AK367">
+        <v>0</v>
+      </c>
+      <c r="AL367">
+        <v>0</v>
+      </c>
+      <c r="AM367">
+        <v>0</v>
+      </c>
+      <c r="AN367">
+        <v>0</v>
+      </c>
+      <c r="AO367">
+        <v>0</v>
+      </c>
+      <c r="AP367">
+        <v>0</v>
+      </c>
+      <c r="AQ367">
+        <v>0</v>
+      </c>
+      <c r="AR367">
+        <v>0</v>
+      </c>
+      <c r="AS367">
+        <v>0</v>
+      </c>
+      <c r="AT367">
+        <v>0</v>
+      </c>
+      <c r="AU367">
+        <v>0</v>
+      </c>
+      <c r="AV367">
+        <v>0</v>
+      </c>
+      <c r="AW367">
+        <v>0</v>
+      </c>
+      <c r="AX367">
+        <v>0</v>
+      </c>
+      <c r="AY367">
+        <v>0</v>
+      </c>
+      <c r="AZ367">
+        <v>0</v>
+      </c>
+      <c r="BA367">
+        <v>0</v>
+      </c>
+      <c r="BB367">
+        <v>0</v>
+      </c>
+      <c r="BC367">
+        <v>0</v>
+      </c>
+      <c r="BD367">
+        <v>0</v>
+      </c>
+      <c r="BE367">
+        <v>1</v>
+      </c>
+      <c r="BF367">
+        <v>1</v>
+      </c>
+      <c r="BG367">
+        <v>0</v>
+      </c>
+      <c r="BH367">
+        <v>0</v>
+      </c>
+      <c r="BI367">
+        <v>0</v>
+      </c>
+      <c r="BJ367">
+        <v>0</v>
+      </c>
+      <c r="BK367">
+        <v>0</v>
+      </c>
+      <c r="BL367">
+        <v>2</v>
+      </c>
+      <c r="BM367">
+        <v>5</v>
+      </c>
+      <c r="BN367">
+        <v>4</v>
+      </c>
+      <c r="BO367">
+        <v>3</v>
+      </c>
+      <c r="BP367">
+        <v>11</v>
+      </c>
+      <c r="BQ367">
+        <v>22</v>
+      </c>
+      <c r="BR367">
+        <v>28</v>
+      </c>
+      <c r="BS367">
+        <v>28</v>
+      </c>
+      <c r="BT367">
+        <v>101</v>
+      </c>
+      <c r="BU367" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV367" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW367" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX367" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY367" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ367" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA367" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB367" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC367" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD367" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE367" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF367" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="368" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>83</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C368" t="s">
+        <v>269</v>
+      </c>
+      <c r="D368" t="s">
+        <v>85</v>
+      </c>
+      <c r="E368" t="s">
+        <v>131</v>
+      </c>
+      <c r="F368" t="s">
+        <v>424</v>
+      </c>
+      <c r="G368" t="s">
+        <v>88</v>
+      </c>
+      <c r="H368" t="s">
+        <v>564</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>0</v>
+      </c>
+      <c r="S368">
+        <v>0</v>
+      </c>
+      <c r="T368">
+        <v>0</v>
+      </c>
+      <c r="U368">
+        <v>0</v>
+      </c>
+      <c r="V368">
+        <v>0</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
+      <c r="AB368">
+        <v>0</v>
+      </c>
+      <c r="AC368">
+        <v>0</v>
+      </c>
+      <c r="AD368">
+        <v>0</v>
+      </c>
+      <c r="AE368">
+        <v>0</v>
+      </c>
+      <c r="AF368">
+        <v>0</v>
+      </c>
+      <c r="AG368">
+        <v>0</v>
+      </c>
+      <c r="AH368">
+        <v>0</v>
+      </c>
+      <c r="AI368">
+        <v>0</v>
+      </c>
+      <c r="AJ368">
+        <v>0</v>
+      </c>
+      <c r="AK368">
+        <v>0</v>
+      </c>
+      <c r="AL368">
+        <v>0</v>
+      </c>
+      <c r="AM368">
+        <v>0</v>
+      </c>
+      <c r="AN368">
+        <v>0</v>
+      </c>
+      <c r="AO368">
+        <v>0</v>
+      </c>
+      <c r="AP368">
+        <v>0</v>
+      </c>
+      <c r="AQ368">
+        <v>0</v>
+      </c>
+      <c r="AR368">
+        <v>0</v>
+      </c>
+      <c r="AS368">
+        <v>0</v>
+      </c>
+      <c r="AT368">
+        <v>0</v>
+      </c>
+      <c r="AU368">
+        <v>0</v>
+      </c>
+      <c r="AV368">
+        <v>0</v>
+      </c>
+      <c r="AW368">
+        <v>0</v>
+      </c>
+      <c r="AX368">
+        <v>0</v>
+      </c>
+      <c r="AY368">
+        <v>0</v>
+      </c>
+      <c r="AZ368">
+        <v>0</v>
+      </c>
+      <c r="BA368">
+        <v>0</v>
+      </c>
+      <c r="BB368">
+        <v>0</v>
+      </c>
+      <c r="BC368">
+        <v>0</v>
+      </c>
+      <c r="BD368">
+        <v>0</v>
+      </c>
+      <c r="BE368">
+        <v>0</v>
+      </c>
+      <c r="BF368">
+        <v>0</v>
+      </c>
+      <c r="BG368">
+        <v>0</v>
+      </c>
+      <c r="BH368">
+        <v>1</v>
+      </c>
+      <c r="BI368">
+        <v>0</v>
+      </c>
+      <c r="BJ368">
+        <v>0</v>
+      </c>
+      <c r="BK368">
+        <v>0</v>
+      </c>
+      <c r="BL368">
+        <v>1</v>
+      </c>
+      <c r="BM368">
+        <v>0</v>
+      </c>
+      <c r="BN368">
+        <v>0</v>
+      </c>
+      <c r="BO368">
+        <v>2</v>
+      </c>
+      <c r="BP368">
+        <v>2</v>
+      </c>
+      <c r="BQ368">
+        <v>7</v>
+      </c>
+      <c r="BR368">
+        <v>8</v>
+      </c>
+      <c r="BS368">
+        <v>21</v>
+      </c>
+      <c r="BT368">
+        <v>40</v>
+      </c>
+      <c r="BU368" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV368" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW368" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX368" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY368" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ368" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA368" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB368" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC368" t="s">
+        <v>427</v>
+      </c>
+      <c r="CD368" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE368" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF368" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="369" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>83</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C369" t="s">
+        <v>269</v>
+      </c>
+      <c r="D369" t="s">
+        <v>85</v>
+      </c>
+      <c r="E369" t="s">
+        <v>131</v>
+      </c>
+      <c r="F369" t="s">
+        <v>299</v>
+      </c>
+      <c r="G369" t="s">
+        <v>88</v>
+      </c>
+      <c r="H369" t="s">
+        <v>565</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+      <c r="O369">
+        <v>0</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+      <c r="R369">
+        <v>0</v>
+      </c>
+      <c r="S369">
+        <v>0</v>
+      </c>
+      <c r="T369">
+        <v>0</v>
+      </c>
+      <c r="U369">
+        <v>0</v>
+      </c>
+      <c r="V369">
+        <v>0</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+      <c r="AB369">
+        <v>0</v>
+      </c>
+      <c r="AC369">
+        <v>0</v>
+      </c>
+      <c r="AD369">
+        <v>0</v>
+      </c>
+      <c r="AE369">
+        <v>0</v>
+      </c>
+      <c r="AF369">
+        <v>0</v>
+      </c>
+      <c r="AG369">
+        <v>0</v>
+      </c>
+      <c r="AH369">
+        <v>0</v>
+      </c>
+      <c r="AI369">
+        <v>0</v>
+      </c>
+      <c r="AJ369">
+        <v>0</v>
+      </c>
+      <c r="AK369">
+        <v>0</v>
+      </c>
+      <c r="AL369">
+        <v>0</v>
+      </c>
+      <c r="AM369">
+        <v>0</v>
+      </c>
+      <c r="AN369">
+        <v>0</v>
+      </c>
+      <c r="AO369">
+        <v>0</v>
+      </c>
+      <c r="AP369">
+        <v>0</v>
+      </c>
+      <c r="AQ369">
+        <v>0</v>
+      </c>
+      <c r="AR369">
+        <v>0</v>
+      </c>
+      <c r="AS369">
+        <v>0</v>
+      </c>
+      <c r="AT369">
+        <v>0</v>
+      </c>
+      <c r="AU369">
+        <v>0</v>
+      </c>
+      <c r="AV369">
+        <v>0</v>
+      </c>
+      <c r="AW369">
+        <v>0</v>
+      </c>
+      <c r="AX369">
+        <v>0</v>
+      </c>
+      <c r="AY369">
+        <v>0</v>
+      </c>
+      <c r="AZ369">
+        <v>0</v>
+      </c>
+      <c r="BA369">
+        <v>0</v>
+      </c>
+      <c r="BB369">
+        <v>0</v>
+      </c>
+      <c r="BC369">
+        <v>0</v>
+      </c>
+      <c r="BD369">
+        <v>0</v>
+      </c>
+      <c r="BE369">
+        <v>0</v>
+      </c>
+      <c r="BF369">
+        <v>0</v>
+      </c>
+      <c r="BG369">
+        <v>0</v>
+      </c>
+      <c r="BH369">
+        <v>1</v>
+      </c>
+      <c r="BI369">
+        <v>0</v>
+      </c>
+      <c r="BJ369">
+        <v>0</v>
+      </c>
+      <c r="BK369">
+        <v>0</v>
+      </c>
+      <c r="BL369">
+        <v>1</v>
+      </c>
+      <c r="BM369">
+        <v>0</v>
+      </c>
+      <c r="BN369">
+        <v>1</v>
+      </c>
+      <c r="BO369">
+        <v>0</v>
+      </c>
+      <c r="BP369">
+        <v>4</v>
+      </c>
+      <c r="BQ369">
+        <v>5</v>
+      </c>
+      <c r="BR369">
+        <v>9</v>
+      </c>
+      <c r="BS369">
+        <v>22</v>
+      </c>
+      <c r="BT369">
+        <v>41</v>
+      </c>
+      <c r="BU369" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV369" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW369" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX369" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY369" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ369" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA369" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB369" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC369" t="s">
+        <v>301</v>
+      </c>
+      <c r="CD369" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE369" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF369" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="370" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>83</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C370" t="s">
+        <v>269</v>
+      </c>
+      <c r="D370" t="s">
+        <v>85</v>
+      </c>
+      <c r="E370" t="s">
+        <v>131</v>
+      </c>
+      <c r="F370" t="s">
+        <v>132</v>
+      </c>
+      <c r="G370" t="s">
+        <v>88</v>
+      </c>
+      <c r="H370" t="s">
+        <v>566</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+      <c r="O370">
+        <v>0</v>
+      </c>
+      <c r="P370">
+        <v>0</v>
+      </c>
+      <c r="Q370">
+        <v>0</v>
+      </c>
+      <c r="R370">
+        <v>0</v>
+      </c>
+      <c r="S370">
+        <v>0</v>
+      </c>
+      <c r="T370">
+        <v>0</v>
+      </c>
+      <c r="U370">
+        <v>0</v>
+      </c>
+      <c r="V370">
+        <v>0</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
+        <v>0</v>
+      </c>
+      <c r="AB370">
+        <v>0</v>
+      </c>
+      <c r="AC370">
+        <v>0</v>
+      </c>
+      <c r="AD370">
+        <v>0</v>
+      </c>
+      <c r="AE370">
+        <v>0</v>
+      </c>
+      <c r="AF370">
+        <v>0</v>
+      </c>
+      <c r="AG370">
+        <v>0</v>
+      </c>
+      <c r="AH370">
+        <v>0</v>
+      </c>
+      <c r="AI370">
+        <v>0</v>
+      </c>
+      <c r="AJ370">
+        <v>0</v>
+      </c>
+      <c r="AK370">
+        <v>0</v>
+      </c>
+      <c r="AL370">
+        <v>0</v>
+      </c>
+      <c r="AM370">
+        <v>0</v>
+      </c>
+      <c r="AN370">
+        <v>0</v>
+      </c>
+      <c r="AO370">
+        <v>0</v>
+      </c>
+      <c r="AP370">
+        <v>0</v>
+      </c>
+      <c r="AQ370">
+        <v>0</v>
+      </c>
+      <c r="AR370">
+        <v>0</v>
+      </c>
+      <c r="AS370">
+        <v>0</v>
+      </c>
+      <c r="AT370">
+        <v>0</v>
+      </c>
+      <c r="AU370">
+        <v>0</v>
+      </c>
+      <c r="AV370">
+        <v>0</v>
+      </c>
+      <c r="AW370">
+        <v>0</v>
+      </c>
+      <c r="AX370">
+        <v>0</v>
+      </c>
+      <c r="AY370">
+        <v>0</v>
+      </c>
+      <c r="AZ370">
+        <v>0</v>
+      </c>
+      <c r="BA370">
+        <v>0</v>
+      </c>
+      <c r="BB370">
+        <v>0</v>
+      </c>
+      <c r="BC370">
+        <v>0</v>
+      </c>
+      <c r="BD370">
+        <v>0</v>
+      </c>
+      <c r="BE370">
+        <v>0</v>
+      </c>
+      <c r="BF370">
+        <v>0</v>
+      </c>
+      <c r="BG370">
+        <v>10</v>
+      </c>
+      <c r="BH370">
+        <v>6</v>
+      </c>
+      <c r="BI370">
+        <v>5</v>
+      </c>
+      <c r="BJ370">
+        <v>1</v>
+      </c>
+      <c r="BK370">
+        <v>1</v>
+      </c>
+      <c r="BL370">
+        <v>23</v>
+      </c>
+      <c r="BM370">
+        <v>21</v>
+      </c>
+      <c r="BN370">
+        <v>19</v>
+      </c>
+      <c r="BO370">
+        <v>50</v>
+      </c>
+      <c r="BP370">
+        <v>132</v>
+      </c>
+      <c r="BQ370">
+        <v>135</v>
+      </c>
+      <c r="BR370">
+        <v>156</v>
+      </c>
+      <c r="BS370">
+        <v>489</v>
+      </c>
+      <c r="BT370">
+        <v>1002</v>
+      </c>
+      <c r="BU370" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV370" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW370" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX370" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY370" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ370" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA370" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB370" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC370" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD370" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE370" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF370" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="371" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>83</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C371" t="s">
+        <v>269</v>
+      </c>
+      <c r="D371" t="s">
+        <v>85</v>
+      </c>
+      <c r="E371" t="s">
+        <v>166</v>
+      </c>
+      <c r="F371" t="s">
+        <v>102</v>
+      </c>
+      <c r="G371" t="s">
+        <v>88</v>
+      </c>
+      <c r="H371" t="s">
+        <v>712</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+      <c r="O371">
+        <v>0</v>
+      </c>
+      <c r="P371">
+        <v>0</v>
+      </c>
+      <c r="Q371">
+        <v>0</v>
+      </c>
+      <c r="R371">
+        <v>0</v>
+      </c>
+      <c r="S371">
+        <v>0</v>
+      </c>
+      <c r="T371">
+        <v>0</v>
+      </c>
+      <c r="U371">
+        <v>0</v>
+      </c>
+      <c r="V371">
+        <v>0</v>
+      </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
+      <c r="AA371">
+        <v>0</v>
+      </c>
+      <c r="AB371">
+        <v>0</v>
+      </c>
+      <c r="AC371">
+        <v>0</v>
+      </c>
+      <c r="AD371">
+        <v>0</v>
+      </c>
+      <c r="AE371">
+        <v>0</v>
+      </c>
+      <c r="AF371">
+        <v>0</v>
+      </c>
+      <c r="AG371">
+        <v>0</v>
+      </c>
+      <c r="AH371">
+        <v>0</v>
+      </c>
+      <c r="AI371">
+        <v>0</v>
+      </c>
+      <c r="AJ371">
+        <v>0</v>
+      </c>
+      <c r="AK371">
+        <v>0</v>
+      </c>
+      <c r="AL371">
+        <v>0</v>
+      </c>
+      <c r="AM371">
+        <v>0</v>
+      </c>
+      <c r="AN371">
+        <v>0</v>
+      </c>
+      <c r="AO371">
+        <v>0</v>
+      </c>
+      <c r="AP371">
+        <v>0</v>
+      </c>
+      <c r="AQ371">
+        <v>0</v>
+      </c>
+      <c r="AR371">
+        <v>0</v>
+      </c>
+      <c r="AS371">
+        <v>0</v>
+      </c>
+      <c r="AT371">
+        <v>0</v>
+      </c>
+      <c r="AU371">
+        <v>0</v>
+      </c>
+      <c r="AV371">
+        <v>0</v>
+      </c>
+      <c r="AW371">
+        <v>0</v>
+      </c>
+      <c r="AX371">
+        <v>0</v>
+      </c>
+      <c r="AY371">
+        <v>0</v>
+      </c>
+      <c r="AZ371">
+        <v>0</v>
+      </c>
+      <c r="BA371">
+        <v>0</v>
+      </c>
+      <c r="BB371">
+        <v>0</v>
+      </c>
+      <c r="BC371">
+        <v>0</v>
+      </c>
+      <c r="BD371">
+        <v>0</v>
+      </c>
+      <c r="BE371">
+        <v>1</v>
+      </c>
+      <c r="BF371">
+        <v>0</v>
+      </c>
+      <c r="BG371">
+        <v>2</v>
+      </c>
+      <c r="BH371">
+        <v>1</v>
+      </c>
+      <c r="BI371">
+        <v>1</v>
+      </c>
+      <c r="BJ371">
+        <v>1</v>
+      </c>
+      <c r="BK371">
+        <v>0</v>
+      </c>
+      <c r="BL371">
+        <v>6</v>
+      </c>
+      <c r="BM371">
+        <v>5</v>
+      </c>
+      <c r="BN371">
+        <v>7</v>
+      </c>
+      <c r="BO371">
+        <v>8</v>
+      </c>
+      <c r="BP371">
+        <v>88</v>
+      </c>
+      <c r="BQ371">
+        <v>205</v>
+      </c>
+      <c r="BR371">
+        <v>357</v>
+      </c>
+      <c r="BS371">
+        <v>502</v>
+      </c>
+      <c r="BT371">
+        <v>1172</v>
+      </c>
+      <c r="BU371" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV371" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW371" t="s">
+        <v>285</v>
+      </c>
+      <c r="BX371" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY371" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ371" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA371" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB371" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC371" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD371" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE371" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF371" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="372" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>83</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C372" t="s">
+        <v>269</v>
+      </c>
+      <c r="D372" t="s">
+        <v>85</v>
+      </c>
+      <c r="E372" t="s">
+        <v>86</v>
+      </c>
+      <c r="F372" t="s">
+        <v>87</v>
+      </c>
+      <c r="G372" t="s">
+        <v>88</v>
+      </c>
+      <c r="H372" t="s">
+        <v>713</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <v>0</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>0</v>
+      </c>
+      <c r="S372">
+        <v>0</v>
+      </c>
+      <c r="T372">
+        <v>0</v>
+      </c>
+      <c r="U372">
+        <v>0</v>
+      </c>
+      <c r="V372">
+        <v>0</v>
+      </c>
+      <c r="W372">
+        <v>0</v>
+      </c>
+      <c r="X372">
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <v>0</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AA372">
+        <v>0</v>
+      </c>
+      <c r="AB372">
+        <v>0</v>
+      </c>
+      <c r="AC372">
+        <v>0</v>
+      </c>
+      <c r="AD372">
+        <v>0</v>
+      </c>
+      <c r="AE372">
+        <v>0</v>
+      </c>
+      <c r="AF372">
+        <v>0</v>
+      </c>
+      <c r="AG372">
+        <v>0</v>
+      </c>
+      <c r="AH372">
+        <v>0</v>
+      </c>
+      <c r="AI372">
+        <v>0</v>
+      </c>
+      <c r="AJ372">
+        <v>0</v>
+      </c>
+      <c r="AK372">
+        <v>0</v>
+      </c>
+      <c r="AL372">
+        <v>0</v>
+      </c>
+      <c r="AM372">
+        <v>0</v>
+      </c>
+      <c r="AN372">
+        <v>0</v>
+      </c>
+      <c r="AO372">
+        <v>0</v>
+      </c>
+      <c r="AP372">
+        <v>0</v>
+      </c>
+      <c r="AQ372">
+        <v>0</v>
+      </c>
+      <c r="AR372">
+        <v>0</v>
+      </c>
+      <c r="AS372">
+        <v>0</v>
+      </c>
+      <c r="AT372">
+        <v>0</v>
+      </c>
+      <c r="AU372">
+        <v>0</v>
+      </c>
+      <c r="AV372">
+        <v>0</v>
+      </c>
+      <c r="AW372">
+        <v>0</v>
+      </c>
+      <c r="AX372">
+        <v>0</v>
+      </c>
+      <c r="AY372">
+        <v>0</v>
+      </c>
+      <c r="AZ372">
+        <v>0</v>
+      </c>
+      <c r="BA372">
+        <v>0</v>
+      </c>
+      <c r="BB372">
+        <v>0</v>
+      </c>
+      <c r="BC372">
+        <v>0</v>
+      </c>
+      <c r="BD372">
+        <v>0</v>
+      </c>
+      <c r="BE372">
+        <v>0</v>
+      </c>
+      <c r="BF372">
+        <v>0</v>
+      </c>
+      <c r="BG372">
+        <v>1</v>
+      </c>
+      <c r="BH372">
+        <v>0</v>
+      </c>
+      <c r="BI372">
+        <v>1</v>
+      </c>
+      <c r="BJ372">
+        <v>2</v>
+      </c>
+      <c r="BK372">
+        <v>0</v>
+      </c>
+      <c r="BL372">
+        <v>4</v>
+      </c>
+      <c r="BM372">
+        <v>0</v>
+      </c>
+      <c r="BN372">
+        <v>0</v>
+      </c>
+      <c r="BO372">
+        <v>1</v>
+      </c>
+      <c r="BP372">
+        <v>0</v>
+      </c>
+      <c r="BQ372">
+        <v>1</v>
+      </c>
+      <c r="BR372">
+        <v>2</v>
+      </c>
+      <c r="BS372">
+        <v>0</v>
+      </c>
+      <c r="BT372">
+        <v>4</v>
+      </c>
+      <c r="BU372" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV372" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW372" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX372" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY372" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ372" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA372" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB372" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC372" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD372" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE372" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF372" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="373" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>83</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C373" t="s">
+        <v>269</v>
+      </c>
+      <c r="D373" t="s">
+        <v>85</v>
+      </c>
+      <c r="E373" t="s">
+        <v>204</v>
+      </c>
+      <c r="F373" t="s">
+        <v>102</v>
+      </c>
+      <c r="G373" t="s">
+        <v>88</v>
+      </c>
+      <c r="H373" t="s">
+        <v>714</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>0</v>
+      </c>
+      <c r="O373">
+        <v>0</v>
+      </c>
+      <c r="P373">
+        <v>0</v>
+      </c>
+      <c r="Q373">
+        <v>0</v>
+      </c>
+      <c r="R373">
+        <v>0</v>
+      </c>
+      <c r="S373">
+        <v>0</v>
+      </c>
+      <c r="T373">
+        <v>0</v>
+      </c>
+      <c r="U373">
+        <v>0</v>
+      </c>
+      <c r="V373">
+        <v>0</v>
+      </c>
+      <c r="W373">
+        <v>0</v>
+      </c>
+      <c r="X373">
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <v>0</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AA373">
+        <v>0</v>
+      </c>
+      <c r="AB373">
+        <v>0</v>
+      </c>
+      <c r="AC373">
+        <v>0</v>
+      </c>
+      <c r="AD373">
+        <v>0</v>
+      </c>
+      <c r="AE373">
+        <v>0</v>
+      </c>
+      <c r="AF373">
+        <v>0</v>
+      </c>
+      <c r="AG373">
+        <v>0</v>
+      </c>
+      <c r="AH373">
+        <v>0</v>
+      </c>
+      <c r="AI373">
+        <v>0</v>
+      </c>
+      <c r="AJ373">
+        <v>0</v>
+      </c>
+      <c r="AK373">
+        <v>0</v>
+      </c>
+      <c r="AL373">
+        <v>0</v>
+      </c>
+      <c r="AM373">
+        <v>0</v>
+      </c>
+      <c r="AN373">
+        <v>0</v>
+      </c>
+      <c r="AO373">
+        <v>0</v>
+      </c>
+      <c r="AP373">
+        <v>0</v>
+      </c>
+      <c r="AQ373">
+        <v>0</v>
+      </c>
+      <c r="AR373">
+        <v>0</v>
+      </c>
+      <c r="AS373">
+        <v>0</v>
+      </c>
+      <c r="AT373">
+        <v>0</v>
+      </c>
+      <c r="AU373">
+        <v>0</v>
+      </c>
+      <c r="AV373">
+        <v>0</v>
+      </c>
+      <c r="AW373">
+        <v>0</v>
+      </c>
+      <c r="AX373">
+        <v>0</v>
+      </c>
+      <c r="AY373">
+        <v>0</v>
+      </c>
+      <c r="AZ373">
+        <v>0</v>
+      </c>
+      <c r="BA373">
+        <v>0</v>
+      </c>
+      <c r="BB373">
+        <v>0</v>
+      </c>
+      <c r="BC373">
+        <v>0</v>
+      </c>
+      <c r="BD373">
+        <v>0</v>
+      </c>
+      <c r="BE373">
+        <v>0</v>
+      </c>
+      <c r="BF373">
+        <v>1</v>
+      </c>
+      <c r="BG373">
+        <v>13</v>
+      </c>
+      <c r="BH373">
+        <v>13</v>
+      </c>
+      <c r="BI373">
+        <v>7</v>
+      </c>
+      <c r="BJ373">
+        <v>11</v>
+      </c>
+      <c r="BK373">
+        <v>10</v>
+      </c>
+      <c r="BL373">
+        <v>55</v>
+      </c>
+      <c r="BM373">
+        <v>0</v>
+      </c>
+      <c r="BN373">
+        <v>1</v>
+      </c>
+      <c r="BO373">
+        <v>13</v>
+      </c>
+      <c r="BP373">
+        <v>13</v>
+      </c>
+      <c r="BQ373">
+        <v>7</v>
+      </c>
+      <c r="BR373">
+        <v>11</v>
+      </c>
+      <c r="BS373">
+        <v>10</v>
+      </c>
+      <c r="BT373">
+        <v>55</v>
+      </c>
+      <c r="BU373" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV373" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW373" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX373" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY373" t="s">
+        <v>674</v>
+      </c>
+      <c r="BZ373" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA373" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB373" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC373" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD373" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE373" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF373" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="374" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>83</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C374" t="s">
+        <v>269</v>
+      </c>
+      <c r="D374" t="s">
+        <v>85</v>
+      </c>
+      <c r="E374" t="s">
+        <v>131</v>
+      </c>
+      <c r="F374" t="s">
+        <v>102</v>
+      </c>
+      <c r="G374" t="s">
+        <v>88</v>
+      </c>
+      <c r="H374" t="s">
+        <v>715</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+      <c r="O374">
+        <v>1</v>
+      </c>
+      <c r="P374">
+        <v>1</v>
+      </c>
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374">
+        <v>1</v>
+      </c>
+      <c r="S374">
+        <v>0</v>
+      </c>
+      <c r="T374">
+        <v>4</v>
+      </c>
+      <c r="U374">
+        <v>3</v>
+      </c>
+      <c r="V374">
+        <v>4</v>
+      </c>
+      <c r="W374">
+        <v>19</v>
+      </c>
+      <c r="X374">
+        <v>31</v>
+      </c>
+      <c r="Y374">
+        <v>0</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AA374">
+        <v>0</v>
+      </c>
+      <c r="AB374">
+        <v>0</v>
+      </c>
+      <c r="AC374">
+        <v>0</v>
+      </c>
+      <c r="AD374">
+        <v>0</v>
+      </c>
+      <c r="AE374">
+        <v>0</v>
+      </c>
+      <c r="AF374">
+        <v>0</v>
+      </c>
+      <c r="AG374">
+        <v>0</v>
+      </c>
+      <c r="AH374">
+        <v>0</v>
+      </c>
+      <c r="AI374">
+        <v>0</v>
+      </c>
+      <c r="AJ374">
+        <v>0</v>
+      </c>
+      <c r="AK374">
+        <v>0</v>
+      </c>
+      <c r="AL374">
+        <v>0</v>
+      </c>
+      <c r="AM374">
+        <v>0</v>
+      </c>
+      <c r="AN374">
+        <v>0</v>
+      </c>
+      <c r="AO374">
+        <v>0</v>
+      </c>
+      <c r="AP374">
+        <v>0</v>
+      </c>
+      <c r="AQ374">
+        <v>0</v>
+      </c>
+      <c r="AR374">
+        <v>0</v>
+      </c>
+      <c r="AS374">
+        <v>0</v>
+      </c>
+      <c r="AT374">
+        <v>0</v>
+      </c>
+      <c r="AU374">
+        <v>0</v>
+      </c>
+      <c r="AV374">
+        <v>0</v>
+      </c>
+      <c r="AW374">
+        <v>0</v>
+      </c>
+      <c r="AX374">
+        <v>0</v>
+      </c>
+      <c r="AY374">
+        <v>0</v>
+      </c>
+      <c r="AZ374">
+        <v>0</v>
+      </c>
+      <c r="BA374">
+        <v>0</v>
+      </c>
+      <c r="BB374">
+        <v>0</v>
+      </c>
+      <c r="BC374">
+        <v>0</v>
+      </c>
+      <c r="BD374">
+        <v>0</v>
+      </c>
+      <c r="BE374">
+        <v>4</v>
+      </c>
+      <c r="BF374">
+        <v>2</v>
+      </c>
+      <c r="BG374">
+        <v>5</v>
+      </c>
+      <c r="BH374">
+        <v>6</v>
+      </c>
+      <c r="BI374">
+        <v>2</v>
+      </c>
+      <c r="BJ374">
+        <v>1</v>
+      </c>
+      <c r="BK374">
+        <v>1</v>
+      </c>
+      <c r="BL374">
+        <v>21</v>
+      </c>
+      <c r="BM374">
+        <v>28</v>
+      </c>
+      <c r="BN374">
+        <v>18</v>
+      </c>
+      <c r="BO374">
+        <v>30</v>
+      </c>
+      <c r="BP374">
+        <v>90</v>
+      </c>
+      <c r="BQ374">
+        <v>143</v>
+      </c>
+      <c r="BR374">
+        <v>134</v>
+      </c>
+      <c r="BS374">
+        <v>178</v>
+      </c>
+      <c r="BT374">
+        <v>621</v>
+      </c>
+      <c r="BU374" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV374" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW374" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX374" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY374" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ374" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA374" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB374" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC374" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD374" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE374" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF374" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="375" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>83</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C375" t="s">
+        <v>269</v>
+      </c>
+      <c r="D375" t="s">
+        <v>85</v>
+      </c>
+      <c r="E375" t="s">
+        <v>131</v>
+      </c>
+      <c r="F375" t="s">
+        <v>490</v>
+      </c>
+      <c r="G375" t="s">
+        <v>88</v>
+      </c>
+      <c r="H375" t="s">
+        <v>716</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+      <c r="O375">
+        <v>0</v>
+      </c>
+      <c r="P375">
+        <v>0</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <v>0</v>
+      </c>
+      <c r="S375">
+        <v>0</v>
+      </c>
+      <c r="T375">
+        <v>0</v>
+      </c>
+      <c r="U375">
+        <v>0</v>
+      </c>
+      <c r="V375">
+        <v>0</v>
+      </c>
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375">
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <v>0</v>
+      </c>
+      <c r="Z375">
+        <v>0</v>
+      </c>
+      <c r="AA375">
+        <v>0</v>
+      </c>
+      <c r="AB375">
+        <v>0</v>
+      </c>
+      <c r="AC375">
+        <v>0</v>
+      </c>
+      <c r="AD375">
+        <v>0</v>
+      </c>
+      <c r="AE375">
+        <v>0</v>
+      </c>
+      <c r="AF375">
+        <v>0</v>
+      </c>
+      <c r="AG375">
+        <v>0</v>
+      </c>
+      <c r="AH375">
+        <v>0</v>
+      </c>
+      <c r="AI375">
+        <v>0</v>
+      </c>
+      <c r="AJ375">
+        <v>0</v>
+      </c>
+      <c r="AK375">
+        <v>0</v>
+      </c>
+      <c r="AL375">
+        <v>0</v>
+      </c>
+      <c r="AM375">
+        <v>0</v>
+      </c>
+      <c r="AN375">
+        <v>0</v>
+      </c>
+      <c r="AO375">
+        <v>0</v>
+      </c>
+      <c r="AP375">
+        <v>0</v>
+      </c>
+      <c r="AQ375">
+        <v>0</v>
+      </c>
+      <c r="AR375">
+        <v>0</v>
+      </c>
+      <c r="AS375">
+        <v>0</v>
+      </c>
+      <c r="AT375">
+        <v>0</v>
+      </c>
+      <c r="AU375">
+        <v>0</v>
+      </c>
+      <c r="AV375">
+        <v>0</v>
+      </c>
+      <c r="AW375">
+        <v>0</v>
+      </c>
+      <c r="AX375">
+        <v>0</v>
+      </c>
+      <c r="AY375">
+        <v>0</v>
+      </c>
+      <c r="AZ375">
+        <v>0</v>
+      </c>
+      <c r="BA375">
+        <v>0</v>
+      </c>
+      <c r="BB375">
+        <v>0</v>
+      </c>
+      <c r="BC375">
+        <v>0</v>
+      </c>
+      <c r="BD375">
+        <v>0</v>
+      </c>
+      <c r="BE375">
+        <v>1</v>
+      </c>
+      <c r="BF375">
+        <v>0</v>
+      </c>
+      <c r="BG375">
+        <v>0</v>
+      </c>
+      <c r="BH375">
+        <v>0</v>
+      </c>
+      <c r="BI375">
+        <v>0</v>
+      </c>
+      <c r="BJ375">
+        <v>0</v>
+      </c>
+      <c r="BK375">
+        <v>0</v>
+      </c>
+      <c r="BL375">
+        <v>1</v>
+      </c>
+      <c r="BM375">
+        <v>4</v>
+      </c>
+      <c r="BN375">
+        <v>0</v>
+      </c>
+      <c r="BO375">
+        <v>0</v>
+      </c>
+      <c r="BP375">
+        <v>8</v>
+      </c>
+      <c r="BQ375">
+        <v>5</v>
+      </c>
+      <c r="BR375">
+        <v>11</v>
+      </c>
+      <c r="BS375">
+        <v>13</v>
+      </c>
+      <c r="BT375">
+        <v>41</v>
+      </c>
+      <c r="BU375" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV375" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW375" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX375" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY375" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ375" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA375" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB375" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC375" t="s">
+        <v>492</v>
+      </c>
+      <c r="CD375" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE375" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF375" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="376" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>83</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C376" t="s">
+        <v>269</v>
+      </c>
+      <c r="D376" t="s">
+        <v>85</v>
+      </c>
+      <c r="E376" t="s">
+        <v>131</v>
+      </c>
+      <c r="F376" t="s">
+        <v>337</v>
+      </c>
+      <c r="G376" t="s">
+        <v>88</v>
+      </c>
+      <c r="H376" t="s">
+        <v>717</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376">
+        <v>0</v>
+      </c>
+      <c r="P376">
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <v>0</v>
+      </c>
+      <c r="S376">
+        <v>0</v>
+      </c>
+      <c r="T376">
+        <v>0</v>
+      </c>
+      <c r="U376">
+        <v>0</v>
+      </c>
+      <c r="V376">
+        <v>0</v>
+      </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
+      <c r="AB376">
+        <v>0</v>
+      </c>
+      <c r="AC376">
+        <v>0</v>
+      </c>
+      <c r="AD376">
+        <v>0</v>
+      </c>
+      <c r="AE376">
+        <v>0</v>
+      </c>
+      <c r="AF376">
+        <v>0</v>
+      </c>
+      <c r="AG376">
+        <v>0</v>
+      </c>
+      <c r="AH376">
+        <v>0</v>
+      </c>
+      <c r="AI376">
+        <v>0</v>
+      </c>
+      <c r="AJ376">
+        <v>0</v>
+      </c>
+      <c r="AK376">
+        <v>0</v>
+      </c>
+      <c r="AL376">
+        <v>0</v>
+      </c>
+      <c r="AM376">
+        <v>0</v>
+      </c>
+      <c r="AN376">
+        <v>0</v>
+      </c>
+      <c r="AO376">
+        <v>0</v>
+      </c>
+      <c r="AP376">
+        <v>0</v>
+      </c>
+      <c r="AQ376">
+        <v>0</v>
+      </c>
+      <c r="AR376">
+        <v>0</v>
+      </c>
+      <c r="AS376">
+        <v>0</v>
+      </c>
+      <c r="AT376">
+        <v>0</v>
+      </c>
+      <c r="AU376">
+        <v>0</v>
+      </c>
+      <c r="AV376">
+        <v>0</v>
+      </c>
+      <c r="AW376">
+        <v>0</v>
+      </c>
+      <c r="AX376">
+        <v>0</v>
+      </c>
+      <c r="AY376">
+        <v>0</v>
+      </c>
+      <c r="AZ376">
+        <v>0</v>
+      </c>
+      <c r="BA376">
+        <v>0</v>
+      </c>
+      <c r="BB376">
+        <v>0</v>
+      </c>
+      <c r="BC376">
+        <v>0</v>
+      </c>
+      <c r="BD376">
+        <v>0</v>
+      </c>
+      <c r="BE376">
+        <v>0</v>
+      </c>
+      <c r="BF376">
+        <v>1</v>
+      </c>
+      <c r="BG376">
+        <v>0</v>
+      </c>
+      <c r="BH376">
+        <v>1</v>
+      </c>
+      <c r="BI376">
+        <v>0</v>
+      </c>
+      <c r="BJ376">
+        <v>0</v>
+      </c>
+      <c r="BK376">
+        <v>0</v>
+      </c>
+      <c r="BL376">
+        <v>2</v>
+      </c>
+      <c r="BM376">
+        <v>3</v>
+      </c>
+      <c r="BN376">
+        <v>4</v>
+      </c>
+      <c r="BO376">
+        <v>11</v>
+      </c>
+      <c r="BP376">
+        <v>15</v>
+      </c>
+      <c r="BQ376">
+        <v>13</v>
+      </c>
+      <c r="BR376">
+        <v>12</v>
+      </c>
+      <c r="BS376">
+        <v>17</v>
+      </c>
+      <c r="BT376">
+        <v>75</v>
+      </c>
+      <c r="BU376" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV376" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW376" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX376" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY376" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ376" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA376" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB376" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC376" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD376" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE376" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF376" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="377" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>83</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C377" t="s">
+        <v>269</v>
+      </c>
+      <c r="D377" t="s">
+        <v>85</v>
+      </c>
+      <c r="E377" t="s">
+        <v>131</v>
+      </c>
+      <c r="F377" t="s">
+        <v>376</v>
+      </c>
+      <c r="G377" t="s">
+        <v>88</v>
+      </c>
+      <c r="H377" t="s">
+        <v>718</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+      <c r="O377">
+        <v>0</v>
+      </c>
+      <c r="P377">
+        <v>0</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+      <c r="R377">
+        <v>0</v>
+      </c>
+      <c r="S377">
+        <v>0</v>
+      </c>
+      <c r="T377">
+        <v>0</v>
+      </c>
+      <c r="U377">
+        <v>0</v>
+      </c>
+      <c r="V377">
+        <v>0</v>
+      </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
+      <c r="AB377">
+        <v>0</v>
+      </c>
+      <c r="AC377">
+        <v>0</v>
+      </c>
+      <c r="AD377">
+        <v>0</v>
+      </c>
+      <c r="AE377">
+        <v>0</v>
+      </c>
+      <c r="AF377">
+        <v>0</v>
+      </c>
+      <c r="AG377">
+        <v>0</v>
+      </c>
+      <c r="AH377">
+        <v>0</v>
+      </c>
+      <c r="AI377">
+        <v>0</v>
+      </c>
+      <c r="AJ377">
+        <v>0</v>
+      </c>
+      <c r="AK377">
+        <v>0</v>
+      </c>
+      <c r="AL377">
+        <v>0</v>
+      </c>
+      <c r="AM377">
+        <v>0</v>
+      </c>
+      <c r="AN377">
+        <v>0</v>
+      </c>
+      <c r="AO377">
+        <v>0</v>
+      </c>
+      <c r="AP377">
+        <v>0</v>
+      </c>
+      <c r="AQ377">
+        <v>0</v>
+      </c>
+      <c r="AR377">
+        <v>0</v>
+      </c>
+      <c r="AS377">
+        <v>0</v>
+      </c>
+      <c r="AT377">
+        <v>0</v>
+      </c>
+      <c r="AU377">
+        <v>0</v>
+      </c>
+      <c r="AV377">
+        <v>0</v>
+      </c>
+      <c r="AW377">
+        <v>0</v>
+      </c>
+      <c r="AX377">
+        <v>0</v>
+      </c>
+      <c r="AY377">
+        <v>0</v>
+      </c>
+      <c r="AZ377">
+        <v>0</v>
+      </c>
+      <c r="BA377">
+        <v>0</v>
+      </c>
+      <c r="BB377">
+        <v>0</v>
+      </c>
+      <c r="BC377">
+        <v>0</v>
+      </c>
+      <c r="BD377">
+        <v>0</v>
+      </c>
+      <c r="BE377">
+        <v>0</v>
+      </c>
+      <c r="BF377">
+        <v>0</v>
+      </c>
+      <c r="BG377">
+        <v>0</v>
+      </c>
+      <c r="BH377">
+        <v>0</v>
+      </c>
+      <c r="BI377">
+        <v>0</v>
+      </c>
+      <c r="BJ377">
+        <v>0</v>
+      </c>
+      <c r="BK377">
+        <v>1</v>
+      </c>
+      <c r="BL377">
+        <v>1</v>
+      </c>
+      <c r="BM377">
+        <v>8</v>
+      </c>
+      <c r="BN377">
+        <v>14</v>
+      </c>
+      <c r="BO377">
+        <v>11</v>
+      </c>
+      <c r="BP377">
+        <v>38</v>
+      </c>
+      <c r="BQ377">
+        <v>47</v>
+      </c>
+      <c r="BR377">
+        <v>63</v>
+      </c>
+      <c r="BS377">
+        <v>77</v>
+      </c>
+      <c r="BT377">
+        <v>258</v>
+      </c>
+      <c r="BU377" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV377" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW377" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX377" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY377" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ377" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA377" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB377" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC377" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD377" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE377" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF377" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="378" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>83</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C378" t="s">
+        <v>269</v>
+      </c>
+      <c r="D378" t="s">
+        <v>85</v>
+      </c>
+      <c r="E378" t="s">
+        <v>131</v>
+      </c>
+      <c r="F378" t="s">
+        <v>139</v>
+      </c>
+      <c r="G378" t="s">
+        <v>88</v>
+      </c>
+      <c r="H378" t="s">
+        <v>719</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>2</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+      <c r="O378">
+        <v>0</v>
+      </c>
+      <c r="P378">
+        <v>5</v>
+      </c>
+      <c r="Q378">
+        <v>3</v>
+      </c>
+      <c r="R378">
+        <v>2</v>
+      </c>
+      <c r="S378">
+        <v>2</v>
+      </c>
+      <c r="T378">
+        <v>13</v>
+      </c>
+      <c r="U378">
+        <v>5</v>
+      </c>
+      <c r="V378">
+        <v>8</v>
+      </c>
+      <c r="W378">
+        <v>26</v>
+      </c>
+      <c r="X378">
+        <v>59</v>
+      </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+      <c r="AB378">
+        <v>0</v>
+      </c>
+      <c r="AC378">
+        <v>0</v>
+      </c>
+      <c r="AD378">
+        <v>0</v>
+      </c>
+      <c r="AE378">
+        <v>0</v>
+      </c>
+      <c r="AF378">
+        <v>0</v>
+      </c>
+      <c r="AG378">
+        <v>0</v>
+      </c>
+      <c r="AH378">
+        <v>0</v>
+      </c>
+      <c r="AI378">
+        <v>0</v>
+      </c>
+      <c r="AJ378">
+        <v>0</v>
+      </c>
+      <c r="AK378">
+        <v>0</v>
+      </c>
+      <c r="AL378">
+        <v>0</v>
+      </c>
+      <c r="AM378">
+        <v>0</v>
+      </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
+      <c r="AO378">
+        <v>0</v>
+      </c>
+      <c r="AP378">
+        <v>0</v>
+      </c>
+      <c r="AQ378">
+        <v>0</v>
+      </c>
+      <c r="AR378">
+        <v>0</v>
+      </c>
+      <c r="AS378">
+        <v>0</v>
+      </c>
+      <c r="AT378">
+        <v>0</v>
+      </c>
+      <c r="AU378">
+        <v>0</v>
+      </c>
+      <c r="AV378">
+        <v>0</v>
+      </c>
+      <c r="AW378">
+        <v>0</v>
+      </c>
+      <c r="AX378">
+        <v>0</v>
+      </c>
+      <c r="AY378">
+        <v>0</v>
+      </c>
+      <c r="AZ378">
+        <v>0</v>
+      </c>
+      <c r="BA378">
+        <v>0</v>
+      </c>
+      <c r="BB378">
+        <v>0</v>
+      </c>
+      <c r="BC378">
+        <v>0</v>
+      </c>
+      <c r="BD378">
+        <v>0</v>
+      </c>
+      <c r="BE378">
+        <v>6</v>
+      </c>
+      <c r="BF378">
+        <v>4</v>
+      </c>
+      <c r="BG378">
+        <v>5</v>
+      </c>
+      <c r="BH378">
+        <v>7</v>
+      </c>
+      <c r="BI378">
+        <v>3</v>
+      </c>
+      <c r="BJ378">
+        <v>1</v>
+      </c>
+      <c r="BK378">
+        <v>2</v>
+      </c>
+      <c r="BL378">
+        <v>28</v>
+      </c>
+      <c r="BM378">
+        <v>24</v>
+      </c>
+      <c r="BN378">
+        <v>15</v>
+      </c>
+      <c r="BO378">
+        <v>31</v>
+      </c>
+      <c r="BP378">
+        <v>113</v>
+      </c>
+      <c r="BQ378">
+        <v>174</v>
+      </c>
+      <c r="BR378">
+        <v>154</v>
+      </c>
+      <c r="BS378">
+        <v>279</v>
+      </c>
+      <c r="BT378">
+        <v>790</v>
+      </c>
+      <c r="BU378" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV378" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW378" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX378" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY378" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ378" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA378" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB378" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC378" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD378" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE378" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF378" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="379" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>83</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C379" t="s">
+        <v>269</v>
+      </c>
+      <c r="D379" t="s">
+        <v>85</v>
+      </c>
+      <c r="E379" t="s">
+        <v>131</v>
+      </c>
+      <c r="F379" t="s">
+        <v>116</v>
+      </c>
+      <c r="G379" t="s">
+        <v>88</v>
+      </c>
+      <c r="H379" t="s">
+        <v>720</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>0</v>
+      </c>
+      <c r="S379">
+        <v>0</v>
+      </c>
+      <c r="T379">
+        <v>0</v>
+      </c>
+      <c r="U379">
+        <v>0</v>
+      </c>
+      <c r="V379">
+        <v>0</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+      <c r="AB379">
+        <v>0</v>
+      </c>
+      <c r="AC379">
+        <v>0</v>
+      </c>
+      <c r="AD379">
+        <v>0</v>
+      </c>
+      <c r="AE379">
+        <v>0</v>
+      </c>
+      <c r="AF379">
+        <v>0</v>
+      </c>
+      <c r="AG379">
+        <v>0</v>
+      </c>
+      <c r="AH379">
+        <v>0</v>
+      </c>
+      <c r="AI379">
+        <v>0</v>
+      </c>
+      <c r="AJ379">
+        <v>0</v>
+      </c>
+      <c r="AK379">
+        <v>0</v>
+      </c>
+      <c r="AL379">
+        <v>0</v>
+      </c>
+      <c r="AM379">
+        <v>0</v>
+      </c>
+      <c r="AN379">
+        <v>0</v>
+      </c>
+      <c r="AO379">
+        <v>0</v>
+      </c>
+      <c r="AP379">
+        <v>0</v>
+      </c>
+      <c r="AQ379">
+        <v>0</v>
+      </c>
+      <c r="AR379">
+        <v>0</v>
+      </c>
+      <c r="AS379">
+        <v>0</v>
+      </c>
+      <c r="AT379">
+        <v>0</v>
+      </c>
+      <c r="AU379">
+        <v>0</v>
+      </c>
+      <c r="AV379">
+        <v>0</v>
+      </c>
+      <c r="AW379">
+        <v>0</v>
+      </c>
+      <c r="AX379">
+        <v>0</v>
+      </c>
+      <c r="AY379">
+        <v>0</v>
+      </c>
+      <c r="AZ379">
+        <v>0</v>
+      </c>
+      <c r="BA379">
+        <v>0</v>
+      </c>
+      <c r="BB379">
+        <v>0</v>
+      </c>
+      <c r="BC379">
+        <v>0</v>
+      </c>
+      <c r="BD379">
+        <v>0</v>
+      </c>
+      <c r="BE379">
+        <v>0</v>
+      </c>
+      <c r="BF379">
+        <v>0</v>
+      </c>
+      <c r="BG379">
+        <v>1</v>
+      </c>
+      <c r="BH379">
+        <v>0</v>
+      </c>
+      <c r="BI379">
+        <v>0</v>
+      </c>
+      <c r="BJ379">
+        <v>0</v>
+      </c>
+      <c r="BK379">
+        <v>0</v>
+      </c>
+      <c r="BL379">
+        <v>1</v>
+      </c>
+      <c r="BM379">
+        <v>1</v>
+      </c>
+      <c r="BN379">
+        <v>1</v>
+      </c>
+      <c r="BO379">
+        <v>6</v>
+      </c>
+      <c r="BP379">
+        <v>29</v>
+      </c>
+      <c r="BQ379">
+        <v>31</v>
+      </c>
+      <c r="BR379">
+        <v>53</v>
+      </c>
+      <c r="BS379">
+        <v>50</v>
+      </c>
+      <c r="BT379">
+        <v>171</v>
+      </c>
+      <c r="BU379" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV379" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW379" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX379" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY379" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ379" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA379" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB379" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC379" t="s">
+        <v>329</v>
+      </c>
+      <c r="CD379" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE379" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF379" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="380" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C380" t="s">
+        <v>269</v>
+      </c>
+      <c r="D380" t="s">
+        <v>85</v>
+      </c>
+      <c r="E380" t="s">
+        <v>131</v>
+      </c>
+      <c r="F380" t="s">
+        <v>146</v>
+      </c>
+      <c r="G380" t="s">
+        <v>88</v>
+      </c>
+      <c r="H380" t="s">
+        <v>721</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+      <c r="O380">
+        <v>0</v>
+      </c>
+      <c r="P380">
+        <v>0</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>0</v>
+      </c>
+      <c r="S380">
+        <v>0</v>
+      </c>
+      <c r="T380">
+        <v>0</v>
+      </c>
+      <c r="U380">
+        <v>0</v>
+      </c>
+      <c r="V380">
+        <v>0</v>
+      </c>
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+      <c r="AB380">
+        <v>0</v>
+      </c>
+      <c r="AC380">
+        <v>0</v>
+      </c>
+      <c r="AD380">
+        <v>0</v>
+      </c>
+      <c r="AE380">
+        <v>0</v>
+      </c>
+      <c r="AF380">
+        <v>0</v>
+      </c>
+      <c r="AG380">
+        <v>0</v>
+      </c>
+      <c r="AH380">
+        <v>0</v>
+      </c>
+      <c r="AI380">
+        <v>0</v>
+      </c>
+      <c r="AJ380">
+        <v>0</v>
+      </c>
+      <c r="AK380">
+        <v>0</v>
+      </c>
+      <c r="AL380">
+        <v>0</v>
+      </c>
+      <c r="AM380">
+        <v>0</v>
+      </c>
+      <c r="AN380">
+        <v>0</v>
+      </c>
+      <c r="AO380">
+        <v>0</v>
+      </c>
+      <c r="AP380">
+        <v>0</v>
+      </c>
+      <c r="AQ380">
+        <v>0</v>
+      </c>
+      <c r="AR380">
+        <v>0</v>
+      </c>
+      <c r="AS380">
+        <v>0</v>
+      </c>
+      <c r="AT380">
+        <v>0</v>
+      </c>
+      <c r="AU380">
+        <v>0</v>
+      </c>
+      <c r="AV380">
+        <v>0</v>
+      </c>
+      <c r="AW380">
+        <v>0</v>
+      </c>
+      <c r="AX380">
+        <v>0</v>
+      </c>
+      <c r="AY380">
+        <v>0</v>
+      </c>
+      <c r="AZ380">
+        <v>0</v>
+      </c>
+      <c r="BA380">
+        <v>0</v>
+      </c>
+      <c r="BB380">
+        <v>0</v>
+      </c>
+      <c r="BC380">
+        <v>0</v>
+      </c>
+      <c r="BD380">
+        <v>0</v>
+      </c>
+      <c r="BE380">
+        <v>0</v>
+      </c>
+      <c r="BF380">
+        <v>0</v>
+      </c>
+      <c r="BG380">
+        <v>0</v>
+      </c>
+      <c r="BH380">
+        <v>0</v>
+      </c>
+      <c r="BI380">
+        <v>1</v>
+      </c>
+      <c r="BJ380">
+        <v>0</v>
+      </c>
+      <c r="BK380">
+        <v>0</v>
+      </c>
+      <c r="BL380">
+        <v>1</v>
+      </c>
+      <c r="BM380">
+        <v>4</v>
+      </c>
+      <c r="BN380">
+        <v>1</v>
+      </c>
+      <c r="BO380">
+        <v>0</v>
+      </c>
+      <c r="BP380">
+        <v>3</v>
+      </c>
+      <c r="BQ380">
+        <v>14</v>
+      </c>
+      <c r="BR380">
+        <v>19</v>
+      </c>
+      <c r="BS380">
+        <v>17</v>
+      </c>
+      <c r="BT380">
+        <v>58</v>
+      </c>
+      <c r="BU380" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV380" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW380" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX380" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY380" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ380" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA380" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB380" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC380" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD380" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE380" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF380" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="381" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>83</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C381" t="s">
+        <v>269</v>
+      </c>
+      <c r="D381" t="s">
+        <v>85</v>
+      </c>
+      <c r="E381" t="s">
+        <v>131</v>
+      </c>
+      <c r="F381" t="s">
+        <v>151</v>
+      </c>
+      <c r="G381" t="s">
+        <v>88</v>
+      </c>
+      <c r="H381" t="s">
+        <v>722</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381">
+        <v>0</v>
+      </c>
+      <c r="P381">
+        <v>0</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+      <c r="R381">
+        <v>0</v>
+      </c>
+      <c r="S381">
+        <v>0</v>
+      </c>
+      <c r="T381">
+        <v>0</v>
+      </c>
+      <c r="U381">
+        <v>0</v>
+      </c>
+      <c r="V381">
+        <v>0</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+      <c r="AB381">
+        <v>0</v>
+      </c>
+      <c r="AC381">
+        <v>0</v>
+      </c>
+      <c r="AD381">
+        <v>0</v>
+      </c>
+      <c r="AE381">
+        <v>0</v>
+      </c>
+      <c r="AF381">
+        <v>0</v>
+      </c>
+      <c r="AG381">
+        <v>0</v>
+      </c>
+      <c r="AH381">
+        <v>0</v>
+      </c>
+      <c r="AI381">
+        <v>0</v>
+      </c>
+      <c r="AJ381">
+        <v>0</v>
+      </c>
+      <c r="AK381">
+        <v>0</v>
+      </c>
+      <c r="AL381">
+        <v>0</v>
+      </c>
+      <c r="AM381">
+        <v>0</v>
+      </c>
+      <c r="AN381">
+        <v>0</v>
+      </c>
+      <c r="AO381">
+        <v>0</v>
+      </c>
+      <c r="AP381">
+        <v>0</v>
+      </c>
+      <c r="AQ381">
+        <v>0</v>
+      </c>
+      <c r="AR381">
+        <v>0</v>
+      </c>
+      <c r="AS381">
+        <v>0</v>
+      </c>
+      <c r="AT381">
+        <v>0</v>
+      </c>
+      <c r="AU381">
+        <v>0</v>
+      </c>
+      <c r="AV381">
+        <v>0</v>
+      </c>
+      <c r="AW381">
+        <v>0</v>
+      </c>
+      <c r="AX381">
+        <v>0</v>
+      </c>
+      <c r="AY381">
+        <v>0</v>
+      </c>
+      <c r="AZ381">
+        <v>0</v>
+      </c>
+      <c r="BA381">
+        <v>0</v>
+      </c>
+      <c r="BB381">
+        <v>0</v>
+      </c>
+      <c r="BC381">
+        <v>0</v>
+      </c>
+      <c r="BD381">
+        <v>0</v>
+      </c>
+      <c r="BE381">
+        <v>0</v>
+      </c>
+      <c r="BF381">
+        <v>0</v>
+      </c>
+      <c r="BG381">
+        <v>0</v>
+      </c>
+      <c r="BH381">
+        <v>0</v>
+      </c>
+      <c r="BI381">
+        <v>1</v>
+      </c>
+      <c r="BJ381">
+        <v>0</v>
+      </c>
+      <c r="BK381">
+        <v>0</v>
+      </c>
+      <c r="BL381">
+        <v>1</v>
+      </c>
+      <c r="BM381">
+        <v>2</v>
+      </c>
+      <c r="BN381">
+        <v>0</v>
+      </c>
+      <c r="BO381">
+        <v>1</v>
+      </c>
+      <c r="BP381">
+        <v>20</v>
+      </c>
+      <c r="BQ381">
+        <v>21</v>
+      </c>
+      <c r="BR381">
+        <v>35</v>
+      </c>
+      <c r="BS381">
+        <v>42</v>
+      </c>
+      <c r="BT381">
+        <v>121</v>
+      </c>
+      <c r="BU381" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV381" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW381" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX381" t="s">
+        <v>497</v>
+      </c>
+      <c r="BY381" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ381" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA381" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB381" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC381" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD381" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE381" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF381" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="382" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
+        <v>83</v>
+      </c>
+      <c r="B382" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C382" t="s">
+        <v>269</v>
+      </c>
+      <c r="D382" t="s">
+        <v>85</v>
+      </c>
+      <c r="E382" t="s">
+        <v>131</v>
+      </c>
+      <c r="F382" t="s">
+        <v>433</v>
+      </c>
+      <c r="G382" t="s">
+        <v>88</v>
+      </c>
+      <c r="H382" t="s">
+        <v>723</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+      <c r="O382">
+        <v>0</v>
+      </c>
+      <c r="P382">
+        <v>0</v>
+      </c>
+      <c r="Q382">
+        <v>0</v>
+      </c>
+      <c r="R382">
+        <v>0</v>
+      </c>
+      <c r="S382">
+        <v>0</v>
+      </c>
+      <c r="T382">
+        <v>0</v>
+      </c>
+      <c r="U382">
+        <v>0</v>
+      </c>
+      <c r="V382">
+        <v>0</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+      <c r="AB382">
+        <v>0</v>
+      </c>
+      <c r="AC382">
+        <v>0</v>
+      </c>
+      <c r="AD382">
+        <v>0</v>
+      </c>
+      <c r="AE382">
+        <v>0</v>
+      </c>
+      <c r="AF382">
+        <v>0</v>
+      </c>
+      <c r="AG382">
+        <v>0</v>
+      </c>
+      <c r="AH382">
+        <v>0</v>
+      </c>
+      <c r="AI382">
+        <v>0</v>
+      </c>
+      <c r="AJ382">
+        <v>0</v>
+      </c>
+      <c r="AK382">
+        <v>0</v>
+      </c>
+      <c r="AL382">
+        <v>0</v>
+      </c>
+      <c r="AM382">
+        <v>0</v>
+      </c>
+      <c r="AN382">
+        <v>0</v>
+      </c>
+      <c r="AO382">
+        <v>0</v>
+      </c>
+      <c r="AP382">
+        <v>0</v>
+      </c>
+      <c r="AQ382">
+        <v>0</v>
+      </c>
+      <c r="AR382">
+        <v>0</v>
+      </c>
+      <c r="AS382">
+        <v>0</v>
+      </c>
+      <c r="AT382">
+        <v>0</v>
+      </c>
+      <c r="AU382">
+        <v>0</v>
+      </c>
+      <c r="AV382">
+        <v>0</v>
+      </c>
+      <c r="AW382">
+        <v>0</v>
+      </c>
+      <c r="AX382">
+        <v>0</v>
+      </c>
+      <c r="AY382">
+        <v>0</v>
+      </c>
+      <c r="AZ382">
+        <v>0</v>
+      </c>
+      <c r="BA382">
+        <v>0</v>
+      </c>
+      <c r="BB382">
+        <v>0</v>
+      </c>
+      <c r="BC382">
+        <v>0</v>
+      </c>
+      <c r="BD382">
+        <v>0</v>
+      </c>
+      <c r="BE382">
+        <v>0</v>
+      </c>
+      <c r="BF382">
+        <v>0</v>
+      </c>
+      <c r="BG382">
+        <v>1</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BI382">
+        <v>0</v>
+      </c>
+      <c r="BJ382">
+        <v>0</v>
+      </c>
+      <c r="BK382">
+        <v>0</v>
+      </c>
+      <c r="BL382">
+        <v>1</v>
+      </c>
+      <c r="BM382">
+        <v>0</v>
+      </c>
+      <c r="BN382">
+        <v>0</v>
+      </c>
+      <c r="BO382">
+        <v>2</v>
+      </c>
+      <c r="BP382">
+        <v>4</v>
+      </c>
+      <c r="BQ382">
+        <v>4</v>
+      </c>
+      <c r="BR382">
+        <v>20</v>
+      </c>
+      <c r="BS382">
+        <v>38</v>
+      </c>
+      <c r="BT382">
+        <v>68</v>
+      </c>
+      <c r="BU382" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV382" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW382" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX382" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY382" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ382" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA382" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB382" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC382" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD382" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE382" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF382" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="383" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
+        <v>83</v>
+      </c>
+      <c r="B383" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C383" t="s">
+        <v>269</v>
+      </c>
+      <c r="D383" t="s">
+        <v>85</v>
+      </c>
+      <c r="E383" t="s">
+        <v>131</v>
+      </c>
+      <c r="F383" t="s">
+        <v>433</v>
+      </c>
+      <c r="G383" t="s">
+        <v>88</v>
+      </c>
+      <c r="H383" t="s">
+        <v>724</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+      <c r="O383">
+        <v>0</v>
+      </c>
+      <c r="P383">
+        <v>0</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>0</v>
+      </c>
+      <c r="S383">
+        <v>0</v>
+      </c>
+      <c r="T383">
+        <v>0</v>
+      </c>
+      <c r="U383">
+        <v>0</v>
+      </c>
+      <c r="V383">
+        <v>0</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+      <c r="AB383">
+        <v>0</v>
+      </c>
+      <c r="AC383">
+        <v>0</v>
+      </c>
+      <c r="AD383">
+        <v>0</v>
+      </c>
+      <c r="AE383">
+        <v>0</v>
+      </c>
+      <c r="AF383">
+        <v>0</v>
+      </c>
+      <c r="AG383">
+        <v>0</v>
+      </c>
+      <c r="AH383">
+        <v>0</v>
+      </c>
+      <c r="AI383">
+        <v>0</v>
+      </c>
+      <c r="AJ383">
+        <v>0</v>
+      </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
+      <c r="AL383">
+        <v>0</v>
+      </c>
+      <c r="AM383">
+        <v>0</v>
+      </c>
+      <c r="AN383">
+        <v>0</v>
+      </c>
+      <c r="AO383">
+        <v>0</v>
+      </c>
+      <c r="AP383">
+        <v>0</v>
+      </c>
+      <c r="AQ383">
+        <v>0</v>
+      </c>
+      <c r="AR383">
+        <v>0</v>
+      </c>
+      <c r="AS383">
+        <v>0</v>
+      </c>
+      <c r="AT383">
+        <v>0</v>
+      </c>
+      <c r="AU383">
+        <v>0</v>
+      </c>
+      <c r="AV383">
+        <v>0</v>
+      </c>
+      <c r="AW383">
+        <v>0</v>
+      </c>
+      <c r="AX383">
+        <v>0</v>
+      </c>
+      <c r="AY383">
+        <v>0</v>
+      </c>
+      <c r="AZ383">
+        <v>0</v>
+      </c>
+      <c r="BA383">
+        <v>0</v>
+      </c>
+      <c r="BB383">
+        <v>0</v>
+      </c>
+      <c r="BC383">
+        <v>0</v>
+      </c>
+      <c r="BD383">
+        <v>0</v>
+      </c>
+      <c r="BE383">
+        <v>0</v>
+      </c>
+      <c r="BF383">
+        <v>0</v>
+      </c>
+      <c r="BG383">
+        <v>1</v>
+      </c>
+      <c r="BH383">
+        <v>0</v>
+      </c>
+      <c r="BI383">
+        <v>0</v>
+      </c>
+      <c r="BJ383">
+        <v>0</v>
+      </c>
+      <c r="BK383">
+        <v>0</v>
+      </c>
+      <c r="BL383">
+        <v>1</v>
+      </c>
+      <c r="BM383">
+        <v>0</v>
+      </c>
+      <c r="BN383">
+        <v>0</v>
+      </c>
+      <c r="BO383">
+        <v>2</v>
+      </c>
+      <c r="BP383">
+        <v>4</v>
+      </c>
+      <c r="BQ383">
+        <v>4</v>
+      </c>
+      <c r="BR383">
+        <v>20</v>
+      </c>
+      <c r="BS383">
+        <v>38</v>
+      </c>
+      <c r="BT383">
+        <v>68</v>
+      </c>
+      <c r="BU383" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV383" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW383" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX383" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY383" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ383" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA383" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB383" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC383" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD383" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE383" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF383" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="384" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
+        <v>83</v>
+      </c>
+      <c r="B384" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C384" t="s">
+        <v>269</v>
+      </c>
+      <c r="D384" t="s">
+        <v>85</v>
+      </c>
+      <c r="E384" t="s">
+        <v>131</v>
+      </c>
+      <c r="F384" t="s">
+        <v>345</v>
+      </c>
+      <c r="G384" t="s">
+        <v>88</v>
+      </c>
+      <c r="H384" t="s">
+        <v>725</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>0</v>
+      </c>
+      <c r="O384">
+        <v>0</v>
+      </c>
+      <c r="P384">
+        <v>0</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+      <c r="R384">
+        <v>0</v>
+      </c>
+      <c r="S384">
+        <v>0</v>
+      </c>
+      <c r="T384">
+        <v>0</v>
+      </c>
+      <c r="U384">
+        <v>0</v>
+      </c>
+      <c r="V384">
+        <v>0</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+      <c r="AB384">
+        <v>0</v>
+      </c>
+      <c r="AC384">
+        <v>0</v>
+      </c>
+      <c r="AD384">
+        <v>0</v>
+      </c>
+      <c r="AE384">
+        <v>0</v>
+      </c>
+      <c r="AF384">
+        <v>0</v>
+      </c>
+      <c r="AG384">
+        <v>0</v>
+      </c>
+      <c r="AH384">
+        <v>0</v>
+      </c>
+      <c r="AI384">
+        <v>0</v>
+      </c>
+      <c r="AJ384">
+        <v>0</v>
+      </c>
+      <c r="AK384">
+        <v>0</v>
+      </c>
+      <c r="AL384">
+        <v>0</v>
+      </c>
+      <c r="AM384">
+        <v>0</v>
+      </c>
+      <c r="AN384">
+        <v>0</v>
+      </c>
+      <c r="AO384">
+        <v>0</v>
+      </c>
+      <c r="AP384">
+        <v>0</v>
+      </c>
+      <c r="AQ384">
+        <v>0</v>
+      </c>
+      <c r="AR384">
+        <v>0</v>
+      </c>
+      <c r="AS384">
+        <v>0</v>
+      </c>
+      <c r="AT384">
+        <v>0</v>
+      </c>
+      <c r="AU384">
+        <v>0</v>
+      </c>
+      <c r="AV384">
+        <v>0</v>
+      </c>
+      <c r="AW384">
+        <v>0</v>
+      </c>
+      <c r="AX384">
+        <v>0</v>
+      </c>
+      <c r="AY384">
+        <v>0</v>
+      </c>
+      <c r="AZ384">
+        <v>0</v>
+      </c>
+      <c r="BA384">
+        <v>0</v>
+      </c>
+      <c r="BB384">
+        <v>0</v>
+      </c>
+      <c r="BC384">
+        <v>0</v>
+      </c>
+      <c r="BD384">
+        <v>0</v>
+      </c>
+      <c r="BE384">
+        <v>0</v>
+      </c>
+      <c r="BF384">
+        <v>0</v>
+      </c>
+      <c r="BG384">
+        <v>1</v>
+      </c>
+      <c r="BH384">
+        <v>0</v>
+      </c>
+      <c r="BI384">
+        <v>0</v>
+      </c>
+      <c r="BJ384">
+        <v>0</v>
+      </c>
+      <c r="BK384">
+        <v>0</v>
+      </c>
+      <c r="BL384">
+        <v>1</v>
+      </c>
+      <c r="BM384">
+        <v>0</v>
+      </c>
+      <c r="BN384">
+        <v>0</v>
+      </c>
+      <c r="BO384">
+        <v>2</v>
+      </c>
+      <c r="BP384">
+        <v>0</v>
+      </c>
+      <c r="BQ384">
+        <v>5</v>
+      </c>
+      <c r="BR384">
+        <v>9</v>
+      </c>
+      <c r="BS384">
+        <v>15</v>
+      </c>
+      <c r="BT384">
+        <v>31</v>
+      </c>
+      <c r="BU384" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV384" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW384" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX384" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY384" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ384" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA384" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB384" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC384" t="s">
+        <v>726</v>
+      </c>
+      <c r="CD384" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE384" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF384" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="385" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
+        <v>83</v>
+      </c>
+      <c r="B385" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C385" t="s">
+        <v>269</v>
+      </c>
+      <c r="D385" t="s">
+        <v>85</v>
+      </c>
+      <c r="E385" t="s">
+        <v>131</v>
+      </c>
+      <c r="F385" t="s">
+        <v>155</v>
+      </c>
+      <c r="G385" t="s">
+        <v>88</v>
+      </c>
+      <c r="H385" t="s">
+        <v>727</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+      <c r="O385">
+        <v>0</v>
+      </c>
+      <c r="P385">
+        <v>0</v>
+      </c>
+      <c r="Q385">
+        <v>0</v>
+      </c>
+      <c r="R385">
+        <v>0</v>
+      </c>
+      <c r="S385">
+        <v>0</v>
+      </c>
+      <c r="T385">
+        <v>0</v>
+      </c>
+      <c r="U385">
+        <v>0</v>
+      </c>
+      <c r="V385">
+        <v>0</v>
+      </c>
+      <c r="W385">
+        <v>0</v>
+      </c>
+      <c r="X385">
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <v>0</v>
+      </c>
+      <c r="Z385">
+        <v>0</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+      <c r="AB385">
+        <v>0</v>
+      </c>
+      <c r="AC385">
+        <v>0</v>
+      </c>
+      <c r="AD385">
+        <v>0</v>
+      </c>
+      <c r="AE385">
+        <v>0</v>
+      </c>
+      <c r="AF385">
+        <v>0</v>
+      </c>
+      <c r="AG385">
+        <v>0</v>
+      </c>
+      <c r="AH385">
+        <v>0</v>
+      </c>
+      <c r="AI385">
+        <v>0</v>
+      </c>
+      <c r="AJ385">
+        <v>0</v>
+      </c>
+      <c r="AK385">
+        <v>0</v>
+      </c>
+      <c r="AL385">
+        <v>0</v>
+      </c>
+      <c r="AM385">
+        <v>0</v>
+      </c>
+      <c r="AN385">
+        <v>0</v>
+      </c>
+      <c r="AO385">
+        <v>0</v>
+      </c>
+      <c r="AP385">
+        <v>0</v>
+      </c>
+      <c r="AQ385">
+        <v>0</v>
+      </c>
+      <c r="AR385">
+        <v>0</v>
+      </c>
+      <c r="AS385">
+        <v>0</v>
+      </c>
+      <c r="AT385">
+        <v>0</v>
+      </c>
+      <c r="AU385">
+        <v>0</v>
+      </c>
+      <c r="AV385">
+        <v>0</v>
+      </c>
+      <c r="AW385">
+        <v>0</v>
+      </c>
+      <c r="AX385">
+        <v>0</v>
+      </c>
+      <c r="AY385">
+        <v>0</v>
+      </c>
+      <c r="AZ385">
+        <v>0</v>
+      </c>
+      <c r="BA385">
+        <v>0</v>
+      </c>
+      <c r="BB385">
+        <v>0</v>
+      </c>
+      <c r="BC385">
+        <v>0</v>
+      </c>
+      <c r="BD385">
+        <v>0</v>
+      </c>
+      <c r="BE385">
+        <v>1</v>
+      </c>
+      <c r="BF385">
+        <v>0</v>
+      </c>
+      <c r="BG385">
+        <v>0</v>
+      </c>
+      <c r="BH385">
+        <v>0</v>
+      </c>
+      <c r="BI385">
+        <v>1</v>
+      </c>
+      <c r="BJ385">
+        <v>0</v>
+      </c>
+      <c r="BK385">
+        <v>0</v>
+      </c>
+      <c r="BL385">
+        <v>2</v>
+      </c>
+      <c r="BM385">
+        <v>5</v>
+      </c>
+      <c r="BN385">
+        <v>3</v>
+      </c>
+      <c r="BO385">
+        <v>4</v>
+      </c>
+      <c r="BP385">
+        <v>11</v>
+      </c>
+      <c r="BQ385">
+        <v>9</v>
+      </c>
+      <c r="BR385">
+        <v>20</v>
+      </c>
+      <c r="BS385">
+        <v>40</v>
+      </c>
+      <c r="BT385">
+        <v>92</v>
+      </c>
+      <c r="BU385" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV385" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW385" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX385" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY385" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ385" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA385" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB385" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC385" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD385" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE385" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF385" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="386" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
+        <v>83</v>
+      </c>
+      <c r="B386" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C386" t="s">
+        <v>269</v>
+      </c>
+      <c r="D386" t="s">
+        <v>85</v>
+      </c>
+      <c r="E386" t="s">
+        <v>115</v>
+      </c>
+      <c r="F386" t="s">
+        <v>173</v>
+      </c>
+      <c r="G386" t="s">
+        <v>88</v>
+      </c>
+      <c r="H386" t="s">
+        <v>541</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
+      <c r="P386">
+        <v>0</v>
+      </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
+      <c r="R386">
+        <v>0</v>
+      </c>
+      <c r="S386">
+        <v>0</v>
+      </c>
+      <c r="T386">
+        <v>0</v>
+      </c>
+      <c r="U386">
+        <v>0</v>
+      </c>
+      <c r="V386">
+        <v>0</v>
+      </c>
+      <c r="W386">
+        <v>0</v>
+      </c>
+      <c r="X386">
+        <v>0</v>
+      </c>
+      <c r="Y386">
+        <v>0</v>
+      </c>
+      <c r="Z386">
+        <v>0</v>
+      </c>
+      <c r="AA386">
+        <v>0</v>
+      </c>
+      <c r="AB386">
+        <v>0</v>
+      </c>
+      <c r="AC386">
+        <v>0</v>
+      </c>
+      <c r="AD386">
+        <v>0</v>
+      </c>
+      <c r="AE386">
+        <v>0</v>
+      </c>
+      <c r="AF386">
+        <v>0</v>
+      </c>
+      <c r="AG386">
+        <v>0</v>
+      </c>
+      <c r="AH386">
+        <v>0</v>
+      </c>
+      <c r="AI386">
+        <v>0</v>
+      </c>
+      <c r="AJ386">
+        <v>0</v>
+      </c>
+      <c r="AK386">
+        <v>0</v>
+      </c>
+      <c r="AL386">
+        <v>0</v>
+      </c>
+      <c r="AM386">
+        <v>0</v>
+      </c>
+      <c r="AN386">
+        <v>0</v>
+      </c>
+      <c r="AO386">
+        <v>0</v>
+      </c>
+      <c r="AP386">
+        <v>0</v>
+      </c>
+      <c r="AQ386">
+        <v>0</v>
+      </c>
+      <c r="AR386">
+        <v>0</v>
+      </c>
+      <c r="AS386">
+        <v>0</v>
+      </c>
+      <c r="AT386">
+        <v>0</v>
+      </c>
+      <c r="AU386">
+        <v>0</v>
+      </c>
+      <c r="AV386">
+        <v>0</v>
+      </c>
+      <c r="AW386">
+        <v>0</v>
+      </c>
+      <c r="AX386">
+        <v>0</v>
+      </c>
+      <c r="AY386">
+        <v>0</v>
+      </c>
+      <c r="AZ386">
+        <v>0</v>
+      </c>
+      <c r="BA386">
+        <v>0</v>
+      </c>
+      <c r="BB386">
+        <v>0</v>
+      </c>
+      <c r="BC386">
+        <v>0</v>
+      </c>
+      <c r="BD386">
+        <v>0</v>
+      </c>
+      <c r="BE386">
+        <v>0</v>
+      </c>
+      <c r="BF386">
+        <v>1</v>
+      </c>
+      <c r="BG386">
+        <v>0</v>
+      </c>
+      <c r="BH386">
+        <v>3</v>
+      </c>
+      <c r="BI386">
+        <v>10</v>
+      </c>
+      <c r="BJ386">
+        <v>3</v>
+      </c>
+      <c r="BK386">
+        <v>5</v>
+      </c>
+      <c r="BL386">
+        <v>22</v>
+      </c>
+      <c r="BM386">
+        <v>0</v>
+      </c>
+      <c r="BN386">
+        <v>2</v>
+      </c>
+      <c r="BO386">
+        <v>3</v>
+      </c>
+      <c r="BP386">
+        <v>47</v>
+      </c>
+      <c r="BQ386">
+        <v>190</v>
+      </c>
+      <c r="BR386">
+        <v>132</v>
+      </c>
+      <c r="BS386">
+        <v>74</v>
+      </c>
+      <c r="BT386">
+        <v>448</v>
+      </c>
+      <c r="BU386" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV386" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW386" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX386" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY386" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ386" t="s">
+        <v>332</v>
+      </c>
+      <c r="CA386" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB386" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC386" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD386" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE386" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF386" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="387" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
+        <v>83</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C387" t="s">
+        <v>269</v>
+      </c>
+      <c r="D387" t="s">
+        <v>85</v>
+      </c>
+      <c r="E387" t="s">
+        <v>241</v>
+      </c>
+      <c r="F387" t="s">
+        <v>132</v>
+      </c>
+      <c r="G387" t="s">
+        <v>88</v>
+      </c>
+      <c r="H387" t="s">
+        <v>366</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+      <c r="P387">
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+      <c r="R387">
+        <v>0</v>
+      </c>
+      <c r="S387">
+        <v>0</v>
+      </c>
+      <c r="T387">
+        <v>0</v>
+      </c>
+      <c r="U387">
+        <v>0</v>
+      </c>
+      <c r="V387">
+        <v>0</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+      <c r="AB387">
+        <v>0</v>
+      </c>
+      <c r="AC387">
+        <v>0</v>
+      </c>
+      <c r="AD387">
+        <v>0</v>
+      </c>
+      <c r="AE387">
+        <v>0</v>
+      </c>
+      <c r="AF387">
+        <v>0</v>
+      </c>
+      <c r="AG387">
+        <v>0</v>
+      </c>
+      <c r="AH387">
+        <v>0</v>
+      </c>
+      <c r="AI387">
+        <v>0</v>
+      </c>
+      <c r="AJ387">
+        <v>0</v>
+      </c>
+      <c r="AK387">
+        <v>0</v>
+      </c>
+      <c r="AL387">
+        <v>0</v>
+      </c>
+      <c r="AM387">
+        <v>0</v>
+      </c>
+      <c r="AN387">
+        <v>0</v>
+      </c>
+      <c r="AO387">
+        <v>0</v>
+      </c>
+      <c r="AP387">
+        <v>0</v>
+      </c>
+      <c r="AQ387">
+        <v>0</v>
+      </c>
+      <c r="AR387">
+        <v>0</v>
+      </c>
+      <c r="AS387">
+        <v>0</v>
+      </c>
+      <c r="AT387">
+        <v>0</v>
+      </c>
+      <c r="AU387">
+        <v>0</v>
+      </c>
+      <c r="AV387">
+        <v>0</v>
+      </c>
+      <c r="AW387">
+        <v>0</v>
+      </c>
+      <c r="AX387">
+        <v>0</v>
+      </c>
+      <c r="AY387">
+        <v>0</v>
+      </c>
+      <c r="AZ387">
+        <v>0</v>
+      </c>
+      <c r="BA387">
+        <v>0</v>
+      </c>
+      <c r="BB387">
+        <v>0</v>
+      </c>
+      <c r="BC387">
+        <v>0</v>
+      </c>
+      <c r="BD387">
+        <v>0</v>
+      </c>
+      <c r="BE387">
+        <v>0</v>
+      </c>
+      <c r="BF387">
+        <v>0</v>
+      </c>
+      <c r="BG387">
+        <v>4</v>
+      </c>
+      <c r="BH387">
+        <v>2</v>
+      </c>
+      <c r="BI387">
+        <v>2</v>
+      </c>
+      <c r="BJ387">
+        <v>1</v>
+      </c>
+      <c r="BK387">
+        <v>0</v>
+      </c>
+      <c r="BL387">
+        <v>9</v>
+      </c>
+      <c r="BM387">
+        <v>0</v>
+      </c>
+      <c r="BN387">
+        <v>0</v>
+      </c>
+      <c r="BO387">
+        <v>4</v>
+      </c>
+      <c r="BP387">
+        <v>2</v>
+      </c>
+      <c r="BQ387">
+        <v>2</v>
+      </c>
+      <c r="BR387">
+        <v>1</v>
+      </c>
+      <c r="BS387">
+        <v>0</v>
+      </c>
+      <c r="BT387">
+        <v>9</v>
+      </c>
+      <c r="BU387" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV387" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW387" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX387" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY387" t="s">
+        <v>244</v>
+      </c>
+      <c r="BZ387" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA387" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB387" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC387" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD387" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE387" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF387" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="388" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
+        <v>83</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C388" t="s">
+        <v>269</v>
+      </c>
+      <c r="D388" t="s">
+        <v>85</v>
+      </c>
+      <c r="E388" t="s">
+        <v>268</v>
+      </c>
+      <c r="F388" t="s">
+        <v>132</v>
+      </c>
+      <c r="G388" t="s">
+        <v>88</v>
+      </c>
+      <c r="H388" t="s">
+        <v>269</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+      <c r="O388">
+        <v>0</v>
+      </c>
+      <c r="P388">
+        <v>0</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+      <c r="R388">
+        <v>0</v>
+      </c>
+      <c r="S388">
+        <v>0</v>
+      </c>
+      <c r="T388">
+        <v>0</v>
+      </c>
+      <c r="U388">
+        <v>0</v>
+      </c>
+      <c r="V388">
+        <v>0</v>
+      </c>
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
+        <v>0</v>
+      </c>
+      <c r="AB388">
+        <v>0</v>
+      </c>
+      <c r="AC388">
+        <v>0</v>
+      </c>
+      <c r="AD388">
+        <v>0</v>
+      </c>
+      <c r="AE388">
+        <v>0</v>
+      </c>
+      <c r="AF388">
+        <v>0</v>
+      </c>
+      <c r="AG388">
+        <v>0</v>
+      </c>
+      <c r="AH388">
+        <v>0</v>
+      </c>
+      <c r="AI388">
+        <v>0</v>
+      </c>
+      <c r="AJ388">
+        <v>0</v>
+      </c>
+      <c r="AK388">
+        <v>0</v>
+      </c>
+      <c r="AL388">
+        <v>0</v>
+      </c>
+      <c r="AM388">
+        <v>0</v>
+      </c>
+      <c r="AN388">
+        <v>0</v>
+      </c>
+      <c r="AO388">
+        <v>0</v>
+      </c>
+      <c r="AP388">
+        <v>0</v>
+      </c>
+      <c r="AQ388">
+        <v>0</v>
+      </c>
+      <c r="AR388">
+        <v>0</v>
+      </c>
+      <c r="AS388">
+        <v>0</v>
+      </c>
+      <c r="AT388">
+        <v>0</v>
+      </c>
+      <c r="AU388">
+        <v>0</v>
+      </c>
+      <c r="AV388">
+        <v>0</v>
+      </c>
+      <c r="AW388">
+        <v>0</v>
+      </c>
+      <c r="AX388">
+        <v>0</v>
+      </c>
+      <c r="AY388">
+        <v>0</v>
+      </c>
+      <c r="AZ388">
+        <v>0</v>
+      </c>
+      <c r="BA388">
+        <v>0</v>
+      </c>
+      <c r="BB388">
+        <v>0</v>
+      </c>
+      <c r="BC388">
+        <v>0</v>
+      </c>
+      <c r="BD388">
+        <v>0</v>
+      </c>
+      <c r="BE388">
+        <v>0</v>
+      </c>
+      <c r="BF388">
+        <v>0</v>
+      </c>
+      <c r="BG388">
+        <v>0</v>
+      </c>
+      <c r="BH388">
+        <v>1</v>
+      </c>
+      <c r="BI388">
+        <v>2</v>
+      </c>
+      <c r="BJ388">
+        <v>0</v>
+      </c>
+      <c r="BK388">
+        <v>0</v>
+      </c>
+      <c r="BL388">
+        <v>3</v>
+      </c>
+      <c r="BM388">
+        <v>44</v>
+      </c>
+      <c r="BN388">
+        <v>31</v>
+      </c>
+      <c r="BO388">
+        <v>56</v>
+      </c>
+      <c r="BP388">
+        <v>304</v>
+      </c>
+      <c r="BQ388">
+        <v>837</v>
+      </c>
+      <c r="BR388">
+        <v>654</v>
+      </c>
+      <c r="BS388">
+        <v>621</v>
+      </c>
+      <c r="BT388">
+        <v>2547</v>
+      </c>
+      <c r="BU388" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV388" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW388" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX388" t="s">
+        <v>271</v>
+      </c>
+      <c r="BY388" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ388" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA388" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB388" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC388" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD388" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE388" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF388" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="389" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>83</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C389" t="s">
+        <v>269</v>
+      </c>
+      <c r="D389" t="s">
+        <v>85</v>
+      </c>
+      <c r="E389" t="s">
+        <v>234</v>
+      </c>
+      <c r="F389" t="s">
+        <v>102</v>
+      </c>
+      <c r="G389" t="s">
+        <v>88</v>
+      </c>
+      <c r="H389" t="s">
+        <v>404</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+      <c r="O389">
+        <v>1</v>
+      </c>
+      <c r="P389">
+        <v>1</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389">
+        <v>0</v>
+      </c>
+      <c r="S389">
+        <v>0</v>
+      </c>
+      <c r="T389">
+        <v>0</v>
+      </c>
+      <c r="U389">
+        <v>0</v>
+      </c>
+      <c r="V389">
+        <v>0</v>
+      </c>
+      <c r="W389">
+        <v>2</v>
+      </c>
+      <c r="X389">
+        <v>2</v>
+      </c>
+      <c r="Y389">
+        <v>0</v>
+      </c>
+      <c r="Z389">
+        <v>0</v>
+      </c>
+      <c r="AA389">
+        <v>0</v>
+      </c>
+      <c r="AB389">
+        <v>0</v>
+      </c>
+      <c r="AC389">
+        <v>0</v>
+      </c>
+      <c r="AD389">
+        <v>0</v>
+      </c>
+      <c r="AE389">
+        <v>0</v>
+      </c>
+      <c r="AF389">
+        <v>0</v>
+      </c>
+      <c r="AG389">
+        <v>0</v>
+      </c>
+      <c r="AH389">
+        <v>0</v>
+      </c>
+      <c r="AI389">
+        <v>0</v>
+      </c>
+      <c r="AJ389">
+        <v>0</v>
+      </c>
+      <c r="AK389">
+        <v>0</v>
+      </c>
+      <c r="AL389">
+        <v>0</v>
+      </c>
+      <c r="AM389">
+        <v>0</v>
+      </c>
+      <c r="AN389">
+        <v>0</v>
+      </c>
+      <c r="AO389">
+        <v>0</v>
+      </c>
+      <c r="AP389">
+        <v>0</v>
+      </c>
+      <c r="AQ389">
+        <v>0</v>
+      </c>
+      <c r="AR389">
+        <v>0</v>
+      </c>
+      <c r="AS389">
+        <v>0</v>
+      </c>
+      <c r="AT389">
+        <v>0</v>
+      </c>
+      <c r="AU389">
+        <v>0</v>
+      </c>
+      <c r="AV389">
+        <v>0</v>
+      </c>
+      <c r="AW389">
+        <v>0</v>
+      </c>
+      <c r="AX389">
+        <v>0</v>
+      </c>
+      <c r="AY389">
+        <v>0</v>
+      </c>
+      <c r="AZ389">
+        <v>0</v>
+      </c>
+      <c r="BA389">
+        <v>0</v>
+      </c>
+      <c r="BB389">
+        <v>0</v>
+      </c>
+      <c r="BC389">
+        <v>0</v>
+      </c>
+      <c r="BD389">
+        <v>0</v>
+      </c>
+      <c r="BE389">
+        <v>0</v>
+      </c>
+      <c r="BF389">
+        <v>1</v>
+      </c>
+      <c r="BG389">
+        <v>4</v>
+      </c>
+      <c r="BH389">
+        <v>2</v>
+      </c>
+      <c r="BI389">
+        <v>8</v>
+      </c>
+      <c r="BJ389">
+        <v>14</v>
+      </c>
+      <c r="BK389">
+        <v>6</v>
+      </c>
+      <c r="BL389">
+        <v>35</v>
+      </c>
+      <c r="BM389">
+        <v>1</v>
+      </c>
+      <c r="BN389">
+        <v>2</v>
+      </c>
+      <c r="BO389">
+        <v>8</v>
+      </c>
+      <c r="BP389">
+        <v>47</v>
+      </c>
+      <c r="BQ389">
+        <v>166</v>
+      </c>
+      <c r="BR389">
+        <v>186</v>
+      </c>
+      <c r="BS389">
+        <v>269</v>
+      </c>
+      <c r="BT389">
+        <v>679</v>
+      </c>
+      <c r="BU389" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV389" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW389" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX389" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY389" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ389" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA389" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB389" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC389" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD389" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE389" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF389" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="390" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
+        <v>83</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C390" t="s">
+        <v>269</v>
+      </c>
+      <c r="D390" t="s">
+        <v>85</v>
+      </c>
+      <c r="E390" t="s">
+        <v>101</v>
+      </c>
+      <c r="F390" t="s">
+        <v>102</v>
+      </c>
+      <c r="G390" t="s">
+        <v>88</v>
+      </c>
+      <c r="H390" t="s">
+        <v>728</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
+      <c r="P390">
+        <v>0</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+      <c r="R390">
+        <v>0</v>
+      </c>
+      <c r="S390">
+        <v>0</v>
+      </c>
+      <c r="T390">
+        <v>0</v>
+      </c>
+      <c r="U390">
+        <v>0</v>
+      </c>
+      <c r="V390">
+        <v>0</v>
+      </c>
+      <c r="W390">
+        <v>0</v>
+      </c>
+      <c r="X390">
+        <v>0</v>
+      </c>
+      <c r="Y390">
+        <v>0</v>
+      </c>
+      <c r="Z390">
+        <v>0</v>
+      </c>
+      <c r="AA390">
+        <v>0</v>
+      </c>
+      <c r="AB390">
+        <v>0</v>
+      </c>
+      <c r="AC390">
+        <v>0</v>
+      </c>
+      <c r="AD390">
+        <v>0</v>
+      </c>
+      <c r="AE390">
+        <v>0</v>
+      </c>
+      <c r="AF390">
+        <v>0</v>
+      </c>
+      <c r="AG390">
+        <v>0</v>
+      </c>
+      <c r="AH390">
+        <v>0</v>
+      </c>
+      <c r="AI390">
+        <v>0</v>
+      </c>
+      <c r="AJ390">
+        <v>0</v>
+      </c>
+      <c r="AK390">
+        <v>0</v>
+      </c>
+      <c r="AL390">
+        <v>0</v>
+      </c>
+      <c r="AM390">
+        <v>0</v>
+      </c>
+      <c r="AN390">
+        <v>0</v>
+      </c>
+      <c r="AO390">
+        <v>0</v>
+      </c>
+      <c r="AP390">
+        <v>0</v>
+      </c>
+      <c r="AQ390">
+        <v>0</v>
+      </c>
+      <c r="AR390">
+        <v>0</v>
+      </c>
+      <c r="AS390">
+        <v>0</v>
+      </c>
+      <c r="AT390">
+        <v>0</v>
+      </c>
+      <c r="AU390">
+        <v>0</v>
+      </c>
+      <c r="AV390">
+        <v>0</v>
+      </c>
+      <c r="AW390">
+        <v>0</v>
+      </c>
+      <c r="AX390">
+        <v>0</v>
+      </c>
+      <c r="AY390">
+        <v>0</v>
+      </c>
+      <c r="AZ390">
+        <v>0</v>
+      </c>
+      <c r="BA390">
+        <v>0</v>
+      </c>
+      <c r="BB390">
+        <v>0</v>
+      </c>
+      <c r="BC390">
+        <v>0</v>
+      </c>
+      <c r="BD390">
+        <v>0</v>
+      </c>
+      <c r="BE390">
+        <v>1</v>
+      </c>
+      <c r="BF390">
+        <v>2</v>
+      </c>
+      <c r="BG390">
+        <v>14</v>
+      </c>
+      <c r="BH390">
+        <v>6</v>
+      </c>
+      <c r="BI390">
+        <v>16</v>
+      </c>
+      <c r="BJ390">
+        <v>6</v>
+      </c>
+      <c r="BK390">
+        <v>4</v>
+      </c>
+      <c r="BL390">
+        <v>49</v>
+      </c>
+      <c r="BM390">
+        <v>41</v>
+      </c>
+      <c r="BN390">
+        <v>34</v>
+      </c>
+      <c r="BO390">
+        <v>95</v>
+      </c>
+      <c r="BP390">
+        <v>327</v>
+      </c>
+      <c r="BQ390">
+        <v>867</v>
+      </c>
+      <c r="BR390">
+        <v>953</v>
+      </c>
+      <c r="BS390">
+        <v>801</v>
+      </c>
+      <c r="BT390">
+        <v>3118</v>
+      </c>
+      <c r="BU390" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV390" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW390" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX390" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY390" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ390" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA390" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB390" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC390" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD390" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE390" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF390" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="391" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
+        <v>83</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C391" t="s">
+        <v>269</v>
+      </c>
+      <c r="D391" t="s">
+        <v>85</v>
+      </c>
+      <c r="E391" t="s">
+        <v>101</v>
+      </c>
+      <c r="F391" t="s">
+        <v>110</v>
+      </c>
+      <c r="G391" t="s">
+        <v>88</v>
+      </c>
+      <c r="H391" t="s">
+        <v>729</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+      <c r="R391">
+        <v>0</v>
+      </c>
+      <c r="S391">
+        <v>0</v>
+      </c>
+      <c r="T391">
+        <v>0</v>
+      </c>
+      <c r="U391">
+        <v>0</v>
+      </c>
+      <c r="V391">
+        <v>0</v>
+      </c>
+      <c r="W391">
+        <v>0</v>
+      </c>
+      <c r="X391">
+        <v>0</v>
+      </c>
+      <c r="Y391">
+        <v>0</v>
+      </c>
+      <c r="Z391">
+        <v>0</v>
+      </c>
+      <c r="AA391">
+        <v>0</v>
+      </c>
+      <c r="AB391">
+        <v>0</v>
+      </c>
+      <c r="AC391">
+        <v>0</v>
+      </c>
+      <c r="AD391">
+        <v>0</v>
+      </c>
+      <c r="AE391">
+        <v>0</v>
+      </c>
+      <c r="AF391">
+        <v>0</v>
+      </c>
+      <c r="AG391">
+        <v>0</v>
+      </c>
+      <c r="AH391">
+        <v>0</v>
+      </c>
+      <c r="AI391">
+        <v>0</v>
+      </c>
+      <c r="AJ391">
+        <v>0</v>
+      </c>
+      <c r="AK391">
+        <v>0</v>
+      </c>
+      <c r="AL391">
+        <v>0</v>
+      </c>
+      <c r="AM391">
+        <v>0</v>
+      </c>
+      <c r="AN391">
+        <v>0</v>
+      </c>
+      <c r="AO391">
+        <v>0</v>
+      </c>
+      <c r="AP391">
+        <v>0</v>
+      </c>
+      <c r="AQ391">
+        <v>0</v>
+      </c>
+      <c r="AR391">
+        <v>0</v>
+      </c>
+      <c r="AS391">
+        <v>0</v>
+      </c>
+      <c r="AT391">
+        <v>0</v>
+      </c>
+      <c r="AU391">
+        <v>0</v>
+      </c>
+      <c r="AV391">
+        <v>0</v>
+      </c>
+      <c r="AW391">
+        <v>0</v>
+      </c>
+      <c r="AX391">
+        <v>0</v>
+      </c>
+      <c r="AY391">
+        <v>0</v>
+      </c>
+      <c r="AZ391">
+        <v>0</v>
+      </c>
+      <c r="BA391">
+        <v>0</v>
+      </c>
+      <c r="BB391">
+        <v>0</v>
+      </c>
+      <c r="BC391">
+        <v>0</v>
+      </c>
+      <c r="BD391">
+        <v>0</v>
+      </c>
+      <c r="BE391">
+        <v>3</v>
+      </c>
+      <c r="BF391">
+        <v>5</v>
+      </c>
+      <c r="BG391">
+        <v>14</v>
+      </c>
+      <c r="BH391">
+        <v>7</v>
+      </c>
+      <c r="BI391">
+        <v>15</v>
+      </c>
+      <c r="BJ391">
+        <v>7</v>
+      </c>
+      <c r="BK391">
+        <v>3</v>
+      </c>
+      <c r="BL391">
+        <v>54</v>
+      </c>
+      <c r="BM391">
+        <v>28</v>
+      </c>
+      <c r="BN391">
+        <v>26</v>
+      </c>
+      <c r="BO391">
+        <v>117</v>
+      </c>
+      <c r="BP391">
+        <v>312</v>
+      </c>
+      <c r="BQ391">
+        <v>490</v>
+      </c>
+      <c r="BR391">
+        <v>653</v>
+      </c>
+      <c r="BS391">
+        <v>454</v>
+      </c>
+      <c r="BT391">
+        <v>2080</v>
+      </c>
+      <c r="BU391" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV391" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW391" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX391" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY391" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ391" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA391" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB391" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC391" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD391" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE391" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF391" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="392" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
+        <v>83</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C392" t="s">
+        <v>269</v>
+      </c>
+      <c r="D392" t="s">
+        <v>85</v>
+      </c>
+      <c r="E392" t="s">
+        <v>101</v>
+      </c>
+      <c r="F392" t="s">
+        <v>113</v>
+      </c>
+      <c r="G392" t="s">
+        <v>88</v>
+      </c>
+      <c r="H392" t="s">
+        <v>730</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392">
+        <v>1</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+      <c r="P392">
+        <v>5</v>
+      </c>
+      <c r="Q392">
+        <v>3</v>
+      </c>
+      <c r="R392">
+        <v>2</v>
+      </c>
+      <c r="S392">
+        <v>6</v>
+      </c>
+      <c r="T392">
+        <v>18</v>
+      </c>
+      <c r="U392">
+        <v>33</v>
+      </c>
+      <c r="V392">
+        <v>17</v>
+      </c>
+      <c r="W392">
+        <v>33</v>
+      </c>
+      <c r="X392">
+        <v>112</v>
+      </c>
+      <c r="Y392">
+        <v>0</v>
+      </c>
+      <c r="Z392">
+        <v>0</v>
+      </c>
+      <c r="AA392">
+        <v>0</v>
+      </c>
+      <c r="AB392">
+        <v>0</v>
+      </c>
+      <c r="AC392">
+        <v>0</v>
+      </c>
+      <c r="AD392">
+        <v>0</v>
+      </c>
+      <c r="AE392">
+        <v>1</v>
+      </c>
+      <c r="AF392">
+        <v>1</v>
+      </c>
+      <c r="AG392">
+        <v>1</v>
+      </c>
+      <c r="AH392">
+        <v>0</v>
+      </c>
+      <c r="AI392">
+        <v>0</v>
+      </c>
+      <c r="AJ392">
+        <v>9</v>
+      </c>
+      <c r="AK392">
+        <v>7</v>
+      </c>
+      <c r="AL392">
+        <v>6</v>
+      </c>
+      <c r="AM392">
+        <v>25</v>
+      </c>
+      <c r="AN392">
+        <v>48</v>
+      </c>
+      <c r="AO392">
+        <v>0</v>
+      </c>
+      <c r="AP392">
+        <v>0</v>
+      </c>
+      <c r="AQ392">
+        <v>0</v>
+      </c>
+      <c r="AR392">
+        <v>0</v>
+      </c>
+      <c r="AS392">
+        <v>0</v>
+      </c>
+      <c r="AT392">
+        <v>0</v>
+      </c>
+      <c r="AU392">
+        <v>0</v>
+      </c>
+      <c r="AV392">
+        <v>0</v>
+      </c>
+      <c r="AW392">
+        <v>0</v>
+      </c>
+      <c r="AX392">
+        <v>0</v>
+      </c>
+      <c r="AY392">
+        <v>0</v>
+      </c>
+      <c r="AZ392">
+        <v>0</v>
+      </c>
+      <c r="BA392">
+        <v>2</v>
+      </c>
+      <c r="BB392">
+        <v>3</v>
+      </c>
+      <c r="BC392">
+        <v>10</v>
+      </c>
+      <c r="BD392">
+        <v>15</v>
+      </c>
+      <c r="BE392">
+        <v>5</v>
+      </c>
+      <c r="BF392">
+        <v>5</v>
+      </c>
+      <c r="BG392">
+        <v>35</v>
+      </c>
+      <c r="BH392">
+        <v>19</v>
+      </c>
+      <c r="BI392">
+        <v>7</v>
+      </c>
+      <c r="BJ392">
+        <v>2</v>
+      </c>
+      <c r="BK392">
+        <v>3</v>
+      </c>
+      <c r="BL392">
+        <v>76</v>
+      </c>
+      <c r="BM392">
+        <v>41</v>
+      </c>
+      <c r="BN392">
+        <v>31</v>
+      </c>
+      <c r="BO392">
+        <v>161</v>
+      </c>
+      <c r="BP392">
+        <v>301</v>
+      </c>
+      <c r="BQ392">
+        <v>549</v>
+      </c>
+      <c r="BR392">
+        <v>312</v>
+      </c>
+      <c r="BS392">
+        <v>271</v>
+      </c>
+      <c r="BT392">
+        <v>1666</v>
+      </c>
+      <c r="BU392" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV392" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW392" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX392" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY392" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ392" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA392" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB392" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC392" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD392" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE392" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF392" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="393" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
+        <v>83</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C393" t="s">
+        <v>269</v>
+      </c>
+      <c r="D393" t="s">
+        <v>85</v>
+      </c>
+      <c r="E393" t="s">
+        <v>219</v>
+      </c>
+      <c r="F393" t="s">
+        <v>102</v>
+      </c>
+      <c r="G393" t="s">
+        <v>88</v>
+      </c>
+      <c r="H393" t="s">
+        <v>731</v>
+      </c>
+      <c r="I393">
+        <v>2</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393">
+        <v>1</v>
+      </c>
+      <c r="L393">
+        <v>5</v>
+      </c>
+      <c r="M393">
+        <v>3</v>
+      </c>
+      <c r="N393">
+        <v>1</v>
+      </c>
+      <c r="O393">
+        <v>3</v>
+      </c>
+      <c r="P393">
+        <v>16</v>
+      </c>
+      <c r="Q393">
+        <v>9</v>
+      </c>
+      <c r="R393">
+        <v>7</v>
+      </c>
+      <c r="S393">
+        <v>22</v>
+      </c>
+      <c r="T393">
+        <v>76</v>
+      </c>
+      <c r="U393">
+        <v>216</v>
+      </c>
+      <c r="V393">
+        <v>102</v>
+      </c>
+      <c r="W393">
+        <v>136</v>
+      </c>
+      <c r="X393">
+        <v>568</v>
+      </c>
+      <c r="Y393">
+        <v>0</v>
+      </c>
+      <c r="Z393">
+        <v>0</v>
+      </c>
+      <c r="AA393">
+        <v>0</v>
+      </c>
+      <c r="AB393">
+        <v>0</v>
+      </c>
+      <c r="AC393">
+        <v>0</v>
+      </c>
+      <c r="AD393">
+        <v>0</v>
+      </c>
+      <c r="AE393">
+        <v>0</v>
+      </c>
+      <c r="AF393">
+        <v>0</v>
+      </c>
+      <c r="AG393">
+        <v>0</v>
+      </c>
+      <c r="AH393">
+        <v>0</v>
+      </c>
+      <c r="AI393">
+        <v>0</v>
+      </c>
+      <c r="AJ393">
+        <v>1</v>
+      </c>
+      <c r="AK393">
+        <v>11</v>
+      </c>
+      <c r="AL393">
+        <v>9</v>
+      </c>
+      <c r="AM393">
+        <v>20</v>
+      </c>
+      <c r="AN393">
+        <v>41</v>
+      </c>
+      <c r="AO393">
+        <v>0</v>
+      </c>
+      <c r="AP393">
+        <v>0</v>
+      </c>
+      <c r="AQ393">
+        <v>0</v>
+      </c>
+      <c r="AR393">
+        <v>0</v>
+      </c>
+      <c r="AS393">
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <v>0</v>
+      </c>
+      <c r="AU393">
+        <v>1</v>
+      </c>
+      <c r="AV393">
+        <v>1</v>
+      </c>
+      <c r="AW393">
+        <v>0</v>
+      </c>
+      <c r="AX393">
+        <v>0</v>
+      </c>
+      <c r="AY393">
+        <v>1</v>
+      </c>
+      <c r="AZ393">
+        <v>0</v>
+      </c>
+      <c r="BA393">
+        <v>0</v>
+      </c>
+      <c r="BB393">
+        <v>4</v>
+      </c>
+      <c r="BC393">
+        <v>8</v>
+      </c>
+      <c r="BD393">
+        <v>13</v>
+      </c>
+      <c r="BE393">
+        <v>9</v>
+      </c>
+      <c r="BF393">
+        <v>4</v>
+      </c>
+      <c r="BG393">
+        <v>14</v>
+      </c>
+      <c r="BH393">
+        <v>6</v>
+      </c>
+      <c r="BI393">
+        <v>4</v>
+      </c>
+      <c r="BJ393">
+        <v>0</v>
+      </c>
+      <c r="BK393">
+        <v>1</v>
+      </c>
+      <c r="BL393">
+        <v>38</v>
+      </c>
+      <c r="BM393">
+        <v>53</v>
+      </c>
+      <c r="BN393">
+        <v>36</v>
+      </c>
+      <c r="BO393">
+        <v>116</v>
+      </c>
+      <c r="BP393">
+        <v>217</v>
+      </c>
+      <c r="BQ393">
+        <v>344</v>
+      </c>
+      <c r="BR393">
+        <v>199</v>
+      </c>
+      <c r="BS393">
+        <v>209</v>
+      </c>
+      <c r="BT393">
+        <v>1174</v>
+      </c>
+      <c r="BU393" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV393" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW393" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX393" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY393" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ393" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA393" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB393" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC393" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD393" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE393" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF393" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="394" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
+        <v>83</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C394" t="s">
+        <v>269</v>
+      </c>
+      <c r="D394" t="s">
+        <v>85</v>
+      </c>
+      <c r="E394" t="s">
+        <v>227</v>
+      </c>
+      <c r="F394" t="s">
+        <v>102</v>
+      </c>
+      <c r="G394" t="s">
+        <v>88</v>
+      </c>
+      <c r="H394" t="s">
+        <v>732</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+      <c r="O394">
+        <v>0</v>
+      </c>
+      <c r="P394">
+        <v>0</v>
+      </c>
+      <c r="Q394">
+        <v>0</v>
+      </c>
+      <c r="R394">
+        <v>0</v>
+      </c>
+      <c r="S394">
+        <v>0</v>
+      </c>
+      <c r="T394">
+        <v>1</v>
+      </c>
+      <c r="U394">
+        <v>1</v>
+      </c>
+      <c r="V394">
+        <v>7</v>
+      </c>
+      <c r="W394">
+        <v>6</v>
+      </c>
+      <c r="X394">
+        <v>15</v>
+      </c>
+      <c r="Y394">
+        <v>0</v>
+      </c>
+      <c r="Z394">
+        <v>0</v>
+      </c>
+      <c r="AA394">
+        <v>0</v>
+      </c>
+      <c r="AB394">
+        <v>0</v>
+      </c>
+      <c r="AC394">
+        <v>0</v>
+      </c>
+      <c r="AD394">
+        <v>0</v>
+      </c>
+      <c r="AE394">
+        <v>0</v>
+      </c>
+      <c r="AF394">
+        <v>0</v>
+      </c>
+      <c r="AG394">
+        <v>0</v>
+      </c>
+      <c r="AH394">
+        <v>0</v>
+      </c>
+      <c r="AI394">
+        <v>0</v>
+      </c>
+      <c r="AJ394">
+        <v>0</v>
+      </c>
+      <c r="AK394">
+        <v>0</v>
+      </c>
+      <c r="AL394">
+        <v>2</v>
+      </c>
+      <c r="AM394">
+        <v>4</v>
+      </c>
+      <c r="AN394">
+        <v>6</v>
+      </c>
+      <c r="AO394">
+        <v>0</v>
+      </c>
+      <c r="AP394">
+        <v>0</v>
+      </c>
+      <c r="AQ394">
+        <v>0</v>
+      </c>
+      <c r="AR394">
+        <v>0</v>
+      </c>
+      <c r="AS394">
+        <v>0</v>
+      </c>
+      <c r="AT394">
+        <v>0</v>
+      </c>
+      <c r="AU394">
+        <v>0</v>
+      </c>
+      <c r="AV394">
+        <v>0</v>
+      </c>
+      <c r="AW394">
+        <v>0</v>
+      </c>
+      <c r="AX394">
+        <v>0</v>
+      </c>
+      <c r="AY394">
+        <v>0</v>
+      </c>
+      <c r="AZ394">
+        <v>0</v>
+      </c>
+      <c r="BA394">
+        <v>1</v>
+      </c>
+      <c r="BB394">
+        <v>2</v>
+      </c>
+      <c r="BC394">
+        <v>1</v>
+      </c>
+      <c r="BD394">
+        <v>4</v>
+      </c>
+      <c r="BE394">
+        <v>0</v>
+      </c>
+      <c r="BF394">
+        <v>0</v>
+      </c>
+      <c r="BG394">
+        <v>0</v>
+      </c>
+      <c r="BH394">
+        <v>0</v>
+      </c>
+      <c r="BI394">
+        <v>0</v>
+      </c>
+      <c r="BJ394">
+        <v>0</v>
+      </c>
+      <c r="BK394">
+        <v>0</v>
+      </c>
+      <c r="BL394">
+        <v>0</v>
+      </c>
+      <c r="BM394">
+        <v>0</v>
+      </c>
+      <c r="BN394">
+        <v>0</v>
+      </c>
+      <c r="BO394">
+        <v>0</v>
+      </c>
+      <c r="BP394">
+        <v>0</v>
+      </c>
+      <c r="BQ394">
+        <v>0</v>
+      </c>
+      <c r="BR394">
+        <v>0</v>
+      </c>
+      <c r="BS394">
+        <v>0</v>
+      </c>
+      <c r="BT394">
+        <v>0</v>
+      </c>
+      <c r="BU394" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV394" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW394" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX394" t="s">
+        <v>579</v>
+      </c>
+      <c r="BY394" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ394" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA394" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB394" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC394" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD394" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE394" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF394" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="395" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
+        <v>83</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C395" t="s">
+        <v>269</v>
+      </c>
+      <c r="D395" t="s">
+        <v>85</v>
+      </c>
+      <c r="E395" t="s">
+        <v>213</v>
+      </c>
+      <c r="F395" t="s">
+        <v>102</v>
+      </c>
+      <c r="G395" t="s">
+        <v>88</v>
+      </c>
+      <c r="H395" t="s">
+        <v>733</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+      <c r="O395">
+        <v>0</v>
+      </c>
+      <c r="P395">
+        <v>1</v>
+      </c>
+      <c r="Q395">
+        <v>1</v>
+      </c>
+      <c r="R395">
+        <v>0</v>
+      </c>
+      <c r="S395">
+        <v>0</v>
+      </c>
+      <c r="T395">
+        <v>0</v>
+      </c>
+      <c r="U395">
+        <v>4</v>
+      </c>
+      <c r="V395">
+        <v>7</v>
+      </c>
+      <c r="W395">
+        <v>24</v>
+      </c>
+      <c r="X395">
+        <v>36</v>
+      </c>
+      <c r="Y395">
+        <v>0</v>
+      </c>
+      <c r="Z395">
+        <v>0</v>
+      </c>
+      <c r="AA395">
+        <v>0</v>
+      </c>
+      <c r="AB395">
+        <v>0</v>
+      </c>
+      <c r="AC395">
+        <v>0</v>
+      </c>
+      <c r="AD395">
+        <v>0</v>
+      </c>
+      <c r="AE395">
+        <v>0</v>
+      </c>
+      <c r="AF395">
+        <v>0</v>
+      </c>
+      <c r="AG395">
+        <v>0</v>
+      </c>
+      <c r="AH395">
+        <v>0</v>
+      </c>
+      <c r="AI395">
+        <v>0</v>
+      </c>
+      <c r="AJ395">
+        <v>0</v>
+      </c>
+      <c r="AK395">
+        <v>0</v>
+      </c>
+      <c r="AL395">
+        <v>0</v>
+      </c>
+      <c r="AM395">
+        <v>0</v>
+      </c>
+      <c r="AN395">
+        <v>0</v>
+      </c>
+      <c r="AO395">
+        <v>0</v>
+      </c>
+      <c r="AP395">
+        <v>0</v>
+      </c>
+      <c r="AQ395">
+        <v>0</v>
+      </c>
+      <c r="AR395">
+        <v>0</v>
+      </c>
+      <c r="AS395">
+        <v>0</v>
+      </c>
+      <c r="AT395">
+        <v>0</v>
+      </c>
+      <c r="AU395">
+        <v>0</v>
+      </c>
+      <c r="AV395">
+        <v>0</v>
+      </c>
+      <c r="AW395">
+        <v>0</v>
+      </c>
+      <c r="AX395">
+        <v>0</v>
+      </c>
+      <c r="AY395">
+        <v>0</v>
+      </c>
+      <c r="AZ395">
+        <v>0</v>
+      </c>
+      <c r="BA395">
+        <v>0</v>
+      </c>
+      <c r="BB395">
+        <v>0</v>
+      </c>
+      <c r="BC395">
+        <v>0</v>
+      </c>
+      <c r="BD395">
+        <v>0</v>
+      </c>
+      <c r="BE395">
+        <v>4</v>
+      </c>
+      <c r="BF395">
+        <v>1</v>
+      </c>
+      <c r="BG395">
+        <v>1</v>
+      </c>
+      <c r="BH395">
+        <v>0</v>
+      </c>
+      <c r="BI395">
+        <v>0</v>
+      </c>
+      <c r="BJ395">
+        <v>1</v>
+      </c>
+      <c r="BK395">
+        <v>0</v>
+      </c>
+      <c r="BL395">
+        <v>7</v>
+      </c>
+      <c r="BM395">
+        <v>15</v>
+      </c>
+      <c r="BN395">
+        <v>8</v>
+      </c>
+      <c r="BO395">
+        <v>15</v>
+      </c>
+      <c r="BP395">
+        <v>18</v>
+      </c>
+      <c r="BQ395">
+        <v>45</v>
+      </c>
+      <c r="BR395">
+        <v>41</v>
+      </c>
+      <c r="BS395">
+        <v>109</v>
+      </c>
+      <c r="BT395">
+        <v>251</v>
+      </c>
+      <c r="BU395" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV395" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW395" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX395" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY395" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ395" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA395" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB395" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC395" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD395" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE395" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF395" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="396" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
+        <v>83</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C396" t="s">
+        <v>269</v>
+      </c>
+      <c r="D396" t="s">
+        <v>85</v>
+      </c>
+      <c r="E396" t="s">
+        <v>256</v>
+      </c>
+      <c r="F396" t="s">
+        <v>102</v>
+      </c>
+      <c r="G396" t="s">
+        <v>88</v>
+      </c>
+      <c r="H396" t="s">
+        <v>414</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
+      <c r="P396">
+        <v>0</v>
+      </c>
+      <c r="Q396">
+        <v>0</v>
+      </c>
+      <c r="R396">
+        <v>0</v>
+      </c>
+      <c r="S396">
+        <v>0</v>
+      </c>
+      <c r="T396">
+        <v>0</v>
+      </c>
+      <c r="U396">
+        <v>5</v>
+      </c>
+      <c r="V396">
+        <v>5</v>
+      </c>
+      <c r="W396">
+        <v>22</v>
+      </c>
+      <c r="X396">
+        <v>32</v>
+      </c>
+      <c r="Y396">
+        <v>0</v>
+      </c>
+      <c r="Z396">
+        <v>0</v>
+      </c>
+      <c r="AA396">
+        <v>0</v>
+      </c>
+      <c r="AB396">
+        <v>0</v>
+      </c>
+      <c r="AC396">
+        <v>0</v>
+      </c>
+      <c r="AD396">
+        <v>0</v>
+      </c>
+      <c r="AE396">
+        <v>0</v>
+      </c>
+      <c r="AF396">
+        <v>0</v>
+      </c>
+      <c r="AG396">
+        <v>0</v>
+      </c>
+      <c r="AH396">
+        <v>0</v>
+      </c>
+      <c r="AI396">
+        <v>0</v>
+      </c>
+      <c r="AJ396">
+        <v>0</v>
+      </c>
+      <c r="AK396">
+        <v>0</v>
+      </c>
+      <c r="AL396">
+        <v>0</v>
+      </c>
+      <c r="AM396">
+        <v>0</v>
+      </c>
+      <c r="AN396">
+        <v>0</v>
+      </c>
+      <c r="AO396">
+        <v>0</v>
+      </c>
+      <c r="AP396">
+        <v>0</v>
+      </c>
+      <c r="AQ396">
+        <v>0</v>
+      </c>
+      <c r="AR396">
+        <v>0</v>
+      </c>
+      <c r="AS396">
+        <v>0</v>
+      </c>
+      <c r="AT396">
+        <v>0</v>
+      </c>
+      <c r="AU396">
+        <v>0</v>
+      </c>
+      <c r="AV396">
+        <v>0</v>
+      </c>
+      <c r="AW396">
+        <v>0</v>
+      </c>
+      <c r="AX396">
+        <v>0</v>
+      </c>
+      <c r="AY396">
+        <v>0</v>
+      </c>
+      <c r="AZ396">
+        <v>0</v>
+      </c>
+      <c r="BA396">
+        <v>0</v>
+      </c>
+      <c r="BB396">
+        <v>1</v>
+      </c>
+      <c r="BC396">
+        <v>0</v>
+      </c>
+      <c r="BD396">
+        <v>1</v>
+      </c>
+      <c r="BE396">
+        <v>0</v>
+      </c>
+      <c r="BF396">
+        <v>0</v>
+      </c>
+      <c r="BG396">
+        <v>0</v>
+      </c>
+      <c r="BH396">
+        <v>0</v>
+      </c>
+      <c r="BI396">
+        <v>0</v>
+      </c>
+      <c r="BJ396">
+        <v>0</v>
+      </c>
+      <c r="BK396">
+        <v>0</v>
+      </c>
+      <c r="BL396">
+        <v>0</v>
+      </c>
+      <c r="BM396">
+        <v>0</v>
+      </c>
+      <c r="BN396">
+        <v>0</v>
+      </c>
+      <c r="BO396">
+        <v>0</v>
+      </c>
+      <c r="BP396">
+        <v>0</v>
+      </c>
+      <c r="BQ396">
+        <v>8</v>
+      </c>
+      <c r="BR396">
+        <v>5</v>
+      </c>
+      <c r="BS396">
+        <v>11</v>
+      </c>
+      <c r="BT396">
+        <v>24</v>
+      </c>
+      <c r="BU396" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV396" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW396" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX396" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY396" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ396" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA396" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB396" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC396" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD396" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE396" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF396" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="397" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
+        <v>83</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C397" t="s">
+        <v>269</v>
+      </c>
+      <c r="D397" t="s">
+        <v>85</v>
+      </c>
+      <c r="E397" t="s">
+        <v>256</v>
+      </c>
+      <c r="F397" t="s">
+        <v>132</v>
+      </c>
+      <c r="G397" t="s">
+        <v>88</v>
+      </c>
+      <c r="H397" t="s">
+        <v>276</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>2</v>
+      </c>
+      <c r="K397">
+        <v>4</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+      <c r="O397">
+        <v>4</v>
+      </c>
+      <c r="P397">
+        <v>12</v>
+      </c>
+      <c r="Q397">
+        <v>5</v>
+      </c>
+      <c r="R397">
+        <v>5</v>
+      </c>
+      <c r="S397">
+        <v>17</v>
+      </c>
+      <c r="T397">
+        <v>9</v>
+      </c>
+      <c r="U397">
+        <v>14</v>
+      </c>
+      <c r="V397">
+        <v>18</v>
+      </c>
+      <c r="W397">
+        <v>95</v>
+      </c>
+      <c r="X397">
+        <v>163</v>
+      </c>
+      <c r="Y397">
+        <v>0</v>
+      </c>
+      <c r="Z397">
+        <v>0</v>
+      </c>
+      <c r="AA397">
+        <v>0</v>
+      </c>
+      <c r="AB397">
+        <v>0</v>
+      </c>
+      <c r="AC397">
+        <v>0</v>
+      </c>
+      <c r="AD397">
+        <v>0</v>
+      </c>
+      <c r="AE397">
+        <v>0</v>
+      </c>
+      <c r="AF397">
+        <v>0</v>
+      </c>
+      <c r="AG397">
+        <v>0</v>
+      </c>
+      <c r="AH397">
+        <v>0</v>
+      </c>
+      <c r="AI397">
+        <v>0</v>
+      </c>
+      <c r="AJ397">
+        <v>0</v>
+      </c>
+      <c r="AK397">
+        <v>0</v>
+      </c>
+      <c r="AL397">
+        <v>0</v>
+      </c>
+      <c r="AM397">
+        <v>0</v>
+      </c>
+      <c r="AN397">
+        <v>0</v>
+      </c>
+      <c r="AO397">
+        <v>0</v>
+      </c>
+      <c r="AP397">
+        <v>0</v>
+      </c>
+      <c r="AQ397">
+        <v>0</v>
+      </c>
+      <c r="AR397">
+        <v>0</v>
+      </c>
+      <c r="AS397">
+        <v>0</v>
+      </c>
+      <c r="AT397">
+        <v>0</v>
+      </c>
+      <c r="AU397">
+        <v>0</v>
+      </c>
+      <c r="AV397">
+        <v>0</v>
+      </c>
+      <c r="AW397">
+        <v>0</v>
+      </c>
+      <c r="AX397">
+        <v>0</v>
+      </c>
+      <c r="AY397">
+        <v>0</v>
+      </c>
+      <c r="AZ397">
+        <v>2</v>
+      </c>
+      <c r="BA397">
+        <v>2</v>
+      </c>
+      <c r="BB397">
+        <v>0</v>
+      </c>
+      <c r="BC397">
+        <v>35</v>
+      </c>
+      <c r="BD397">
+        <v>39</v>
+      </c>
+      <c r="BE397">
+        <v>4</v>
+      </c>
+      <c r="BF397">
+        <v>0</v>
+      </c>
+      <c r="BG397">
+        <v>18</v>
+      </c>
+      <c r="BH397">
+        <v>2</v>
+      </c>
+      <c r="BI397">
+        <v>1</v>
+      </c>
+      <c r="BJ397">
+        <v>1</v>
+      </c>
+      <c r="BK397">
+        <v>2</v>
+      </c>
+      <c r="BL397">
+        <v>28</v>
+      </c>
+      <c r="BM397">
+        <v>23</v>
+      </c>
+      <c r="BN397">
+        <v>15</v>
+      </c>
+      <c r="BO397">
+        <v>60</v>
+      </c>
+      <c r="BP397">
+        <v>44</v>
+      </c>
+      <c r="BQ397">
+        <v>45</v>
+      </c>
+      <c r="BR397">
+        <v>50</v>
+      </c>
+      <c r="BS397">
+        <v>133</v>
+      </c>
+      <c r="BT397">
+        <v>370</v>
+      </c>
+      <c r="BU397" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV397" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW397" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX397" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY397" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ397" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA397" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB397" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC397" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD397" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE397" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF397" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="398" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
+        <v>83</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C398" t="s">
+        <v>269</v>
+      </c>
+      <c r="D398" t="s">
+        <v>85</v>
+      </c>
+      <c r="E398" t="s">
+        <v>115</v>
+      </c>
+      <c r="F398" t="s">
+        <v>102</v>
+      </c>
+      <c r="G398" t="s">
+        <v>88</v>
+      </c>
+      <c r="H398" t="s">
+        <v>734</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+      <c r="O398">
+        <v>0</v>
+      </c>
+      <c r="P398">
+        <v>0</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+      <c r="R398">
+        <v>0</v>
+      </c>
+      <c r="S398">
+        <v>0</v>
+      </c>
+      <c r="T398">
+        <v>0</v>
+      </c>
+      <c r="U398">
+        <v>0</v>
+      </c>
+      <c r="V398">
+        <v>0</v>
+      </c>
+      <c r="W398">
+        <v>0</v>
+      </c>
+      <c r="X398">
+        <v>0</v>
+      </c>
+      <c r="Y398">
+        <v>0</v>
+      </c>
+      <c r="Z398">
+        <v>0</v>
+      </c>
+      <c r="AA398">
+        <v>0</v>
+      </c>
+      <c r="AB398">
+        <v>0</v>
+      </c>
+      <c r="AC398">
+        <v>0</v>
+      </c>
+      <c r="AD398">
+        <v>0</v>
+      </c>
+      <c r="AE398">
+        <v>0</v>
+      </c>
+      <c r="AF398">
+        <v>0</v>
+      </c>
+      <c r="AG398">
+        <v>0</v>
+      </c>
+      <c r="AH398">
+        <v>0</v>
+      </c>
+      <c r="AI398">
+        <v>0</v>
+      </c>
+      <c r="AJ398">
+        <v>0</v>
+      </c>
+      <c r="AK398">
+        <v>0</v>
+      </c>
+      <c r="AL398">
+        <v>0</v>
+      </c>
+      <c r="AM398">
+        <v>0</v>
+      </c>
+      <c r="AN398">
+        <v>0</v>
+      </c>
+      <c r="AO398">
+        <v>0</v>
+      </c>
+      <c r="AP398">
+        <v>0</v>
+      </c>
+      <c r="AQ398">
+        <v>0</v>
+      </c>
+      <c r="AR398">
+        <v>0</v>
+      </c>
+      <c r="AS398">
+        <v>0</v>
+      </c>
+      <c r="AT398">
+        <v>0</v>
+      </c>
+      <c r="AU398">
+        <v>0</v>
+      </c>
+      <c r="AV398">
+        <v>0</v>
+      </c>
+      <c r="AW398">
+        <v>0</v>
+      </c>
+      <c r="AX398">
+        <v>0</v>
+      </c>
+      <c r="AY398">
+        <v>0</v>
+      </c>
+      <c r="AZ398">
+        <v>0</v>
+      </c>
+      <c r="BA398">
+        <v>0</v>
+      </c>
+      <c r="BB398">
+        <v>0</v>
+      </c>
+      <c r="BC398">
+        <v>0</v>
+      </c>
+      <c r="BD398">
+        <v>0</v>
+      </c>
+      <c r="BE398">
+        <v>3</v>
+      </c>
+      <c r="BF398">
+        <v>0</v>
+      </c>
+      <c r="BG398">
+        <v>17</v>
+      </c>
+      <c r="BH398">
+        <v>6</v>
+      </c>
+      <c r="BI398">
+        <v>10</v>
+      </c>
+      <c r="BJ398">
+        <v>7</v>
+      </c>
+      <c r="BK398">
+        <v>37</v>
+      </c>
+      <c r="BL398">
+        <v>80</v>
+      </c>
+      <c r="BM398">
+        <v>37</v>
+      </c>
+      <c r="BN398">
+        <v>17</v>
+      </c>
+      <c r="BO398">
+        <v>48</v>
+      </c>
+      <c r="BP398">
+        <v>177</v>
+      </c>
+      <c r="BQ398">
+        <v>483</v>
+      </c>
+      <c r="BR398">
+        <v>625</v>
+      </c>
+      <c r="BS398">
+        <v>646</v>
+      </c>
+      <c r="BT398">
+        <v>2033</v>
+      </c>
+      <c r="BU398" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV398" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW398" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX398" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY398" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ398" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA398" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB398" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC398" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD398" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE398" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF398" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="399" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
+        <v>83</v>
+      </c>
+      <c r="B399" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C399" t="s">
+        <v>269</v>
+      </c>
+      <c r="D399" t="s">
+        <v>85</v>
+      </c>
+      <c r="E399" t="s">
+        <v>115</v>
+      </c>
+      <c r="F399" t="s">
+        <v>116</v>
+      </c>
+      <c r="G399" t="s">
+        <v>88</v>
+      </c>
+      <c r="H399" t="s">
+        <v>735</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+      <c r="O399">
+        <v>0</v>
+      </c>
+      <c r="P399">
+        <v>0</v>
+      </c>
+      <c r="Q399">
+        <v>0</v>
+      </c>
+      <c r="R399">
+        <v>0</v>
+      </c>
+      <c r="S399">
+        <v>0</v>
+      </c>
+      <c r="T399">
+        <v>0</v>
+      </c>
+      <c r="U399">
+        <v>0</v>
+      </c>
+      <c r="V399">
+        <v>0</v>
+      </c>
+      <c r="W399">
+        <v>0</v>
+      </c>
+      <c r="X399">
+        <v>0</v>
+      </c>
+      <c r="Y399">
+        <v>0</v>
+      </c>
+      <c r="Z399">
+        <v>0</v>
+      </c>
+      <c r="AA399">
+        <v>0</v>
+      </c>
+      <c r="AB399">
+        <v>0</v>
+      </c>
+      <c r="AC399">
+        <v>0</v>
+      </c>
+      <c r="AD399">
+        <v>0</v>
+      </c>
+      <c r="AE399">
+        <v>0</v>
+      </c>
+      <c r="AF399">
+        <v>0</v>
+      </c>
+      <c r="AG399">
+        <v>0</v>
+      </c>
+      <c r="AH399">
+        <v>0</v>
+      </c>
+      <c r="AI399">
+        <v>0</v>
+      </c>
+      <c r="AJ399">
+        <v>0</v>
+      </c>
+      <c r="AK399">
+        <v>0</v>
+      </c>
+      <c r="AL399">
+        <v>0</v>
+      </c>
+      <c r="AM399">
+        <v>0</v>
+      </c>
+      <c r="AN399">
+        <v>0</v>
+      </c>
+      <c r="AO399">
+        <v>0</v>
+      </c>
+      <c r="AP399">
+        <v>0</v>
+      </c>
+      <c r="AQ399">
+        <v>0</v>
+      </c>
+      <c r="AR399">
+        <v>0</v>
+      </c>
+      <c r="AS399">
+        <v>0</v>
+      </c>
+      <c r="AT399">
+        <v>0</v>
+      </c>
+      <c r="AU399">
+        <v>0</v>
+      </c>
+      <c r="AV399">
+        <v>0</v>
+      </c>
+      <c r="AW399">
+        <v>0</v>
+      </c>
+      <c r="AX399">
+        <v>0</v>
+      </c>
+      <c r="AY399">
+        <v>0</v>
+      </c>
+      <c r="AZ399">
+        <v>0</v>
+      </c>
+      <c r="BA399">
+        <v>0</v>
+      </c>
+      <c r="BB399">
+        <v>0</v>
+      </c>
+      <c r="BC399">
+        <v>0</v>
+      </c>
+      <c r="BD399">
+        <v>0</v>
+      </c>
+      <c r="BE399">
+        <v>7</v>
+      </c>
+      <c r="BF399">
+        <v>6</v>
+      </c>
+      <c r="BG399">
+        <v>25</v>
+      </c>
+      <c r="BH399">
+        <v>12</v>
+      </c>
+      <c r="BI399">
+        <v>15</v>
+      </c>
+      <c r="BJ399">
+        <v>11</v>
+      </c>
+      <c r="BK399">
+        <v>29</v>
+      </c>
+      <c r="BL399">
+        <v>105</v>
+      </c>
+      <c r="BM399">
+        <v>102</v>
+      </c>
+      <c r="BN399">
+        <v>60</v>
+      </c>
+      <c r="BO399">
+        <v>126</v>
+      </c>
+      <c r="BP399">
+        <v>312</v>
+      </c>
+      <c r="BQ399">
+        <v>620</v>
+      </c>
+      <c r="BR399">
+        <v>608</v>
+      </c>
+      <c r="BS399">
+        <v>496</v>
+      </c>
+      <c r="BT399">
+        <v>2324</v>
+      </c>
+      <c r="BU399" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV399" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW399" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX399" t="s">
+        <v>736</v>
+      </c>
+      <c r="BY399" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ399" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA399" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB399" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC399" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD399" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE399" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF399" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="400" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>83</v>
+      </c>
+      <c r="B400" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C400" t="s">
+        <v>269</v>
+      </c>
+      <c r="D400" t="s">
+        <v>85</v>
+      </c>
+      <c r="E400" t="s">
+        <v>188</v>
+      </c>
+      <c r="F400" t="s">
+        <v>102</v>
+      </c>
+      <c r="G400" t="s">
+        <v>88</v>
+      </c>
+      <c r="H400" t="s">
+        <v>737</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400">
+        <v>0</v>
+      </c>
+      <c r="P400">
+        <v>0</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+      <c r="R400">
+        <v>0</v>
+      </c>
+      <c r="S400">
+        <v>0</v>
+      </c>
+      <c r="T400">
+        <v>0</v>
+      </c>
+      <c r="U400">
+        <v>0</v>
+      </c>
+      <c r="V400">
+        <v>0</v>
+      </c>
+      <c r="W400">
+        <v>0</v>
+      </c>
+      <c r="X400">
+        <v>0</v>
+      </c>
+      <c r="Y400">
+        <v>0</v>
+      </c>
+      <c r="Z400">
+        <v>0</v>
+      </c>
+      <c r="AA400">
+        <v>0</v>
+      </c>
+      <c r="AB400">
+        <v>0</v>
+      </c>
+      <c r="AC400">
+        <v>0</v>
+      </c>
+      <c r="AD400">
+        <v>0</v>
+      </c>
+      <c r="AE400">
+        <v>0</v>
+      </c>
+      <c r="AF400">
+        <v>0</v>
+      </c>
+      <c r="AG400">
+        <v>0</v>
+      </c>
+      <c r="AH400">
+        <v>0</v>
+      </c>
+      <c r="AI400">
+        <v>0</v>
+      </c>
+      <c r="AJ400">
+        <v>0</v>
+      </c>
+      <c r="AK400">
+        <v>0</v>
+      </c>
+      <c r="AL400">
+        <v>0</v>
+      </c>
+      <c r="AM400">
+        <v>0</v>
+      </c>
+      <c r="AN400">
+        <v>0</v>
+      </c>
+      <c r="AO400">
+        <v>0</v>
+      </c>
+      <c r="AP400">
+        <v>0</v>
+      </c>
+      <c r="AQ400">
+        <v>0</v>
+      </c>
+      <c r="AR400">
+        <v>0</v>
+      </c>
+      <c r="AS400">
+        <v>0</v>
+      </c>
+      <c r="AT400">
+        <v>0</v>
+      </c>
+      <c r="AU400">
+        <v>0</v>
+      </c>
+      <c r="AV400">
+        <v>0</v>
+      </c>
+      <c r="AW400">
+        <v>0</v>
+      </c>
+      <c r="AX400">
+        <v>0</v>
+      </c>
+      <c r="AY400">
+        <v>0</v>
+      </c>
+      <c r="AZ400">
+        <v>0</v>
+      </c>
+      <c r="BA400">
+        <v>0</v>
+      </c>
+      <c r="BB400">
+        <v>0</v>
+      </c>
+      <c r="BC400">
+        <v>0</v>
+      </c>
+      <c r="BD400">
+        <v>0</v>
+      </c>
+      <c r="BE400">
+        <v>0</v>
+      </c>
+      <c r="BF400">
+        <v>0</v>
+      </c>
+      <c r="BG400">
+        <v>0</v>
+      </c>
+      <c r="BH400">
+        <v>0</v>
+      </c>
+      <c r="BI400">
+        <v>0</v>
+      </c>
+      <c r="BJ400">
+        <v>0</v>
+      </c>
+      <c r="BK400">
+        <v>1</v>
+      </c>
+      <c r="BL400">
+        <v>1</v>
+      </c>
+      <c r="BM400">
+        <v>0</v>
+      </c>
+      <c r="BN400">
+        <v>0</v>
+      </c>
+      <c r="BO400">
+        <v>0</v>
+      </c>
+      <c r="BP400">
+        <v>1</v>
+      </c>
+      <c r="BQ400">
+        <v>9</v>
+      </c>
+      <c r="BR400">
+        <v>17</v>
+      </c>
+      <c r="BS400">
+        <v>30</v>
+      </c>
+      <c r="BT400">
+        <v>57</v>
+      </c>
+      <c r="BU400" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV400" s="1">
+        <v>44648</v>
+      </c>
+      <c r="BW400" t="s">
+        <v>738</v>
+      </c>
+      <c r="BX400" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY400" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ400" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA400" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB400" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC400" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD400" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE400" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF400" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6A72FA-92EE-594E-BB93-8479B144FD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC75E76-0459-DE43-BEBC-AF67BA231AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7266" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7842" uniqueCount="770">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2239,6 +2239,96 @@
     <t>LEIDY JOHANA  GUTIERREZ</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>LINA MARCELA HENAO BUENO</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>YESENIA SALAZAR</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>AUXILAIR DE ESTADISTICA</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1166</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>AUILIAR ESTADISTICA</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>INFECCIONES Y VIGILANCIA EPIDE</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>AUX EN ENFERMERIA</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>PAOLA HERRERA</t>
+  </si>
+  <si>
+    <t>COVE</t>
+  </si>
+  <si>
+    <t>MARIANA LOPEZ</t>
+  </si>
+  <si>
+    <t>3402511</t>
+  </si>
+  <si>
+    <t>MARIANA.LOPEZ@CHRISTUS.CO</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2663,7 +2753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF400"/>
+  <dimension ref="A1:CF432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2682,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -104269,6 +104359,8134 @@
       </c>
       <c r="CF400" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="401" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
+        <v>83</v>
+      </c>
+      <c r="B401" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C401" t="s">
+        <v>289</v>
+      </c>
+      <c r="D401" t="s">
+        <v>85</v>
+      </c>
+      <c r="E401" t="s">
+        <v>278</v>
+      </c>
+      <c r="F401" t="s">
+        <v>102</v>
+      </c>
+      <c r="G401" t="s">
+        <v>88</v>
+      </c>
+      <c r="H401" t="s">
+        <v>739</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+      <c r="O401">
+        <v>0</v>
+      </c>
+      <c r="P401">
+        <v>0</v>
+      </c>
+      <c r="Q401">
+        <v>0</v>
+      </c>
+      <c r="R401">
+        <v>0</v>
+      </c>
+      <c r="S401">
+        <v>0</v>
+      </c>
+      <c r="T401">
+        <v>0</v>
+      </c>
+      <c r="U401">
+        <v>0</v>
+      </c>
+      <c r="V401">
+        <v>0</v>
+      </c>
+      <c r="W401">
+        <v>0</v>
+      </c>
+      <c r="X401">
+        <v>0</v>
+      </c>
+      <c r="Y401">
+        <v>0</v>
+      </c>
+      <c r="Z401">
+        <v>0</v>
+      </c>
+      <c r="AA401">
+        <v>0</v>
+      </c>
+      <c r="AB401">
+        <v>0</v>
+      </c>
+      <c r="AC401">
+        <v>0</v>
+      </c>
+      <c r="AD401">
+        <v>0</v>
+      </c>
+      <c r="AE401">
+        <v>0</v>
+      </c>
+      <c r="AF401">
+        <v>0</v>
+      </c>
+      <c r="AG401">
+        <v>0</v>
+      </c>
+      <c r="AH401">
+        <v>0</v>
+      </c>
+      <c r="AI401">
+        <v>0</v>
+      </c>
+      <c r="AJ401">
+        <v>0</v>
+      </c>
+      <c r="AK401">
+        <v>0</v>
+      </c>
+      <c r="AL401">
+        <v>0</v>
+      </c>
+      <c r="AM401">
+        <v>0</v>
+      </c>
+      <c r="AN401">
+        <v>0</v>
+      </c>
+      <c r="AO401">
+        <v>0</v>
+      </c>
+      <c r="AP401">
+        <v>0</v>
+      </c>
+      <c r="AQ401">
+        <v>0</v>
+      </c>
+      <c r="AR401">
+        <v>0</v>
+      </c>
+      <c r="AS401">
+        <v>0</v>
+      </c>
+      <c r="AT401">
+        <v>0</v>
+      </c>
+      <c r="AU401">
+        <v>0</v>
+      </c>
+      <c r="AV401">
+        <v>0</v>
+      </c>
+      <c r="AW401">
+        <v>0</v>
+      </c>
+      <c r="AX401">
+        <v>0</v>
+      </c>
+      <c r="AY401">
+        <v>0</v>
+      </c>
+      <c r="AZ401">
+        <v>0</v>
+      </c>
+      <c r="BA401">
+        <v>0</v>
+      </c>
+      <c r="BB401">
+        <v>0</v>
+      </c>
+      <c r="BC401">
+        <v>0</v>
+      </c>
+      <c r="BD401">
+        <v>0</v>
+      </c>
+      <c r="BE401">
+        <v>0</v>
+      </c>
+      <c r="BF401">
+        <v>0</v>
+      </c>
+      <c r="BG401">
+        <v>0</v>
+      </c>
+      <c r="BH401">
+        <v>0</v>
+      </c>
+      <c r="BI401">
+        <v>0</v>
+      </c>
+      <c r="BJ401">
+        <v>0</v>
+      </c>
+      <c r="BK401">
+        <v>1</v>
+      </c>
+      <c r="BL401">
+        <v>1</v>
+      </c>
+      <c r="BM401">
+        <v>0</v>
+      </c>
+      <c r="BN401">
+        <v>0</v>
+      </c>
+      <c r="BO401">
+        <v>0</v>
+      </c>
+      <c r="BP401">
+        <v>0</v>
+      </c>
+      <c r="BQ401">
+        <v>0</v>
+      </c>
+      <c r="BR401">
+        <v>0</v>
+      </c>
+      <c r="BS401">
+        <v>1</v>
+      </c>
+      <c r="BT401">
+        <v>1</v>
+      </c>
+      <c r="BU401" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV401" s="1">
+        <v>44652</v>
+      </c>
+      <c r="BW401" t="s">
+        <v>740</v>
+      </c>
+      <c r="BX401" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY401" t="s">
+        <v>281</v>
+      </c>
+      <c r="BZ401" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA401" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB401" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC401" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD401" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE401" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF401" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="402" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
+        <v>83</v>
+      </c>
+      <c r="B402" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C402" t="s">
+        <v>289</v>
+      </c>
+      <c r="D402" t="s">
+        <v>85</v>
+      </c>
+      <c r="E402" t="s">
+        <v>115</v>
+      </c>
+      <c r="F402" t="s">
+        <v>102</v>
+      </c>
+      <c r="G402" t="s">
+        <v>88</v>
+      </c>
+      <c r="H402" t="s">
+        <v>741</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+      <c r="P402">
+        <v>0</v>
+      </c>
+      <c r="Q402">
+        <v>0</v>
+      </c>
+      <c r="R402">
+        <v>0</v>
+      </c>
+      <c r="S402">
+        <v>0</v>
+      </c>
+      <c r="T402">
+        <v>0</v>
+      </c>
+      <c r="U402">
+        <v>0</v>
+      </c>
+      <c r="V402">
+        <v>0</v>
+      </c>
+      <c r="W402">
+        <v>0</v>
+      </c>
+      <c r="X402">
+        <v>0</v>
+      </c>
+      <c r="Y402">
+        <v>0</v>
+      </c>
+      <c r="Z402">
+        <v>0</v>
+      </c>
+      <c r="AA402">
+        <v>0</v>
+      </c>
+      <c r="AB402">
+        <v>0</v>
+      </c>
+      <c r="AC402">
+        <v>0</v>
+      </c>
+      <c r="AD402">
+        <v>0</v>
+      </c>
+      <c r="AE402">
+        <v>0</v>
+      </c>
+      <c r="AF402">
+        <v>0</v>
+      </c>
+      <c r="AG402">
+        <v>0</v>
+      </c>
+      <c r="AH402">
+        <v>0</v>
+      </c>
+      <c r="AI402">
+        <v>0</v>
+      </c>
+      <c r="AJ402">
+        <v>0</v>
+      </c>
+      <c r="AK402">
+        <v>0</v>
+      </c>
+      <c r="AL402">
+        <v>0</v>
+      </c>
+      <c r="AM402">
+        <v>0</v>
+      </c>
+      <c r="AN402">
+        <v>0</v>
+      </c>
+      <c r="AO402">
+        <v>0</v>
+      </c>
+      <c r="AP402">
+        <v>0</v>
+      </c>
+      <c r="AQ402">
+        <v>0</v>
+      </c>
+      <c r="AR402">
+        <v>0</v>
+      </c>
+      <c r="AS402">
+        <v>0</v>
+      </c>
+      <c r="AT402">
+        <v>0</v>
+      </c>
+      <c r="AU402">
+        <v>0</v>
+      </c>
+      <c r="AV402">
+        <v>0</v>
+      </c>
+      <c r="AW402">
+        <v>0</v>
+      </c>
+      <c r="AX402">
+        <v>0</v>
+      </c>
+      <c r="AY402">
+        <v>0</v>
+      </c>
+      <c r="AZ402">
+        <v>0</v>
+      </c>
+      <c r="BA402">
+        <v>0</v>
+      </c>
+      <c r="BB402">
+        <v>0</v>
+      </c>
+      <c r="BC402">
+        <v>0</v>
+      </c>
+      <c r="BD402">
+        <v>0</v>
+      </c>
+      <c r="BE402">
+        <v>4</v>
+      </c>
+      <c r="BF402">
+        <v>5</v>
+      </c>
+      <c r="BG402">
+        <v>20</v>
+      </c>
+      <c r="BH402">
+        <v>13</v>
+      </c>
+      <c r="BI402">
+        <v>9</v>
+      </c>
+      <c r="BJ402">
+        <v>14</v>
+      </c>
+      <c r="BK402">
+        <v>48</v>
+      </c>
+      <c r="BL402">
+        <v>113</v>
+      </c>
+      <c r="BM402">
+        <v>31</v>
+      </c>
+      <c r="BN402">
+        <v>22</v>
+      </c>
+      <c r="BO402">
+        <v>82</v>
+      </c>
+      <c r="BP402">
+        <v>195</v>
+      </c>
+      <c r="BQ402">
+        <v>434</v>
+      </c>
+      <c r="BR402">
+        <v>729</v>
+      </c>
+      <c r="BS402">
+        <v>934</v>
+      </c>
+      <c r="BT402">
+        <v>2427</v>
+      </c>
+      <c r="BU402" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV402" s="1">
+        <v>44653</v>
+      </c>
+      <c r="BW402" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX402" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY402" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ402" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA402" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB402" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC402" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD402" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE402" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF402" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="403" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
+        <v>83</v>
+      </c>
+      <c r="B403" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C403" t="s">
+        <v>289</v>
+      </c>
+      <c r="D403" t="s">
+        <v>85</v>
+      </c>
+      <c r="E403" t="s">
+        <v>181</v>
+      </c>
+      <c r="F403" t="s">
+        <v>146</v>
+      </c>
+      <c r="G403" t="s">
+        <v>88</v>
+      </c>
+      <c r="H403" t="s">
+        <v>276</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+      <c r="O403">
+        <v>0</v>
+      </c>
+      <c r="P403">
+        <v>0</v>
+      </c>
+      <c r="Q403">
+        <v>0</v>
+      </c>
+      <c r="R403">
+        <v>0</v>
+      </c>
+      <c r="S403">
+        <v>0</v>
+      </c>
+      <c r="T403">
+        <v>0</v>
+      </c>
+      <c r="U403">
+        <v>0</v>
+      </c>
+      <c r="V403">
+        <v>0</v>
+      </c>
+      <c r="W403">
+        <v>0</v>
+      </c>
+      <c r="X403">
+        <v>0</v>
+      </c>
+      <c r="Y403">
+        <v>0</v>
+      </c>
+      <c r="Z403">
+        <v>0</v>
+      </c>
+      <c r="AA403">
+        <v>0</v>
+      </c>
+      <c r="AB403">
+        <v>0</v>
+      </c>
+      <c r="AC403">
+        <v>0</v>
+      </c>
+      <c r="AD403">
+        <v>0</v>
+      </c>
+      <c r="AE403">
+        <v>0</v>
+      </c>
+      <c r="AF403">
+        <v>0</v>
+      </c>
+      <c r="AG403">
+        <v>0</v>
+      </c>
+      <c r="AH403">
+        <v>0</v>
+      </c>
+      <c r="AI403">
+        <v>0</v>
+      </c>
+      <c r="AJ403">
+        <v>0</v>
+      </c>
+      <c r="AK403">
+        <v>0</v>
+      </c>
+      <c r="AL403">
+        <v>0</v>
+      </c>
+      <c r="AM403">
+        <v>0</v>
+      </c>
+      <c r="AN403">
+        <v>0</v>
+      </c>
+      <c r="AO403">
+        <v>0</v>
+      </c>
+      <c r="AP403">
+        <v>0</v>
+      </c>
+      <c r="AQ403">
+        <v>0</v>
+      </c>
+      <c r="AR403">
+        <v>0</v>
+      </c>
+      <c r="AS403">
+        <v>0</v>
+      </c>
+      <c r="AT403">
+        <v>0</v>
+      </c>
+      <c r="AU403">
+        <v>0</v>
+      </c>
+      <c r="AV403">
+        <v>0</v>
+      </c>
+      <c r="AW403">
+        <v>0</v>
+      </c>
+      <c r="AX403">
+        <v>0</v>
+      </c>
+      <c r="AY403">
+        <v>0</v>
+      </c>
+      <c r="AZ403">
+        <v>0</v>
+      </c>
+      <c r="BA403">
+        <v>0</v>
+      </c>
+      <c r="BB403">
+        <v>0</v>
+      </c>
+      <c r="BC403">
+        <v>0</v>
+      </c>
+      <c r="BD403">
+        <v>0</v>
+      </c>
+      <c r="BE403">
+        <v>5</v>
+      </c>
+      <c r="BF403">
+        <v>2</v>
+      </c>
+      <c r="BG403">
+        <v>11</v>
+      </c>
+      <c r="BH403">
+        <v>4</v>
+      </c>
+      <c r="BI403">
+        <v>6</v>
+      </c>
+      <c r="BJ403">
+        <v>5</v>
+      </c>
+      <c r="BK403">
+        <v>4</v>
+      </c>
+      <c r="BL403">
+        <v>37</v>
+      </c>
+      <c r="BM403">
+        <v>13</v>
+      </c>
+      <c r="BN403">
+        <v>8</v>
+      </c>
+      <c r="BO403">
+        <v>43</v>
+      </c>
+      <c r="BP403">
+        <v>154</v>
+      </c>
+      <c r="BQ403">
+        <v>373</v>
+      </c>
+      <c r="BR403">
+        <v>718</v>
+      </c>
+      <c r="BS403">
+        <v>2223</v>
+      </c>
+      <c r="BT403">
+        <v>3532</v>
+      </c>
+      <c r="BU403" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV403" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX403" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY403" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ403" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA403" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB403" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC403" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD403" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE403" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF403" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="404" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>83</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C404" t="s">
+        <v>289</v>
+      </c>
+      <c r="D404" t="s">
+        <v>85</v>
+      </c>
+      <c r="E404" t="s">
+        <v>166</v>
+      </c>
+      <c r="F404" t="s">
+        <v>102</v>
+      </c>
+      <c r="G404" t="s">
+        <v>88</v>
+      </c>
+      <c r="H404" t="s">
+        <v>742</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
+      <c r="P404">
+        <v>0</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+      <c r="R404">
+        <v>0</v>
+      </c>
+      <c r="S404">
+        <v>0</v>
+      </c>
+      <c r="T404">
+        <v>0</v>
+      </c>
+      <c r="U404">
+        <v>0</v>
+      </c>
+      <c r="V404">
+        <v>0</v>
+      </c>
+      <c r="W404">
+        <v>0</v>
+      </c>
+      <c r="X404">
+        <v>0</v>
+      </c>
+      <c r="Y404">
+        <v>0</v>
+      </c>
+      <c r="Z404">
+        <v>0</v>
+      </c>
+      <c r="AA404">
+        <v>0</v>
+      </c>
+      <c r="AB404">
+        <v>0</v>
+      </c>
+      <c r="AC404">
+        <v>0</v>
+      </c>
+      <c r="AD404">
+        <v>0</v>
+      </c>
+      <c r="AE404">
+        <v>0</v>
+      </c>
+      <c r="AF404">
+        <v>0</v>
+      </c>
+      <c r="AG404">
+        <v>0</v>
+      </c>
+      <c r="AH404">
+        <v>0</v>
+      </c>
+      <c r="AI404">
+        <v>0</v>
+      </c>
+      <c r="AJ404">
+        <v>0</v>
+      </c>
+      <c r="AK404">
+        <v>0</v>
+      </c>
+      <c r="AL404">
+        <v>0</v>
+      </c>
+      <c r="AM404">
+        <v>0</v>
+      </c>
+      <c r="AN404">
+        <v>0</v>
+      </c>
+      <c r="AO404">
+        <v>0</v>
+      </c>
+      <c r="AP404">
+        <v>0</v>
+      </c>
+      <c r="AQ404">
+        <v>0</v>
+      </c>
+      <c r="AR404">
+        <v>0</v>
+      </c>
+      <c r="AS404">
+        <v>0</v>
+      </c>
+      <c r="AT404">
+        <v>0</v>
+      </c>
+      <c r="AU404">
+        <v>0</v>
+      </c>
+      <c r="AV404">
+        <v>0</v>
+      </c>
+      <c r="AW404">
+        <v>0</v>
+      </c>
+      <c r="AX404">
+        <v>0</v>
+      </c>
+      <c r="AY404">
+        <v>0</v>
+      </c>
+      <c r="AZ404">
+        <v>0</v>
+      </c>
+      <c r="BA404">
+        <v>0</v>
+      </c>
+      <c r="BB404">
+        <v>0</v>
+      </c>
+      <c r="BC404">
+        <v>0</v>
+      </c>
+      <c r="BD404">
+        <v>0</v>
+      </c>
+      <c r="BE404">
+        <v>0</v>
+      </c>
+      <c r="BF404">
+        <v>0</v>
+      </c>
+      <c r="BG404">
+        <v>0</v>
+      </c>
+      <c r="BH404">
+        <v>1</v>
+      </c>
+      <c r="BI404">
+        <v>1</v>
+      </c>
+      <c r="BJ404">
+        <v>1</v>
+      </c>
+      <c r="BK404">
+        <v>0</v>
+      </c>
+      <c r="BL404">
+        <v>3</v>
+      </c>
+      <c r="BM404">
+        <v>3</v>
+      </c>
+      <c r="BN404">
+        <v>0</v>
+      </c>
+      <c r="BO404">
+        <v>1</v>
+      </c>
+      <c r="BP404">
+        <v>139</v>
+      </c>
+      <c r="BQ404">
+        <v>245</v>
+      </c>
+      <c r="BR404">
+        <v>486</v>
+      </c>
+      <c r="BS404">
+        <v>592</v>
+      </c>
+      <c r="BT404">
+        <v>1466</v>
+      </c>
+      <c r="BU404" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV404" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW404" t="s">
+        <v>285</v>
+      </c>
+      <c r="BX404" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY404" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ404" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA404" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB404" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC404" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD404" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE404" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF404" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="405" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
+        <v>83</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C405" t="s">
+        <v>289</v>
+      </c>
+      <c r="D405" t="s">
+        <v>85</v>
+      </c>
+      <c r="E405" t="s">
+        <v>204</v>
+      </c>
+      <c r="F405" t="s">
+        <v>102</v>
+      </c>
+      <c r="G405" t="s">
+        <v>88</v>
+      </c>
+      <c r="H405" t="s">
+        <v>743</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+      <c r="O405">
+        <v>0</v>
+      </c>
+      <c r="P405">
+        <v>0</v>
+      </c>
+      <c r="Q405">
+        <v>0</v>
+      </c>
+      <c r="R405">
+        <v>0</v>
+      </c>
+      <c r="S405">
+        <v>0</v>
+      </c>
+      <c r="T405">
+        <v>0</v>
+      </c>
+      <c r="U405">
+        <v>0</v>
+      </c>
+      <c r="V405">
+        <v>0</v>
+      </c>
+      <c r="W405">
+        <v>0</v>
+      </c>
+      <c r="X405">
+        <v>0</v>
+      </c>
+      <c r="Y405">
+        <v>0</v>
+      </c>
+      <c r="Z405">
+        <v>0</v>
+      </c>
+      <c r="AA405">
+        <v>0</v>
+      </c>
+      <c r="AB405">
+        <v>0</v>
+      </c>
+      <c r="AC405">
+        <v>0</v>
+      </c>
+      <c r="AD405">
+        <v>0</v>
+      </c>
+      <c r="AE405">
+        <v>0</v>
+      </c>
+      <c r="AF405">
+        <v>0</v>
+      </c>
+      <c r="AG405">
+        <v>0</v>
+      </c>
+      <c r="AH405">
+        <v>0</v>
+      </c>
+      <c r="AI405">
+        <v>0</v>
+      </c>
+      <c r="AJ405">
+        <v>0</v>
+      </c>
+      <c r="AK405">
+        <v>0</v>
+      </c>
+      <c r="AL405">
+        <v>0</v>
+      </c>
+      <c r="AM405">
+        <v>0</v>
+      </c>
+      <c r="AN405">
+        <v>0</v>
+      </c>
+      <c r="AO405">
+        <v>0</v>
+      </c>
+      <c r="AP405">
+        <v>0</v>
+      </c>
+      <c r="AQ405">
+        <v>0</v>
+      </c>
+      <c r="AR405">
+        <v>0</v>
+      </c>
+      <c r="AS405">
+        <v>0</v>
+      </c>
+      <c r="AT405">
+        <v>0</v>
+      </c>
+      <c r="AU405">
+        <v>0</v>
+      </c>
+      <c r="AV405">
+        <v>0</v>
+      </c>
+      <c r="AW405">
+        <v>0</v>
+      </c>
+      <c r="AX405">
+        <v>0</v>
+      </c>
+      <c r="AY405">
+        <v>0</v>
+      </c>
+      <c r="AZ405">
+        <v>0</v>
+      </c>
+      <c r="BA405">
+        <v>0</v>
+      </c>
+      <c r="BB405">
+        <v>0</v>
+      </c>
+      <c r="BC405">
+        <v>0</v>
+      </c>
+      <c r="BD405">
+        <v>0</v>
+      </c>
+      <c r="BE405">
+        <v>1</v>
+      </c>
+      <c r="BF405">
+        <v>3</v>
+      </c>
+      <c r="BG405">
+        <v>19</v>
+      </c>
+      <c r="BH405">
+        <v>26</v>
+      </c>
+      <c r="BI405">
+        <v>3</v>
+      </c>
+      <c r="BJ405">
+        <v>5</v>
+      </c>
+      <c r="BK405">
+        <v>14</v>
+      </c>
+      <c r="BL405">
+        <v>71</v>
+      </c>
+      <c r="BM405">
+        <v>1</v>
+      </c>
+      <c r="BN405">
+        <v>3</v>
+      </c>
+      <c r="BO405">
+        <v>19</v>
+      </c>
+      <c r="BP405">
+        <v>26</v>
+      </c>
+      <c r="BQ405">
+        <v>3</v>
+      </c>
+      <c r="BR405">
+        <v>5</v>
+      </c>
+      <c r="BS405">
+        <v>14</v>
+      </c>
+      <c r="BT405">
+        <v>71</v>
+      </c>
+      <c r="BU405" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV405" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW405" t="s">
+        <v>744</v>
+      </c>
+      <c r="BX405" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY405" t="s">
+        <v>674</v>
+      </c>
+      <c r="BZ405" t="s">
+        <v>405</v>
+      </c>
+      <c r="CA405" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB405" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC405" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD405" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE405" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF405" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="406" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B406" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C406" t="s">
+        <v>289</v>
+      </c>
+      <c r="D406" t="s">
+        <v>85</v>
+      </c>
+      <c r="E406" t="s">
+        <v>123</v>
+      </c>
+      <c r="F406" t="s">
+        <v>102</v>
+      </c>
+      <c r="G406" t="s">
+        <v>88</v>
+      </c>
+      <c r="H406" t="s">
+        <v>745</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+      <c r="O406">
+        <v>0</v>
+      </c>
+      <c r="P406">
+        <v>0</v>
+      </c>
+      <c r="Q406">
+        <v>1</v>
+      </c>
+      <c r="R406">
+        <v>1</v>
+      </c>
+      <c r="S406">
+        <v>1</v>
+      </c>
+      <c r="T406">
+        <v>0</v>
+      </c>
+      <c r="U406">
+        <v>0</v>
+      </c>
+      <c r="V406">
+        <v>0</v>
+      </c>
+      <c r="W406">
+        <v>0</v>
+      </c>
+      <c r="X406">
+        <v>3</v>
+      </c>
+      <c r="Y406">
+        <v>0</v>
+      </c>
+      <c r="Z406">
+        <v>0</v>
+      </c>
+      <c r="AA406">
+        <v>0</v>
+      </c>
+      <c r="AB406">
+        <v>0</v>
+      </c>
+      <c r="AC406">
+        <v>0</v>
+      </c>
+      <c r="AD406">
+        <v>0</v>
+      </c>
+      <c r="AE406">
+        <v>0</v>
+      </c>
+      <c r="AF406">
+        <v>0</v>
+      </c>
+      <c r="AG406">
+        <v>0</v>
+      </c>
+      <c r="AH406">
+        <v>0</v>
+      </c>
+      <c r="AI406">
+        <v>0</v>
+      </c>
+      <c r="AJ406">
+        <v>0</v>
+      </c>
+      <c r="AK406">
+        <v>0</v>
+      </c>
+      <c r="AL406">
+        <v>0</v>
+      </c>
+      <c r="AM406">
+        <v>0</v>
+      </c>
+      <c r="AN406">
+        <v>0</v>
+      </c>
+      <c r="AO406">
+        <v>0</v>
+      </c>
+      <c r="AP406">
+        <v>0</v>
+      </c>
+      <c r="AQ406">
+        <v>0</v>
+      </c>
+      <c r="AR406">
+        <v>0</v>
+      </c>
+      <c r="AS406">
+        <v>0</v>
+      </c>
+      <c r="AT406">
+        <v>0</v>
+      </c>
+      <c r="AU406">
+        <v>0</v>
+      </c>
+      <c r="AV406">
+        <v>0</v>
+      </c>
+      <c r="AW406">
+        <v>0</v>
+      </c>
+      <c r="AX406">
+        <v>0</v>
+      </c>
+      <c r="AY406">
+        <v>0</v>
+      </c>
+      <c r="AZ406">
+        <v>0</v>
+      </c>
+      <c r="BA406">
+        <v>0</v>
+      </c>
+      <c r="BB406">
+        <v>0</v>
+      </c>
+      <c r="BC406">
+        <v>0</v>
+      </c>
+      <c r="BD406">
+        <v>0</v>
+      </c>
+      <c r="BE406">
+        <v>4</v>
+      </c>
+      <c r="BF406">
+        <v>5</v>
+      </c>
+      <c r="BG406">
+        <v>7</v>
+      </c>
+      <c r="BH406">
+        <v>8</v>
+      </c>
+      <c r="BI406">
+        <v>1</v>
+      </c>
+      <c r="BJ406">
+        <v>4</v>
+      </c>
+      <c r="BK406">
+        <v>5</v>
+      </c>
+      <c r="BL406">
+        <v>34</v>
+      </c>
+      <c r="BM406">
+        <v>15</v>
+      </c>
+      <c r="BN406">
+        <v>33</v>
+      </c>
+      <c r="BO406">
+        <v>24</v>
+      </c>
+      <c r="BP406">
+        <v>25</v>
+      </c>
+      <c r="BQ406">
+        <v>27</v>
+      </c>
+      <c r="BR406">
+        <v>31</v>
+      </c>
+      <c r="BS406">
+        <v>11</v>
+      </c>
+      <c r="BT406">
+        <v>166</v>
+      </c>
+      <c r="BU406" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV406" s="1">
+        <v>44654</v>
+      </c>
+      <c r="BW406" t="s">
+        <v>407</v>
+      </c>
+      <c r="BX406" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY406" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ406" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA406" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB406" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC406" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD406" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE406" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF406" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="407" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
+        <v>83</v>
+      </c>
+      <c r="B407" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C407" t="s">
+        <v>269</v>
+      </c>
+      <c r="D407" t="s">
+        <v>85</v>
+      </c>
+      <c r="E407" t="s">
+        <v>181</v>
+      </c>
+      <c r="F407" t="s">
+        <v>289</v>
+      </c>
+      <c r="G407" t="s">
+        <v>88</v>
+      </c>
+      <c r="H407" t="s">
+        <v>478</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+      <c r="O407">
+        <v>0</v>
+      </c>
+      <c r="P407">
+        <v>0</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407">
+        <v>0</v>
+      </c>
+      <c r="S407">
+        <v>0</v>
+      </c>
+      <c r="T407">
+        <v>0</v>
+      </c>
+      <c r="U407">
+        <v>0</v>
+      </c>
+      <c r="V407">
+        <v>0</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>0</v>
+      </c>
+      <c r="Y407">
+        <v>0</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407">
+        <v>0</v>
+      </c>
+      <c r="AB407">
+        <v>0</v>
+      </c>
+      <c r="AC407">
+        <v>0</v>
+      </c>
+      <c r="AD407">
+        <v>0</v>
+      </c>
+      <c r="AE407">
+        <v>0</v>
+      </c>
+      <c r="AF407">
+        <v>0</v>
+      </c>
+      <c r="AG407">
+        <v>0</v>
+      </c>
+      <c r="AH407">
+        <v>0</v>
+      </c>
+      <c r="AI407">
+        <v>0</v>
+      </c>
+      <c r="AJ407">
+        <v>0</v>
+      </c>
+      <c r="AK407">
+        <v>0</v>
+      </c>
+      <c r="AL407">
+        <v>0</v>
+      </c>
+      <c r="AM407">
+        <v>0</v>
+      </c>
+      <c r="AN407">
+        <v>0</v>
+      </c>
+      <c r="AO407">
+        <v>0</v>
+      </c>
+      <c r="AP407">
+        <v>0</v>
+      </c>
+      <c r="AQ407">
+        <v>0</v>
+      </c>
+      <c r="AR407">
+        <v>0</v>
+      </c>
+      <c r="AS407">
+        <v>0</v>
+      </c>
+      <c r="AT407">
+        <v>0</v>
+      </c>
+      <c r="AU407">
+        <v>0</v>
+      </c>
+      <c r="AV407">
+        <v>0</v>
+      </c>
+      <c r="AW407">
+        <v>0</v>
+      </c>
+      <c r="AX407">
+        <v>0</v>
+      </c>
+      <c r="AY407">
+        <v>0</v>
+      </c>
+      <c r="AZ407">
+        <v>0</v>
+      </c>
+      <c r="BA407">
+        <v>0</v>
+      </c>
+      <c r="BB407">
+        <v>0</v>
+      </c>
+      <c r="BC407">
+        <v>0</v>
+      </c>
+      <c r="BD407">
+        <v>0</v>
+      </c>
+      <c r="BE407">
+        <v>2</v>
+      </c>
+      <c r="BF407">
+        <v>0</v>
+      </c>
+      <c r="BG407">
+        <v>1</v>
+      </c>
+      <c r="BH407">
+        <v>2</v>
+      </c>
+      <c r="BI407">
+        <v>0</v>
+      </c>
+      <c r="BJ407">
+        <v>0</v>
+      </c>
+      <c r="BK407">
+        <v>0</v>
+      </c>
+      <c r="BL407">
+        <v>5</v>
+      </c>
+      <c r="BM407">
+        <v>13</v>
+      </c>
+      <c r="BN407">
+        <v>0</v>
+      </c>
+      <c r="BO407">
+        <v>21</v>
+      </c>
+      <c r="BP407">
+        <v>77</v>
+      </c>
+      <c r="BQ407">
+        <v>180</v>
+      </c>
+      <c r="BR407">
+        <v>487</v>
+      </c>
+      <c r="BS407">
+        <v>1050</v>
+      </c>
+      <c r="BT407">
+        <v>1828</v>
+      </c>
+      <c r="BU407" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV407" s="1">
+        <v>44649</v>
+      </c>
+      <c r="BW407" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX407" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY407" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ407" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA407" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB407" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC407" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD407" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE407" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF407" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="408" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
+        <v>83</v>
+      </c>
+      <c r="B408" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C408" t="s">
+        <v>289</v>
+      </c>
+      <c r="D408" t="s">
+        <v>85</v>
+      </c>
+      <c r="E408" t="s">
+        <v>101</v>
+      </c>
+      <c r="F408" t="s">
+        <v>102</v>
+      </c>
+      <c r="G408" t="s">
+        <v>88</v>
+      </c>
+      <c r="H408" t="s">
+        <v>746</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="P408">
+        <v>0</v>
+      </c>
+      <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>0</v>
+      </c>
+      <c r="S408">
+        <v>0</v>
+      </c>
+      <c r="T408">
+        <v>0</v>
+      </c>
+      <c r="U408">
+        <v>0</v>
+      </c>
+      <c r="V408">
+        <v>0</v>
+      </c>
+      <c r="W408">
+        <v>0</v>
+      </c>
+      <c r="X408">
+        <v>0</v>
+      </c>
+      <c r="Y408">
+        <v>0</v>
+      </c>
+      <c r="Z408">
+        <v>0</v>
+      </c>
+      <c r="AA408">
+        <v>0</v>
+      </c>
+      <c r="AB408">
+        <v>0</v>
+      </c>
+      <c r="AC408">
+        <v>0</v>
+      </c>
+      <c r="AD408">
+        <v>0</v>
+      </c>
+      <c r="AE408">
+        <v>0</v>
+      </c>
+      <c r="AF408">
+        <v>0</v>
+      </c>
+      <c r="AG408">
+        <v>0</v>
+      </c>
+      <c r="AH408">
+        <v>0</v>
+      </c>
+      <c r="AI408">
+        <v>0</v>
+      </c>
+      <c r="AJ408">
+        <v>0</v>
+      </c>
+      <c r="AK408">
+        <v>0</v>
+      </c>
+      <c r="AL408">
+        <v>0</v>
+      </c>
+      <c r="AM408">
+        <v>0</v>
+      </c>
+      <c r="AN408">
+        <v>0</v>
+      </c>
+      <c r="AO408">
+        <v>0</v>
+      </c>
+      <c r="AP408">
+        <v>0</v>
+      </c>
+      <c r="AQ408">
+        <v>0</v>
+      </c>
+      <c r="AR408">
+        <v>0</v>
+      </c>
+      <c r="AS408">
+        <v>0</v>
+      </c>
+      <c r="AT408">
+        <v>0</v>
+      </c>
+      <c r="AU408">
+        <v>0</v>
+      </c>
+      <c r="AV408">
+        <v>0</v>
+      </c>
+      <c r="AW408">
+        <v>0</v>
+      </c>
+      <c r="AX408">
+        <v>0</v>
+      </c>
+      <c r="AY408">
+        <v>0</v>
+      </c>
+      <c r="AZ408">
+        <v>0</v>
+      </c>
+      <c r="BA408">
+        <v>0</v>
+      </c>
+      <c r="BB408">
+        <v>0</v>
+      </c>
+      <c r="BC408">
+        <v>0</v>
+      </c>
+      <c r="BD408">
+        <v>0</v>
+      </c>
+      <c r="BE408">
+        <v>3</v>
+      </c>
+      <c r="BF408">
+        <v>1</v>
+      </c>
+      <c r="BG408">
+        <v>17</v>
+      </c>
+      <c r="BH408">
+        <v>15</v>
+      </c>
+      <c r="BI408">
+        <v>18</v>
+      </c>
+      <c r="BJ408">
+        <v>7</v>
+      </c>
+      <c r="BK408">
+        <v>7</v>
+      </c>
+      <c r="BL408">
+        <v>68</v>
+      </c>
+      <c r="BM408">
+        <v>44</v>
+      </c>
+      <c r="BN408">
+        <v>29</v>
+      </c>
+      <c r="BO408">
+        <v>121</v>
+      </c>
+      <c r="BP408">
+        <v>472</v>
+      </c>
+      <c r="BQ408">
+        <v>1091</v>
+      </c>
+      <c r="BR408">
+        <v>1288</v>
+      </c>
+      <c r="BS408">
+        <v>1107</v>
+      </c>
+      <c r="BT408">
+        <v>4152</v>
+      </c>
+      <c r="BU408" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV408" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW408" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX408" t="s">
+        <v>747</v>
+      </c>
+      <c r="BY408" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ408" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA408" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB408" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC408" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD408" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE408" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF408" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="409" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>83</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C409" t="s">
+        <v>289</v>
+      </c>
+      <c r="D409" t="s">
+        <v>85</v>
+      </c>
+      <c r="E409" t="s">
+        <v>101</v>
+      </c>
+      <c r="F409" t="s">
+        <v>110</v>
+      </c>
+      <c r="G409" t="s">
+        <v>88</v>
+      </c>
+      <c r="H409" t="s">
+        <v>748</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
+      <c r="Q409">
+        <v>0</v>
+      </c>
+      <c r="R409">
+        <v>0</v>
+      </c>
+      <c r="S409">
+        <v>0</v>
+      </c>
+      <c r="T409">
+        <v>0</v>
+      </c>
+      <c r="U409">
+        <v>0</v>
+      </c>
+      <c r="V409">
+        <v>0</v>
+      </c>
+      <c r="W409">
+        <v>0</v>
+      </c>
+      <c r="X409">
+        <v>0</v>
+      </c>
+      <c r="Y409">
+        <v>0</v>
+      </c>
+      <c r="Z409">
+        <v>0</v>
+      </c>
+      <c r="AA409">
+        <v>0</v>
+      </c>
+      <c r="AB409">
+        <v>0</v>
+      </c>
+      <c r="AC409">
+        <v>0</v>
+      </c>
+      <c r="AD409">
+        <v>0</v>
+      </c>
+      <c r="AE409">
+        <v>0</v>
+      </c>
+      <c r="AF409">
+        <v>0</v>
+      </c>
+      <c r="AG409">
+        <v>0</v>
+      </c>
+      <c r="AH409">
+        <v>0</v>
+      </c>
+      <c r="AI409">
+        <v>0</v>
+      </c>
+      <c r="AJ409">
+        <v>0</v>
+      </c>
+      <c r="AK409">
+        <v>0</v>
+      </c>
+      <c r="AL409">
+        <v>0</v>
+      </c>
+      <c r="AM409">
+        <v>0</v>
+      </c>
+      <c r="AN409">
+        <v>0</v>
+      </c>
+      <c r="AO409">
+        <v>0</v>
+      </c>
+      <c r="AP409">
+        <v>0</v>
+      </c>
+      <c r="AQ409">
+        <v>0</v>
+      </c>
+      <c r="AR409">
+        <v>0</v>
+      </c>
+      <c r="AS409">
+        <v>0</v>
+      </c>
+      <c r="AT409">
+        <v>0</v>
+      </c>
+      <c r="AU409">
+        <v>0</v>
+      </c>
+      <c r="AV409">
+        <v>0</v>
+      </c>
+      <c r="AW409">
+        <v>0</v>
+      </c>
+      <c r="AX409">
+        <v>0</v>
+      </c>
+      <c r="AY409">
+        <v>0</v>
+      </c>
+      <c r="AZ409">
+        <v>0</v>
+      </c>
+      <c r="BA409">
+        <v>0</v>
+      </c>
+      <c r="BB409">
+        <v>0</v>
+      </c>
+      <c r="BC409">
+        <v>0</v>
+      </c>
+      <c r="BD409">
+        <v>0</v>
+      </c>
+      <c r="BE409">
+        <v>2</v>
+      </c>
+      <c r="BF409">
+        <v>4</v>
+      </c>
+      <c r="BG409">
+        <v>16</v>
+      </c>
+      <c r="BH409">
+        <v>2</v>
+      </c>
+      <c r="BI409">
+        <v>14</v>
+      </c>
+      <c r="BJ409">
+        <v>10</v>
+      </c>
+      <c r="BK409">
+        <v>0</v>
+      </c>
+      <c r="BL409">
+        <v>48</v>
+      </c>
+      <c r="BM409">
+        <v>31</v>
+      </c>
+      <c r="BN409">
+        <v>30</v>
+      </c>
+      <c r="BO409">
+        <v>127</v>
+      </c>
+      <c r="BP409">
+        <v>353</v>
+      </c>
+      <c r="BQ409">
+        <v>602</v>
+      </c>
+      <c r="BR409">
+        <v>720</v>
+      </c>
+      <c r="BS409">
+        <v>531</v>
+      </c>
+      <c r="BT409">
+        <v>2394</v>
+      </c>
+      <c r="BU409" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV409" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW409" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX409" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY409" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ409" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA409" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB409" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC409" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD409" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE409" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF409" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="410" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>83</v>
+      </c>
+      <c r="B410" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C410" t="s">
+        <v>289</v>
+      </c>
+      <c r="D410" t="s">
+        <v>85</v>
+      </c>
+      <c r="E410" t="s">
+        <v>101</v>
+      </c>
+      <c r="F410" t="s">
+        <v>113</v>
+      </c>
+      <c r="G410" t="s">
+        <v>88</v>
+      </c>
+      <c r="H410" t="s">
+        <v>749</v>
+      </c>
+      <c r="I410">
+        <v>2</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>2</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+      <c r="O410">
+        <v>2</v>
+      </c>
+      <c r="P410">
+        <v>7</v>
+      </c>
+      <c r="Q410">
+        <v>3</v>
+      </c>
+      <c r="R410">
+        <v>1</v>
+      </c>
+      <c r="S410">
+        <v>6</v>
+      </c>
+      <c r="T410">
+        <v>21</v>
+      </c>
+      <c r="U410">
+        <v>38</v>
+      </c>
+      <c r="V410">
+        <v>31</v>
+      </c>
+      <c r="W410">
+        <v>56</v>
+      </c>
+      <c r="X410">
+        <v>156</v>
+      </c>
+      <c r="Y410">
+        <v>0</v>
+      </c>
+      <c r="Z410">
+        <v>0</v>
+      </c>
+      <c r="AA410">
+        <v>0</v>
+      </c>
+      <c r="AB410">
+        <v>0</v>
+      </c>
+      <c r="AC410">
+        <v>0</v>
+      </c>
+      <c r="AD410">
+        <v>0</v>
+      </c>
+      <c r="AE410">
+        <v>0</v>
+      </c>
+      <c r="AF410">
+        <v>0</v>
+      </c>
+      <c r="AG410">
+        <v>3</v>
+      </c>
+      <c r="AH410">
+        <v>1</v>
+      </c>
+      <c r="AI410">
+        <v>1</v>
+      </c>
+      <c r="AJ410">
+        <v>9</v>
+      </c>
+      <c r="AK410">
+        <v>3</v>
+      </c>
+      <c r="AL410">
+        <v>13</v>
+      </c>
+      <c r="AM410">
+        <v>27</v>
+      </c>
+      <c r="AN410">
+        <v>57</v>
+      </c>
+      <c r="AO410">
+        <v>0</v>
+      </c>
+      <c r="AP410">
+        <v>0</v>
+      </c>
+      <c r="AQ410">
+        <v>0</v>
+      </c>
+      <c r="AR410">
+        <v>0</v>
+      </c>
+      <c r="AS410">
+        <v>0</v>
+      </c>
+      <c r="AT410">
+        <v>0</v>
+      </c>
+      <c r="AU410">
+        <v>1</v>
+      </c>
+      <c r="AV410">
+        <v>1</v>
+      </c>
+      <c r="AW410">
+        <v>0</v>
+      </c>
+      <c r="AX410">
+        <v>0</v>
+      </c>
+      <c r="AY410">
+        <v>0</v>
+      </c>
+      <c r="AZ410">
+        <v>0</v>
+      </c>
+      <c r="BA410">
+        <v>2</v>
+      </c>
+      <c r="BB410">
+        <v>1</v>
+      </c>
+      <c r="BC410">
+        <v>10</v>
+      </c>
+      <c r="BD410">
+        <v>13</v>
+      </c>
+      <c r="BE410">
+        <v>7</v>
+      </c>
+      <c r="BF410">
+        <v>8</v>
+      </c>
+      <c r="BG410">
+        <v>29</v>
+      </c>
+      <c r="BH410">
+        <v>14</v>
+      </c>
+      <c r="BI410">
+        <v>6</v>
+      </c>
+      <c r="BJ410">
+        <v>2</v>
+      </c>
+      <c r="BK410">
+        <v>3</v>
+      </c>
+      <c r="BL410">
+        <v>69</v>
+      </c>
+      <c r="BM410">
+        <v>35</v>
+      </c>
+      <c r="BN410">
+        <v>46</v>
+      </c>
+      <c r="BO410">
+        <v>151</v>
+      </c>
+      <c r="BP410">
+        <v>276</v>
+      </c>
+      <c r="BQ410">
+        <v>505</v>
+      </c>
+      <c r="BR410">
+        <v>325</v>
+      </c>
+      <c r="BS410">
+        <v>288</v>
+      </c>
+      <c r="BT410">
+        <v>1626</v>
+      </c>
+      <c r="BU410" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV410" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW410" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX410" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY410" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ410" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA410" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB410" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC410" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD410" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE410" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF410" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="411" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>83</v>
+      </c>
+      <c r="B411" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C411" t="s">
+        <v>289</v>
+      </c>
+      <c r="D411" t="s">
+        <v>85</v>
+      </c>
+      <c r="E411" t="s">
+        <v>131</v>
+      </c>
+      <c r="F411" t="s">
+        <v>102</v>
+      </c>
+      <c r="G411" t="s">
+        <v>88</v>
+      </c>
+      <c r="H411" t="s">
+        <v>750</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+      <c r="O411">
+        <v>1</v>
+      </c>
+      <c r="P411">
+        <v>1</v>
+      </c>
+      <c r="Q411">
+        <v>1</v>
+      </c>
+      <c r="R411">
+        <v>0</v>
+      </c>
+      <c r="S411">
+        <v>2</v>
+      </c>
+      <c r="T411">
+        <v>1</v>
+      </c>
+      <c r="U411">
+        <v>3</v>
+      </c>
+      <c r="V411">
+        <v>2</v>
+      </c>
+      <c r="W411">
+        <v>6</v>
+      </c>
+      <c r="X411">
+        <v>15</v>
+      </c>
+      <c r="Y411">
+        <v>0</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411">
+        <v>0</v>
+      </c>
+      <c r="AB411">
+        <v>0</v>
+      </c>
+      <c r="AC411">
+        <v>0</v>
+      </c>
+      <c r="AD411">
+        <v>0</v>
+      </c>
+      <c r="AE411">
+        <v>0</v>
+      </c>
+      <c r="AF411">
+        <v>0</v>
+      </c>
+      <c r="AG411">
+        <v>0</v>
+      </c>
+      <c r="AH411">
+        <v>0</v>
+      </c>
+      <c r="AI411">
+        <v>0</v>
+      </c>
+      <c r="AJ411">
+        <v>0</v>
+      </c>
+      <c r="AK411">
+        <v>0</v>
+      </c>
+      <c r="AL411">
+        <v>0</v>
+      </c>
+      <c r="AM411">
+        <v>0</v>
+      </c>
+      <c r="AN411">
+        <v>0</v>
+      </c>
+      <c r="AO411">
+        <v>0</v>
+      </c>
+      <c r="AP411">
+        <v>0</v>
+      </c>
+      <c r="AQ411">
+        <v>0</v>
+      </c>
+      <c r="AR411">
+        <v>0</v>
+      </c>
+      <c r="AS411">
+        <v>0</v>
+      </c>
+      <c r="AT411">
+        <v>0</v>
+      </c>
+      <c r="AU411">
+        <v>0</v>
+      </c>
+      <c r="AV411">
+        <v>0</v>
+      </c>
+      <c r="AW411">
+        <v>0</v>
+      </c>
+      <c r="AX411">
+        <v>0</v>
+      </c>
+      <c r="AY411">
+        <v>0</v>
+      </c>
+      <c r="AZ411">
+        <v>0</v>
+      </c>
+      <c r="BA411">
+        <v>0</v>
+      </c>
+      <c r="BB411">
+        <v>0</v>
+      </c>
+      <c r="BC411">
+        <v>0</v>
+      </c>
+      <c r="BD411">
+        <v>0</v>
+      </c>
+      <c r="BE411">
+        <v>5</v>
+      </c>
+      <c r="BF411">
+        <v>1</v>
+      </c>
+      <c r="BG411">
+        <v>14</v>
+      </c>
+      <c r="BH411">
+        <v>3</v>
+      </c>
+      <c r="BI411">
+        <v>2</v>
+      </c>
+      <c r="BJ411">
+        <v>1</v>
+      </c>
+      <c r="BK411">
+        <v>4</v>
+      </c>
+      <c r="BL411">
+        <v>30</v>
+      </c>
+      <c r="BM411">
+        <v>25</v>
+      </c>
+      <c r="BN411">
+        <v>19</v>
+      </c>
+      <c r="BO411">
+        <v>42</v>
+      </c>
+      <c r="BP411">
+        <v>137</v>
+      </c>
+      <c r="BQ411">
+        <v>141</v>
+      </c>
+      <c r="BR411">
+        <v>156</v>
+      </c>
+      <c r="BS411">
+        <v>236</v>
+      </c>
+      <c r="BT411">
+        <v>756</v>
+      </c>
+      <c r="BU411" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV411" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW411" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX411" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY411" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ411" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA411" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB411" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC411" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD411" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE411" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF411" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="412" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>83</v>
+      </c>
+      <c r="B412" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C412" t="s">
+        <v>289</v>
+      </c>
+      <c r="D412" t="s">
+        <v>85</v>
+      </c>
+      <c r="E412" t="s">
+        <v>131</v>
+      </c>
+      <c r="F412" t="s">
+        <v>376</v>
+      </c>
+      <c r="G412" t="s">
+        <v>88</v>
+      </c>
+      <c r="H412" t="s">
+        <v>751</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412">
+        <v>0</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
+      <c r="Q412">
+        <v>0</v>
+      </c>
+      <c r="R412">
+        <v>0</v>
+      </c>
+      <c r="S412">
+        <v>0</v>
+      </c>
+      <c r="T412">
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <v>0</v>
+      </c>
+      <c r="V412">
+        <v>0</v>
+      </c>
+      <c r="W412">
+        <v>0</v>
+      </c>
+      <c r="X412">
+        <v>0</v>
+      </c>
+      <c r="Y412">
+        <v>0</v>
+      </c>
+      <c r="Z412">
+        <v>0</v>
+      </c>
+      <c r="AA412">
+        <v>0</v>
+      </c>
+      <c r="AB412">
+        <v>0</v>
+      </c>
+      <c r="AC412">
+        <v>0</v>
+      </c>
+      <c r="AD412">
+        <v>0</v>
+      </c>
+      <c r="AE412">
+        <v>0</v>
+      </c>
+      <c r="AF412">
+        <v>0</v>
+      </c>
+      <c r="AG412">
+        <v>0</v>
+      </c>
+      <c r="AH412">
+        <v>0</v>
+      </c>
+      <c r="AI412">
+        <v>0</v>
+      </c>
+      <c r="AJ412">
+        <v>0</v>
+      </c>
+      <c r="AK412">
+        <v>0</v>
+      </c>
+      <c r="AL412">
+        <v>0</v>
+      </c>
+      <c r="AM412">
+        <v>0</v>
+      </c>
+      <c r="AN412">
+        <v>0</v>
+      </c>
+      <c r="AO412">
+        <v>0</v>
+      </c>
+      <c r="AP412">
+        <v>0</v>
+      </c>
+      <c r="AQ412">
+        <v>0</v>
+      </c>
+      <c r="AR412">
+        <v>0</v>
+      </c>
+      <c r="AS412">
+        <v>0</v>
+      </c>
+      <c r="AT412">
+        <v>0</v>
+      </c>
+      <c r="AU412">
+        <v>0</v>
+      </c>
+      <c r="AV412">
+        <v>0</v>
+      </c>
+      <c r="AW412">
+        <v>0</v>
+      </c>
+      <c r="AX412">
+        <v>0</v>
+      </c>
+      <c r="AY412">
+        <v>0</v>
+      </c>
+      <c r="AZ412">
+        <v>0</v>
+      </c>
+      <c r="BA412">
+        <v>0</v>
+      </c>
+      <c r="BB412">
+        <v>0</v>
+      </c>
+      <c r="BC412">
+        <v>0</v>
+      </c>
+      <c r="BD412">
+        <v>0</v>
+      </c>
+      <c r="BE412">
+        <v>0</v>
+      </c>
+      <c r="BF412">
+        <v>0</v>
+      </c>
+      <c r="BG412">
+        <v>0</v>
+      </c>
+      <c r="BH412">
+        <v>0</v>
+      </c>
+      <c r="BI412">
+        <v>0</v>
+      </c>
+      <c r="BJ412">
+        <v>1</v>
+      </c>
+      <c r="BK412">
+        <v>0</v>
+      </c>
+      <c r="BL412">
+        <v>1</v>
+      </c>
+      <c r="BM412">
+        <v>10</v>
+      </c>
+      <c r="BN412">
+        <v>8</v>
+      </c>
+      <c r="BO412">
+        <v>18</v>
+      </c>
+      <c r="BP412">
+        <v>62</v>
+      </c>
+      <c r="BQ412">
+        <v>70</v>
+      </c>
+      <c r="BR412">
+        <v>62</v>
+      </c>
+      <c r="BS412">
+        <v>54</v>
+      </c>
+      <c r="BT412">
+        <v>284</v>
+      </c>
+      <c r="BU412" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV412" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW412" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX412" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY412" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ412" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA412" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB412" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC412" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD412" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE412" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF412" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="413" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>83</v>
+      </c>
+      <c r="B413" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C413" t="s">
+        <v>289</v>
+      </c>
+      <c r="D413" t="s">
+        <v>85</v>
+      </c>
+      <c r="E413" t="s">
+        <v>131</v>
+      </c>
+      <c r="F413" t="s">
+        <v>337</v>
+      </c>
+      <c r="G413" t="s">
+        <v>88</v>
+      </c>
+      <c r="H413" t="s">
+        <v>752</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413">
+        <v>0</v>
+      </c>
+      <c r="P413">
+        <v>0</v>
+      </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
+      <c r="R413">
+        <v>0</v>
+      </c>
+      <c r="S413">
+        <v>0</v>
+      </c>
+      <c r="T413">
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <v>0</v>
+      </c>
+      <c r="V413">
+        <v>0</v>
+      </c>
+      <c r="W413">
+        <v>0</v>
+      </c>
+      <c r="X413">
+        <v>0</v>
+      </c>
+      <c r="Y413">
+        <v>0</v>
+      </c>
+      <c r="Z413">
+        <v>0</v>
+      </c>
+      <c r="AA413">
+        <v>0</v>
+      </c>
+      <c r="AB413">
+        <v>0</v>
+      </c>
+      <c r="AC413">
+        <v>0</v>
+      </c>
+      <c r="AD413">
+        <v>0</v>
+      </c>
+      <c r="AE413">
+        <v>0</v>
+      </c>
+      <c r="AF413">
+        <v>0</v>
+      </c>
+      <c r="AG413">
+        <v>0</v>
+      </c>
+      <c r="AH413">
+        <v>0</v>
+      </c>
+      <c r="AI413">
+        <v>0</v>
+      </c>
+      <c r="AJ413">
+        <v>0</v>
+      </c>
+      <c r="AK413">
+        <v>0</v>
+      </c>
+      <c r="AL413">
+        <v>0</v>
+      </c>
+      <c r="AM413">
+        <v>0</v>
+      </c>
+      <c r="AN413">
+        <v>0</v>
+      </c>
+      <c r="AO413">
+        <v>0</v>
+      </c>
+      <c r="AP413">
+        <v>0</v>
+      </c>
+      <c r="AQ413">
+        <v>0</v>
+      </c>
+      <c r="AR413">
+        <v>0</v>
+      </c>
+      <c r="AS413">
+        <v>0</v>
+      </c>
+      <c r="AT413">
+        <v>0</v>
+      </c>
+      <c r="AU413">
+        <v>0</v>
+      </c>
+      <c r="AV413">
+        <v>0</v>
+      </c>
+      <c r="AW413">
+        <v>0</v>
+      </c>
+      <c r="AX413">
+        <v>0</v>
+      </c>
+      <c r="AY413">
+        <v>0</v>
+      </c>
+      <c r="AZ413">
+        <v>0</v>
+      </c>
+      <c r="BA413">
+        <v>0</v>
+      </c>
+      <c r="BB413">
+        <v>0</v>
+      </c>
+      <c r="BC413">
+        <v>0</v>
+      </c>
+      <c r="BD413">
+        <v>0</v>
+      </c>
+      <c r="BE413">
+        <v>0</v>
+      </c>
+      <c r="BF413">
+        <v>0</v>
+      </c>
+      <c r="BG413">
+        <v>1</v>
+      </c>
+      <c r="BH413">
+        <v>1</v>
+      </c>
+      <c r="BI413">
+        <v>0</v>
+      </c>
+      <c r="BJ413">
+        <v>0</v>
+      </c>
+      <c r="BK413">
+        <v>1</v>
+      </c>
+      <c r="BL413">
+        <v>3</v>
+      </c>
+      <c r="BM413">
+        <v>7</v>
+      </c>
+      <c r="BN413">
+        <v>5</v>
+      </c>
+      <c r="BO413">
+        <v>14</v>
+      </c>
+      <c r="BP413">
+        <v>23</v>
+      </c>
+      <c r="BQ413">
+        <v>26</v>
+      </c>
+      <c r="BR413">
+        <v>34</v>
+      </c>
+      <c r="BS413">
+        <v>42</v>
+      </c>
+      <c r="BT413">
+        <v>151</v>
+      </c>
+      <c r="BU413" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV413" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW413" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX413" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY413" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ413" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA413" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB413" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC413" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD413" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE413" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF413" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="414" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>83</v>
+      </c>
+      <c r="B414" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C414" t="s">
+        <v>289</v>
+      </c>
+      <c r="D414" t="s">
+        <v>85</v>
+      </c>
+      <c r="E414" t="s">
+        <v>131</v>
+      </c>
+      <c r="F414" t="s">
+        <v>132</v>
+      </c>
+      <c r="G414" t="s">
+        <v>88</v>
+      </c>
+      <c r="H414" t="s">
+        <v>567</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="P414">
+        <v>0</v>
+      </c>
+      <c r="Q414">
+        <v>0</v>
+      </c>
+      <c r="R414">
+        <v>0</v>
+      </c>
+      <c r="S414">
+        <v>0</v>
+      </c>
+      <c r="T414">
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <v>0</v>
+      </c>
+      <c r="V414">
+        <v>0</v>
+      </c>
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414">
+        <v>0</v>
+      </c>
+      <c r="Y414">
+        <v>0</v>
+      </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
+      <c r="AA414">
+        <v>0</v>
+      </c>
+      <c r="AB414">
+        <v>0</v>
+      </c>
+      <c r="AC414">
+        <v>0</v>
+      </c>
+      <c r="AD414">
+        <v>0</v>
+      </c>
+      <c r="AE414">
+        <v>0</v>
+      </c>
+      <c r="AF414">
+        <v>0</v>
+      </c>
+      <c r="AG414">
+        <v>0</v>
+      </c>
+      <c r="AH414">
+        <v>0</v>
+      </c>
+      <c r="AI414">
+        <v>0</v>
+      </c>
+      <c r="AJ414">
+        <v>0</v>
+      </c>
+      <c r="AK414">
+        <v>0</v>
+      </c>
+      <c r="AL414">
+        <v>0</v>
+      </c>
+      <c r="AM414">
+        <v>0</v>
+      </c>
+      <c r="AN414">
+        <v>0</v>
+      </c>
+      <c r="AO414">
+        <v>0</v>
+      </c>
+      <c r="AP414">
+        <v>0</v>
+      </c>
+      <c r="AQ414">
+        <v>0</v>
+      </c>
+      <c r="AR414">
+        <v>0</v>
+      </c>
+      <c r="AS414">
+        <v>0</v>
+      </c>
+      <c r="AT414">
+        <v>0</v>
+      </c>
+      <c r="AU414">
+        <v>0</v>
+      </c>
+      <c r="AV414">
+        <v>0</v>
+      </c>
+      <c r="AW414">
+        <v>0</v>
+      </c>
+      <c r="AX414">
+        <v>0</v>
+      </c>
+      <c r="AY414">
+        <v>0</v>
+      </c>
+      <c r="AZ414">
+        <v>0</v>
+      </c>
+      <c r="BA414">
+        <v>0</v>
+      </c>
+      <c r="BB414">
+        <v>0</v>
+      </c>
+      <c r="BC414">
+        <v>0</v>
+      </c>
+      <c r="BD414">
+        <v>0</v>
+      </c>
+      <c r="BE414">
+        <v>1</v>
+      </c>
+      <c r="BF414">
+        <v>4</v>
+      </c>
+      <c r="BG414">
+        <v>9</v>
+      </c>
+      <c r="BH414">
+        <v>6</v>
+      </c>
+      <c r="BI414">
+        <v>0</v>
+      </c>
+      <c r="BJ414">
+        <v>1</v>
+      </c>
+      <c r="BK414">
+        <v>3</v>
+      </c>
+      <c r="BL414">
+        <v>24</v>
+      </c>
+      <c r="BM414">
+        <v>37</v>
+      </c>
+      <c r="BN414">
+        <v>21</v>
+      </c>
+      <c r="BO414">
+        <v>64</v>
+      </c>
+      <c r="BP414">
+        <v>167</v>
+      </c>
+      <c r="BQ414">
+        <v>202</v>
+      </c>
+      <c r="BR414">
+        <v>207</v>
+      </c>
+      <c r="BS414">
+        <v>395</v>
+      </c>
+      <c r="BT414">
+        <v>1093</v>
+      </c>
+      <c r="BU414" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV414" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW414" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX414" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY414" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ414" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA414" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB414" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC414" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD414" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE414" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF414" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="415" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>83</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C415" t="s">
+        <v>289</v>
+      </c>
+      <c r="D415" t="s">
+        <v>85</v>
+      </c>
+      <c r="E415" t="s">
+        <v>131</v>
+      </c>
+      <c r="F415" t="s">
+        <v>113</v>
+      </c>
+      <c r="G415" t="s">
+        <v>88</v>
+      </c>
+      <c r="H415" t="s">
+        <v>594</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="P415">
+        <v>0</v>
+      </c>
+      <c r="Q415">
+        <v>0</v>
+      </c>
+      <c r="R415">
+        <v>0</v>
+      </c>
+      <c r="S415">
+        <v>0</v>
+      </c>
+      <c r="T415">
+        <v>0</v>
+      </c>
+      <c r="U415">
+        <v>0</v>
+      </c>
+      <c r="V415">
+        <v>0</v>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>0</v>
+      </c>
+      <c r="Y415">
+        <v>0</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415">
+        <v>0</v>
+      </c>
+      <c r="AB415">
+        <v>0</v>
+      </c>
+      <c r="AC415">
+        <v>0</v>
+      </c>
+      <c r="AD415">
+        <v>0</v>
+      </c>
+      <c r="AE415">
+        <v>0</v>
+      </c>
+      <c r="AF415">
+        <v>0</v>
+      </c>
+      <c r="AG415">
+        <v>0</v>
+      </c>
+      <c r="AH415">
+        <v>0</v>
+      </c>
+      <c r="AI415">
+        <v>0</v>
+      </c>
+      <c r="AJ415">
+        <v>0</v>
+      </c>
+      <c r="AK415">
+        <v>0</v>
+      </c>
+      <c r="AL415">
+        <v>0</v>
+      </c>
+      <c r="AM415">
+        <v>0</v>
+      </c>
+      <c r="AN415">
+        <v>0</v>
+      </c>
+      <c r="AO415">
+        <v>0</v>
+      </c>
+      <c r="AP415">
+        <v>0</v>
+      </c>
+      <c r="AQ415">
+        <v>0</v>
+      </c>
+      <c r="AR415">
+        <v>0</v>
+      </c>
+      <c r="AS415">
+        <v>0</v>
+      </c>
+      <c r="AT415">
+        <v>0</v>
+      </c>
+      <c r="AU415">
+        <v>0</v>
+      </c>
+      <c r="AV415">
+        <v>0</v>
+      </c>
+      <c r="AW415">
+        <v>0</v>
+      </c>
+      <c r="AX415">
+        <v>0</v>
+      </c>
+      <c r="AY415">
+        <v>0</v>
+      </c>
+      <c r="AZ415">
+        <v>0</v>
+      </c>
+      <c r="BA415">
+        <v>0</v>
+      </c>
+      <c r="BB415">
+        <v>0</v>
+      </c>
+      <c r="BC415">
+        <v>0</v>
+      </c>
+      <c r="BD415">
+        <v>0</v>
+      </c>
+      <c r="BE415">
+        <v>0</v>
+      </c>
+      <c r="BF415">
+        <v>0</v>
+      </c>
+      <c r="BG415">
+        <v>1</v>
+      </c>
+      <c r="BH415">
+        <v>0</v>
+      </c>
+      <c r="BI415">
+        <v>0</v>
+      </c>
+      <c r="BJ415">
+        <v>0</v>
+      </c>
+      <c r="BK415">
+        <v>0</v>
+      </c>
+      <c r="BL415">
+        <v>1</v>
+      </c>
+      <c r="BM415">
+        <v>8</v>
+      </c>
+      <c r="BN415">
+        <v>5</v>
+      </c>
+      <c r="BO415">
+        <v>10</v>
+      </c>
+      <c r="BP415">
+        <v>27</v>
+      </c>
+      <c r="BQ415">
+        <v>30</v>
+      </c>
+      <c r="BR415">
+        <v>51</v>
+      </c>
+      <c r="BS415">
+        <v>90</v>
+      </c>
+      <c r="BT415">
+        <v>221</v>
+      </c>
+      <c r="BU415" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV415" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW415" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX415" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY415" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ415" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA415" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB415" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC415" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD415" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE415" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF415" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="416" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>83</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C416" t="s">
+        <v>289</v>
+      </c>
+      <c r="D416" t="s">
+        <v>85</v>
+      </c>
+      <c r="E416" t="s">
+        <v>131</v>
+      </c>
+      <c r="F416" t="s">
+        <v>352</v>
+      </c>
+      <c r="G416" t="s">
+        <v>88</v>
+      </c>
+      <c r="H416" t="s">
+        <v>629</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+      <c r="R416">
+        <v>0</v>
+      </c>
+      <c r="S416">
+        <v>0</v>
+      </c>
+      <c r="T416">
+        <v>0</v>
+      </c>
+      <c r="U416">
+        <v>0</v>
+      </c>
+      <c r="V416">
+        <v>0</v>
+      </c>
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+      <c r="AB416">
+        <v>0</v>
+      </c>
+      <c r="AC416">
+        <v>0</v>
+      </c>
+      <c r="AD416">
+        <v>0</v>
+      </c>
+      <c r="AE416">
+        <v>0</v>
+      </c>
+      <c r="AF416">
+        <v>0</v>
+      </c>
+      <c r="AG416">
+        <v>0</v>
+      </c>
+      <c r="AH416">
+        <v>0</v>
+      </c>
+      <c r="AI416">
+        <v>0</v>
+      </c>
+      <c r="AJ416">
+        <v>0</v>
+      </c>
+      <c r="AK416">
+        <v>0</v>
+      </c>
+      <c r="AL416">
+        <v>0</v>
+      </c>
+      <c r="AM416">
+        <v>0</v>
+      </c>
+      <c r="AN416">
+        <v>0</v>
+      </c>
+      <c r="AO416">
+        <v>0</v>
+      </c>
+      <c r="AP416">
+        <v>0</v>
+      </c>
+      <c r="AQ416">
+        <v>0</v>
+      </c>
+      <c r="AR416">
+        <v>0</v>
+      </c>
+      <c r="AS416">
+        <v>0</v>
+      </c>
+      <c r="AT416">
+        <v>0</v>
+      </c>
+      <c r="AU416">
+        <v>0</v>
+      </c>
+      <c r="AV416">
+        <v>0</v>
+      </c>
+      <c r="AW416">
+        <v>0</v>
+      </c>
+      <c r="AX416">
+        <v>0</v>
+      </c>
+      <c r="AY416">
+        <v>0</v>
+      </c>
+      <c r="AZ416">
+        <v>0</v>
+      </c>
+      <c r="BA416">
+        <v>0</v>
+      </c>
+      <c r="BB416">
+        <v>0</v>
+      </c>
+      <c r="BC416">
+        <v>0</v>
+      </c>
+      <c r="BD416">
+        <v>0</v>
+      </c>
+      <c r="BE416">
+        <v>1</v>
+      </c>
+      <c r="BF416">
+        <v>1</v>
+      </c>
+      <c r="BG416">
+        <v>2</v>
+      </c>
+      <c r="BH416">
+        <v>0</v>
+      </c>
+      <c r="BI416">
+        <v>0</v>
+      </c>
+      <c r="BJ416">
+        <v>0</v>
+      </c>
+      <c r="BK416">
+        <v>0</v>
+      </c>
+      <c r="BL416">
+        <v>4</v>
+      </c>
+      <c r="BM416">
+        <v>5</v>
+      </c>
+      <c r="BN416">
+        <v>1</v>
+      </c>
+      <c r="BO416">
+        <v>13</v>
+      </c>
+      <c r="BP416">
+        <v>39</v>
+      </c>
+      <c r="BQ416">
+        <v>52</v>
+      </c>
+      <c r="BR416">
+        <v>39</v>
+      </c>
+      <c r="BS416">
+        <v>53</v>
+      </c>
+      <c r="BT416">
+        <v>202</v>
+      </c>
+      <c r="BU416" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV416" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW416" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX416" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY416" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ416" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA416" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB416" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC416" t="s">
+        <v>354</v>
+      </c>
+      <c r="CD416" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE416" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF416" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="417" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>83</v>
+      </c>
+      <c r="B417" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C417" t="s">
+        <v>289</v>
+      </c>
+      <c r="D417" t="s">
+        <v>85</v>
+      </c>
+      <c r="E417" t="s">
+        <v>131</v>
+      </c>
+      <c r="F417" t="s">
+        <v>269</v>
+      </c>
+      <c r="G417" t="s">
+        <v>88</v>
+      </c>
+      <c r="H417" t="s">
+        <v>631</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="P417">
+        <v>0</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
+      </c>
+      <c r="R417">
+        <v>0</v>
+      </c>
+      <c r="S417">
+        <v>0</v>
+      </c>
+      <c r="T417">
+        <v>0</v>
+      </c>
+      <c r="U417">
+        <v>0</v>
+      </c>
+      <c r="V417">
+        <v>0</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
+        <v>0</v>
+      </c>
+      <c r="AB417">
+        <v>0</v>
+      </c>
+      <c r="AC417">
+        <v>0</v>
+      </c>
+      <c r="AD417">
+        <v>0</v>
+      </c>
+      <c r="AE417">
+        <v>0</v>
+      </c>
+      <c r="AF417">
+        <v>0</v>
+      </c>
+      <c r="AG417">
+        <v>0</v>
+      </c>
+      <c r="AH417">
+        <v>0</v>
+      </c>
+      <c r="AI417">
+        <v>0</v>
+      </c>
+      <c r="AJ417">
+        <v>0</v>
+      </c>
+      <c r="AK417">
+        <v>0</v>
+      </c>
+      <c r="AL417">
+        <v>0</v>
+      </c>
+      <c r="AM417">
+        <v>0</v>
+      </c>
+      <c r="AN417">
+        <v>0</v>
+      </c>
+      <c r="AO417">
+        <v>0</v>
+      </c>
+      <c r="AP417">
+        <v>0</v>
+      </c>
+      <c r="AQ417">
+        <v>0</v>
+      </c>
+      <c r="AR417">
+        <v>0</v>
+      </c>
+      <c r="AS417">
+        <v>0</v>
+      </c>
+      <c r="AT417">
+        <v>0</v>
+      </c>
+      <c r="AU417">
+        <v>0</v>
+      </c>
+      <c r="AV417">
+        <v>0</v>
+      </c>
+      <c r="AW417">
+        <v>0</v>
+      </c>
+      <c r="AX417">
+        <v>0</v>
+      </c>
+      <c r="AY417">
+        <v>0</v>
+      </c>
+      <c r="AZ417">
+        <v>0</v>
+      </c>
+      <c r="BA417">
+        <v>0</v>
+      </c>
+      <c r="BB417">
+        <v>0</v>
+      </c>
+      <c r="BC417">
+        <v>0</v>
+      </c>
+      <c r="BD417">
+        <v>0</v>
+      </c>
+      <c r="BE417">
+        <v>0</v>
+      </c>
+      <c r="BF417">
+        <v>0</v>
+      </c>
+      <c r="BG417">
+        <v>0</v>
+      </c>
+      <c r="BH417">
+        <v>0</v>
+      </c>
+      <c r="BI417">
+        <v>1</v>
+      </c>
+      <c r="BJ417">
+        <v>0</v>
+      </c>
+      <c r="BK417">
+        <v>0</v>
+      </c>
+      <c r="BL417">
+        <v>1</v>
+      </c>
+      <c r="BM417">
+        <v>0</v>
+      </c>
+      <c r="BN417">
+        <v>3</v>
+      </c>
+      <c r="BO417">
+        <v>7</v>
+      </c>
+      <c r="BP417">
+        <v>17</v>
+      </c>
+      <c r="BQ417">
+        <v>21</v>
+      </c>
+      <c r="BR417">
+        <v>30</v>
+      </c>
+      <c r="BS417">
+        <v>41</v>
+      </c>
+      <c r="BT417">
+        <v>119</v>
+      </c>
+      <c r="BU417" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV417" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW417" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX417" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY417" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ417" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA417" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB417" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC417" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD417" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE417" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF417" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="418" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>83</v>
+      </c>
+      <c r="B418" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C418" t="s">
+        <v>289</v>
+      </c>
+      <c r="D418" t="s">
+        <v>85</v>
+      </c>
+      <c r="E418" t="s">
+        <v>131</v>
+      </c>
+      <c r="F418" t="s">
+        <v>139</v>
+      </c>
+      <c r="G418" t="s">
+        <v>88</v>
+      </c>
+      <c r="H418" t="s">
+        <v>753</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418">
+        <v>0</v>
+      </c>
+      <c r="Q418">
+        <v>0</v>
+      </c>
+      <c r="R418">
+        <v>0</v>
+      </c>
+      <c r="S418">
+        <v>0</v>
+      </c>
+      <c r="T418">
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <v>0</v>
+      </c>
+      <c r="V418">
+        <v>0</v>
+      </c>
+      <c r="W418">
+        <v>0</v>
+      </c>
+      <c r="X418">
+        <v>0</v>
+      </c>
+      <c r="Y418">
+        <v>0</v>
+      </c>
+      <c r="Z418">
+        <v>0</v>
+      </c>
+      <c r="AA418">
+        <v>0</v>
+      </c>
+      <c r="AB418">
+        <v>0</v>
+      </c>
+      <c r="AC418">
+        <v>0</v>
+      </c>
+      <c r="AD418">
+        <v>0</v>
+      </c>
+      <c r="AE418">
+        <v>0</v>
+      </c>
+      <c r="AF418">
+        <v>0</v>
+      </c>
+      <c r="AG418">
+        <v>0</v>
+      </c>
+      <c r="AH418">
+        <v>0</v>
+      </c>
+      <c r="AI418">
+        <v>0</v>
+      </c>
+      <c r="AJ418">
+        <v>0</v>
+      </c>
+      <c r="AK418">
+        <v>0</v>
+      </c>
+      <c r="AL418">
+        <v>0</v>
+      </c>
+      <c r="AM418">
+        <v>0</v>
+      </c>
+      <c r="AN418">
+        <v>0</v>
+      </c>
+      <c r="AO418">
+        <v>0</v>
+      </c>
+      <c r="AP418">
+        <v>0</v>
+      </c>
+      <c r="AQ418">
+        <v>0</v>
+      </c>
+      <c r="AR418">
+        <v>0</v>
+      </c>
+      <c r="AS418">
+        <v>0</v>
+      </c>
+      <c r="AT418">
+        <v>0</v>
+      </c>
+      <c r="AU418">
+        <v>0</v>
+      </c>
+      <c r="AV418">
+        <v>0</v>
+      </c>
+      <c r="AW418">
+        <v>0</v>
+      </c>
+      <c r="AX418">
+        <v>0</v>
+      </c>
+      <c r="AY418">
+        <v>0</v>
+      </c>
+      <c r="AZ418">
+        <v>0</v>
+      </c>
+      <c r="BA418">
+        <v>0</v>
+      </c>
+      <c r="BB418">
+        <v>0</v>
+      </c>
+      <c r="BC418">
+        <v>0</v>
+      </c>
+      <c r="BD418">
+        <v>0</v>
+      </c>
+      <c r="BE418">
+        <v>4</v>
+      </c>
+      <c r="BF418">
+        <v>8</v>
+      </c>
+      <c r="BG418">
+        <v>6</v>
+      </c>
+      <c r="BH418">
+        <v>5</v>
+      </c>
+      <c r="BI418">
+        <v>8</v>
+      </c>
+      <c r="BJ418">
+        <v>2</v>
+      </c>
+      <c r="BK418">
+        <v>2</v>
+      </c>
+      <c r="BL418">
+        <v>35</v>
+      </c>
+      <c r="BM418">
+        <v>56</v>
+      </c>
+      <c r="BN418">
+        <v>34</v>
+      </c>
+      <c r="BO418">
+        <v>59</v>
+      </c>
+      <c r="BP418">
+        <v>142</v>
+      </c>
+      <c r="BQ418">
+        <v>241</v>
+      </c>
+      <c r="BR418">
+        <v>216</v>
+      </c>
+      <c r="BS418">
+        <v>371</v>
+      </c>
+      <c r="BT418">
+        <v>1119</v>
+      </c>
+      <c r="BU418" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV418" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW418" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX418" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY418" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ418" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA418" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB418" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC418" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD418" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE418" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF418" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="419" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>83</v>
+      </c>
+      <c r="B419" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C419" t="s">
+        <v>289</v>
+      </c>
+      <c r="D419" t="s">
+        <v>85</v>
+      </c>
+      <c r="E419" t="s">
+        <v>131</v>
+      </c>
+      <c r="F419" t="s">
+        <v>146</v>
+      </c>
+      <c r="G419" t="s">
+        <v>88</v>
+      </c>
+      <c r="H419" t="s">
+        <v>754</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419">
+        <v>0</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
+      <c r="S419">
+        <v>0</v>
+      </c>
+      <c r="T419">
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <v>0</v>
+      </c>
+      <c r="V419">
+        <v>0</v>
+      </c>
+      <c r="W419">
+        <v>0</v>
+      </c>
+      <c r="X419">
+        <v>0</v>
+      </c>
+      <c r="Y419">
+        <v>0</v>
+      </c>
+      <c r="Z419">
+        <v>0</v>
+      </c>
+      <c r="AA419">
+        <v>0</v>
+      </c>
+      <c r="AB419">
+        <v>0</v>
+      </c>
+      <c r="AC419">
+        <v>0</v>
+      </c>
+      <c r="AD419">
+        <v>0</v>
+      </c>
+      <c r="AE419">
+        <v>0</v>
+      </c>
+      <c r="AF419">
+        <v>0</v>
+      </c>
+      <c r="AG419">
+        <v>0</v>
+      </c>
+      <c r="AH419">
+        <v>0</v>
+      </c>
+      <c r="AI419">
+        <v>0</v>
+      </c>
+      <c r="AJ419">
+        <v>0</v>
+      </c>
+      <c r="AK419">
+        <v>0</v>
+      </c>
+      <c r="AL419">
+        <v>0</v>
+      </c>
+      <c r="AM419">
+        <v>0</v>
+      </c>
+      <c r="AN419">
+        <v>0</v>
+      </c>
+      <c r="AO419">
+        <v>0</v>
+      </c>
+      <c r="AP419">
+        <v>0</v>
+      </c>
+      <c r="AQ419">
+        <v>0</v>
+      </c>
+      <c r="AR419">
+        <v>0</v>
+      </c>
+      <c r="AS419">
+        <v>0</v>
+      </c>
+      <c r="AT419">
+        <v>0</v>
+      </c>
+      <c r="AU419">
+        <v>0</v>
+      </c>
+      <c r="AV419">
+        <v>0</v>
+      </c>
+      <c r="AW419">
+        <v>0</v>
+      </c>
+      <c r="AX419">
+        <v>0</v>
+      </c>
+      <c r="AY419">
+        <v>0</v>
+      </c>
+      <c r="AZ419">
+        <v>0</v>
+      </c>
+      <c r="BA419">
+        <v>0</v>
+      </c>
+      <c r="BB419">
+        <v>0</v>
+      </c>
+      <c r="BC419">
+        <v>0</v>
+      </c>
+      <c r="BD419">
+        <v>0</v>
+      </c>
+      <c r="BE419">
+        <v>0</v>
+      </c>
+      <c r="BF419">
+        <v>0</v>
+      </c>
+      <c r="BG419">
+        <v>0</v>
+      </c>
+      <c r="BH419">
+        <v>1</v>
+      </c>
+      <c r="BI419">
+        <v>0</v>
+      </c>
+      <c r="BJ419">
+        <v>0</v>
+      </c>
+      <c r="BK419">
+        <v>1</v>
+      </c>
+      <c r="BL419">
+        <v>2</v>
+      </c>
+      <c r="BM419">
+        <v>1</v>
+      </c>
+      <c r="BN419">
+        <v>2</v>
+      </c>
+      <c r="BO419">
+        <v>8</v>
+      </c>
+      <c r="BP419">
+        <v>9</v>
+      </c>
+      <c r="BQ419">
+        <v>23</v>
+      </c>
+      <c r="BR419">
+        <v>36</v>
+      </c>
+      <c r="BS419">
+        <v>68</v>
+      </c>
+      <c r="BT419">
+        <v>147</v>
+      </c>
+      <c r="BU419" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV419" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW419" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX419" t="s">
+        <v>755</v>
+      </c>
+      <c r="BY419" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ419" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA419" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB419" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC419" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD419" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE419" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF419" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="420" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>83</v>
+      </c>
+      <c r="B420" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C420" t="s">
+        <v>289</v>
+      </c>
+      <c r="D420" t="s">
+        <v>85</v>
+      </c>
+      <c r="E420" t="s">
+        <v>131</v>
+      </c>
+      <c r="F420" t="s">
+        <v>151</v>
+      </c>
+      <c r="G420" t="s">
+        <v>88</v>
+      </c>
+      <c r="H420" t="s">
+        <v>756</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+      <c r="M420">
+        <v>0</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>0</v>
+      </c>
+      <c r="S420">
+        <v>0</v>
+      </c>
+      <c r="T420">
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <v>0</v>
+      </c>
+      <c r="V420">
+        <v>0</v>
+      </c>
+      <c r="W420">
+        <v>0</v>
+      </c>
+      <c r="X420">
+        <v>0</v>
+      </c>
+      <c r="Y420">
+        <v>0</v>
+      </c>
+      <c r="Z420">
+        <v>0</v>
+      </c>
+      <c r="AA420">
+        <v>0</v>
+      </c>
+      <c r="AB420">
+        <v>0</v>
+      </c>
+      <c r="AC420">
+        <v>0</v>
+      </c>
+      <c r="AD420">
+        <v>0</v>
+      </c>
+      <c r="AE420">
+        <v>0</v>
+      </c>
+      <c r="AF420">
+        <v>0</v>
+      </c>
+      <c r="AG420">
+        <v>0</v>
+      </c>
+      <c r="AH420">
+        <v>0</v>
+      </c>
+      <c r="AI420">
+        <v>0</v>
+      </c>
+      <c r="AJ420">
+        <v>0</v>
+      </c>
+      <c r="AK420">
+        <v>0</v>
+      </c>
+      <c r="AL420">
+        <v>0</v>
+      </c>
+      <c r="AM420">
+        <v>0</v>
+      </c>
+      <c r="AN420">
+        <v>0</v>
+      </c>
+      <c r="AO420">
+        <v>0</v>
+      </c>
+      <c r="AP420">
+        <v>0</v>
+      </c>
+      <c r="AQ420">
+        <v>0</v>
+      </c>
+      <c r="AR420">
+        <v>0</v>
+      </c>
+      <c r="AS420">
+        <v>0</v>
+      </c>
+      <c r="AT420">
+        <v>0</v>
+      </c>
+      <c r="AU420">
+        <v>0</v>
+      </c>
+      <c r="AV420">
+        <v>0</v>
+      </c>
+      <c r="AW420">
+        <v>0</v>
+      </c>
+      <c r="AX420">
+        <v>0</v>
+      </c>
+      <c r="AY420">
+        <v>0</v>
+      </c>
+      <c r="AZ420">
+        <v>0</v>
+      </c>
+      <c r="BA420">
+        <v>0</v>
+      </c>
+      <c r="BB420">
+        <v>0</v>
+      </c>
+      <c r="BC420">
+        <v>0</v>
+      </c>
+      <c r="BD420">
+        <v>0</v>
+      </c>
+      <c r="BE420">
+        <v>0</v>
+      </c>
+      <c r="BF420">
+        <v>0</v>
+      </c>
+      <c r="BG420">
+        <v>0</v>
+      </c>
+      <c r="BH420">
+        <v>0</v>
+      </c>
+      <c r="BI420">
+        <v>0</v>
+      </c>
+      <c r="BJ420">
+        <v>0</v>
+      </c>
+      <c r="BK420">
+        <v>1</v>
+      </c>
+      <c r="BL420">
+        <v>1</v>
+      </c>
+      <c r="BM420">
+        <v>4</v>
+      </c>
+      <c r="BN420">
+        <v>1</v>
+      </c>
+      <c r="BO420">
+        <v>2</v>
+      </c>
+      <c r="BP420">
+        <v>27</v>
+      </c>
+      <c r="BQ420">
+        <v>45</v>
+      </c>
+      <c r="BR420">
+        <v>33</v>
+      </c>
+      <c r="BS420">
+        <v>64</v>
+      </c>
+      <c r="BT420">
+        <v>176</v>
+      </c>
+      <c r="BU420" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV420" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW420" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX420" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY420" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ420" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA420" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB420" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC420" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD420" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE420" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF420" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="421" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>83</v>
+      </c>
+      <c r="B421" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C421" t="s">
+        <v>289</v>
+      </c>
+      <c r="D421" t="s">
+        <v>85</v>
+      </c>
+      <c r="E421" t="s">
+        <v>131</v>
+      </c>
+      <c r="F421" t="s">
+        <v>155</v>
+      </c>
+      <c r="G421" t="s">
+        <v>88</v>
+      </c>
+      <c r="H421" t="s">
+        <v>757</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>0</v>
+      </c>
+      <c r="S421">
+        <v>0</v>
+      </c>
+      <c r="T421">
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <v>0</v>
+      </c>
+      <c r="V421">
+        <v>0</v>
+      </c>
+      <c r="W421">
+        <v>0</v>
+      </c>
+      <c r="X421">
+        <v>0</v>
+      </c>
+      <c r="Y421">
+        <v>0</v>
+      </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
+      <c r="AA421">
+        <v>0</v>
+      </c>
+      <c r="AB421">
+        <v>0</v>
+      </c>
+      <c r="AC421">
+        <v>0</v>
+      </c>
+      <c r="AD421">
+        <v>0</v>
+      </c>
+      <c r="AE421">
+        <v>0</v>
+      </c>
+      <c r="AF421">
+        <v>0</v>
+      </c>
+      <c r="AG421">
+        <v>0</v>
+      </c>
+      <c r="AH421">
+        <v>0</v>
+      </c>
+      <c r="AI421">
+        <v>0</v>
+      </c>
+      <c r="AJ421">
+        <v>0</v>
+      </c>
+      <c r="AK421">
+        <v>0</v>
+      </c>
+      <c r="AL421">
+        <v>0</v>
+      </c>
+      <c r="AM421">
+        <v>0</v>
+      </c>
+      <c r="AN421">
+        <v>0</v>
+      </c>
+      <c r="AO421">
+        <v>0</v>
+      </c>
+      <c r="AP421">
+        <v>0</v>
+      </c>
+      <c r="AQ421">
+        <v>0</v>
+      </c>
+      <c r="AR421">
+        <v>0</v>
+      </c>
+      <c r="AS421">
+        <v>0</v>
+      </c>
+      <c r="AT421">
+        <v>0</v>
+      </c>
+      <c r="AU421">
+        <v>0</v>
+      </c>
+      <c r="AV421">
+        <v>0</v>
+      </c>
+      <c r="AW421">
+        <v>0</v>
+      </c>
+      <c r="AX421">
+        <v>0</v>
+      </c>
+      <c r="AY421">
+        <v>0</v>
+      </c>
+      <c r="AZ421">
+        <v>0</v>
+      </c>
+      <c r="BA421">
+        <v>0</v>
+      </c>
+      <c r="BB421">
+        <v>0</v>
+      </c>
+      <c r="BC421">
+        <v>0</v>
+      </c>
+      <c r="BD421">
+        <v>0</v>
+      </c>
+      <c r="BE421">
+        <v>0</v>
+      </c>
+      <c r="BF421">
+        <v>0</v>
+      </c>
+      <c r="BG421">
+        <v>2</v>
+      </c>
+      <c r="BH421">
+        <v>1</v>
+      </c>
+      <c r="BI421">
+        <v>0</v>
+      </c>
+      <c r="BJ421">
+        <v>0</v>
+      </c>
+      <c r="BK421">
+        <v>0</v>
+      </c>
+      <c r="BL421">
+        <v>3</v>
+      </c>
+      <c r="BM421">
+        <v>5</v>
+      </c>
+      <c r="BN421">
+        <v>2</v>
+      </c>
+      <c r="BO421">
+        <v>5</v>
+      </c>
+      <c r="BP421">
+        <v>12</v>
+      </c>
+      <c r="BQ421">
+        <v>19</v>
+      </c>
+      <c r="BR421">
+        <v>28</v>
+      </c>
+      <c r="BS421">
+        <v>59</v>
+      </c>
+      <c r="BT421">
+        <v>130</v>
+      </c>
+      <c r="BU421" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV421" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW421" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX421" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY421" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ421" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA421" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB421" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC421" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD421" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE421" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF421" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="422" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>83</v>
+      </c>
+      <c r="B422" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C422" t="s">
+        <v>289</v>
+      </c>
+      <c r="D422" t="s">
+        <v>85</v>
+      </c>
+      <c r="E422" t="s">
+        <v>219</v>
+      </c>
+      <c r="F422" t="s">
+        <v>102</v>
+      </c>
+      <c r="G422" t="s">
+        <v>88</v>
+      </c>
+      <c r="H422" t="s">
+        <v>758</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>1</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+      <c r="M422">
+        <v>10</v>
+      </c>
+      <c r="N422">
+        <v>2</v>
+      </c>
+      <c r="O422">
+        <v>1</v>
+      </c>
+      <c r="P422">
+        <v>16</v>
+      </c>
+      <c r="Q422">
+        <v>6</v>
+      </c>
+      <c r="R422">
+        <v>4</v>
+      </c>
+      <c r="S422">
+        <v>14</v>
+      </c>
+      <c r="T422">
+        <v>65</v>
+      </c>
+      <c r="U422">
+        <v>205</v>
+      </c>
+      <c r="V422">
+        <v>103</v>
+      </c>
+      <c r="W422">
+        <v>159</v>
+      </c>
+      <c r="X422">
+        <v>556</v>
+      </c>
+      <c r="Y422">
+        <v>0</v>
+      </c>
+      <c r="Z422">
+        <v>0</v>
+      </c>
+      <c r="AA422">
+        <v>3</v>
+      </c>
+      <c r="AB422">
+        <v>0</v>
+      </c>
+      <c r="AC422">
+        <v>0</v>
+      </c>
+      <c r="AD422">
+        <v>0</v>
+      </c>
+      <c r="AE422">
+        <v>3</v>
+      </c>
+      <c r="AF422">
+        <v>6</v>
+      </c>
+      <c r="AG422">
+        <v>0</v>
+      </c>
+      <c r="AH422">
+        <v>0</v>
+      </c>
+      <c r="AI422">
+        <v>3</v>
+      </c>
+      <c r="AJ422">
+        <v>1</v>
+      </c>
+      <c r="AK422">
+        <v>5</v>
+      </c>
+      <c r="AL422">
+        <v>11</v>
+      </c>
+      <c r="AM422">
+        <v>24</v>
+      </c>
+      <c r="AN422">
+        <v>44</v>
+      </c>
+      <c r="AO422">
+        <v>0</v>
+      </c>
+      <c r="AP422">
+        <v>0</v>
+      </c>
+      <c r="AQ422">
+        <v>0</v>
+      </c>
+      <c r="AR422">
+        <v>0</v>
+      </c>
+      <c r="AS422">
+        <v>0</v>
+      </c>
+      <c r="AT422">
+        <v>0</v>
+      </c>
+      <c r="AU422">
+        <v>0</v>
+      </c>
+      <c r="AV422">
+        <v>0</v>
+      </c>
+      <c r="AW422">
+        <v>1</v>
+      </c>
+      <c r="AX422">
+        <v>0</v>
+      </c>
+      <c r="AY422">
+        <v>0</v>
+      </c>
+      <c r="AZ422">
+        <v>0</v>
+      </c>
+      <c r="BA422">
+        <v>0</v>
+      </c>
+      <c r="BB422">
+        <v>1</v>
+      </c>
+      <c r="BC422">
+        <v>7</v>
+      </c>
+      <c r="BD422">
+        <v>9</v>
+      </c>
+      <c r="BE422">
+        <v>5</v>
+      </c>
+      <c r="BF422">
+        <v>7</v>
+      </c>
+      <c r="BG422">
+        <v>17</v>
+      </c>
+      <c r="BH422">
+        <v>7</v>
+      </c>
+      <c r="BI422">
+        <v>4</v>
+      </c>
+      <c r="BJ422">
+        <v>0</v>
+      </c>
+      <c r="BK422">
+        <v>5</v>
+      </c>
+      <c r="BL422">
+        <v>45</v>
+      </c>
+      <c r="BM422">
+        <v>31</v>
+      </c>
+      <c r="BN422">
+        <v>36</v>
+      </c>
+      <c r="BO422">
+        <v>84</v>
+      </c>
+      <c r="BP422">
+        <v>194</v>
+      </c>
+      <c r="BQ422">
+        <v>408</v>
+      </c>
+      <c r="BR422">
+        <v>208</v>
+      </c>
+      <c r="BS422">
+        <v>222</v>
+      </c>
+      <c r="BT422">
+        <v>1183</v>
+      </c>
+      <c r="BU422" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV422" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW422" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX422" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY422" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ422" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA422" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB422" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC422" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD422" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE422" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF422" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="423" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>83</v>
+      </c>
+      <c r="B423" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C423" t="s">
+        <v>289</v>
+      </c>
+      <c r="D423" t="s">
+        <v>85</v>
+      </c>
+      <c r="E423" t="s">
+        <v>227</v>
+      </c>
+      <c r="F423" t="s">
+        <v>102</v>
+      </c>
+      <c r="G423" t="s">
+        <v>88</v>
+      </c>
+      <c r="H423" t="s">
+        <v>759</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+      <c r="O423">
+        <v>0</v>
+      </c>
+      <c r="P423">
+        <v>0</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>0</v>
+      </c>
+      <c r="S423">
+        <v>0</v>
+      </c>
+      <c r="T423">
+        <v>0</v>
+      </c>
+      <c r="U423">
+        <v>4</v>
+      </c>
+      <c r="V423">
+        <v>4</v>
+      </c>
+      <c r="W423">
+        <v>12</v>
+      </c>
+      <c r="X423">
+        <v>20</v>
+      </c>
+      <c r="Y423">
+        <v>0</v>
+      </c>
+      <c r="Z423">
+        <v>0</v>
+      </c>
+      <c r="AA423">
+        <v>0</v>
+      </c>
+      <c r="AB423">
+        <v>0</v>
+      </c>
+      <c r="AC423">
+        <v>0</v>
+      </c>
+      <c r="AD423">
+        <v>0</v>
+      </c>
+      <c r="AE423">
+        <v>0</v>
+      </c>
+      <c r="AF423">
+        <v>0</v>
+      </c>
+      <c r="AG423">
+        <v>0</v>
+      </c>
+      <c r="AH423">
+        <v>0</v>
+      </c>
+      <c r="AI423">
+        <v>0</v>
+      </c>
+      <c r="AJ423">
+        <v>0</v>
+      </c>
+      <c r="AK423">
+        <v>1</v>
+      </c>
+      <c r="AL423">
+        <v>2</v>
+      </c>
+      <c r="AM423">
+        <v>7</v>
+      </c>
+      <c r="AN423">
+        <v>10</v>
+      </c>
+      <c r="AO423">
+        <v>0</v>
+      </c>
+      <c r="AP423">
+        <v>0</v>
+      </c>
+      <c r="AQ423">
+        <v>0</v>
+      </c>
+      <c r="AR423">
+        <v>0</v>
+      </c>
+      <c r="AS423">
+        <v>0</v>
+      </c>
+      <c r="AT423">
+        <v>0</v>
+      </c>
+      <c r="AU423">
+        <v>0</v>
+      </c>
+      <c r="AV423">
+        <v>0</v>
+      </c>
+      <c r="AW423">
+        <v>0</v>
+      </c>
+      <c r="AX423">
+        <v>0</v>
+      </c>
+      <c r="AY423">
+        <v>0</v>
+      </c>
+      <c r="AZ423">
+        <v>0</v>
+      </c>
+      <c r="BA423">
+        <v>1</v>
+      </c>
+      <c r="BB423">
+        <v>1</v>
+      </c>
+      <c r="BC423">
+        <v>4</v>
+      </c>
+      <c r="BD423">
+        <v>6</v>
+      </c>
+      <c r="BE423">
+        <v>0</v>
+      </c>
+      <c r="BF423">
+        <v>0</v>
+      </c>
+      <c r="BG423">
+        <v>0</v>
+      </c>
+      <c r="BH423">
+        <v>0</v>
+      </c>
+      <c r="BI423">
+        <v>0</v>
+      </c>
+      <c r="BJ423">
+        <v>0</v>
+      </c>
+      <c r="BK423">
+        <v>0</v>
+      </c>
+      <c r="BL423">
+        <v>0</v>
+      </c>
+      <c r="BM423">
+        <v>0</v>
+      </c>
+      <c r="BN423">
+        <v>0</v>
+      </c>
+      <c r="BO423">
+        <v>0</v>
+      </c>
+      <c r="BP423">
+        <v>0</v>
+      </c>
+      <c r="BQ423">
+        <v>0</v>
+      </c>
+      <c r="BR423">
+        <v>0</v>
+      </c>
+      <c r="BS423">
+        <v>0</v>
+      </c>
+      <c r="BT423">
+        <v>0</v>
+      </c>
+      <c r="BU423" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV423" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW423" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX423" t="s">
+        <v>760</v>
+      </c>
+      <c r="BY423" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ423" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA423" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB423" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC423" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD423" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE423" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF423" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="424" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>83</v>
+      </c>
+      <c r="B424" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C424" t="s">
+        <v>289</v>
+      </c>
+      <c r="D424" t="s">
+        <v>85</v>
+      </c>
+      <c r="E424" t="s">
+        <v>213</v>
+      </c>
+      <c r="F424" t="s">
+        <v>102</v>
+      </c>
+      <c r="G424" t="s">
+        <v>88</v>
+      </c>
+      <c r="H424" t="s">
+        <v>761</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+      <c r="R424">
+        <v>0</v>
+      </c>
+      <c r="S424">
+        <v>1</v>
+      </c>
+      <c r="T424">
+        <v>3</v>
+      </c>
+      <c r="U424">
+        <v>2</v>
+      </c>
+      <c r="V424">
+        <v>5</v>
+      </c>
+      <c r="W424">
+        <v>21</v>
+      </c>
+      <c r="X424">
+        <v>32</v>
+      </c>
+      <c r="Y424">
+        <v>0</v>
+      </c>
+      <c r="Z424">
+        <v>0</v>
+      </c>
+      <c r="AA424">
+        <v>0</v>
+      </c>
+      <c r="AB424">
+        <v>0</v>
+      </c>
+      <c r="AC424">
+        <v>0</v>
+      </c>
+      <c r="AD424">
+        <v>0</v>
+      </c>
+      <c r="AE424">
+        <v>0</v>
+      </c>
+      <c r="AF424">
+        <v>0</v>
+      </c>
+      <c r="AG424">
+        <v>0</v>
+      </c>
+      <c r="AH424">
+        <v>0</v>
+      </c>
+      <c r="AI424">
+        <v>0</v>
+      </c>
+      <c r="AJ424">
+        <v>0</v>
+      </c>
+      <c r="AK424">
+        <v>0</v>
+      </c>
+      <c r="AL424">
+        <v>0</v>
+      </c>
+      <c r="AM424">
+        <v>0</v>
+      </c>
+      <c r="AN424">
+        <v>0</v>
+      </c>
+      <c r="AO424">
+        <v>0</v>
+      </c>
+      <c r="AP424">
+        <v>0</v>
+      </c>
+      <c r="AQ424">
+        <v>0</v>
+      </c>
+      <c r="AR424">
+        <v>0</v>
+      </c>
+      <c r="AS424">
+        <v>0</v>
+      </c>
+      <c r="AT424">
+        <v>0</v>
+      </c>
+      <c r="AU424">
+        <v>0</v>
+      </c>
+      <c r="AV424">
+        <v>0</v>
+      </c>
+      <c r="AW424">
+        <v>0</v>
+      </c>
+      <c r="AX424">
+        <v>0</v>
+      </c>
+      <c r="AY424">
+        <v>0</v>
+      </c>
+      <c r="AZ424">
+        <v>0</v>
+      </c>
+      <c r="BA424">
+        <v>0</v>
+      </c>
+      <c r="BB424">
+        <v>0</v>
+      </c>
+      <c r="BC424">
+        <v>0</v>
+      </c>
+      <c r="BD424">
+        <v>0</v>
+      </c>
+      <c r="BE424">
+        <v>4</v>
+      </c>
+      <c r="BF424">
+        <v>0</v>
+      </c>
+      <c r="BG424">
+        <v>2</v>
+      </c>
+      <c r="BH424">
+        <v>0</v>
+      </c>
+      <c r="BI424">
+        <v>0</v>
+      </c>
+      <c r="BJ424">
+        <v>0</v>
+      </c>
+      <c r="BK424">
+        <v>1</v>
+      </c>
+      <c r="BL424">
+        <v>7</v>
+      </c>
+      <c r="BM424">
+        <v>11</v>
+      </c>
+      <c r="BN424">
+        <v>2</v>
+      </c>
+      <c r="BO424">
+        <v>16</v>
+      </c>
+      <c r="BP424">
+        <v>30</v>
+      </c>
+      <c r="BQ424">
+        <v>58</v>
+      </c>
+      <c r="BR424">
+        <v>66</v>
+      </c>
+      <c r="BS424">
+        <v>157</v>
+      </c>
+      <c r="BT424">
+        <v>340</v>
+      </c>
+      <c r="BU424" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV424" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW424" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX424" t="s">
+        <v>762</v>
+      </c>
+      <c r="BY424" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ424" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA424" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB424" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC424" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD424" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE424" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF424" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="425" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>83</v>
+      </c>
+      <c r="B425" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C425" t="s">
+        <v>289</v>
+      </c>
+      <c r="D425" t="s">
+        <v>85</v>
+      </c>
+      <c r="E425" t="s">
+        <v>86</v>
+      </c>
+      <c r="F425" t="s">
+        <v>87</v>
+      </c>
+      <c r="G425" t="s">
+        <v>88</v>
+      </c>
+      <c r="H425" t="s">
+        <v>763</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>0</v>
+      </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>0</v>
+      </c>
+      <c r="S425">
+        <v>0</v>
+      </c>
+      <c r="T425">
+        <v>0</v>
+      </c>
+      <c r="U425">
+        <v>0</v>
+      </c>
+      <c r="V425">
+        <v>0</v>
+      </c>
+      <c r="W425">
+        <v>0</v>
+      </c>
+      <c r="X425">
+        <v>0</v>
+      </c>
+      <c r="Y425">
+        <v>0</v>
+      </c>
+      <c r="Z425">
+        <v>0</v>
+      </c>
+      <c r="AA425">
+        <v>0</v>
+      </c>
+      <c r="AB425">
+        <v>0</v>
+      </c>
+      <c r="AC425">
+        <v>0</v>
+      </c>
+      <c r="AD425">
+        <v>0</v>
+      </c>
+      <c r="AE425">
+        <v>0</v>
+      </c>
+      <c r="AF425">
+        <v>0</v>
+      </c>
+      <c r="AG425">
+        <v>0</v>
+      </c>
+      <c r="AH425">
+        <v>0</v>
+      </c>
+      <c r="AI425">
+        <v>0</v>
+      </c>
+      <c r="AJ425">
+        <v>0</v>
+      </c>
+      <c r="AK425">
+        <v>0</v>
+      </c>
+      <c r="AL425">
+        <v>0</v>
+      </c>
+      <c r="AM425">
+        <v>0</v>
+      </c>
+      <c r="AN425">
+        <v>0</v>
+      </c>
+      <c r="AO425">
+        <v>0</v>
+      </c>
+      <c r="AP425">
+        <v>0</v>
+      </c>
+      <c r="AQ425">
+        <v>0</v>
+      </c>
+      <c r="AR425">
+        <v>0</v>
+      </c>
+      <c r="AS425">
+        <v>0</v>
+      </c>
+      <c r="AT425">
+        <v>0</v>
+      </c>
+      <c r="AU425">
+        <v>0</v>
+      </c>
+      <c r="AV425">
+        <v>0</v>
+      </c>
+      <c r="AW425">
+        <v>0</v>
+      </c>
+      <c r="AX425">
+        <v>0</v>
+      </c>
+      <c r="AY425">
+        <v>0</v>
+      </c>
+      <c r="AZ425">
+        <v>0</v>
+      </c>
+      <c r="BA425">
+        <v>0</v>
+      </c>
+      <c r="BB425">
+        <v>0</v>
+      </c>
+      <c r="BC425">
+        <v>0</v>
+      </c>
+      <c r="BD425">
+        <v>0</v>
+      </c>
+      <c r="BE425">
+        <v>0</v>
+      </c>
+      <c r="BF425">
+        <v>0</v>
+      </c>
+      <c r="BG425">
+        <v>1</v>
+      </c>
+      <c r="BH425">
+        <v>1</v>
+      </c>
+      <c r="BI425">
+        <v>1</v>
+      </c>
+      <c r="BJ425">
+        <v>0</v>
+      </c>
+      <c r="BK425">
+        <v>0</v>
+      </c>
+      <c r="BL425">
+        <v>3</v>
+      </c>
+      <c r="BM425">
+        <v>0</v>
+      </c>
+      <c r="BN425">
+        <v>0</v>
+      </c>
+      <c r="BO425">
+        <v>1</v>
+      </c>
+      <c r="BP425">
+        <v>1</v>
+      </c>
+      <c r="BQ425">
+        <v>1</v>
+      </c>
+      <c r="BR425">
+        <v>0</v>
+      </c>
+      <c r="BS425">
+        <v>0</v>
+      </c>
+      <c r="BT425">
+        <v>3</v>
+      </c>
+      <c r="BU425" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV425" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW425" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX425" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY425" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ425" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA425" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB425" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC425" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD425" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE425" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF425" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="426" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>83</v>
+      </c>
+      <c r="B426" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C426" t="s">
+        <v>289</v>
+      </c>
+      <c r="D426" t="s">
+        <v>85</v>
+      </c>
+      <c r="E426" t="s">
+        <v>256</v>
+      </c>
+      <c r="F426" t="s">
+        <v>102</v>
+      </c>
+      <c r="G426" t="s">
+        <v>88</v>
+      </c>
+      <c r="H426" t="s">
+        <v>482</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426">
+        <v>0</v>
+      </c>
+      <c r="O426">
+        <v>0</v>
+      </c>
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>0</v>
+      </c>
+      <c r="R426">
+        <v>0</v>
+      </c>
+      <c r="S426">
+        <v>0</v>
+      </c>
+      <c r="T426">
+        <v>0</v>
+      </c>
+      <c r="U426">
+        <v>0</v>
+      </c>
+      <c r="V426">
+        <v>5</v>
+      </c>
+      <c r="W426">
+        <v>15</v>
+      </c>
+      <c r="X426">
+        <v>20</v>
+      </c>
+      <c r="Y426">
+        <v>0</v>
+      </c>
+      <c r="Z426">
+        <v>0</v>
+      </c>
+      <c r="AA426">
+        <v>0</v>
+      </c>
+      <c r="AB426">
+        <v>0</v>
+      </c>
+      <c r="AC426">
+        <v>0</v>
+      </c>
+      <c r="AD426">
+        <v>0</v>
+      </c>
+      <c r="AE426">
+        <v>0</v>
+      </c>
+      <c r="AF426">
+        <v>0</v>
+      </c>
+      <c r="AG426">
+        <v>0</v>
+      </c>
+      <c r="AH426">
+        <v>0</v>
+      </c>
+      <c r="AI426">
+        <v>0</v>
+      </c>
+      <c r="AJ426">
+        <v>0</v>
+      </c>
+      <c r="AK426">
+        <v>0</v>
+      </c>
+      <c r="AL426">
+        <v>0</v>
+      </c>
+      <c r="AM426">
+        <v>0</v>
+      </c>
+      <c r="AN426">
+        <v>0</v>
+      </c>
+      <c r="AO426">
+        <v>0</v>
+      </c>
+      <c r="AP426">
+        <v>0</v>
+      </c>
+      <c r="AQ426">
+        <v>0</v>
+      </c>
+      <c r="AR426">
+        <v>0</v>
+      </c>
+      <c r="AS426">
+        <v>0</v>
+      </c>
+      <c r="AT426">
+        <v>0</v>
+      </c>
+      <c r="AU426">
+        <v>0</v>
+      </c>
+      <c r="AV426">
+        <v>0</v>
+      </c>
+      <c r="AW426">
+        <v>0</v>
+      </c>
+      <c r="AX426">
+        <v>0</v>
+      </c>
+      <c r="AY426">
+        <v>0</v>
+      </c>
+      <c r="AZ426">
+        <v>0</v>
+      </c>
+      <c r="BA426">
+        <v>0</v>
+      </c>
+      <c r="BB426">
+        <v>0</v>
+      </c>
+      <c r="BC426">
+        <v>1</v>
+      </c>
+      <c r="BD426">
+        <v>1</v>
+      </c>
+      <c r="BE426">
+        <v>0</v>
+      </c>
+      <c r="BF426">
+        <v>0</v>
+      </c>
+      <c r="BG426">
+        <v>0</v>
+      </c>
+      <c r="BH426">
+        <v>0</v>
+      </c>
+      <c r="BI426">
+        <v>0</v>
+      </c>
+      <c r="BJ426">
+        <v>0</v>
+      </c>
+      <c r="BK426">
+        <v>0</v>
+      </c>
+      <c r="BL426">
+        <v>0</v>
+      </c>
+      <c r="BM426">
+        <v>0</v>
+      </c>
+      <c r="BN426">
+        <v>0</v>
+      </c>
+      <c r="BO426">
+        <v>0</v>
+      </c>
+      <c r="BP426">
+        <v>0</v>
+      </c>
+      <c r="BQ426">
+        <v>1</v>
+      </c>
+      <c r="BR426">
+        <v>2</v>
+      </c>
+      <c r="BS426">
+        <v>7</v>
+      </c>
+      <c r="BT426">
+        <v>10</v>
+      </c>
+      <c r="BU426" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV426" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW426" t="s">
+        <v>258</v>
+      </c>
+      <c r="BX426" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY426" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ426" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA426" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB426" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC426" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD426" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE426" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF426" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="427" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>83</v>
+      </c>
+      <c r="B427" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C427" t="s">
+        <v>289</v>
+      </c>
+      <c r="D427" t="s">
+        <v>85</v>
+      </c>
+      <c r="E427" t="s">
+        <v>256</v>
+      </c>
+      <c r="F427" t="s">
+        <v>132</v>
+      </c>
+      <c r="G427" t="s">
+        <v>88</v>
+      </c>
+      <c r="H427" t="s">
+        <v>406</v>
+      </c>
+      <c r="I427">
+        <v>6</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427">
+        <v>4</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="M427">
+        <v>0</v>
+      </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
+        <v>5</v>
+      </c>
+      <c r="P427">
+        <v>17</v>
+      </c>
+      <c r="Q427">
+        <v>9</v>
+      </c>
+      <c r="R427">
+        <v>5</v>
+      </c>
+      <c r="S427">
+        <v>8</v>
+      </c>
+      <c r="T427">
+        <v>13</v>
+      </c>
+      <c r="U427">
+        <v>20</v>
+      </c>
+      <c r="V427">
+        <v>16</v>
+      </c>
+      <c r="W427">
+        <v>97</v>
+      </c>
+      <c r="X427">
+        <v>168</v>
+      </c>
+      <c r="Y427">
+        <v>0</v>
+      </c>
+      <c r="Z427">
+        <v>0</v>
+      </c>
+      <c r="AA427">
+        <v>0</v>
+      </c>
+      <c r="AB427">
+        <v>0</v>
+      </c>
+      <c r="AC427">
+        <v>0</v>
+      </c>
+      <c r="AD427">
+        <v>0</v>
+      </c>
+      <c r="AE427">
+        <v>0</v>
+      </c>
+      <c r="AF427">
+        <v>0</v>
+      </c>
+      <c r="AG427">
+        <v>0</v>
+      </c>
+      <c r="AH427">
+        <v>0</v>
+      </c>
+      <c r="AI427">
+        <v>0</v>
+      </c>
+      <c r="AJ427">
+        <v>0</v>
+      </c>
+      <c r="AK427">
+        <v>0</v>
+      </c>
+      <c r="AL427">
+        <v>0</v>
+      </c>
+      <c r="AM427">
+        <v>0</v>
+      </c>
+      <c r="AN427">
+        <v>0</v>
+      </c>
+      <c r="AO427">
+        <v>0</v>
+      </c>
+      <c r="AP427">
+        <v>0</v>
+      </c>
+      <c r="AQ427">
+        <v>0</v>
+      </c>
+      <c r="AR427">
+        <v>0</v>
+      </c>
+      <c r="AS427">
+        <v>0</v>
+      </c>
+      <c r="AT427">
+        <v>0</v>
+      </c>
+      <c r="AU427">
+        <v>0</v>
+      </c>
+      <c r="AV427">
+        <v>0</v>
+      </c>
+      <c r="AW427">
+        <v>1</v>
+      </c>
+      <c r="AX427">
+        <v>0</v>
+      </c>
+      <c r="AY427">
+        <v>0</v>
+      </c>
+      <c r="AZ427">
+        <v>0</v>
+      </c>
+      <c r="BA427">
+        <v>3</v>
+      </c>
+      <c r="BB427">
+        <v>2</v>
+      </c>
+      <c r="BC427">
+        <v>30</v>
+      </c>
+      <c r="BD427">
+        <v>36</v>
+      </c>
+      <c r="BE427">
+        <v>6</v>
+      </c>
+      <c r="BF427">
+        <v>4</v>
+      </c>
+      <c r="BG427">
+        <v>9</v>
+      </c>
+      <c r="BH427">
+        <v>8</v>
+      </c>
+      <c r="BI427">
+        <v>3</v>
+      </c>
+      <c r="BJ427">
+        <v>0</v>
+      </c>
+      <c r="BK427">
+        <v>4</v>
+      </c>
+      <c r="BL427">
+        <v>34</v>
+      </c>
+      <c r="BM427">
+        <v>31</v>
+      </c>
+      <c r="BN427">
+        <v>31</v>
+      </c>
+      <c r="BO427">
+        <v>64</v>
+      </c>
+      <c r="BP427">
+        <v>74</v>
+      </c>
+      <c r="BQ427">
+        <v>97</v>
+      </c>
+      <c r="BR427">
+        <v>55</v>
+      </c>
+      <c r="BS427">
+        <v>209</v>
+      </c>
+      <c r="BT427">
+        <v>561</v>
+      </c>
+      <c r="BU427" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV427" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW427" t="s">
+        <v>764</v>
+      </c>
+      <c r="BX427" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY427" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ427" t="s">
+        <v>388</v>
+      </c>
+      <c r="CA427" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB427" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC427" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD427" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE427" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF427" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="428" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>83</v>
+      </c>
+      <c r="B428" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C428" t="s">
+        <v>289</v>
+      </c>
+      <c r="D428" t="s">
+        <v>85</v>
+      </c>
+      <c r="E428" t="s">
+        <v>234</v>
+      </c>
+      <c r="F428" t="s">
+        <v>102</v>
+      </c>
+      <c r="G428" t="s">
+        <v>88</v>
+      </c>
+      <c r="H428" t="s">
+        <v>472</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+      <c r="M428">
+        <v>1</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
+      <c r="P428">
+        <v>1</v>
+      </c>
+      <c r="Q428">
+        <v>0</v>
+      </c>
+      <c r="R428">
+        <v>0</v>
+      </c>
+      <c r="S428">
+        <v>0</v>
+      </c>
+      <c r="T428">
+        <v>1</v>
+      </c>
+      <c r="U428">
+        <v>4</v>
+      </c>
+      <c r="V428">
+        <v>7</v>
+      </c>
+      <c r="W428">
+        <v>10</v>
+      </c>
+      <c r="X428">
+        <v>22</v>
+      </c>
+      <c r="Y428">
+        <v>0</v>
+      </c>
+      <c r="Z428">
+        <v>0</v>
+      </c>
+      <c r="AA428">
+        <v>0</v>
+      </c>
+      <c r="AB428">
+        <v>0</v>
+      </c>
+      <c r="AC428">
+        <v>0</v>
+      </c>
+      <c r="AD428">
+        <v>0</v>
+      </c>
+      <c r="AE428">
+        <v>0</v>
+      </c>
+      <c r="AF428">
+        <v>0</v>
+      </c>
+      <c r="AG428">
+        <v>0</v>
+      </c>
+      <c r="AH428">
+        <v>0</v>
+      </c>
+      <c r="AI428">
+        <v>0</v>
+      </c>
+      <c r="AJ428">
+        <v>0</v>
+      </c>
+      <c r="AK428">
+        <v>0</v>
+      </c>
+      <c r="AL428">
+        <v>0</v>
+      </c>
+      <c r="AM428">
+        <v>0</v>
+      </c>
+      <c r="AN428">
+        <v>0</v>
+      </c>
+      <c r="AO428">
+        <v>0</v>
+      </c>
+      <c r="AP428">
+        <v>0</v>
+      </c>
+      <c r="AQ428">
+        <v>0</v>
+      </c>
+      <c r="AR428">
+        <v>0</v>
+      </c>
+      <c r="AS428">
+        <v>0</v>
+      </c>
+      <c r="AT428">
+        <v>0</v>
+      </c>
+      <c r="AU428">
+        <v>0</v>
+      </c>
+      <c r="AV428">
+        <v>0</v>
+      </c>
+      <c r="AW428">
+        <v>0</v>
+      </c>
+      <c r="AX428">
+        <v>0</v>
+      </c>
+      <c r="AY428">
+        <v>0</v>
+      </c>
+      <c r="AZ428">
+        <v>0</v>
+      </c>
+      <c r="BA428">
+        <v>0</v>
+      </c>
+      <c r="BB428">
+        <v>0</v>
+      </c>
+      <c r="BC428">
+        <v>0</v>
+      </c>
+      <c r="BD428">
+        <v>0</v>
+      </c>
+      <c r="BE428">
+        <v>2</v>
+      </c>
+      <c r="BF428">
+        <v>0</v>
+      </c>
+      <c r="BG428">
+        <v>2</v>
+      </c>
+      <c r="BH428">
+        <v>4</v>
+      </c>
+      <c r="BI428">
+        <v>13</v>
+      </c>
+      <c r="BJ428">
+        <v>24</v>
+      </c>
+      <c r="BK428">
+        <v>5</v>
+      </c>
+      <c r="BL428">
+        <v>50</v>
+      </c>
+      <c r="BM428">
+        <v>3</v>
+      </c>
+      <c r="BN428">
+        <v>6</v>
+      </c>
+      <c r="BO428">
+        <v>12</v>
+      </c>
+      <c r="BP428">
+        <v>56</v>
+      </c>
+      <c r="BQ428">
+        <v>136</v>
+      </c>
+      <c r="BR428">
+        <v>142</v>
+      </c>
+      <c r="BS428">
+        <v>144</v>
+      </c>
+      <c r="BT428">
+        <v>499</v>
+      </c>
+      <c r="BU428" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV428" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW428" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX428" t="s">
+        <v>765</v>
+      </c>
+      <c r="BY428" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ428" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA428" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB428" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC428" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD428" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE428" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF428" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="429" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>83</v>
+      </c>
+      <c r="B429" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C429" t="s">
+        <v>289</v>
+      </c>
+      <c r="D429" t="s">
+        <v>85</v>
+      </c>
+      <c r="E429" t="s">
+        <v>241</v>
+      </c>
+      <c r="F429" t="s">
+        <v>132</v>
+      </c>
+      <c r="G429" t="s">
+        <v>88</v>
+      </c>
+      <c r="H429" t="s">
+        <v>368</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
+      <c r="P429">
+        <v>0</v>
+      </c>
+      <c r="Q429">
+        <v>0</v>
+      </c>
+      <c r="R429">
+        <v>0</v>
+      </c>
+      <c r="S429">
+        <v>0</v>
+      </c>
+      <c r="T429">
+        <v>0</v>
+      </c>
+      <c r="U429">
+        <v>0</v>
+      </c>
+      <c r="V429">
+        <v>0</v>
+      </c>
+      <c r="W429">
+        <v>0</v>
+      </c>
+      <c r="X429">
+        <v>0</v>
+      </c>
+      <c r="Y429">
+        <v>0</v>
+      </c>
+      <c r="Z429">
+        <v>0</v>
+      </c>
+      <c r="AA429">
+        <v>0</v>
+      </c>
+      <c r="AB429">
+        <v>0</v>
+      </c>
+      <c r="AC429">
+        <v>0</v>
+      </c>
+      <c r="AD429">
+        <v>0</v>
+      </c>
+      <c r="AE429">
+        <v>0</v>
+      </c>
+      <c r="AF429">
+        <v>0</v>
+      </c>
+      <c r="AG429">
+        <v>0</v>
+      </c>
+      <c r="AH429">
+        <v>0</v>
+      </c>
+      <c r="AI429">
+        <v>0</v>
+      </c>
+      <c r="AJ429">
+        <v>0</v>
+      </c>
+      <c r="AK429">
+        <v>0</v>
+      </c>
+      <c r="AL429">
+        <v>0</v>
+      </c>
+      <c r="AM429">
+        <v>0</v>
+      </c>
+      <c r="AN429">
+        <v>0</v>
+      </c>
+      <c r="AO429">
+        <v>0</v>
+      </c>
+      <c r="AP429">
+        <v>0</v>
+      </c>
+      <c r="AQ429">
+        <v>0</v>
+      </c>
+      <c r="AR429">
+        <v>0</v>
+      </c>
+      <c r="AS429">
+        <v>0</v>
+      </c>
+      <c r="AT429">
+        <v>0</v>
+      </c>
+      <c r="AU429">
+        <v>0</v>
+      </c>
+      <c r="AV429">
+        <v>0</v>
+      </c>
+      <c r="AW429">
+        <v>0</v>
+      </c>
+      <c r="AX429">
+        <v>0</v>
+      </c>
+      <c r="AY429">
+        <v>0</v>
+      </c>
+      <c r="AZ429">
+        <v>0</v>
+      </c>
+      <c r="BA429">
+        <v>0</v>
+      </c>
+      <c r="BB429">
+        <v>0</v>
+      </c>
+      <c r="BC429">
+        <v>0</v>
+      </c>
+      <c r="BD429">
+        <v>0</v>
+      </c>
+      <c r="BE429">
+        <v>0</v>
+      </c>
+      <c r="BF429">
+        <v>0</v>
+      </c>
+      <c r="BG429">
+        <v>7</v>
+      </c>
+      <c r="BH429">
+        <v>2</v>
+      </c>
+      <c r="BI429">
+        <v>4</v>
+      </c>
+      <c r="BJ429">
+        <v>2</v>
+      </c>
+      <c r="BK429">
+        <v>0</v>
+      </c>
+      <c r="BL429">
+        <v>15</v>
+      </c>
+      <c r="BM429">
+        <v>0</v>
+      </c>
+      <c r="BN429">
+        <v>0</v>
+      </c>
+      <c r="BO429">
+        <v>7</v>
+      </c>
+      <c r="BP429">
+        <v>2</v>
+      </c>
+      <c r="BQ429">
+        <v>4</v>
+      </c>
+      <c r="BR429">
+        <v>2</v>
+      </c>
+      <c r="BS429">
+        <v>0</v>
+      </c>
+      <c r="BT429">
+        <v>15</v>
+      </c>
+      <c r="BU429" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV429" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW429" t="s">
+        <v>766</v>
+      </c>
+      <c r="BX429" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY429" t="s">
+        <v>767</v>
+      </c>
+      <c r="BZ429" t="s">
+        <v>768</v>
+      </c>
+      <c r="CA429" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB429" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC429" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD429" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE429" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF429" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="430" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>83</v>
+      </c>
+      <c r="B430" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C430" t="s">
+        <v>289</v>
+      </c>
+      <c r="D430" t="s">
+        <v>85</v>
+      </c>
+      <c r="E430" t="s">
+        <v>268</v>
+      </c>
+      <c r="F430" t="s">
+        <v>132</v>
+      </c>
+      <c r="G430" t="s">
+        <v>88</v>
+      </c>
+      <c r="H430" t="s">
+        <v>289</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430">
+        <v>0</v>
+      </c>
+      <c r="P430">
+        <v>0</v>
+      </c>
+      <c r="Q430">
+        <v>0</v>
+      </c>
+      <c r="R430">
+        <v>0</v>
+      </c>
+      <c r="S430">
+        <v>0</v>
+      </c>
+      <c r="T430">
+        <v>0</v>
+      </c>
+      <c r="U430">
+        <v>0</v>
+      </c>
+      <c r="V430">
+        <v>0</v>
+      </c>
+      <c r="W430">
+        <v>0</v>
+      </c>
+      <c r="X430">
+        <v>0</v>
+      </c>
+      <c r="Y430">
+        <v>0</v>
+      </c>
+      <c r="Z430">
+        <v>0</v>
+      </c>
+      <c r="AA430">
+        <v>0</v>
+      </c>
+      <c r="AB430">
+        <v>0</v>
+      </c>
+      <c r="AC430">
+        <v>0</v>
+      </c>
+      <c r="AD430">
+        <v>0</v>
+      </c>
+      <c r="AE430">
+        <v>0</v>
+      </c>
+      <c r="AF430">
+        <v>0</v>
+      </c>
+      <c r="AG430">
+        <v>0</v>
+      </c>
+      <c r="AH430">
+        <v>0</v>
+      </c>
+      <c r="AI430">
+        <v>0</v>
+      </c>
+      <c r="AJ430">
+        <v>0</v>
+      </c>
+      <c r="AK430">
+        <v>0</v>
+      </c>
+      <c r="AL430">
+        <v>0</v>
+      </c>
+      <c r="AM430">
+        <v>0</v>
+      </c>
+      <c r="AN430">
+        <v>0</v>
+      </c>
+      <c r="AO430">
+        <v>0</v>
+      </c>
+      <c r="AP430">
+        <v>0</v>
+      </c>
+      <c r="AQ430">
+        <v>0</v>
+      </c>
+      <c r="AR430">
+        <v>0</v>
+      </c>
+      <c r="AS430">
+        <v>0</v>
+      </c>
+      <c r="AT430">
+        <v>0</v>
+      </c>
+      <c r="AU430">
+        <v>0</v>
+      </c>
+      <c r="AV430">
+        <v>0</v>
+      </c>
+      <c r="AW430">
+        <v>0</v>
+      </c>
+      <c r="AX430">
+        <v>0</v>
+      </c>
+      <c r="AY430">
+        <v>0</v>
+      </c>
+      <c r="AZ430">
+        <v>0</v>
+      </c>
+      <c r="BA430">
+        <v>0</v>
+      </c>
+      <c r="BB430">
+        <v>0</v>
+      </c>
+      <c r="BC430">
+        <v>0</v>
+      </c>
+      <c r="BD430">
+        <v>0</v>
+      </c>
+      <c r="BE430">
+        <v>1</v>
+      </c>
+      <c r="BF430">
+        <v>2</v>
+      </c>
+      <c r="BG430">
+        <v>3</v>
+      </c>
+      <c r="BH430">
+        <v>3</v>
+      </c>
+      <c r="BI430">
+        <v>1</v>
+      </c>
+      <c r="BJ430">
+        <v>0</v>
+      </c>
+      <c r="BK430">
+        <v>1</v>
+      </c>
+      <c r="BL430">
+        <v>11</v>
+      </c>
+      <c r="BM430">
+        <v>77</v>
+      </c>
+      <c r="BN430">
+        <v>48</v>
+      </c>
+      <c r="BO430">
+        <v>103</v>
+      </c>
+      <c r="BP430">
+        <v>381</v>
+      </c>
+      <c r="BQ430">
+        <v>901</v>
+      </c>
+      <c r="BR430">
+        <v>777</v>
+      </c>
+      <c r="BS430">
+        <v>785</v>
+      </c>
+      <c r="BT430">
+        <v>3072</v>
+      </c>
+      <c r="BU430" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV430" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW430" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX430" t="s">
+        <v>271</v>
+      </c>
+      <c r="BY430" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ430" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA430" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB430" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC430" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD430" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE430" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF430" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="431" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>83</v>
+      </c>
+      <c r="B431" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C431" t="s">
+        <v>289</v>
+      </c>
+      <c r="D431" t="s">
+        <v>85</v>
+      </c>
+      <c r="E431" t="s">
+        <v>188</v>
+      </c>
+      <c r="F431" t="s">
+        <v>102</v>
+      </c>
+      <c r="G431" t="s">
+        <v>88</v>
+      </c>
+      <c r="H431" t="s">
+        <v>89</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431">
+        <v>0</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <v>0</v>
+      </c>
+      <c r="Q431">
+        <v>0</v>
+      </c>
+      <c r="R431">
+        <v>0</v>
+      </c>
+      <c r="S431">
+        <v>0</v>
+      </c>
+      <c r="T431">
+        <v>0</v>
+      </c>
+      <c r="U431">
+        <v>0</v>
+      </c>
+      <c r="V431">
+        <v>0</v>
+      </c>
+      <c r="W431">
+        <v>0</v>
+      </c>
+      <c r="X431">
+        <v>0</v>
+      </c>
+      <c r="Y431">
+        <v>0</v>
+      </c>
+      <c r="Z431">
+        <v>0</v>
+      </c>
+      <c r="AA431">
+        <v>0</v>
+      </c>
+      <c r="AB431">
+        <v>0</v>
+      </c>
+      <c r="AC431">
+        <v>0</v>
+      </c>
+      <c r="AD431">
+        <v>0</v>
+      </c>
+      <c r="AE431">
+        <v>0</v>
+      </c>
+      <c r="AF431">
+        <v>0</v>
+      </c>
+      <c r="AG431">
+        <v>0</v>
+      </c>
+      <c r="AH431">
+        <v>0</v>
+      </c>
+      <c r="AI431">
+        <v>0</v>
+      </c>
+      <c r="AJ431">
+        <v>0</v>
+      </c>
+      <c r="AK431">
+        <v>0</v>
+      </c>
+      <c r="AL431">
+        <v>0</v>
+      </c>
+      <c r="AM431">
+        <v>0</v>
+      </c>
+      <c r="AN431">
+        <v>0</v>
+      </c>
+      <c r="AO431">
+        <v>0</v>
+      </c>
+      <c r="AP431">
+        <v>0</v>
+      </c>
+      <c r="AQ431">
+        <v>0</v>
+      </c>
+      <c r="AR431">
+        <v>0</v>
+      </c>
+      <c r="AS431">
+        <v>0</v>
+      </c>
+      <c r="AT431">
+        <v>0</v>
+      </c>
+      <c r="AU431">
+        <v>0</v>
+      </c>
+      <c r="AV431">
+        <v>0</v>
+      </c>
+      <c r="AW431">
+        <v>0</v>
+      </c>
+      <c r="AX431">
+        <v>0</v>
+      </c>
+      <c r="AY431">
+        <v>0</v>
+      </c>
+      <c r="AZ431">
+        <v>0</v>
+      </c>
+      <c r="BA431">
+        <v>0</v>
+      </c>
+      <c r="BB431">
+        <v>0</v>
+      </c>
+      <c r="BC431">
+        <v>0</v>
+      </c>
+      <c r="BD431">
+        <v>0</v>
+      </c>
+      <c r="BE431">
+        <v>0</v>
+      </c>
+      <c r="BF431">
+        <v>0</v>
+      </c>
+      <c r="BG431">
+        <v>0</v>
+      </c>
+      <c r="BH431">
+        <v>4</v>
+      </c>
+      <c r="BI431">
+        <v>0</v>
+      </c>
+      <c r="BJ431">
+        <v>0</v>
+      </c>
+      <c r="BK431">
+        <v>1</v>
+      </c>
+      <c r="BL431">
+        <v>5</v>
+      </c>
+      <c r="BM431">
+        <v>2</v>
+      </c>
+      <c r="BN431">
+        <v>3</v>
+      </c>
+      <c r="BO431">
+        <v>0</v>
+      </c>
+      <c r="BP431">
+        <v>4</v>
+      </c>
+      <c r="BQ431">
+        <v>5</v>
+      </c>
+      <c r="BR431">
+        <v>13</v>
+      </c>
+      <c r="BS431">
+        <v>25</v>
+      </c>
+      <c r="BT431">
+        <v>52</v>
+      </c>
+      <c r="BU431" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV431" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW431" t="s">
+        <v>190</v>
+      </c>
+      <c r="BX431" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY431" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ431" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA431" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB431" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC431" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD431" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE431" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF431" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="432" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>83</v>
+      </c>
+      <c r="B432" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C432" t="s">
+        <v>289</v>
+      </c>
+      <c r="D432" t="s">
+        <v>85</v>
+      </c>
+      <c r="E432" t="s">
+        <v>115</v>
+      </c>
+      <c r="F432" t="s">
+        <v>173</v>
+      </c>
+      <c r="G432" t="s">
+        <v>88</v>
+      </c>
+      <c r="H432" t="s">
+        <v>573</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+      <c r="O432">
+        <v>0</v>
+      </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
+      <c r="Q432">
+        <v>0</v>
+      </c>
+      <c r="R432">
+        <v>0</v>
+      </c>
+      <c r="S432">
+        <v>0</v>
+      </c>
+      <c r="T432">
+        <v>0</v>
+      </c>
+      <c r="U432">
+        <v>0</v>
+      </c>
+      <c r="V432">
+        <v>0</v>
+      </c>
+      <c r="W432">
+        <v>0</v>
+      </c>
+      <c r="X432">
+        <v>0</v>
+      </c>
+      <c r="Y432">
+        <v>0</v>
+      </c>
+      <c r="Z432">
+        <v>0</v>
+      </c>
+      <c r="AA432">
+        <v>0</v>
+      </c>
+      <c r="AB432">
+        <v>0</v>
+      </c>
+      <c r="AC432">
+        <v>0</v>
+      </c>
+      <c r="AD432">
+        <v>0</v>
+      </c>
+      <c r="AE432">
+        <v>0</v>
+      </c>
+      <c r="AF432">
+        <v>0</v>
+      </c>
+      <c r="AG432">
+        <v>0</v>
+      </c>
+      <c r="AH432">
+        <v>0</v>
+      </c>
+      <c r="AI432">
+        <v>0</v>
+      </c>
+      <c r="AJ432">
+        <v>0</v>
+      </c>
+      <c r="AK432">
+        <v>0</v>
+      </c>
+      <c r="AL432">
+        <v>0</v>
+      </c>
+      <c r="AM432">
+        <v>0</v>
+      </c>
+      <c r="AN432">
+        <v>0</v>
+      </c>
+      <c r="AO432">
+        <v>0</v>
+      </c>
+      <c r="AP432">
+        <v>0</v>
+      </c>
+      <c r="AQ432">
+        <v>0</v>
+      </c>
+      <c r="AR432">
+        <v>0</v>
+      </c>
+      <c r="AS432">
+        <v>0</v>
+      </c>
+      <c r="AT432">
+        <v>0</v>
+      </c>
+      <c r="AU432">
+        <v>0</v>
+      </c>
+      <c r="AV432">
+        <v>0</v>
+      </c>
+      <c r="AW432">
+        <v>0</v>
+      </c>
+      <c r="AX432">
+        <v>0</v>
+      </c>
+      <c r="AY432">
+        <v>0</v>
+      </c>
+      <c r="AZ432">
+        <v>0</v>
+      </c>
+      <c r="BA432">
+        <v>0</v>
+      </c>
+      <c r="BB432">
+        <v>0</v>
+      </c>
+      <c r="BC432">
+        <v>0</v>
+      </c>
+      <c r="BD432">
+        <v>0</v>
+      </c>
+      <c r="BE432">
+        <v>0</v>
+      </c>
+      <c r="BF432">
+        <v>0</v>
+      </c>
+      <c r="BG432">
+        <v>0</v>
+      </c>
+      <c r="BH432">
+        <v>1</v>
+      </c>
+      <c r="BI432">
+        <v>9</v>
+      </c>
+      <c r="BJ432">
+        <v>4</v>
+      </c>
+      <c r="BK432">
+        <v>10</v>
+      </c>
+      <c r="BL432">
+        <v>24</v>
+      </c>
+      <c r="BM432">
+        <v>2</v>
+      </c>
+      <c r="BN432">
+        <v>0</v>
+      </c>
+      <c r="BO432">
+        <v>6</v>
+      </c>
+      <c r="BP432">
+        <v>47</v>
+      </c>
+      <c r="BQ432">
+        <v>201</v>
+      </c>
+      <c r="BR432">
+        <v>190</v>
+      </c>
+      <c r="BS432">
+        <v>116</v>
+      </c>
+      <c r="BT432">
+        <v>562</v>
+      </c>
+      <c r="BU432" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV432" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW432" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX432" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY432" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ432" t="s">
+        <v>332</v>
+      </c>
+      <c r="CA432" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB432" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC432" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD432" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE432" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF432" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC75E76-0459-DE43-BEBC-AF67BA231AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{329A3A04-501B-5B40-91A6-64F123C36BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7842" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8472" uniqueCount="801">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2329,6 +2329,99 @@
     <t>MARIANA.LOPEZ@CHRISTUS.CO</t>
   </si>
   <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>BLANCA  ORTIZ</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>ERIKA VELEZ</t>
+  </si>
+  <si>
+    <t>105918716</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>3156263388</t>
+  </si>
+  <si>
+    <t>CALODADREDMEDICAVITAL@GMAIL.CO</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>EPIDMEIOLOGIA</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>AREA DE EPIDEMIOLIGIA</t>
+  </si>
+  <si>
+    <t>EPIDMEIOLOGIA@SOCIMEDICOS.COM</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>ENFERMERA SEGUIMIENTO</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>AREA DE EPIDEMIOLOGIA</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2336,15 +2429,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2367,10 +2455,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2753,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF432"/>
+  <dimension ref="A1:CF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2771,8 +2858,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>769</v>
+      <c r="D1" t="s">
+        <v>800</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -112487,6 +112574,8896 @@
       </c>
       <c r="CF432" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="433" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>83</v>
+      </c>
+      <c r="B433" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C433" t="s">
+        <v>356</v>
+      </c>
+      <c r="D433" t="s">
+        <v>85</v>
+      </c>
+      <c r="E433" t="s">
+        <v>256</v>
+      </c>
+      <c r="F433" t="s">
+        <v>132</v>
+      </c>
+      <c r="G433" t="s">
+        <v>88</v>
+      </c>
+      <c r="H433" t="s">
+        <v>124</v>
+      </c>
+      <c r="I433">
+        <v>3</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <v>2</v>
+      </c>
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+      <c r="O433">
+        <v>1</v>
+      </c>
+      <c r="P433">
+        <v>8</v>
+      </c>
+      <c r="Q433">
+        <v>6</v>
+      </c>
+      <c r="R433">
+        <v>4</v>
+      </c>
+      <c r="S433">
+        <v>11</v>
+      </c>
+      <c r="T433">
+        <v>17</v>
+      </c>
+      <c r="U433">
+        <v>15</v>
+      </c>
+      <c r="V433">
+        <v>25</v>
+      </c>
+      <c r="W433">
+        <v>81</v>
+      </c>
+      <c r="X433">
+        <v>159</v>
+      </c>
+      <c r="Y433">
+        <v>0</v>
+      </c>
+      <c r="Z433">
+        <v>0</v>
+      </c>
+      <c r="AA433">
+        <v>0</v>
+      </c>
+      <c r="AB433">
+        <v>0</v>
+      </c>
+      <c r="AC433">
+        <v>0</v>
+      </c>
+      <c r="AD433">
+        <v>0</v>
+      </c>
+      <c r="AE433">
+        <v>0</v>
+      </c>
+      <c r="AF433">
+        <v>0</v>
+      </c>
+      <c r="AG433">
+        <v>0</v>
+      </c>
+      <c r="AH433">
+        <v>0</v>
+      </c>
+      <c r="AI433">
+        <v>0</v>
+      </c>
+      <c r="AJ433">
+        <v>0</v>
+      </c>
+      <c r="AK433">
+        <v>0</v>
+      </c>
+      <c r="AL433">
+        <v>0</v>
+      </c>
+      <c r="AM433">
+        <v>0</v>
+      </c>
+      <c r="AN433">
+        <v>0</v>
+      </c>
+      <c r="AO433">
+        <v>0</v>
+      </c>
+      <c r="AP433">
+        <v>0</v>
+      </c>
+      <c r="AQ433">
+        <v>0</v>
+      </c>
+      <c r="AR433">
+        <v>0</v>
+      </c>
+      <c r="AS433">
+        <v>0</v>
+      </c>
+      <c r="AT433">
+        <v>0</v>
+      </c>
+      <c r="AU433">
+        <v>0</v>
+      </c>
+      <c r="AV433">
+        <v>0</v>
+      </c>
+      <c r="AW433">
+        <v>0</v>
+      </c>
+      <c r="AX433">
+        <v>0</v>
+      </c>
+      <c r="AY433">
+        <v>0</v>
+      </c>
+      <c r="AZ433">
+        <v>0</v>
+      </c>
+      <c r="BA433">
+        <v>0</v>
+      </c>
+      <c r="BB433">
+        <v>4</v>
+      </c>
+      <c r="BC433">
+        <v>27</v>
+      </c>
+      <c r="BD433">
+        <v>31</v>
+      </c>
+      <c r="BE433">
+        <v>5</v>
+      </c>
+      <c r="BF433">
+        <v>6</v>
+      </c>
+      <c r="BG433">
+        <v>11</v>
+      </c>
+      <c r="BH433">
+        <v>1</v>
+      </c>
+      <c r="BI433">
+        <v>3</v>
+      </c>
+      <c r="BJ433">
+        <v>2</v>
+      </c>
+      <c r="BK433">
+        <v>5</v>
+      </c>
+      <c r="BL433">
+        <v>33</v>
+      </c>
+      <c r="BM433">
+        <v>21</v>
+      </c>
+      <c r="BN433">
+        <v>21</v>
+      </c>
+      <c r="BO433">
+        <v>52</v>
+      </c>
+      <c r="BP433">
+        <v>54</v>
+      </c>
+      <c r="BQ433">
+        <v>38</v>
+      </c>
+      <c r="BR433">
+        <v>79</v>
+      </c>
+      <c r="BS433">
+        <v>146</v>
+      </c>
+      <c r="BT433">
+        <v>411</v>
+      </c>
+      <c r="BU433" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV433" s="1">
+        <v>44642</v>
+      </c>
+      <c r="BW433" t="s">
+        <v>764</v>
+      </c>
+      <c r="BX433" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY433" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ433" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA433" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB433" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC433" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD433" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE433" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF433" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="434" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>83</v>
+      </c>
+      <c r="B434" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C434" t="s">
+        <v>345</v>
+      </c>
+      <c r="D434" t="s">
+        <v>85</v>
+      </c>
+      <c r="E434" t="s">
+        <v>213</v>
+      </c>
+      <c r="F434" t="s">
+        <v>102</v>
+      </c>
+      <c r="G434" t="s">
+        <v>88</v>
+      </c>
+      <c r="H434" t="s">
+        <v>769</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>1</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>0</v>
+      </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
+      <c r="P434">
+        <v>1</v>
+      </c>
+      <c r="Q434">
+        <v>0</v>
+      </c>
+      <c r="R434">
+        <v>0</v>
+      </c>
+      <c r="S434">
+        <v>4</v>
+      </c>
+      <c r="T434">
+        <v>7</v>
+      </c>
+      <c r="U434">
+        <v>14</v>
+      </c>
+      <c r="V434">
+        <v>0</v>
+      </c>
+      <c r="W434">
+        <v>9</v>
+      </c>
+      <c r="X434">
+        <v>34</v>
+      </c>
+      <c r="Y434">
+        <v>0</v>
+      </c>
+      <c r="Z434">
+        <v>0</v>
+      </c>
+      <c r="AA434">
+        <v>0</v>
+      </c>
+      <c r="AB434">
+        <v>0</v>
+      </c>
+      <c r="AC434">
+        <v>0</v>
+      </c>
+      <c r="AD434">
+        <v>0</v>
+      </c>
+      <c r="AE434">
+        <v>0</v>
+      </c>
+      <c r="AF434">
+        <v>0</v>
+      </c>
+      <c r="AG434">
+        <v>0</v>
+      </c>
+      <c r="AH434">
+        <v>0</v>
+      </c>
+      <c r="AI434">
+        <v>0</v>
+      </c>
+      <c r="AJ434">
+        <v>0</v>
+      </c>
+      <c r="AK434">
+        <v>0</v>
+      </c>
+      <c r="AL434">
+        <v>0</v>
+      </c>
+      <c r="AM434">
+        <v>0</v>
+      </c>
+      <c r="AN434">
+        <v>0</v>
+      </c>
+      <c r="AO434">
+        <v>0</v>
+      </c>
+      <c r="AP434">
+        <v>0</v>
+      </c>
+      <c r="AQ434">
+        <v>0</v>
+      </c>
+      <c r="AR434">
+        <v>0</v>
+      </c>
+      <c r="AS434">
+        <v>0</v>
+      </c>
+      <c r="AT434">
+        <v>0</v>
+      </c>
+      <c r="AU434">
+        <v>0</v>
+      </c>
+      <c r="AV434">
+        <v>0</v>
+      </c>
+      <c r="AW434">
+        <v>0</v>
+      </c>
+      <c r="AX434">
+        <v>0</v>
+      </c>
+      <c r="AY434">
+        <v>0</v>
+      </c>
+      <c r="AZ434">
+        <v>0</v>
+      </c>
+      <c r="BA434">
+        <v>0</v>
+      </c>
+      <c r="BB434">
+        <v>0</v>
+      </c>
+      <c r="BC434">
+        <v>0</v>
+      </c>
+      <c r="BD434">
+        <v>0</v>
+      </c>
+      <c r="BE434">
+        <v>3</v>
+      </c>
+      <c r="BF434">
+        <v>1</v>
+      </c>
+      <c r="BG434">
+        <v>3</v>
+      </c>
+      <c r="BH434">
+        <v>2</v>
+      </c>
+      <c r="BI434">
+        <v>0</v>
+      </c>
+      <c r="BJ434">
+        <v>0</v>
+      </c>
+      <c r="BK434">
+        <v>1</v>
+      </c>
+      <c r="BL434">
+        <v>10</v>
+      </c>
+      <c r="BM434">
+        <v>15</v>
+      </c>
+      <c r="BN434">
+        <v>12</v>
+      </c>
+      <c r="BO434">
+        <v>30</v>
+      </c>
+      <c r="BP434">
+        <v>47</v>
+      </c>
+      <c r="BQ434">
+        <v>45</v>
+      </c>
+      <c r="BR434">
+        <v>53</v>
+      </c>
+      <c r="BS434">
+        <v>129</v>
+      </c>
+      <c r="BT434">
+        <v>331</v>
+      </c>
+      <c r="BU434" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV434" s="1">
+        <v>44659</v>
+      </c>
+      <c r="BW434" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX434" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY434" t="s">
+        <v>216</v>
+      </c>
+      <c r="BZ434" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA434" t="s">
+        <v>217</v>
+      </c>
+      <c r="CB434" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC434" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD434" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE434" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF434" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="435" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>83</v>
+      </c>
+      <c r="B435" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C435" t="s">
+        <v>345</v>
+      </c>
+      <c r="D435" t="s">
+        <v>85</v>
+      </c>
+      <c r="E435" t="s">
+        <v>181</v>
+      </c>
+      <c r="F435" t="s">
+        <v>146</v>
+      </c>
+      <c r="G435" t="s">
+        <v>88</v>
+      </c>
+      <c r="H435" t="s">
+        <v>406</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435">
+        <v>0</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+      <c r="R435">
+        <v>0</v>
+      </c>
+      <c r="S435">
+        <v>0</v>
+      </c>
+      <c r="T435">
+        <v>0</v>
+      </c>
+      <c r="U435">
+        <v>0</v>
+      </c>
+      <c r="V435">
+        <v>0</v>
+      </c>
+      <c r="W435">
+        <v>0</v>
+      </c>
+      <c r="X435">
+        <v>0</v>
+      </c>
+      <c r="Y435">
+        <v>0</v>
+      </c>
+      <c r="Z435">
+        <v>0</v>
+      </c>
+      <c r="AA435">
+        <v>0</v>
+      </c>
+      <c r="AB435">
+        <v>0</v>
+      </c>
+      <c r="AC435">
+        <v>0</v>
+      </c>
+      <c r="AD435">
+        <v>0</v>
+      </c>
+      <c r="AE435">
+        <v>0</v>
+      </c>
+      <c r="AF435">
+        <v>0</v>
+      </c>
+      <c r="AG435">
+        <v>0</v>
+      </c>
+      <c r="AH435">
+        <v>0</v>
+      </c>
+      <c r="AI435">
+        <v>0</v>
+      </c>
+      <c r="AJ435">
+        <v>0</v>
+      </c>
+      <c r="AK435">
+        <v>0</v>
+      </c>
+      <c r="AL435">
+        <v>0</v>
+      </c>
+      <c r="AM435">
+        <v>0</v>
+      </c>
+      <c r="AN435">
+        <v>0</v>
+      </c>
+      <c r="AO435">
+        <v>0</v>
+      </c>
+      <c r="AP435">
+        <v>0</v>
+      </c>
+      <c r="AQ435">
+        <v>0</v>
+      </c>
+      <c r="AR435">
+        <v>0</v>
+      </c>
+      <c r="AS435">
+        <v>0</v>
+      </c>
+      <c r="AT435">
+        <v>0</v>
+      </c>
+      <c r="AU435">
+        <v>0</v>
+      </c>
+      <c r="AV435">
+        <v>0</v>
+      </c>
+      <c r="AW435">
+        <v>0</v>
+      </c>
+      <c r="AX435">
+        <v>0</v>
+      </c>
+      <c r="AY435">
+        <v>0</v>
+      </c>
+      <c r="AZ435">
+        <v>0</v>
+      </c>
+      <c r="BA435">
+        <v>0</v>
+      </c>
+      <c r="BB435">
+        <v>0</v>
+      </c>
+      <c r="BC435">
+        <v>0</v>
+      </c>
+      <c r="BD435">
+        <v>0</v>
+      </c>
+      <c r="BE435">
+        <v>0</v>
+      </c>
+      <c r="BF435">
+        <v>1</v>
+      </c>
+      <c r="BG435">
+        <v>5</v>
+      </c>
+      <c r="BH435">
+        <v>4</v>
+      </c>
+      <c r="BI435">
+        <v>8</v>
+      </c>
+      <c r="BJ435">
+        <v>2</v>
+      </c>
+      <c r="BK435">
+        <v>0</v>
+      </c>
+      <c r="BL435">
+        <v>20</v>
+      </c>
+      <c r="BM435">
+        <v>4</v>
+      </c>
+      <c r="BN435">
+        <v>12</v>
+      </c>
+      <c r="BO435">
+        <v>9</v>
+      </c>
+      <c r="BP435">
+        <v>68</v>
+      </c>
+      <c r="BQ435">
+        <v>75</v>
+      </c>
+      <c r="BR435">
+        <v>640</v>
+      </c>
+      <c r="BS435">
+        <v>1225</v>
+      </c>
+      <c r="BT435">
+        <v>2033</v>
+      </c>
+      <c r="BU435" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV435" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW435" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX435" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY435" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ435" t="s">
+        <v>185</v>
+      </c>
+      <c r="CA435" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB435" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC435" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD435" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE435" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF435" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="436" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>83</v>
+      </c>
+      <c r="B436" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C436" t="s">
+        <v>345</v>
+      </c>
+      <c r="D436" t="s">
+        <v>85</v>
+      </c>
+      <c r="E436" t="s">
+        <v>131</v>
+      </c>
+      <c r="F436" t="s">
+        <v>102</v>
+      </c>
+      <c r="G436" t="s">
+        <v>88</v>
+      </c>
+      <c r="H436" t="s">
+        <v>770</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436">
+        <v>0</v>
+      </c>
+      <c r="O436">
+        <v>1</v>
+      </c>
+      <c r="P436">
+        <v>1</v>
+      </c>
+      <c r="Q436">
+        <v>0</v>
+      </c>
+      <c r="R436">
+        <v>0</v>
+      </c>
+      <c r="S436">
+        <v>2</v>
+      </c>
+      <c r="T436">
+        <v>6</v>
+      </c>
+      <c r="U436">
+        <v>3</v>
+      </c>
+      <c r="V436">
+        <v>2</v>
+      </c>
+      <c r="W436">
+        <v>20</v>
+      </c>
+      <c r="X436">
+        <v>33</v>
+      </c>
+      <c r="Y436">
+        <v>0</v>
+      </c>
+      <c r="Z436">
+        <v>0</v>
+      </c>
+      <c r="AA436">
+        <v>0</v>
+      </c>
+      <c r="AB436">
+        <v>0</v>
+      </c>
+      <c r="AC436">
+        <v>0</v>
+      </c>
+      <c r="AD436">
+        <v>0</v>
+      </c>
+      <c r="AE436">
+        <v>0</v>
+      </c>
+      <c r="AF436">
+        <v>0</v>
+      </c>
+      <c r="AG436">
+        <v>0</v>
+      </c>
+      <c r="AH436">
+        <v>0</v>
+      </c>
+      <c r="AI436">
+        <v>0</v>
+      </c>
+      <c r="AJ436">
+        <v>0</v>
+      </c>
+      <c r="AK436">
+        <v>0</v>
+      </c>
+      <c r="AL436">
+        <v>0</v>
+      </c>
+      <c r="AM436">
+        <v>0</v>
+      </c>
+      <c r="AN436">
+        <v>0</v>
+      </c>
+      <c r="AO436">
+        <v>0</v>
+      </c>
+      <c r="AP436">
+        <v>0</v>
+      </c>
+      <c r="AQ436">
+        <v>0</v>
+      </c>
+      <c r="AR436">
+        <v>0</v>
+      </c>
+      <c r="AS436">
+        <v>0</v>
+      </c>
+      <c r="AT436">
+        <v>0</v>
+      </c>
+      <c r="AU436">
+        <v>0</v>
+      </c>
+      <c r="AV436">
+        <v>0</v>
+      </c>
+      <c r="AW436">
+        <v>0</v>
+      </c>
+      <c r="AX436">
+        <v>0</v>
+      </c>
+      <c r="AY436">
+        <v>0</v>
+      </c>
+      <c r="AZ436">
+        <v>0</v>
+      </c>
+      <c r="BA436">
+        <v>0</v>
+      </c>
+      <c r="BB436">
+        <v>0</v>
+      </c>
+      <c r="BC436">
+        <v>0</v>
+      </c>
+      <c r="BD436">
+        <v>0</v>
+      </c>
+      <c r="BE436">
+        <v>6</v>
+      </c>
+      <c r="BF436">
+        <v>1</v>
+      </c>
+      <c r="BG436">
+        <v>10</v>
+      </c>
+      <c r="BH436">
+        <v>5</v>
+      </c>
+      <c r="BI436">
+        <v>1</v>
+      </c>
+      <c r="BJ436">
+        <v>0</v>
+      </c>
+      <c r="BK436">
+        <v>2</v>
+      </c>
+      <c r="BL436">
+        <v>25</v>
+      </c>
+      <c r="BM436">
+        <v>33</v>
+      </c>
+      <c r="BN436">
+        <v>17</v>
+      </c>
+      <c r="BO436">
+        <v>55</v>
+      </c>
+      <c r="BP436">
+        <v>126</v>
+      </c>
+      <c r="BQ436">
+        <v>160</v>
+      </c>
+      <c r="BR436">
+        <v>124</v>
+      </c>
+      <c r="BS436">
+        <v>243</v>
+      </c>
+      <c r="BT436">
+        <v>758</v>
+      </c>
+      <c r="BU436" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV436" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW436" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX436" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY436" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ436" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA436" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB436" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC436" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD436" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE436" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF436" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="437" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>83</v>
+      </c>
+      <c r="B437" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C437" t="s">
+        <v>345</v>
+      </c>
+      <c r="D437" t="s">
+        <v>85</v>
+      </c>
+      <c r="E437" t="s">
+        <v>131</v>
+      </c>
+      <c r="F437" t="s">
+        <v>376</v>
+      </c>
+      <c r="G437" t="s">
+        <v>88</v>
+      </c>
+      <c r="H437" t="s">
+        <v>771</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
+      <c r="Q437">
+        <v>0</v>
+      </c>
+      <c r="R437">
+        <v>0</v>
+      </c>
+      <c r="S437">
+        <v>0</v>
+      </c>
+      <c r="T437">
+        <v>0</v>
+      </c>
+      <c r="U437">
+        <v>0</v>
+      </c>
+      <c r="V437">
+        <v>0</v>
+      </c>
+      <c r="W437">
+        <v>0</v>
+      </c>
+      <c r="X437">
+        <v>0</v>
+      </c>
+      <c r="Y437">
+        <v>0</v>
+      </c>
+      <c r="Z437">
+        <v>0</v>
+      </c>
+      <c r="AA437">
+        <v>0</v>
+      </c>
+      <c r="AB437">
+        <v>0</v>
+      </c>
+      <c r="AC437">
+        <v>0</v>
+      </c>
+      <c r="AD437">
+        <v>0</v>
+      </c>
+      <c r="AE437">
+        <v>0</v>
+      </c>
+      <c r="AF437">
+        <v>0</v>
+      </c>
+      <c r="AG437">
+        <v>0</v>
+      </c>
+      <c r="AH437">
+        <v>0</v>
+      </c>
+      <c r="AI437">
+        <v>0</v>
+      </c>
+      <c r="AJ437">
+        <v>0</v>
+      </c>
+      <c r="AK437">
+        <v>0</v>
+      </c>
+      <c r="AL437">
+        <v>0</v>
+      </c>
+      <c r="AM437">
+        <v>0</v>
+      </c>
+      <c r="AN437">
+        <v>0</v>
+      </c>
+      <c r="AO437">
+        <v>0</v>
+      </c>
+      <c r="AP437">
+        <v>0</v>
+      </c>
+      <c r="AQ437">
+        <v>0</v>
+      </c>
+      <c r="AR437">
+        <v>0</v>
+      </c>
+      <c r="AS437">
+        <v>0</v>
+      </c>
+      <c r="AT437">
+        <v>0</v>
+      </c>
+      <c r="AU437">
+        <v>0</v>
+      </c>
+      <c r="AV437">
+        <v>0</v>
+      </c>
+      <c r="AW437">
+        <v>0</v>
+      </c>
+      <c r="AX437">
+        <v>0</v>
+      </c>
+      <c r="AY437">
+        <v>0</v>
+      </c>
+      <c r="AZ437">
+        <v>0</v>
+      </c>
+      <c r="BA437">
+        <v>0</v>
+      </c>
+      <c r="BB437">
+        <v>0</v>
+      </c>
+      <c r="BC437">
+        <v>0</v>
+      </c>
+      <c r="BD437">
+        <v>0</v>
+      </c>
+      <c r="BE437">
+        <v>0</v>
+      </c>
+      <c r="BF437">
+        <v>0</v>
+      </c>
+      <c r="BG437">
+        <v>0</v>
+      </c>
+      <c r="BH437">
+        <v>0</v>
+      </c>
+      <c r="BI437">
+        <v>1</v>
+      </c>
+      <c r="BJ437">
+        <v>0</v>
+      </c>
+      <c r="BK437">
+        <v>0</v>
+      </c>
+      <c r="BL437">
+        <v>1</v>
+      </c>
+      <c r="BM437">
+        <v>4</v>
+      </c>
+      <c r="BN437">
+        <v>2</v>
+      </c>
+      <c r="BO437">
+        <v>15</v>
+      </c>
+      <c r="BP437">
+        <v>40</v>
+      </c>
+      <c r="BQ437">
+        <v>31</v>
+      </c>
+      <c r="BR437">
+        <v>49</v>
+      </c>
+      <c r="BS437">
+        <v>80</v>
+      </c>
+      <c r="BT437">
+        <v>221</v>
+      </c>
+      <c r="BU437" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV437" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW437" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX437" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY437" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ437" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA437" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB437" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC437" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD437" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE437" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF437" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="438" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>83</v>
+      </c>
+      <c r="B438" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C438" t="s">
+        <v>345</v>
+      </c>
+      <c r="D438" t="s">
+        <v>85</v>
+      </c>
+      <c r="E438" t="s">
+        <v>131</v>
+      </c>
+      <c r="F438" t="s">
+        <v>337</v>
+      </c>
+      <c r="G438" t="s">
+        <v>88</v>
+      </c>
+      <c r="H438" t="s">
+        <v>772</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
+      <c r="P438">
+        <v>0</v>
+      </c>
+      <c r="Q438">
+        <v>0</v>
+      </c>
+      <c r="R438">
+        <v>0</v>
+      </c>
+      <c r="S438">
+        <v>0</v>
+      </c>
+      <c r="T438">
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <v>0</v>
+      </c>
+      <c r="W438">
+        <v>0</v>
+      </c>
+      <c r="X438">
+        <v>0</v>
+      </c>
+      <c r="Y438">
+        <v>0</v>
+      </c>
+      <c r="Z438">
+        <v>0</v>
+      </c>
+      <c r="AA438">
+        <v>0</v>
+      </c>
+      <c r="AB438">
+        <v>0</v>
+      </c>
+      <c r="AC438">
+        <v>0</v>
+      </c>
+      <c r="AD438">
+        <v>0</v>
+      </c>
+      <c r="AE438">
+        <v>0</v>
+      </c>
+      <c r="AF438">
+        <v>0</v>
+      </c>
+      <c r="AG438">
+        <v>0</v>
+      </c>
+      <c r="AH438">
+        <v>0</v>
+      </c>
+      <c r="AI438">
+        <v>0</v>
+      </c>
+      <c r="AJ438">
+        <v>0</v>
+      </c>
+      <c r="AK438">
+        <v>0</v>
+      </c>
+      <c r="AL438">
+        <v>0</v>
+      </c>
+      <c r="AM438">
+        <v>0</v>
+      </c>
+      <c r="AN438">
+        <v>0</v>
+      </c>
+      <c r="AO438">
+        <v>0</v>
+      </c>
+      <c r="AP438">
+        <v>0</v>
+      </c>
+      <c r="AQ438">
+        <v>0</v>
+      </c>
+      <c r="AR438">
+        <v>0</v>
+      </c>
+      <c r="AS438">
+        <v>0</v>
+      </c>
+      <c r="AT438">
+        <v>0</v>
+      </c>
+      <c r="AU438">
+        <v>0</v>
+      </c>
+      <c r="AV438">
+        <v>0</v>
+      </c>
+      <c r="AW438">
+        <v>0</v>
+      </c>
+      <c r="AX438">
+        <v>0</v>
+      </c>
+      <c r="AY438">
+        <v>0</v>
+      </c>
+      <c r="AZ438">
+        <v>0</v>
+      </c>
+      <c r="BA438">
+        <v>0</v>
+      </c>
+      <c r="BB438">
+        <v>0</v>
+      </c>
+      <c r="BC438">
+        <v>0</v>
+      </c>
+      <c r="BD438">
+        <v>0</v>
+      </c>
+      <c r="BE438">
+        <v>1</v>
+      </c>
+      <c r="BF438">
+        <v>0</v>
+      </c>
+      <c r="BG438">
+        <v>3</v>
+      </c>
+      <c r="BH438">
+        <v>0</v>
+      </c>
+      <c r="BI438">
+        <v>0</v>
+      </c>
+      <c r="BJ438">
+        <v>0</v>
+      </c>
+      <c r="BK438">
+        <v>0</v>
+      </c>
+      <c r="BL438">
+        <v>4</v>
+      </c>
+      <c r="BM438">
+        <v>8</v>
+      </c>
+      <c r="BN438">
+        <v>3</v>
+      </c>
+      <c r="BO438">
+        <v>13</v>
+      </c>
+      <c r="BP438">
+        <v>23</v>
+      </c>
+      <c r="BQ438">
+        <v>22</v>
+      </c>
+      <c r="BR438">
+        <v>17</v>
+      </c>
+      <c r="BS438">
+        <v>33</v>
+      </c>
+      <c r="BT438">
+        <v>119</v>
+      </c>
+      <c r="BU438" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV438" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW438" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX438" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY438" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ438" t="s">
+        <v>164</v>
+      </c>
+      <c r="CA438" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB438" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC438" t="s">
+        <v>339</v>
+      </c>
+      <c r="CD438" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE438" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF438" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="439" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>83</v>
+      </c>
+      <c r="B439" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C439" t="s">
+        <v>345</v>
+      </c>
+      <c r="D439" t="s">
+        <v>85</v>
+      </c>
+      <c r="E439" t="s">
+        <v>131</v>
+      </c>
+      <c r="F439" t="s">
+        <v>132</v>
+      </c>
+      <c r="G439" t="s">
+        <v>88</v>
+      </c>
+      <c r="H439" t="s">
+        <v>632</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439">
+        <v>0</v>
+      </c>
+      <c r="Q439">
+        <v>0</v>
+      </c>
+      <c r="R439">
+        <v>0</v>
+      </c>
+      <c r="S439">
+        <v>0</v>
+      </c>
+      <c r="T439">
+        <v>0</v>
+      </c>
+      <c r="U439">
+        <v>0</v>
+      </c>
+      <c r="V439">
+        <v>0</v>
+      </c>
+      <c r="W439">
+        <v>0</v>
+      </c>
+      <c r="X439">
+        <v>0</v>
+      </c>
+      <c r="Y439">
+        <v>0</v>
+      </c>
+      <c r="Z439">
+        <v>0</v>
+      </c>
+      <c r="AA439">
+        <v>0</v>
+      </c>
+      <c r="AB439">
+        <v>0</v>
+      </c>
+      <c r="AC439">
+        <v>0</v>
+      </c>
+      <c r="AD439">
+        <v>0</v>
+      </c>
+      <c r="AE439">
+        <v>0</v>
+      </c>
+      <c r="AF439">
+        <v>0</v>
+      </c>
+      <c r="AG439">
+        <v>0</v>
+      </c>
+      <c r="AH439">
+        <v>0</v>
+      </c>
+      <c r="AI439">
+        <v>0</v>
+      </c>
+      <c r="AJ439">
+        <v>0</v>
+      </c>
+      <c r="AK439">
+        <v>0</v>
+      </c>
+      <c r="AL439">
+        <v>0</v>
+      </c>
+      <c r="AM439">
+        <v>0</v>
+      </c>
+      <c r="AN439">
+        <v>0</v>
+      </c>
+      <c r="AO439">
+        <v>0</v>
+      </c>
+      <c r="AP439">
+        <v>0</v>
+      </c>
+      <c r="AQ439">
+        <v>0</v>
+      </c>
+      <c r="AR439">
+        <v>0</v>
+      </c>
+      <c r="AS439">
+        <v>0</v>
+      </c>
+      <c r="AT439">
+        <v>0</v>
+      </c>
+      <c r="AU439">
+        <v>0</v>
+      </c>
+      <c r="AV439">
+        <v>0</v>
+      </c>
+      <c r="AW439">
+        <v>0</v>
+      </c>
+      <c r="AX439">
+        <v>0</v>
+      </c>
+      <c r="AY439">
+        <v>0</v>
+      </c>
+      <c r="AZ439">
+        <v>0</v>
+      </c>
+      <c r="BA439">
+        <v>0</v>
+      </c>
+      <c r="BB439">
+        <v>0</v>
+      </c>
+      <c r="BC439">
+        <v>0</v>
+      </c>
+      <c r="BD439">
+        <v>0</v>
+      </c>
+      <c r="BE439">
+        <v>2</v>
+      </c>
+      <c r="BF439">
+        <v>2</v>
+      </c>
+      <c r="BG439">
+        <v>14</v>
+      </c>
+      <c r="BH439">
+        <v>8</v>
+      </c>
+      <c r="BI439">
+        <v>3</v>
+      </c>
+      <c r="BJ439">
+        <v>1</v>
+      </c>
+      <c r="BK439">
+        <v>1</v>
+      </c>
+      <c r="BL439">
+        <v>31</v>
+      </c>
+      <c r="BM439">
+        <v>19</v>
+      </c>
+      <c r="BN439">
+        <v>23</v>
+      </c>
+      <c r="BO439">
+        <v>62</v>
+      </c>
+      <c r="BP439">
+        <v>196</v>
+      </c>
+      <c r="BQ439">
+        <v>195</v>
+      </c>
+      <c r="BR439">
+        <v>202</v>
+      </c>
+      <c r="BS439">
+        <v>387</v>
+      </c>
+      <c r="BT439">
+        <v>1084</v>
+      </c>
+      <c r="BU439" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV439" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW439" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX439" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY439" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ439" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA439" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB439" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC439" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD439" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE439" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF439" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="440" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>83</v>
+      </c>
+      <c r="B440" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C440" t="s">
+        <v>345</v>
+      </c>
+      <c r="D440" t="s">
+        <v>85</v>
+      </c>
+      <c r="E440" t="s">
+        <v>131</v>
+      </c>
+      <c r="F440" t="s">
+        <v>110</v>
+      </c>
+      <c r="G440" t="s">
+        <v>88</v>
+      </c>
+      <c r="H440" t="s">
+        <v>658</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440">
+        <v>0</v>
+      </c>
+      <c r="P440">
+        <v>0</v>
+      </c>
+      <c r="Q440">
+        <v>0</v>
+      </c>
+      <c r="R440">
+        <v>0</v>
+      </c>
+      <c r="S440">
+        <v>0</v>
+      </c>
+      <c r="T440">
+        <v>0</v>
+      </c>
+      <c r="U440">
+        <v>0</v>
+      </c>
+      <c r="V440">
+        <v>0</v>
+      </c>
+      <c r="W440">
+        <v>0</v>
+      </c>
+      <c r="X440">
+        <v>0</v>
+      </c>
+      <c r="Y440">
+        <v>0</v>
+      </c>
+      <c r="Z440">
+        <v>0</v>
+      </c>
+      <c r="AA440">
+        <v>0</v>
+      </c>
+      <c r="AB440">
+        <v>0</v>
+      </c>
+      <c r="AC440">
+        <v>0</v>
+      </c>
+      <c r="AD440">
+        <v>0</v>
+      </c>
+      <c r="AE440">
+        <v>0</v>
+      </c>
+      <c r="AF440">
+        <v>0</v>
+      </c>
+      <c r="AG440">
+        <v>0</v>
+      </c>
+      <c r="AH440">
+        <v>0</v>
+      </c>
+      <c r="AI440">
+        <v>0</v>
+      </c>
+      <c r="AJ440">
+        <v>0</v>
+      </c>
+      <c r="AK440">
+        <v>0</v>
+      </c>
+      <c r="AL440">
+        <v>0</v>
+      </c>
+      <c r="AM440">
+        <v>0</v>
+      </c>
+      <c r="AN440">
+        <v>0</v>
+      </c>
+      <c r="AO440">
+        <v>0</v>
+      </c>
+      <c r="AP440">
+        <v>0</v>
+      </c>
+      <c r="AQ440">
+        <v>0</v>
+      </c>
+      <c r="AR440">
+        <v>0</v>
+      </c>
+      <c r="AS440">
+        <v>0</v>
+      </c>
+      <c r="AT440">
+        <v>0</v>
+      </c>
+      <c r="AU440">
+        <v>0</v>
+      </c>
+      <c r="AV440">
+        <v>0</v>
+      </c>
+      <c r="AW440">
+        <v>0</v>
+      </c>
+      <c r="AX440">
+        <v>0</v>
+      </c>
+      <c r="AY440">
+        <v>0</v>
+      </c>
+      <c r="AZ440">
+        <v>0</v>
+      </c>
+      <c r="BA440">
+        <v>0</v>
+      </c>
+      <c r="BB440">
+        <v>0</v>
+      </c>
+      <c r="BC440">
+        <v>0</v>
+      </c>
+      <c r="BD440">
+        <v>0</v>
+      </c>
+      <c r="BE440">
+        <v>0</v>
+      </c>
+      <c r="BF440">
+        <v>0</v>
+      </c>
+      <c r="BG440">
+        <v>2</v>
+      </c>
+      <c r="BH440">
+        <v>0</v>
+      </c>
+      <c r="BI440">
+        <v>0</v>
+      </c>
+      <c r="BJ440">
+        <v>0</v>
+      </c>
+      <c r="BK440">
+        <v>1</v>
+      </c>
+      <c r="BL440">
+        <v>3</v>
+      </c>
+      <c r="BM440">
+        <v>7</v>
+      </c>
+      <c r="BN440">
+        <v>4</v>
+      </c>
+      <c r="BO440">
+        <v>7</v>
+      </c>
+      <c r="BP440">
+        <v>20</v>
+      </c>
+      <c r="BQ440">
+        <v>37</v>
+      </c>
+      <c r="BR440">
+        <v>39</v>
+      </c>
+      <c r="BS440">
+        <v>55</v>
+      </c>
+      <c r="BT440">
+        <v>169</v>
+      </c>
+      <c r="BU440" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV440" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW440" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX440" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY440" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ440" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA440" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB440" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC440" t="s">
+        <v>464</v>
+      </c>
+      <c r="CD440" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE440" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF440" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="441" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>83</v>
+      </c>
+      <c r="B441" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C441" t="s">
+        <v>345</v>
+      </c>
+      <c r="D441" t="s">
+        <v>85</v>
+      </c>
+      <c r="E441" t="s">
+        <v>131</v>
+      </c>
+      <c r="F441" t="s">
+        <v>113</v>
+      </c>
+      <c r="G441" t="s">
+        <v>88</v>
+      </c>
+      <c r="H441" t="s">
+        <v>661</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+      <c r="O441">
+        <v>0</v>
+      </c>
+      <c r="P441">
+        <v>0</v>
+      </c>
+      <c r="Q441">
+        <v>0</v>
+      </c>
+      <c r="R441">
+        <v>0</v>
+      </c>
+      <c r="S441">
+        <v>0</v>
+      </c>
+      <c r="T441">
+        <v>0</v>
+      </c>
+      <c r="U441">
+        <v>0</v>
+      </c>
+      <c r="V441">
+        <v>0</v>
+      </c>
+      <c r="W441">
+        <v>0</v>
+      </c>
+      <c r="X441">
+        <v>0</v>
+      </c>
+      <c r="Y441">
+        <v>0</v>
+      </c>
+      <c r="Z441">
+        <v>0</v>
+      </c>
+      <c r="AA441">
+        <v>0</v>
+      </c>
+      <c r="AB441">
+        <v>0</v>
+      </c>
+      <c r="AC441">
+        <v>0</v>
+      </c>
+      <c r="AD441">
+        <v>0</v>
+      </c>
+      <c r="AE441">
+        <v>0</v>
+      </c>
+      <c r="AF441">
+        <v>0</v>
+      </c>
+      <c r="AG441">
+        <v>0</v>
+      </c>
+      <c r="AH441">
+        <v>0</v>
+      </c>
+      <c r="AI441">
+        <v>0</v>
+      </c>
+      <c r="AJ441">
+        <v>0</v>
+      </c>
+      <c r="AK441">
+        <v>0</v>
+      </c>
+      <c r="AL441">
+        <v>0</v>
+      </c>
+      <c r="AM441">
+        <v>0</v>
+      </c>
+      <c r="AN441">
+        <v>0</v>
+      </c>
+      <c r="AO441">
+        <v>0</v>
+      </c>
+      <c r="AP441">
+        <v>0</v>
+      </c>
+      <c r="AQ441">
+        <v>0</v>
+      </c>
+      <c r="AR441">
+        <v>0</v>
+      </c>
+      <c r="AS441">
+        <v>0</v>
+      </c>
+      <c r="AT441">
+        <v>0</v>
+      </c>
+      <c r="AU441">
+        <v>0</v>
+      </c>
+      <c r="AV441">
+        <v>0</v>
+      </c>
+      <c r="AW441">
+        <v>0</v>
+      </c>
+      <c r="AX441">
+        <v>0</v>
+      </c>
+      <c r="AY441">
+        <v>0</v>
+      </c>
+      <c r="AZ441">
+        <v>0</v>
+      </c>
+      <c r="BA441">
+        <v>0</v>
+      </c>
+      <c r="BB441">
+        <v>0</v>
+      </c>
+      <c r="BC441">
+        <v>0</v>
+      </c>
+      <c r="BD441">
+        <v>0</v>
+      </c>
+      <c r="BE441">
+        <v>1</v>
+      </c>
+      <c r="BF441">
+        <v>0</v>
+      </c>
+      <c r="BG441">
+        <v>1</v>
+      </c>
+      <c r="BH441">
+        <v>0</v>
+      </c>
+      <c r="BI441">
+        <v>0</v>
+      </c>
+      <c r="BJ441">
+        <v>0</v>
+      </c>
+      <c r="BK441">
+        <v>0</v>
+      </c>
+      <c r="BL441">
+        <v>2</v>
+      </c>
+      <c r="BM441">
+        <v>11</v>
+      </c>
+      <c r="BN441">
+        <v>8</v>
+      </c>
+      <c r="BO441">
+        <v>11</v>
+      </c>
+      <c r="BP441">
+        <v>44</v>
+      </c>
+      <c r="BQ441">
+        <v>39</v>
+      </c>
+      <c r="BR441">
+        <v>53</v>
+      </c>
+      <c r="BS441">
+        <v>74</v>
+      </c>
+      <c r="BT441">
+        <v>240</v>
+      </c>
+      <c r="BU441" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV441" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW441" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX441" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY441" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ441" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA441" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB441" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC441" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD441" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE441" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF441" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="442" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>83</v>
+      </c>
+      <c r="B442" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C442" t="s">
+        <v>345</v>
+      </c>
+      <c r="D442" t="s">
+        <v>85</v>
+      </c>
+      <c r="E442" t="s">
+        <v>131</v>
+      </c>
+      <c r="F442" t="s">
+        <v>352</v>
+      </c>
+      <c r="G442" t="s">
+        <v>88</v>
+      </c>
+      <c r="H442" t="s">
+        <v>662</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+      <c r="M442">
+        <v>0</v>
+      </c>
+      <c r="N442">
+        <v>0</v>
+      </c>
+      <c r="O442">
+        <v>0</v>
+      </c>
+      <c r="P442">
+        <v>0</v>
+      </c>
+      <c r="Q442">
+        <v>0</v>
+      </c>
+      <c r="R442">
+        <v>0</v>
+      </c>
+      <c r="S442">
+        <v>0</v>
+      </c>
+      <c r="T442">
+        <v>0</v>
+      </c>
+      <c r="U442">
+        <v>0</v>
+      </c>
+      <c r="V442">
+        <v>0</v>
+      </c>
+      <c r="W442">
+        <v>0</v>
+      </c>
+      <c r="X442">
+        <v>0</v>
+      </c>
+      <c r="Y442">
+        <v>0</v>
+      </c>
+      <c r="Z442">
+        <v>0</v>
+      </c>
+      <c r="AA442">
+        <v>0</v>
+      </c>
+      <c r="AB442">
+        <v>0</v>
+      </c>
+      <c r="AC442">
+        <v>0</v>
+      </c>
+      <c r="AD442">
+        <v>0</v>
+      </c>
+      <c r="AE442">
+        <v>0</v>
+      </c>
+      <c r="AF442">
+        <v>0</v>
+      </c>
+      <c r="AG442">
+        <v>0</v>
+      </c>
+      <c r="AH442">
+        <v>0</v>
+      </c>
+      <c r="AI442">
+        <v>0</v>
+      </c>
+      <c r="AJ442">
+        <v>0</v>
+      </c>
+      <c r="AK442">
+        <v>0</v>
+      </c>
+      <c r="AL442">
+        <v>0</v>
+      </c>
+      <c r="AM442">
+        <v>0</v>
+      </c>
+      <c r="AN442">
+        <v>0</v>
+      </c>
+      <c r="AO442">
+        <v>0</v>
+      </c>
+      <c r="AP442">
+        <v>0</v>
+      </c>
+      <c r="AQ442">
+        <v>0</v>
+      </c>
+      <c r="AR442">
+        <v>0</v>
+      </c>
+      <c r="AS442">
+        <v>0</v>
+      </c>
+      <c r="AT442">
+        <v>0</v>
+      </c>
+      <c r="AU442">
+        <v>0</v>
+      </c>
+      <c r="AV442">
+        <v>0</v>
+      </c>
+      <c r="AW442">
+        <v>0</v>
+      </c>
+      <c r="AX442">
+        <v>0</v>
+      </c>
+      <c r="AY442">
+        <v>0</v>
+      </c>
+      <c r="AZ442">
+        <v>0</v>
+      </c>
+      <c r="BA442">
+        <v>0</v>
+      </c>
+      <c r="BB442">
+        <v>0</v>
+      </c>
+      <c r="BC442">
+        <v>0</v>
+      </c>
+      <c r="BD442">
+        <v>0</v>
+      </c>
+      <c r="BE442">
+        <v>0</v>
+      </c>
+      <c r="BF442">
+        <v>0</v>
+      </c>
+      <c r="BG442">
+        <v>1</v>
+      </c>
+      <c r="BH442">
+        <v>2</v>
+      </c>
+      <c r="BI442">
+        <v>0</v>
+      </c>
+      <c r="BJ442">
+        <v>0</v>
+      </c>
+      <c r="BK442">
+        <v>0</v>
+      </c>
+      <c r="BL442">
+        <v>3</v>
+      </c>
+      <c r="BM442">
+        <v>2</v>
+      </c>
+      <c r="BN442">
+        <v>1</v>
+      </c>
+      <c r="BO442">
+        <v>14</v>
+      </c>
+      <c r="BP442">
+        <v>41</v>
+      </c>
+      <c r="BQ442">
+        <v>52</v>
+      </c>
+      <c r="BR442">
+        <v>40</v>
+      </c>
+      <c r="BS442">
+        <v>42</v>
+      </c>
+      <c r="BT442">
+        <v>192</v>
+      </c>
+      <c r="BU442" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV442" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW442" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX442" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY442" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ442" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA442" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB442" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC442" t="s">
+        <v>354</v>
+      </c>
+      <c r="CD442" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE442" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF442" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="443" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>83</v>
+      </c>
+      <c r="B443" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C443" t="s">
+        <v>345</v>
+      </c>
+      <c r="D443" t="s">
+        <v>85</v>
+      </c>
+      <c r="E443" t="s">
+        <v>131</v>
+      </c>
+      <c r="F443" t="s">
+        <v>269</v>
+      </c>
+      <c r="G443" t="s">
+        <v>88</v>
+      </c>
+      <c r="H443" t="s">
+        <v>664</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
+      <c r="O443">
+        <v>0</v>
+      </c>
+      <c r="P443">
+        <v>0</v>
+      </c>
+      <c r="Q443">
+        <v>0</v>
+      </c>
+      <c r="R443">
+        <v>0</v>
+      </c>
+      <c r="S443">
+        <v>0</v>
+      </c>
+      <c r="T443">
+        <v>0</v>
+      </c>
+      <c r="U443">
+        <v>0</v>
+      </c>
+      <c r="V443">
+        <v>0</v>
+      </c>
+      <c r="W443">
+        <v>0</v>
+      </c>
+      <c r="X443">
+        <v>0</v>
+      </c>
+      <c r="Y443">
+        <v>0</v>
+      </c>
+      <c r="Z443">
+        <v>0</v>
+      </c>
+      <c r="AA443">
+        <v>0</v>
+      </c>
+      <c r="AB443">
+        <v>0</v>
+      </c>
+      <c r="AC443">
+        <v>0</v>
+      </c>
+      <c r="AD443">
+        <v>0</v>
+      </c>
+      <c r="AE443">
+        <v>0</v>
+      </c>
+      <c r="AF443">
+        <v>0</v>
+      </c>
+      <c r="AG443">
+        <v>0</v>
+      </c>
+      <c r="AH443">
+        <v>0</v>
+      </c>
+      <c r="AI443">
+        <v>0</v>
+      </c>
+      <c r="AJ443">
+        <v>0</v>
+      </c>
+      <c r="AK443">
+        <v>0</v>
+      </c>
+      <c r="AL443">
+        <v>0</v>
+      </c>
+      <c r="AM443">
+        <v>0</v>
+      </c>
+      <c r="AN443">
+        <v>0</v>
+      </c>
+      <c r="AO443">
+        <v>0</v>
+      </c>
+      <c r="AP443">
+        <v>0</v>
+      </c>
+      <c r="AQ443">
+        <v>0</v>
+      </c>
+      <c r="AR443">
+        <v>0</v>
+      </c>
+      <c r="AS443">
+        <v>0</v>
+      </c>
+      <c r="AT443">
+        <v>0</v>
+      </c>
+      <c r="AU443">
+        <v>0</v>
+      </c>
+      <c r="AV443">
+        <v>0</v>
+      </c>
+      <c r="AW443">
+        <v>0</v>
+      </c>
+      <c r="AX443">
+        <v>0</v>
+      </c>
+      <c r="AY443">
+        <v>0</v>
+      </c>
+      <c r="AZ443">
+        <v>0</v>
+      </c>
+      <c r="BA443">
+        <v>0</v>
+      </c>
+      <c r="BB443">
+        <v>0</v>
+      </c>
+      <c r="BC443">
+        <v>0</v>
+      </c>
+      <c r="BD443">
+        <v>0</v>
+      </c>
+      <c r="BE443">
+        <v>0</v>
+      </c>
+      <c r="BF443">
+        <v>0</v>
+      </c>
+      <c r="BG443">
+        <v>1</v>
+      </c>
+      <c r="BH443">
+        <v>0</v>
+      </c>
+      <c r="BI443">
+        <v>0</v>
+      </c>
+      <c r="BJ443">
+        <v>0</v>
+      </c>
+      <c r="BK443">
+        <v>0</v>
+      </c>
+      <c r="BL443">
+        <v>1</v>
+      </c>
+      <c r="BM443">
+        <v>3</v>
+      </c>
+      <c r="BN443">
+        <v>1</v>
+      </c>
+      <c r="BO443">
+        <v>2</v>
+      </c>
+      <c r="BP443">
+        <v>22</v>
+      </c>
+      <c r="BQ443">
+        <v>5</v>
+      </c>
+      <c r="BR443">
+        <v>7</v>
+      </c>
+      <c r="BS443">
+        <v>12</v>
+      </c>
+      <c r="BT443">
+        <v>52</v>
+      </c>
+      <c r="BU443" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV443" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW443" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX443" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY443" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ443" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA443" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB443" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC443" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD443" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE443" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF443" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="444" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>83</v>
+      </c>
+      <c r="B444" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C444" t="s">
+        <v>345</v>
+      </c>
+      <c r="D444" t="s">
+        <v>85</v>
+      </c>
+      <c r="E444" t="s">
+        <v>131</v>
+      </c>
+      <c r="F444" t="s">
+        <v>139</v>
+      </c>
+      <c r="G444" t="s">
+        <v>88</v>
+      </c>
+      <c r="H444" t="s">
+        <v>773</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+      <c r="J444">
+        <v>2</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>1</v>
+      </c>
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444">
+        <v>0</v>
+      </c>
+      <c r="O444">
+        <v>0</v>
+      </c>
+      <c r="P444">
+        <v>4</v>
+      </c>
+      <c r="Q444">
+        <v>6</v>
+      </c>
+      <c r="R444">
+        <v>2</v>
+      </c>
+      <c r="S444">
+        <v>2</v>
+      </c>
+      <c r="T444">
+        <v>10</v>
+      </c>
+      <c r="U444">
+        <v>9</v>
+      </c>
+      <c r="V444">
+        <v>5</v>
+      </c>
+      <c r="W444">
+        <v>15</v>
+      </c>
+      <c r="X444">
+        <v>49</v>
+      </c>
+      <c r="Y444">
+        <v>0</v>
+      </c>
+      <c r="Z444">
+        <v>0</v>
+      </c>
+      <c r="AA444">
+        <v>0</v>
+      </c>
+      <c r="AB444">
+        <v>0</v>
+      </c>
+      <c r="AC444">
+        <v>0</v>
+      </c>
+      <c r="AD444">
+        <v>0</v>
+      </c>
+      <c r="AE444">
+        <v>0</v>
+      </c>
+      <c r="AF444">
+        <v>0</v>
+      </c>
+      <c r="AG444">
+        <v>0</v>
+      </c>
+      <c r="AH444">
+        <v>0</v>
+      </c>
+      <c r="AI444">
+        <v>0</v>
+      </c>
+      <c r="AJ444">
+        <v>0</v>
+      </c>
+      <c r="AK444">
+        <v>0</v>
+      </c>
+      <c r="AL444">
+        <v>0</v>
+      </c>
+      <c r="AM444">
+        <v>0</v>
+      </c>
+      <c r="AN444">
+        <v>0</v>
+      </c>
+      <c r="AO444">
+        <v>0</v>
+      </c>
+      <c r="AP444">
+        <v>0</v>
+      </c>
+      <c r="AQ444">
+        <v>0</v>
+      </c>
+      <c r="AR444">
+        <v>0</v>
+      </c>
+      <c r="AS444">
+        <v>0</v>
+      </c>
+      <c r="AT444">
+        <v>0</v>
+      </c>
+      <c r="AU444">
+        <v>0</v>
+      </c>
+      <c r="AV444">
+        <v>0</v>
+      </c>
+      <c r="AW444">
+        <v>0</v>
+      </c>
+      <c r="AX444">
+        <v>0</v>
+      </c>
+      <c r="AY444">
+        <v>0</v>
+      </c>
+      <c r="AZ444">
+        <v>0</v>
+      </c>
+      <c r="BA444">
+        <v>0</v>
+      </c>
+      <c r="BB444">
+        <v>0</v>
+      </c>
+      <c r="BC444">
+        <v>0</v>
+      </c>
+      <c r="BD444">
+        <v>0</v>
+      </c>
+      <c r="BE444">
+        <v>4</v>
+      </c>
+      <c r="BF444">
+        <v>4</v>
+      </c>
+      <c r="BG444">
+        <v>12</v>
+      </c>
+      <c r="BH444">
+        <v>3</v>
+      </c>
+      <c r="BI444">
+        <v>9</v>
+      </c>
+      <c r="BJ444">
+        <v>2</v>
+      </c>
+      <c r="BK444">
+        <v>1</v>
+      </c>
+      <c r="BL444">
+        <v>35</v>
+      </c>
+      <c r="BM444">
+        <v>54</v>
+      </c>
+      <c r="BN444">
+        <v>24</v>
+      </c>
+      <c r="BO444">
+        <v>70</v>
+      </c>
+      <c r="BP444">
+        <v>134</v>
+      </c>
+      <c r="BQ444">
+        <v>205</v>
+      </c>
+      <c r="BR444">
+        <v>163</v>
+      </c>
+      <c r="BS444">
+        <v>347</v>
+      </c>
+      <c r="BT444">
+        <v>997</v>
+      </c>
+      <c r="BU444" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV444" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW444" t="s">
+        <v>774</v>
+      </c>
+      <c r="BX444" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY444" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ444" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA444" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB444" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC444" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD444" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE444" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF444" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="445" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>83</v>
+      </c>
+      <c r="B445" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C445" t="s">
+        <v>345</v>
+      </c>
+      <c r="D445" t="s">
+        <v>85</v>
+      </c>
+      <c r="E445" t="s">
+        <v>131</v>
+      </c>
+      <c r="F445" t="s">
+        <v>116</v>
+      </c>
+      <c r="G445" t="s">
+        <v>88</v>
+      </c>
+      <c r="H445" t="s">
+        <v>775</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445">
+        <v>0</v>
+      </c>
+      <c r="O445">
+        <v>0</v>
+      </c>
+      <c r="P445">
+        <v>0</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <v>0</v>
+      </c>
+      <c r="S445">
+        <v>0</v>
+      </c>
+      <c r="T445">
+        <v>0</v>
+      </c>
+      <c r="U445">
+        <v>0</v>
+      </c>
+      <c r="V445">
+        <v>0</v>
+      </c>
+      <c r="W445">
+        <v>0</v>
+      </c>
+      <c r="X445">
+        <v>0</v>
+      </c>
+      <c r="Y445">
+        <v>0</v>
+      </c>
+      <c r="Z445">
+        <v>0</v>
+      </c>
+      <c r="AA445">
+        <v>0</v>
+      </c>
+      <c r="AB445">
+        <v>0</v>
+      </c>
+      <c r="AC445">
+        <v>0</v>
+      </c>
+      <c r="AD445">
+        <v>0</v>
+      </c>
+      <c r="AE445">
+        <v>0</v>
+      </c>
+      <c r="AF445">
+        <v>0</v>
+      </c>
+      <c r="AG445">
+        <v>0</v>
+      </c>
+      <c r="AH445">
+        <v>0</v>
+      </c>
+      <c r="AI445">
+        <v>0</v>
+      </c>
+      <c r="AJ445">
+        <v>0</v>
+      </c>
+      <c r="AK445">
+        <v>0</v>
+      </c>
+      <c r="AL445">
+        <v>0</v>
+      </c>
+      <c r="AM445">
+        <v>0</v>
+      </c>
+      <c r="AN445">
+        <v>0</v>
+      </c>
+      <c r="AO445">
+        <v>0</v>
+      </c>
+      <c r="AP445">
+        <v>0</v>
+      </c>
+      <c r="AQ445">
+        <v>0</v>
+      </c>
+      <c r="AR445">
+        <v>0</v>
+      </c>
+      <c r="AS445">
+        <v>0</v>
+      </c>
+      <c r="AT445">
+        <v>0</v>
+      </c>
+      <c r="AU445">
+        <v>0</v>
+      </c>
+      <c r="AV445">
+        <v>0</v>
+      </c>
+      <c r="AW445">
+        <v>0</v>
+      </c>
+      <c r="AX445">
+        <v>0</v>
+      </c>
+      <c r="AY445">
+        <v>0</v>
+      </c>
+      <c r="AZ445">
+        <v>0</v>
+      </c>
+      <c r="BA445">
+        <v>0</v>
+      </c>
+      <c r="BB445">
+        <v>0</v>
+      </c>
+      <c r="BC445">
+        <v>0</v>
+      </c>
+      <c r="BD445">
+        <v>0</v>
+      </c>
+      <c r="BE445">
+        <v>0</v>
+      </c>
+      <c r="BF445">
+        <v>0</v>
+      </c>
+      <c r="BG445">
+        <v>1</v>
+      </c>
+      <c r="BH445">
+        <v>0</v>
+      </c>
+      <c r="BI445">
+        <v>0</v>
+      </c>
+      <c r="BJ445">
+        <v>0</v>
+      </c>
+      <c r="BK445">
+        <v>1</v>
+      </c>
+      <c r="BL445">
+        <v>2</v>
+      </c>
+      <c r="BM445">
+        <v>5</v>
+      </c>
+      <c r="BN445">
+        <v>9</v>
+      </c>
+      <c r="BO445">
+        <v>19</v>
+      </c>
+      <c r="BP445">
+        <v>80</v>
+      </c>
+      <c r="BQ445">
+        <v>77</v>
+      </c>
+      <c r="BR445">
+        <v>91</v>
+      </c>
+      <c r="BS445">
+        <v>113</v>
+      </c>
+      <c r="BT445">
+        <v>394</v>
+      </c>
+      <c r="BU445" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV445" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW445" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX445" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY445" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ445" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA445" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB445" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC445" t="s">
+        <v>329</v>
+      </c>
+      <c r="CD445" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE445" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF445" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="446" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>83</v>
+      </c>
+      <c r="B446" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C446" t="s">
+        <v>345</v>
+      </c>
+      <c r="D446" t="s">
+        <v>85</v>
+      </c>
+      <c r="E446" t="s">
+        <v>131</v>
+      </c>
+      <c r="F446" t="s">
+        <v>146</v>
+      </c>
+      <c r="G446" t="s">
+        <v>88</v>
+      </c>
+      <c r="H446" t="s">
+        <v>776</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+      <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446">
+        <v>0</v>
+      </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
+      <c r="P446">
+        <v>0</v>
+      </c>
+      <c r="Q446">
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <v>0</v>
+      </c>
+      <c r="S446">
+        <v>0</v>
+      </c>
+      <c r="T446">
+        <v>0</v>
+      </c>
+      <c r="U446">
+        <v>0</v>
+      </c>
+      <c r="V446">
+        <v>0</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446">
+        <v>0</v>
+      </c>
+      <c r="Y446">
+        <v>0</v>
+      </c>
+      <c r="Z446">
+        <v>0</v>
+      </c>
+      <c r="AA446">
+        <v>0</v>
+      </c>
+      <c r="AB446">
+        <v>0</v>
+      </c>
+      <c r="AC446">
+        <v>0</v>
+      </c>
+      <c r="AD446">
+        <v>0</v>
+      </c>
+      <c r="AE446">
+        <v>0</v>
+      </c>
+      <c r="AF446">
+        <v>0</v>
+      </c>
+      <c r="AG446">
+        <v>0</v>
+      </c>
+      <c r="AH446">
+        <v>0</v>
+      </c>
+      <c r="AI446">
+        <v>0</v>
+      </c>
+      <c r="AJ446">
+        <v>0</v>
+      </c>
+      <c r="AK446">
+        <v>0</v>
+      </c>
+      <c r="AL446">
+        <v>0</v>
+      </c>
+      <c r="AM446">
+        <v>0</v>
+      </c>
+      <c r="AN446">
+        <v>0</v>
+      </c>
+      <c r="AO446">
+        <v>0</v>
+      </c>
+      <c r="AP446">
+        <v>0</v>
+      </c>
+      <c r="AQ446">
+        <v>0</v>
+      </c>
+      <c r="AR446">
+        <v>0</v>
+      </c>
+      <c r="AS446">
+        <v>0</v>
+      </c>
+      <c r="AT446">
+        <v>0</v>
+      </c>
+      <c r="AU446">
+        <v>0</v>
+      </c>
+      <c r="AV446">
+        <v>0</v>
+      </c>
+      <c r="AW446">
+        <v>0</v>
+      </c>
+      <c r="AX446">
+        <v>0</v>
+      </c>
+      <c r="AY446">
+        <v>0</v>
+      </c>
+      <c r="AZ446">
+        <v>0</v>
+      </c>
+      <c r="BA446">
+        <v>0</v>
+      </c>
+      <c r="BB446">
+        <v>0</v>
+      </c>
+      <c r="BC446">
+        <v>0</v>
+      </c>
+      <c r="BD446">
+        <v>0</v>
+      </c>
+      <c r="BE446">
+        <v>0</v>
+      </c>
+      <c r="BF446">
+        <v>0</v>
+      </c>
+      <c r="BG446">
+        <v>1</v>
+      </c>
+      <c r="BH446">
+        <v>0</v>
+      </c>
+      <c r="BI446">
+        <v>1</v>
+      </c>
+      <c r="BJ446">
+        <v>0</v>
+      </c>
+      <c r="BK446">
+        <v>0</v>
+      </c>
+      <c r="BL446">
+        <v>2</v>
+      </c>
+      <c r="BM446">
+        <v>2</v>
+      </c>
+      <c r="BN446">
+        <v>2</v>
+      </c>
+      <c r="BO446">
+        <v>6</v>
+      </c>
+      <c r="BP446">
+        <v>26</v>
+      </c>
+      <c r="BQ446">
+        <v>13</v>
+      </c>
+      <c r="BR446">
+        <v>31</v>
+      </c>
+      <c r="BS446">
+        <v>67</v>
+      </c>
+      <c r="BT446">
+        <v>147</v>
+      </c>
+      <c r="BU446" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV446" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW446" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX446" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY446" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ446" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA446" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB446" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC446" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD446" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE446" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF446" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="447" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>83</v>
+      </c>
+      <c r="B447" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C447" t="s">
+        <v>345</v>
+      </c>
+      <c r="D447" t="s">
+        <v>85</v>
+      </c>
+      <c r="E447" t="s">
+        <v>131</v>
+      </c>
+      <c r="F447" t="s">
+        <v>433</v>
+      </c>
+      <c r="G447" t="s">
+        <v>88</v>
+      </c>
+      <c r="H447" t="s">
+        <v>777</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
+      <c r="O447">
+        <v>0</v>
+      </c>
+      <c r="P447">
+        <v>0</v>
+      </c>
+      <c r="Q447">
+        <v>0</v>
+      </c>
+      <c r="R447">
+        <v>0</v>
+      </c>
+      <c r="S447">
+        <v>0</v>
+      </c>
+      <c r="T447">
+        <v>0</v>
+      </c>
+      <c r="U447">
+        <v>0</v>
+      </c>
+      <c r="V447">
+        <v>0</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447">
+        <v>0</v>
+      </c>
+      <c r="Y447">
+        <v>0</v>
+      </c>
+      <c r="Z447">
+        <v>0</v>
+      </c>
+      <c r="AA447">
+        <v>0</v>
+      </c>
+      <c r="AB447">
+        <v>0</v>
+      </c>
+      <c r="AC447">
+        <v>0</v>
+      </c>
+      <c r="AD447">
+        <v>0</v>
+      </c>
+      <c r="AE447">
+        <v>0</v>
+      </c>
+      <c r="AF447">
+        <v>0</v>
+      </c>
+      <c r="AG447">
+        <v>0</v>
+      </c>
+      <c r="AH447">
+        <v>0</v>
+      </c>
+      <c r="AI447">
+        <v>0</v>
+      </c>
+      <c r="AJ447">
+        <v>0</v>
+      </c>
+      <c r="AK447">
+        <v>0</v>
+      </c>
+      <c r="AL447">
+        <v>0</v>
+      </c>
+      <c r="AM447">
+        <v>0</v>
+      </c>
+      <c r="AN447">
+        <v>0</v>
+      </c>
+      <c r="AO447">
+        <v>0</v>
+      </c>
+      <c r="AP447">
+        <v>0</v>
+      </c>
+      <c r="AQ447">
+        <v>0</v>
+      </c>
+      <c r="AR447">
+        <v>0</v>
+      </c>
+      <c r="AS447">
+        <v>0</v>
+      </c>
+      <c r="AT447">
+        <v>0</v>
+      </c>
+      <c r="AU447">
+        <v>0</v>
+      </c>
+      <c r="AV447">
+        <v>0</v>
+      </c>
+      <c r="AW447">
+        <v>0</v>
+      </c>
+      <c r="AX447">
+        <v>0</v>
+      </c>
+      <c r="AY447">
+        <v>0</v>
+      </c>
+      <c r="AZ447">
+        <v>0</v>
+      </c>
+      <c r="BA447">
+        <v>0</v>
+      </c>
+      <c r="BB447">
+        <v>0</v>
+      </c>
+      <c r="BC447">
+        <v>0</v>
+      </c>
+      <c r="BD447">
+        <v>0</v>
+      </c>
+      <c r="BE447">
+        <v>0</v>
+      </c>
+      <c r="BF447">
+        <v>0</v>
+      </c>
+      <c r="BG447">
+        <v>0</v>
+      </c>
+      <c r="BH447">
+        <v>0</v>
+      </c>
+      <c r="BI447">
+        <v>1</v>
+      </c>
+      <c r="BJ447">
+        <v>0</v>
+      </c>
+      <c r="BK447">
+        <v>0</v>
+      </c>
+      <c r="BL447">
+        <v>1</v>
+      </c>
+      <c r="BM447">
+        <v>0</v>
+      </c>
+      <c r="BN447">
+        <v>0</v>
+      </c>
+      <c r="BO447">
+        <v>0</v>
+      </c>
+      <c r="BP447">
+        <v>9</v>
+      </c>
+      <c r="BQ447">
+        <v>9</v>
+      </c>
+      <c r="BR447">
+        <v>24</v>
+      </c>
+      <c r="BS447">
+        <v>50</v>
+      </c>
+      <c r="BT447">
+        <v>92</v>
+      </c>
+      <c r="BU447" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV447" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW447" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX447" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY447" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ447" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA447" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB447" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC447" t="s">
+        <v>435</v>
+      </c>
+      <c r="CD447" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE447" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF447" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="448" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>83</v>
+      </c>
+      <c r="B448" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C448" t="s">
+        <v>345</v>
+      </c>
+      <c r="D448" t="s">
+        <v>85</v>
+      </c>
+      <c r="E448" t="s">
+        <v>131</v>
+      </c>
+      <c r="F448" t="s">
+        <v>155</v>
+      </c>
+      <c r="G448" t="s">
+        <v>88</v>
+      </c>
+      <c r="H448" t="s">
+        <v>778</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
+      <c r="P448">
+        <v>0</v>
+      </c>
+      <c r="Q448">
+        <v>0</v>
+      </c>
+      <c r="R448">
+        <v>0</v>
+      </c>
+      <c r="S448">
+        <v>0</v>
+      </c>
+      <c r="T448">
+        <v>0</v>
+      </c>
+      <c r="U448">
+        <v>0</v>
+      </c>
+      <c r="V448">
+        <v>0</v>
+      </c>
+      <c r="W448">
+        <v>0</v>
+      </c>
+      <c r="X448">
+        <v>0</v>
+      </c>
+      <c r="Y448">
+        <v>0</v>
+      </c>
+      <c r="Z448">
+        <v>0</v>
+      </c>
+      <c r="AA448">
+        <v>0</v>
+      </c>
+      <c r="AB448">
+        <v>0</v>
+      </c>
+      <c r="AC448">
+        <v>0</v>
+      </c>
+      <c r="AD448">
+        <v>0</v>
+      </c>
+      <c r="AE448">
+        <v>0</v>
+      </c>
+      <c r="AF448">
+        <v>0</v>
+      </c>
+      <c r="AG448">
+        <v>0</v>
+      </c>
+      <c r="AH448">
+        <v>0</v>
+      </c>
+      <c r="AI448">
+        <v>0</v>
+      </c>
+      <c r="AJ448">
+        <v>0</v>
+      </c>
+      <c r="AK448">
+        <v>0</v>
+      </c>
+      <c r="AL448">
+        <v>0</v>
+      </c>
+      <c r="AM448">
+        <v>0</v>
+      </c>
+      <c r="AN448">
+        <v>0</v>
+      </c>
+      <c r="AO448">
+        <v>0</v>
+      </c>
+      <c r="AP448">
+        <v>0</v>
+      </c>
+      <c r="AQ448">
+        <v>0</v>
+      </c>
+      <c r="AR448">
+        <v>0</v>
+      </c>
+      <c r="AS448">
+        <v>0</v>
+      </c>
+      <c r="AT448">
+        <v>0</v>
+      </c>
+      <c r="AU448">
+        <v>0</v>
+      </c>
+      <c r="AV448">
+        <v>0</v>
+      </c>
+      <c r="AW448">
+        <v>0</v>
+      </c>
+      <c r="AX448">
+        <v>0</v>
+      </c>
+      <c r="AY448">
+        <v>0</v>
+      </c>
+      <c r="AZ448">
+        <v>0</v>
+      </c>
+      <c r="BA448">
+        <v>0</v>
+      </c>
+      <c r="BB448">
+        <v>0</v>
+      </c>
+      <c r="BC448">
+        <v>0</v>
+      </c>
+      <c r="BD448">
+        <v>0</v>
+      </c>
+      <c r="BE448">
+        <v>0</v>
+      </c>
+      <c r="BF448">
+        <v>0</v>
+      </c>
+      <c r="BG448">
+        <v>2</v>
+      </c>
+      <c r="BH448">
+        <v>0</v>
+      </c>
+      <c r="BI448">
+        <v>0</v>
+      </c>
+      <c r="BJ448">
+        <v>0</v>
+      </c>
+      <c r="BK448">
+        <v>0</v>
+      </c>
+      <c r="BL448">
+        <v>2</v>
+      </c>
+      <c r="BM448">
+        <v>4</v>
+      </c>
+      <c r="BN448">
+        <v>4</v>
+      </c>
+      <c r="BO448">
+        <v>6</v>
+      </c>
+      <c r="BP448">
+        <v>14</v>
+      </c>
+      <c r="BQ448">
+        <v>21</v>
+      </c>
+      <c r="BR448">
+        <v>37</v>
+      </c>
+      <c r="BS448">
+        <v>57</v>
+      </c>
+      <c r="BT448">
+        <v>143</v>
+      </c>
+      <c r="BU448" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV448" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW448" t="s">
+        <v>371</v>
+      </c>
+      <c r="BX448" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY448" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ448" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA448" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB448" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC448" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD448" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE448" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF448" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="449" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
+        <v>83</v>
+      </c>
+      <c r="B449" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C449" t="s">
+        <v>345</v>
+      </c>
+      <c r="D449" t="s">
+        <v>85</v>
+      </c>
+      <c r="E449" t="s">
+        <v>227</v>
+      </c>
+      <c r="F449" t="s">
+        <v>102</v>
+      </c>
+      <c r="G449" t="s">
+        <v>88</v>
+      </c>
+      <c r="H449" t="s">
+        <v>779</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+      <c r="M449">
+        <v>0</v>
+      </c>
+      <c r="N449">
+        <v>0</v>
+      </c>
+      <c r="O449">
+        <v>0</v>
+      </c>
+      <c r="P449">
+        <v>0</v>
+      </c>
+      <c r="Q449">
+        <v>0</v>
+      </c>
+      <c r="R449">
+        <v>0</v>
+      </c>
+      <c r="S449">
+        <v>0</v>
+      </c>
+      <c r="T449">
+        <v>1</v>
+      </c>
+      <c r="U449">
+        <v>4</v>
+      </c>
+      <c r="V449">
+        <v>12</v>
+      </c>
+      <c r="W449">
+        <v>14</v>
+      </c>
+      <c r="X449">
+        <v>31</v>
+      </c>
+      <c r="Y449">
+        <v>0</v>
+      </c>
+      <c r="Z449">
+        <v>0</v>
+      </c>
+      <c r="AA449">
+        <v>0</v>
+      </c>
+      <c r="AB449">
+        <v>0</v>
+      </c>
+      <c r="AC449">
+        <v>0</v>
+      </c>
+      <c r="AD449">
+        <v>0</v>
+      </c>
+      <c r="AE449">
+        <v>0</v>
+      </c>
+      <c r="AF449">
+        <v>0</v>
+      </c>
+      <c r="AG449">
+        <v>0</v>
+      </c>
+      <c r="AH449">
+        <v>0</v>
+      </c>
+      <c r="AI449">
+        <v>0</v>
+      </c>
+      <c r="AJ449">
+        <v>0</v>
+      </c>
+      <c r="AK449">
+        <v>0</v>
+      </c>
+      <c r="AL449">
+        <v>0</v>
+      </c>
+      <c r="AM449">
+        <v>4</v>
+      </c>
+      <c r="AN449">
+        <v>4</v>
+      </c>
+      <c r="AO449">
+        <v>0</v>
+      </c>
+      <c r="AP449">
+        <v>0</v>
+      </c>
+      <c r="AQ449">
+        <v>0</v>
+      </c>
+      <c r="AR449">
+        <v>0</v>
+      </c>
+      <c r="AS449">
+        <v>0</v>
+      </c>
+      <c r="AT449">
+        <v>0</v>
+      </c>
+      <c r="AU449">
+        <v>0</v>
+      </c>
+      <c r="AV449">
+        <v>0</v>
+      </c>
+      <c r="AW449">
+        <v>0</v>
+      </c>
+      <c r="AX449">
+        <v>0</v>
+      </c>
+      <c r="AY449">
+        <v>0</v>
+      </c>
+      <c r="AZ449">
+        <v>0</v>
+      </c>
+      <c r="BA449">
+        <v>0</v>
+      </c>
+      <c r="BB449">
+        <v>0</v>
+      </c>
+      <c r="BC449">
+        <v>2</v>
+      </c>
+      <c r="BD449">
+        <v>2</v>
+      </c>
+      <c r="BE449">
+        <v>0</v>
+      </c>
+      <c r="BF449">
+        <v>0</v>
+      </c>
+      <c r="BG449">
+        <v>0</v>
+      </c>
+      <c r="BH449">
+        <v>0</v>
+      </c>
+      <c r="BI449">
+        <v>0</v>
+      </c>
+      <c r="BJ449">
+        <v>0</v>
+      </c>
+      <c r="BK449">
+        <v>0</v>
+      </c>
+      <c r="BL449">
+        <v>0</v>
+      </c>
+      <c r="BM449">
+        <v>0</v>
+      </c>
+      <c r="BN449">
+        <v>0</v>
+      </c>
+      <c r="BO449">
+        <v>0</v>
+      </c>
+      <c r="BP449">
+        <v>0</v>
+      </c>
+      <c r="BQ449">
+        <v>0</v>
+      </c>
+      <c r="BR449">
+        <v>0</v>
+      </c>
+      <c r="BS449">
+        <v>0</v>
+      </c>
+      <c r="BT449">
+        <v>0</v>
+      </c>
+      <c r="BU449" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV449" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW449" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX449" t="s">
+        <v>579</v>
+      </c>
+      <c r="BY449" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ449" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA449" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB449" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC449" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD449" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE449" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF449" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="450" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
+        <v>83</v>
+      </c>
+      <c r="B450" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C450" t="s">
+        <v>345</v>
+      </c>
+      <c r="D450" t="s">
+        <v>85</v>
+      </c>
+      <c r="E450" t="s">
+        <v>166</v>
+      </c>
+      <c r="F450" t="s">
+        <v>102</v>
+      </c>
+      <c r="G450" t="s">
+        <v>88</v>
+      </c>
+      <c r="H450" t="s">
+        <v>780</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+      <c r="O450">
+        <v>0</v>
+      </c>
+      <c r="P450">
+        <v>0</v>
+      </c>
+      <c r="Q450">
+        <v>0</v>
+      </c>
+      <c r="R450">
+        <v>0</v>
+      </c>
+      <c r="S450">
+        <v>0</v>
+      </c>
+      <c r="T450">
+        <v>0</v>
+      </c>
+      <c r="U450">
+        <v>0</v>
+      </c>
+      <c r="V450">
+        <v>0</v>
+      </c>
+      <c r="W450">
+        <v>0</v>
+      </c>
+      <c r="X450">
+        <v>0</v>
+      </c>
+      <c r="Y450">
+        <v>0</v>
+      </c>
+      <c r="Z450">
+        <v>0</v>
+      </c>
+      <c r="AA450">
+        <v>0</v>
+      </c>
+      <c r="AB450">
+        <v>0</v>
+      </c>
+      <c r="AC450">
+        <v>0</v>
+      </c>
+      <c r="AD450">
+        <v>0</v>
+      </c>
+      <c r="AE450">
+        <v>0</v>
+      </c>
+      <c r="AF450">
+        <v>0</v>
+      </c>
+      <c r="AG450">
+        <v>0</v>
+      </c>
+      <c r="AH450">
+        <v>0</v>
+      </c>
+      <c r="AI450">
+        <v>0</v>
+      </c>
+      <c r="AJ450">
+        <v>0</v>
+      </c>
+      <c r="AK450">
+        <v>0</v>
+      </c>
+      <c r="AL450">
+        <v>0</v>
+      </c>
+      <c r="AM450">
+        <v>0</v>
+      </c>
+      <c r="AN450">
+        <v>0</v>
+      </c>
+      <c r="AO450">
+        <v>0</v>
+      </c>
+      <c r="AP450">
+        <v>0</v>
+      </c>
+      <c r="AQ450">
+        <v>0</v>
+      </c>
+      <c r="AR450">
+        <v>0</v>
+      </c>
+      <c r="AS450">
+        <v>0</v>
+      </c>
+      <c r="AT450">
+        <v>0</v>
+      </c>
+      <c r="AU450">
+        <v>0</v>
+      </c>
+      <c r="AV450">
+        <v>0</v>
+      </c>
+      <c r="AW450">
+        <v>0</v>
+      </c>
+      <c r="AX450">
+        <v>0</v>
+      </c>
+      <c r="AY450">
+        <v>0</v>
+      </c>
+      <c r="AZ450">
+        <v>0</v>
+      </c>
+      <c r="BA450">
+        <v>0</v>
+      </c>
+      <c r="BB450">
+        <v>0</v>
+      </c>
+      <c r="BC450">
+        <v>0</v>
+      </c>
+      <c r="BD450">
+        <v>0</v>
+      </c>
+      <c r="BE450">
+        <v>0</v>
+      </c>
+      <c r="BF450">
+        <v>0</v>
+      </c>
+      <c r="BG450">
+        <v>0</v>
+      </c>
+      <c r="BH450">
+        <v>2</v>
+      </c>
+      <c r="BI450">
+        <v>1</v>
+      </c>
+      <c r="BJ450">
+        <v>7</v>
+      </c>
+      <c r="BK450">
+        <v>7</v>
+      </c>
+      <c r="BL450">
+        <v>17</v>
+      </c>
+      <c r="BM450">
+        <v>3</v>
+      </c>
+      <c r="BN450">
+        <v>1</v>
+      </c>
+      <c r="BO450">
+        <v>7</v>
+      </c>
+      <c r="BP450">
+        <v>117</v>
+      </c>
+      <c r="BQ450">
+        <v>250</v>
+      </c>
+      <c r="BR450">
+        <v>501</v>
+      </c>
+      <c r="BS450">
+        <v>724</v>
+      </c>
+      <c r="BT450">
+        <v>1603</v>
+      </c>
+      <c r="BU450" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV450" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW450" t="s">
+        <v>781</v>
+      </c>
+      <c r="BX450" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY450" t="s">
+        <v>782</v>
+      </c>
+      <c r="BZ450" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA450" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB450" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC450" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD450" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE450" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF450" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="451" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
+        <v>83</v>
+      </c>
+      <c r="B451" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C451" t="s">
+        <v>345</v>
+      </c>
+      <c r="D451" t="s">
+        <v>85</v>
+      </c>
+      <c r="E451" t="s">
+        <v>86</v>
+      </c>
+      <c r="F451" t="s">
+        <v>87</v>
+      </c>
+      <c r="G451" t="s">
+        <v>88</v>
+      </c>
+      <c r="H451" t="s">
+        <v>783</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+      <c r="O451">
+        <v>0</v>
+      </c>
+      <c r="P451">
+        <v>0</v>
+      </c>
+      <c r="Q451">
+        <v>0</v>
+      </c>
+      <c r="R451">
+        <v>0</v>
+      </c>
+      <c r="S451">
+        <v>0</v>
+      </c>
+      <c r="T451">
+        <v>0</v>
+      </c>
+      <c r="U451">
+        <v>0</v>
+      </c>
+      <c r="V451">
+        <v>0</v>
+      </c>
+      <c r="W451">
+        <v>0</v>
+      </c>
+      <c r="X451">
+        <v>0</v>
+      </c>
+      <c r="Y451">
+        <v>0</v>
+      </c>
+      <c r="Z451">
+        <v>0</v>
+      </c>
+      <c r="AA451">
+        <v>0</v>
+      </c>
+      <c r="AB451">
+        <v>0</v>
+      </c>
+      <c r="AC451">
+        <v>0</v>
+      </c>
+      <c r="AD451">
+        <v>0</v>
+      </c>
+      <c r="AE451">
+        <v>0</v>
+      </c>
+      <c r="AF451">
+        <v>0</v>
+      </c>
+      <c r="AG451">
+        <v>0</v>
+      </c>
+      <c r="AH451">
+        <v>0</v>
+      </c>
+      <c r="AI451">
+        <v>0</v>
+      </c>
+      <c r="AJ451">
+        <v>0</v>
+      </c>
+      <c r="AK451">
+        <v>0</v>
+      </c>
+      <c r="AL451">
+        <v>0</v>
+      </c>
+      <c r="AM451">
+        <v>0</v>
+      </c>
+      <c r="AN451">
+        <v>0</v>
+      </c>
+      <c r="AO451">
+        <v>0</v>
+      </c>
+      <c r="AP451">
+        <v>0</v>
+      </c>
+      <c r="AQ451">
+        <v>0</v>
+      </c>
+      <c r="AR451">
+        <v>0</v>
+      </c>
+      <c r="AS451">
+        <v>0</v>
+      </c>
+      <c r="AT451">
+        <v>0</v>
+      </c>
+      <c r="AU451">
+        <v>0</v>
+      </c>
+      <c r="AV451">
+        <v>0</v>
+      </c>
+      <c r="AW451">
+        <v>0</v>
+      </c>
+      <c r="AX451">
+        <v>0</v>
+      </c>
+      <c r="AY451">
+        <v>0</v>
+      </c>
+      <c r="AZ451">
+        <v>0</v>
+      </c>
+      <c r="BA451">
+        <v>0</v>
+      </c>
+      <c r="BB451">
+        <v>0</v>
+      </c>
+      <c r="BC451">
+        <v>0</v>
+      </c>
+      <c r="BD451">
+        <v>0</v>
+      </c>
+      <c r="BE451">
+        <v>0</v>
+      </c>
+      <c r="BF451">
+        <v>0</v>
+      </c>
+      <c r="BG451">
+        <v>0</v>
+      </c>
+      <c r="BH451">
+        <v>0</v>
+      </c>
+      <c r="BI451">
+        <v>1</v>
+      </c>
+      <c r="BJ451">
+        <v>0</v>
+      </c>
+      <c r="BK451">
+        <v>0</v>
+      </c>
+      <c r="BL451">
+        <v>1</v>
+      </c>
+      <c r="BM451">
+        <v>0</v>
+      </c>
+      <c r="BN451">
+        <v>0</v>
+      </c>
+      <c r="BO451">
+        <v>0</v>
+      </c>
+      <c r="BP451">
+        <v>0</v>
+      </c>
+      <c r="BQ451">
+        <v>1</v>
+      </c>
+      <c r="BR451">
+        <v>0</v>
+      </c>
+      <c r="BS451">
+        <v>0</v>
+      </c>
+      <c r="BT451">
+        <v>1</v>
+      </c>
+      <c r="BU451" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV451" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW451" t="s">
+        <v>390</v>
+      </c>
+      <c r="BX451" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY451" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ451" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA451" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB451" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC451" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD451" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE451" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF451" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="452" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
+        <v>83</v>
+      </c>
+      <c r="B452" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C452" t="s">
+        <v>345</v>
+      </c>
+      <c r="D452" t="s">
+        <v>85</v>
+      </c>
+      <c r="E452" t="s">
+        <v>241</v>
+      </c>
+      <c r="F452" t="s">
+        <v>132</v>
+      </c>
+      <c r="G452" t="s">
+        <v>88</v>
+      </c>
+      <c r="H452" t="s">
+        <v>451</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+      <c r="M452">
+        <v>0</v>
+      </c>
+      <c r="N452">
+        <v>0</v>
+      </c>
+      <c r="O452">
+        <v>0</v>
+      </c>
+      <c r="P452">
+        <v>0</v>
+      </c>
+      <c r="Q452">
+        <v>0</v>
+      </c>
+      <c r="R452">
+        <v>0</v>
+      </c>
+      <c r="S452">
+        <v>0</v>
+      </c>
+      <c r="T452">
+        <v>0</v>
+      </c>
+      <c r="U452">
+        <v>0</v>
+      </c>
+      <c r="V452">
+        <v>0</v>
+      </c>
+      <c r="W452">
+        <v>0</v>
+      </c>
+      <c r="X452">
+        <v>0</v>
+      </c>
+      <c r="Y452">
+        <v>0</v>
+      </c>
+      <c r="Z452">
+        <v>0</v>
+      </c>
+      <c r="AA452">
+        <v>0</v>
+      </c>
+      <c r="AB452">
+        <v>0</v>
+      </c>
+      <c r="AC452">
+        <v>0</v>
+      </c>
+      <c r="AD452">
+        <v>0</v>
+      </c>
+      <c r="AE452">
+        <v>0</v>
+      </c>
+      <c r="AF452">
+        <v>0</v>
+      </c>
+      <c r="AG452">
+        <v>0</v>
+      </c>
+      <c r="AH452">
+        <v>0</v>
+      </c>
+      <c r="AI452">
+        <v>0</v>
+      </c>
+      <c r="AJ452">
+        <v>0</v>
+      </c>
+      <c r="AK452">
+        <v>0</v>
+      </c>
+      <c r="AL452">
+        <v>0</v>
+      </c>
+      <c r="AM452">
+        <v>0</v>
+      </c>
+      <c r="AN452">
+        <v>0</v>
+      </c>
+      <c r="AO452">
+        <v>0</v>
+      </c>
+      <c r="AP452">
+        <v>0</v>
+      </c>
+      <c r="AQ452">
+        <v>0</v>
+      </c>
+      <c r="AR452">
+        <v>0</v>
+      </c>
+      <c r="AS452">
+        <v>0</v>
+      </c>
+      <c r="AT452">
+        <v>0</v>
+      </c>
+      <c r="AU452">
+        <v>0</v>
+      </c>
+      <c r="AV452">
+        <v>0</v>
+      </c>
+      <c r="AW452">
+        <v>0</v>
+      </c>
+      <c r="AX452">
+        <v>0</v>
+      </c>
+      <c r="AY452">
+        <v>0</v>
+      </c>
+      <c r="AZ452">
+        <v>0</v>
+      </c>
+      <c r="BA452">
+        <v>0</v>
+      </c>
+      <c r="BB452">
+        <v>0</v>
+      </c>
+      <c r="BC452">
+        <v>0</v>
+      </c>
+      <c r="BD452">
+        <v>0</v>
+      </c>
+      <c r="BE452">
+        <v>0</v>
+      </c>
+      <c r="BF452">
+        <v>0</v>
+      </c>
+      <c r="BG452">
+        <v>6</v>
+      </c>
+      <c r="BH452">
+        <v>3</v>
+      </c>
+      <c r="BI452">
+        <v>1</v>
+      </c>
+      <c r="BJ452">
+        <v>0</v>
+      </c>
+      <c r="BK452">
+        <v>0</v>
+      </c>
+      <c r="BL452">
+        <v>10</v>
+      </c>
+      <c r="BM452">
+        <v>0</v>
+      </c>
+      <c r="BN452">
+        <v>0</v>
+      </c>
+      <c r="BO452">
+        <v>6</v>
+      </c>
+      <c r="BP452">
+        <v>3</v>
+      </c>
+      <c r="BQ452">
+        <v>1</v>
+      </c>
+      <c r="BR452">
+        <v>0</v>
+      </c>
+      <c r="BS452">
+        <v>0</v>
+      </c>
+      <c r="BT452">
+        <v>10</v>
+      </c>
+      <c r="BU452" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV452" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW452" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX452" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY452" t="s">
+        <v>244</v>
+      </c>
+      <c r="BZ452" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA452" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB452" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC452" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD452" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE452" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF452" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="453" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
+        <v>83</v>
+      </c>
+      <c r="B453" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C453" t="s">
+        <v>345</v>
+      </c>
+      <c r="D453" t="s">
+        <v>85</v>
+      </c>
+      <c r="E453" t="s">
+        <v>204</v>
+      </c>
+      <c r="F453" t="s">
+        <v>102</v>
+      </c>
+      <c r="G453" t="s">
+        <v>88</v>
+      </c>
+      <c r="H453" t="s">
+        <v>784</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+      <c r="M453">
+        <v>0</v>
+      </c>
+      <c r="N453">
+        <v>0</v>
+      </c>
+      <c r="O453">
+        <v>0</v>
+      </c>
+      <c r="P453">
+        <v>0</v>
+      </c>
+      <c r="Q453">
+        <v>0</v>
+      </c>
+      <c r="R453">
+        <v>0</v>
+      </c>
+      <c r="S453">
+        <v>0</v>
+      </c>
+      <c r="T453">
+        <v>0</v>
+      </c>
+      <c r="U453">
+        <v>0</v>
+      </c>
+      <c r="V453">
+        <v>0</v>
+      </c>
+      <c r="W453">
+        <v>0</v>
+      </c>
+      <c r="X453">
+        <v>0</v>
+      </c>
+      <c r="Y453">
+        <v>0</v>
+      </c>
+      <c r="Z453">
+        <v>0</v>
+      </c>
+      <c r="AA453">
+        <v>0</v>
+      </c>
+      <c r="AB453">
+        <v>0</v>
+      </c>
+      <c r="AC453">
+        <v>0</v>
+      </c>
+      <c r="AD453">
+        <v>0</v>
+      </c>
+      <c r="AE453">
+        <v>0</v>
+      </c>
+      <c r="AF453">
+        <v>0</v>
+      </c>
+      <c r="AG453">
+        <v>0</v>
+      </c>
+      <c r="AH453">
+        <v>0</v>
+      </c>
+      <c r="AI453">
+        <v>0</v>
+      </c>
+      <c r="AJ453">
+        <v>0</v>
+      </c>
+      <c r="AK453">
+        <v>0</v>
+      </c>
+      <c r="AL453">
+        <v>0</v>
+      </c>
+      <c r="AM453">
+        <v>0</v>
+      </c>
+      <c r="AN453">
+        <v>0</v>
+      </c>
+      <c r="AO453">
+        <v>0</v>
+      </c>
+      <c r="AP453">
+        <v>0</v>
+      </c>
+      <c r="AQ453">
+        <v>0</v>
+      </c>
+      <c r="AR453">
+        <v>0</v>
+      </c>
+      <c r="AS453">
+        <v>0</v>
+      </c>
+      <c r="AT453">
+        <v>0</v>
+      </c>
+      <c r="AU453">
+        <v>0</v>
+      </c>
+      <c r="AV453">
+        <v>0</v>
+      </c>
+      <c r="AW453">
+        <v>0</v>
+      </c>
+      <c r="AX453">
+        <v>0</v>
+      </c>
+      <c r="AY453">
+        <v>0</v>
+      </c>
+      <c r="AZ453">
+        <v>0</v>
+      </c>
+      <c r="BA453">
+        <v>0</v>
+      </c>
+      <c r="BB453">
+        <v>0</v>
+      </c>
+      <c r="BC453">
+        <v>0</v>
+      </c>
+      <c r="BD453">
+        <v>0</v>
+      </c>
+      <c r="BE453">
+        <v>2</v>
+      </c>
+      <c r="BF453">
+        <v>3</v>
+      </c>
+      <c r="BG453">
+        <v>9</v>
+      </c>
+      <c r="BH453">
+        <v>15</v>
+      </c>
+      <c r="BI453">
+        <v>12</v>
+      </c>
+      <c r="BJ453">
+        <v>5</v>
+      </c>
+      <c r="BK453">
+        <v>18</v>
+      </c>
+      <c r="BL453">
+        <v>64</v>
+      </c>
+      <c r="BM453">
+        <v>2</v>
+      </c>
+      <c r="BN453">
+        <v>3</v>
+      </c>
+      <c r="BO453">
+        <v>9</v>
+      </c>
+      <c r="BP453">
+        <v>15</v>
+      </c>
+      <c r="BQ453">
+        <v>12</v>
+      </c>
+      <c r="BR453">
+        <v>5</v>
+      </c>
+      <c r="BS453">
+        <v>18</v>
+      </c>
+      <c r="BT453">
+        <v>64</v>
+      </c>
+      <c r="BU453" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV453" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW453" t="s">
+        <v>744</v>
+      </c>
+      <c r="BX453" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY453" t="s">
+        <v>785</v>
+      </c>
+      <c r="BZ453" t="s">
+        <v>786</v>
+      </c>
+      <c r="CA453" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB453" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC453" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD453" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE453" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF453" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="454" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>83</v>
+      </c>
+      <c r="B454" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C454" t="s">
+        <v>345</v>
+      </c>
+      <c r="D454" t="s">
+        <v>85</v>
+      </c>
+      <c r="E454" t="s">
+        <v>268</v>
+      </c>
+      <c r="F454" t="s">
+        <v>132</v>
+      </c>
+      <c r="G454" t="s">
+        <v>88</v>
+      </c>
+      <c r="H454" t="s">
+        <v>345</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+      <c r="M454">
+        <v>0</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>0</v>
+      </c>
+      <c r="P454">
+        <v>0</v>
+      </c>
+      <c r="Q454">
+        <v>0</v>
+      </c>
+      <c r="R454">
+        <v>0</v>
+      </c>
+      <c r="S454">
+        <v>0</v>
+      </c>
+      <c r="T454">
+        <v>0</v>
+      </c>
+      <c r="U454">
+        <v>0</v>
+      </c>
+      <c r="V454">
+        <v>0</v>
+      </c>
+      <c r="W454">
+        <v>0</v>
+      </c>
+      <c r="X454">
+        <v>0</v>
+      </c>
+      <c r="Y454">
+        <v>0</v>
+      </c>
+      <c r="Z454">
+        <v>0</v>
+      </c>
+      <c r="AA454">
+        <v>0</v>
+      </c>
+      <c r="AB454">
+        <v>0</v>
+      </c>
+      <c r="AC454">
+        <v>0</v>
+      </c>
+      <c r="AD454">
+        <v>0</v>
+      </c>
+      <c r="AE454">
+        <v>0</v>
+      </c>
+      <c r="AF454">
+        <v>0</v>
+      </c>
+      <c r="AG454">
+        <v>0</v>
+      </c>
+      <c r="AH454">
+        <v>0</v>
+      </c>
+      <c r="AI454">
+        <v>0</v>
+      </c>
+      <c r="AJ454">
+        <v>0</v>
+      </c>
+      <c r="AK454">
+        <v>0</v>
+      </c>
+      <c r="AL454">
+        <v>0</v>
+      </c>
+      <c r="AM454">
+        <v>0</v>
+      </c>
+      <c r="AN454">
+        <v>0</v>
+      </c>
+      <c r="AO454">
+        <v>0</v>
+      </c>
+      <c r="AP454">
+        <v>0</v>
+      </c>
+      <c r="AQ454">
+        <v>0</v>
+      </c>
+      <c r="AR454">
+        <v>0</v>
+      </c>
+      <c r="AS454">
+        <v>0</v>
+      </c>
+      <c r="AT454">
+        <v>0</v>
+      </c>
+      <c r="AU454">
+        <v>0</v>
+      </c>
+      <c r="AV454">
+        <v>0</v>
+      </c>
+      <c r="AW454">
+        <v>0</v>
+      </c>
+      <c r="AX454">
+        <v>0</v>
+      </c>
+      <c r="AY454">
+        <v>0</v>
+      </c>
+      <c r="AZ454">
+        <v>0</v>
+      </c>
+      <c r="BA454">
+        <v>0</v>
+      </c>
+      <c r="BB454">
+        <v>0</v>
+      </c>
+      <c r="BC454">
+        <v>0</v>
+      </c>
+      <c r="BD454">
+        <v>0</v>
+      </c>
+      <c r="BE454">
+        <v>1</v>
+      </c>
+      <c r="BF454">
+        <v>0</v>
+      </c>
+      <c r="BG454">
+        <v>3</v>
+      </c>
+      <c r="BH454">
+        <v>1</v>
+      </c>
+      <c r="BI454">
+        <v>1</v>
+      </c>
+      <c r="BJ454">
+        <v>0</v>
+      </c>
+      <c r="BK454">
+        <v>0</v>
+      </c>
+      <c r="BL454">
+        <v>6</v>
+      </c>
+      <c r="BM454">
+        <v>62</v>
+      </c>
+      <c r="BN454">
+        <v>19</v>
+      </c>
+      <c r="BO454">
+        <v>97</v>
+      </c>
+      <c r="BP454">
+        <v>391</v>
+      </c>
+      <c r="BQ454">
+        <v>899</v>
+      </c>
+      <c r="BR454">
+        <v>822</v>
+      </c>
+      <c r="BS454">
+        <v>830</v>
+      </c>
+      <c r="BT454">
+        <v>3120</v>
+      </c>
+      <c r="BU454" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV454" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW454" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX454" t="s">
+        <v>448</v>
+      </c>
+      <c r="BY454" t="s">
+        <v>449</v>
+      </c>
+      <c r="BZ454" t="s">
+        <v>450</v>
+      </c>
+      <c r="CA454" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB454" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC454" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD454" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE454" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF454" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="455" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
+        <v>83</v>
+      </c>
+      <c r="B455" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C455" t="s">
+        <v>345</v>
+      </c>
+      <c r="D455" t="s">
+        <v>85</v>
+      </c>
+      <c r="E455" t="s">
+        <v>123</v>
+      </c>
+      <c r="F455" t="s">
+        <v>102</v>
+      </c>
+      <c r="G455" t="s">
+        <v>88</v>
+      </c>
+      <c r="H455" t="s">
+        <v>787</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
+      </c>
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <v>0</v>
+      </c>
+      <c r="Q455">
+        <v>1</v>
+      </c>
+      <c r="R455">
+        <v>0</v>
+      </c>
+      <c r="S455">
+        <v>1</v>
+      </c>
+      <c r="T455">
+        <v>0</v>
+      </c>
+      <c r="U455">
+        <v>0</v>
+      </c>
+      <c r="V455">
+        <v>1</v>
+      </c>
+      <c r="W455">
+        <v>0</v>
+      </c>
+      <c r="X455">
+        <v>3</v>
+      </c>
+      <c r="Y455">
+        <v>0</v>
+      </c>
+      <c r="Z455">
+        <v>0</v>
+      </c>
+      <c r="AA455">
+        <v>0</v>
+      </c>
+      <c r="AB455">
+        <v>0</v>
+      </c>
+      <c r="AC455">
+        <v>0</v>
+      </c>
+      <c r="AD455">
+        <v>0</v>
+      </c>
+      <c r="AE455">
+        <v>0</v>
+      </c>
+      <c r="AF455">
+        <v>0</v>
+      </c>
+      <c r="AG455">
+        <v>0</v>
+      </c>
+      <c r="AH455">
+        <v>0</v>
+      </c>
+      <c r="AI455">
+        <v>0</v>
+      </c>
+      <c r="AJ455">
+        <v>0</v>
+      </c>
+      <c r="AK455">
+        <v>0</v>
+      </c>
+      <c r="AL455">
+        <v>0</v>
+      </c>
+      <c r="AM455">
+        <v>0</v>
+      </c>
+      <c r="AN455">
+        <v>0</v>
+      </c>
+      <c r="AO455">
+        <v>0</v>
+      </c>
+      <c r="AP455">
+        <v>0</v>
+      </c>
+      <c r="AQ455">
+        <v>0</v>
+      </c>
+      <c r="AR455">
+        <v>0</v>
+      </c>
+      <c r="AS455">
+        <v>0</v>
+      </c>
+      <c r="AT455">
+        <v>0</v>
+      </c>
+      <c r="AU455">
+        <v>0</v>
+      </c>
+      <c r="AV455">
+        <v>0</v>
+      </c>
+      <c r="AW455">
+        <v>0</v>
+      </c>
+      <c r="AX455">
+        <v>0</v>
+      </c>
+      <c r="AY455">
+        <v>0</v>
+      </c>
+      <c r="AZ455">
+        <v>0</v>
+      </c>
+      <c r="BA455">
+        <v>0</v>
+      </c>
+      <c r="BB455">
+        <v>0</v>
+      </c>
+      <c r="BC455">
+        <v>0</v>
+      </c>
+      <c r="BD455">
+        <v>0</v>
+      </c>
+      <c r="BE455">
+        <v>3</v>
+      </c>
+      <c r="BF455">
+        <v>4</v>
+      </c>
+      <c r="BG455">
+        <v>8</v>
+      </c>
+      <c r="BH455">
+        <v>7</v>
+      </c>
+      <c r="BI455">
+        <v>4</v>
+      </c>
+      <c r="BJ455">
+        <v>5</v>
+      </c>
+      <c r="BK455">
+        <v>4</v>
+      </c>
+      <c r="BL455">
+        <v>35</v>
+      </c>
+      <c r="BM455">
+        <v>13</v>
+      </c>
+      <c r="BN455">
+        <v>24</v>
+      </c>
+      <c r="BO455">
+        <v>29</v>
+      </c>
+      <c r="BP455">
+        <v>16</v>
+      </c>
+      <c r="BQ455">
+        <v>15</v>
+      </c>
+      <c r="BR455">
+        <v>21</v>
+      </c>
+      <c r="BS455">
+        <v>18</v>
+      </c>
+      <c r="BT455">
+        <v>136</v>
+      </c>
+      <c r="BU455" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV455" s="1">
+        <v>44661</v>
+      </c>
+      <c r="BW455" t="s">
+        <v>125</v>
+      </c>
+      <c r="BX455" t="s">
+        <v>788</v>
+      </c>
+      <c r="BY455" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ455" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA455" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB455" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC455" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD455" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE455" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF455" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="456" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
+        <v>83</v>
+      </c>
+      <c r="B456" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C456" t="s">
+        <v>289</v>
+      </c>
+      <c r="D456" t="s">
+        <v>85</v>
+      </c>
+      <c r="E456" t="s">
+        <v>181</v>
+      </c>
+      <c r="F456" t="s">
+        <v>289</v>
+      </c>
+      <c r="G456" t="s">
+        <v>88</v>
+      </c>
+      <c r="H456" t="s">
+        <v>513</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="N456">
+        <v>0</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
+      <c r="Q456">
+        <v>0</v>
+      </c>
+      <c r="R456">
+        <v>0</v>
+      </c>
+      <c r="S456">
+        <v>0</v>
+      </c>
+      <c r="T456">
+        <v>0</v>
+      </c>
+      <c r="U456">
+        <v>0</v>
+      </c>
+      <c r="V456">
+        <v>0</v>
+      </c>
+      <c r="W456">
+        <v>0</v>
+      </c>
+      <c r="X456">
+        <v>0</v>
+      </c>
+      <c r="Y456">
+        <v>0</v>
+      </c>
+      <c r="Z456">
+        <v>0</v>
+      </c>
+      <c r="AA456">
+        <v>0</v>
+      </c>
+      <c r="AB456">
+        <v>0</v>
+      </c>
+      <c r="AC456">
+        <v>0</v>
+      </c>
+      <c r="AD456">
+        <v>0</v>
+      </c>
+      <c r="AE456">
+        <v>0</v>
+      </c>
+      <c r="AF456">
+        <v>0</v>
+      </c>
+      <c r="AG456">
+        <v>0</v>
+      </c>
+      <c r="AH456">
+        <v>0</v>
+      </c>
+      <c r="AI456">
+        <v>0</v>
+      </c>
+      <c r="AJ456">
+        <v>0</v>
+      </c>
+      <c r="AK456">
+        <v>0</v>
+      </c>
+      <c r="AL456">
+        <v>0</v>
+      </c>
+      <c r="AM456">
+        <v>0</v>
+      </c>
+      <c r="AN456">
+        <v>0</v>
+      </c>
+      <c r="AO456">
+        <v>0</v>
+      </c>
+      <c r="AP456">
+        <v>0</v>
+      </c>
+      <c r="AQ456">
+        <v>0</v>
+      </c>
+      <c r="AR456">
+        <v>0</v>
+      </c>
+      <c r="AS456">
+        <v>0</v>
+      </c>
+      <c r="AT456">
+        <v>0</v>
+      </c>
+      <c r="AU456">
+        <v>0</v>
+      </c>
+      <c r="AV456">
+        <v>0</v>
+      </c>
+      <c r="AW456">
+        <v>0</v>
+      </c>
+      <c r="AX456">
+        <v>0</v>
+      </c>
+      <c r="AY456">
+        <v>0</v>
+      </c>
+      <c r="AZ456">
+        <v>0</v>
+      </c>
+      <c r="BA456">
+        <v>0</v>
+      </c>
+      <c r="BB456">
+        <v>0</v>
+      </c>
+      <c r="BC456">
+        <v>0</v>
+      </c>
+      <c r="BD456">
+        <v>0</v>
+      </c>
+      <c r="BE456">
+        <v>0</v>
+      </c>
+      <c r="BF456">
+        <v>1</v>
+      </c>
+      <c r="BG456">
+        <v>3</v>
+      </c>
+      <c r="BH456">
+        <v>3</v>
+      </c>
+      <c r="BI456">
+        <v>0</v>
+      </c>
+      <c r="BJ456">
+        <v>0</v>
+      </c>
+      <c r="BK456">
+        <v>0</v>
+      </c>
+      <c r="BL456">
+        <v>7</v>
+      </c>
+      <c r="BM456">
+        <v>6</v>
+      </c>
+      <c r="BN456">
+        <v>3</v>
+      </c>
+      <c r="BO456">
+        <v>56</v>
+      </c>
+      <c r="BP456">
+        <v>71</v>
+      </c>
+      <c r="BQ456">
+        <v>255</v>
+      </c>
+      <c r="BR456">
+        <v>504</v>
+      </c>
+      <c r="BS456">
+        <v>1108</v>
+      </c>
+      <c r="BT456">
+        <v>2003</v>
+      </c>
+      <c r="BU456" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV456" s="1">
+        <v>44655</v>
+      </c>
+      <c r="BW456" t="s">
+        <v>363</v>
+      </c>
+      <c r="BX456" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY456" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ456" t="s">
+        <v>293</v>
+      </c>
+      <c r="CA456" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB456" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC456" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD456" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE456" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF456" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="457" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
+        <v>83</v>
+      </c>
+      <c r="B457" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C457" t="s">
+        <v>345</v>
+      </c>
+      <c r="D457" t="s">
+        <v>85</v>
+      </c>
+      <c r="E457" t="s">
+        <v>219</v>
+      </c>
+      <c r="F457" t="s">
+        <v>102</v>
+      </c>
+      <c r="G457" t="s">
+        <v>88</v>
+      </c>
+      <c r="H457" t="s">
+        <v>789</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>4</v>
+      </c>
+      <c r="K457">
+        <v>6</v>
+      </c>
+      <c r="L457">
+        <v>4</v>
+      </c>
+      <c r="M457">
+        <v>6</v>
+      </c>
+      <c r="N457">
+        <v>4</v>
+      </c>
+      <c r="O457">
+        <v>5</v>
+      </c>
+      <c r="P457">
+        <v>29</v>
+      </c>
+      <c r="Q457">
+        <v>12</v>
+      </c>
+      <c r="R457">
+        <v>12</v>
+      </c>
+      <c r="S457">
+        <v>38</v>
+      </c>
+      <c r="T457">
+        <v>77</v>
+      </c>
+      <c r="U457">
+        <v>256</v>
+      </c>
+      <c r="V457">
+        <v>138</v>
+      </c>
+      <c r="W457">
+        <v>162</v>
+      </c>
+      <c r="X457">
+        <v>695</v>
+      </c>
+      <c r="Y457">
+        <v>0</v>
+      </c>
+      <c r="Z457">
+        <v>0</v>
+      </c>
+      <c r="AA457">
+        <v>0</v>
+      </c>
+      <c r="AB457">
+        <v>1</v>
+      </c>
+      <c r="AC457">
+        <v>0</v>
+      </c>
+      <c r="AD457">
+        <v>0</v>
+      </c>
+      <c r="AE457">
+        <v>0</v>
+      </c>
+      <c r="AF457">
+        <v>1</v>
+      </c>
+      <c r="AG457">
+        <v>0</v>
+      </c>
+      <c r="AH457">
+        <v>0</v>
+      </c>
+      <c r="AI457">
+        <v>0</v>
+      </c>
+      <c r="AJ457">
+        <v>1</v>
+      </c>
+      <c r="AK457">
+        <v>10</v>
+      </c>
+      <c r="AL457">
+        <v>9</v>
+      </c>
+      <c r="AM457">
+        <v>25</v>
+      </c>
+      <c r="AN457">
+        <v>45</v>
+      </c>
+      <c r="AO457">
+        <v>0</v>
+      </c>
+      <c r="AP457">
+        <v>0</v>
+      </c>
+      <c r="AQ457">
+        <v>0</v>
+      </c>
+      <c r="AR457">
+        <v>0</v>
+      </c>
+      <c r="AS457">
+        <v>0</v>
+      </c>
+      <c r="AT457">
+        <v>0</v>
+      </c>
+      <c r="AU457">
+        <v>0</v>
+      </c>
+      <c r="AV457">
+        <v>0</v>
+      </c>
+      <c r="AW457">
+        <v>1</v>
+      </c>
+      <c r="AX457">
+        <v>0</v>
+      </c>
+      <c r="AY457">
+        <v>0</v>
+      </c>
+      <c r="AZ457">
+        <v>0</v>
+      </c>
+      <c r="BA457">
+        <v>1</v>
+      </c>
+      <c r="BB457">
+        <v>1</v>
+      </c>
+      <c r="BC457">
+        <v>9</v>
+      </c>
+      <c r="BD457">
+        <v>12</v>
+      </c>
+      <c r="BE457">
+        <v>10</v>
+      </c>
+      <c r="BF457">
+        <v>7</v>
+      </c>
+      <c r="BG457">
+        <v>24</v>
+      </c>
+      <c r="BH457">
+        <v>10</v>
+      </c>
+      <c r="BI457">
+        <v>11</v>
+      </c>
+      <c r="BJ457">
+        <v>3</v>
+      </c>
+      <c r="BK457">
+        <v>4</v>
+      </c>
+      <c r="BL457">
+        <v>69</v>
+      </c>
+      <c r="BM457">
+        <v>60</v>
+      </c>
+      <c r="BN457">
+        <v>43</v>
+      </c>
+      <c r="BO457">
+        <v>133</v>
+      </c>
+      <c r="BP457">
+        <v>213</v>
+      </c>
+      <c r="BQ457">
+        <v>466</v>
+      </c>
+      <c r="BR457">
+        <v>205</v>
+      </c>
+      <c r="BS457">
+        <v>203</v>
+      </c>
+      <c r="BT457">
+        <v>1323</v>
+      </c>
+      <c r="BU457" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV457" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW457" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX457" t="s">
+        <v>222</v>
+      </c>
+      <c r="BY457" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ457" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA457" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB457" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC457" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD457" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE457" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF457" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="458" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
+        <v>83</v>
+      </c>
+      <c r="B458" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C458" t="s">
+        <v>345</v>
+      </c>
+      <c r="D458" t="s">
+        <v>85</v>
+      </c>
+      <c r="E458" t="s">
+        <v>256</v>
+      </c>
+      <c r="F458" t="s">
+        <v>102</v>
+      </c>
+      <c r="G458" t="s">
+        <v>88</v>
+      </c>
+      <c r="H458" t="s">
+        <v>290</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458">
+        <v>0</v>
+      </c>
+      <c r="O458">
+        <v>1</v>
+      </c>
+      <c r="P458">
+        <v>1</v>
+      </c>
+      <c r="Q458">
+        <v>0</v>
+      </c>
+      <c r="R458">
+        <v>0</v>
+      </c>
+      <c r="S458">
+        <v>0</v>
+      </c>
+      <c r="T458">
+        <v>1</v>
+      </c>
+      <c r="U458">
+        <v>1</v>
+      </c>
+      <c r="V458">
+        <v>1</v>
+      </c>
+      <c r="W458">
+        <v>20</v>
+      </c>
+      <c r="X458">
+        <v>23</v>
+      </c>
+      <c r="Y458">
+        <v>0</v>
+      </c>
+      <c r="Z458">
+        <v>0</v>
+      </c>
+      <c r="AA458">
+        <v>0</v>
+      </c>
+      <c r="AB458">
+        <v>0</v>
+      </c>
+      <c r="AC458">
+        <v>0</v>
+      </c>
+      <c r="AD458">
+        <v>0</v>
+      </c>
+      <c r="AE458">
+        <v>0</v>
+      </c>
+      <c r="AF458">
+        <v>0</v>
+      </c>
+      <c r="AG458">
+        <v>0</v>
+      </c>
+      <c r="AH458">
+        <v>0</v>
+      </c>
+      <c r="AI458">
+        <v>0</v>
+      </c>
+      <c r="AJ458">
+        <v>0</v>
+      </c>
+      <c r="AK458">
+        <v>0</v>
+      </c>
+      <c r="AL458">
+        <v>0</v>
+      </c>
+      <c r="AM458">
+        <v>0</v>
+      </c>
+      <c r="AN458">
+        <v>0</v>
+      </c>
+      <c r="AO458">
+        <v>0</v>
+      </c>
+      <c r="AP458">
+        <v>0</v>
+      </c>
+      <c r="AQ458">
+        <v>0</v>
+      </c>
+      <c r="AR458">
+        <v>0</v>
+      </c>
+      <c r="AS458">
+        <v>0</v>
+      </c>
+      <c r="AT458">
+        <v>0</v>
+      </c>
+      <c r="AU458">
+        <v>0</v>
+      </c>
+      <c r="AV458">
+        <v>0</v>
+      </c>
+      <c r="AW458">
+        <v>0</v>
+      </c>
+      <c r="AX458">
+        <v>0</v>
+      </c>
+      <c r="AY458">
+        <v>0</v>
+      </c>
+      <c r="AZ458">
+        <v>0</v>
+      </c>
+      <c r="BA458">
+        <v>0</v>
+      </c>
+      <c r="BB458">
+        <v>0</v>
+      </c>
+      <c r="BC458">
+        <v>0</v>
+      </c>
+      <c r="BD458">
+        <v>0</v>
+      </c>
+      <c r="BE458">
+        <v>0</v>
+      </c>
+      <c r="BF458">
+        <v>0</v>
+      </c>
+      <c r="BG458">
+        <v>0</v>
+      </c>
+      <c r="BH458">
+        <v>0</v>
+      </c>
+      <c r="BI458">
+        <v>0</v>
+      </c>
+      <c r="BJ458">
+        <v>0</v>
+      </c>
+      <c r="BK458">
+        <v>0</v>
+      </c>
+      <c r="BL458">
+        <v>0</v>
+      </c>
+      <c r="BM458">
+        <v>0</v>
+      </c>
+      <c r="BN458">
+        <v>0</v>
+      </c>
+      <c r="BO458">
+        <v>0</v>
+      </c>
+      <c r="BP458">
+        <v>0</v>
+      </c>
+      <c r="BQ458">
+        <v>4</v>
+      </c>
+      <c r="BR458">
+        <v>3</v>
+      </c>
+      <c r="BS458">
+        <v>7</v>
+      </c>
+      <c r="BT458">
+        <v>14</v>
+      </c>
+      <c r="BU458" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV458" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW458" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX458" t="s">
+        <v>790</v>
+      </c>
+      <c r="BY458" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ458" t="s">
+        <v>791</v>
+      </c>
+      <c r="CA458" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB458" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC458" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD458" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE458" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF458" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="459" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
+        <v>83</v>
+      </c>
+      <c r="B459" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C459" t="s">
+        <v>345</v>
+      </c>
+      <c r="D459" t="s">
+        <v>85</v>
+      </c>
+      <c r="E459" t="s">
+        <v>234</v>
+      </c>
+      <c r="F459" t="s">
+        <v>102</v>
+      </c>
+      <c r="G459" t="s">
+        <v>88</v>
+      </c>
+      <c r="H459" t="s">
+        <v>526</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+      <c r="M459">
+        <v>0</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>1</v>
+      </c>
+      <c r="P459">
+        <v>1</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <v>0</v>
+      </c>
+      <c r="S459">
+        <v>0</v>
+      </c>
+      <c r="T459">
+        <v>0</v>
+      </c>
+      <c r="U459">
+        <v>4</v>
+      </c>
+      <c r="V459">
+        <v>7</v>
+      </c>
+      <c r="W459">
+        <v>10</v>
+      </c>
+      <c r="X459">
+        <v>21</v>
+      </c>
+      <c r="Y459">
+        <v>0</v>
+      </c>
+      <c r="Z459">
+        <v>0</v>
+      </c>
+      <c r="AA459">
+        <v>0</v>
+      </c>
+      <c r="AB459">
+        <v>0</v>
+      </c>
+      <c r="AC459">
+        <v>0</v>
+      </c>
+      <c r="AD459">
+        <v>0</v>
+      </c>
+      <c r="AE459">
+        <v>0</v>
+      </c>
+      <c r="AF459">
+        <v>0</v>
+      </c>
+      <c r="AG459">
+        <v>0</v>
+      </c>
+      <c r="AH459">
+        <v>0</v>
+      </c>
+      <c r="AI459">
+        <v>0</v>
+      </c>
+      <c r="AJ459">
+        <v>0</v>
+      </c>
+      <c r="AK459">
+        <v>0</v>
+      </c>
+      <c r="AL459">
+        <v>0</v>
+      </c>
+      <c r="AM459">
+        <v>0</v>
+      </c>
+      <c r="AN459">
+        <v>0</v>
+      </c>
+      <c r="AO459">
+        <v>0</v>
+      </c>
+      <c r="AP459">
+        <v>0</v>
+      </c>
+      <c r="AQ459">
+        <v>0</v>
+      </c>
+      <c r="AR459">
+        <v>0</v>
+      </c>
+      <c r="AS459">
+        <v>0</v>
+      </c>
+      <c r="AT459">
+        <v>0</v>
+      </c>
+      <c r="AU459">
+        <v>0</v>
+      </c>
+      <c r="AV459">
+        <v>0</v>
+      </c>
+      <c r="AW459">
+        <v>0</v>
+      </c>
+      <c r="AX459">
+        <v>0</v>
+      </c>
+      <c r="AY459">
+        <v>0</v>
+      </c>
+      <c r="AZ459">
+        <v>0</v>
+      </c>
+      <c r="BA459">
+        <v>0</v>
+      </c>
+      <c r="BB459">
+        <v>0</v>
+      </c>
+      <c r="BC459">
+        <v>0</v>
+      </c>
+      <c r="BD459">
+        <v>0</v>
+      </c>
+      <c r="BE459">
+        <v>1</v>
+      </c>
+      <c r="BF459">
+        <v>1</v>
+      </c>
+      <c r="BG459">
+        <v>3</v>
+      </c>
+      <c r="BH459">
+        <v>4</v>
+      </c>
+      <c r="BI459">
+        <v>15</v>
+      </c>
+      <c r="BJ459">
+        <v>24</v>
+      </c>
+      <c r="BK459">
+        <v>4</v>
+      </c>
+      <c r="BL459">
+        <v>52</v>
+      </c>
+      <c r="BM459">
+        <v>2</v>
+      </c>
+      <c r="BN459">
+        <v>4</v>
+      </c>
+      <c r="BO459">
+        <v>12</v>
+      </c>
+      <c r="BP459">
+        <v>60</v>
+      </c>
+      <c r="BQ459">
+        <v>187</v>
+      </c>
+      <c r="BR459">
+        <v>205</v>
+      </c>
+      <c r="BS459">
+        <v>280</v>
+      </c>
+      <c r="BT459">
+        <v>750</v>
+      </c>
+      <c r="BU459" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV459" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW459" t="s">
+        <v>236</v>
+      </c>
+      <c r="BX459" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY459" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ459" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA459" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB459" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC459" t="s">
+        <v>240</v>
+      </c>
+      <c r="CD459" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE459" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF459" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="460" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
+        <v>83</v>
+      </c>
+      <c r="B460" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C460" t="s">
+        <v>345</v>
+      </c>
+      <c r="D460" t="s">
+        <v>85</v>
+      </c>
+      <c r="E460" t="s">
+        <v>115</v>
+      </c>
+      <c r="F460" t="s">
+        <v>102</v>
+      </c>
+      <c r="G460" t="s">
+        <v>88</v>
+      </c>
+      <c r="H460" t="s">
+        <v>792</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <v>0</v>
+      </c>
+      <c r="R460">
+        <v>0</v>
+      </c>
+      <c r="S460">
+        <v>0</v>
+      </c>
+      <c r="T460">
+        <v>0</v>
+      </c>
+      <c r="U460">
+        <v>0</v>
+      </c>
+      <c r="V460">
+        <v>0</v>
+      </c>
+      <c r="W460">
+        <v>0</v>
+      </c>
+      <c r="X460">
+        <v>0</v>
+      </c>
+      <c r="Y460">
+        <v>0</v>
+      </c>
+      <c r="Z460">
+        <v>0</v>
+      </c>
+      <c r="AA460">
+        <v>0</v>
+      </c>
+      <c r="AB460">
+        <v>0</v>
+      </c>
+      <c r="AC460">
+        <v>0</v>
+      </c>
+      <c r="AD460">
+        <v>0</v>
+      </c>
+      <c r="AE460">
+        <v>0</v>
+      </c>
+      <c r="AF460">
+        <v>0</v>
+      </c>
+      <c r="AG460">
+        <v>0</v>
+      </c>
+      <c r="AH460">
+        <v>0</v>
+      </c>
+      <c r="AI460">
+        <v>0</v>
+      </c>
+      <c r="AJ460">
+        <v>0</v>
+      </c>
+      <c r="AK460">
+        <v>0</v>
+      </c>
+      <c r="AL460">
+        <v>0</v>
+      </c>
+      <c r="AM460">
+        <v>0</v>
+      </c>
+      <c r="AN460">
+        <v>0</v>
+      </c>
+      <c r="AO460">
+        <v>0</v>
+      </c>
+      <c r="AP460">
+        <v>0</v>
+      </c>
+      <c r="AQ460">
+        <v>0</v>
+      </c>
+      <c r="AR460">
+        <v>0</v>
+      </c>
+      <c r="AS460">
+        <v>0</v>
+      </c>
+      <c r="AT460">
+        <v>0</v>
+      </c>
+      <c r="AU460">
+        <v>0</v>
+      </c>
+      <c r="AV460">
+        <v>0</v>
+      </c>
+      <c r="AW460">
+        <v>0</v>
+      </c>
+      <c r="AX460">
+        <v>0</v>
+      </c>
+      <c r="AY460">
+        <v>0</v>
+      </c>
+      <c r="AZ460">
+        <v>0</v>
+      </c>
+      <c r="BA460">
+        <v>0</v>
+      </c>
+      <c r="BB460">
+        <v>0</v>
+      </c>
+      <c r="BC460">
+        <v>0</v>
+      </c>
+      <c r="BD460">
+        <v>0</v>
+      </c>
+      <c r="BE460">
+        <v>4</v>
+      </c>
+      <c r="BF460">
+        <v>5</v>
+      </c>
+      <c r="BG460">
+        <v>22</v>
+      </c>
+      <c r="BH460">
+        <v>13</v>
+      </c>
+      <c r="BI460">
+        <v>13</v>
+      </c>
+      <c r="BJ460">
+        <v>15</v>
+      </c>
+      <c r="BK460">
+        <v>54</v>
+      </c>
+      <c r="BL460">
+        <v>126</v>
+      </c>
+      <c r="BM460">
+        <v>32</v>
+      </c>
+      <c r="BN460">
+        <v>29</v>
+      </c>
+      <c r="BO460">
+        <v>69</v>
+      </c>
+      <c r="BP460">
+        <v>215</v>
+      </c>
+      <c r="BQ460">
+        <v>559</v>
+      </c>
+      <c r="BR460">
+        <v>821</v>
+      </c>
+      <c r="BS460">
+        <v>985</v>
+      </c>
+      <c r="BT460">
+        <v>2710</v>
+      </c>
+      <c r="BU460" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV460" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW460" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX460" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY460" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ460" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA460" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB460" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC460" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD460" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE460" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF460" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="461" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
+        <v>83</v>
+      </c>
+      <c r="B461" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C461" t="s">
+        <v>345</v>
+      </c>
+      <c r="D461" t="s">
+        <v>85</v>
+      </c>
+      <c r="E461" t="s">
+        <v>115</v>
+      </c>
+      <c r="F461" t="s">
+        <v>116</v>
+      </c>
+      <c r="G461" t="s">
+        <v>88</v>
+      </c>
+      <c r="H461" t="s">
+        <v>793</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461">
+        <v>0</v>
+      </c>
+      <c r="Q461">
+        <v>0</v>
+      </c>
+      <c r="R461">
+        <v>0</v>
+      </c>
+      <c r="S461">
+        <v>0</v>
+      </c>
+      <c r="T461">
+        <v>0</v>
+      </c>
+      <c r="U461">
+        <v>0</v>
+      </c>
+      <c r="V461">
+        <v>0</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>0</v>
+      </c>
+      <c r="Z461">
+        <v>0</v>
+      </c>
+      <c r="AA461">
+        <v>0</v>
+      </c>
+      <c r="AB461">
+        <v>0</v>
+      </c>
+      <c r="AC461">
+        <v>0</v>
+      </c>
+      <c r="AD461">
+        <v>0</v>
+      </c>
+      <c r="AE461">
+        <v>0</v>
+      </c>
+      <c r="AF461">
+        <v>0</v>
+      </c>
+      <c r="AG461">
+        <v>0</v>
+      </c>
+      <c r="AH461">
+        <v>0</v>
+      </c>
+      <c r="AI461">
+        <v>0</v>
+      </c>
+      <c r="AJ461">
+        <v>0</v>
+      </c>
+      <c r="AK461">
+        <v>0</v>
+      </c>
+      <c r="AL461">
+        <v>0</v>
+      </c>
+      <c r="AM461">
+        <v>0</v>
+      </c>
+      <c r="AN461">
+        <v>0</v>
+      </c>
+      <c r="AO461">
+        <v>0</v>
+      </c>
+      <c r="AP461">
+        <v>0</v>
+      </c>
+      <c r="AQ461">
+        <v>0</v>
+      </c>
+      <c r="AR461">
+        <v>0</v>
+      </c>
+      <c r="AS461">
+        <v>0</v>
+      </c>
+      <c r="AT461">
+        <v>0</v>
+      </c>
+      <c r="AU461">
+        <v>0</v>
+      </c>
+      <c r="AV461">
+        <v>0</v>
+      </c>
+      <c r="AW461">
+        <v>0</v>
+      </c>
+      <c r="AX461">
+        <v>0</v>
+      </c>
+      <c r="AY461">
+        <v>0</v>
+      </c>
+      <c r="AZ461">
+        <v>0</v>
+      </c>
+      <c r="BA461">
+        <v>0</v>
+      </c>
+      <c r="BB461">
+        <v>0</v>
+      </c>
+      <c r="BC461">
+        <v>0</v>
+      </c>
+      <c r="BD461">
+        <v>0</v>
+      </c>
+      <c r="BE461">
+        <v>7</v>
+      </c>
+      <c r="BF461">
+        <v>5</v>
+      </c>
+      <c r="BG461">
+        <v>26</v>
+      </c>
+      <c r="BH461">
+        <v>20</v>
+      </c>
+      <c r="BI461">
+        <v>19</v>
+      </c>
+      <c r="BJ461">
+        <v>15</v>
+      </c>
+      <c r="BK461">
+        <v>48</v>
+      </c>
+      <c r="BL461">
+        <v>140</v>
+      </c>
+      <c r="BM461">
+        <v>110</v>
+      </c>
+      <c r="BN461">
+        <v>61</v>
+      </c>
+      <c r="BO461">
+        <v>177</v>
+      </c>
+      <c r="BP461">
+        <v>397</v>
+      </c>
+      <c r="BQ461">
+        <v>717</v>
+      </c>
+      <c r="BR461">
+        <v>779</v>
+      </c>
+      <c r="BS461">
+        <v>680</v>
+      </c>
+      <c r="BT461">
+        <v>2921</v>
+      </c>
+      <c r="BU461" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV461" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW461" t="s">
+        <v>508</v>
+      </c>
+      <c r="BX461" t="s">
+        <v>794</v>
+      </c>
+      <c r="BY461" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ461" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA461" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB461" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC461" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD461" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE461" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF461" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="462" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>83</v>
+      </c>
+      <c r="B462" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C462" t="s">
+        <v>345</v>
+      </c>
+      <c r="D462" t="s">
+        <v>85</v>
+      </c>
+      <c r="E462" t="s">
+        <v>115</v>
+      </c>
+      <c r="F462" t="s">
+        <v>173</v>
+      </c>
+      <c r="G462" t="s">
+        <v>88</v>
+      </c>
+      <c r="H462" t="s">
+        <v>611</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462">
+        <v>0</v>
+      </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
+      <c r="R462">
+        <v>0</v>
+      </c>
+      <c r="S462">
+        <v>0</v>
+      </c>
+      <c r="T462">
+        <v>0</v>
+      </c>
+      <c r="U462">
+        <v>0</v>
+      </c>
+      <c r="V462">
+        <v>0</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>0</v>
+      </c>
+      <c r="Z462">
+        <v>0</v>
+      </c>
+      <c r="AA462">
+        <v>0</v>
+      </c>
+      <c r="AB462">
+        <v>0</v>
+      </c>
+      <c r="AC462">
+        <v>0</v>
+      </c>
+      <c r="AD462">
+        <v>0</v>
+      </c>
+      <c r="AE462">
+        <v>0</v>
+      </c>
+      <c r="AF462">
+        <v>0</v>
+      </c>
+      <c r="AG462">
+        <v>0</v>
+      </c>
+      <c r="AH462">
+        <v>0</v>
+      </c>
+      <c r="AI462">
+        <v>0</v>
+      </c>
+      <c r="AJ462">
+        <v>0</v>
+      </c>
+      <c r="AK462">
+        <v>0</v>
+      </c>
+      <c r="AL462">
+        <v>0</v>
+      </c>
+      <c r="AM462">
+        <v>0</v>
+      </c>
+      <c r="AN462">
+        <v>0</v>
+      </c>
+      <c r="AO462">
+        <v>0</v>
+      </c>
+      <c r="AP462">
+        <v>0</v>
+      </c>
+      <c r="AQ462">
+        <v>0</v>
+      </c>
+      <c r="AR462">
+        <v>0</v>
+      </c>
+      <c r="AS462">
+        <v>0</v>
+      </c>
+      <c r="AT462">
+        <v>0</v>
+      </c>
+      <c r="AU462">
+        <v>0</v>
+      </c>
+      <c r="AV462">
+        <v>0</v>
+      </c>
+      <c r="AW462">
+        <v>0</v>
+      </c>
+      <c r="AX462">
+        <v>0</v>
+      </c>
+      <c r="AY462">
+        <v>0</v>
+      </c>
+      <c r="AZ462">
+        <v>0</v>
+      </c>
+      <c r="BA462">
+        <v>0</v>
+      </c>
+      <c r="BB462">
+        <v>0</v>
+      </c>
+      <c r="BC462">
+        <v>0</v>
+      </c>
+      <c r="BD462">
+        <v>0</v>
+      </c>
+      <c r="BE462">
+        <v>0</v>
+      </c>
+      <c r="BF462">
+        <v>0</v>
+      </c>
+      <c r="BG462">
+        <v>2</v>
+      </c>
+      <c r="BH462">
+        <v>3</v>
+      </c>
+      <c r="BI462">
+        <v>3</v>
+      </c>
+      <c r="BJ462">
+        <v>3</v>
+      </c>
+      <c r="BK462">
+        <v>4</v>
+      </c>
+      <c r="BL462">
+        <v>15</v>
+      </c>
+      <c r="BM462">
+        <v>3</v>
+      </c>
+      <c r="BN462">
+        <v>2</v>
+      </c>
+      <c r="BO462">
+        <v>7</v>
+      </c>
+      <c r="BP462">
+        <v>30</v>
+      </c>
+      <c r="BQ462">
+        <v>215</v>
+      </c>
+      <c r="BR462">
+        <v>186</v>
+      </c>
+      <c r="BS462">
+        <v>110</v>
+      </c>
+      <c r="BT462">
+        <v>553</v>
+      </c>
+      <c r="BU462" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV462" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW462" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX462" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY462" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ462" t="s">
+        <v>332</v>
+      </c>
+      <c r="CA462" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB462" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC462" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD462" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE462" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF462" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="463" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
+        <v>83</v>
+      </c>
+      <c r="B463" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C463" t="s">
+        <v>345</v>
+      </c>
+      <c r="D463" t="s">
+        <v>85</v>
+      </c>
+      <c r="E463" t="s">
+        <v>101</v>
+      </c>
+      <c r="F463" t="s">
+        <v>102</v>
+      </c>
+      <c r="G463" t="s">
+        <v>88</v>
+      </c>
+      <c r="H463" t="s">
+        <v>795</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463">
+        <v>0</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <v>0</v>
+      </c>
+      <c r="R463">
+        <v>0</v>
+      </c>
+      <c r="S463">
+        <v>0</v>
+      </c>
+      <c r="T463">
+        <v>0</v>
+      </c>
+      <c r="U463">
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <v>0</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>0</v>
+      </c>
+      <c r="Z463">
+        <v>0</v>
+      </c>
+      <c r="AA463">
+        <v>0</v>
+      </c>
+      <c r="AB463">
+        <v>0</v>
+      </c>
+      <c r="AC463">
+        <v>0</v>
+      </c>
+      <c r="AD463">
+        <v>0</v>
+      </c>
+      <c r="AE463">
+        <v>0</v>
+      </c>
+      <c r="AF463">
+        <v>0</v>
+      </c>
+      <c r="AG463">
+        <v>0</v>
+      </c>
+      <c r="AH463">
+        <v>0</v>
+      </c>
+      <c r="AI463">
+        <v>0</v>
+      </c>
+      <c r="AJ463">
+        <v>0</v>
+      </c>
+      <c r="AK463">
+        <v>0</v>
+      </c>
+      <c r="AL463">
+        <v>0</v>
+      </c>
+      <c r="AM463">
+        <v>0</v>
+      </c>
+      <c r="AN463">
+        <v>0</v>
+      </c>
+      <c r="AO463">
+        <v>0</v>
+      </c>
+      <c r="AP463">
+        <v>0</v>
+      </c>
+      <c r="AQ463">
+        <v>0</v>
+      </c>
+      <c r="AR463">
+        <v>0</v>
+      </c>
+      <c r="AS463">
+        <v>0</v>
+      </c>
+      <c r="AT463">
+        <v>0</v>
+      </c>
+      <c r="AU463">
+        <v>0</v>
+      </c>
+      <c r="AV463">
+        <v>0</v>
+      </c>
+      <c r="AW463">
+        <v>0</v>
+      </c>
+      <c r="AX463">
+        <v>0</v>
+      </c>
+      <c r="AY463">
+        <v>0</v>
+      </c>
+      <c r="AZ463">
+        <v>0</v>
+      </c>
+      <c r="BA463">
+        <v>0</v>
+      </c>
+      <c r="BB463">
+        <v>0</v>
+      </c>
+      <c r="BC463">
+        <v>0</v>
+      </c>
+      <c r="BD463">
+        <v>0</v>
+      </c>
+      <c r="BE463">
+        <v>3</v>
+      </c>
+      <c r="BF463">
+        <v>3</v>
+      </c>
+      <c r="BG463">
+        <v>7</v>
+      </c>
+      <c r="BH463">
+        <v>12</v>
+      </c>
+      <c r="BI463">
+        <v>26</v>
+      </c>
+      <c r="BJ463">
+        <v>7</v>
+      </c>
+      <c r="BK463">
+        <v>5</v>
+      </c>
+      <c r="BL463">
+        <v>63</v>
+      </c>
+      <c r="BM463">
+        <v>66</v>
+      </c>
+      <c r="BN463">
+        <v>57</v>
+      </c>
+      <c r="BO463">
+        <v>132</v>
+      </c>
+      <c r="BP463">
+        <v>498</v>
+      </c>
+      <c r="BQ463">
+        <v>11601</v>
+      </c>
+      <c r="BR463">
+        <v>1314</v>
+      </c>
+      <c r="BS463">
+        <v>1198</v>
+      </c>
+      <c r="BT463">
+        <v>14866</v>
+      </c>
+      <c r="BU463" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV463" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW463" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX463" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY463" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ463" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA463" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB463" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC463" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD463" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE463" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF463" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="464" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
+        <v>83</v>
+      </c>
+      <c r="B464" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C464" t="s">
+        <v>345</v>
+      </c>
+      <c r="D464" t="s">
+        <v>85</v>
+      </c>
+      <c r="E464" t="s">
+        <v>101</v>
+      </c>
+      <c r="F464" t="s">
+        <v>110</v>
+      </c>
+      <c r="G464" t="s">
+        <v>88</v>
+      </c>
+      <c r="H464" t="s">
+        <v>796</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>0</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <v>0</v>
+      </c>
+      <c r="R464">
+        <v>0</v>
+      </c>
+      <c r="S464">
+        <v>0</v>
+      </c>
+      <c r="T464">
+        <v>0</v>
+      </c>
+      <c r="U464">
+        <v>0</v>
+      </c>
+      <c r="V464">
+        <v>0</v>
+      </c>
+      <c r="W464">
+        <v>0</v>
+      </c>
+      <c r="X464">
+        <v>0</v>
+      </c>
+      <c r="Y464">
+        <v>0</v>
+      </c>
+      <c r="Z464">
+        <v>0</v>
+      </c>
+      <c r="AA464">
+        <v>0</v>
+      </c>
+      <c r="AB464">
+        <v>0</v>
+      </c>
+      <c r="AC464">
+        <v>0</v>
+      </c>
+      <c r="AD464">
+        <v>0</v>
+      </c>
+      <c r="AE464">
+        <v>0</v>
+      </c>
+      <c r="AF464">
+        <v>0</v>
+      </c>
+      <c r="AG464">
+        <v>0</v>
+      </c>
+      <c r="AH464">
+        <v>0</v>
+      </c>
+      <c r="AI464">
+        <v>0</v>
+      </c>
+      <c r="AJ464">
+        <v>0</v>
+      </c>
+      <c r="AK464">
+        <v>0</v>
+      </c>
+      <c r="AL464">
+        <v>0</v>
+      </c>
+      <c r="AM464">
+        <v>0</v>
+      </c>
+      <c r="AN464">
+        <v>0</v>
+      </c>
+      <c r="AO464">
+        <v>0</v>
+      </c>
+      <c r="AP464">
+        <v>0</v>
+      </c>
+      <c r="AQ464">
+        <v>0</v>
+      </c>
+      <c r="AR464">
+        <v>0</v>
+      </c>
+      <c r="AS464">
+        <v>0</v>
+      </c>
+      <c r="AT464">
+        <v>0</v>
+      </c>
+      <c r="AU464">
+        <v>0</v>
+      </c>
+      <c r="AV464">
+        <v>0</v>
+      </c>
+      <c r="AW464">
+        <v>0</v>
+      </c>
+      <c r="AX464">
+        <v>0</v>
+      </c>
+      <c r="AY464">
+        <v>0</v>
+      </c>
+      <c r="AZ464">
+        <v>0</v>
+      </c>
+      <c r="BA464">
+        <v>0</v>
+      </c>
+      <c r="BB464">
+        <v>0</v>
+      </c>
+      <c r="BC464">
+        <v>0</v>
+      </c>
+      <c r="BD464">
+        <v>0</v>
+      </c>
+      <c r="BE464">
+        <v>4</v>
+      </c>
+      <c r="BF464">
+        <v>3</v>
+      </c>
+      <c r="BG464">
+        <v>15</v>
+      </c>
+      <c r="BH464">
+        <v>10</v>
+      </c>
+      <c r="BI464">
+        <v>13</v>
+      </c>
+      <c r="BJ464">
+        <v>6</v>
+      </c>
+      <c r="BK464">
+        <v>2</v>
+      </c>
+      <c r="BL464">
+        <v>53</v>
+      </c>
+      <c r="BM464">
+        <v>39</v>
+      </c>
+      <c r="BN464">
+        <v>38</v>
+      </c>
+      <c r="BO464">
+        <v>159</v>
+      </c>
+      <c r="BP464">
+        <v>464</v>
+      </c>
+      <c r="BQ464">
+        <v>649</v>
+      </c>
+      <c r="BR464">
+        <v>852</v>
+      </c>
+      <c r="BS464">
+        <v>644</v>
+      </c>
+      <c r="BT464">
+        <v>2845</v>
+      </c>
+      <c r="BU464" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV464" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW464" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX464" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY464" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ464" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA464" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB464" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC464" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD464" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE464" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF464" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="465" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
+        <v>83</v>
+      </c>
+      <c r="B465" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C465" t="s">
+        <v>345</v>
+      </c>
+      <c r="D465" t="s">
+        <v>85</v>
+      </c>
+      <c r="E465" t="s">
+        <v>101</v>
+      </c>
+      <c r="F465" t="s">
+        <v>113</v>
+      </c>
+      <c r="G465" t="s">
+        <v>88</v>
+      </c>
+      <c r="H465" t="s">
+        <v>797</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>1</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>3</v>
+      </c>
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>4</v>
+      </c>
+      <c r="Q465">
+        <v>3</v>
+      </c>
+      <c r="R465">
+        <v>4</v>
+      </c>
+      <c r="S465">
+        <v>7</v>
+      </c>
+      <c r="T465">
+        <v>17</v>
+      </c>
+      <c r="U465">
+        <v>40</v>
+      </c>
+      <c r="V465">
+        <v>16</v>
+      </c>
+      <c r="W465">
+        <v>43</v>
+      </c>
+      <c r="X465">
+        <v>130</v>
+      </c>
+      <c r="Y465">
+        <v>1</v>
+      </c>
+      <c r="Z465">
+        <v>0</v>
+      </c>
+      <c r="AA465">
+        <v>0</v>
+      </c>
+      <c r="AB465">
+        <v>0</v>
+      </c>
+      <c r="AC465">
+        <v>0</v>
+      </c>
+      <c r="AD465">
+        <v>0</v>
+      </c>
+      <c r="AE465">
+        <v>0</v>
+      </c>
+      <c r="AF465">
+        <v>1</v>
+      </c>
+      <c r="AG465">
+        <v>3</v>
+      </c>
+      <c r="AH465">
+        <v>0</v>
+      </c>
+      <c r="AI465">
+        <v>2</v>
+      </c>
+      <c r="AJ465">
+        <v>6</v>
+      </c>
+      <c r="AK465">
+        <v>5</v>
+      </c>
+      <c r="AL465">
+        <v>14</v>
+      </c>
+      <c r="AM465">
+        <v>24</v>
+      </c>
+      <c r="AN465">
+        <v>54</v>
+      </c>
+      <c r="AO465">
+        <v>0</v>
+      </c>
+      <c r="AP465">
+        <v>0</v>
+      </c>
+      <c r="AQ465">
+        <v>0</v>
+      </c>
+      <c r="AR465">
+        <v>0</v>
+      </c>
+      <c r="AS465">
+        <v>0</v>
+      </c>
+      <c r="AT465">
+        <v>0</v>
+      </c>
+      <c r="AU465">
+        <v>0</v>
+      </c>
+      <c r="AV465">
+        <v>0</v>
+      </c>
+      <c r="AW465">
+        <v>0</v>
+      </c>
+      <c r="AX465">
+        <v>0</v>
+      </c>
+      <c r="AY465">
+        <v>0</v>
+      </c>
+      <c r="AZ465">
+        <v>0</v>
+      </c>
+      <c r="BA465">
+        <v>1</v>
+      </c>
+      <c r="BB465">
+        <v>3</v>
+      </c>
+      <c r="BC465">
+        <v>12</v>
+      </c>
+      <c r="BD465">
+        <v>16</v>
+      </c>
+      <c r="BE465">
+        <v>11</v>
+      </c>
+      <c r="BF465">
+        <v>11</v>
+      </c>
+      <c r="BG465">
+        <v>41</v>
+      </c>
+      <c r="BH465">
+        <v>27</v>
+      </c>
+      <c r="BI465">
+        <v>5</v>
+      </c>
+      <c r="BJ465">
+        <v>1</v>
+      </c>
+      <c r="BK465">
+        <v>5</v>
+      </c>
+      <c r="BL465">
+        <v>101</v>
+      </c>
+      <c r="BM465">
+        <v>38</v>
+      </c>
+      <c r="BN465">
+        <v>47</v>
+      </c>
+      <c r="BO465">
+        <v>162</v>
+      </c>
+      <c r="BP465">
+        <v>305</v>
+      </c>
+      <c r="BQ465">
+        <v>506</v>
+      </c>
+      <c r="BR465">
+        <v>298</v>
+      </c>
+      <c r="BS465">
+        <v>274</v>
+      </c>
+      <c r="BT465">
+        <v>1630</v>
+      </c>
+      <c r="BU465" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV465" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW465" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX465" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY465" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ465" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA465" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB465" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC465" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD465" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE465" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF465" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="466" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
+        <v>83</v>
+      </c>
+      <c r="B466" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C466" t="s">
+        <v>345</v>
+      </c>
+      <c r="D466" t="s">
+        <v>85</v>
+      </c>
+      <c r="E466" t="s">
+        <v>256</v>
+      </c>
+      <c r="F466" t="s">
+        <v>173</v>
+      </c>
+      <c r="G466" t="s">
+        <v>88</v>
+      </c>
+      <c r="H466" t="s">
+        <v>798</v>
+      </c>
+      <c r="I466">
+        <v>2</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>1</v>
+      </c>
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466">
+        <v>1</v>
+      </c>
+      <c r="O466">
+        <v>4</v>
+      </c>
+      <c r="P466">
+        <v>8</v>
+      </c>
+      <c r="Q466">
+        <v>3</v>
+      </c>
+      <c r="R466">
+        <v>0</v>
+      </c>
+      <c r="S466">
+        <v>2</v>
+      </c>
+      <c r="T466">
+        <v>4</v>
+      </c>
+      <c r="U466">
+        <v>16</v>
+      </c>
+      <c r="V466">
+        <v>16</v>
+      </c>
+      <c r="W466">
+        <v>66</v>
+      </c>
+      <c r="X466">
+        <v>107</v>
+      </c>
+      <c r="Y466">
+        <v>0</v>
+      </c>
+      <c r="Z466">
+        <v>0</v>
+      </c>
+      <c r="AA466">
+        <v>0</v>
+      </c>
+      <c r="AB466">
+        <v>0</v>
+      </c>
+      <c r="AC466">
+        <v>0</v>
+      </c>
+      <c r="AD466">
+        <v>0</v>
+      </c>
+      <c r="AE466">
+        <v>0</v>
+      </c>
+      <c r="AF466">
+        <v>0</v>
+      </c>
+      <c r="AG466">
+        <v>0</v>
+      </c>
+      <c r="AH466">
+        <v>0</v>
+      </c>
+      <c r="AI466">
+        <v>0</v>
+      </c>
+      <c r="AJ466">
+        <v>0</v>
+      </c>
+      <c r="AK466">
+        <v>0</v>
+      </c>
+      <c r="AL466">
+        <v>0</v>
+      </c>
+      <c r="AM466">
+        <v>0</v>
+      </c>
+      <c r="AN466">
+        <v>0</v>
+      </c>
+      <c r="AO466">
+        <v>0</v>
+      </c>
+      <c r="AP466">
+        <v>0</v>
+      </c>
+      <c r="AQ466">
+        <v>0</v>
+      </c>
+      <c r="AR466">
+        <v>0</v>
+      </c>
+      <c r="AS466">
+        <v>0</v>
+      </c>
+      <c r="AT466">
+        <v>0</v>
+      </c>
+      <c r="AU466">
+        <v>1</v>
+      </c>
+      <c r="AV466">
+        <v>1</v>
+      </c>
+      <c r="AW466">
+        <v>0</v>
+      </c>
+      <c r="AX466">
+        <v>0</v>
+      </c>
+      <c r="AY466">
+        <v>1</v>
+      </c>
+      <c r="AZ466">
+        <v>1</v>
+      </c>
+      <c r="BA466">
+        <v>1</v>
+      </c>
+      <c r="BB466">
+        <v>4</v>
+      </c>
+      <c r="BC466">
+        <v>23</v>
+      </c>
+      <c r="BD466">
+        <v>30</v>
+      </c>
+      <c r="BE466">
+        <v>9</v>
+      </c>
+      <c r="BF466">
+        <v>6</v>
+      </c>
+      <c r="BG466">
+        <v>4</v>
+      </c>
+      <c r="BH466">
+        <v>1</v>
+      </c>
+      <c r="BI466">
+        <v>2</v>
+      </c>
+      <c r="BJ466">
+        <v>1</v>
+      </c>
+      <c r="BK466">
+        <v>1</v>
+      </c>
+      <c r="BL466">
+        <v>24</v>
+      </c>
+      <c r="BM466">
+        <v>22</v>
+      </c>
+      <c r="BN466">
+        <v>17</v>
+      </c>
+      <c r="BO466">
+        <v>71</v>
+      </c>
+      <c r="BP466">
+        <v>89</v>
+      </c>
+      <c r="BQ466">
+        <v>101</v>
+      </c>
+      <c r="BR466">
+        <v>121</v>
+      </c>
+      <c r="BS466">
+        <v>250</v>
+      </c>
+      <c r="BT466">
+        <v>671</v>
+      </c>
+      <c r="BU466" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV466" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW466" t="s">
+        <v>799</v>
+      </c>
+      <c r="BX466" t="s">
+        <v>443</v>
+      </c>
+      <c r="BY466" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ466" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA466" t="s">
+        <v>262</v>
+      </c>
+      <c r="CB466" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC466" t="s">
+        <v>263</v>
+      </c>
+      <c r="CD466" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE466" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF466" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="467" spans="1:84" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
+        <v>83</v>
+      </c>
+      <c r="B467" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C467" t="s">
+        <v>345</v>
+      </c>
+      <c r="D467" t="s">
+        <v>85</v>
+      </c>
+      <c r="E467" t="s">
+        <v>188</v>
+      </c>
+      <c r="F467" t="s">
+        <v>102</v>
+      </c>
+      <c r="G467" t="s">
+        <v>88</v>
+      </c>
+      <c r="H467" t="s">
+        <v>324</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>0</v>
+      </c>
+      <c r="O467">
+        <v>0</v>
+      </c>
+      <c r="P467">
+        <v>0</v>
+      </c>
+      <c r="Q467">
+        <v>0</v>
+      </c>
+      <c r="R467">
+        <v>0</v>
+      </c>
+      <c r="S467">
+        <v>0</v>
+      </c>
+      <c r="T467">
+        <v>0</v>
+      </c>
+      <c r="U467">
+        <v>0</v>
+      </c>
+      <c r="V467">
+        <v>0</v>
+      </c>
+      <c r="W467">
+        <v>0</v>
+      </c>
+      <c r="X467">
+        <v>0</v>
+      </c>
+      <c r="Y467">
+        <v>0</v>
+      </c>
+      <c r="Z467">
+        <v>0</v>
+      </c>
+      <c r="AA467">
+        <v>0</v>
+      </c>
+      <c r="AB467">
+        <v>0</v>
+      </c>
+      <c r="AC467">
+        <v>0</v>
+      </c>
+      <c r="AD467">
+        <v>0</v>
+      </c>
+      <c r="AE467">
+        <v>0</v>
+      </c>
+      <c r="AF467">
+        <v>0</v>
+      </c>
+      <c r="AG467">
+        <v>0</v>
+      </c>
+      <c r="AH467">
+        <v>0</v>
+      </c>
+      <c r="AI467">
+        <v>0</v>
+      </c>
+      <c r="AJ467">
+        <v>0</v>
+      </c>
+      <c r="AK467">
+        <v>0</v>
+      </c>
+      <c r="AL467">
+        <v>0</v>
+      </c>
+      <c r="AM467">
+        <v>0</v>
+      </c>
+      <c r="AN467">
+        <v>0</v>
+      </c>
+      <c r="AO467">
+        <v>0</v>
+      </c>
+      <c r="AP467">
+        <v>0</v>
+      </c>
+      <c r="AQ467">
+        <v>0</v>
+      </c>
+      <c r="AR467">
+        <v>0</v>
+      </c>
+      <c r="AS467">
+        <v>0</v>
+      </c>
+      <c r="AT467">
+        <v>0</v>
+      </c>
+      <c r="AU467">
+        <v>0</v>
+      </c>
+      <c r="AV467">
+        <v>0</v>
+      </c>
+      <c r="AW467">
+        <v>0</v>
+      </c>
+      <c r="AX467">
+        <v>0</v>
+      </c>
+      <c r="AY467">
+        <v>0</v>
+      </c>
+      <c r="AZ467">
+        <v>0</v>
+      </c>
+      <c r="BA467">
+        <v>0</v>
+      </c>
+      <c r="BB467">
+        <v>0</v>
+      </c>
+      <c r="BC467">
+        <v>0</v>
+      </c>
+      <c r="BD467">
+        <v>0</v>
+      </c>
+      <c r="BE467">
+        <v>0</v>
+      </c>
+      <c r="BF467">
+        <v>0</v>
+      </c>
+      <c r="BG467">
+        <v>1</v>
+      </c>
+      <c r="BH467">
+        <v>1</v>
+      </c>
+      <c r="BI467">
+        <v>0</v>
+      </c>
+      <c r="BJ467">
+        <v>1</v>
+      </c>
+      <c r="BK467">
+        <v>0</v>
+      </c>
+      <c r="BL467">
+        <v>3</v>
+      </c>
+      <c r="BM467">
+        <v>0</v>
+      </c>
+      <c r="BN467">
+        <v>1</v>
+      </c>
+      <c r="BO467">
+        <v>4</v>
+      </c>
+      <c r="BP467">
+        <v>3</v>
+      </c>
+      <c r="BQ467">
+        <v>19</v>
+      </c>
+      <c r="BR467">
+        <v>22</v>
+      </c>
+      <c r="BS467">
+        <v>42</v>
+      </c>
+      <c r="BT467">
+        <v>91</v>
+      </c>
+      <c r="BU467" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV467" s="1">
+        <v>44662</v>
+      </c>
+      <c r="BW467" t="s">
+        <v>323</v>
+      </c>
+      <c r="BX467" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY467" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ467" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA467" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB467" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC467" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD467" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE467" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF467" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698516CD-097B-434C-8C46-3E8D444438EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 995" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="706">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2058,11 +2057,92 @@
   <si>
     <t>110</t>
   </si>
+  <si>
+    <t>YESICA MARCELA VALENCIA OSPINA</t>
+  </si>
+  <si>
+    <t>SALUDPUBLICA.CMPEREIRA@COLSUBSIDIO.COM</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>LUISA MARIA VILLEGAS GONZALEZE</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>YESSENIA SALAZAR</t>
+  </si>
+  <si>
+    <t>JENIFFER SARRIA OCAMPO</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>JHON.OCAMPOR@CORREO.GOV.CO</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>AUXILIA R ESTADISTICA</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>2752</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>2755</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>EPIODEMIOLOGA</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2194,7 +2274,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2206,7 +2286,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2223,9 +2303,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2253,31 +2333,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2305,23 +2368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2474,7 +2520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF390"/>
+  <dimension ref="A1:CF427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -101540,6 +101586,9404 @@
         <v>256</v>
       </c>
     </row>
+    <row r="391" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>84</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C391" t="s">
+        <v>185</v>
+      </c>
+      <c r="D391" t="s">
+        <v>86</v>
+      </c>
+      <c r="E391" t="s">
+        <v>204</v>
+      </c>
+      <c r="F391" t="s">
+        <v>88</v>
+      </c>
+      <c r="G391" t="s">
+        <v>89</v>
+      </c>
+      <c r="H391" t="s">
+        <v>405</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
+      </c>
+      <c r="R391">
+        <v>0</v>
+      </c>
+      <c r="S391">
+        <v>0</v>
+      </c>
+      <c r="T391">
+        <v>0</v>
+      </c>
+      <c r="U391">
+        <v>0</v>
+      </c>
+      <c r="V391">
+        <v>0</v>
+      </c>
+      <c r="W391">
+        <v>0</v>
+      </c>
+      <c r="X391">
+        <v>0</v>
+      </c>
+      <c r="Y391">
+        <v>0</v>
+      </c>
+      <c r="Z391">
+        <v>0</v>
+      </c>
+      <c r="AA391">
+        <v>0</v>
+      </c>
+      <c r="AB391">
+        <v>0</v>
+      </c>
+      <c r="AC391">
+        <v>0</v>
+      </c>
+      <c r="AD391">
+        <v>0</v>
+      </c>
+      <c r="AE391">
+        <v>0</v>
+      </c>
+      <c r="AF391">
+        <v>0</v>
+      </c>
+      <c r="AG391">
+        <v>0</v>
+      </c>
+      <c r="AH391">
+        <v>0</v>
+      </c>
+      <c r="AI391">
+        <v>0</v>
+      </c>
+      <c r="AJ391">
+        <v>0</v>
+      </c>
+      <c r="AK391">
+        <v>0</v>
+      </c>
+      <c r="AL391">
+        <v>0</v>
+      </c>
+      <c r="AM391">
+        <v>0</v>
+      </c>
+      <c r="AN391">
+        <v>0</v>
+      </c>
+      <c r="AO391">
+        <v>0</v>
+      </c>
+      <c r="AP391">
+        <v>0</v>
+      </c>
+      <c r="AQ391">
+        <v>0</v>
+      </c>
+      <c r="AR391">
+        <v>0</v>
+      </c>
+      <c r="AS391">
+        <v>0</v>
+      </c>
+      <c r="AT391">
+        <v>0</v>
+      </c>
+      <c r="AU391">
+        <v>0</v>
+      </c>
+      <c r="AV391">
+        <v>0</v>
+      </c>
+      <c r="AW391">
+        <v>0</v>
+      </c>
+      <c r="AX391">
+        <v>0</v>
+      </c>
+      <c r="AY391">
+        <v>0</v>
+      </c>
+      <c r="AZ391">
+        <v>0</v>
+      </c>
+      <c r="BA391">
+        <v>0</v>
+      </c>
+      <c r="BB391">
+        <v>0</v>
+      </c>
+      <c r="BC391">
+        <v>0</v>
+      </c>
+      <c r="BD391">
+        <v>0</v>
+      </c>
+      <c r="BE391">
+        <v>1</v>
+      </c>
+      <c r="BF391">
+        <v>0</v>
+      </c>
+      <c r="BG391">
+        <v>5</v>
+      </c>
+      <c r="BH391">
+        <v>10</v>
+      </c>
+      <c r="BI391">
+        <v>19</v>
+      </c>
+      <c r="BJ391">
+        <v>6</v>
+      </c>
+      <c r="BK391">
+        <v>3</v>
+      </c>
+      <c r="BL391">
+        <v>44</v>
+      </c>
+      <c r="BM391">
+        <v>58</v>
+      </c>
+      <c r="BN391">
+        <v>65</v>
+      </c>
+      <c r="BO391">
+        <v>117</v>
+      </c>
+      <c r="BP391">
+        <v>539</v>
+      </c>
+      <c r="BQ391">
+        <v>1600</v>
+      </c>
+      <c r="BR391">
+        <v>1303</v>
+      </c>
+      <c r="BS391">
+        <v>1009</v>
+      </c>
+      <c r="BT391">
+        <v>4691</v>
+      </c>
+      <c r="BU391" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV391" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW391" t="s">
+        <v>679</v>
+      </c>
+      <c r="BX391" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY391" t="s">
+        <v>208</v>
+      </c>
+      <c r="BZ391" t="s">
+        <v>680</v>
+      </c>
+      <c r="CA391" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB391" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC391" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD391" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE391" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF391" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="392" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>84</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C392" t="s">
+        <v>185</v>
+      </c>
+      <c r="D392" t="s">
+        <v>86</v>
+      </c>
+      <c r="E392" t="s">
+        <v>184</v>
+      </c>
+      <c r="F392" t="s">
+        <v>185</v>
+      </c>
+      <c r="G392" t="s">
+        <v>89</v>
+      </c>
+      <c r="H392" t="s">
+        <v>536</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+      <c r="P392">
+        <v>0</v>
+      </c>
+      <c r="Q392">
+        <v>0</v>
+      </c>
+      <c r="R392">
+        <v>0</v>
+      </c>
+      <c r="S392">
+        <v>0</v>
+      </c>
+      <c r="T392">
+        <v>0</v>
+      </c>
+      <c r="U392">
+        <v>0</v>
+      </c>
+      <c r="V392">
+        <v>0</v>
+      </c>
+      <c r="W392">
+        <v>0</v>
+      </c>
+      <c r="X392">
+        <v>0</v>
+      </c>
+      <c r="Y392">
+        <v>0</v>
+      </c>
+      <c r="Z392">
+        <v>0</v>
+      </c>
+      <c r="AA392">
+        <v>0</v>
+      </c>
+      <c r="AB392">
+        <v>0</v>
+      </c>
+      <c r="AC392">
+        <v>0</v>
+      </c>
+      <c r="AD392">
+        <v>0</v>
+      </c>
+      <c r="AE392">
+        <v>0</v>
+      </c>
+      <c r="AF392">
+        <v>0</v>
+      </c>
+      <c r="AG392">
+        <v>0</v>
+      </c>
+      <c r="AH392">
+        <v>0</v>
+      </c>
+      <c r="AI392">
+        <v>0</v>
+      </c>
+      <c r="AJ392">
+        <v>0</v>
+      </c>
+      <c r="AK392">
+        <v>0</v>
+      </c>
+      <c r="AL392">
+        <v>0</v>
+      </c>
+      <c r="AM392">
+        <v>0</v>
+      </c>
+      <c r="AN392">
+        <v>0</v>
+      </c>
+      <c r="AO392">
+        <v>0</v>
+      </c>
+      <c r="AP392">
+        <v>0</v>
+      </c>
+      <c r="AQ392">
+        <v>0</v>
+      </c>
+      <c r="AR392">
+        <v>0</v>
+      </c>
+      <c r="AS392">
+        <v>0</v>
+      </c>
+      <c r="AT392">
+        <v>0</v>
+      </c>
+      <c r="AU392">
+        <v>0</v>
+      </c>
+      <c r="AV392">
+        <v>0</v>
+      </c>
+      <c r="AW392">
+        <v>0</v>
+      </c>
+      <c r="AX392">
+        <v>0</v>
+      </c>
+      <c r="AY392">
+        <v>0</v>
+      </c>
+      <c r="AZ392">
+        <v>0</v>
+      </c>
+      <c r="BA392">
+        <v>0</v>
+      </c>
+      <c r="BB392">
+        <v>0</v>
+      </c>
+      <c r="BC392">
+        <v>0</v>
+      </c>
+      <c r="BD392">
+        <v>0</v>
+      </c>
+      <c r="BE392">
+        <v>0</v>
+      </c>
+      <c r="BF392">
+        <v>0</v>
+      </c>
+      <c r="BG392">
+        <v>2</v>
+      </c>
+      <c r="BH392">
+        <v>3</v>
+      </c>
+      <c r="BI392">
+        <v>2</v>
+      </c>
+      <c r="BJ392">
+        <v>1</v>
+      </c>
+      <c r="BK392">
+        <v>0</v>
+      </c>
+      <c r="BL392">
+        <v>8</v>
+      </c>
+      <c r="BM392">
+        <v>24</v>
+      </c>
+      <c r="BN392">
+        <v>45</v>
+      </c>
+      <c r="BO392">
+        <v>320</v>
+      </c>
+      <c r="BP392">
+        <v>320</v>
+      </c>
+      <c r="BQ392">
+        <v>620</v>
+      </c>
+      <c r="BR392">
+        <v>1250</v>
+      </c>
+      <c r="BS392">
+        <v>2512</v>
+      </c>
+      <c r="BT392">
+        <v>5091</v>
+      </c>
+      <c r="BU392" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV392" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW392" t="s">
+        <v>187</v>
+      </c>
+      <c r="BX392" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY392" t="s">
+        <v>251</v>
+      </c>
+      <c r="BZ392" t="s">
+        <v>327</v>
+      </c>
+      <c r="CA392" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB392" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC392" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD392" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE392" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF392" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="393" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>84</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C393" t="s">
+        <v>185</v>
+      </c>
+      <c r="D393" t="s">
+        <v>86</v>
+      </c>
+      <c r="E393" t="s">
+        <v>155</v>
+      </c>
+      <c r="F393" t="s">
+        <v>88</v>
+      </c>
+      <c r="G393" t="s">
+        <v>89</v>
+      </c>
+      <c r="H393" t="s">
+        <v>681</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+      <c r="O393">
+        <v>0</v>
+      </c>
+      <c r="P393">
+        <v>0</v>
+      </c>
+      <c r="Q393">
+        <v>0</v>
+      </c>
+      <c r="R393">
+        <v>0</v>
+      </c>
+      <c r="S393">
+        <v>0</v>
+      </c>
+      <c r="T393">
+        <v>0</v>
+      </c>
+      <c r="U393">
+        <v>0</v>
+      </c>
+      <c r="V393">
+        <v>0</v>
+      </c>
+      <c r="W393">
+        <v>0</v>
+      </c>
+      <c r="X393">
+        <v>0</v>
+      </c>
+      <c r="Y393">
+        <v>0</v>
+      </c>
+      <c r="Z393">
+        <v>0</v>
+      </c>
+      <c r="AA393">
+        <v>0</v>
+      </c>
+      <c r="AB393">
+        <v>0</v>
+      </c>
+      <c r="AC393">
+        <v>0</v>
+      </c>
+      <c r="AD393">
+        <v>0</v>
+      </c>
+      <c r="AE393">
+        <v>0</v>
+      </c>
+      <c r="AF393">
+        <v>0</v>
+      </c>
+      <c r="AG393">
+        <v>0</v>
+      </c>
+      <c r="AH393">
+        <v>0</v>
+      </c>
+      <c r="AI393">
+        <v>0</v>
+      </c>
+      <c r="AJ393">
+        <v>0</v>
+      </c>
+      <c r="AK393">
+        <v>0</v>
+      </c>
+      <c r="AL393">
+        <v>0</v>
+      </c>
+      <c r="AM393">
+        <v>0</v>
+      </c>
+      <c r="AN393">
+        <v>0</v>
+      </c>
+      <c r="AO393">
+        <v>0</v>
+      </c>
+      <c r="AP393">
+        <v>0</v>
+      </c>
+      <c r="AQ393">
+        <v>0</v>
+      </c>
+      <c r="AR393">
+        <v>0</v>
+      </c>
+      <c r="AS393">
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <v>0</v>
+      </c>
+      <c r="AU393">
+        <v>0</v>
+      </c>
+      <c r="AV393">
+        <v>0</v>
+      </c>
+      <c r="AW393">
+        <v>0</v>
+      </c>
+      <c r="AX393">
+        <v>0</v>
+      </c>
+      <c r="AY393">
+        <v>0</v>
+      </c>
+      <c r="AZ393">
+        <v>0</v>
+      </c>
+      <c r="BA393">
+        <v>0</v>
+      </c>
+      <c r="BB393">
+        <v>0</v>
+      </c>
+      <c r="BC393">
+        <v>0</v>
+      </c>
+      <c r="BD393">
+        <v>0</v>
+      </c>
+      <c r="BE393">
+        <v>0</v>
+      </c>
+      <c r="BF393">
+        <v>0</v>
+      </c>
+      <c r="BG393">
+        <v>1</v>
+      </c>
+      <c r="BH393">
+        <v>1</v>
+      </c>
+      <c r="BI393">
+        <v>1</v>
+      </c>
+      <c r="BJ393">
+        <v>6</v>
+      </c>
+      <c r="BK393">
+        <v>7</v>
+      </c>
+      <c r="BL393">
+        <v>16</v>
+      </c>
+      <c r="BM393">
+        <v>2</v>
+      </c>
+      <c r="BN393">
+        <v>6</v>
+      </c>
+      <c r="BO393">
+        <v>8</v>
+      </c>
+      <c r="BP393">
+        <v>95</v>
+      </c>
+      <c r="BQ393">
+        <v>155</v>
+      </c>
+      <c r="BR393">
+        <v>353</v>
+      </c>
+      <c r="BS393">
+        <v>521</v>
+      </c>
+      <c r="BT393">
+        <v>1140</v>
+      </c>
+      <c r="BU393" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV393" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW393" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX393" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY393" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ393" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA393" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB393" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC393" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD393" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE393" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF393" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="394" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>84</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C394" t="s">
+        <v>185</v>
+      </c>
+      <c r="D394" t="s">
+        <v>86</v>
+      </c>
+      <c r="E394" t="s">
+        <v>241</v>
+      </c>
+      <c r="F394" t="s">
+        <v>88</v>
+      </c>
+      <c r="G394" t="s">
+        <v>89</v>
+      </c>
+      <c r="H394" t="s">
+        <v>274</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+      <c r="O394">
+        <v>0</v>
+      </c>
+      <c r="P394">
+        <v>0</v>
+      </c>
+      <c r="Q394">
+        <v>0</v>
+      </c>
+      <c r="R394">
+        <v>0</v>
+      </c>
+      <c r="S394">
+        <v>0</v>
+      </c>
+      <c r="T394">
+        <v>0</v>
+      </c>
+      <c r="U394">
+        <v>0</v>
+      </c>
+      <c r="V394">
+        <v>1</v>
+      </c>
+      <c r="W394">
+        <v>4</v>
+      </c>
+      <c r="X394">
+        <v>5</v>
+      </c>
+      <c r="Y394">
+        <v>0</v>
+      </c>
+      <c r="Z394">
+        <v>0</v>
+      </c>
+      <c r="AA394">
+        <v>0</v>
+      </c>
+      <c r="AB394">
+        <v>0</v>
+      </c>
+      <c r="AC394">
+        <v>0</v>
+      </c>
+      <c r="AD394">
+        <v>0</v>
+      </c>
+      <c r="AE394">
+        <v>0</v>
+      </c>
+      <c r="AF394">
+        <v>0</v>
+      </c>
+      <c r="AG394">
+        <v>0</v>
+      </c>
+      <c r="AH394">
+        <v>0</v>
+      </c>
+      <c r="AI394">
+        <v>0</v>
+      </c>
+      <c r="AJ394">
+        <v>0</v>
+      </c>
+      <c r="AK394">
+        <v>0</v>
+      </c>
+      <c r="AL394">
+        <v>0</v>
+      </c>
+      <c r="AM394">
+        <v>0</v>
+      </c>
+      <c r="AN394">
+        <v>0</v>
+      </c>
+      <c r="AO394">
+        <v>0</v>
+      </c>
+      <c r="AP394">
+        <v>0</v>
+      </c>
+      <c r="AQ394">
+        <v>0</v>
+      </c>
+      <c r="AR394">
+        <v>0</v>
+      </c>
+      <c r="AS394">
+        <v>0</v>
+      </c>
+      <c r="AT394">
+        <v>0</v>
+      </c>
+      <c r="AU394">
+        <v>0</v>
+      </c>
+      <c r="AV394">
+        <v>0</v>
+      </c>
+      <c r="AW394">
+        <v>0</v>
+      </c>
+      <c r="AX394">
+        <v>0</v>
+      </c>
+      <c r="AY394">
+        <v>0</v>
+      </c>
+      <c r="AZ394">
+        <v>0</v>
+      </c>
+      <c r="BA394">
+        <v>0</v>
+      </c>
+      <c r="BB394">
+        <v>0</v>
+      </c>
+      <c r="BC394">
+        <v>1</v>
+      </c>
+      <c r="BD394">
+        <v>1</v>
+      </c>
+      <c r="BE394">
+        <v>0</v>
+      </c>
+      <c r="BF394">
+        <v>0</v>
+      </c>
+      <c r="BG394">
+        <v>0</v>
+      </c>
+      <c r="BH394">
+        <v>7</v>
+      </c>
+      <c r="BI394">
+        <v>19</v>
+      </c>
+      <c r="BJ394">
+        <v>33</v>
+      </c>
+      <c r="BK394">
+        <v>17</v>
+      </c>
+      <c r="BL394">
+        <v>76</v>
+      </c>
+      <c r="BM394">
+        <v>0</v>
+      </c>
+      <c r="BN394">
+        <v>0</v>
+      </c>
+      <c r="BO394">
+        <v>0</v>
+      </c>
+      <c r="BP394">
+        <v>22</v>
+      </c>
+      <c r="BQ394">
+        <v>130</v>
+      </c>
+      <c r="BR394">
+        <v>134</v>
+      </c>
+      <c r="BS394">
+        <v>125</v>
+      </c>
+      <c r="BT394">
+        <v>411</v>
+      </c>
+      <c r="BU394" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV394" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW394" t="s">
+        <v>335</v>
+      </c>
+      <c r="BX394" t="s">
+        <v>336</v>
+      </c>
+      <c r="BY394" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ394" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA394" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB394" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC394" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD394" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE394" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF394" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="395" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>84</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C395" t="s">
+        <v>185</v>
+      </c>
+      <c r="D395" t="s">
+        <v>86</v>
+      </c>
+      <c r="E395" t="s">
+        <v>337</v>
+      </c>
+      <c r="F395" t="s">
+        <v>88</v>
+      </c>
+      <c r="G395" t="s">
+        <v>89</v>
+      </c>
+      <c r="H395" t="s">
+        <v>565</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+      <c r="O395">
+        <v>0</v>
+      </c>
+      <c r="P395">
+        <v>0</v>
+      </c>
+      <c r="Q395">
+        <v>0</v>
+      </c>
+      <c r="R395">
+        <v>0</v>
+      </c>
+      <c r="S395">
+        <v>0</v>
+      </c>
+      <c r="T395">
+        <v>0</v>
+      </c>
+      <c r="U395">
+        <v>0</v>
+      </c>
+      <c r="V395">
+        <v>0</v>
+      </c>
+      <c r="W395">
+        <v>0</v>
+      </c>
+      <c r="X395">
+        <v>0</v>
+      </c>
+      <c r="Y395">
+        <v>0</v>
+      </c>
+      <c r="Z395">
+        <v>0</v>
+      </c>
+      <c r="AA395">
+        <v>0</v>
+      </c>
+      <c r="AB395">
+        <v>0</v>
+      </c>
+      <c r="AC395">
+        <v>0</v>
+      </c>
+      <c r="AD395">
+        <v>0</v>
+      </c>
+      <c r="AE395">
+        <v>0</v>
+      </c>
+      <c r="AF395">
+        <v>0</v>
+      </c>
+      <c r="AG395">
+        <v>0</v>
+      </c>
+      <c r="AH395">
+        <v>0</v>
+      </c>
+      <c r="AI395">
+        <v>0</v>
+      </c>
+      <c r="AJ395">
+        <v>0</v>
+      </c>
+      <c r="AK395">
+        <v>0</v>
+      </c>
+      <c r="AL395">
+        <v>0</v>
+      </c>
+      <c r="AM395">
+        <v>0</v>
+      </c>
+      <c r="AN395">
+        <v>0</v>
+      </c>
+      <c r="AO395">
+        <v>0</v>
+      </c>
+      <c r="AP395">
+        <v>0</v>
+      </c>
+      <c r="AQ395">
+        <v>0</v>
+      </c>
+      <c r="AR395">
+        <v>0</v>
+      </c>
+      <c r="AS395">
+        <v>0</v>
+      </c>
+      <c r="AT395">
+        <v>0</v>
+      </c>
+      <c r="AU395">
+        <v>0</v>
+      </c>
+      <c r="AV395">
+        <v>0</v>
+      </c>
+      <c r="AW395">
+        <v>0</v>
+      </c>
+      <c r="AX395">
+        <v>0</v>
+      </c>
+      <c r="AY395">
+        <v>0</v>
+      </c>
+      <c r="AZ395">
+        <v>0</v>
+      </c>
+      <c r="BA395">
+        <v>0</v>
+      </c>
+      <c r="BB395">
+        <v>0</v>
+      </c>
+      <c r="BC395">
+        <v>0</v>
+      </c>
+      <c r="BD395">
+        <v>0</v>
+      </c>
+      <c r="BE395">
+        <v>0</v>
+      </c>
+      <c r="BF395">
+        <v>0</v>
+      </c>
+      <c r="BG395">
+        <v>2</v>
+      </c>
+      <c r="BH395">
+        <v>0</v>
+      </c>
+      <c r="BI395">
+        <v>0</v>
+      </c>
+      <c r="BJ395">
+        <v>0</v>
+      </c>
+      <c r="BK395">
+        <v>0</v>
+      </c>
+      <c r="BL395">
+        <v>2</v>
+      </c>
+      <c r="BM395">
+        <v>1</v>
+      </c>
+      <c r="BN395">
+        <v>2</v>
+      </c>
+      <c r="BO395">
+        <v>4</v>
+      </c>
+      <c r="BP395">
+        <v>7</v>
+      </c>
+      <c r="BQ395">
+        <v>19</v>
+      </c>
+      <c r="BR395">
+        <v>59</v>
+      </c>
+      <c r="BS395">
+        <v>166</v>
+      </c>
+      <c r="BT395">
+        <v>258</v>
+      </c>
+      <c r="BU395" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV395" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW395" t="s">
+        <v>682</v>
+      </c>
+      <c r="BX395" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY395" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ395" t="s">
+        <v>399</v>
+      </c>
+      <c r="CA395" t="s">
+        <v>342</v>
+      </c>
+      <c r="CB395" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC395" t="s">
+        <v>343</v>
+      </c>
+      <c r="CD395" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE395" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF395" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="396" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>84</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C396" t="s">
+        <v>185</v>
+      </c>
+      <c r="D396" t="s">
+        <v>86</v>
+      </c>
+      <c r="E396" t="s">
+        <v>227</v>
+      </c>
+      <c r="F396" t="s">
+        <v>88</v>
+      </c>
+      <c r="G396" t="s">
+        <v>89</v>
+      </c>
+      <c r="H396" t="s">
+        <v>683</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
+      <c r="P396">
+        <v>0</v>
+      </c>
+      <c r="Q396">
+        <v>0</v>
+      </c>
+      <c r="R396">
+        <v>0</v>
+      </c>
+      <c r="S396">
+        <v>0</v>
+      </c>
+      <c r="T396">
+        <v>0</v>
+      </c>
+      <c r="U396">
+        <v>0</v>
+      </c>
+      <c r="V396">
+        <v>0</v>
+      </c>
+      <c r="W396">
+        <v>0</v>
+      </c>
+      <c r="X396">
+        <v>0</v>
+      </c>
+      <c r="Y396">
+        <v>0</v>
+      </c>
+      <c r="Z396">
+        <v>0</v>
+      </c>
+      <c r="AA396">
+        <v>0</v>
+      </c>
+      <c r="AB396">
+        <v>0</v>
+      </c>
+      <c r="AC396">
+        <v>0</v>
+      </c>
+      <c r="AD396">
+        <v>0</v>
+      </c>
+      <c r="AE396">
+        <v>0</v>
+      </c>
+      <c r="AF396">
+        <v>0</v>
+      </c>
+      <c r="AG396">
+        <v>0</v>
+      </c>
+      <c r="AH396">
+        <v>0</v>
+      </c>
+      <c r="AI396">
+        <v>0</v>
+      </c>
+      <c r="AJ396">
+        <v>0</v>
+      </c>
+      <c r="AK396">
+        <v>0</v>
+      </c>
+      <c r="AL396">
+        <v>0</v>
+      </c>
+      <c r="AM396">
+        <v>0</v>
+      </c>
+      <c r="AN396">
+        <v>0</v>
+      </c>
+      <c r="AO396">
+        <v>0</v>
+      </c>
+      <c r="AP396">
+        <v>0</v>
+      </c>
+      <c r="AQ396">
+        <v>0</v>
+      </c>
+      <c r="AR396">
+        <v>0</v>
+      </c>
+      <c r="AS396">
+        <v>0</v>
+      </c>
+      <c r="AT396">
+        <v>0</v>
+      </c>
+      <c r="AU396">
+        <v>0</v>
+      </c>
+      <c r="AV396">
+        <v>0</v>
+      </c>
+      <c r="AW396">
+        <v>0</v>
+      </c>
+      <c r="AX396">
+        <v>0</v>
+      </c>
+      <c r="AY396">
+        <v>0</v>
+      </c>
+      <c r="AZ396">
+        <v>0</v>
+      </c>
+      <c r="BA396">
+        <v>0</v>
+      </c>
+      <c r="BB396">
+        <v>0</v>
+      </c>
+      <c r="BC396">
+        <v>0</v>
+      </c>
+      <c r="BD396">
+        <v>0</v>
+      </c>
+      <c r="BE396">
+        <v>1</v>
+      </c>
+      <c r="BF396">
+        <v>1</v>
+      </c>
+      <c r="BG396">
+        <v>7</v>
+      </c>
+      <c r="BH396">
+        <v>29</v>
+      </c>
+      <c r="BI396">
+        <v>12</v>
+      </c>
+      <c r="BJ396">
+        <v>10</v>
+      </c>
+      <c r="BK396">
+        <v>35</v>
+      </c>
+      <c r="BL396">
+        <v>95</v>
+      </c>
+      <c r="BM396">
+        <v>1</v>
+      </c>
+      <c r="BN396">
+        <v>1</v>
+      </c>
+      <c r="BO396">
+        <v>7</v>
+      </c>
+      <c r="BP396">
+        <v>29</v>
+      </c>
+      <c r="BQ396">
+        <v>12</v>
+      </c>
+      <c r="BR396">
+        <v>10</v>
+      </c>
+      <c r="BS396">
+        <v>35</v>
+      </c>
+      <c r="BT396">
+        <v>95</v>
+      </c>
+      <c r="BU396" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV396" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW396" t="s">
+        <v>684</v>
+      </c>
+      <c r="BX396" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY396" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ396" t="s">
+        <v>232</v>
+      </c>
+      <c r="CA396" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB396" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC396" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD396" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE396" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF396" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="397" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>84</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C397" t="s">
+        <v>466</v>
+      </c>
+      <c r="D397" t="s">
+        <v>86</v>
+      </c>
+      <c r="E397" t="s">
+        <v>278</v>
+      </c>
+      <c r="F397" t="s">
+        <v>88</v>
+      </c>
+      <c r="G397" t="s">
+        <v>89</v>
+      </c>
+      <c r="H397" t="s">
+        <v>325</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+      <c r="O397">
+        <v>0</v>
+      </c>
+      <c r="P397">
+        <v>0</v>
+      </c>
+      <c r="Q397">
+        <v>0</v>
+      </c>
+      <c r="R397">
+        <v>0</v>
+      </c>
+      <c r="S397">
+        <v>0</v>
+      </c>
+      <c r="T397">
+        <v>0</v>
+      </c>
+      <c r="U397">
+        <v>0</v>
+      </c>
+      <c r="V397">
+        <v>0</v>
+      </c>
+      <c r="W397">
+        <v>0</v>
+      </c>
+      <c r="X397">
+        <v>0</v>
+      </c>
+      <c r="Y397">
+        <v>0</v>
+      </c>
+      <c r="Z397">
+        <v>0</v>
+      </c>
+      <c r="AA397">
+        <v>0</v>
+      </c>
+      <c r="AB397">
+        <v>0</v>
+      </c>
+      <c r="AC397">
+        <v>0</v>
+      </c>
+      <c r="AD397">
+        <v>0</v>
+      </c>
+      <c r="AE397">
+        <v>0</v>
+      </c>
+      <c r="AF397">
+        <v>0</v>
+      </c>
+      <c r="AG397">
+        <v>0</v>
+      </c>
+      <c r="AH397">
+        <v>0</v>
+      </c>
+      <c r="AI397">
+        <v>0</v>
+      </c>
+      <c r="AJ397">
+        <v>0</v>
+      </c>
+      <c r="AK397">
+        <v>0</v>
+      </c>
+      <c r="AL397">
+        <v>0</v>
+      </c>
+      <c r="AM397">
+        <v>0</v>
+      </c>
+      <c r="AN397">
+        <v>0</v>
+      </c>
+      <c r="AO397">
+        <v>0</v>
+      </c>
+      <c r="AP397">
+        <v>0</v>
+      </c>
+      <c r="AQ397">
+        <v>0</v>
+      </c>
+      <c r="AR397">
+        <v>0</v>
+      </c>
+      <c r="AS397">
+        <v>0</v>
+      </c>
+      <c r="AT397">
+        <v>0</v>
+      </c>
+      <c r="AU397">
+        <v>0</v>
+      </c>
+      <c r="AV397">
+        <v>0</v>
+      </c>
+      <c r="AW397">
+        <v>0</v>
+      </c>
+      <c r="AX397">
+        <v>0</v>
+      </c>
+      <c r="AY397">
+        <v>0</v>
+      </c>
+      <c r="AZ397">
+        <v>0</v>
+      </c>
+      <c r="BA397">
+        <v>0</v>
+      </c>
+      <c r="BB397">
+        <v>0</v>
+      </c>
+      <c r="BC397">
+        <v>0</v>
+      </c>
+      <c r="BD397">
+        <v>0</v>
+      </c>
+      <c r="BE397">
+        <v>6</v>
+      </c>
+      <c r="BF397">
+        <v>3</v>
+      </c>
+      <c r="BG397">
+        <v>28</v>
+      </c>
+      <c r="BH397">
+        <v>59</v>
+      </c>
+      <c r="BI397">
+        <v>24</v>
+      </c>
+      <c r="BJ397">
+        <v>20</v>
+      </c>
+      <c r="BK397">
+        <v>54</v>
+      </c>
+      <c r="BL397">
+        <v>194</v>
+      </c>
+      <c r="BM397">
+        <v>14</v>
+      </c>
+      <c r="BN397">
+        <v>11</v>
+      </c>
+      <c r="BO397">
+        <v>64</v>
+      </c>
+      <c r="BP397">
+        <v>154</v>
+      </c>
+      <c r="BQ397">
+        <v>118</v>
+      </c>
+      <c r="BR397">
+        <v>132</v>
+      </c>
+      <c r="BS397">
+        <v>445</v>
+      </c>
+      <c r="BT397">
+        <v>938</v>
+      </c>
+      <c r="BU397" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV397" s="1">
+        <v>45002</v>
+      </c>
+      <c r="BW397" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX397" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY397" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ397" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA397" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB397" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC397" t="s">
+        <v>285</v>
+      </c>
+      <c r="CD397" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE397" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF397" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="398" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>84</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C398" t="s">
+        <v>185</v>
+      </c>
+      <c r="D398" t="s">
+        <v>86</v>
+      </c>
+      <c r="E398" t="s">
+        <v>635</v>
+      </c>
+      <c r="F398" t="s">
+        <v>636</v>
+      </c>
+      <c r="G398" t="s">
+        <v>89</v>
+      </c>
+      <c r="H398" t="s">
+        <v>347</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+      <c r="O398">
+        <v>0</v>
+      </c>
+      <c r="P398">
+        <v>0</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+      <c r="R398">
+        <v>0</v>
+      </c>
+      <c r="S398">
+        <v>0</v>
+      </c>
+      <c r="T398">
+        <v>0</v>
+      </c>
+      <c r="U398">
+        <v>0</v>
+      </c>
+      <c r="V398">
+        <v>0</v>
+      </c>
+      <c r="W398">
+        <v>0</v>
+      </c>
+      <c r="X398">
+        <v>0</v>
+      </c>
+      <c r="Y398">
+        <v>0</v>
+      </c>
+      <c r="Z398">
+        <v>0</v>
+      </c>
+      <c r="AA398">
+        <v>0</v>
+      </c>
+      <c r="AB398">
+        <v>0</v>
+      </c>
+      <c r="AC398">
+        <v>0</v>
+      </c>
+      <c r="AD398">
+        <v>0</v>
+      </c>
+      <c r="AE398">
+        <v>0</v>
+      </c>
+      <c r="AF398">
+        <v>0</v>
+      </c>
+      <c r="AG398">
+        <v>0</v>
+      </c>
+      <c r="AH398">
+        <v>0</v>
+      </c>
+      <c r="AI398">
+        <v>0</v>
+      </c>
+      <c r="AJ398">
+        <v>0</v>
+      </c>
+      <c r="AK398">
+        <v>0</v>
+      </c>
+      <c r="AL398">
+        <v>0</v>
+      </c>
+      <c r="AM398">
+        <v>0</v>
+      </c>
+      <c r="AN398">
+        <v>0</v>
+      </c>
+      <c r="AO398">
+        <v>0</v>
+      </c>
+      <c r="AP398">
+        <v>0</v>
+      </c>
+      <c r="AQ398">
+        <v>0</v>
+      </c>
+      <c r="AR398">
+        <v>0</v>
+      </c>
+      <c r="AS398">
+        <v>0</v>
+      </c>
+      <c r="AT398">
+        <v>0</v>
+      </c>
+      <c r="AU398">
+        <v>0</v>
+      </c>
+      <c r="AV398">
+        <v>0</v>
+      </c>
+      <c r="AW398">
+        <v>0</v>
+      </c>
+      <c r="AX398">
+        <v>0</v>
+      </c>
+      <c r="AY398">
+        <v>0</v>
+      </c>
+      <c r="AZ398">
+        <v>0</v>
+      </c>
+      <c r="BA398">
+        <v>0</v>
+      </c>
+      <c r="BB398">
+        <v>0</v>
+      </c>
+      <c r="BC398">
+        <v>0</v>
+      </c>
+      <c r="BD398">
+        <v>0</v>
+      </c>
+      <c r="BE398">
+        <v>0</v>
+      </c>
+      <c r="BF398">
+        <v>0</v>
+      </c>
+      <c r="BG398">
+        <v>0</v>
+      </c>
+      <c r="BH398">
+        <v>0</v>
+      </c>
+      <c r="BI398">
+        <v>1</v>
+      </c>
+      <c r="BJ398">
+        <v>1</v>
+      </c>
+      <c r="BK398">
+        <v>0</v>
+      </c>
+      <c r="BL398">
+        <v>2</v>
+      </c>
+      <c r="BM398">
+        <v>0</v>
+      </c>
+      <c r="BN398">
+        <v>0</v>
+      </c>
+      <c r="BO398">
+        <v>0</v>
+      </c>
+      <c r="BP398">
+        <v>0</v>
+      </c>
+      <c r="BQ398">
+        <v>1</v>
+      </c>
+      <c r="BR398">
+        <v>1</v>
+      </c>
+      <c r="BS398">
+        <v>0</v>
+      </c>
+      <c r="BT398">
+        <v>2</v>
+      </c>
+      <c r="BU398" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV398" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW398" t="s">
+        <v>685</v>
+      </c>
+      <c r="BX398" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY398" t="s">
+        <v>638</v>
+      </c>
+      <c r="BZ398" t="s">
+        <v>639</v>
+      </c>
+      <c r="CA398" t="s">
+        <v>640</v>
+      </c>
+      <c r="CB398" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC398" t="s">
+        <v>641</v>
+      </c>
+      <c r="CD398" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE398" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF398" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="399" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>84</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C399" t="s">
+        <v>185</v>
+      </c>
+      <c r="D399" t="s">
+        <v>86</v>
+      </c>
+      <c r="E399" t="s">
+        <v>219</v>
+      </c>
+      <c r="F399" t="s">
+        <v>88</v>
+      </c>
+      <c r="G399" t="s">
+        <v>89</v>
+      </c>
+      <c r="H399" t="s">
+        <v>686</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+      <c r="O399">
+        <v>0</v>
+      </c>
+      <c r="P399">
+        <v>0</v>
+      </c>
+      <c r="Q399">
+        <v>1</v>
+      </c>
+      <c r="R399">
+        <v>1</v>
+      </c>
+      <c r="S399">
+        <v>0</v>
+      </c>
+      <c r="T399">
+        <v>0</v>
+      </c>
+      <c r="U399">
+        <v>1</v>
+      </c>
+      <c r="V399">
+        <v>1</v>
+      </c>
+      <c r="W399">
+        <v>2</v>
+      </c>
+      <c r="X399">
+        <v>6</v>
+      </c>
+      <c r="Y399">
+        <v>0</v>
+      </c>
+      <c r="Z399">
+        <v>0</v>
+      </c>
+      <c r="AA399">
+        <v>0</v>
+      </c>
+      <c r="AB399">
+        <v>0</v>
+      </c>
+      <c r="AC399">
+        <v>0</v>
+      </c>
+      <c r="AD399">
+        <v>0</v>
+      </c>
+      <c r="AE399">
+        <v>0</v>
+      </c>
+      <c r="AF399">
+        <v>0</v>
+      </c>
+      <c r="AG399">
+        <v>0</v>
+      </c>
+      <c r="AH399">
+        <v>0</v>
+      </c>
+      <c r="AI399">
+        <v>0</v>
+      </c>
+      <c r="AJ399">
+        <v>0</v>
+      </c>
+      <c r="AK399">
+        <v>0</v>
+      </c>
+      <c r="AL399">
+        <v>0</v>
+      </c>
+      <c r="AM399">
+        <v>0</v>
+      </c>
+      <c r="AN399">
+        <v>0</v>
+      </c>
+      <c r="AO399">
+        <v>0</v>
+      </c>
+      <c r="AP399">
+        <v>0</v>
+      </c>
+      <c r="AQ399">
+        <v>0</v>
+      </c>
+      <c r="AR399">
+        <v>0</v>
+      </c>
+      <c r="AS399">
+        <v>0</v>
+      </c>
+      <c r="AT399">
+        <v>0</v>
+      </c>
+      <c r="AU399">
+        <v>0</v>
+      </c>
+      <c r="AV399">
+        <v>0</v>
+      </c>
+      <c r="AW399">
+        <v>0</v>
+      </c>
+      <c r="AX399">
+        <v>0</v>
+      </c>
+      <c r="AY399">
+        <v>0</v>
+      </c>
+      <c r="AZ399">
+        <v>0</v>
+      </c>
+      <c r="BA399">
+        <v>0</v>
+      </c>
+      <c r="BB399">
+        <v>0</v>
+      </c>
+      <c r="BC399">
+        <v>0</v>
+      </c>
+      <c r="BD399">
+        <v>0</v>
+      </c>
+      <c r="BE399">
+        <v>12</v>
+      </c>
+      <c r="BF399">
+        <v>17</v>
+      </c>
+      <c r="BG399">
+        <v>21</v>
+      </c>
+      <c r="BH399">
+        <v>14</v>
+      </c>
+      <c r="BI399">
+        <v>9</v>
+      </c>
+      <c r="BJ399">
+        <v>8</v>
+      </c>
+      <c r="BK399">
+        <v>14</v>
+      </c>
+      <c r="BL399">
+        <v>95</v>
+      </c>
+      <c r="BM399">
+        <v>24</v>
+      </c>
+      <c r="BN399">
+        <v>36</v>
+      </c>
+      <c r="BO399">
+        <v>28</v>
+      </c>
+      <c r="BP399">
+        <v>39</v>
+      </c>
+      <c r="BQ399">
+        <v>41</v>
+      </c>
+      <c r="BR399">
+        <v>44</v>
+      </c>
+      <c r="BS399">
+        <v>36</v>
+      </c>
+      <c r="BT399">
+        <v>248</v>
+      </c>
+      <c r="BU399" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV399" s="1">
+        <v>45011</v>
+      </c>
+      <c r="BW399" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX399" t="s">
+        <v>406</v>
+      </c>
+      <c r="BY399" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ399" t="s">
+        <v>687</v>
+      </c>
+      <c r="CA399" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB399" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC399" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD399" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE399" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF399" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="400" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>84</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C400" t="s">
+        <v>185</v>
+      </c>
+      <c r="D400" t="s">
+        <v>86</v>
+      </c>
+      <c r="E400" t="s">
+        <v>564</v>
+      </c>
+      <c r="F400" t="s">
+        <v>127</v>
+      </c>
+      <c r="G400" t="s">
+        <v>89</v>
+      </c>
+      <c r="H400" t="s">
+        <v>500</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400">
+        <v>0</v>
+      </c>
+      <c r="P400">
+        <v>0</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+      <c r="R400">
+        <v>0</v>
+      </c>
+      <c r="S400">
+        <v>0</v>
+      </c>
+      <c r="T400">
+        <v>0</v>
+      </c>
+      <c r="U400">
+        <v>0</v>
+      </c>
+      <c r="V400">
+        <v>0</v>
+      </c>
+      <c r="W400">
+        <v>0</v>
+      </c>
+      <c r="X400">
+        <v>0</v>
+      </c>
+      <c r="Y400">
+        <v>0</v>
+      </c>
+      <c r="Z400">
+        <v>0</v>
+      </c>
+      <c r="AA400">
+        <v>0</v>
+      </c>
+      <c r="AB400">
+        <v>0</v>
+      </c>
+      <c r="AC400">
+        <v>0</v>
+      </c>
+      <c r="AD400">
+        <v>0</v>
+      </c>
+      <c r="AE400">
+        <v>0</v>
+      </c>
+      <c r="AF400">
+        <v>0</v>
+      </c>
+      <c r="AG400">
+        <v>0</v>
+      </c>
+      <c r="AH400">
+        <v>0</v>
+      </c>
+      <c r="AI400">
+        <v>0</v>
+      </c>
+      <c r="AJ400">
+        <v>0</v>
+      </c>
+      <c r="AK400">
+        <v>0</v>
+      </c>
+      <c r="AL400">
+        <v>0</v>
+      </c>
+      <c r="AM400">
+        <v>0</v>
+      </c>
+      <c r="AN400">
+        <v>0</v>
+      </c>
+      <c r="AO400">
+        <v>0</v>
+      </c>
+      <c r="AP400">
+        <v>0</v>
+      </c>
+      <c r="AQ400">
+        <v>0</v>
+      </c>
+      <c r="AR400">
+        <v>0</v>
+      </c>
+      <c r="AS400">
+        <v>0</v>
+      </c>
+      <c r="AT400">
+        <v>0</v>
+      </c>
+      <c r="AU400">
+        <v>0</v>
+      </c>
+      <c r="AV400">
+        <v>0</v>
+      </c>
+      <c r="AW400">
+        <v>0</v>
+      </c>
+      <c r="AX400">
+        <v>0</v>
+      </c>
+      <c r="AY400">
+        <v>0</v>
+      </c>
+      <c r="AZ400">
+        <v>0</v>
+      </c>
+      <c r="BA400">
+        <v>0</v>
+      </c>
+      <c r="BB400">
+        <v>0</v>
+      </c>
+      <c r="BC400">
+        <v>0</v>
+      </c>
+      <c r="BD400">
+        <v>0</v>
+      </c>
+      <c r="BE400">
+        <v>0</v>
+      </c>
+      <c r="BF400">
+        <v>0</v>
+      </c>
+      <c r="BG400">
+        <v>0</v>
+      </c>
+      <c r="BH400">
+        <v>2</v>
+      </c>
+      <c r="BI400">
+        <v>1</v>
+      </c>
+      <c r="BJ400">
+        <v>0</v>
+      </c>
+      <c r="BK400">
+        <v>1</v>
+      </c>
+      <c r="BL400">
+        <v>4</v>
+      </c>
+      <c r="BM400">
+        <v>0</v>
+      </c>
+      <c r="BN400">
+        <v>0</v>
+      </c>
+      <c r="BO400">
+        <v>6</v>
+      </c>
+      <c r="BP400">
+        <v>45</v>
+      </c>
+      <c r="BQ400">
+        <v>25</v>
+      </c>
+      <c r="BR400">
+        <v>42</v>
+      </c>
+      <c r="BS400">
+        <v>18</v>
+      </c>
+      <c r="BT400">
+        <v>136</v>
+      </c>
+      <c r="BU400" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV400" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW400" t="s">
+        <v>448</v>
+      </c>
+      <c r="BX400" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY400" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ400" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA400" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB400" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC400" t="s">
+        <v>566</v>
+      </c>
+      <c r="CD400" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE400" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF400" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="401" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>84</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C401" t="s">
+        <v>185</v>
+      </c>
+      <c r="D401" t="s">
+        <v>86</v>
+      </c>
+      <c r="E401" t="s">
+        <v>87</v>
+      </c>
+      <c r="F401" t="s">
+        <v>88</v>
+      </c>
+      <c r="G401" t="s">
+        <v>89</v>
+      </c>
+      <c r="H401" t="s">
+        <v>688</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+      <c r="O401">
+        <v>1</v>
+      </c>
+      <c r="P401">
+        <v>3</v>
+      </c>
+      <c r="Q401">
+        <v>1</v>
+      </c>
+      <c r="R401">
+        <v>1</v>
+      </c>
+      <c r="S401">
+        <v>0</v>
+      </c>
+      <c r="T401">
+        <v>5</v>
+      </c>
+      <c r="U401">
+        <v>4</v>
+      </c>
+      <c r="V401">
+        <v>5</v>
+      </c>
+      <c r="W401">
+        <v>12</v>
+      </c>
+      <c r="X401">
+        <v>28</v>
+      </c>
+      <c r="Y401">
+        <v>0</v>
+      </c>
+      <c r="Z401">
+        <v>0</v>
+      </c>
+      <c r="AA401">
+        <v>0</v>
+      </c>
+      <c r="AB401">
+        <v>0</v>
+      </c>
+      <c r="AC401">
+        <v>0</v>
+      </c>
+      <c r="AD401">
+        <v>0</v>
+      </c>
+      <c r="AE401">
+        <v>0</v>
+      </c>
+      <c r="AF401">
+        <v>0</v>
+      </c>
+      <c r="AG401">
+        <v>0</v>
+      </c>
+      <c r="AH401">
+        <v>0</v>
+      </c>
+      <c r="AI401">
+        <v>0</v>
+      </c>
+      <c r="AJ401">
+        <v>0</v>
+      </c>
+      <c r="AK401">
+        <v>0</v>
+      </c>
+      <c r="AL401">
+        <v>0</v>
+      </c>
+      <c r="AM401">
+        <v>0</v>
+      </c>
+      <c r="AN401">
+        <v>0</v>
+      </c>
+      <c r="AO401">
+        <v>0</v>
+      </c>
+      <c r="AP401">
+        <v>0</v>
+      </c>
+      <c r="AQ401">
+        <v>0</v>
+      </c>
+      <c r="AR401">
+        <v>0</v>
+      </c>
+      <c r="AS401">
+        <v>0</v>
+      </c>
+      <c r="AT401">
+        <v>0</v>
+      </c>
+      <c r="AU401">
+        <v>0</v>
+      </c>
+      <c r="AV401">
+        <v>0</v>
+      </c>
+      <c r="AW401">
+        <v>0</v>
+      </c>
+      <c r="AX401">
+        <v>0</v>
+      </c>
+      <c r="AY401">
+        <v>0</v>
+      </c>
+      <c r="AZ401">
+        <v>0</v>
+      </c>
+      <c r="BA401">
+        <v>0</v>
+      </c>
+      <c r="BB401">
+        <v>0</v>
+      </c>
+      <c r="BC401">
+        <v>0</v>
+      </c>
+      <c r="BD401">
+        <v>0</v>
+      </c>
+      <c r="BE401">
+        <v>3</v>
+      </c>
+      <c r="BF401">
+        <v>3</v>
+      </c>
+      <c r="BG401">
+        <v>6</v>
+      </c>
+      <c r="BH401">
+        <v>21</v>
+      </c>
+      <c r="BI401">
+        <v>14</v>
+      </c>
+      <c r="BJ401">
+        <v>5</v>
+      </c>
+      <c r="BK401">
+        <v>4</v>
+      </c>
+      <c r="BL401">
+        <v>56</v>
+      </c>
+      <c r="BM401">
+        <v>34</v>
+      </c>
+      <c r="BN401">
+        <v>22</v>
+      </c>
+      <c r="BO401">
+        <v>59</v>
+      </c>
+      <c r="BP401">
+        <v>189</v>
+      </c>
+      <c r="BQ401">
+        <v>226</v>
+      </c>
+      <c r="BR401">
+        <v>195</v>
+      </c>
+      <c r="BS401">
+        <v>277</v>
+      </c>
+      <c r="BT401">
+        <v>1002</v>
+      </c>
+      <c r="BU401" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV401" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW401" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX401" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY401" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ401" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA401" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB401" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC401" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD401" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE401" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF401" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="402" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>84</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C402" t="s">
+        <v>185</v>
+      </c>
+      <c r="D402" t="s">
+        <v>86</v>
+      </c>
+      <c r="E402" t="s">
+        <v>87</v>
+      </c>
+      <c r="F402" t="s">
+        <v>456</v>
+      </c>
+      <c r="G402" t="s">
+        <v>89</v>
+      </c>
+      <c r="H402" t="s">
+        <v>689</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+      <c r="P402">
+        <v>0</v>
+      </c>
+      <c r="Q402">
+        <v>0</v>
+      </c>
+      <c r="R402">
+        <v>0</v>
+      </c>
+      <c r="S402">
+        <v>0</v>
+      </c>
+      <c r="T402">
+        <v>0</v>
+      </c>
+      <c r="U402">
+        <v>0</v>
+      </c>
+      <c r="V402">
+        <v>0</v>
+      </c>
+      <c r="W402">
+        <v>0</v>
+      </c>
+      <c r="X402">
+        <v>0</v>
+      </c>
+      <c r="Y402">
+        <v>0</v>
+      </c>
+      <c r="Z402">
+        <v>0</v>
+      </c>
+      <c r="AA402">
+        <v>0</v>
+      </c>
+      <c r="AB402">
+        <v>0</v>
+      </c>
+      <c r="AC402">
+        <v>0</v>
+      </c>
+      <c r="AD402">
+        <v>0</v>
+      </c>
+      <c r="AE402">
+        <v>0</v>
+      </c>
+      <c r="AF402">
+        <v>0</v>
+      </c>
+      <c r="AG402">
+        <v>0</v>
+      </c>
+      <c r="AH402">
+        <v>0</v>
+      </c>
+      <c r="AI402">
+        <v>0</v>
+      </c>
+      <c r="AJ402">
+        <v>0</v>
+      </c>
+      <c r="AK402">
+        <v>0</v>
+      </c>
+      <c r="AL402">
+        <v>0</v>
+      </c>
+      <c r="AM402">
+        <v>0</v>
+      </c>
+      <c r="AN402">
+        <v>0</v>
+      </c>
+      <c r="AO402">
+        <v>0</v>
+      </c>
+      <c r="AP402">
+        <v>0</v>
+      </c>
+      <c r="AQ402">
+        <v>0</v>
+      </c>
+      <c r="AR402">
+        <v>0</v>
+      </c>
+      <c r="AS402">
+        <v>0</v>
+      </c>
+      <c r="AT402">
+        <v>0</v>
+      </c>
+      <c r="AU402">
+        <v>0</v>
+      </c>
+      <c r="AV402">
+        <v>0</v>
+      </c>
+      <c r="AW402">
+        <v>0</v>
+      </c>
+      <c r="AX402">
+        <v>0</v>
+      </c>
+      <c r="AY402">
+        <v>0</v>
+      </c>
+      <c r="AZ402">
+        <v>0</v>
+      </c>
+      <c r="BA402">
+        <v>0</v>
+      </c>
+      <c r="BB402">
+        <v>0</v>
+      </c>
+      <c r="BC402">
+        <v>0</v>
+      </c>
+      <c r="BD402">
+        <v>0</v>
+      </c>
+      <c r="BE402">
+        <v>0</v>
+      </c>
+      <c r="BF402">
+        <v>0</v>
+      </c>
+      <c r="BG402">
+        <v>0</v>
+      </c>
+      <c r="BH402">
+        <v>0</v>
+      </c>
+      <c r="BI402">
+        <v>0</v>
+      </c>
+      <c r="BJ402">
+        <v>1</v>
+      </c>
+      <c r="BK402">
+        <v>0</v>
+      </c>
+      <c r="BL402">
+        <v>1</v>
+      </c>
+      <c r="BM402">
+        <v>0</v>
+      </c>
+      <c r="BN402">
+        <v>1</v>
+      </c>
+      <c r="BO402">
+        <v>1</v>
+      </c>
+      <c r="BP402">
+        <v>3</v>
+      </c>
+      <c r="BQ402">
+        <v>2</v>
+      </c>
+      <c r="BR402">
+        <v>6</v>
+      </c>
+      <c r="BS402">
+        <v>6</v>
+      </c>
+      <c r="BT402">
+        <v>19</v>
+      </c>
+      <c r="BU402" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV402" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW402" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX402" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY402" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ402" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA402" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB402" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC402" t="s">
+        <v>458</v>
+      </c>
+      <c r="CD402" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE402" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF402" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="403" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>84</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C403" t="s">
+        <v>185</v>
+      </c>
+      <c r="D403" t="s">
+        <v>86</v>
+      </c>
+      <c r="E403" t="s">
+        <v>87</v>
+      </c>
+      <c r="F403" t="s">
+        <v>358</v>
+      </c>
+      <c r="G403" t="s">
+        <v>89</v>
+      </c>
+      <c r="H403" t="s">
+        <v>690</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+      <c r="O403">
+        <v>0</v>
+      </c>
+      <c r="P403">
+        <v>0</v>
+      </c>
+      <c r="Q403">
+        <v>0</v>
+      </c>
+      <c r="R403">
+        <v>0</v>
+      </c>
+      <c r="S403">
+        <v>0</v>
+      </c>
+      <c r="T403">
+        <v>0</v>
+      </c>
+      <c r="U403">
+        <v>0</v>
+      </c>
+      <c r="V403">
+        <v>0</v>
+      </c>
+      <c r="W403">
+        <v>0</v>
+      </c>
+      <c r="X403">
+        <v>0</v>
+      </c>
+      <c r="Y403">
+        <v>0</v>
+      </c>
+      <c r="Z403">
+        <v>0</v>
+      </c>
+      <c r="AA403">
+        <v>0</v>
+      </c>
+      <c r="AB403">
+        <v>0</v>
+      </c>
+      <c r="AC403">
+        <v>0</v>
+      </c>
+      <c r="AD403">
+        <v>0</v>
+      </c>
+      <c r="AE403">
+        <v>0</v>
+      </c>
+      <c r="AF403">
+        <v>0</v>
+      </c>
+      <c r="AG403">
+        <v>0</v>
+      </c>
+      <c r="AH403">
+        <v>0</v>
+      </c>
+      <c r="AI403">
+        <v>0</v>
+      </c>
+      <c r="AJ403">
+        <v>0</v>
+      </c>
+      <c r="AK403">
+        <v>0</v>
+      </c>
+      <c r="AL403">
+        <v>0</v>
+      </c>
+      <c r="AM403">
+        <v>0</v>
+      </c>
+      <c r="AN403">
+        <v>0</v>
+      </c>
+      <c r="AO403">
+        <v>0</v>
+      </c>
+      <c r="AP403">
+        <v>0</v>
+      </c>
+      <c r="AQ403">
+        <v>0</v>
+      </c>
+      <c r="AR403">
+        <v>0</v>
+      </c>
+      <c r="AS403">
+        <v>0</v>
+      </c>
+      <c r="AT403">
+        <v>0</v>
+      </c>
+      <c r="AU403">
+        <v>0</v>
+      </c>
+      <c r="AV403">
+        <v>0</v>
+      </c>
+      <c r="AW403">
+        <v>0</v>
+      </c>
+      <c r="AX403">
+        <v>0</v>
+      </c>
+      <c r="AY403">
+        <v>0</v>
+      </c>
+      <c r="AZ403">
+        <v>0</v>
+      </c>
+      <c r="BA403">
+        <v>0</v>
+      </c>
+      <c r="BB403">
+        <v>0</v>
+      </c>
+      <c r="BC403">
+        <v>0</v>
+      </c>
+      <c r="BD403">
+        <v>0</v>
+      </c>
+      <c r="BE403">
+        <v>0</v>
+      </c>
+      <c r="BF403">
+        <v>0</v>
+      </c>
+      <c r="BG403">
+        <v>3</v>
+      </c>
+      <c r="BH403">
+        <v>2</v>
+      </c>
+      <c r="BI403">
+        <v>0</v>
+      </c>
+      <c r="BJ403">
+        <v>0</v>
+      </c>
+      <c r="BK403">
+        <v>1</v>
+      </c>
+      <c r="BL403">
+        <v>6</v>
+      </c>
+      <c r="BM403">
+        <v>2</v>
+      </c>
+      <c r="BN403">
+        <v>3</v>
+      </c>
+      <c r="BO403">
+        <v>14</v>
+      </c>
+      <c r="BP403">
+        <v>26</v>
+      </c>
+      <c r="BQ403">
+        <v>13</v>
+      </c>
+      <c r="BR403">
+        <v>16</v>
+      </c>
+      <c r="BS403">
+        <v>25</v>
+      </c>
+      <c r="BT403">
+        <v>99</v>
+      </c>
+      <c r="BU403" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV403" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW403" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX403" t="s">
+        <v>691</v>
+      </c>
+      <c r="BY403" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ403" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA403" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB403" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC403" t="s">
+        <v>362</v>
+      </c>
+      <c r="CD403" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE403" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF403" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="404" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>84</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C404" t="s">
+        <v>185</v>
+      </c>
+      <c r="D404" t="s">
+        <v>86</v>
+      </c>
+      <c r="E404" t="s">
+        <v>87</v>
+      </c>
+      <c r="F404" t="s">
+        <v>257</v>
+      </c>
+      <c r="G404" t="s">
+        <v>89</v>
+      </c>
+      <c r="H404" t="s">
+        <v>692</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
+      <c r="P404">
+        <v>0</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+      <c r="R404">
+        <v>0</v>
+      </c>
+      <c r="S404">
+        <v>0</v>
+      </c>
+      <c r="T404">
+        <v>0</v>
+      </c>
+      <c r="U404">
+        <v>0</v>
+      </c>
+      <c r="V404">
+        <v>0</v>
+      </c>
+      <c r="W404">
+        <v>0</v>
+      </c>
+      <c r="X404">
+        <v>0</v>
+      </c>
+      <c r="Y404">
+        <v>0</v>
+      </c>
+      <c r="Z404">
+        <v>0</v>
+      </c>
+      <c r="AA404">
+        <v>0</v>
+      </c>
+      <c r="AB404">
+        <v>0</v>
+      </c>
+      <c r="AC404">
+        <v>0</v>
+      </c>
+      <c r="AD404">
+        <v>0</v>
+      </c>
+      <c r="AE404">
+        <v>0</v>
+      </c>
+      <c r="AF404">
+        <v>0</v>
+      </c>
+      <c r="AG404">
+        <v>0</v>
+      </c>
+      <c r="AH404">
+        <v>0</v>
+      </c>
+      <c r="AI404">
+        <v>0</v>
+      </c>
+      <c r="AJ404">
+        <v>0</v>
+      </c>
+      <c r="AK404">
+        <v>0</v>
+      </c>
+      <c r="AL404">
+        <v>0</v>
+      </c>
+      <c r="AM404">
+        <v>0</v>
+      </c>
+      <c r="AN404">
+        <v>0</v>
+      </c>
+      <c r="AO404">
+        <v>0</v>
+      </c>
+      <c r="AP404">
+        <v>0</v>
+      </c>
+      <c r="AQ404">
+        <v>0</v>
+      </c>
+      <c r="AR404">
+        <v>0</v>
+      </c>
+      <c r="AS404">
+        <v>0</v>
+      </c>
+      <c r="AT404">
+        <v>0</v>
+      </c>
+      <c r="AU404">
+        <v>0</v>
+      </c>
+      <c r="AV404">
+        <v>0</v>
+      </c>
+      <c r="AW404">
+        <v>0</v>
+      </c>
+      <c r="AX404">
+        <v>0</v>
+      </c>
+      <c r="AY404">
+        <v>0</v>
+      </c>
+      <c r="AZ404">
+        <v>0</v>
+      </c>
+      <c r="BA404">
+        <v>0</v>
+      </c>
+      <c r="BB404">
+        <v>0</v>
+      </c>
+      <c r="BC404">
+        <v>0</v>
+      </c>
+      <c r="BD404">
+        <v>0</v>
+      </c>
+      <c r="BE404">
+        <v>0</v>
+      </c>
+      <c r="BF404">
+        <v>0</v>
+      </c>
+      <c r="BG404">
+        <v>1</v>
+      </c>
+      <c r="BH404">
+        <v>0</v>
+      </c>
+      <c r="BI404">
+        <v>0</v>
+      </c>
+      <c r="BJ404">
+        <v>0</v>
+      </c>
+      <c r="BK404">
+        <v>0</v>
+      </c>
+      <c r="BL404">
+        <v>1</v>
+      </c>
+      <c r="BM404">
+        <v>12</v>
+      </c>
+      <c r="BN404">
+        <v>3</v>
+      </c>
+      <c r="BO404">
+        <v>22</v>
+      </c>
+      <c r="BP404">
+        <v>84</v>
+      </c>
+      <c r="BQ404">
+        <v>57</v>
+      </c>
+      <c r="BR404">
+        <v>62</v>
+      </c>
+      <c r="BS404">
+        <v>84</v>
+      </c>
+      <c r="BT404">
+        <v>324</v>
+      </c>
+      <c r="BU404" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV404" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW404" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX404" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY404" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ404" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA404" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB404" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC404" t="s">
+        <v>260</v>
+      </c>
+      <c r="CD404" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE404" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF404" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="405" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>84</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C405" t="s">
+        <v>185</v>
+      </c>
+      <c r="D405" t="s">
+        <v>86</v>
+      </c>
+      <c r="E405" t="s">
+        <v>87</v>
+      </c>
+      <c r="F405" t="s">
+        <v>102</v>
+      </c>
+      <c r="G405" t="s">
+        <v>89</v>
+      </c>
+      <c r="H405" t="s">
+        <v>693</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>1</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+      <c r="O405">
+        <v>0</v>
+      </c>
+      <c r="P405">
+        <v>3</v>
+      </c>
+      <c r="Q405">
+        <v>6</v>
+      </c>
+      <c r="R405">
+        <v>3</v>
+      </c>
+      <c r="S405">
+        <v>3</v>
+      </c>
+      <c r="T405">
+        <v>14</v>
+      </c>
+      <c r="U405">
+        <v>6</v>
+      </c>
+      <c r="V405">
+        <v>8</v>
+      </c>
+      <c r="W405">
+        <v>18</v>
+      </c>
+      <c r="X405">
+        <v>58</v>
+      </c>
+      <c r="Y405">
+        <v>0</v>
+      </c>
+      <c r="Z405">
+        <v>0</v>
+      </c>
+      <c r="AA405">
+        <v>0</v>
+      </c>
+      <c r="AB405">
+        <v>0</v>
+      </c>
+      <c r="AC405">
+        <v>0</v>
+      </c>
+      <c r="AD405">
+        <v>0</v>
+      </c>
+      <c r="AE405">
+        <v>0</v>
+      </c>
+      <c r="AF405">
+        <v>0</v>
+      </c>
+      <c r="AG405">
+        <v>0</v>
+      </c>
+      <c r="AH405">
+        <v>0</v>
+      </c>
+      <c r="AI405">
+        <v>0</v>
+      </c>
+      <c r="AJ405">
+        <v>0</v>
+      </c>
+      <c r="AK405">
+        <v>0</v>
+      </c>
+      <c r="AL405">
+        <v>0</v>
+      </c>
+      <c r="AM405">
+        <v>0</v>
+      </c>
+      <c r="AN405">
+        <v>0</v>
+      </c>
+      <c r="AO405">
+        <v>0</v>
+      </c>
+      <c r="AP405">
+        <v>0</v>
+      </c>
+      <c r="AQ405">
+        <v>0</v>
+      </c>
+      <c r="AR405">
+        <v>0</v>
+      </c>
+      <c r="AS405">
+        <v>0</v>
+      </c>
+      <c r="AT405">
+        <v>0</v>
+      </c>
+      <c r="AU405">
+        <v>0</v>
+      </c>
+      <c r="AV405">
+        <v>0</v>
+      </c>
+      <c r="AW405">
+        <v>0</v>
+      </c>
+      <c r="AX405">
+        <v>0</v>
+      </c>
+      <c r="AY405">
+        <v>0</v>
+      </c>
+      <c r="AZ405">
+        <v>0</v>
+      </c>
+      <c r="BA405">
+        <v>0</v>
+      </c>
+      <c r="BB405">
+        <v>0</v>
+      </c>
+      <c r="BC405">
+        <v>0</v>
+      </c>
+      <c r="BD405">
+        <v>0</v>
+      </c>
+      <c r="BE405">
+        <v>8</v>
+      </c>
+      <c r="BF405">
+        <v>4</v>
+      </c>
+      <c r="BG405">
+        <v>12</v>
+      </c>
+      <c r="BH405">
+        <v>12</v>
+      </c>
+      <c r="BI405">
+        <v>7</v>
+      </c>
+      <c r="BJ405">
+        <v>5</v>
+      </c>
+      <c r="BK405">
+        <v>7</v>
+      </c>
+      <c r="BL405">
+        <v>55</v>
+      </c>
+      <c r="BM405">
+        <v>30</v>
+      </c>
+      <c r="BN405">
+        <v>21</v>
+      </c>
+      <c r="BO405">
+        <v>60</v>
+      </c>
+      <c r="BP405">
+        <v>154</v>
+      </c>
+      <c r="BQ405">
+        <v>253</v>
+      </c>
+      <c r="BR405">
+        <v>197</v>
+      </c>
+      <c r="BS405">
+        <v>353</v>
+      </c>
+      <c r="BT405">
+        <v>1068</v>
+      </c>
+      <c r="BU405" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV405" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW405" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX405" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY405" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ405" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA405" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB405" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC405" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD405" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE405" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF405" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="406" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>84</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C406" t="s">
+        <v>185</v>
+      </c>
+      <c r="D406" t="s">
+        <v>86</v>
+      </c>
+      <c r="E406" t="s">
+        <v>87</v>
+      </c>
+      <c r="F406" t="s">
+        <v>170</v>
+      </c>
+      <c r="G406" t="s">
+        <v>89</v>
+      </c>
+      <c r="H406" t="s">
+        <v>694</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+      <c r="O406">
+        <v>0</v>
+      </c>
+      <c r="P406">
+        <v>0</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406">
+        <v>0</v>
+      </c>
+      <c r="S406">
+        <v>0</v>
+      </c>
+      <c r="T406">
+        <v>0</v>
+      </c>
+      <c r="U406">
+        <v>0</v>
+      </c>
+      <c r="V406">
+        <v>0</v>
+      </c>
+      <c r="W406">
+        <v>0</v>
+      </c>
+      <c r="X406">
+        <v>0</v>
+      </c>
+      <c r="Y406">
+        <v>0</v>
+      </c>
+      <c r="Z406">
+        <v>0</v>
+      </c>
+      <c r="AA406">
+        <v>0</v>
+      </c>
+      <c r="AB406">
+        <v>0</v>
+      </c>
+      <c r="AC406">
+        <v>0</v>
+      </c>
+      <c r="AD406">
+        <v>0</v>
+      </c>
+      <c r="AE406">
+        <v>0</v>
+      </c>
+      <c r="AF406">
+        <v>0</v>
+      </c>
+      <c r="AG406">
+        <v>0</v>
+      </c>
+      <c r="AH406">
+        <v>0</v>
+      </c>
+      <c r="AI406">
+        <v>0</v>
+      </c>
+      <c r="AJ406">
+        <v>0</v>
+      </c>
+      <c r="AK406">
+        <v>0</v>
+      </c>
+      <c r="AL406">
+        <v>0</v>
+      </c>
+      <c r="AM406">
+        <v>0</v>
+      </c>
+      <c r="AN406">
+        <v>0</v>
+      </c>
+      <c r="AO406">
+        <v>0</v>
+      </c>
+      <c r="AP406">
+        <v>0</v>
+      </c>
+      <c r="AQ406">
+        <v>0</v>
+      </c>
+      <c r="AR406">
+        <v>0</v>
+      </c>
+      <c r="AS406">
+        <v>0</v>
+      </c>
+      <c r="AT406">
+        <v>0</v>
+      </c>
+      <c r="AU406">
+        <v>0</v>
+      </c>
+      <c r="AV406">
+        <v>0</v>
+      </c>
+      <c r="AW406">
+        <v>0</v>
+      </c>
+      <c r="AX406">
+        <v>0</v>
+      </c>
+      <c r="AY406">
+        <v>0</v>
+      </c>
+      <c r="AZ406">
+        <v>0</v>
+      </c>
+      <c r="BA406">
+        <v>0</v>
+      </c>
+      <c r="BB406">
+        <v>0</v>
+      </c>
+      <c r="BC406">
+        <v>0</v>
+      </c>
+      <c r="BD406">
+        <v>0</v>
+      </c>
+      <c r="BE406">
+        <v>0</v>
+      </c>
+      <c r="BF406">
+        <v>0</v>
+      </c>
+      <c r="BG406">
+        <v>0</v>
+      </c>
+      <c r="BH406">
+        <v>1</v>
+      </c>
+      <c r="BI406">
+        <v>2</v>
+      </c>
+      <c r="BJ406">
+        <v>1</v>
+      </c>
+      <c r="BK406">
+        <v>0</v>
+      </c>
+      <c r="BL406">
+        <v>4</v>
+      </c>
+      <c r="BM406">
+        <v>4</v>
+      </c>
+      <c r="BN406">
+        <v>3</v>
+      </c>
+      <c r="BO406">
+        <v>15</v>
+      </c>
+      <c r="BP406">
+        <v>66</v>
+      </c>
+      <c r="BQ406">
+        <v>77</v>
+      </c>
+      <c r="BR406">
+        <v>90</v>
+      </c>
+      <c r="BS406">
+        <v>63</v>
+      </c>
+      <c r="BT406">
+        <v>318</v>
+      </c>
+      <c r="BU406" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV406" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW406" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX406" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY406" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ406" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA406" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB406" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC406" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD406" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE406" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF406" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="407" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>84</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C407" t="s">
+        <v>185</v>
+      </c>
+      <c r="D407" t="s">
+        <v>86</v>
+      </c>
+      <c r="E407" t="s">
+        <v>87</v>
+      </c>
+      <c r="F407" t="s">
+        <v>265</v>
+      </c>
+      <c r="G407" t="s">
+        <v>89</v>
+      </c>
+      <c r="H407" t="s">
+        <v>695</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+      <c r="O407">
+        <v>0</v>
+      </c>
+      <c r="P407">
+        <v>0</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407">
+        <v>0</v>
+      </c>
+      <c r="S407">
+        <v>0</v>
+      </c>
+      <c r="T407">
+        <v>0</v>
+      </c>
+      <c r="U407">
+        <v>0</v>
+      </c>
+      <c r="V407">
+        <v>0</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>0</v>
+      </c>
+      <c r="Y407">
+        <v>0</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407">
+        <v>0</v>
+      </c>
+      <c r="AB407">
+        <v>0</v>
+      </c>
+      <c r="AC407">
+        <v>0</v>
+      </c>
+      <c r="AD407">
+        <v>0</v>
+      </c>
+      <c r="AE407">
+        <v>0</v>
+      </c>
+      <c r="AF407">
+        <v>0</v>
+      </c>
+      <c r="AG407">
+        <v>0</v>
+      </c>
+      <c r="AH407">
+        <v>0</v>
+      </c>
+      <c r="AI407">
+        <v>0</v>
+      </c>
+      <c r="AJ407">
+        <v>0</v>
+      </c>
+      <c r="AK407">
+        <v>0</v>
+      </c>
+      <c r="AL407">
+        <v>0</v>
+      </c>
+      <c r="AM407">
+        <v>0</v>
+      </c>
+      <c r="AN407">
+        <v>0</v>
+      </c>
+      <c r="AO407">
+        <v>0</v>
+      </c>
+      <c r="AP407">
+        <v>0</v>
+      </c>
+      <c r="AQ407">
+        <v>0</v>
+      </c>
+      <c r="AR407">
+        <v>0</v>
+      </c>
+      <c r="AS407">
+        <v>0</v>
+      </c>
+      <c r="AT407">
+        <v>0</v>
+      </c>
+      <c r="AU407">
+        <v>0</v>
+      </c>
+      <c r="AV407">
+        <v>0</v>
+      </c>
+      <c r="AW407">
+        <v>0</v>
+      </c>
+      <c r="AX407">
+        <v>0</v>
+      </c>
+      <c r="AY407">
+        <v>0</v>
+      </c>
+      <c r="AZ407">
+        <v>0</v>
+      </c>
+      <c r="BA407">
+        <v>0</v>
+      </c>
+      <c r="BB407">
+        <v>0</v>
+      </c>
+      <c r="BC407">
+        <v>0</v>
+      </c>
+      <c r="BD407">
+        <v>0</v>
+      </c>
+      <c r="BE407">
+        <v>1</v>
+      </c>
+      <c r="BF407">
+        <v>0</v>
+      </c>
+      <c r="BG407">
+        <v>0</v>
+      </c>
+      <c r="BH407">
+        <v>0</v>
+      </c>
+      <c r="BI407">
+        <v>0</v>
+      </c>
+      <c r="BJ407">
+        <v>0</v>
+      </c>
+      <c r="BK407">
+        <v>0</v>
+      </c>
+      <c r="BL407">
+        <v>1</v>
+      </c>
+      <c r="BM407">
+        <v>2</v>
+      </c>
+      <c r="BN407">
+        <v>1</v>
+      </c>
+      <c r="BO407">
+        <v>2</v>
+      </c>
+      <c r="BP407">
+        <v>15</v>
+      </c>
+      <c r="BQ407">
+        <v>16</v>
+      </c>
+      <c r="BR407">
+        <v>26</v>
+      </c>
+      <c r="BS407">
+        <v>42</v>
+      </c>
+      <c r="BT407">
+        <v>104</v>
+      </c>
+      <c r="BU407" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV407" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW407" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX407" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY407" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ407" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA407" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB407" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC407" t="s">
+        <v>267</v>
+      </c>
+      <c r="CD407" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE407" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF407" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="408" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>84</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C408" t="s">
+        <v>185</v>
+      </c>
+      <c r="D408" t="s">
+        <v>86</v>
+      </c>
+      <c r="E408" t="s">
+        <v>87</v>
+      </c>
+      <c r="F408" t="s">
+        <v>110</v>
+      </c>
+      <c r="G408" t="s">
+        <v>89</v>
+      </c>
+      <c r="H408" t="s">
+        <v>696</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="P408">
+        <v>0</v>
+      </c>
+      <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>0</v>
+      </c>
+      <c r="S408">
+        <v>0</v>
+      </c>
+      <c r="T408">
+        <v>0</v>
+      </c>
+      <c r="U408">
+        <v>0</v>
+      </c>
+      <c r="V408">
+        <v>0</v>
+      </c>
+      <c r="W408">
+        <v>0</v>
+      </c>
+      <c r="X408">
+        <v>0</v>
+      </c>
+      <c r="Y408">
+        <v>0</v>
+      </c>
+      <c r="Z408">
+        <v>0</v>
+      </c>
+      <c r="AA408">
+        <v>0</v>
+      </c>
+      <c r="AB408">
+        <v>0</v>
+      </c>
+      <c r="AC408">
+        <v>0</v>
+      </c>
+      <c r="AD408">
+        <v>0</v>
+      </c>
+      <c r="AE408">
+        <v>0</v>
+      </c>
+      <c r="AF408">
+        <v>0</v>
+      </c>
+      <c r="AG408">
+        <v>0</v>
+      </c>
+      <c r="AH408">
+        <v>0</v>
+      </c>
+      <c r="AI408">
+        <v>0</v>
+      </c>
+      <c r="AJ408">
+        <v>0</v>
+      </c>
+      <c r="AK408">
+        <v>0</v>
+      </c>
+      <c r="AL408">
+        <v>0</v>
+      </c>
+      <c r="AM408">
+        <v>0</v>
+      </c>
+      <c r="AN408">
+        <v>0</v>
+      </c>
+      <c r="AO408">
+        <v>0</v>
+      </c>
+      <c r="AP408">
+        <v>0</v>
+      </c>
+      <c r="AQ408">
+        <v>0</v>
+      </c>
+      <c r="AR408">
+        <v>0</v>
+      </c>
+      <c r="AS408">
+        <v>0</v>
+      </c>
+      <c r="AT408">
+        <v>0</v>
+      </c>
+      <c r="AU408">
+        <v>0</v>
+      </c>
+      <c r="AV408">
+        <v>0</v>
+      </c>
+      <c r="AW408">
+        <v>0</v>
+      </c>
+      <c r="AX408">
+        <v>0</v>
+      </c>
+      <c r="AY408">
+        <v>0</v>
+      </c>
+      <c r="AZ408">
+        <v>0</v>
+      </c>
+      <c r="BA408">
+        <v>0</v>
+      </c>
+      <c r="BB408">
+        <v>0</v>
+      </c>
+      <c r="BC408">
+        <v>0</v>
+      </c>
+      <c r="BD408">
+        <v>0</v>
+      </c>
+      <c r="BE408">
+        <v>0</v>
+      </c>
+      <c r="BF408">
+        <v>0</v>
+      </c>
+      <c r="BG408">
+        <v>0</v>
+      </c>
+      <c r="BH408">
+        <v>2</v>
+      </c>
+      <c r="BI408">
+        <v>0</v>
+      </c>
+      <c r="BJ408">
+        <v>0</v>
+      </c>
+      <c r="BK408">
+        <v>0</v>
+      </c>
+      <c r="BL408">
+        <v>2</v>
+      </c>
+      <c r="BM408">
+        <v>2</v>
+      </c>
+      <c r="BN408">
+        <v>4</v>
+      </c>
+      <c r="BO408">
+        <v>9</v>
+      </c>
+      <c r="BP408">
+        <v>34</v>
+      </c>
+      <c r="BQ408">
+        <v>32</v>
+      </c>
+      <c r="BR408">
+        <v>54</v>
+      </c>
+      <c r="BS408">
+        <v>52</v>
+      </c>
+      <c r="BT408">
+        <v>187</v>
+      </c>
+      <c r="BU408" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV408" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW408" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX408" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY408" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ408" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA408" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB408" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC408" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD408" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE408" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF408" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="409" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>84</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C409" t="s">
+        <v>185</v>
+      </c>
+      <c r="D409" t="s">
+        <v>86</v>
+      </c>
+      <c r="E409" t="s">
+        <v>87</v>
+      </c>
+      <c r="F409" t="s">
+        <v>173</v>
+      </c>
+      <c r="G409" t="s">
+        <v>89</v>
+      </c>
+      <c r="H409" t="s">
+        <v>697</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
+      <c r="Q409">
+        <v>0</v>
+      </c>
+      <c r="R409">
+        <v>0</v>
+      </c>
+      <c r="S409">
+        <v>0</v>
+      </c>
+      <c r="T409">
+        <v>0</v>
+      </c>
+      <c r="U409">
+        <v>0</v>
+      </c>
+      <c r="V409">
+        <v>0</v>
+      </c>
+      <c r="W409">
+        <v>0</v>
+      </c>
+      <c r="X409">
+        <v>0</v>
+      </c>
+      <c r="Y409">
+        <v>0</v>
+      </c>
+      <c r="Z409">
+        <v>0</v>
+      </c>
+      <c r="AA409">
+        <v>0</v>
+      </c>
+      <c r="AB409">
+        <v>0</v>
+      </c>
+      <c r="AC409">
+        <v>0</v>
+      </c>
+      <c r="AD409">
+        <v>0</v>
+      </c>
+      <c r="AE409">
+        <v>0</v>
+      </c>
+      <c r="AF409">
+        <v>0</v>
+      </c>
+      <c r="AG409">
+        <v>0</v>
+      </c>
+      <c r="AH409">
+        <v>0</v>
+      </c>
+      <c r="AI409">
+        <v>0</v>
+      </c>
+      <c r="AJ409">
+        <v>0</v>
+      </c>
+      <c r="AK409">
+        <v>0</v>
+      </c>
+      <c r="AL409">
+        <v>0</v>
+      </c>
+      <c r="AM409">
+        <v>0</v>
+      </c>
+      <c r="AN409">
+        <v>0</v>
+      </c>
+      <c r="AO409">
+        <v>0</v>
+      </c>
+      <c r="AP409">
+        <v>0</v>
+      </c>
+      <c r="AQ409">
+        <v>0</v>
+      </c>
+      <c r="AR409">
+        <v>0</v>
+      </c>
+      <c r="AS409">
+        <v>0</v>
+      </c>
+      <c r="AT409">
+        <v>0</v>
+      </c>
+      <c r="AU409">
+        <v>0</v>
+      </c>
+      <c r="AV409">
+        <v>0</v>
+      </c>
+      <c r="AW409">
+        <v>0</v>
+      </c>
+      <c r="AX409">
+        <v>0</v>
+      </c>
+      <c r="AY409">
+        <v>0</v>
+      </c>
+      <c r="AZ409">
+        <v>0</v>
+      </c>
+      <c r="BA409">
+        <v>0</v>
+      </c>
+      <c r="BB409">
+        <v>0</v>
+      </c>
+      <c r="BC409">
+        <v>0</v>
+      </c>
+      <c r="BD409">
+        <v>0</v>
+      </c>
+      <c r="BE409">
+        <v>0</v>
+      </c>
+      <c r="BF409">
+        <v>0</v>
+      </c>
+      <c r="BG409">
+        <v>0</v>
+      </c>
+      <c r="BH409">
+        <v>0</v>
+      </c>
+      <c r="BI409">
+        <v>0</v>
+      </c>
+      <c r="BJ409">
+        <v>2</v>
+      </c>
+      <c r="BK409">
+        <v>3</v>
+      </c>
+      <c r="BL409">
+        <v>5</v>
+      </c>
+      <c r="BM409">
+        <v>0</v>
+      </c>
+      <c r="BN409">
+        <v>0</v>
+      </c>
+      <c r="BO409">
+        <v>0</v>
+      </c>
+      <c r="BP409">
+        <v>6</v>
+      </c>
+      <c r="BQ409">
+        <v>17</v>
+      </c>
+      <c r="BR409">
+        <v>41</v>
+      </c>
+      <c r="BS409">
+        <v>89</v>
+      </c>
+      <c r="BT409">
+        <v>153</v>
+      </c>
+      <c r="BU409" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV409" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW409" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX409" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY409" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ409" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA409" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB409" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC409" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD409" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE409" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF409" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="410" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>84</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C410" t="s">
+        <v>185</v>
+      </c>
+      <c r="D410" t="s">
+        <v>86</v>
+      </c>
+      <c r="E410" t="s">
+        <v>87</v>
+      </c>
+      <c r="F410" t="s">
+        <v>415</v>
+      </c>
+      <c r="G410" t="s">
+        <v>89</v>
+      </c>
+      <c r="H410" t="s">
+        <v>698</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
+      <c r="P410">
+        <v>0</v>
+      </c>
+      <c r="Q410">
+        <v>0</v>
+      </c>
+      <c r="R410">
+        <v>0</v>
+      </c>
+      <c r="S410">
+        <v>0</v>
+      </c>
+      <c r="T410">
+        <v>0</v>
+      </c>
+      <c r="U410">
+        <v>0</v>
+      </c>
+      <c r="V410">
+        <v>0</v>
+      </c>
+      <c r="W410">
+        <v>0</v>
+      </c>
+      <c r="X410">
+        <v>0</v>
+      </c>
+      <c r="Y410">
+        <v>0</v>
+      </c>
+      <c r="Z410">
+        <v>0</v>
+      </c>
+      <c r="AA410">
+        <v>0</v>
+      </c>
+      <c r="AB410">
+        <v>0</v>
+      </c>
+      <c r="AC410">
+        <v>0</v>
+      </c>
+      <c r="AD410">
+        <v>0</v>
+      </c>
+      <c r="AE410">
+        <v>0</v>
+      </c>
+      <c r="AF410">
+        <v>0</v>
+      </c>
+      <c r="AG410">
+        <v>0</v>
+      </c>
+      <c r="AH410">
+        <v>0</v>
+      </c>
+      <c r="AI410">
+        <v>0</v>
+      </c>
+      <c r="AJ410">
+        <v>0</v>
+      </c>
+      <c r="AK410">
+        <v>0</v>
+      </c>
+      <c r="AL410">
+        <v>0</v>
+      </c>
+      <c r="AM410">
+        <v>0</v>
+      </c>
+      <c r="AN410">
+        <v>0</v>
+      </c>
+      <c r="AO410">
+        <v>0</v>
+      </c>
+      <c r="AP410">
+        <v>0</v>
+      </c>
+      <c r="AQ410">
+        <v>0</v>
+      </c>
+      <c r="AR410">
+        <v>0</v>
+      </c>
+      <c r="AS410">
+        <v>0</v>
+      </c>
+      <c r="AT410">
+        <v>0</v>
+      </c>
+      <c r="AU410">
+        <v>0</v>
+      </c>
+      <c r="AV410">
+        <v>0</v>
+      </c>
+      <c r="AW410">
+        <v>0</v>
+      </c>
+      <c r="AX410">
+        <v>0</v>
+      </c>
+      <c r="AY410">
+        <v>0</v>
+      </c>
+      <c r="AZ410">
+        <v>0</v>
+      </c>
+      <c r="BA410">
+        <v>0</v>
+      </c>
+      <c r="BB410">
+        <v>0</v>
+      </c>
+      <c r="BC410">
+        <v>0</v>
+      </c>
+      <c r="BD410">
+        <v>0</v>
+      </c>
+      <c r="BE410">
+        <v>0</v>
+      </c>
+      <c r="BF410">
+        <v>0</v>
+      </c>
+      <c r="BG410">
+        <v>1</v>
+      </c>
+      <c r="BH410">
+        <v>0</v>
+      </c>
+      <c r="BI410">
+        <v>0</v>
+      </c>
+      <c r="BJ410">
+        <v>0</v>
+      </c>
+      <c r="BK410">
+        <v>0</v>
+      </c>
+      <c r="BL410">
+        <v>1</v>
+      </c>
+      <c r="BM410">
+        <v>0</v>
+      </c>
+      <c r="BN410">
+        <v>0</v>
+      </c>
+      <c r="BO410">
+        <v>2</v>
+      </c>
+      <c r="BP410">
+        <v>8</v>
+      </c>
+      <c r="BQ410">
+        <v>7</v>
+      </c>
+      <c r="BR410">
+        <v>16</v>
+      </c>
+      <c r="BS410">
+        <v>16</v>
+      </c>
+      <c r="BT410">
+        <v>49</v>
+      </c>
+      <c r="BU410" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV410" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW410" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX410" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY410" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ410" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA410" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB410" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC410" t="s">
+        <v>417</v>
+      </c>
+      <c r="CD410" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE410" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF410" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="411" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>84</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C411" t="s">
+        <v>185</v>
+      </c>
+      <c r="D411" t="s">
+        <v>86</v>
+      </c>
+      <c r="E411" t="s">
+        <v>177</v>
+      </c>
+      <c r="F411" t="s">
+        <v>88</v>
+      </c>
+      <c r="G411" t="s">
+        <v>89</v>
+      </c>
+      <c r="H411" t="s">
+        <v>174</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
+      <c r="P411">
+        <v>0</v>
+      </c>
+      <c r="Q411">
+        <v>0</v>
+      </c>
+      <c r="R411">
+        <v>0</v>
+      </c>
+      <c r="S411">
+        <v>0</v>
+      </c>
+      <c r="T411">
+        <v>0</v>
+      </c>
+      <c r="U411">
+        <v>0</v>
+      </c>
+      <c r="V411">
+        <v>0</v>
+      </c>
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411">
+        <v>0</v>
+      </c>
+      <c r="Y411">
+        <v>0</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411">
+        <v>0</v>
+      </c>
+      <c r="AB411">
+        <v>0</v>
+      </c>
+      <c r="AC411">
+        <v>0</v>
+      </c>
+      <c r="AD411">
+        <v>0</v>
+      </c>
+      <c r="AE411">
+        <v>0</v>
+      </c>
+      <c r="AF411">
+        <v>0</v>
+      </c>
+      <c r="AG411">
+        <v>0</v>
+      </c>
+      <c r="AH411">
+        <v>0</v>
+      </c>
+      <c r="AI411">
+        <v>0</v>
+      </c>
+      <c r="AJ411">
+        <v>0</v>
+      </c>
+      <c r="AK411">
+        <v>0</v>
+      </c>
+      <c r="AL411">
+        <v>0</v>
+      </c>
+      <c r="AM411">
+        <v>0</v>
+      </c>
+      <c r="AN411">
+        <v>0</v>
+      </c>
+      <c r="AO411">
+        <v>0</v>
+      </c>
+      <c r="AP411">
+        <v>0</v>
+      </c>
+      <c r="AQ411">
+        <v>0</v>
+      </c>
+      <c r="AR411">
+        <v>0</v>
+      </c>
+      <c r="AS411">
+        <v>0</v>
+      </c>
+      <c r="AT411">
+        <v>0</v>
+      </c>
+      <c r="AU411">
+        <v>0</v>
+      </c>
+      <c r="AV411">
+        <v>0</v>
+      </c>
+      <c r="AW411">
+        <v>0</v>
+      </c>
+      <c r="AX411">
+        <v>0</v>
+      </c>
+      <c r="AY411">
+        <v>0</v>
+      </c>
+      <c r="AZ411">
+        <v>0</v>
+      </c>
+      <c r="BA411">
+        <v>0</v>
+      </c>
+      <c r="BB411">
+        <v>0</v>
+      </c>
+      <c r="BC411">
+        <v>0</v>
+      </c>
+      <c r="BD411">
+        <v>0</v>
+      </c>
+      <c r="BE411">
+        <v>0</v>
+      </c>
+      <c r="BF411">
+        <v>0</v>
+      </c>
+      <c r="BG411">
+        <v>0</v>
+      </c>
+      <c r="BH411">
+        <v>1</v>
+      </c>
+      <c r="BI411">
+        <v>0</v>
+      </c>
+      <c r="BJ411">
+        <v>0</v>
+      </c>
+      <c r="BK411">
+        <v>0</v>
+      </c>
+      <c r="BL411">
+        <v>1</v>
+      </c>
+      <c r="BM411">
+        <v>5</v>
+      </c>
+      <c r="BN411">
+        <v>0</v>
+      </c>
+      <c r="BO411">
+        <v>0</v>
+      </c>
+      <c r="BP411">
+        <v>4</v>
+      </c>
+      <c r="BQ411">
+        <v>15</v>
+      </c>
+      <c r="BR411">
+        <v>18</v>
+      </c>
+      <c r="BS411">
+        <v>63</v>
+      </c>
+      <c r="BT411">
+        <v>105</v>
+      </c>
+      <c r="BU411" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV411" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW411" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX411" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY411" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ411" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA411" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB411" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC411" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD411" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE411" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF411" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="412" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>84</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C412" t="s">
+        <v>185</v>
+      </c>
+      <c r="D412" t="s">
+        <v>86</v>
+      </c>
+      <c r="E412" t="s">
+        <v>87</v>
+      </c>
+      <c r="F412" t="s">
+        <v>297</v>
+      </c>
+      <c r="G412" t="s">
+        <v>89</v>
+      </c>
+      <c r="H412" t="s">
+        <v>672</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412">
+        <v>0</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
+      <c r="Q412">
+        <v>0</v>
+      </c>
+      <c r="R412">
+        <v>0</v>
+      </c>
+      <c r="S412">
+        <v>0</v>
+      </c>
+      <c r="T412">
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <v>0</v>
+      </c>
+      <c r="V412">
+        <v>0</v>
+      </c>
+      <c r="W412">
+        <v>0</v>
+      </c>
+      <c r="X412">
+        <v>0</v>
+      </c>
+      <c r="Y412">
+        <v>0</v>
+      </c>
+      <c r="Z412">
+        <v>0</v>
+      </c>
+      <c r="AA412">
+        <v>0</v>
+      </c>
+      <c r="AB412">
+        <v>0</v>
+      </c>
+      <c r="AC412">
+        <v>0</v>
+      </c>
+      <c r="AD412">
+        <v>0</v>
+      </c>
+      <c r="AE412">
+        <v>0</v>
+      </c>
+      <c r="AF412">
+        <v>0</v>
+      </c>
+      <c r="AG412">
+        <v>0</v>
+      </c>
+      <c r="AH412">
+        <v>0</v>
+      </c>
+      <c r="AI412">
+        <v>0</v>
+      </c>
+      <c r="AJ412">
+        <v>0</v>
+      </c>
+      <c r="AK412">
+        <v>0</v>
+      </c>
+      <c r="AL412">
+        <v>0</v>
+      </c>
+      <c r="AM412">
+        <v>0</v>
+      </c>
+      <c r="AN412">
+        <v>0</v>
+      </c>
+      <c r="AO412">
+        <v>0</v>
+      </c>
+      <c r="AP412">
+        <v>0</v>
+      </c>
+      <c r="AQ412">
+        <v>0</v>
+      </c>
+      <c r="AR412">
+        <v>0</v>
+      </c>
+      <c r="AS412">
+        <v>0</v>
+      </c>
+      <c r="AT412">
+        <v>0</v>
+      </c>
+      <c r="AU412">
+        <v>0</v>
+      </c>
+      <c r="AV412">
+        <v>0</v>
+      </c>
+      <c r="AW412">
+        <v>0</v>
+      </c>
+      <c r="AX412">
+        <v>0</v>
+      </c>
+      <c r="AY412">
+        <v>0</v>
+      </c>
+      <c r="AZ412">
+        <v>0</v>
+      </c>
+      <c r="BA412">
+        <v>0</v>
+      </c>
+      <c r="BB412">
+        <v>0</v>
+      </c>
+      <c r="BC412">
+        <v>0</v>
+      </c>
+      <c r="BD412">
+        <v>0</v>
+      </c>
+      <c r="BE412">
+        <v>1</v>
+      </c>
+      <c r="BF412">
+        <v>0</v>
+      </c>
+      <c r="BG412">
+        <v>3</v>
+      </c>
+      <c r="BH412">
+        <v>8</v>
+      </c>
+      <c r="BI412">
+        <v>2</v>
+      </c>
+      <c r="BJ412">
+        <v>2</v>
+      </c>
+      <c r="BK412">
+        <v>3</v>
+      </c>
+      <c r="BL412">
+        <v>19</v>
+      </c>
+      <c r="BM412">
+        <v>10</v>
+      </c>
+      <c r="BN412">
+        <v>6</v>
+      </c>
+      <c r="BO412">
+        <v>23</v>
+      </c>
+      <c r="BP412">
+        <v>83</v>
+      </c>
+      <c r="BQ412">
+        <v>46</v>
+      </c>
+      <c r="BR412">
+        <v>33</v>
+      </c>
+      <c r="BS412">
+        <v>122</v>
+      </c>
+      <c r="BT412">
+        <v>323</v>
+      </c>
+      <c r="BU412" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV412" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW412" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX412" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY412" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ412" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA412" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB412" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC412" t="s">
+        <v>299</v>
+      </c>
+      <c r="CD412" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE412" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF412" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="413" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>84</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C413" t="s">
+        <v>185</v>
+      </c>
+      <c r="D413" t="s">
+        <v>86</v>
+      </c>
+      <c r="E413" t="s">
+        <v>87</v>
+      </c>
+      <c r="F413" t="s">
+        <v>142</v>
+      </c>
+      <c r="G413" t="s">
+        <v>89</v>
+      </c>
+      <c r="H413" t="s">
+        <v>673</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413">
+        <v>0</v>
+      </c>
+      <c r="P413">
+        <v>0</v>
+      </c>
+      <c r="Q413">
+        <v>0</v>
+      </c>
+      <c r="R413">
+        <v>0</v>
+      </c>
+      <c r="S413">
+        <v>0</v>
+      </c>
+      <c r="T413">
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <v>0</v>
+      </c>
+      <c r="V413">
+        <v>0</v>
+      </c>
+      <c r="W413">
+        <v>0</v>
+      </c>
+      <c r="X413">
+        <v>0</v>
+      </c>
+      <c r="Y413">
+        <v>0</v>
+      </c>
+      <c r="Z413">
+        <v>0</v>
+      </c>
+      <c r="AA413">
+        <v>0</v>
+      </c>
+      <c r="AB413">
+        <v>0</v>
+      </c>
+      <c r="AC413">
+        <v>0</v>
+      </c>
+      <c r="AD413">
+        <v>0</v>
+      </c>
+      <c r="AE413">
+        <v>0</v>
+      </c>
+      <c r="AF413">
+        <v>0</v>
+      </c>
+      <c r="AG413">
+        <v>0</v>
+      </c>
+      <c r="AH413">
+        <v>0</v>
+      </c>
+      <c r="AI413">
+        <v>0</v>
+      </c>
+      <c r="AJ413">
+        <v>0</v>
+      </c>
+      <c r="AK413">
+        <v>0</v>
+      </c>
+      <c r="AL413">
+        <v>0</v>
+      </c>
+      <c r="AM413">
+        <v>0</v>
+      </c>
+      <c r="AN413">
+        <v>0</v>
+      </c>
+      <c r="AO413">
+        <v>0</v>
+      </c>
+      <c r="AP413">
+        <v>0</v>
+      </c>
+      <c r="AQ413">
+        <v>0</v>
+      </c>
+      <c r="AR413">
+        <v>0</v>
+      </c>
+      <c r="AS413">
+        <v>0</v>
+      </c>
+      <c r="AT413">
+        <v>0</v>
+      </c>
+      <c r="AU413">
+        <v>0</v>
+      </c>
+      <c r="AV413">
+        <v>0</v>
+      </c>
+      <c r="AW413">
+        <v>0</v>
+      </c>
+      <c r="AX413">
+        <v>0</v>
+      </c>
+      <c r="AY413">
+        <v>0</v>
+      </c>
+      <c r="AZ413">
+        <v>0</v>
+      </c>
+      <c r="BA413">
+        <v>0</v>
+      </c>
+      <c r="BB413">
+        <v>0</v>
+      </c>
+      <c r="BC413">
+        <v>0</v>
+      </c>
+      <c r="BD413">
+        <v>0</v>
+      </c>
+      <c r="BE413">
+        <v>0</v>
+      </c>
+      <c r="BF413">
+        <v>0</v>
+      </c>
+      <c r="BG413">
+        <v>0</v>
+      </c>
+      <c r="BH413">
+        <v>1</v>
+      </c>
+      <c r="BI413">
+        <v>0</v>
+      </c>
+      <c r="BJ413">
+        <v>0</v>
+      </c>
+      <c r="BK413">
+        <v>0</v>
+      </c>
+      <c r="BL413">
+        <v>1</v>
+      </c>
+      <c r="BM413">
+        <v>2</v>
+      </c>
+      <c r="BN413">
+        <v>6</v>
+      </c>
+      <c r="BO413">
+        <v>4</v>
+      </c>
+      <c r="BP413">
+        <v>17</v>
+      </c>
+      <c r="BQ413">
+        <v>27</v>
+      </c>
+      <c r="BR413">
+        <v>42</v>
+      </c>
+      <c r="BS413">
+        <v>61</v>
+      </c>
+      <c r="BT413">
+        <v>159</v>
+      </c>
+      <c r="BU413" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV413" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW413" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX413" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY413" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ413" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA413" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB413" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC413" t="s">
+        <v>367</v>
+      </c>
+      <c r="CD413" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE413" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF413" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="414" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>84</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C414" t="s">
+        <v>185</v>
+      </c>
+      <c r="D414" t="s">
+        <v>86</v>
+      </c>
+      <c r="E414" t="s">
+        <v>87</v>
+      </c>
+      <c r="F414" t="s">
+        <v>185</v>
+      </c>
+      <c r="G414" t="s">
+        <v>89</v>
+      </c>
+      <c r="H414" t="s">
+        <v>674</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="P414">
+        <v>0</v>
+      </c>
+      <c r="Q414">
+        <v>0</v>
+      </c>
+      <c r="R414">
+        <v>0</v>
+      </c>
+      <c r="S414">
+        <v>0</v>
+      </c>
+      <c r="T414">
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <v>0</v>
+      </c>
+      <c r="V414">
+        <v>0</v>
+      </c>
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414">
+        <v>0</v>
+      </c>
+      <c r="Y414">
+        <v>0</v>
+      </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
+      <c r="AA414">
+        <v>0</v>
+      </c>
+      <c r="AB414">
+        <v>0</v>
+      </c>
+      <c r="AC414">
+        <v>0</v>
+      </c>
+      <c r="AD414">
+        <v>0</v>
+      </c>
+      <c r="AE414">
+        <v>0</v>
+      </c>
+      <c r="AF414">
+        <v>0</v>
+      </c>
+      <c r="AG414">
+        <v>0</v>
+      </c>
+      <c r="AH414">
+        <v>0</v>
+      </c>
+      <c r="AI414">
+        <v>0</v>
+      </c>
+      <c r="AJ414">
+        <v>0</v>
+      </c>
+      <c r="AK414">
+        <v>0</v>
+      </c>
+      <c r="AL414">
+        <v>0</v>
+      </c>
+      <c r="AM414">
+        <v>0</v>
+      </c>
+      <c r="AN414">
+        <v>0</v>
+      </c>
+      <c r="AO414">
+        <v>0</v>
+      </c>
+      <c r="AP414">
+        <v>0</v>
+      </c>
+      <c r="AQ414">
+        <v>0</v>
+      </c>
+      <c r="AR414">
+        <v>0</v>
+      </c>
+      <c r="AS414">
+        <v>0</v>
+      </c>
+      <c r="AT414">
+        <v>0</v>
+      </c>
+      <c r="AU414">
+        <v>0</v>
+      </c>
+      <c r="AV414">
+        <v>0</v>
+      </c>
+      <c r="AW414">
+        <v>0</v>
+      </c>
+      <c r="AX414">
+        <v>0</v>
+      </c>
+      <c r="AY414">
+        <v>0</v>
+      </c>
+      <c r="AZ414">
+        <v>0</v>
+      </c>
+      <c r="BA414">
+        <v>0</v>
+      </c>
+      <c r="BB414">
+        <v>0</v>
+      </c>
+      <c r="BC414">
+        <v>0</v>
+      </c>
+      <c r="BD414">
+        <v>0</v>
+      </c>
+      <c r="BE414">
+        <v>0</v>
+      </c>
+      <c r="BF414">
+        <v>0</v>
+      </c>
+      <c r="BG414">
+        <v>1</v>
+      </c>
+      <c r="BH414">
+        <v>0</v>
+      </c>
+      <c r="BI414">
+        <v>0</v>
+      </c>
+      <c r="BJ414">
+        <v>0</v>
+      </c>
+      <c r="BK414">
+        <v>2</v>
+      </c>
+      <c r="BL414">
+        <v>3</v>
+      </c>
+      <c r="BM414">
+        <v>6</v>
+      </c>
+      <c r="BN414">
+        <v>4</v>
+      </c>
+      <c r="BO414">
+        <v>21</v>
+      </c>
+      <c r="BP414">
+        <v>48</v>
+      </c>
+      <c r="BQ414">
+        <v>34</v>
+      </c>
+      <c r="BR414">
+        <v>54</v>
+      </c>
+      <c r="BS414">
+        <v>66</v>
+      </c>
+      <c r="BT414">
+        <v>233</v>
+      </c>
+      <c r="BU414" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV414" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW414" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX414" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY414" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ414" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA414" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB414" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC414" t="s">
+        <v>424</v>
+      </c>
+      <c r="CD414" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE414" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF414" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="415" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>84</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C415" t="s">
+        <v>185</v>
+      </c>
+      <c r="D415" t="s">
+        <v>86</v>
+      </c>
+      <c r="E415" t="s">
+        <v>87</v>
+      </c>
+      <c r="F415" t="s">
+        <v>425</v>
+      </c>
+      <c r="G415" t="s">
+        <v>89</v>
+      </c>
+      <c r="H415" t="s">
+        <v>693</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="P415">
+        <v>0</v>
+      </c>
+      <c r="Q415">
+        <v>0</v>
+      </c>
+      <c r="R415">
+        <v>0</v>
+      </c>
+      <c r="S415">
+        <v>0</v>
+      </c>
+      <c r="T415">
+        <v>0</v>
+      </c>
+      <c r="U415">
+        <v>0</v>
+      </c>
+      <c r="V415">
+        <v>0</v>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>0</v>
+      </c>
+      <c r="Y415">
+        <v>0</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415">
+        <v>0</v>
+      </c>
+      <c r="AB415">
+        <v>0</v>
+      </c>
+      <c r="AC415">
+        <v>0</v>
+      </c>
+      <c r="AD415">
+        <v>0</v>
+      </c>
+      <c r="AE415">
+        <v>0</v>
+      </c>
+      <c r="AF415">
+        <v>0</v>
+      </c>
+      <c r="AG415">
+        <v>0</v>
+      </c>
+      <c r="AH415">
+        <v>0</v>
+      </c>
+      <c r="AI415">
+        <v>0</v>
+      </c>
+      <c r="AJ415">
+        <v>0</v>
+      </c>
+      <c r="AK415">
+        <v>0</v>
+      </c>
+      <c r="AL415">
+        <v>0</v>
+      </c>
+      <c r="AM415">
+        <v>0</v>
+      </c>
+      <c r="AN415">
+        <v>0</v>
+      </c>
+      <c r="AO415">
+        <v>0</v>
+      </c>
+      <c r="AP415">
+        <v>0</v>
+      </c>
+      <c r="AQ415">
+        <v>0</v>
+      </c>
+      <c r="AR415">
+        <v>0</v>
+      </c>
+      <c r="AS415">
+        <v>0</v>
+      </c>
+      <c r="AT415">
+        <v>0</v>
+      </c>
+      <c r="AU415">
+        <v>0</v>
+      </c>
+      <c r="AV415">
+        <v>0</v>
+      </c>
+      <c r="AW415">
+        <v>0</v>
+      </c>
+      <c r="AX415">
+        <v>0</v>
+      </c>
+      <c r="AY415">
+        <v>0</v>
+      </c>
+      <c r="AZ415">
+        <v>0</v>
+      </c>
+      <c r="BA415">
+        <v>0</v>
+      </c>
+      <c r="BB415">
+        <v>0</v>
+      </c>
+      <c r="BC415">
+        <v>0</v>
+      </c>
+      <c r="BD415">
+        <v>0</v>
+      </c>
+      <c r="BE415">
+        <v>0</v>
+      </c>
+      <c r="BF415">
+        <v>0</v>
+      </c>
+      <c r="BG415">
+        <v>3</v>
+      </c>
+      <c r="BH415">
+        <v>0</v>
+      </c>
+      <c r="BI415">
+        <v>0</v>
+      </c>
+      <c r="BJ415">
+        <v>0</v>
+      </c>
+      <c r="BK415">
+        <v>0</v>
+      </c>
+      <c r="BL415">
+        <v>3</v>
+      </c>
+      <c r="BM415">
+        <v>0</v>
+      </c>
+      <c r="BN415">
+        <v>0</v>
+      </c>
+      <c r="BO415">
+        <v>4</v>
+      </c>
+      <c r="BP415">
+        <v>3</v>
+      </c>
+      <c r="BQ415">
+        <v>8</v>
+      </c>
+      <c r="BR415">
+        <v>23</v>
+      </c>
+      <c r="BS415">
+        <v>24</v>
+      </c>
+      <c r="BT415">
+        <v>62</v>
+      </c>
+      <c r="BU415" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV415" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW415" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX415" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY415" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ415" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA415" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB415" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC415" t="s">
+        <v>427</v>
+      </c>
+      <c r="CD415" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE415" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF415" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="416" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>84</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C416" t="s">
+        <v>185</v>
+      </c>
+      <c r="D416" t="s">
+        <v>86</v>
+      </c>
+      <c r="E416" t="s">
+        <v>87</v>
+      </c>
+      <c r="F416" t="s">
+        <v>369</v>
+      </c>
+      <c r="G416" t="s">
+        <v>89</v>
+      </c>
+      <c r="H416" t="s">
+        <v>694</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+      <c r="R416">
+        <v>0</v>
+      </c>
+      <c r="S416">
+        <v>0</v>
+      </c>
+      <c r="T416">
+        <v>0</v>
+      </c>
+      <c r="U416">
+        <v>0</v>
+      </c>
+      <c r="V416">
+        <v>0</v>
+      </c>
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+      <c r="AB416">
+        <v>0</v>
+      </c>
+      <c r="AC416">
+        <v>0</v>
+      </c>
+      <c r="AD416">
+        <v>0</v>
+      </c>
+      <c r="AE416">
+        <v>0</v>
+      </c>
+      <c r="AF416">
+        <v>0</v>
+      </c>
+      <c r="AG416">
+        <v>0</v>
+      </c>
+      <c r="AH416">
+        <v>0</v>
+      </c>
+      <c r="AI416">
+        <v>0</v>
+      </c>
+      <c r="AJ416">
+        <v>0</v>
+      </c>
+      <c r="AK416">
+        <v>0</v>
+      </c>
+      <c r="AL416">
+        <v>0</v>
+      </c>
+      <c r="AM416">
+        <v>0</v>
+      </c>
+      <c r="AN416">
+        <v>0</v>
+      </c>
+      <c r="AO416">
+        <v>0</v>
+      </c>
+      <c r="AP416">
+        <v>0</v>
+      </c>
+      <c r="AQ416">
+        <v>0</v>
+      </c>
+      <c r="AR416">
+        <v>0</v>
+      </c>
+      <c r="AS416">
+        <v>0</v>
+      </c>
+      <c r="AT416">
+        <v>0</v>
+      </c>
+      <c r="AU416">
+        <v>0</v>
+      </c>
+      <c r="AV416">
+        <v>0</v>
+      </c>
+      <c r="AW416">
+        <v>0</v>
+      </c>
+      <c r="AX416">
+        <v>0</v>
+      </c>
+      <c r="AY416">
+        <v>0</v>
+      </c>
+      <c r="AZ416">
+        <v>0</v>
+      </c>
+      <c r="BA416">
+        <v>0</v>
+      </c>
+      <c r="BB416">
+        <v>0</v>
+      </c>
+      <c r="BC416">
+        <v>0</v>
+      </c>
+      <c r="BD416">
+        <v>0</v>
+      </c>
+      <c r="BE416">
+        <v>0</v>
+      </c>
+      <c r="BF416">
+        <v>0</v>
+      </c>
+      <c r="BG416">
+        <v>1</v>
+      </c>
+      <c r="BH416">
+        <v>1</v>
+      </c>
+      <c r="BI416">
+        <v>0</v>
+      </c>
+      <c r="BJ416">
+        <v>3</v>
+      </c>
+      <c r="BK416">
+        <v>0</v>
+      </c>
+      <c r="BL416">
+        <v>5</v>
+      </c>
+      <c r="BM416">
+        <v>3</v>
+      </c>
+      <c r="BN416">
+        <v>2</v>
+      </c>
+      <c r="BO416">
+        <v>4</v>
+      </c>
+      <c r="BP416">
+        <v>29</v>
+      </c>
+      <c r="BQ416">
+        <v>28</v>
+      </c>
+      <c r="BR416">
+        <v>41</v>
+      </c>
+      <c r="BS416">
+        <v>49</v>
+      </c>
+      <c r="BT416">
+        <v>156</v>
+      </c>
+      <c r="BU416" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV416" s="1">
+        <v>45010</v>
+      </c>
+      <c r="BW416" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX416" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY416" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ416" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA416" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB416" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC416" t="s">
+        <v>371</v>
+      </c>
+      <c r="CD416" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE416" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF416" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="417" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>84</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C417" t="s">
+        <v>185</v>
+      </c>
+      <c r="D417" t="s">
+        <v>86</v>
+      </c>
+      <c r="E417" t="s">
+        <v>204</v>
+      </c>
+      <c r="F417" t="s">
+        <v>297</v>
+      </c>
+      <c r="G417" t="s">
+        <v>89</v>
+      </c>
+      <c r="H417" t="s">
+        <v>596</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="P417">
+        <v>0</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
+      </c>
+      <c r="R417">
+        <v>0</v>
+      </c>
+      <c r="S417">
+        <v>0</v>
+      </c>
+      <c r="T417">
+        <v>0</v>
+      </c>
+      <c r="U417">
+        <v>0</v>
+      </c>
+      <c r="V417">
+        <v>0</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
+        <v>0</v>
+      </c>
+      <c r="AB417">
+        <v>0</v>
+      </c>
+      <c r="AC417">
+        <v>0</v>
+      </c>
+      <c r="AD417">
+        <v>0</v>
+      </c>
+      <c r="AE417">
+        <v>0</v>
+      </c>
+      <c r="AF417">
+        <v>0</v>
+      </c>
+      <c r="AG417">
+        <v>0</v>
+      </c>
+      <c r="AH417">
+        <v>0</v>
+      </c>
+      <c r="AI417">
+        <v>0</v>
+      </c>
+      <c r="AJ417">
+        <v>0</v>
+      </c>
+      <c r="AK417">
+        <v>0</v>
+      </c>
+      <c r="AL417">
+        <v>0</v>
+      </c>
+      <c r="AM417">
+        <v>0</v>
+      </c>
+      <c r="AN417">
+        <v>0</v>
+      </c>
+      <c r="AO417">
+        <v>0</v>
+      </c>
+      <c r="AP417">
+        <v>0</v>
+      </c>
+      <c r="AQ417">
+        <v>0</v>
+      </c>
+      <c r="AR417">
+        <v>0</v>
+      </c>
+      <c r="AS417">
+        <v>0</v>
+      </c>
+      <c r="AT417">
+        <v>0</v>
+      </c>
+      <c r="AU417">
+        <v>0</v>
+      </c>
+      <c r="AV417">
+        <v>0</v>
+      </c>
+      <c r="AW417">
+        <v>0</v>
+      </c>
+      <c r="AX417">
+        <v>0</v>
+      </c>
+      <c r="AY417">
+        <v>0</v>
+      </c>
+      <c r="AZ417">
+        <v>0</v>
+      </c>
+      <c r="BA417">
+        <v>0</v>
+      </c>
+      <c r="BB417">
+        <v>0</v>
+      </c>
+      <c r="BC417">
+        <v>0</v>
+      </c>
+      <c r="BD417">
+        <v>0</v>
+      </c>
+      <c r="BE417">
+        <v>2</v>
+      </c>
+      <c r="BF417">
+        <v>2</v>
+      </c>
+      <c r="BG417">
+        <v>6</v>
+      </c>
+      <c r="BH417">
+        <v>6</v>
+      </c>
+      <c r="BI417">
+        <v>11</v>
+      </c>
+      <c r="BJ417">
+        <v>5</v>
+      </c>
+      <c r="BK417">
+        <v>2</v>
+      </c>
+      <c r="BL417">
+        <v>34</v>
+      </c>
+      <c r="BM417">
+        <v>40</v>
+      </c>
+      <c r="BN417">
+        <v>23</v>
+      </c>
+      <c r="BO417">
+        <v>94</v>
+      </c>
+      <c r="BP417">
+        <v>320</v>
+      </c>
+      <c r="BQ417">
+        <v>883</v>
+      </c>
+      <c r="BR417">
+        <v>718</v>
+      </c>
+      <c r="BS417">
+        <v>661</v>
+      </c>
+      <c r="BT417">
+        <v>2739</v>
+      </c>
+      <c r="BU417" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV417" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW417" t="s">
+        <v>535</v>
+      </c>
+      <c r="BX417" t="s">
+        <v>504</v>
+      </c>
+      <c r="BY417" t="s">
+        <v>505</v>
+      </c>
+      <c r="BZ417" t="s">
+        <v>506</v>
+      </c>
+      <c r="CA417" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB417" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC417" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD417" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE417" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF417" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="418" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>84</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C418" t="s">
+        <v>185</v>
+      </c>
+      <c r="D418" t="s">
+        <v>86</v>
+      </c>
+      <c r="E418" t="s">
+        <v>163</v>
+      </c>
+      <c r="F418" t="s">
+        <v>88</v>
+      </c>
+      <c r="G418" t="s">
+        <v>89</v>
+      </c>
+      <c r="H418" t="s">
+        <v>490</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418">
+        <v>0</v>
+      </c>
+      <c r="Q418">
+        <v>0</v>
+      </c>
+      <c r="R418">
+        <v>0</v>
+      </c>
+      <c r="S418">
+        <v>0</v>
+      </c>
+      <c r="T418">
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <v>0</v>
+      </c>
+      <c r="V418">
+        <v>0</v>
+      </c>
+      <c r="W418">
+        <v>0</v>
+      </c>
+      <c r="X418">
+        <v>0</v>
+      </c>
+      <c r="Y418">
+        <v>0</v>
+      </c>
+      <c r="Z418">
+        <v>0</v>
+      </c>
+      <c r="AA418">
+        <v>0</v>
+      </c>
+      <c r="AB418">
+        <v>0</v>
+      </c>
+      <c r="AC418">
+        <v>0</v>
+      </c>
+      <c r="AD418">
+        <v>0</v>
+      </c>
+      <c r="AE418">
+        <v>0</v>
+      </c>
+      <c r="AF418">
+        <v>0</v>
+      </c>
+      <c r="AG418">
+        <v>0</v>
+      </c>
+      <c r="AH418">
+        <v>0</v>
+      </c>
+      <c r="AI418">
+        <v>0</v>
+      </c>
+      <c r="AJ418">
+        <v>0</v>
+      </c>
+      <c r="AK418">
+        <v>0</v>
+      </c>
+      <c r="AL418">
+        <v>0</v>
+      </c>
+      <c r="AM418">
+        <v>0</v>
+      </c>
+      <c r="AN418">
+        <v>0</v>
+      </c>
+      <c r="AO418">
+        <v>0</v>
+      </c>
+      <c r="AP418">
+        <v>0</v>
+      </c>
+      <c r="AQ418">
+        <v>0</v>
+      </c>
+      <c r="AR418">
+        <v>0</v>
+      </c>
+      <c r="AS418">
+        <v>0</v>
+      </c>
+      <c r="AT418">
+        <v>0</v>
+      </c>
+      <c r="AU418">
+        <v>0</v>
+      </c>
+      <c r="AV418">
+        <v>0</v>
+      </c>
+      <c r="AW418">
+        <v>0</v>
+      </c>
+      <c r="AX418">
+        <v>0</v>
+      </c>
+      <c r="AY418">
+        <v>0</v>
+      </c>
+      <c r="AZ418">
+        <v>0</v>
+      </c>
+      <c r="BA418">
+        <v>0</v>
+      </c>
+      <c r="BB418">
+        <v>0</v>
+      </c>
+      <c r="BC418">
+        <v>0</v>
+      </c>
+      <c r="BD418">
+        <v>0</v>
+      </c>
+      <c r="BE418">
+        <v>0</v>
+      </c>
+      <c r="BF418">
+        <v>1</v>
+      </c>
+      <c r="BG418">
+        <v>2</v>
+      </c>
+      <c r="BH418">
+        <v>13</v>
+      </c>
+      <c r="BI418">
+        <v>31</v>
+      </c>
+      <c r="BJ418">
+        <v>16</v>
+      </c>
+      <c r="BK418">
+        <v>43</v>
+      </c>
+      <c r="BL418">
+        <v>106</v>
+      </c>
+      <c r="BM418">
+        <v>12</v>
+      </c>
+      <c r="BN418">
+        <v>6</v>
+      </c>
+      <c r="BO418">
+        <v>29</v>
+      </c>
+      <c r="BP418">
+        <v>104</v>
+      </c>
+      <c r="BQ418">
+        <v>417</v>
+      </c>
+      <c r="BR418">
+        <v>673</v>
+      </c>
+      <c r="BS418">
+        <v>777</v>
+      </c>
+      <c r="BT418">
+        <v>2018</v>
+      </c>
+      <c r="BU418" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV418" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW418" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX418" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY418" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ418" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA418" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB418" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC418" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD418" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE418" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF418" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="419" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>84</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C419" t="s">
+        <v>185</v>
+      </c>
+      <c r="D419" t="s">
+        <v>86</v>
+      </c>
+      <c r="E419" t="s">
+        <v>163</v>
+      </c>
+      <c r="F419" t="s">
+        <v>170</v>
+      </c>
+      <c r="G419" t="s">
+        <v>89</v>
+      </c>
+      <c r="H419" t="s">
+        <v>534</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419">
+        <v>0</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
+      <c r="S419">
+        <v>0</v>
+      </c>
+      <c r="T419">
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <v>0</v>
+      </c>
+      <c r="V419">
+        <v>0</v>
+      </c>
+      <c r="W419">
+        <v>0</v>
+      </c>
+      <c r="X419">
+        <v>0</v>
+      </c>
+      <c r="Y419">
+        <v>0</v>
+      </c>
+      <c r="Z419">
+        <v>0</v>
+      </c>
+      <c r="AA419">
+        <v>0</v>
+      </c>
+      <c r="AB419">
+        <v>0</v>
+      </c>
+      <c r="AC419">
+        <v>0</v>
+      </c>
+      <c r="AD419">
+        <v>0</v>
+      </c>
+      <c r="AE419">
+        <v>0</v>
+      </c>
+      <c r="AF419">
+        <v>0</v>
+      </c>
+      <c r="AG419">
+        <v>0</v>
+      </c>
+      <c r="AH419">
+        <v>0</v>
+      </c>
+      <c r="AI419">
+        <v>0</v>
+      </c>
+      <c r="AJ419">
+        <v>0</v>
+      </c>
+      <c r="AK419">
+        <v>0</v>
+      </c>
+      <c r="AL419">
+        <v>0</v>
+      </c>
+      <c r="AM419">
+        <v>0</v>
+      </c>
+      <c r="AN419">
+        <v>0</v>
+      </c>
+      <c r="AO419">
+        <v>0</v>
+      </c>
+      <c r="AP419">
+        <v>0</v>
+      </c>
+      <c r="AQ419">
+        <v>0</v>
+      </c>
+      <c r="AR419">
+        <v>0</v>
+      </c>
+      <c r="AS419">
+        <v>0</v>
+      </c>
+      <c r="AT419">
+        <v>0</v>
+      </c>
+      <c r="AU419">
+        <v>0</v>
+      </c>
+      <c r="AV419">
+        <v>0</v>
+      </c>
+      <c r="AW419">
+        <v>0</v>
+      </c>
+      <c r="AX419">
+        <v>0</v>
+      </c>
+      <c r="AY419">
+        <v>0</v>
+      </c>
+      <c r="AZ419">
+        <v>0</v>
+      </c>
+      <c r="BA419">
+        <v>0</v>
+      </c>
+      <c r="BB419">
+        <v>0</v>
+      </c>
+      <c r="BC419">
+        <v>0</v>
+      </c>
+      <c r="BD419">
+        <v>0</v>
+      </c>
+      <c r="BE419">
+        <v>7</v>
+      </c>
+      <c r="BF419">
+        <v>6</v>
+      </c>
+      <c r="BG419">
+        <v>31</v>
+      </c>
+      <c r="BH419">
+        <v>28</v>
+      </c>
+      <c r="BI419">
+        <v>54</v>
+      </c>
+      <c r="BJ419">
+        <v>30</v>
+      </c>
+      <c r="BK419">
+        <v>34</v>
+      </c>
+      <c r="BL419">
+        <v>190</v>
+      </c>
+      <c r="BM419">
+        <v>109</v>
+      </c>
+      <c r="BN419">
+        <v>44</v>
+      </c>
+      <c r="BO419">
+        <v>164</v>
+      </c>
+      <c r="BP419">
+        <v>366</v>
+      </c>
+      <c r="BQ419">
+        <v>695</v>
+      </c>
+      <c r="BR419">
+        <v>718</v>
+      </c>
+      <c r="BS419">
+        <v>581</v>
+      </c>
+      <c r="BT419">
+        <v>2677</v>
+      </c>
+      <c r="BU419" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV419" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW419" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX419" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY419" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ419" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA419" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB419" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC419" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD419" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE419" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF419" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="420" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>84</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C420" t="s">
+        <v>185</v>
+      </c>
+      <c r="D420" t="s">
+        <v>86</v>
+      </c>
+      <c r="E420" t="s">
+        <v>135</v>
+      </c>
+      <c r="F420" t="s">
+        <v>88</v>
+      </c>
+      <c r="G420" t="s">
+        <v>89</v>
+      </c>
+      <c r="H420" t="s">
+        <v>699</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+      <c r="M420">
+        <v>0</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>0</v>
+      </c>
+      <c r="S420">
+        <v>0</v>
+      </c>
+      <c r="T420">
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <v>0</v>
+      </c>
+      <c r="V420">
+        <v>0</v>
+      </c>
+      <c r="W420">
+        <v>0</v>
+      </c>
+      <c r="X420">
+        <v>0</v>
+      </c>
+      <c r="Y420">
+        <v>0</v>
+      </c>
+      <c r="Z420">
+        <v>0</v>
+      </c>
+      <c r="AA420">
+        <v>0</v>
+      </c>
+      <c r="AB420">
+        <v>0</v>
+      </c>
+      <c r="AC420">
+        <v>0</v>
+      </c>
+      <c r="AD420">
+        <v>0</v>
+      </c>
+      <c r="AE420">
+        <v>0</v>
+      </c>
+      <c r="AF420">
+        <v>0</v>
+      </c>
+      <c r="AG420">
+        <v>0</v>
+      </c>
+      <c r="AH420">
+        <v>0</v>
+      </c>
+      <c r="AI420">
+        <v>0</v>
+      </c>
+      <c r="AJ420">
+        <v>0</v>
+      </c>
+      <c r="AK420">
+        <v>0</v>
+      </c>
+      <c r="AL420">
+        <v>0</v>
+      </c>
+      <c r="AM420">
+        <v>0</v>
+      </c>
+      <c r="AN420">
+        <v>0</v>
+      </c>
+      <c r="AO420">
+        <v>0</v>
+      </c>
+      <c r="AP420">
+        <v>0</v>
+      </c>
+      <c r="AQ420">
+        <v>0</v>
+      </c>
+      <c r="AR420">
+        <v>0</v>
+      </c>
+      <c r="AS420">
+        <v>0</v>
+      </c>
+      <c r="AT420">
+        <v>0</v>
+      </c>
+      <c r="AU420">
+        <v>0</v>
+      </c>
+      <c r="AV420">
+        <v>0</v>
+      </c>
+      <c r="AW420">
+        <v>0</v>
+      </c>
+      <c r="AX420">
+        <v>0</v>
+      </c>
+      <c r="AY420">
+        <v>0</v>
+      </c>
+      <c r="AZ420">
+        <v>0</v>
+      </c>
+      <c r="BA420">
+        <v>0</v>
+      </c>
+      <c r="BB420">
+        <v>0</v>
+      </c>
+      <c r="BC420">
+        <v>0</v>
+      </c>
+      <c r="BD420">
+        <v>0</v>
+      </c>
+      <c r="BE420">
+        <v>3</v>
+      </c>
+      <c r="BF420">
+        <v>2</v>
+      </c>
+      <c r="BG420">
+        <v>5</v>
+      </c>
+      <c r="BH420">
+        <v>16</v>
+      </c>
+      <c r="BI420">
+        <v>22</v>
+      </c>
+      <c r="BJ420">
+        <v>15</v>
+      </c>
+      <c r="BK420">
+        <v>9</v>
+      </c>
+      <c r="BL420">
+        <v>72</v>
+      </c>
+      <c r="BM420">
+        <v>36</v>
+      </c>
+      <c r="BN420">
+        <v>19</v>
+      </c>
+      <c r="BO420">
+        <v>50</v>
+      </c>
+      <c r="BP420">
+        <v>243</v>
+      </c>
+      <c r="BQ420">
+        <v>606</v>
+      </c>
+      <c r="BR420">
+        <v>898</v>
+      </c>
+      <c r="BS420">
+        <v>1054</v>
+      </c>
+      <c r="BT420">
+        <v>2906</v>
+      </c>
+      <c r="BU420" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV420" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW420" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX420" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY420" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ420" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA420" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB420" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC420" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD420" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE420" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF420" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="421" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>84</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C421" t="s">
+        <v>185</v>
+      </c>
+      <c r="D421" t="s">
+        <v>86</v>
+      </c>
+      <c r="E421" t="s">
+        <v>135</v>
+      </c>
+      <c r="F421" t="s">
+        <v>142</v>
+      </c>
+      <c r="G421" t="s">
+        <v>89</v>
+      </c>
+      <c r="H421" t="s">
+        <v>700</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>0</v>
+      </c>
+      <c r="S421">
+        <v>0</v>
+      </c>
+      <c r="T421">
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <v>0</v>
+      </c>
+      <c r="V421">
+        <v>0</v>
+      </c>
+      <c r="W421">
+        <v>0</v>
+      </c>
+      <c r="X421">
+        <v>0</v>
+      </c>
+      <c r="Y421">
+        <v>0</v>
+      </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
+      <c r="AA421">
+        <v>0</v>
+      </c>
+      <c r="AB421">
+        <v>0</v>
+      </c>
+      <c r="AC421">
+        <v>0</v>
+      </c>
+      <c r="AD421">
+        <v>0</v>
+      </c>
+      <c r="AE421">
+        <v>0</v>
+      </c>
+      <c r="AF421">
+        <v>0</v>
+      </c>
+      <c r="AG421">
+        <v>0</v>
+      </c>
+      <c r="AH421">
+        <v>0</v>
+      </c>
+      <c r="AI421">
+        <v>0</v>
+      </c>
+      <c r="AJ421">
+        <v>0</v>
+      </c>
+      <c r="AK421">
+        <v>0</v>
+      </c>
+      <c r="AL421">
+        <v>0</v>
+      </c>
+      <c r="AM421">
+        <v>0</v>
+      </c>
+      <c r="AN421">
+        <v>0</v>
+      </c>
+      <c r="AO421">
+        <v>0</v>
+      </c>
+      <c r="AP421">
+        <v>0</v>
+      </c>
+      <c r="AQ421">
+        <v>0</v>
+      </c>
+      <c r="AR421">
+        <v>0</v>
+      </c>
+      <c r="AS421">
+        <v>0</v>
+      </c>
+      <c r="AT421">
+        <v>0</v>
+      </c>
+      <c r="AU421">
+        <v>0</v>
+      </c>
+      <c r="AV421">
+        <v>0</v>
+      </c>
+      <c r="AW421">
+        <v>0</v>
+      </c>
+      <c r="AX421">
+        <v>0</v>
+      </c>
+      <c r="AY421">
+        <v>0</v>
+      </c>
+      <c r="AZ421">
+        <v>0</v>
+      </c>
+      <c r="BA421">
+        <v>0</v>
+      </c>
+      <c r="BB421">
+        <v>0</v>
+      </c>
+      <c r="BC421">
+        <v>0</v>
+      </c>
+      <c r="BD421">
+        <v>0</v>
+      </c>
+      <c r="BE421">
+        <v>0</v>
+      </c>
+      <c r="BF421">
+        <v>0</v>
+      </c>
+      <c r="BG421">
+        <v>14</v>
+      </c>
+      <c r="BH421">
+        <v>19</v>
+      </c>
+      <c r="BI421">
+        <v>37</v>
+      </c>
+      <c r="BJ421">
+        <v>7</v>
+      </c>
+      <c r="BK421">
+        <v>0</v>
+      </c>
+      <c r="BL421">
+        <v>77</v>
+      </c>
+      <c r="BM421">
+        <v>10</v>
+      </c>
+      <c r="BN421">
+        <v>11</v>
+      </c>
+      <c r="BO421">
+        <v>80</v>
+      </c>
+      <c r="BP421">
+        <v>243</v>
+      </c>
+      <c r="BQ421">
+        <v>505</v>
+      </c>
+      <c r="BR421">
+        <v>554</v>
+      </c>
+      <c r="BS421">
+        <v>576</v>
+      </c>
+      <c r="BT421">
+        <v>1979</v>
+      </c>
+      <c r="BU421" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV421" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW421" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX421" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY421" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ421" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA421" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB421" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC421" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD421" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE421" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF421" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="422" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>84</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C422" t="s">
+        <v>185</v>
+      </c>
+      <c r="D422" t="s">
+        <v>86</v>
+      </c>
+      <c r="E422" t="s">
+        <v>135</v>
+      </c>
+      <c r="F422" t="s">
+        <v>116</v>
+      </c>
+      <c r="G422" t="s">
+        <v>89</v>
+      </c>
+      <c r="H422" t="s">
+        <v>701</v>
+      </c>
+      <c r="I422">
+        <v>2</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="L422">
+        <v>1</v>
+      </c>
+      <c r="M422">
+        <v>0</v>
+      </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+      <c r="O422">
+        <v>10</v>
+      </c>
+      <c r="P422">
+        <v>14</v>
+      </c>
+      <c r="Q422">
+        <v>5</v>
+      </c>
+      <c r="R422">
+        <v>1</v>
+      </c>
+      <c r="S422">
+        <v>3</v>
+      </c>
+      <c r="T422">
+        <v>12</v>
+      </c>
+      <c r="U422">
+        <v>31</v>
+      </c>
+      <c r="V422">
+        <v>22</v>
+      </c>
+      <c r="W422">
+        <v>42</v>
+      </c>
+      <c r="X422">
+        <v>116</v>
+      </c>
+      <c r="Y422">
+        <v>1</v>
+      </c>
+      <c r="Z422">
+        <v>0</v>
+      </c>
+      <c r="AA422">
+        <v>1</v>
+      </c>
+      <c r="AB422">
+        <v>0</v>
+      </c>
+      <c r="AC422">
+        <v>1</v>
+      </c>
+      <c r="AD422">
+        <v>0</v>
+      </c>
+      <c r="AE422">
+        <v>1</v>
+      </c>
+      <c r="AF422">
+        <v>4</v>
+      </c>
+      <c r="AG422">
+        <v>1</v>
+      </c>
+      <c r="AH422">
+        <v>2</v>
+      </c>
+      <c r="AI422">
+        <v>3</v>
+      </c>
+      <c r="AJ422">
+        <v>8</v>
+      </c>
+      <c r="AK422">
+        <v>9</v>
+      </c>
+      <c r="AL422">
+        <v>6</v>
+      </c>
+      <c r="AM422">
+        <v>24</v>
+      </c>
+      <c r="AN422">
+        <v>53</v>
+      </c>
+      <c r="AO422">
+        <v>0</v>
+      </c>
+      <c r="AP422">
+        <v>0</v>
+      </c>
+      <c r="AQ422">
+        <v>0</v>
+      </c>
+      <c r="AR422">
+        <v>0</v>
+      </c>
+      <c r="AS422">
+        <v>0</v>
+      </c>
+      <c r="AT422">
+        <v>0</v>
+      </c>
+      <c r="AU422">
+        <v>5</v>
+      </c>
+      <c r="AV422">
+        <v>5</v>
+      </c>
+      <c r="AW422">
+        <v>0</v>
+      </c>
+      <c r="AX422">
+        <v>0</v>
+      </c>
+      <c r="AY422">
+        <v>0</v>
+      </c>
+      <c r="AZ422">
+        <v>0</v>
+      </c>
+      <c r="BA422">
+        <v>0</v>
+      </c>
+      <c r="BB422">
+        <v>3</v>
+      </c>
+      <c r="BC422">
+        <v>9</v>
+      </c>
+      <c r="BD422">
+        <v>12</v>
+      </c>
+      <c r="BE422">
+        <v>18</v>
+      </c>
+      <c r="BF422">
+        <v>15</v>
+      </c>
+      <c r="BG422">
+        <v>36</v>
+      </c>
+      <c r="BH422">
+        <v>44</v>
+      </c>
+      <c r="BI422">
+        <v>17</v>
+      </c>
+      <c r="BJ422">
+        <v>7</v>
+      </c>
+      <c r="BK422">
+        <v>8</v>
+      </c>
+      <c r="BL422">
+        <v>145</v>
+      </c>
+      <c r="BM422">
+        <v>42</v>
+      </c>
+      <c r="BN422">
+        <v>41</v>
+      </c>
+      <c r="BO422">
+        <v>133</v>
+      </c>
+      <c r="BP422">
+        <v>351</v>
+      </c>
+      <c r="BQ422">
+        <v>428</v>
+      </c>
+      <c r="BR422">
+        <v>290</v>
+      </c>
+      <c r="BS422">
+        <v>259</v>
+      </c>
+      <c r="BT422">
+        <v>1544</v>
+      </c>
+      <c r="BU422" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV422" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW422" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX422" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY422" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ422" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA422" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB422" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC422" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD422" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE422" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF422" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="423" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>84</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C423" t="s">
+        <v>185</v>
+      </c>
+      <c r="D423" t="s">
+        <v>86</v>
+      </c>
+      <c r="E423" t="s">
+        <v>147</v>
+      </c>
+      <c r="F423" t="s">
+        <v>88</v>
+      </c>
+      <c r="G423" t="s">
+        <v>89</v>
+      </c>
+      <c r="H423" t="s">
+        <v>702</v>
+      </c>
+      <c r="I423">
+        <v>8</v>
+      </c>
+      <c r="J423">
+        <v>2</v>
+      </c>
+      <c r="K423">
+        <v>3</v>
+      </c>
+      <c r="L423">
+        <v>4</v>
+      </c>
+      <c r="M423">
+        <v>1</v>
+      </c>
+      <c r="N423">
+        <v>3</v>
+      </c>
+      <c r="O423">
+        <v>1</v>
+      </c>
+      <c r="P423">
+        <v>22</v>
+      </c>
+      <c r="Q423">
+        <v>18</v>
+      </c>
+      <c r="R423">
+        <v>5</v>
+      </c>
+      <c r="S423">
+        <v>34</v>
+      </c>
+      <c r="T423">
+        <v>91</v>
+      </c>
+      <c r="U423">
+        <v>213</v>
+      </c>
+      <c r="V423">
+        <v>128</v>
+      </c>
+      <c r="W423">
+        <v>177</v>
+      </c>
+      <c r="X423">
+        <v>666</v>
+      </c>
+      <c r="Y423">
+        <v>0</v>
+      </c>
+      <c r="Z423">
+        <v>0</v>
+      </c>
+      <c r="AA423">
+        <v>0</v>
+      </c>
+      <c r="AB423">
+        <v>1</v>
+      </c>
+      <c r="AC423">
+        <v>0</v>
+      </c>
+      <c r="AD423">
+        <v>1</v>
+      </c>
+      <c r="AE423">
+        <v>0</v>
+      </c>
+      <c r="AF423">
+        <v>2</v>
+      </c>
+      <c r="AG423">
+        <v>0</v>
+      </c>
+      <c r="AH423">
+        <v>0</v>
+      </c>
+      <c r="AI423">
+        <v>0</v>
+      </c>
+      <c r="AJ423">
+        <v>2</v>
+      </c>
+      <c r="AK423">
+        <v>13</v>
+      </c>
+      <c r="AL423">
+        <v>13</v>
+      </c>
+      <c r="AM423">
+        <v>39</v>
+      </c>
+      <c r="AN423">
+        <v>67</v>
+      </c>
+      <c r="AO423">
+        <v>0</v>
+      </c>
+      <c r="AP423">
+        <v>0</v>
+      </c>
+      <c r="AQ423">
+        <v>0</v>
+      </c>
+      <c r="AR423">
+        <v>0</v>
+      </c>
+      <c r="AS423">
+        <v>0</v>
+      </c>
+      <c r="AT423">
+        <v>0</v>
+      </c>
+      <c r="AU423">
+        <v>0</v>
+      </c>
+      <c r="AV423">
+        <v>0</v>
+      </c>
+      <c r="AW423">
+        <v>0</v>
+      </c>
+      <c r="AX423">
+        <v>0</v>
+      </c>
+      <c r="AY423">
+        <v>0</v>
+      </c>
+      <c r="AZ423">
+        <v>1</v>
+      </c>
+      <c r="BA423">
+        <v>0</v>
+      </c>
+      <c r="BB423">
+        <v>3</v>
+      </c>
+      <c r="BC423">
+        <v>8</v>
+      </c>
+      <c r="BD423">
+        <v>12</v>
+      </c>
+      <c r="BE423">
+        <v>24</v>
+      </c>
+      <c r="BF423">
+        <v>8</v>
+      </c>
+      <c r="BG423">
+        <v>30</v>
+      </c>
+      <c r="BH423">
+        <v>61</v>
+      </c>
+      <c r="BI423">
+        <v>53</v>
+      </c>
+      <c r="BJ423">
+        <v>20</v>
+      </c>
+      <c r="BK423">
+        <v>13</v>
+      </c>
+      <c r="BL423">
+        <v>209</v>
+      </c>
+      <c r="BM423">
+        <v>79</v>
+      </c>
+      <c r="BN423">
+        <v>41</v>
+      </c>
+      <c r="BO423">
+        <v>149</v>
+      </c>
+      <c r="BP423">
+        <v>371</v>
+      </c>
+      <c r="BQ423">
+        <v>753</v>
+      </c>
+      <c r="BR423">
+        <v>432</v>
+      </c>
+      <c r="BS423">
+        <v>317</v>
+      </c>
+      <c r="BT423">
+        <v>2142</v>
+      </c>
+      <c r="BU423" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV423" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW423" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX423" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY423" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ423" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA423" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB423" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC423" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD423" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE423" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF423" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="424" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>84</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C424" t="s">
+        <v>185</v>
+      </c>
+      <c r="D424" t="s">
+        <v>86</v>
+      </c>
+      <c r="E424" t="s">
+        <v>305</v>
+      </c>
+      <c r="F424" t="s">
+        <v>88</v>
+      </c>
+      <c r="G424" t="s">
+        <v>89</v>
+      </c>
+      <c r="H424" t="s">
+        <v>703</v>
+      </c>
+      <c r="I424">
+        <v>3</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424">
+        <v>5</v>
+      </c>
+      <c r="Q424">
+        <v>7</v>
+      </c>
+      <c r="R424">
+        <v>2</v>
+      </c>
+      <c r="S424">
+        <v>2</v>
+      </c>
+      <c r="T424">
+        <v>1</v>
+      </c>
+      <c r="U424">
+        <v>9</v>
+      </c>
+      <c r="V424">
+        <v>7</v>
+      </c>
+      <c r="W424">
+        <v>8</v>
+      </c>
+      <c r="X424">
+        <v>36</v>
+      </c>
+      <c r="Y424">
+        <v>0</v>
+      </c>
+      <c r="Z424">
+        <v>0</v>
+      </c>
+      <c r="AA424">
+        <v>0</v>
+      </c>
+      <c r="AB424">
+        <v>0</v>
+      </c>
+      <c r="AC424">
+        <v>0</v>
+      </c>
+      <c r="AD424">
+        <v>0</v>
+      </c>
+      <c r="AE424">
+        <v>0</v>
+      </c>
+      <c r="AF424">
+        <v>0</v>
+      </c>
+      <c r="AG424">
+        <v>0</v>
+      </c>
+      <c r="AH424">
+        <v>0</v>
+      </c>
+      <c r="AI424">
+        <v>0</v>
+      </c>
+      <c r="AJ424">
+        <v>0</v>
+      </c>
+      <c r="AK424">
+        <v>0</v>
+      </c>
+      <c r="AL424">
+        <v>0</v>
+      </c>
+      <c r="AM424">
+        <v>0</v>
+      </c>
+      <c r="AN424">
+        <v>0</v>
+      </c>
+      <c r="AO424">
+        <v>0</v>
+      </c>
+      <c r="AP424">
+        <v>0</v>
+      </c>
+      <c r="AQ424">
+        <v>0</v>
+      </c>
+      <c r="AR424">
+        <v>0</v>
+      </c>
+      <c r="AS424">
+        <v>0</v>
+      </c>
+      <c r="AT424">
+        <v>0</v>
+      </c>
+      <c r="AU424">
+        <v>0</v>
+      </c>
+      <c r="AV424">
+        <v>0</v>
+      </c>
+      <c r="AW424">
+        <v>0</v>
+      </c>
+      <c r="AX424">
+        <v>0</v>
+      </c>
+      <c r="AY424">
+        <v>0</v>
+      </c>
+      <c r="AZ424">
+        <v>0</v>
+      </c>
+      <c r="BA424">
+        <v>0</v>
+      </c>
+      <c r="BB424">
+        <v>0</v>
+      </c>
+      <c r="BC424">
+        <v>0</v>
+      </c>
+      <c r="BD424">
+        <v>0</v>
+      </c>
+      <c r="BE424">
+        <v>8</v>
+      </c>
+      <c r="BF424">
+        <v>4</v>
+      </c>
+      <c r="BG424">
+        <v>4</v>
+      </c>
+      <c r="BH424">
+        <v>5</v>
+      </c>
+      <c r="BI424">
+        <v>1</v>
+      </c>
+      <c r="BJ424">
+        <v>4</v>
+      </c>
+      <c r="BK424">
+        <v>1</v>
+      </c>
+      <c r="BL424">
+        <v>27</v>
+      </c>
+      <c r="BM424">
+        <v>19</v>
+      </c>
+      <c r="BN424">
+        <v>9</v>
+      </c>
+      <c r="BO424">
+        <v>30</v>
+      </c>
+      <c r="BP424">
+        <v>66</v>
+      </c>
+      <c r="BQ424">
+        <v>64</v>
+      </c>
+      <c r="BR424">
+        <v>82</v>
+      </c>
+      <c r="BS424">
+        <v>137</v>
+      </c>
+      <c r="BT424">
+        <v>407</v>
+      </c>
+      <c r="BU424" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV424" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW424" t="s">
+        <v>307</v>
+      </c>
+      <c r="BX424" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY424" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ424" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA424" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB424" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC424" t="s">
+        <v>311</v>
+      </c>
+      <c r="CD424" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE424" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF424" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="425" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>84</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C425" t="s">
+        <v>185</v>
+      </c>
+      <c r="D425" t="s">
+        <v>86</v>
+      </c>
+      <c r="E425" t="s">
+        <v>192</v>
+      </c>
+      <c r="F425" t="s">
+        <v>88</v>
+      </c>
+      <c r="G425" t="s">
+        <v>89</v>
+      </c>
+      <c r="H425" t="s">
+        <v>220</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>2</v>
+      </c>
+      <c r="P425">
+        <v>2</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>0</v>
+      </c>
+      <c r="S425">
+        <v>0</v>
+      </c>
+      <c r="T425">
+        <v>0</v>
+      </c>
+      <c r="U425">
+        <v>0</v>
+      </c>
+      <c r="V425">
+        <v>1</v>
+      </c>
+      <c r="W425">
+        <v>23</v>
+      </c>
+      <c r="X425">
+        <v>24</v>
+      </c>
+      <c r="Y425">
+        <v>0</v>
+      </c>
+      <c r="Z425">
+        <v>0</v>
+      </c>
+      <c r="AA425">
+        <v>0</v>
+      </c>
+      <c r="AB425">
+        <v>0</v>
+      </c>
+      <c r="AC425">
+        <v>0</v>
+      </c>
+      <c r="AD425">
+        <v>0</v>
+      </c>
+      <c r="AE425">
+        <v>0</v>
+      </c>
+      <c r="AF425">
+        <v>0</v>
+      </c>
+      <c r="AG425">
+        <v>0</v>
+      </c>
+      <c r="AH425">
+        <v>0</v>
+      </c>
+      <c r="AI425">
+        <v>0</v>
+      </c>
+      <c r="AJ425">
+        <v>0</v>
+      </c>
+      <c r="AK425">
+        <v>0</v>
+      </c>
+      <c r="AL425">
+        <v>0</v>
+      </c>
+      <c r="AM425">
+        <v>0</v>
+      </c>
+      <c r="AN425">
+        <v>0</v>
+      </c>
+      <c r="AO425">
+        <v>0</v>
+      </c>
+      <c r="AP425">
+        <v>0</v>
+      </c>
+      <c r="AQ425">
+        <v>0</v>
+      </c>
+      <c r="AR425">
+        <v>0</v>
+      </c>
+      <c r="AS425">
+        <v>0</v>
+      </c>
+      <c r="AT425">
+        <v>0</v>
+      </c>
+      <c r="AU425">
+        <v>0</v>
+      </c>
+      <c r="AV425">
+        <v>0</v>
+      </c>
+      <c r="AW425">
+        <v>0</v>
+      </c>
+      <c r="AX425">
+        <v>0</v>
+      </c>
+      <c r="AY425">
+        <v>0</v>
+      </c>
+      <c r="AZ425">
+        <v>0</v>
+      </c>
+      <c r="BA425">
+        <v>0</v>
+      </c>
+      <c r="BB425">
+        <v>0</v>
+      </c>
+      <c r="BC425">
+        <v>3</v>
+      </c>
+      <c r="BD425">
+        <v>3</v>
+      </c>
+      <c r="BE425">
+        <v>0</v>
+      </c>
+      <c r="BF425">
+        <v>0</v>
+      </c>
+      <c r="BG425">
+        <v>0</v>
+      </c>
+      <c r="BH425">
+        <v>0</v>
+      </c>
+      <c r="BI425">
+        <v>0</v>
+      </c>
+      <c r="BJ425">
+        <v>0</v>
+      </c>
+      <c r="BK425">
+        <v>0</v>
+      </c>
+      <c r="BL425">
+        <v>0</v>
+      </c>
+      <c r="BM425">
+        <v>0</v>
+      </c>
+      <c r="BN425">
+        <v>0</v>
+      </c>
+      <c r="BO425">
+        <v>0</v>
+      </c>
+      <c r="BP425">
+        <v>0</v>
+      </c>
+      <c r="BQ425">
+        <v>4</v>
+      </c>
+      <c r="BR425">
+        <v>8</v>
+      </c>
+      <c r="BS425">
+        <v>27</v>
+      </c>
+      <c r="BT425">
+        <v>39</v>
+      </c>
+      <c r="BU425" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV425" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW425" t="s">
+        <v>314</v>
+      </c>
+      <c r="BX425" t="s">
+        <v>704</v>
+      </c>
+      <c r="BY425" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ425" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA425" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB425" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC425" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD425" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE425" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF425" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="426" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>84</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C426" t="s">
+        <v>185</v>
+      </c>
+      <c r="D426" t="s">
+        <v>86</v>
+      </c>
+      <c r="E426" t="s">
+        <v>192</v>
+      </c>
+      <c r="F426" t="s">
+        <v>200</v>
+      </c>
+      <c r="G426" t="s">
+        <v>89</v>
+      </c>
+      <c r="H426" t="s">
+        <v>705</v>
+      </c>
+      <c r="I426">
+        <v>2</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426">
+        <v>2</v>
+      </c>
+      <c r="O426">
+        <v>4</v>
+      </c>
+      <c r="P426">
+        <v>9</v>
+      </c>
+      <c r="Q426">
+        <v>5</v>
+      </c>
+      <c r="R426">
+        <v>5</v>
+      </c>
+      <c r="S426">
+        <v>1</v>
+      </c>
+      <c r="T426">
+        <v>6</v>
+      </c>
+      <c r="U426">
+        <v>17</v>
+      </c>
+      <c r="V426">
+        <v>28</v>
+      </c>
+      <c r="W426">
+        <v>77</v>
+      </c>
+      <c r="X426">
+        <v>139</v>
+      </c>
+      <c r="Y426">
+        <v>0</v>
+      </c>
+      <c r="Z426">
+        <v>0</v>
+      </c>
+      <c r="AA426">
+        <v>0</v>
+      </c>
+      <c r="AB426">
+        <v>0</v>
+      </c>
+      <c r="AC426">
+        <v>0</v>
+      </c>
+      <c r="AD426">
+        <v>0</v>
+      </c>
+      <c r="AE426">
+        <v>0</v>
+      </c>
+      <c r="AF426">
+        <v>0</v>
+      </c>
+      <c r="AG426">
+        <v>0</v>
+      </c>
+      <c r="AH426">
+        <v>0</v>
+      </c>
+      <c r="AI426">
+        <v>0</v>
+      </c>
+      <c r="AJ426">
+        <v>0</v>
+      </c>
+      <c r="AK426">
+        <v>0</v>
+      </c>
+      <c r="AL426">
+        <v>0</v>
+      </c>
+      <c r="AM426">
+        <v>0</v>
+      </c>
+      <c r="AN426">
+        <v>0</v>
+      </c>
+      <c r="AO426">
+        <v>0</v>
+      </c>
+      <c r="AP426">
+        <v>0</v>
+      </c>
+      <c r="AQ426">
+        <v>0</v>
+      </c>
+      <c r="AR426">
+        <v>0</v>
+      </c>
+      <c r="AS426">
+        <v>0</v>
+      </c>
+      <c r="AT426">
+        <v>0</v>
+      </c>
+      <c r="AU426">
+        <v>0</v>
+      </c>
+      <c r="AV426">
+        <v>0</v>
+      </c>
+      <c r="AW426">
+        <v>0</v>
+      </c>
+      <c r="AX426">
+        <v>0</v>
+      </c>
+      <c r="AY426">
+        <v>0</v>
+      </c>
+      <c r="AZ426">
+        <v>0</v>
+      </c>
+      <c r="BA426">
+        <v>3</v>
+      </c>
+      <c r="BB426">
+        <v>4</v>
+      </c>
+      <c r="BC426">
+        <v>22</v>
+      </c>
+      <c r="BD426">
+        <v>29</v>
+      </c>
+      <c r="BE426">
+        <v>10</v>
+      </c>
+      <c r="BF426">
+        <v>2</v>
+      </c>
+      <c r="BG426">
+        <v>16</v>
+      </c>
+      <c r="BH426">
+        <v>12</v>
+      </c>
+      <c r="BI426">
+        <v>14</v>
+      </c>
+      <c r="BJ426">
+        <v>4</v>
+      </c>
+      <c r="BK426">
+        <v>2</v>
+      </c>
+      <c r="BL426">
+        <v>60</v>
+      </c>
+      <c r="BM426">
+        <v>14</v>
+      </c>
+      <c r="BN426">
+        <v>25</v>
+      </c>
+      <c r="BO426">
+        <v>49</v>
+      </c>
+      <c r="BP426">
+        <v>147</v>
+      </c>
+      <c r="BQ426">
+        <v>223</v>
+      </c>
+      <c r="BR426">
+        <v>608</v>
+      </c>
+      <c r="BS426">
+        <v>1240</v>
+      </c>
+      <c r="BT426">
+        <v>2306</v>
+      </c>
+      <c r="BU426" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV426" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW426" t="s">
+        <v>314</v>
+      </c>
+      <c r="BX426" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY426" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ426" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA426" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB426" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC426" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD426" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE426" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF426" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="427" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>84</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C427" t="s">
+        <v>185</v>
+      </c>
+      <c r="D427" t="s">
+        <v>86</v>
+      </c>
+      <c r="E427" t="s">
+        <v>163</v>
+      </c>
+      <c r="F427" t="s">
+        <v>173</v>
+      </c>
+      <c r="G427" t="s">
+        <v>89</v>
+      </c>
+      <c r="H427" t="s">
+        <v>415</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+      <c r="M427">
+        <v>0</v>
+      </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
+        <v>0</v>
+      </c>
+      <c r="P427">
+        <v>0</v>
+      </c>
+      <c r="Q427">
+        <v>0</v>
+      </c>
+      <c r="R427">
+        <v>0</v>
+      </c>
+      <c r="S427">
+        <v>0</v>
+      </c>
+      <c r="T427">
+        <v>0</v>
+      </c>
+      <c r="U427">
+        <v>0</v>
+      </c>
+      <c r="V427">
+        <v>0</v>
+      </c>
+      <c r="W427">
+        <v>0</v>
+      </c>
+      <c r="X427">
+        <v>0</v>
+      </c>
+      <c r="Y427">
+        <v>0</v>
+      </c>
+      <c r="Z427">
+        <v>0</v>
+      </c>
+      <c r="AA427">
+        <v>0</v>
+      </c>
+      <c r="AB427">
+        <v>0</v>
+      </c>
+      <c r="AC427">
+        <v>0</v>
+      </c>
+      <c r="AD427">
+        <v>0</v>
+      </c>
+      <c r="AE427">
+        <v>0</v>
+      </c>
+      <c r="AF427">
+        <v>0</v>
+      </c>
+      <c r="AG427">
+        <v>0</v>
+      </c>
+      <c r="AH427">
+        <v>0</v>
+      </c>
+      <c r="AI427">
+        <v>0</v>
+      </c>
+      <c r="AJ427">
+        <v>0</v>
+      </c>
+      <c r="AK427">
+        <v>0</v>
+      </c>
+      <c r="AL427">
+        <v>0</v>
+      </c>
+      <c r="AM427">
+        <v>0</v>
+      </c>
+      <c r="AN427">
+        <v>0</v>
+      </c>
+      <c r="AO427">
+        <v>0</v>
+      </c>
+      <c r="AP427">
+        <v>0</v>
+      </c>
+      <c r="AQ427">
+        <v>0</v>
+      </c>
+      <c r="AR427">
+        <v>0</v>
+      </c>
+      <c r="AS427">
+        <v>0</v>
+      </c>
+      <c r="AT427">
+        <v>0</v>
+      </c>
+      <c r="AU427">
+        <v>0</v>
+      </c>
+      <c r="AV427">
+        <v>0</v>
+      </c>
+      <c r="AW427">
+        <v>0</v>
+      </c>
+      <c r="AX427">
+        <v>0</v>
+      </c>
+      <c r="AY427">
+        <v>0</v>
+      </c>
+      <c r="AZ427">
+        <v>0</v>
+      </c>
+      <c r="BA427">
+        <v>0</v>
+      </c>
+      <c r="BB427">
+        <v>0</v>
+      </c>
+      <c r="BC427">
+        <v>0</v>
+      </c>
+      <c r="BD427">
+        <v>0</v>
+      </c>
+      <c r="BE427">
+        <v>1</v>
+      </c>
+      <c r="BF427">
+        <v>2</v>
+      </c>
+      <c r="BG427">
+        <v>9</v>
+      </c>
+      <c r="BH427">
+        <v>20</v>
+      </c>
+      <c r="BI427">
+        <v>26</v>
+      </c>
+      <c r="BJ427">
+        <v>15</v>
+      </c>
+      <c r="BK427">
+        <v>10</v>
+      </c>
+      <c r="BL427">
+        <v>83</v>
+      </c>
+      <c r="BM427">
+        <v>43</v>
+      </c>
+      <c r="BN427">
+        <v>32</v>
+      </c>
+      <c r="BO427">
+        <v>95</v>
+      </c>
+      <c r="BP427">
+        <v>163</v>
+      </c>
+      <c r="BQ427">
+        <v>437</v>
+      </c>
+      <c r="BR427">
+        <v>244</v>
+      </c>
+      <c r="BS427">
+        <v>116</v>
+      </c>
+      <c r="BT427">
+        <v>1130</v>
+      </c>
+      <c r="BU427" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV427" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW427" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX427" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY427" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ427" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA427" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB427" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC427" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD427" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE427" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF427" t="s">
+        <v>591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 995.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8436" uniqueCount="730">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2138,6 +2138,78 @@
   <si>
     <t>280</t>
   </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>LUZ.ESCOBAR@IDIME.CO..COM</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>ADRIIBU13@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>2756</t>
+  </si>
+  <si>
+    <t>2757</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE EWSTADISTICA</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>YESENNIA SALAZAR</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>DIANA PATRICAI MAPPE GOMEZ</t>
+  </si>
+  <si>
+    <t>3135910</t>
+  </si>
 </sst>
 </file>
 
@@ -2520,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF427"/>
+  <dimension ref="A1:CF465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -87690,28 +87762,28 @@
         <v>554</v>
       </c>
       <c r="Y336">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z336">
         <v>0</v>
       </c>
       <c r="AA336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB336">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD336">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE336">
         <v>0</v>
       </c>
       <c r="AF336">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG336">
         <v>3</v>
@@ -87834,10 +87906,10 @@
         <v>1628</v>
       </c>
       <c r="BU336" t="s">
-        <v>91</v>
+        <v>480</v>
       </c>
       <c r="BV336" s="1">
-        <v>44998</v>
+        <v>45014</v>
       </c>
       <c r="BW336" t="s">
         <v>149</v>
@@ -110982,6 +111054,9658 @@
       </c>
       <c r="CF427" t="s">
         <v>591</v>
+      </c>
+    </row>
+    <row r="428" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>84</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C428" t="s">
+        <v>178</v>
+      </c>
+      <c r="D428" t="s">
+        <v>86</v>
+      </c>
+      <c r="E428" t="s">
+        <v>305</v>
+      </c>
+      <c r="F428" t="s">
+        <v>88</v>
+      </c>
+      <c r="G428" t="s">
+        <v>89</v>
+      </c>
+      <c r="H428" t="s">
+        <v>706</v>
+      </c>
+      <c r="I428">
+        <v>2</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
+      <c r="P428">
+        <v>2</v>
+      </c>
+      <c r="Q428">
+        <v>4</v>
+      </c>
+      <c r="R428">
+        <v>0</v>
+      </c>
+      <c r="S428">
+        <v>2</v>
+      </c>
+      <c r="T428">
+        <v>7</v>
+      </c>
+      <c r="U428">
+        <v>7</v>
+      </c>
+      <c r="V428">
+        <v>0</v>
+      </c>
+      <c r="W428">
+        <v>17</v>
+      </c>
+      <c r="X428">
+        <v>37</v>
+      </c>
+      <c r="Y428">
+        <v>0</v>
+      </c>
+      <c r="Z428">
+        <v>0</v>
+      </c>
+      <c r="AA428">
+        <v>0</v>
+      </c>
+      <c r="AB428">
+        <v>0</v>
+      </c>
+      <c r="AC428">
+        <v>0</v>
+      </c>
+      <c r="AD428">
+        <v>0</v>
+      </c>
+      <c r="AE428">
+        <v>0</v>
+      </c>
+      <c r="AF428">
+        <v>0</v>
+      </c>
+      <c r="AG428">
+        <v>0</v>
+      </c>
+      <c r="AH428">
+        <v>0</v>
+      </c>
+      <c r="AI428">
+        <v>0</v>
+      </c>
+      <c r="AJ428">
+        <v>0</v>
+      </c>
+      <c r="AK428">
+        <v>0</v>
+      </c>
+      <c r="AL428">
+        <v>0</v>
+      </c>
+      <c r="AM428">
+        <v>0</v>
+      </c>
+      <c r="AN428">
+        <v>0</v>
+      </c>
+      <c r="AO428">
+        <v>0</v>
+      </c>
+      <c r="AP428">
+        <v>0</v>
+      </c>
+      <c r="AQ428">
+        <v>0</v>
+      </c>
+      <c r="AR428">
+        <v>0</v>
+      </c>
+      <c r="AS428">
+        <v>0</v>
+      </c>
+      <c r="AT428">
+        <v>0</v>
+      </c>
+      <c r="AU428">
+        <v>0</v>
+      </c>
+      <c r="AV428">
+        <v>0</v>
+      </c>
+      <c r="AW428">
+        <v>0</v>
+      </c>
+      <c r="AX428">
+        <v>0</v>
+      </c>
+      <c r="AY428">
+        <v>0</v>
+      </c>
+      <c r="AZ428">
+        <v>0</v>
+      </c>
+      <c r="BA428">
+        <v>0</v>
+      </c>
+      <c r="BB428">
+        <v>0</v>
+      </c>
+      <c r="BC428">
+        <v>0</v>
+      </c>
+      <c r="BD428">
+        <v>0</v>
+      </c>
+      <c r="BE428">
+        <v>4</v>
+      </c>
+      <c r="BF428">
+        <v>3</v>
+      </c>
+      <c r="BG428">
+        <v>3</v>
+      </c>
+      <c r="BH428">
+        <v>3</v>
+      </c>
+      <c r="BI428">
+        <v>2</v>
+      </c>
+      <c r="BJ428">
+        <v>1</v>
+      </c>
+      <c r="BK428">
+        <v>0</v>
+      </c>
+      <c r="BL428">
+        <v>16</v>
+      </c>
+      <c r="BM428">
+        <v>17</v>
+      </c>
+      <c r="BN428">
+        <v>6</v>
+      </c>
+      <c r="BO428">
+        <v>16</v>
+      </c>
+      <c r="BP428">
+        <v>56</v>
+      </c>
+      <c r="BQ428">
+        <v>58</v>
+      </c>
+      <c r="BR428">
+        <v>100</v>
+      </c>
+      <c r="BS428">
+        <v>184</v>
+      </c>
+      <c r="BT428">
+        <v>437</v>
+      </c>
+      <c r="BU428" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV428" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW428" t="s">
+        <v>307</v>
+      </c>
+      <c r="BX428" t="s">
+        <v>308</v>
+      </c>
+      <c r="BY428" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ428" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA428" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB428" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC428" t="s">
+        <v>311</v>
+      </c>
+      <c r="CD428" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE428" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF428" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="429" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>84</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C429" t="s">
+        <v>178</v>
+      </c>
+      <c r="D429" t="s">
+        <v>86</v>
+      </c>
+      <c r="E429" t="s">
+        <v>204</v>
+      </c>
+      <c r="F429" t="s">
+        <v>88</v>
+      </c>
+      <c r="G429" t="s">
+        <v>89</v>
+      </c>
+      <c r="H429" t="s">
+        <v>453</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
+      <c r="P429">
+        <v>0</v>
+      </c>
+      <c r="Q429">
+        <v>0</v>
+      </c>
+      <c r="R429">
+        <v>0</v>
+      </c>
+      <c r="S429">
+        <v>0</v>
+      </c>
+      <c r="T429">
+        <v>0</v>
+      </c>
+      <c r="U429">
+        <v>0</v>
+      </c>
+      <c r="V429">
+        <v>0</v>
+      </c>
+      <c r="W429">
+        <v>0</v>
+      </c>
+      <c r="X429">
+        <v>0</v>
+      </c>
+      <c r="Y429">
+        <v>0</v>
+      </c>
+      <c r="Z429">
+        <v>0</v>
+      </c>
+      <c r="AA429">
+        <v>0</v>
+      </c>
+      <c r="AB429">
+        <v>0</v>
+      </c>
+      <c r="AC429">
+        <v>0</v>
+      </c>
+      <c r="AD429">
+        <v>0</v>
+      </c>
+      <c r="AE429">
+        <v>0</v>
+      </c>
+      <c r="AF429">
+        <v>0</v>
+      </c>
+      <c r="AG429">
+        <v>0</v>
+      </c>
+      <c r="AH429">
+        <v>0</v>
+      </c>
+      <c r="AI429">
+        <v>0</v>
+      </c>
+      <c r="AJ429">
+        <v>0</v>
+      </c>
+      <c r="AK429">
+        <v>0</v>
+      </c>
+      <c r="AL429">
+        <v>0</v>
+      </c>
+      <c r="AM429">
+        <v>0</v>
+      </c>
+      <c r="AN429">
+        <v>0</v>
+      </c>
+      <c r="AO429">
+        <v>0</v>
+      </c>
+      <c r="AP429">
+        <v>0</v>
+      </c>
+      <c r="AQ429">
+        <v>0</v>
+      </c>
+      <c r="AR429">
+        <v>0</v>
+      </c>
+      <c r="AS429">
+        <v>0</v>
+      </c>
+      <c r="AT429">
+        <v>0</v>
+      </c>
+      <c r="AU429">
+        <v>0</v>
+      </c>
+      <c r="AV429">
+        <v>0</v>
+      </c>
+      <c r="AW429">
+        <v>0</v>
+      </c>
+      <c r="AX429">
+        <v>0</v>
+      </c>
+      <c r="AY429">
+        <v>0</v>
+      </c>
+      <c r="AZ429">
+        <v>0</v>
+      </c>
+      <c r="BA429">
+        <v>0</v>
+      </c>
+      <c r="BB429">
+        <v>0</v>
+      </c>
+      <c r="BC429">
+        <v>0</v>
+      </c>
+      <c r="BD429">
+        <v>0</v>
+      </c>
+      <c r="BE429">
+        <v>0</v>
+      </c>
+      <c r="BF429">
+        <v>0</v>
+      </c>
+      <c r="BG429">
+        <v>8</v>
+      </c>
+      <c r="BH429">
+        <v>23</v>
+      </c>
+      <c r="BI429">
+        <v>35</v>
+      </c>
+      <c r="BJ429">
+        <v>16</v>
+      </c>
+      <c r="BK429">
+        <v>3</v>
+      </c>
+      <c r="BL429">
+        <v>85</v>
+      </c>
+      <c r="BM429">
+        <v>71</v>
+      </c>
+      <c r="BN429">
+        <v>48</v>
+      </c>
+      <c r="BO429">
+        <v>151</v>
+      </c>
+      <c r="BP429">
+        <v>760</v>
+      </c>
+      <c r="BQ429">
+        <v>2029</v>
+      </c>
+      <c r="BR429">
+        <v>1681</v>
+      </c>
+      <c r="BS429">
+        <v>1188</v>
+      </c>
+      <c r="BT429">
+        <v>5928</v>
+      </c>
+      <c r="BU429" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV429" s="1">
+        <v>45017</v>
+      </c>
+      <c r="BW429" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX429" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY429" t="s">
+        <v>208</v>
+      </c>
+      <c r="BZ429" t="s">
+        <v>209</v>
+      </c>
+      <c r="CA429" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB429" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC429" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD429" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE429" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF429" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="430" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>84</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C430" t="s">
+        <v>178</v>
+      </c>
+      <c r="D430" t="s">
+        <v>86</v>
+      </c>
+      <c r="E430" t="s">
+        <v>184</v>
+      </c>
+      <c r="F430" t="s">
+        <v>185</v>
+      </c>
+      <c r="G430" t="s">
+        <v>89</v>
+      </c>
+      <c r="H430" t="s">
+        <v>563</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430">
+        <v>0</v>
+      </c>
+      <c r="P430">
+        <v>0</v>
+      </c>
+      <c r="Q430">
+        <v>0</v>
+      </c>
+      <c r="R430">
+        <v>0</v>
+      </c>
+      <c r="S430">
+        <v>0</v>
+      </c>
+      <c r="T430">
+        <v>0</v>
+      </c>
+      <c r="U430">
+        <v>0</v>
+      </c>
+      <c r="V430">
+        <v>0</v>
+      </c>
+      <c r="W430">
+        <v>0</v>
+      </c>
+      <c r="X430">
+        <v>0</v>
+      </c>
+      <c r="Y430">
+        <v>0</v>
+      </c>
+      <c r="Z430">
+        <v>0</v>
+      </c>
+      <c r="AA430">
+        <v>0</v>
+      </c>
+      <c r="AB430">
+        <v>0</v>
+      </c>
+      <c r="AC430">
+        <v>0</v>
+      </c>
+      <c r="AD430">
+        <v>0</v>
+      </c>
+      <c r="AE430">
+        <v>0</v>
+      </c>
+      <c r="AF430">
+        <v>0</v>
+      </c>
+      <c r="AG430">
+        <v>0</v>
+      </c>
+      <c r="AH430">
+        <v>0</v>
+      </c>
+      <c r="AI430">
+        <v>0</v>
+      </c>
+      <c r="AJ430">
+        <v>0</v>
+      </c>
+      <c r="AK430">
+        <v>0</v>
+      </c>
+      <c r="AL430">
+        <v>0</v>
+      </c>
+      <c r="AM430">
+        <v>0</v>
+      </c>
+      <c r="AN430">
+        <v>0</v>
+      </c>
+      <c r="AO430">
+        <v>0</v>
+      </c>
+      <c r="AP430">
+        <v>0</v>
+      </c>
+      <c r="AQ430">
+        <v>0</v>
+      </c>
+      <c r="AR430">
+        <v>0</v>
+      </c>
+      <c r="AS430">
+        <v>0</v>
+      </c>
+      <c r="AT430">
+        <v>0</v>
+      </c>
+      <c r="AU430">
+        <v>0</v>
+      </c>
+      <c r="AV430">
+        <v>0</v>
+      </c>
+      <c r="AW430">
+        <v>0</v>
+      </c>
+      <c r="AX430">
+        <v>0</v>
+      </c>
+      <c r="AY430">
+        <v>0</v>
+      </c>
+      <c r="AZ430">
+        <v>0</v>
+      </c>
+      <c r="BA430">
+        <v>0</v>
+      </c>
+      <c r="BB430">
+        <v>0</v>
+      </c>
+      <c r="BC430">
+        <v>0</v>
+      </c>
+      <c r="BD430">
+        <v>0</v>
+      </c>
+      <c r="BE430">
+        <v>0</v>
+      </c>
+      <c r="BF430">
+        <v>2</v>
+      </c>
+      <c r="BG430">
+        <v>2</v>
+      </c>
+      <c r="BH430">
+        <v>0</v>
+      </c>
+      <c r="BI430">
+        <v>5</v>
+      </c>
+      <c r="BJ430">
+        <v>4</v>
+      </c>
+      <c r="BK430">
+        <v>0</v>
+      </c>
+      <c r="BL430">
+        <v>13</v>
+      </c>
+      <c r="BM430">
+        <v>14</v>
+      </c>
+      <c r="BN430">
+        <v>36</v>
+      </c>
+      <c r="BO430">
+        <v>42</v>
+      </c>
+      <c r="BP430">
+        <v>150</v>
+      </c>
+      <c r="BQ430">
+        <v>652</v>
+      </c>
+      <c r="BR430">
+        <v>120</v>
+      </c>
+      <c r="BS430">
+        <v>2506</v>
+      </c>
+      <c r="BT430">
+        <v>3520</v>
+      </c>
+      <c r="BU430" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV430" s="1">
+        <v>45017</v>
+      </c>
+      <c r="BW430" t="s">
+        <v>187</v>
+      </c>
+      <c r="BX430" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY430" t="s">
+        <v>558</v>
+      </c>
+      <c r="BZ430" t="s">
+        <v>707</v>
+      </c>
+      <c r="CA430" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB430" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC430" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD430" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE430" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF430" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="431" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>84</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C431" t="s">
+        <v>178</v>
+      </c>
+      <c r="D431" t="s">
+        <v>86</v>
+      </c>
+      <c r="E431" t="s">
+        <v>87</v>
+      </c>
+      <c r="F431" t="s">
+        <v>88</v>
+      </c>
+      <c r="G431" t="s">
+        <v>89</v>
+      </c>
+      <c r="H431" t="s">
+        <v>708</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>1</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431">
+        <v>0</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <v>1</v>
+      </c>
+      <c r="Q431">
+        <v>0</v>
+      </c>
+      <c r="R431">
+        <v>1</v>
+      </c>
+      <c r="S431">
+        <v>1</v>
+      </c>
+      <c r="T431">
+        <v>5</v>
+      </c>
+      <c r="U431">
+        <v>5</v>
+      </c>
+      <c r="V431">
+        <v>2</v>
+      </c>
+      <c r="W431">
+        <v>6</v>
+      </c>
+      <c r="X431">
+        <v>20</v>
+      </c>
+      <c r="Y431">
+        <v>0</v>
+      </c>
+      <c r="Z431">
+        <v>0</v>
+      </c>
+      <c r="AA431">
+        <v>0</v>
+      </c>
+      <c r="AB431">
+        <v>0</v>
+      </c>
+      <c r="AC431">
+        <v>0</v>
+      </c>
+      <c r="AD431">
+        <v>0</v>
+      </c>
+      <c r="AE431">
+        <v>0</v>
+      </c>
+      <c r="AF431">
+        <v>0</v>
+      </c>
+      <c r="AG431">
+        <v>0</v>
+      </c>
+      <c r="AH431">
+        <v>0</v>
+      </c>
+      <c r="AI431">
+        <v>0</v>
+      </c>
+      <c r="AJ431">
+        <v>0</v>
+      </c>
+      <c r="AK431">
+        <v>0</v>
+      </c>
+      <c r="AL431">
+        <v>0</v>
+      </c>
+      <c r="AM431">
+        <v>0</v>
+      </c>
+      <c r="AN431">
+        <v>0</v>
+      </c>
+      <c r="AO431">
+        <v>0</v>
+      </c>
+      <c r="AP431">
+        <v>0</v>
+      </c>
+      <c r="AQ431">
+        <v>0</v>
+      </c>
+      <c r="AR431">
+        <v>0</v>
+      </c>
+      <c r="AS431">
+        <v>0</v>
+      </c>
+      <c r="AT431">
+        <v>0</v>
+      </c>
+      <c r="AU431">
+        <v>0</v>
+      </c>
+      <c r="AV431">
+        <v>0</v>
+      </c>
+      <c r="AW431">
+        <v>0</v>
+      </c>
+      <c r="AX431">
+        <v>0</v>
+      </c>
+      <c r="AY431">
+        <v>0</v>
+      </c>
+      <c r="AZ431">
+        <v>0</v>
+      </c>
+      <c r="BA431">
+        <v>0</v>
+      </c>
+      <c r="BB431">
+        <v>0</v>
+      </c>
+      <c r="BC431">
+        <v>0</v>
+      </c>
+      <c r="BD431">
+        <v>0</v>
+      </c>
+      <c r="BE431">
+        <v>5</v>
+      </c>
+      <c r="BF431">
+        <v>3</v>
+      </c>
+      <c r="BG431">
+        <v>5</v>
+      </c>
+      <c r="BH431">
+        <v>19</v>
+      </c>
+      <c r="BI431">
+        <v>10</v>
+      </c>
+      <c r="BJ431">
+        <v>5</v>
+      </c>
+      <c r="BK431">
+        <v>7</v>
+      </c>
+      <c r="BL431">
+        <v>54</v>
+      </c>
+      <c r="BM431">
+        <v>21</v>
+      </c>
+      <c r="BN431">
+        <v>23</v>
+      </c>
+      <c r="BO431">
+        <v>35</v>
+      </c>
+      <c r="BP431">
+        <v>180</v>
+      </c>
+      <c r="BQ431">
+        <v>218</v>
+      </c>
+      <c r="BR431">
+        <v>205</v>
+      </c>
+      <c r="BS431">
+        <v>273</v>
+      </c>
+      <c r="BT431">
+        <v>955</v>
+      </c>
+      <c r="BU431" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV431" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW431" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX431" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY431" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ431" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA431" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB431" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC431" t="s">
+        <v>98</v>
+      </c>
+      <c r="CD431" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE431" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF431" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="432" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>84</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C432" t="s">
+        <v>178</v>
+      </c>
+      <c r="D432" t="s">
+        <v>86</v>
+      </c>
+      <c r="E432" t="s">
+        <v>87</v>
+      </c>
+      <c r="F432" t="s">
+        <v>257</v>
+      </c>
+      <c r="G432" t="s">
+        <v>89</v>
+      </c>
+      <c r="H432" t="s">
+        <v>709</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+      <c r="O432">
+        <v>0</v>
+      </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
+      <c r="Q432">
+        <v>0</v>
+      </c>
+      <c r="R432">
+        <v>0</v>
+      </c>
+      <c r="S432">
+        <v>0</v>
+      </c>
+      <c r="T432">
+        <v>0</v>
+      </c>
+      <c r="U432">
+        <v>0</v>
+      </c>
+      <c r="V432">
+        <v>0</v>
+      </c>
+      <c r="W432">
+        <v>0</v>
+      </c>
+      <c r="X432">
+        <v>0</v>
+      </c>
+      <c r="Y432">
+        <v>0</v>
+      </c>
+      <c r="Z432">
+        <v>0</v>
+      </c>
+      <c r="AA432">
+        <v>0</v>
+      </c>
+      <c r="AB432">
+        <v>0</v>
+      </c>
+      <c r="AC432">
+        <v>0</v>
+      </c>
+      <c r="AD432">
+        <v>0</v>
+      </c>
+      <c r="AE432">
+        <v>0</v>
+      </c>
+      <c r="AF432">
+        <v>0</v>
+      </c>
+      <c r="AG432">
+        <v>0</v>
+      </c>
+      <c r="AH432">
+        <v>0</v>
+      </c>
+      <c r="AI432">
+        <v>0</v>
+      </c>
+      <c r="AJ432">
+        <v>0</v>
+      </c>
+      <c r="AK432">
+        <v>0</v>
+      </c>
+      <c r="AL432">
+        <v>0</v>
+      </c>
+      <c r="AM432">
+        <v>0</v>
+      </c>
+      <c r="AN432">
+        <v>0</v>
+      </c>
+      <c r="AO432">
+        <v>0</v>
+      </c>
+      <c r="AP432">
+        <v>0</v>
+      </c>
+      <c r="AQ432">
+        <v>0</v>
+      </c>
+      <c r="AR432">
+        <v>0</v>
+      </c>
+      <c r="AS432">
+        <v>0</v>
+      </c>
+      <c r="AT432">
+        <v>0</v>
+      </c>
+      <c r="AU432">
+        <v>0</v>
+      </c>
+      <c r="AV432">
+        <v>0</v>
+      </c>
+      <c r="AW432">
+        <v>0</v>
+      </c>
+      <c r="AX432">
+        <v>0</v>
+      </c>
+      <c r="AY432">
+        <v>0</v>
+      </c>
+      <c r="AZ432">
+        <v>0</v>
+      </c>
+      <c r="BA432">
+        <v>0</v>
+      </c>
+      <c r="BB432">
+        <v>0</v>
+      </c>
+      <c r="BC432">
+        <v>0</v>
+      </c>
+      <c r="BD432">
+        <v>0</v>
+      </c>
+      <c r="BE432">
+        <v>0</v>
+      </c>
+      <c r="BF432">
+        <v>0</v>
+      </c>
+      <c r="BG432">
+        <v>1</v>
+      </c>
+      <c r="BH432">
+        <v>2</v>
+      </c>
+      <c r="BI432">
+        <v>0</v>
+      </c>
+      <c r="BJ432">
+        <v>2</v>
+      </c>
+      <c r="BK432">
+        <v>1</v>
+      </c>
+      <c r="BL432">
+        <v>6</v>
+      </c>
+      <c r="BM432">
+        <v>8</v>
+      </c>
+      <c r="BN432">
+        <v>4</v>
+      </c>
+      <c r="BO432">
+        <v>20</v>
+      </c>
+      <c r="BP432">
+        <v>60</v>
+      </c>
+      <c r="BQ432">
+        <v>63</v>
+      </c>
+      <c r="BR432">
+        <v>129</v>
+      </c>
+      <c r="BS432">
+        <v>105</v>
+      </c>
+      <c r="BT432">
+        <v>389</v>
+      </c>
+      <c r="BU432" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV432" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW432" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX432" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY432" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ432" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA432" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB432" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC432" t="s">
+        <v>260</v>
+      </c>
+      <c r="CD432" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE432" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF432" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="433" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>84</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C433" t="s">
+        <v>178</v>
+      </c>
+      <c r="D433" t="s">
+        <v>86</v>
+      </c>
+      <c r="E433" t="s">
+        <v>87</v>
+      </c>
+      <c r="F433" t="s">
+        <v>358</v>
+      </c>
+      <c r="G433" t="s">
+        <v>89</v>
+      </c>
+      <c r="H433" t="s">
+        <v>710</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>0</v>
+      </c>
+      <c r="L433">
+        <v>0</v>
+      </c>
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+      <c r="O433">
+        <v>0</v>
+      </c>
+      <c r="P433">
+        <v>0</v>
+      </c>
+      <c r="Q433">
+        <v>0</v>
+      </c>
+      <c r="R433">
+        <v>0</v>
+      </c>
+      <c r="S433">
+        <v>0</v>
+      </c>
+      <c r="T433">
+        <v>0</v>
+      </c>
+      <c r="U433">
+        <v>0</v>
+      </c>
+      <c r="V433">
+        <v>0</v>
+      </c>
+      <c r="W433">
+        <v>0</v>
+      </c>
+      <c r="X433">
+        <v>0</v>
+      </c>
+      <c r="Y433">
+        <v>0</v>
+      </c>
+      <c r="Z433">
+        <v>0</v>
+      </c>
+      <c r="AA433">
+        <v>0</v>
+      </c>
+      <c r="AB433">
+        <v>0</v>
+      </c>
+      <c r="AC433">
+        <v>0</v>
+      </c>
+      <c r="AD433">
+        <v>0</v>
+      </c>
+      <c r="AE433">
+        <v>0</v>
+      </c>
+      <c r="AF433">
+        <v>0</v>
+      </c>
+      <c r="AG433">
+        <v>0</v>
+      </c>
+      <c r="AH433">
+        <v>0</v>
+      </c>
+      <c r="AI433">
+        <v>0</v>
+      </c>
+      <c r="AJ433">
+        <v>0</v>
+      </c>
+      <c r="AK433">
+        <v>0</v>
+      </c>
+      <c r="AL433">
+        <v>0</v>
+      </c>
+      <c r="AM433">
+        <v>0</v>
+      </c>
+      <c r="AN433">
+        <v>0</v>
+      </c>
+      <c r="AO433">
+        <v>0</v>
+      </c>
+      <c r="AP433">
+        <v>0</v>
+      </c>
+      <c r="AQ433">
+        <v>0</v>
+      </c>
+      <c r="AR433">
+        <v>0</v>
+      </c>
+      <c r="AS433">
+        <v>0</v>
+      </c>
+      <c r="AT433">
+        <v>0</v>
+      </c>
+      <c r="AU433">
+        <v>0</v>
+      </c>
+      <c r="AV433">
+        <v>0</v>
+      </c>
+      <c r="AW433">
+        <v>0</v>
+      </c>
+      <c r="AX433">
+        <v>0</v>
+      </c>
+      <c r="AY433">
+        <v>0</v>
+      </c>
+      <c r="AZ433">
+        <v>0</v>
+      </c>
+      <c r="BA433">
+        <v>0</v>
+      </c>
+      <c r="BB433">
+        <v>0</v>
+      </c>
+      <c r="BC433">
+        <v>0</v>
+      </c>
+      <c r="BD433">
+        <v>0</v>
+      </c>
+      <c r="BE433">
+        <v>0</v>
+      </c>
+      <c r="BF433">
+        <v>0</v>
+      </c>
+      <c r="BG433">
+        <v>1</v>
+      </c>
+      <c r="BH433">
+        <v>2</v>
+      </c>
+      <c r="BI433">
+        <v>0</v>
+      </c>
+      <c r="BJ433">
+        <v>1</v>
+      </c>
+      <c r="BK433">
+        <v>1</v>
+      </c>
+      <c r="BL433">
+        <v>5</v>
+      </c>
+      <c r="BM433">
+        <v>7</v>
+      </c>
+      <c r="BN433">
+        <v>6</v>
+      </c>
+      <c r="BO433">
+        <v>11</v>
+      </c>
+      <c r="BP433">
+        <v>21</v>
+      </c>
+      <c r="BQ433">
+        <v>14</v>
+      </c>
+      <c r="BR433">
+        <v>30</v>
+      </c>
+      <c r="BS433">
+        <v>24</v>
+      </c>
+      <c r="BT433">
+        <v>113</v>
+      </c>
+      <c r="BU433" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV433" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW433" t="s">
+        <v>350</v>
+      </c>
+      <c r="BX433" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY433" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ433" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA433" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB433" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC433" t="s">
+        <v>362</v>
+      </c>
+      <c r="CD433" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE433" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF433" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="434" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>84</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C434" t="s">
+        <v>178</v>
+      </c>
+      <c r="D434" t="s">
+        <v>86</v>
+      </c>
+      <c r="E434" t="s">
+        <v>87</v>
+      </c>
+      <c r="F434" t="s">
+        <v>297</v>
+      </c>
+      <c r="G434" t="s">
+        <v>89</v>
+      </c>
+      <c r="H434" t="s">
+        <v>695</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>0</v>
+      </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
+      <c r="P434">
+        <v>0</v>
+      </c>
+      <c r="Q434">
+        <v>0</v>
+      </c>
+      <c r="R434">
+        <v>0</v>
+      </c>
+      <c r="S434">
+        <v>0</v>
+      </c>
+      <c r="T434">
+        <v>0</v>
+      </c>
+      <c r="U434">
+        <v>0</v>
+      </c>
+      <c r="V434">
+        <v>0</v>
+      </c>
+      <c r="W434">
+        <v>0</v>
+      </c>
+      <c r="X434">
+        <v>0</v>
+      </c>
+      <c r="Y434">
+        <v>0</v>
+      </c>
+      <c r="Z434">
+        <v>0</v>
+      </c>
+      <c r="AA434">
+        <v>0</v>
+      </c>
+      <c r="AB434">
+        <v>0</v>
+      </c>
+      <c r="AC434">
+        <v>0</v>
+      </c>
+      <c r="AD434">
+        <v>0</v>
+      </c>
+      <c r="AE434">
+        <v>0</v>
+      </c>
+      <c r="AF434">
+        <v>0</v>
+      </c>
+      <c r="AG434">
+        <v>0</v>
+      </c>
+      <c r="AH434">
+        <v>0</v>
+      </c>
+      <c r="AI434">
+        <v>0</v>
+      </c>
+      <c r="AJ434">
+        <v>0</v>
+      </c>
+      <c r="AK434">
+        <v>0</v>
+      </c>
+      <c r="AL434">
+        <v>0</v>
+      </c>
+      <c r="AM434">
+        <v>0</v>
+      </c>
+      <c r="AN434">
+        <v>0</v>
+      </c>
+      <c r="AO434">
+        <v>0</v>
+      </c>
+      <c r="AP434">
+        <v>0</v>
+      </c>
+      <c r="AQ434">
+        <v>0</v>
+      </c>
+      <c r="AR434">
+        <v>0</v>
+      </c>
+      <c r="AS434">
+        <v>0</v>
+      </c>
+      <c r="AT434">
+        <v>0</v>
+      </c>
+      <c r="AU434">
+        <v>0</v>
+      </c>
+      <c r="AV434">
+        <v>0</v>
+      </c>
+      <c r="AW434">
+        <v>0</v>
+      </c>
+      <c r="AX434">
+        <v>0</v>
+      </c>
+      <c r="AY434">
+        <v>0</v>
+      </c>
+      <c r="AZ434">
+        <v>0</v>
+      </c>
+      <c r="BA434">
+        <v>0</v>
+      </c>
+      <c r="BB434">
+        <v>0</v>
+      </c>
+      <c r="BC434">
+        <v>0</v>
+      </c>
+      <c r="BD434">
+        <v>0</v>
+      </c>
+      <c r="BE434">
+        <v>1</v>
+      </c>
+      <c r="BF434">
+        <v>3</v>
+      </c>
+      <c r="BG434">
+        <v>10</v>
+      </c>
+      <c r="BH434">
+        <v>13</v>
+      </c>
+      <c r="BI434">
+        <v>4</v>
+      </c>
+      <c r="BJ434">
+        <v>1</v>
+      </c>
+      <c r="BK434">
+        <v>4</v>
+      </c>
+      <c r="BL434">
+        <v>36</v>
+      </c>
+      <c r="BM434">
+        <v>18</v>
+      </c>
+      <c r="BN434">
+        <v>20</v>
+      </c>
+      <c r="BO434">
+        <v>61</v>
+      </c>
+      <c r="BP434">
+        <v>184</v>
+      </c>
+      <c r="BQ434">
+        <v>155</v>
+      </c>
+      <c r="BR434">
+        <v>184</v>
+      </c>
+      <c r="BS434">
+        <v>309</v>
+      </c>
+      <c r="BT434">
+        <v>931</v>
+      </c>
+      <c r="BU434" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV434" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW434" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX434" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY434" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ434" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA434" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB434" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC434" t="s">
+        <v>299</v>
+      </c>
+      <c r="CD434" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE434" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF434" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="435" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>84</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C435" t="s">
+        <v>178</v>
+      </c>
+      <c r="D435" t="s">
+        <v>86</v>
+      </c>
+      <c r="E435" t="s">
+        <v>87</v>
+      </c>
+      <c r="F435" t="s">
+        <v>142</v>
+      </c>
+      <c r="G435" t="s">
+        <v>89</v>
+      </c>
+      <c r="H435" t="s">
+        <v>696</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435">
+        <v>0</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+      <c r="R435">
+        <v>0</v>
+      </c>
+      <c r="S435">
+        <v>0</v>
+      </c>
+      <c r="T435">
+        <v>0</v>
+      </c>
+      <c r="U435">
+        <v>0</v>
+      </c>
+      <c r="V435">
+        <v>0</v>
+      </c>
+      <c r="W435">
+        <v>0</v>
+      </c>
+      <c r="X435">
+        <v>0</v>
+      </c>
+      <c r="Y435">
+        <v>0</v>
+      </c>
+      <c r="Z435">
+        <v>0</v>
+      </c>
+      <c r="AA435">
+        <v>0</v>
+      </c>
+      <c r="AB435">
+        <v>0</v>
+      </c>
+      <c r="AC435">
+        <v>0</v>
+      </c>
+      <c r="AD435">
+        <v>0</v>
+      </c>
+      <c r="AE435">
+        <v>0</v>
+      </c>
+      <c r="AF435">
+        <v>0</v>
+      </c>
+      <c r="AG435">
+        <v>0</v>
+      </c>
+      <c r="AH435">
+        <v>0</v>
+      </c>
+      <c r="AI435">
+        <v>0</v>
+      </c>
+      <c r="AJ435">
+        <v>0</v>
+      </c>
+      <c r="AK435">
+        <v>0</v>
+      </c>
+      <c r="AL435">
+        <v>0</v>
+      </c>
+      <c r="AM435">
+        <v>0</v>
+      </c>
+      <c r="AN435">
+        <v>0</v>
+      </c>
+      <c r="AO435">
+        <v>0</v>
+      </c>
+      <c r="AP435">
+        <v>0</v>
+      </c>
+      <c r="AQ435">
+        <v>0</v>
+      </c>
+      <c r="AR435">
+        <v>0</v>
+      </c>
+      <c r="AS435">
+        <v>0</v>
+      </c>
+      <c r="AT435">
+        <v>0</v>
+      </c>
+      <c r="AU435">
+        <v>0</v>
+      </c>
+      <c r="AV435">
+        <v>0</v>
+      </c>
+      <c r="AW435">
+        <v>0</v>
+      </c>
+      <c r="AX435">
+        <v>0</v>
+      </c>
+      <c r="AY435">
+        <v>0</v>
+      </c>
+      <c r="AZ435">
+        <v>0</v>
+      </c>
+      <c r="BA435">
+        <v>0</v>
+      </c>
+      <c r="BB435">
+        <v>0</v>
+      </c>
+      <c r="BC435">
+        <v>0</v>
+      </c>
+      <c r="BD435">
+        <v>0</v>
+      </c>
+      <c r="BE435">
+        <v>0</v>
+      </c>
+      <c r="BF435">
+        <v>0</v>
+      </c>
+      <c r="BG435">
+        <v>0</v>
+      </c>
+      <c r="BH435">
+        <v>3</v>
+      </c>
+      <c r="BI435">
+        <v>0</v>
+      </c>
+      <c r="BJ435">
+        <v>1</v>
+      </c>
+      <c r="BK435">
+        <v>1</v>
+      </c>
+      <c r="BL435">
+        <v>5</v>
+      </c>
+      <c r="BM435">
+        <v>4</v>
+      </c>
+      <c r="BN435">
+        <v>6</v>
+      </c>
+      <c r="BO435">
+        <v>2</v>
+      </c>
+      <c r="BP435">
+        <v>45</v>
+      </c>
+      <c r="BQ435">
+        <v>44</v>
+      </c>
+      <c r="BR435">
+        <v>52</v>
+      </c>
+      <c r="BS435">
+        <v>68</v>
+      </c>
+      <c r="BT435">
+        <v>221</v>
+      </c>
+      <c r="BU435" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV435" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW435" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX435" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY435" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ435" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA435" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB435" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC435" t="s">
+        <v>367</v>
+      </c>
+      <c r="CD435" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE435" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF435" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="436" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>84</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C436" t="s">
+        <v>178</v>
+      </c>
+      <c r="D436" t="s">
+        <v>86</v>
+      </c>
+      <c r="E436" t="s">
+        <v>87</v>
+      </c>
+      <c r="F436" t="s">
+        <v>116</v>
+      </c>
+      <c r="G436" t="s">
+        <v>89</v>
+      </c>
+      <c r="H436" t="s">
+        <v>697</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436">
+        <v>0</v>
+      </c>
+      <c r="O436">
+        <v>0</v>
+      </c>
+      <c r="P436">
+        <v>0</v>
+      </c>
+      <c r="Q436">
+        <v>0</v>
+      </c>
+      <c r="R436">
+        <v>0</v>
+      </c>
+      <c r="S436">
+        <v>0</v>
+      </c>
+      <c r="T436">
+        <v>0</v>
+      </c>
+      <c r="U436">
+        <v>0</v>
+      </c>
+      <c r="V436">
+        <v>0</v>
+      </c>
+      <c r="W436">
+        <v>0</v>
+      </c>
+      <c r="X436">
+        <v>0</v>
+      </c>
+      <c r="Y436">
+        <v>0</v>
+      </c>
+      <c r="Z436">
+        <v>0</v>
+      </c>
+      <c r="AA436">
+        <v>0</v>
+      </c>
+      <c r="AB436">
+        <v>0</v>
+      </c>
+      <c r="AC436">
+        <v>0</v>
+      </c>
+      <c r="AD436">
+        <v>0</v>
+      </c>
+      <c r="AE436">
+        <v>0</v>
+      </c>
+      <c r="AF436">
+        <v>0</v>
+      </c>
+      <c r="AG436">
+        <v>0</v>
+      </c>
+      <c r="AH436">
+        <v>0</v>
+      </c>
+      <c r="AI436">
+        <v>0</v>
+      </c>
+      <c r="AJ436">
+        <v>0</v>
+      </c>
+      <c r="AK436">
+        <v>0</v>
+      </c>
+      <c r="AL436">
+        <v>0</v>
+      </c>
+      <c r="AM436">
+        <v>0</v>
+      </c>
+      <c r="AN436">
+        <v>0</v>
+      </c>
+      <c r="AO436">
+        <v>0</v>
+      </c>
+      <c r="AP436">
+        <v>0</v>
+      </c>
+      <c r="AQ436">
+        <v>0</v>
+      </c>
+      <c r="AR436">
+        <v>0</v>
+      </c>
+      <c r="AS436">
+        <v>0</v>
+      </c>
+      <c r="AT436">
+        <v>0</v>
+      </c>
+      <c r="AU436">
+        <v>0</v>
+      </c>
+      <c r="AV436">
+        <v>0</v>
+      </c>
+      <c r="AW436">
+        <v>0</v>
+      </c>
+      <c r="AX436">
+        <v>0</v>
+      </c>
+      <c r="AY436">
+        <v>0</v>
+      </c>
+      <c r="AZ436">
+        <v>0</v>
+      </c>
+      <c r="BA436">
+        <v>0</v>
+      </c>
+      <c r="BB436">
+        <v>0</v>
+      </c>
+      <c r="BC436">
+        <v>0</v>
+      </c>
+      <c r="BD436">
+        <v>0</v>
+      </c>
+      <c r="BE436">
+        <v>0</v>
+      </c>
+      <c r="BF436">
+        <v>0</v>
+      </c>
+      <c r="BG436">
+        <v>1</v>
+      </c>
+      <c r="BH436">
+        <v>1</v>
+      </c>
+      <c r="BI436">
+        <v>0</v>
+      </c>
+      <c r="BJ436">
+        <v>0</v>
+      </c>
+      <c r="BK436">
+        <v>0</v>
+      </c>
+      <c r="BL436">
+        <v>2</v>
+      </c>
+      <c r="BM436">
+        <v>4</v>
+      </c>
+      <c r="BN436">
+        <v>5</v>
+      </c>
+      <c r="BO436">
+        <v>18</v>
+      </c>
+      <c r="BP436">
+        <v>44</v>
+      </c>
+      <c r="BQ436">
+        <v>42</v>
+      </c>
+      <c r="BR436">
+        <v>39</v>
+      </c>
+      <c r="BS436">
+        <v>111</v>
+      </c>
+      <c r="BT436">
+        <v>263</v>
+      </c>
+      <c r="BU436" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV436" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW436" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX436" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY436" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ436" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA436" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB436" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC436" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD436" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE436" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF436" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="437" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>84</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C437" t="s">
+        <v>178</v>
+      </c>
+      <c r="D437" t="s">
+        <v>86</v>
+      </c>
+      <c r="E437" t="s">
+        <v>87</v>
+      </c>
+      <c r="F437" t="s">
+        <v>185</v>
+      </c>
+      <c r="G437" t="s">
+        <v>89</v>
+      </c>
+      <c r="H437" t="s">
+        <v>698</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
+      <c r="Q437">
+        <v>0</v>
+      </c>
+      <c r="R437">
+        <v>0</v>
+      </c>
+      <c r="S437">
+        <v>0</v>
+      </c>
+      <c r="T437">
+        <v>0</v>
+      </c>
+      <c r="U437">
+        <v>0</v>
+      </c>
+      <c r="V437">
+        <v>0</v>
+      </c>
+      <c r="W437">
+        <v>0</v>
+      </c>
+      <c r="X437">
+        <v>0</v>
+      </c>
+      <c r="Y437">
+        <v>0</v>
+      </c>
+      <c r="Z437">
+        <v>0</v>
+      </c>
+      <c r="AA437">
+        <v>0</v>
+      </c>
+      <c r="AB437">
+        <v>0</v>
+      </c>
+      <c r="AC437">
+        <v>0</v>
+      </c>
+      <c r="AD437">
+        <v>0</v>
+      </c>
+      <c r="AE437">
+        <v>0</v>
+      </c>
+      <c r="AF437">
+        <v>0</v>
+      </c>
+      <c r="AG437">
+        <v>0</v>
+      </c>
+      <c r="AH437">
+        <v>0</v>
+      </c>
+      <c r="AI437">
+        <v>0</v>
+      </c>
+      <c r="AJ437">
+        <v>0</v>
+      </c>
+      <c r="AK437">
+        <v>0</v>
+      </c>
+      <c r="AL437">
+        <v>0</v>
+      </c>
+      <c r="AM437">
+        <v>0</v>
+      </c>
+      <c r="AN437">
+        <v>0</v>
+      </c>
+      <c r="AO437">
+        <v>0</v>
+      </c>
+      <c r="AP437">
+        <v>0</v>
+      </c>
+      <c r="AQ437">
+        <v>0</v>
+      </c>
+      <c r="AR437">
+        <v>0</v>
+      </c>
+      <c r="AS437">
+        <v>0</v>
+      </c>
+      <c r="AT437">
+        <v>0</v>
+      </c>
+      <c r="AU437">
+        <v>0</v>
+      </c>
+      <c r="AV437">
+        <v>0</v>
+      </c>
+      <c r="AW437">
+        <v>0</v>
+      </c>
+      <c r="AX437">
+        <v>0</v>
+      </c>
+      <c r="AY437">
+        <v>0</v>
+      </c>
+      <c r="AZ437">
+        <v>0</v>
+      </c>
+      <c r="BA437">
+        <v>0</v>
+      </c>
+      <c r="BB437">
+        <v>0</v>
+      </c>
+      <c r="BC437">
+        <v>0</v>
+      </c>
+      <c r="BD437">
+        <v>0</v>
+      </c>
+      <c r="BE437">
+        <v>0</v>
+      </c>
+      <c r="BF437">
+        <v>0</v>
+      </c>
+      <c r="BG437">
+        <v>0</v>
+      </c>
+      <c r="BH437">
+        <v>1</v>
+      </c>
+      <c r="BI437">
+        <v>0</v>
+      </c>
+      <c r="BJ437">
+        <v>0</v>
+      </c>
+      <c r="BK437">
+        <v>0</v>
+      </c>
+      <c r="BL437">
+        <v>1</v>
+      </c>
+      <c r="BM437">
+        <v>0</v>
+      </c>
+      <c r="BN437">
+        <v>1</v>
+      </c>
+      <c r="BO437">
+        <v>0</v>
+      </c>
+      <c r="BP437">
+        <v>16</v>
+      </c>
+      <c r="BQ437">
+        <v>13</v>
+      </c>
+      <c r="BR437">
+        <v>20</v>
+      </c>
+      <c r="BS437">
+        <v>23</v>
+      </c>
+      <c r="BT437">
+        <v>73</v>
+      </c>
+      <c r="BU437" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV437" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW437" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX437" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY437" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ437" t="s">
+        <v>711</v>
+      </c>
+      <c r="CA437" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB437" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC437" t="s">
+        <v>424</v>
+      </c>
+      <c r="CD437" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE437" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF437" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="438" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>84</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C438" t="s">
+        <v>178</v>
+      </c>
+      <c r="D438" t="s">
+        <v>86</v>
+      </c>
+      <c r="E438" t="s">
+        <v>87</v>
+      </c>
+      <c r="F438" t="s">
+        <v>369</v>
+      </c>
+      <c r="G438" t="s">
+        <v>89</v>
+      </c>
+      <c r="H438" t="s">
+        <v>712</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
+      <c r="P438">
+        <v>0</v>
+      </c>
+      <c r="Q438">
+        <v>0</v>
+      </c>
+      <c r="R438">
+        <v>0</v>
+      </c>
+      <c r="S438">
+        <v>0</v>
+      </c>
+      <c r="T438">
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <v>0</v>
+      </c>
+      <c r="W438">
+        <v>0</v>
+      </c>
+      <c r="X438">
+        <v>0</v>
+      </c>
+      <c r="Y438">
+        <v>0</v>
+      </c>
+      <c r="Z438">
+        <v>0</v>
+      </c>
+      <c r="AA438">
+        <v>0</v>
+      </c>
+      <c r="AB438">
+        <v>0</v>
+      </c>
+      <c r="AC438">
+        <v>0</v>
+      </c>
+      <c r="AD438">
+        <v>0</v>
+      </c>
+      <c r="AE438">
+        <v>0</v>
+      </c>
+      <c r="AF438">
+        <v>0</v>
+      </c>
+      <c r="AG438">
+        <v>0</v>
+      </c>
+      <c r="AH438">
+        <v>0</v>
+      </c>
+      <c r="AI438">
+        <v>0</v>
+      </c>
+      <c r="AJ438">
+        <v>0</v>
+      </c>
+      <c r="AK438">
+        <v>0</v>
+      </c>
+      <c r="AL438">
+        <v>0</v>
+      </c>
+      <c r="AM438">
+        <v>0</v>
+      </c>
+      <c r="AN438">
+        <v>0</v>
+      </c>
+      <c r="AO438">
+        <v>0</v>
+      </c>
+      <c r="AP438">
+        <v>0</v>
+      </c>
+      <c r="AQ438">
+        <v>0</v>
+      </c>
+      <c r="AR438">
+        <v>0</v>
+      </c>
+      <c r="AS438">
+        <v>0</v>
+      </c>
+      <c r="AT438">
+        <v>0</v>
+      </c>
+      <c r="AU438">
+        <v>0</v>
+      </c>
+      <c r="AV438">
+        <v>0</v>
+      </c>
+      <c r="AW438">
+        <v>0</v>
+      </c>
+      <c r="AX438">
+        <v>0</v>
+      </c>
+      <c r="AY438">
+        <v>0</v>
+      </c>
+      <c r="AZ438">
+        <v>0</v>
+      </c>
+      <c r="BA438">
+        <v>0</v>
+      </c>
+      <c r="BB438">
+        <v>0</v>
+      </c>
+      <c r="BC438">
+        <v>0</v>
+      </c>
+      <c r="BD438">
+        <v>0</v>
+      </c>
+      <c r="BE438">
+        <v>0</v>
+      </c>
+      <c r="BF438">
+        <v>0</v>
+      </c>
+      <c r="BG438">
+        <v>0</v>
+      </c>
+      <c r="BH438">
+        <v>0</v>
+      </c>
+      <c r="BI438">
+        <v>1</v>
+      </c>
+      <c r="BJ438">
+        <v>0</v>
+      </c>
+      <c r="BK438">
+        <v>0</v>
+      </c>
+      <c r="BL438">
+        <v>1</v>
+      </c>
+      <c r="BM438">
+        <v>2</v>
+      </c>
+      <c r="BN438">
+        <v>1</v>
+      </c>
+      <c r="BO438">
+        <v>6</v>
+      </c>
+      <c r="BP438">
+        <v>20</v>
+      </c>
+      <c r="BQ438">
+        <v>19</v>
+      </c>
+      <c r="BR438">
+        <v>19</v>
+      </c>
+      <c r="BS438">
+        <v>46</v>
+      </c>
+      <c r="BT438">
+        <v>113</v>
+      </c>
+      <c r="BU438" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV438" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW438" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX438" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY438" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ438" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA438" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB438" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC438" t="s">
+        <v>371</v>
+      </c>
+      <c r="CD438" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE438" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF438" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="439" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>84</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C439" t="s">
+        <v>178</v>
+      </c>
+      <c r="D439" t="s">
+        <v>86</v>
+      </c>
+      <c r="E439" t="s">
+        <v>87</v>
+      </c>
+      <c r="F439" t="s">
+        <v>123</v>
+      </c>
+      <c r="G439" t="s">
+        <v>89</v>
+      </c>
+      <c r="H439" t="s">
+        <v>713</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439">
+        <v>0</v>
+      </c>
+      <c r="Q439">
+        <v>0</v>
+      </c>
+      <c r="R439">
+        <v>0</v>
+      </c>
+      <c r="S439">
+        <v>0</v>
+      </c>
+      <c r="T439">
+        <v>0</v>
+      </c>
+      <c r="U439">
+        <v>0</v>
+      </c>
+      <c r="V439">
+        <v>0</v>
+      </c>
+      <c r="W439">
+        <v>0</v>
+      </c>
+      <c r="X439">
+        <v>0</v>
+      </c>
+      <c r="Y439">
+        <v>0</v>
+      </c>
+      <c r="Z439">
+        <v>0</v>
+      </c>
+      <c r="AA439">
+        <v>0</v>
+      </c>
+      <c r="AB439">
+        <v>0</v>
+      </c>
+      <c r="AC439">
+        <v>0</v>
+      </c>
+      <c r="AD439">
+        <v>0</v>
+      </c>
+      <c r="AE439">
+        <v>0</v>
+      </c>
+      <c r="AF439">
+        <v>0</v>
+      </c>
+      <c r="AG439">
+        <v>0</v>
+      </c>
+      <c r="AH439">
+        <v>0</v>
+      </c>
+      <c r="AI439">
+        <v>0</v>
+      </c>
+      <c r="AJ439">
+        <v>0</v>
+      </c>
+      <c r="AK439">
+        <v>0</v>
+      </c>
+      <c r="AL439">
+        <v>0</v>
+      </c>
+      <c r="AM439">
+        <v>0</v>
+      </c>
+      <c r="AN439">
+        <v>0</v>
+      </c>
+      <c r="AO439">
+        <v>0</v>
+      </c>
+      <c r="AP439">
+        <v>0</v>
+      </c>
+      <c r="AQ439">
+        <v>0</v>
+      </c>
+      <c r="AR439">
+        <v>0</v>
+      </c>
+      <c r="AS439">
+        <v>0</v>
+      </c>
+      <c r="AT439">
+        <v>0</v>
+      </c>
+      <c r="AU439">
+        <v>0</v>
+      </c>
+      <c r="AV439">
+        <v>0</v>
+      </c>
+      <c r="AW439">
+        <v>0</v>
+      </c>
+      <c r="AX439">
+        <v>0</v>
+      </c>
+      <c r="AY439">
+        <v>0</v>
+      </c>
+      <c r="AZ439">
+        <v>0</v>
+      </c>
+      <c r="BA439">
+        <v>0</v>
+      </c>
+      <c r="BB439">
+        <v>0</v>
+      </c>
+      <c r="BC439">
+        <v>0</v>
+      </c>
+      <c r="BD439">
+        <v>0</v>
+      </c>
+      <c r="BE439">
+        <v>0</v>
+      </c>
+      <c r="BF439">
+        <v>0</v>
+      </c>
+      <c r="BG439">
+        <v>0</v>
+      </c>
+      <c r="BH439">
+        <v>0</v>
+      </c>
+      <c r="BI439">
+        <v>0</v>
+      </c>
+      <c r="BJ439">
+        <v>0</v>
+      </c>
+      <c r="BK439">
+        <v>1</v>
+      </c>
+      <c r="BL439">
+        <v>1</v>
+      </c>
+      <c r="BM439">
+        <v>0</v>
+      </c>
+      <c r="BN439">
+        <v>1</v>
+      </c>
+      <c r="BO439">
+        <v>3</v>
+      </c>
+      <c r="BP439">
+        <v>6</v>
+      </c>
+      <c r="BQ439">
+        <v>13</v>
+      </c>
+      <c r="BR439">
+        <v>9</v>
+      </c>
+      <c r="BS439">
+        <v>17</v>
+      </c>
+      <c r="BT439">
+        <v>49</v>
+      </c>
+      <c r="BU439" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV439" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW439" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX439" t="s">
+        <v>714</v>
+      </c>
+      <c r="BY439" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ439" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA439" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB439" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC439" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD439" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE439" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF439" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="440" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>84</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C440" t="s">
+        <v>178</v>
+      </c>
+      <c r="D440" t="s">
+        <v>86</v>
+      </c>
+      <c r="E440" t="s">
+        <v>87</v>
+      </c>
+      <c r="F440" t="s">
+        <v>102</v>
+      </c>
+      <c r="G440" t="s">
+        <v>89</v>
+      </c>
+      <c r="H440" t="s">
+        <v>712</v>
+      </c>
+      <c r="I440">
+        <v>2</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>2</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440">
+        <v>0</v>
+      </c>
+      <c r="P440">
+        <v>4</v>
+      </c>
+      <c r="Q440">
+        <v>6</v>
+      </c>
+      <c r="R440">
+        <v>0</v>
+      </c>
+      <c r="S440">
+        <v>3</v>
+      </c>
+      <c r="T440">
+        <v>10</v>
+      </c>
+      <c r="U440">
+        <v>4</v>
+      </c>
+      <c r="V440">
+        <v>5</v>
+      </c>
+      <c r="W440">
+        <v>8</v>
+      </c>
+      <c r="X440">
+        <v>36</v>
+      </c>
+      <c r="Y440">
+        <v>0</v>
+      </c>
+      <c r="Z440">
+        <v>0</v>
+      </c>
+      <c r="AA440">
+        <v>0</v>
+      </c>
+      <c r="AB440">
+        <v>0</v>
+      </c>
+      <c r="AC440">
+        <v>0</v>
+      </c>
+      <c r="AD440">
+        <v>0</v>
+      </c>
+      <c r="AE440">
+        <v>0</v>
+      </c>
+      <c r="AF440">
+        <v>0</v>
+      </c>
+      <c r="AG440">
+        <v>0</v>
+      </c>
+      <c r="AH440">
+        <v>0</v>
+      </c>
+      <c r="AI440">
+        <v>0</v>
+      </c>
+      <c r="AJ440">
+        <v>0</v>
+      </c>
+      <c r="AK440">
+        <v>0</v>
+      </c>
+      <c r="AL440">
+        <v>0</v>
+      </c>
+      <c r="AM440">
+        <v>0</v>
+      </c>
+      <c r="AN440">
+        <v>0</v>
+      </c>
+      <c r="AO440">
+        <v>0</v>
+      </c>
+      <c r="AP440">
+        <v>0</v>
+      </c>
+      <c r="AQ440">
+        <v>0</v>
+      </c>
+      <c r="AR440">
+        <v>0</v>
+      </c>
+      <c r="AS440">
+        <v>0</v>
+      </c>
+      <c r="AT440">
+        <v>0</v>
+      </c>
+      <c r="AU440">
+        <v>0</v>
+      </c>
+      <c r="AV440">
+        <v>0</v>
+      </c>
+      <c r="AW440">
+        <v>0</v>
+      </c>
+      <c r="AX440">
+        <v>0</v>
+      </c>
+      <c r="AY440">
+        <v>0</v>
+      </c>
+      <c r="AZ440">
+        <v>0</v>
+      </c>
+      <c r="BA440">
+        <v>0</v>
+      </c>
+      <c r="BB440">
+        <v>0</v>
+      </c>
+      <c r="BC440">
+        <v>0</v>
+      </c>
+      <c r="BD440">
+        <v>0</v>
+      </c>
+      <c r="BE440">
+        <v>3</v>
+      </c>
+      <c r="BF440">
+        <v>8</v>
+      </c>
+      <c r="BG440">
+        <v>8</v>
+      </c>
+      <c r="BH440">
+        <v>20</v>
+      </c>
+      <c r="BI440">
+        <v>10</v>
+      </c>
+      <c r="BJ440">
+        <v>3</v>
+      </c>
+      <c r="BK440">
+        <v>7</v>
+      </c>
+      <c r="BL440">
+        <v>59</v>
+      </c>
+      <c r="BM440">
+        <v>41</v>
+      </c>
+      <c r="BN440">
+        <v>22</v>
+      </c>
+      <c r="BO440">
+        <v>55</v>
+      </c>
+      <c r="BP440">
+        <v>153</v>
+      </c>
+      <c r="BQ440">
+        <v>214</v>
+      </c>
+      <c r="BR440">
+        <v>142</v>
+      </c>
+      <c r="BS440">
+        <v>275</v>
+      </c>
+      <c r="BT440">
+        <v>902</v>
+      </c>
+      <c r="BU440" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV440" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW440" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX440" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY440" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ440" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA440" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB440" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC440" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD440" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE440" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF440" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="441" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>84</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C441" t="s">
+        <v>178</v>
+      </c>
+      <c r="D441" t="s">
+        <v>86</v>
+      </c>
+      <c r="E441" t="s">
+        <v>87</v>
+      </c>
+      <c r="F441" t="s">
+        <v>170</v>
+      </c>
+      <c r="G441" t="s">
+        <v>89</v>
+      </c>
+      <c r="H441" t="s">
+        <v>713</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+      <c r="O441">
+        <v>0</v>
+      </c>
+      <c r="P441">
+        <v>0</v>
+      </c>
+      <c r="Q441">
+        <v>0</v>
+      </c>
+      <c r="R441">
+        <v>0</v>
+      </c>
+      <c r="S441">
+        <v>0</v>
+      </c>
+      <c r="T441">
+        <v>0</v>
+      </c>
+      <c r="U441">
+        <v>0</v>
+      </c>
+      <c r="V441">
+        <v>0</v>
+      </c>
+      <c r="W441">
+        <v>0</v>
+      </c>
+      <c r="X441">
+        <v>0</v>
+      </c>
+      <c r="Y441">
+        <v>0</v>
+      </c>
+      <c r="Z441">
+        <v>0</v>
+      </c>
+      <c r="AA441">
+        <v>0</v>
+      </c>
+      <c r="AB441">
+        <v>0</v>
+      </c>
+      <c r="AC441">
+        <v>0</v>
+      </c>
+      <c r="AD441">
+        <v>0</v>
+      </c>
+      <c r="AE441">
+        <v>0</v>
+      </c>
+      <c r="AF441">
+        <v>0</v>
+      </c>
+      <c r="AG441">
+        <v>0</v>
+      </c>
+      <c r="AH441">
+        <v>0</v>
+      </c>
+      <c r="AI441">
+        <v>0</v>
+      </c>
+      <c r="AJ441">
+        <v>0</v>
+      </c>
+      <c r="AK441">
+        <v>0</v>
+      </c>
+      <c r="AL441">
+        <v>0</v>
+      </c>
+      <c r="AM441">
+        <v>0</v>
+      </c>
+      <c r="AN441">
+        <v>0</v>
+      </c>
+      <c r="AO441">
+        <v>0</v>
+      </c>
+      <c r="AP441">
+        <v>0</v>
+      </c>
+      <c r="AQ441">
+        <v>0</v>
+      </c>
+      <c r="AR441">
+        <v>0</v>
+      </c>
+      <c r="AS441">
+        <v>0</v>
+      </c>
+      <c r="AT441">
+        <v>0</v>
+      </c>
+      <c r="AU441">
+        <v>0</v>
+      </c>
+      <c r="AV441">
+        <v>0</v>
+      </c>
+      <c r="AW441">
+        <v>0</v>
+      </c>
+      <c r="AX441">
+        <v>0</v>
+      </c>
+      <c r="AY441">
+        <v>0</v>
+      </c>
+      <c r="AZ441">
+        <v>0</v>
+      </c>
+      <c r="BA441">
+        <v>0</v>
+      </c>
+      <c r="BB441">
+        <v>0</v>
+      </c>
+      <c r="BC441">
+        <v>0</v>
+      </c>
+      <c r="BD441">
+        <v>0</v>
+      </c>
+      <c r="BE441">
+        <v>0</v>
+      </c>
+      <c r="BF441">
+        <v>0</v>
+      </c>
+      <c r="BG441">
+        <v>1</v>
+      </c>
+      <c r="BH441">
+        <v>1</v>
+      </c>
+      <c r="BI441">
+        <v>1</v>
+      </c>
+      <c r="BJ441">
+        <v>0</v>
+      </c>
+      <c r="BK441">
+        <v>0</v>
+      </c>
+      <c r="BL441">
+        <v>3</v>
+      </c>
+      <c r="BM441">
+        <v>7</v>
+      </c>
+      <c r="BN441">
+        <v>2</v>
+      </c>
+      <c r="BO441">
+        <v>10</v>
+      </c>
+      <c r="BP441">
+        <v>78</v>
+      </c>
+      <c r="BQ441">
+        <v>86</v>
+      </c>
+      <c r="BR441">
+        <v>75</v>
+      </c>
+      <c r="BS441">
+        <v>82</v>
+      </c>
+      <c r="BT441">
+        <v>340</v>
+      </c>
+      <c r="BU441" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV441" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW441" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX441" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY441" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ441" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA441" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB441" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC441" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD441" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE441" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF441" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="442" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>84</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C442" t="s">
+        <v>178</v>
+      </c>
+      <c r="D442" t="s">
+        <v>86</v>
+      </c>
+      <c r="E442" t="s">
+        <v>87</v>
+      </c>
+      <c r="F442" t="s">
+        <v>113</v>
+      </c>
+      <c r="G442" t="s">
+        <v>89</v>
+      </c>
+      <c r="H442" t="s">
+        <v>715</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+      <c r="M442">
+        <v>0</v>
+      </c>
+      <c r="N442">
+        <v>0</v>
+      </c>
+      <c r="O442">
+        <v>0</v>
+      </c>
+      <c r="P442">
+        <v>0</v>
+      </c>
+      <c r="Q442">
+        <v>0</v>
+      </c>
+      <c r="R442">
+        <v>0</v>
+      </c>
+      <c r="S442">
+        <v>0</v>
+      </c>
+      <c r="T442">
+        <v>0</v>
+      </c>
+      <c r="U442">
+        <v>0</v>
+      </c>
+      <c r="V442">
+        <v>0</v>
+      </c>
+      <c r="W442">
+        <v>0</v>
+      </c>
+      <c r="X442">
+        <v>0</v>
+      </c>
+      <c r="Y442">
+        <v>0</v>
+      </c>
+      <c r="Z442">
+        <v>0</v>
+      </c>
+      <c r="AA442">
+        <v>0</v>
+      </c>
+      <c r="AB442">
+        <v>0</v>
+      </c>
+      <c r="AC442">
+        <v>0</v>
+      </c>
+      <c r="AD442">
+        <v>0</v>
+      </c>
+      <c r="AE442">
+        <v>0</v>
+      </c>
+      <c r="AF442">
+        <v>0</v>
+      </c>
+      <c r="AG442">
+        <v>0</v>
+      </c>
+      <c r="AH442">
+        <v>0</v>
+      </c>
+      <c r="AI442">
+        <v>0</v>
+      </c>
+      <c r="AJ442">
+        <v>0</v>
+      </c>
+      <c r="AK442">
+        <v>0</v>
+      </c>
+      <c r="AL442">
+        <v>0</v>
+      </c>
+      <c r="AM442">
+        <v>0</v>
+      </c>
+      <c r="AN442">
+        <v>0</v>
+      </c>
+      <c r="AO442">
+        <v>0</v>
+      </c>
+      <c r="AP442">
+        <v>0</v>
+      </c>
+      <c r="AQ442">
+        <v>0</v>
+      </c>
+      <c r="AR442">
+        <v>0</v>
+      </c>
+      <c r="AS442">
+        <v>0</v>
+      </c>
+      <c r="AT442">
+        <v>0</v>
+      </c>
+      <c r="AU442">
+        <v>0</v>
+      </c>
+      <c r="AV442">
+        <v>0</v>
+      </c>
+      <c r="AW442">
+        <v>0</v>
+      </c>
+      <c r="AX442">
+        <v>0</v>
+      </c>
+      <c r="AY442">
+        <v>0</v>
+      </c>
+      <c r="AZ442">
+        <v>0</v>
+      </c>
+      <c r="BA442">
+        <v>0</v>
+      </c>
+      <c r="BB442">
+        <v>0</v>
+      </c>
+      <c r="BC442">
+        <v>0</v>
+      </c>
+      <c r="BD442">
+        <v>0</v>
+      </c>
+      <c r="BE442">
+        <v>0</v>
+      </c>
+      <c r="BF442">
+        <v>0</v>
+      </c>
+      <c r="BG442">
+        <v>1</v>
+      </c>
+      <c r="BH442">
+        <v>0</v>
+      </c>
+      <c r="BI442">
+        <v>0</v>
+      </c>
+      <c r="BJ442">
+        <v>0</v>
+      </c>
+      <c r="BK442">
+        <v>0</v>
+      </c>
+      <c r="BL442">
+        <v>1</v>
+      </c>
+      <c r="BM442">
+        <v>2</v>
+      </c>
+      <c r="BN442">
+        <v>1</v>
+      </c>
+      <c r="BO442">
+        <v>3</v>
+      </c>
+      <c r="BP442">
+        <v>13</v>
+      </c>
+      <c r="BQ442">
+        <v>18</v>
+      </c>
+      <c r="BR442">
+        <v>20</v>
+      </c>
+      <c r="BS442">
+        <v>49</v>
+      </c>
+      <c r="BT442">
+        <v>106</v>
+      </c>
+      <c r="BU442" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV442" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW442" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX442" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY442" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ442" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA442" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB442" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC442" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD442" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE442" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF442" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="443" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>84</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C443" t="s">
+        <v>178</v>
+      </c>
+      <c r="D443" t="s">
+        <v>86</v>
+      </c>
+      <c r="E443" t="s">
+        <v>87</v>
+      </c>
+      <c r="F443" t="s">
+        <v>265</v>
+      </c>
+      <c r="G443" t="s">
+        <v>89</v>
+      </c>
+      <c r="H443" t="s">
+        <v>716</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
+      <c r="O443">
+        <v>0</v>
+      </c>
+      <c r="P443">
+        <v>0</v>
+      </c>
+      <c r="Q443">
+        <v>0</v>
+      </c>
+      <c r="R443">
+        <v>0</v>
+      </c>
+      <c r="S443">
+        <v>0</v>
+      </c>
+      <c r="T443">
+        <v>0</v>
+      </c>
+      <c r="U443">
+        <v>0</v>
+      </c>
+      <c r="V443">
+        <v>0</v>
+      </c>
+      <c r="W443">
+        <v>0</v>
+      </c>
+      <c r="X443">
+        <v>0</v>
+      </c>
+      <c r="Y443">
+        <v>0</v>
+      </c>
+      <c r="Z443">
+        <v>0</v>
+      </c>
+      <c r="AA443">
+        <v>0</v>
+      </c>
+      <c r="AB443">
+        <v>0</v>
+      </c>
+      <c r="AC443">
+        <v>0</v>
+      </c>
+      <c r="AD443">
+        <v>0</v>
+      </c>
+      <c r="AE443">
+        <v>0</v>
+      </c>
+      <c r="AF443">
+        <v>0</v>
+      </c>
+      <c r="AG443">
+        <v>0</v>
+      </c>
+      <c r="AH443">
+        <v>0</v>
+      </c>
+      <c r="AI443">
+        <v>0</v>
+      </c>
+      <c r="AJ443">
+        <v>0</v>
+      </c>
+      <c r="AK443">
+        <v>0</v>
+      </c>
+      <c r="AL443">
+        <v>0</v>
+      </c>
+      <c r="AM443">
+        <v>0</v>
+      </c>
+      <c r="AN443">
+        <v>0</v>
+      </c>
+      <c r="AO443">
+        <v>0</v>
+      </c>
+      <c r="AP443">
+        <v>0</v>
+      </c>
+      <c r="AQ443">
+        <v>0</v>
+      </c>
+      <c r="AR443">
+        <v>0</v>
+      </c>
+      <c r="AS443">
+        <v>0</v>
+      </c>
+      <c r="AT443">
+        <v>0</v>
+      </c>
+      <c r="AU443">
+        <v>0</v>
+      </c>
+      <c r="AV443">
+        <v>0</v>
+      </c>
+      <c r="AW443">
+        <v>0</v>
+      </c>
+      <c r="AX443">
+        <v>0</v>
+      </c>
+      <c r="AY443">
+        <v>0</v>
+      </c>
+      <c r="AZ443">
+        <v>0</v>
+      </c>
+      <c r="BA443">
+        <v>0</v>
+      </c>
+      <c r="BB443">
+        <v>0</v>
+      </c>
+      <c r="BC443">
+        <v>0</v>
+      </c>
+      <c r="BD443">
+        <v>0</v>
+      </c>
+      <c r="BE443">
+        <v>0</v>
+      </c>
+      <c r="BF443">
+        <v>1</v>
+      </c>
+      <c r="BG443">
+        <v>0</v>
+      </c>
+      <c r="BH443">
+        <v>1</v>
+      </c>
+      <c r="BI443">
+        <v>1</v>
+      </c>
+      <c r="BJ443">
+        <v>1</v>
+      </c>
+      <c r="BK443">
+        <v>1</v>
+      </c>
+      <c r="BL443">
+        <v>5</v>
+      </c>
+      <c r="BM443">
+        <v>2</v>
+      </c>
+      <c r="BN443">
+        <v>1</v>
+      </c>
+      <c r="BO443">
+        <v>1</v>
+      </c>
+      <c r="BP443">
+        <v>15</v>
+      </c>
+      <c r="BQ443">
+        <v>16</v>
+      </c>
+      <c r="BR443">
+        <v>39</v>
+      </c>
+      <c r="BS443">
+        <v>44</v>
+      </c>
+      <c r="BT443">
+        <v>118</v>
+      </c>
+      <c r="BU443" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV443" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW443" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX443" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY443" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ443" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA443" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB443" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC443" t="s">
+        <v>267</v>
+      </c>
+      <c r="CD443" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE443" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF443" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="444" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>84</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C444" t="s">
+        <v>178</v>
+      </c>
+      <c r="D444" t="s">
+        <v>86</v>
+      </c>
+      <c r="E444" t="s">
+        <v>87</v>
+      </c>
+      <c r="F444" t="s">
+        <v>170</v>
+      </c>
+      <c r="G444" t="s">
+        <v>89</v>
+      </c>
+      <c r="H444" t="s">
+        <v>717</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444">
+        <v>0</v>
+      </c>
+      <c r="O444">
+        <v>0</v>
+      </c>
+      <c r="P444">
+        <v>0</v>
+      </c>
+      <c r="Q444">
+        <v>0</v>
+      </c>
+      <c r="R444">
+        <v>0</v>
+      </c>
+      <c r="S444">
+        <v>0</v>
+      </c>
+      <c r="T444">
+        <v>0</v>
+      </c>
+      <c r="U444">
+        <v>0</v>
+      </c>
+      <c r="V444">
+        <v>0</v>
+      </c>
+      <c r="W444">
+        <v>0</v>
+      </c>
+      <c r="X444">
+        <v>0</v>
+      </c>
+      <c r="Y444">
+        <v>0</v>
+      </c>
+      <c r="Z444">
+        <v>0</v>
+      </c>
+      <c r="AA444">
+        <v>0</v>
+      </c>
+      <c r="AB444">
+        <v>0</v>
+      </c>
+      <c r="AC444">
+        <v>0</v>
+      </c>
+      <c r="AD444">
+        <v>0</v>
+      </c>
+      <c r="AE444">
+        <v>0</v>
+      </c>
+      <c r="AF444">
+        <v>0</v>
+      </c>
+      <c r="AG444">
+        <v>0</v>
+      </c>
+      <c r="AH444">
+        <v>0</v>
+      </c>
+      <c r="AI444">
+        <v>0</v>
+      </c>
+      <c r="AJ444">
+        <v>0</v>
+      </c>
+      <c r="AK444">
+        <v>0</v>
+      </c>
+      <c r="AL444">
+        <v>0</v>
+      </c>
+      <c r="AM444">
+        <v>0</v>
+      </c>
+      <c r="AN444">
+        <v>0</v>
+      </c>
+      <c r="AO444">
+        <v>0</v>
+      </c>
+      <c r="AP444">
+        <v>0</v>
+      </c>
+      <c r="AQ444">
+        <v>0</v>
+      </c>
+      <c r="AR444">
+        <v>0</v>
+      </c>
+      <c r="AS444">
+        <v>0</v>
+      </c>
+      <c r="AT444">
+        <v>0</v>
+      </c>
+      <c r="AU444">
+        <v>0</v>
+      </c>
+      <c r="AV444">
+        <v>0</v>
+      </c>
+      <c r="AW444">
+        <v>0</v>
+      </c>
+      <c r="AX444">
+        <v>0</v>
+      </c>
+      <c r="AY444">
+        <v>0</v>
+      </c>
+      <c r="AZ444">
+        <v>0</v>
+      </c>
+      <c r="BA444">
+        <v>0</v>
+      </c>
+      <c r="BB444">
+        <v>0</v>
+      </c>
+      <c r="BC444">
+        <v>0</v>
+      </c>
+      <c r="BD444">
+        <v>0</v>
+      </c>
+      <c r="BE444">
+        <v>0</v>
+      </c>
+      <c r="BF444">
+        <v>0</v>
+      </c>
+      <c r="BG444">
+        <v>1</v>
+      </c>
+      <c r="BH444">
+        <v>1</v>
+      </c>
+      <c r="BI444">
+        <v>1</v>
+      </c>
+      <c r="BJ444">
+        <v>0</v>
+      </c>
+      <c r="BK444">
+        <v>0</v>
+      </c>
+      <c r="BL444">
+        <v>3</v>
+      </c>
+      <c r="BM444">
+        <v>7</v>
+      </c>
+      <c r="BN444">
+        <v>2</v>
+      </c>
+      <c r="BO444">
+        <v>10</v>
+      </c>
+      <c r="BP444">
+        <v>78</v>
+      </c>
+      <c r="BQ444">
+        <v>86</v>
+      </c>
+      <c r="BR444">
+        <v>75</v>
+      </c>
+      <c r="BS444">
+        <v>82</v>
+      </c>
+      <c r="BT444">
+        <v>340</v>
+      </c>
+      <c r="BU444" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV444" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW444" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX444" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY444" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ444" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA444" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB444" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC444" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD444" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE444" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF444" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="445" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>84</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C445" t="s">
+        <v>178</v>
+      </c>
+      <c r="D445" t="s">
+        <v>86</v>
+      </c>
+      <c r="E445" t="s">
+        <v>87</v>
+      </c>
+      <c r="F445" t="s">
+        <v>173</v>
+      </c>
+      <c r="G445" t="s">
+        <v>89</v>
+      </c>
+      <c r="H445" t="s">
+        <v>718</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445">
+        <v>0</v>
+      </c>
+      <c r="O445">
+        <v>0</v>
+      </c>
+      <c r="P445">
+        <v>0</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <v>0</v>
+      </c>
+      <c r="S445">
+        <v>0</v>
+      </c>
+      <c r="T445">
+        <v>0</v>
+      </c>
+      <c r="U445">
+        <v>0</v>
+      </c>
+      <c r="V445">
+        <v>0</v>
+      </c>
+      <c r="W445">
+        <v>0</v>
+      </c>
+      <c r="X445">
+        <v>0</v>
+      </c>
+      <c r="Y445">
+        <v>0</v>
+      </c>
+      <c r="Z445">
+        <v>0</v>
+      </c>
+      <c r="AA445">
+        <v>0</v>
+      </c>
+      <c r="AB445">
+        <v>0</v>
+      </c>
+      <c r="AC445">
+        <v>0</v>
+      </c>
+      <c r="AD445">
+        <v>0</v>
+      </c>
+      <c r="AE445">
+        <v>0</v>
+      </c>
+      <c r="AF445">
+        <v>0</v>
+      </c>
+      <c r="AG445">
+        <v>0</v>
+      </c>
+      <c r="AH445">
+        <v>0</v>
+      </c>
+      <c r="AI445">
+        <v>0</v>
+      </c>
+      <c r="AJ445">
+        <v>0</v>
+      </c>
+      <c r="AK445">
+        <v>0</v>
+      </c>
+      <c r="AL445">
+        <v>0</v>
+      </c>
+      <c r="AM445">
+        <v>0</v>
+      </c>
+      <c r="AN445">
+        <v>0</v>
+      </c>
+      <c r="AO445">
+        <v>0</v>
+      </c>
+      <c r="AP445">
+        <v>0</v>
+      </c>
+      <c r="AQ445">
+        <v>0</v>
+      </c>
+      <c r="AR445">
+        <v>0</v>
+      </c>
+      <c r="AS445">
+        <v>0</v>
+      </c>
+      <c r="AT445">
+        <v>0</v>
+      </c>
+      <c r="AU445">
+        <v>0</v>
+      </c>
+      <c r="AV445">
+        <v>0</v>
+      </c>
+      <c r="AW445">
+        <v>0</v>
+      </c>
+      <c r="AX445">
+        <v>0</v>
+      </c>
+      <c r="AY445">
+        <v>0</v>
+      </c>
+      <c r="AZ445">
+        <v>0</v>
+      </c>
+      <c r="BA445">
+        <v>0</v>
+      </c>
+      <c r="BB445">
+        <v>0</v>
+      </c>
+      <c r="BC445">
+        <v>0</v>
+      </c>
+      <c r="BD445">
+        <v>0</v>
+      </c>
+      <c r="BE445">
+        <v>0</v>
+      </c>
+      <c r="BF445">
+        <v>1</v>
+      </c>
+      <c r="BG445">
+        <v>0</v>
+      </c>
+      <c r="BH445">
+        <v>0</v>
+      </c>
+      <c r="BI445">
+        <v>0</v>
+      </c>
+      <c r="BJ445">
+        <v>0</v>
+      </c>
+      <c r="BK445">
+        <v>0</v>
+      </c>
+      <c r="BL445">
+        <v>1</v>
+      </c>
+      <c r="BM445">
+        <v>0</v>
+      </c>
+      <c r="BN445">
+        <v>1</v>
+      </c>
+      <c r="BO445">
+        <v>2</v>
+      </c>
+      <c r="BP445">
+        <v>9</v>
+      </c>
+      <c r="BQ445">
+        <v>27</v>
+      </c>
+      <c r="BR445">
+        <v>35</v>
+      </c>
+      <c r="BS445">
+        <v>70</v>
+      </c>
+      <c r="BT445">
+        <v>144</v>
+      </c>
+      <c r="BU445" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV445" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BW445" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX445" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY445" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ445" t="s">
+        <v>413</v>
+      </c>
+      <c r="CA445" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB445" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC445" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD445" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE445" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF445" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="446" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>84</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C446" t="s">
+        <v>178</v>
+      </c>
+      <c r="D446" t="s">
+        <v>86</v>
+      </c>
+      <c r="E446" t="s">
+        <v>155</v>
+      </c>
+      <c r="F446" t="s">
+        <v>88</v>
+      </c>
+      <c r="G446" t="s">
+        <v>89</v>
+      </c>
+      <c r="H446" t="s">
+        <v>719</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+      <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446">
+        <v>0</v>
+      </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
+      <c r="P446">
+        <v>0</v>
+      </c>
+      <c r="Q446">
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <v>0</v>
+      </c>
+      <c r="S446">
+        <v>0</v>
+      </c>
+      <c r="T446">
+        <v>0</v>
+      </c>
+      <c r="U446">
+        <v>0</v>
+      </c>
+      <c r="V446">
+        <v>0</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446">
+        <v>0</v>
+      </c>
+      <c r="Y446">
+        <v>0</v>
+      </c>
+      <c r="Z446">
+        <v>0</v>
+      </c>
+      <c r="AA446">
+        <v>0</v>
+      </c>
+      <c r="AB446">
+        <v>0</v>
+      </c>
+      <c r="AC446">
+        <v>0</v>
+      </c>
+      <c r="AD446">
+        <v>0</v>
+      </c>
+      <c r="AE446">
+        <v>0</v>
+      </c>
+      <c r="AF446">
+        <v>0</v>
+      </c>
+      <c r="AG446">
+        <v>0</v>
+      </c>
+      <c r="AH446">
+        <v>0</v>
+      </c>
+      <c r="AI446">
+        <v>0</v>
+      </c>
+      <c r="AJ446">
+        <v>0</v>
+      </c>
+      <c r="AK446">
+        <v>0</v>
+      </c>
+      <c r="AL446">
+        <v>0</v>
+      </c>
+      <c r="AM446">
+        <v>0</v>
+      </c>
+      <c r="AN446">
+        <v>0</v>
+      </c>
+      <c r="AO446">
+        <v>0</v>
+      </c>
+      <c r="AP446">
+        <v>0</v>
+      </c>
+      <c r="AQ446">
+        <v>0</v>
+      </c>
+      <c r="AR446">
+        <v>0</v>
+      </c>
+      <c r="AS446">
+        <v>0</v>
+      </c>
+      <c r="AT446">
+        <v>0</v>
+      </c>
+      <c r="AU446">
+        <v>0</v>
+      </c>
+      <c r="AV446">
+        <v>0</v>
+      </c>
+      <c r="AW446">
+        <v>0</v>
+      </c>
+      <c r="AX446">
+        <v>0</v>
+      </c>
+      <c r="AY446">
+        <v>0</v>
+      </c>
+      <c r="AZ446">
+        <v>0</v>
+      </c>
+      <c r="BA446">
+        <v>0</v>
+      </c>
+      <c r="BB446">
+        <v>0</v>
+      </c>
+      <c r="BC446">
+        <v>0</v>
+      </c>
+      <c r="BD446">
+        <v>0</v>
+      </c>
+      <c r="BE446">
+        <v>0</v>
+      </c>
+      <c r="BF446">
+        <v>0</v>
+      </c>
+      <c r="BG446">
+        <v>0</v>
+      </c>
+      <c r="BH446">
+        <v>0</v>
+      </c>
+      <c r="BI446">
+        <v>4</v>
+      </c>
+      <c r="BJ446">
+        <v>10</v>
+      </c>
+      <c r="BK446">
+        <v>9</v>
+      </c>
+      <c r="BL446">
+        <v>23</v>
+      </c>
+      <c r="BM446">
+        <v>5</v>
+      </c>
+      <c r="BN446">
+        <v>0</v>
+      </c>
+      <c r="BO446">
+        <v>13</v>
+      </c>
+      <c r="BP446">
+        <v>100</v>
+      </c>
+      <c r="BQ446">
+        <v>276</v>
+      </c>
+      <c r="BR446">
+        <v>497</v>
+      </c>
+      <c r="BS446">
+        <v>703</v>
+      </c>
+      <c r="BT446">
+        <v>1594</v>
+      </c>
+      <c r="BU446" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV446" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW446" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX446" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY446" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ446" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA446" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB446" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC446" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD446" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE446" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF446" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="447" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>84</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C447" t="s">
+        <v>178</v>
+      </c>
+      <c r="D447" t="s">
+        <v>86</v>
+      </c>
+      <c r="E447" t="s">
+        <v>337</v>
+      </c>
+      <c r="F447" t="s">
+        <v>88</v>
+      </c>
+      <c r="G447" t="s">
+        <v>89</v>
+      </c>
+      <c r="H447" t="s">
+        <v>596</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
+      <c r="O447">
+        <v>0</v>
+      </c>
+      <c r="P447">
+        <v>0</v>
+      </c>
+      <c r="Q447">
+        <v>0</v>
+      </c>
+      <c r="R447">
+        <v>0</v>
+      </c>
+      <c r="S447">
+        <v>0</v>
+      </c>
+      <c r="T447">
+        <v>0</v>
+      </c>
+      <c r="U447">
+        <v>0</v>
+      </c>
+      <c r="V447">
+        <v>0</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447">
+        <v>0</v>
+      </c>
+      <c r="Y447">
+        <v>0</v>
+      </c>
+      <c r="Z447">
+        <v>0</v>
+      </c>
+      <c r="AA447">
+        <v>0</v>
+      </c>
+      <c r="AB447">
+        <v>0</v>
+      </c>
+      <c r="AC447">
+        <v>0</v>
+      </c>
+      <c r="AD447">
+        <v>0</v>
+      </c>
+      <c r="AE447">
+        <v>0</v>
+      </c>
+      <c r="AF447">
+        <v>0</v>
+      </c>
+      <c r="AG447">
+        <v>0</v>
+      </c>
+      <c r="AH447">
+        <v>0</v>
+      </c>
+      <c r="AI447">
+        <v>0</v>
+      </c>
+      <c r="AJ447">
+        <v>0</v>
+      </c>
+      <c r="AK447">
+        <v>0</v>
+      </c>
+      <c r="AL447">
+        <v>0</v>
+      </c>
+      <c r="AM447">
+        <v>0</v>
+      </c>
+      <c r="AN447">
+        <v>0</v>
+      </c>
+      <c r="AO447">
+        <v>0</v>
+      </c>
+      <c r="AP447">
+        <v>0</v>
+      </c>
+      <c r="AQ447">
+        <v>0</v>
+      </c>
+      <c r="AR447">
+        <v>0</v>
+      </c>
+      <c r="AS447">
+        <v>0</v>
+      </c>
+      <c r="AT447">
+        <v>0</v>
+      </c>
+      <c r="AU447">
+        <v>0</v>
+      </c>
+      <c r="AV447">
+        <v>0</v>
+      </c>
+      <c r="AW447">
+        <v>0</v>
+      </c>
+      <c r="AX447">
+        <v>0</v>
+      </c>
+      <c r="AY447">
+        <v>0</v>
+      </c>
+      <c r="AZ447">
+        <v>0</v>
+      </c>
+      <c r="BA447">
+        <v>0</v>
+      </c>
+      <c r="BB447">
+        <v>0</v>
+      </c>
+      <c r="BC447">
+        <v>0</v>
+      </c>
+      <c r="BD447">
+        <v>0</v>
+      </c>
+      <c r="BE447">
+        <v>0</v>
+      </c>
+      <c r="BF447">
+        <v>0</v>
+      </c>
+      <c r="BG447">
+        <v>1</v>
+      </c>
+      <c r="BH447">
+        <v>1</v>
+      </c>
+      <c r="BI447">
+        <v>0</v>
+      </c>
+      <c r="BJ447">
+        <v>2</v>
+      </c>
+      <c r="BK447">
+        <v>1</v>
+      </c>
+      <c r="BL447">
+        <v>5</v>
+      </c>
+      <c r="BM447">
+        <v>0</v>
+      </c>
+      <c r="BN447">
+        <v>2</v>
+      </c>
+      <c r="BO447">
+        <v>3</v>
+      </c>
+      <c r="BP447">
+        <v>6</v>
+      </c>
+      <c r="BQ447">
+        <v>28</v>
+      </c>
+      <c r="BR447">
+        <v>31</v>
+      </c>
+      <c r="BS447">
+        <v>142</v>
+      </c>
+      <c r="BT447">
+        <v>212</v>
+      </c>
+      <c r="BU447" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV447" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW447" t="s">
+        <v>339</v>
+      </c>
+      <c r="BX447" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY447" t="s">
+        <v>340</v>
+      </c>
+      <c r="BZ447" t="s">
+        <v>399</v>
+      </c>
+      <c r="CA447" t="s">
+        <v>342</v>
+      </c>
+      <c r="CB447" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC447" t="s">
+        <v>343</v>
+      </c>
+      <c r="CD447" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE447" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF447" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="448" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>84</v>
+      </c>
+      <c r="B448" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C448" t="s">
+        <v>178</v>
+      </c>
+      <c r="D448" t="s">
+        <v>86</v>
+      </c>
+      <c r="E448" t="s">
+        <v>635</v>
+      </c>
+      <c r="F448" t="s">
+        <v>636</v>
+      </c>
+      <c r="G448" t="s">
+        <v>89</v>
+      </c>
+      <c r="H448" t="s">
+        <v>402</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
+      <c r="P448">
+        <v>0</v>
+      </c>
+      <c r="Q448">
+        <v>0</v>
+      </c>
+      <c r="R448">
+        <v>0</v>
+      </c>
+      <c r="S448">
+        <v>0</v>
+      </c>
+      <c r="T448">
+        <v>0</v>
+      </c>
+      <c r="U448">
+        <v>0</v>
+      </c>
+      <c r="V448">
+        <v>0</v>
+      </c>
+      <c r="W448">
+        <v>0</v>
+      </c>
+      <c r="X448">
+        <v>0</v>
+      </c>
+      <c r="Y448">
+        <v>0</v>
+      </c>
+      <c r="Z448">
+        <v>0</v>
+      </c>
+      <c r="AA448">
+        <v>0</v>
+      </c>
+      <c r="AB448">
+        <v>0</v>
+      </c>
+      <c r="AC448">
+        <v>0</v>
+      </c>
+      <c r="AD448">
+        <v>0</v>
+      </c>
+      <c r="AE448">
+        <v>0</v>
+      </c>
+      <c r="AF448">
+        <v>0</v>
+      </c>
+      <c r="AG448">
+        <v>0</v>
+      </c>
+      <c r="AH448">
+        <v>0</v>
+      </c>
+      <c r="AI448">
+        <v>0</v>
+      </c>
+      <c r="AJ448">
+        <v>0</v>
+      </c>
+      <c r="AK448">
+        <v>0</v>
+      </c>
+      <c r="AL448">
+        <v>0</v>
+      </c>
+      <c r="AM448">
+        <v>0</v>
+      </c>
+      <c r="AN448">
+        <v>0</v>
+      </c>
+      <c r="AO448">
+        <v>0</v>
+      </c>
+      <c r="AP448">
+        <v>0</v>
+      </c>
+      <c r="AQ448">
+        <v>0</v>
+      </c>
+      <c r="AR448">
+        <v>0</v>
+      </c>
+      <c r="AS448">
+        <v>0</v>
+      </c>
+      <c r="AT448">
+        <v>0</v>
+      </c>
+      <c r="AU448">
+        <v>0</v>
+      </c>
+      <c r="AV448">
+        <v>0</v>
+      </c>
+      <c r="AW448">
+        <v>0</v>
+      </c>
+      <c r="AX448">
+        <v>0</v>
+      </c>
+      <c r="AY448">
+        <v>0</v>
+      </c>
+      <c r="AZ448">
+        <v>0</v>
+      </c>
+      <c r="BA448">
+        <v>0</v>
+      </c>
+      <c r="BB448">
+        <v>0</v>
+      </c>
+      <c r="BC448">
+        <v>0</v>
+      </c>
+      <c r="BD448">
+        <v>0</v>
+      </c>
+      <c r="BE448">
+        <v>0</v>
+      </c>
+      <c r="BF448">
+        <v>0</v>
+      </c>
+      <c r="BG448">
+        <v>0</v>
+      </c>
+      <c r="BH448">
+        <v>0</v>
+      </c>
+      <c r="BI448">
+        <v>10</v>
+      </c>
+      <c r="BJ448">
+        <v>0</v>
+      </c>
+      <c r="BK448">
+        <v>0</v>
+      </c>
+      <c r="BL448">
+        <v>10</v>
+      </c>
+      <c r="BM448">
+        <v>0</v>
+      </c>
+      <c r="BN448">
+        <v>0</v>
+      </c>
+      <c r="BO448">
+        <v>0</v>
+      </c>
+      <c r="BP448">
+        <v>0</v>
+      </c>
+      <c r="BQ448">
+        <v>10</v>
+      </c>
+      <c r="BR448">
+        <v>0</v>
+      </c>
+      <c r="BS448">
+        <v>0</v>
+      </c>
+      <c r="BT448">
+        <v>10</v>
+      </c>
+      <c r="BU448" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV448" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW448" t="s">
+        <v>637</v>
+      </c>
+      <c r="BX448" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY448" t="s">
+        <v>638</v>
+      </c>
+      <c r="BZ448" t="s">
+        <v>639</v>
+      </c>
+      <c r="CA448" t="s">
+        <v>640</v>
+      </c>
+      <c r="CB448" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC448" t="s">
+        <v>641</v>
+      </c>
+      <c r="CD448" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE448" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF448" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="449" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>84</v>
+      </c>
+      <c r="B449" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C449" t="s">
+        <v>178</v>
+      </c>
+      <c r="D449" t="s">
+        <v>86</v>
+      </c>
+      <c r="E449" t="s">
+        <v>219</v>
+      </c>
+      <c r="F449" t="s">
+        <v>88</v>
+      </c>
+      <c r="G449" t="s">
+        <v>89</v>
+      </c>
+      <c r="H449" t="s">
+        <v>720</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+      <c r="M449">
+        <v>0</v>
+      </c>
+      <c r="N449">
+        <v>0</v>
+      </c>
+      <c r="O449">
+        <v>0</v>
+      </c>
+      <c r="P449">
+        <v>0</v>
+      </c>
+      <c r="Q449">
+        <v>1</v>
+      </c>
+      <c r="R449">
+        <v>1</v>
+      </c>
+      <c r="S449">
+        <v>0</v>
+      </c>
+      <c r="T449">
+        <v>0</v>
+      </c>
+      <c r="U449">
+        <v>1</v>
+      </c>
+      <c r="V449">
+        <v>1</v>
+      </c>
+      <c r="W449">
+        <v>0</v>
+      </c>
+      <c r="X449">
+        <v>4</v>
+      </c>
+      <c r="Y449">
+        <v>0</v>
+      </c>
+      <c r="Z449">
+        <v>0</v>
+      </c>
+      <c r="AA449">
+        <v>0</v>
+      </c>
+      <c r="AB449">
+        <v>0</v>
+      </c>
+      <c r="AC449">
+        <v>0</v>
+      </c>
+      <c r="AD449">
+        <v>0</v>
+      </c>
+      <c r="AE449">
+        <v>0</v>
+      </c>
+      <c r="AF449">
+        <v>0</v>
+      </c>
+      <c r="AG449">
+        <v>0</v>
+      </c>
+      <c r="AH449">
+        <v>0</v>
+      </c>
+      <c r="AI449">
+        <v>0</v>
+      </c>
+      <c r="AJ449">
+        <v>0</v>
+      </c>
+      <c r="AK449">
+        <v>0</v>
+      </c>
+      <c r="AL449">
+        <v>0</v>
+      </c>
+      <c r="AM449">
+        <v>0</v>
+      </c>
+      <c r="AN449">
+        <v>0</v>
+      </c>
+      <c r="AO449">
+        <v>0</v>
+      </c>
+      <c r="AP449">
+        <v>0</v>
+      </c>
+      <c r="AQ449">
+        <v>0</v>
+      </c>
+      <c r="AR449">
+        <v>0</v>
+      </c>
+      <c r="AS449">
+        <v>0</v>
+      </c>
+      <c r="AT449">
+        <v>0</v>
+      </c>
+      <c r="AU449">
+        <v>0</v>
+      </c>
+      <c r="AV449">
+        <v>0</v>
+      </c>
+      <c r="AW449">
+        <v>0</v>
+      </c>
+      <c r="AX449">
+        <v>0</v>
+      </c>
+      <c r="AY449">
+        <v>0</v>
+      </c>
+      <c r="AZ449">
+        <v>0</v>
+      </c>
+      <c r="BA449">
+        <v>0</v>
+      </c>
+      <c r="BB449">
+        <v>0</v>
+      </c>
+      <c r="BC449">
+        <v>0</v>
+      </c>
+      <c r="BD449">
+        <v>0</v>
+      </c>
+      <c r="BE449">
+        <v>4</v>
+      </c>
+      <c r="BF449">
+        <v>3</v>
+      </c>
+      <c r="BG449">
+        <v>7</v>
+      </c>
+      <c r="BH449">
+        <v>1</v>
+      </c>
+      <c r="BI449">
+        <v>8</v>
+      </c>
+      <c r="BJ449">
+        <v>14</v>
+      </c>
+      <c r="BK449">
+        <v>6</v>
+      </c>
+      <c r="BL449">
+        <v>43</v>
+      </c>
+      <c r="BM449">
+        <v>24</v>
+      </c>
+      <c r="BN449">
+        <v>31</v>
+      </c>
+      <c r="BO449">
+        <v>38</v>
+      </c>
+      <c r="BP449">
+        <v>41</v>
+      </c>
+      <c r="BQ449">
+        <v>29</v>
+      </c>
+      <c r="BR449">
+        <v>27</v>
+      </c>
+      <c r="BS449">
+        <v>33</v>
+      </c>
+      <c r="BT449">
+        <v>223</v>
+      </c>
+      <c r="BU449" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV449" s="1">
+        <v>45018</v>
+      </c>
+      <c r="BW449" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX449" t="s">
+        <v>406</v>
+      </c>
+      <c r="BY449" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ449" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA449" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB449" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC449" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD449" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE449" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF449" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="450" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>84</v>
+      </c>
+      <c r="B450" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C450" t="s">
+        <v>178</v>
+      </c>
+      <c r="D450" t="s">
+        <v>86</v>
+      </c>
+      <c r="E450" t="s">
+        <v>564</v>
+      </c>
+      <c r="F450" t="s">
+        <v>127</v>
+      </c>
+      <c r="G450" t="s">
+        <v>89</v>
+      </c>
+      <c r="H450" t="s">
+        <v>501</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+      <c r="O450">
+        <v>0</v>
+      </c>
+      <c r="P450">
+        <v>0</v>
+      </c>
+      <c r="Q450">
+        <v>0</v>
+      </c>
+      <c r="R450">
+        <v>0</v>
+      </c>
+      <c r="S450">
+        <v>0</v>
+      </c>
+      <c r="T450">
+        <v>0</v>
+      </c>
+      <c r="U450">
+        <v>0</v>
+      </c>
+      <c r="V450">
+        <v>0</v>
+      </c>
+      <c r="W450">
+        <v>0</v>
+      </c>
+      <c r="X450">
+        <v>0</v>
+      </c>
+      <c r="Y450">
+        <v>0</v>
+      </c>
+      <c r="Z450">
+        <v>0</v>
+      </c>
+      <c r="AA450">
+        <v>0</v>
+      </c>
+      <c r="AB450">
+        <v>0</v>
+      </c>
+      <c r="AC450">
+        <v>0</v>
+      </c>
+      <c r="AD450">
+        <v>0</v>
+      </c>
+      <c r="AE450">
+        <v>0</v>
+      </c>
+      <c r="AF450">
+        <v>0</v>
+      </c>
+      <c r="AG450">
+        <v>0</v>
+      </c>
+      <c r="AH450">
+        <v>0</v>
+      </c>
+      <c r="AI450">
+        <v>0</v>
+      </c>
+      <c r="AJ450">
+        <v>0</v>
+      </c>
+      <c r="AK450">
+        <v>0</v>
+      </c>
+      <c r="AL450">
+        <v>0</v>
+      </c>
+      <c r="AM450">
+        <v>0</v>
+      </c>
+      <c r="AN450">
+        <v>0</v>
+      </c>
+      <c r="AO450">
+        <v>0</v>
+      </c>
+      <c r="AP450">
+        <v>0</v>
+      </c>
+      <c r="AQ450">
+        <v>0</v>
+      </c>
+      <c r="AR450">
+        <v>0</v>
+      </c>
+      <c r="AS450">
+        <v>0</v>
+      </c>
+      <c r="AT450">
+        <v>0</v>
+      </c>
+      <c r="AU450">
+        <v>0</v>
+      </c>
+      <c r="AV450">
+        <v>0</v>
+      </c>
+      <c r="AW450">
+        <v>0</v>
+      </c>
+      <c r="AX450">
+        <v>0</v>
+      </c>
+      <c r="AY450">
+        <v>0</v>
+      </c>
+      <c r="AZ450">
+        <v>0</v>
+      </c>
+      <c r="BA450">
+        <v>0</v>
+      </c>
+      <c r="BB450">
+        <v>0</v>
+      </c>
+      <c r="BC450">
+        <v>0</v>
+      </c>
+      <c r="BD450">
+        <v>0</v>
+      </c>
+      <c r="BE450">
+        <v>0</v>
+      </c>
+      <c r="BF450">
+        <v>0</v>
+      </c>
+      <c r="BG450">
+        <v>1</v>
+      </c>
+      <c r="BH450">
+        <v>0</v>
+      </c>
+      <c r="BI450">
+        <v>0</v>
+      </c>
+      <c r="BJ450">
+        <v>0</v>
+      </c>
+      <c r="BK450">
+        <v>0</v>
+      </c>
+      <c r="BL450">
+        <v>1</v>
+      </c>
+      <c r="BM450">
+        <v>0</v>
+      </c>
+      <c r="BN450">
+        <v>3</v>
+      </c>
+      <c r="BO450">
+        <v>6</v>
+      </c>
+      <c r="BP450">
+        <v>49</v>
+      </c>
+      <c r="BQ450">
+        <v>36</v>
+      </c>
+      <c r="BR450">
+        <v>55</v>
+      </c>
+      <c r="BS450">
+        <v>28</v>
+      </c>
+      <c r="BT450">
+        <v>177</v>
+      </c>
+      <c r="BU450" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV450" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW450" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX450" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY450" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ450" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA450" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB450" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC450" t="s">
+        <v>566</v>
+      </c>
+      <c r="CD450" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE450" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF450" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="451" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>84</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C451" t="s">
+        <v>178</v>
+      </c>
+      <c r="D451" t="s">
+        <v>86</v>
+      </c>
+      <c r="E451" t="s">
+        <v>135</v>
+      </c>
+      <c r="F451" t="s">
+        <v>88</v>
+      </c>
+      <c r="G451" t="s">
+        <v>89</v>
+      </c>
+      <c r="H451" t="s">
+        <v>721</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+      <c r="O451">
+        <v>0</v>
+      </c>
+      <c r="P451">
+        <v>0</v>
+      </c>
+      <c r="Q451">
+        <v>0</v>
+      </c>
+      <c r="R451">
+        <v>0</v>
+      </c>
+      <c r="S451">
+        <v>0</v>
+      </c>
+      <c r="T451">
+        <v>0</v>
+      </c>
+      <c r="U451">
+        <v>0</v>
+      </c>
+      <c r="V451">
+        <v>0</v>
+      </c>
+      <c r="W451">
+        <v>0</v>
+      </c>
+      <c r="X451">
+        <v>0</v>
+      </c>
+      <c r="Y451">
+        <v>0</v>
+      </c>
+      <c r="Z451">
+        <v>0</v>
+      </c>
+      <c r="AA451">
+        <v>0</v>
+      </c>
+      <c r="AB451">
+        <v>0</v>
+      </c>
+      <c r="AC451">
+        <v>0</v>
+      </c>
+      <c r="AD451">
+        <v>0</v>
+      </c>
+      <c r="AE451">
+        <v>0</v>
+      </c>
+      <c r="AF451">
+        <v>0</v>
+      </c>
+      <c r="AG451">
+        <v>0</v>
+      </c>
+      <c r="AH451">
+        <v>0</v>
+      </c>
+      <c r="AI451">
+        <v>0</v>
+      </c>
+      <c r="AJ451">
+        <v>0</v>
+      </c>
+      <c r="AK451">
+        <v>0</v>
+      </c>
+      <c r="AL451">
+        <v>0</v>
+      </c>
+      <c r="AM451">
+        <v>0</v>
+      </c>
+      <c r="AN451">
+        <v>0</v>
+      </c>
+      <c r="AO451">
+        <v>0</v>
+      </c>
+      <c r="AP451">
+        <v>0</v>
+      </c>
+      <c r="AQ451">
+        <v>0</v>
+      </c>
+      <c r="AR451">
+        <v>0</v>
+      </c>
+      <c r="AS451">
+        <v>0</v>
+      </c>
+      <c r="AT451">
+        <v>0</v>
+      </c>
+      <c r="AU451">
+        <v>0</v>
+      </c>
+      <c r="AV451">
+        <v>0</v>
+      </c>
+      <c r="AW451">
+        <v>0</v>
+      </c>
+      <c r="AX451">
+        <v>0</v>
+      </c>
+      <c r="AY451">
+        <v>0</v>
+      </c>
+      <c r="AZ451">
+        <v>0</v>
+      </c>
+      <c r="BA451">
+        <v>0</v>
+      </c>
+      <c r="BB451">
+        <v>0</v>
+      </c>
+      <c r="BC451">
+        <v>0</v>
+      </c>
+      <c r="BD451">
+        <v>0</v>
+      </c>
+      <c r="BE451">
+        <v>2</v>
+      </c>
+      <c r="BF451">
+        <v>3</v>
+      </c>
+      <c r="BG451">
+        <v>3</v>
+      </c>
+      <c r="BH451">
+        <v>12</v>
+      </c>
+      <c r="BI451">
+        <v>26</v>
+      </c>
+      <c r="BJ451">
+        <v>18</v>
+      </c>
+      <c r="BK451">
+        <v>9</v>
+      </c>
+      <c r="BL451">
+        <v>73</v>
+      </c>
+      <c r="BM451">
+        <v>38</v>
+      </c>
+      <c r="BN451">
+        <v>20</v>
+      </c>
+      <c r="BO451">
+        <v>71</v>
+      </c>
+      <c r="BP451">
+        <v>364</v>
+      </c>
+      <c r="BQ451">
+        <v>749</v>
+      </c>
+      <c r="BR451">
+        <v>1145</v>
+      </c>
+      <c r="BS451">
+        <v>928</v>
+      </c>
+      <c r="BT451">
+        <v>3315</v>
+      </c>
+      <c r="BU451" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV451" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW451" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX451" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY451" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ451" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA451" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB451" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC451" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD451" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE451" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF451" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="452" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>84</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C452" t="s">
+        <v>178</v>
+      </c>
+      <c r="D452" t="s">
+        <v>86</v>
+      </c>
+      <c r="E452" t="s">
+        <v>135</v>
+      </c>
+      <c r="F452" t="s">
+        <v>142</v>
+      </c>
+      <c r="G452" t="s">
+        <v>89</v>
+      </c>
+      <c r="H452" t="s">
+        <v>722</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+      <c r="M452">
+        <v>0</v>
+      </c>
+      <c r="N452">
+        <v>0</v>
+      </c>
+      <c r="O452">
+        <v>0</v>
+      </c>
+      <c r="P452">
+        <v>0</v>
+      </c>
+      <c r="Q452">
+        <v>0</v>
+      </c>
+      <c r="R452">
+        <v>0</v>
+      </c>
+      <c r="S452">
+        <v>0</v>
+      </c>
+      <c r="T452">
+        <v>0</v>
+      </c>
+      <c r="U452">
+        <v>0</v>
+      </c>
+      <c r="V452">
+        <v>0</v>
+      </c>
+      <c r="W452">
+        <v>0</v>
+      </c>
+      <c r="X452">
+        <v>0</v>
+      </c>
+      <c r="Y452">
+        <v>0</v>
+      </c>
+      <c r="Z452">
+        <v>0</v>
+      </c>
+      <c r="AA452">
+        <v>0</v>
+      </c>
+      <c r="AB452">
+        <v>0</v>
+      </c>
+      <c r="AC452">
+        <v>0</v>
+      </c>
+      <c r="AD452">
+        <v>0</v>
+      </c>
+      <c r="AE452">
+        <v>0</v>
+      </c>
+      <c r="AF452">
+        <v>0</v>
+      </c>
+      <c r="AG452">
+        <v>0</v>
+      </c>
+      <c r="AH452">
+        <v>0</v>
+      </c>
+      <c r="AI452">
+        <v>0</v>
+      </c>
+      <c r="AJ452">
+        <v>0</v>
+      </c>
+      <c r="AK452">
+        <v>0</v>
+      </c>
+      <c r="AL452">
+        <v>0</v>
+      </c>
+      <c r="AM452">
+        <v>0</v>
+      </c>
+      <c r="AN452">
+        <v>0</v>
+      </c>
+      <c r="AO452">
+        <v>0</v>
+      </c>
+      <c r="AP452">
+        <v>0</v>
+      </c>
+      <c r="AQ452">
+        <v>0</v>
+      </c>
+      <c r="AR452">
+        <v>0</v>
+      </c>
+      <c r="AS452">
+        <v>0</v>
+      </c>
+      <c r="AT452">
+        <v>0</v>
+      </c>
+      <c r="AU452">
+        <v>0</v>
+      </c>
+      <c r="AV452">
+        <v>0</v>
+      </c>
+      <c r="AW452">
+        <v>0</v>
+      </c>
+      <c r="AX452">
+        <v>0</v>
+      </c>
+      <c r="AY452">
+        <v>0</v>
+      </c>
+      <c r="AZ452">
+        <v>0</v>
+      </c>
+      <c r="BA452">
+        <v>0</v>
+      </c>
+      <c r="BB452">
+        <v>0</v>
+      </c>
+      <c r="BC452">
+        <v>0</v>
+      </c>
+      <c r="BD452">
+        <v>0</v>
+      </c>
+      <c r="BE452">
+        <v>3</v>
+      </c>
+      <c r="BF452">
+        <v>4</v>
+      </c>
+      <c r="BG452">
+        <v>5</v>
+      </c>
+      <c r="BH452">
+        <v>29</v>
+      </c>
+      <c r="BI452">
+        <v>33</v>
+      </c>
+      <c r="BJ452">
+        <v>19</v>
+      </c>
+      <c r="BK452">
+        <v>5</v>
+      </c>
+      <c r="BL452">
+        <v>98</v>
+      </c>
+      <c r="BM452">
+        <v>32</v>
+      </c>
+      <c r="BN452">
+        <v>23</v>
+      </c>
+      <c r="BO452">
+        <v>103</v>
+      </c>
+      <c r="BP452">
+        <v>481</v>
+      </c>
+      <c r="BQ452">
+        <v>641</v>
+      </c>
+      <c r="BR452">
+        <v>835</v>
+      </c>
+      <c r="BS452">
+        <v>821</v>
+      </c>
+      <c r="BT452">
+        <v>2936</v>
+      </c>
+      <c r="BU452" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV452" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW452" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX452" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY452" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ452" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA452" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB452" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC452" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD452" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE452" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF452" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="453" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>84</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C453" t="s">
+        <v>178</v>
+      </c>
+      <c r="D453" t="s">
+        <v>86</v>
+      </c>
+      <c r="E453" t="s">
+        <v>135</v>
+      </c>
+      <c r="F453" t="s">
+        <v>116</v>
+      </c>
+      <c r="G453" t="s">
+        <v>89</v>
+      </c>
+      <c r="H453" t="s">
+        <v>723</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+      <c r="J453">
+        <v>1</v>
+      </c>
+      <c r="K453">
+        <v>1</v>
+      </c>
+      <c r="L453">
+        <v>2</v>
+      </c>
+      <c r="M453">
+        <v>0</v>
+      </c>
+      <c r="N453">
+        <v>0</v>
+      </c>
+      <c r="O453">
+        <v>0</v>
+      </c>
+      <c r="P453">
+        <v>5</v>
+      </c>
+      <c r="Q453">
+        <v>4</v>
+      </c>
+      <c r="R453">
+        <v>8</v>
+      </c>
+      <c r="S453">
+        <v>8</v>
+      </c>
+      <c r="T453">
+        <v>16</v>
+      </c>
+      <c r="U453">
+        <v>60</v>
+      </c>
+      <c r="V453">
+        <v>29</v>
+      </c>
+      <c r="W453">
+        <v>59</v>
+      </c>
+      <c r="X453">
+        <v>184</v>
+      </c>
+      <c r="Y453">
+        <v>0</v>
+      </c>
+      <c r="Z453">
+        <v>0</v>
+      </c>
+      <c r="AA453">
+        <v>1</v>
+      </c>
+      <c r="AB453">
+        <v>0</v>
+      </c>
+      <c r="AC453">
+        <v>1</v>
+      </c>
+      <c r="AD453">
+        <v>0</v>
+      </c>
+      <c r="AE453">
+        <v>0</v>
+      </c>
+      <c r="AF453">
+        <v>2</v>
+      </c>
+      <c r="AG453">
+        <v>0</v>
+      </c>
+      <c r="AH453">
+        <v>2</v>
+      </c>
+      <c r="AI453">
+        <v>1</v>
+      </c>
+      <c r="AJ453">
+        <v>8</v>
+      </c>
+      <c r="AK453">
+        <v>6</v>
+      </c>
+      <c r="AL453">
+        <v>11</v>
+      </c>
+      <c r="AM453">
+        <v>36</v>
+      </c>
+      <c r="AN453">
+        <v>64</v>
+      </c>
+      <c r="AO453">
+        <v>0</v>
+      </c>
+      <c r="AP453">
+        <v>0</v>
+      </c>
+      <c r="AQ453">
+        <v>0</v>
+      </c>
+      <c r="AR453">
+        <v>0</v>
+      </c>
+      <c r="AS453">
+        <v>1</v>
+      </c>
+      <c r="AT453">
+        <v>0</v>
+      </c>
+      <c r="AU453">
+        <v>0</v>
+      </c>
+      <c r="AV453">
+        <v>1</v>
+      </c>
+      <c r="AW453">
+        <v>0</v>
+      </c>
+      <c r="AX453">
+        <v>0</v>
+      </c>
+      <c r="AY453">
+        <v>0</v>
+      </c>
+      <c r="AZ453">
+        <v>0</v>
+      </c>
+      <c r="BA453">
+        <v>1</v>
+      </c>
+      <c r="BB453">
+        <v>2</v>
+      </c>
+      <c r="BC453">
+        <v>8</v>
+      </c>
+      <c r="BD453">
+        <v>11</v>
+      </c>
+      <c r="BE453">
+        <v>16</v>
+      </c>
+      <c r="BF453">
+        <v>10</v>
+      </c>
+      <c r="BG453">
+        <v>35</v>
+      </c>
+      <c r="BH453">
+        <v>34</v>
+      </c>
+      <c r="BI453">
+        <v>17</v>
+      </c>
+      <c r="BJ453">
+        <v>3</v>
+      </c>
+      <c r="BK453">
+        <v>6</v>
+      </c>
+      <c r="BL453">
+        <v>121</v>
+      </c>
+      <c r="BM453">
+        <v>54</v>
+      </c>
+      <c r="BN453">
+        <v>54</v>
+      </c>
+      <c r="BO453">
+        <v>144</v>
+      </c>
+      <c r="BP453">
+        <v>354</v>
+      </c>
+      <c r="BQ453">
+        <v>563</v>
+      </c>
+      <c r="BR453">
+        <v>348</v>
+      </c>
+      <c r="BS453">
+        <v>293</v>
+      </c>
+      <c r="BT453">
+        <v>1810</v>
+      </c>
+      <c r="BU453" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV453" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW453" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX453" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY453" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ453" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA453" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB453" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC453" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD453" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE453" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF453" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="454" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>84</v>
+      </c>
+      <c r="B454" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C454" t="s">
+        <v>178</v>
+      </c>
+      <c r="D454" t="s">
+        <v>86</v>
+      </c>
+      <c r="E454" t="s">
+        <v>147</v>
+      </c>
+      <c r="F454" t="s">
+        <v>88</v>
+      </c>
+      <c r="G454" t="s">
+        <v>89</v>
+      </c>
+      <c r="H454" t="s">
+        <v>724</v>
+      </c>
+      <c r="I454">
+        <v>4</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>3</v>
+      </c>
+      <c r="L454">
+        <v>1</v>
+      </c>
+      <c r="M454">
+        <v>1</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>2</v>
+      </c>
+      <c r="P454">
+        <v>11</v>
+      </c>
+      <c r="Q454">
+        <v>20</v>
+      </c>
+      <c r="R454">
+        <v>10</v>
+      </c>
+      <c r="S454">
+        <v>28</v>
+      </c>
+      <c r="T454">
+        <v>70</v>
+      </c>
+      <c r="U454">
+        <v>195</v>
+      </c>
+      <c r="V454">
+        <v>101</v>
+      </c>
+      <c r="W454">
+        <v>151</v>
+      </c>
+      <c r="X454">
+        <v>575</v>
+      </c>
+      <c r="Y454">
+        <v>0</v>
+      </c>
+      <c r="Z454">
+        <v>0</v>
+      </c>
+      <c r="AA454">
+        <v>0</v>
+      </c>
+      <c r="AB454">
+        <v>0</v>
+      </c>
+      <c r="AC454">
+        <v>1</v>
+      </c>
+      <c r="AD454">
+        <v>1</v>
+      </c>
+      <c r="AE454">
+        <v>0</v>
+      </c>
+      <c r="AF454">
+        <v>2</v>
+      </c>
+      <c r="AG454">
+        <v>0</v>
+      </c>
+      <c r="AH454">
+        <v>0</v>
+      </c>
+      <c r="AI454">
+        <v>0</v>
+      </c>
+      <c r="AJ454">
+        <v>0</v>
+      </c>
+      <c r="AK454">
+        <v>11</v>
+      </c>
+      <c r="AL454">
+        <v>15</v>
+      </c>
+      <c r="AM454">
+        <v>32</v>
+      </c>
+      <c r="AN454">
+        <v>58</v>
+      </c>
+      <c r="AO454">
+        <v>0</v>
+      </c>
+      <c r="AP454">
+        <v>0</v>
+      </c>
+      <c r="AQ454">
+        <v>0</v>
+      </c>
+      <c r="AR454">
+        <v>0</v>
+      </c>
+      <c r="AS454">
+        <v>0</v>
+      </c>
+      <c r="AT454">
+        <v>0</v>
+      </c>
+      <c r="AU454">
+        <v>1</v>
+      </c>
+      <c r="AV454">
+        <v>1</v>
+      </c>
+      <c r="AW454">
+        <v>0</v>
+      </c>
+      <c r="AX454">
+        <v>0</v>
+      </c>
+      <c r="AY454">
+        <v>0</v>
+      </c>
+      <c r="AZ454">
+        <v>0</v>
+      </c>
+      <c r="BA454">
+        <v>0</v>
+      </c>
+      <c r="BB454">
+        <v>4</v>
+      </c>
+      <c r="BC454">
+        <v>6</v>
+      </c>
+      <c r="BD454">
+        <v>10</v>
+      </c>
+      <c r="BE454">
+        <v>25</v>
+      </c>
+      <c r="BF454">
+        <v>12</v>
+      </c>
+      <c r="BG454">
+        <v>23</v>
+      </c>
+      <c r="BH454">
+        <v>45</v>
+      </c>
+      <c r="BI454">
+        <v>26</v>
+      </c>
+      <c r="BJ454">
+        <v>22</v>
+      </c>
+      <c r="BK454">
+        <v>10</v>
+      </c>
+      <c r="BL454">
+        <v>163</v>
+      </c>
+      <c r="BM454">
+        <v>87</v>
+      </c>
+      <c r="BN454">
+        <v>45</v>
+      </c>
+      <c r="BO454">
+        <v>111</v>
+      </c>
+      <c r="BP454">
+        <v>273</v>
+      </c>
+      <c r="BQ454">
+        <v>543</v>
+      </c>
+      <c r="BR454">
+        <v>350</v>
+      </c>
+      <c r="BS454">
+        <v>251</v>
+      </c>
+      <c r="BT454">
+        <v>1660</v>
+      </c>
+      <c r="BU454" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV454" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW454" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX454" t="s">
+        <v>150</v>
+      </c>
+      <c r="BY454" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ454" t="s">
+        <v>152</v>
+      </c>
+      <c r="CA454" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB454" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC454" t="s">
+        <v>154</v>
+      </c>
+      <c r="CD454" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE454" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF454" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="455" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>84</v>
+      </c>
+      <c r="B455" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C455" t="s">
+        <v>178</v>
+      </c>
+      <c r="D455" t="s">
+        <v>86</v>
+      </c>
+      <c r="E455" t="s">
+        <v>241</v>
+      </c>
+      <c r="F455" t="s">
+        <v>88</v>
+      </c>
+      <c r="G455" t="s">
+        <v>89</v>
+      </c>
+      <c r="H455" t="s">
+        <v>344</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
+      </c>
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <v>0</v>
+      </c>
+      <c r="Q455">
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <v>0</v>
+      </c>
+      <c r="S455">
+        <v>0</v>
+      </c>
+      <c r="T455">
+        <v>0</v>
+      </c>
+      <c r="U455">
+        <v>0</v>
+      </c>
+      <c r="V455">
+        <v>2</v>
+      </c>
+      <c r="W455">
+        <v>8</v>
+      </c>
+      <c r="X455">
+        <v>10</v>
+      </c>
+      <c r="Y455">
+        <v>0</v>
+      </c>
+      <c r="Z455">
+        <v>0</v>
+      </c>
+      <c r="AA455">
+        <v>0</v>
+      </c>
+      <c r="AB455">
+        <v>0</v>
+      </c>
+      <c r="AC455">
+        <v>0</v>
+      </c>
+      <c r="AD455">
+        <v>0</v>
+      </c>
+      <c r="AE455">
+        <v>0</v>
+      </c>
+      <c r="AF455">
+        <v>0</v>
+      </c>
+      <c r="AG455">
+        <v>0</v>
+      </c>
+      <c r="AH455">
+        <v>0</v>
+      </c>
+      <c r="AI455">
+        <v>0</v>
+      </c>
+      <c r="AJ455">
+        <v>0</v>
+      </c>
+      <c r="AK455">
+        <v>0</v>
+      </c>
+      <c r="AL455">
+        <v>0</v>
+      </c>
+      <c r="AM455">
+        <v>0</v>
+      </c>
+      <c r="AN455">
+        <v>0</v>
+      </c>
+      <c r="AO455">
+        <v>0</v>
+      </c>
+      <c r="AP455">
+        <v>0</v>
+      </c>
+      <c r="AQ455">
+        <v>0</v>
+      </c>
+      <c r="AR455">
+        <v>0</v>
+      </c>
+      <c r="AS455">
+        <v>0</v>
+      </c>
+      <c r="AT455">
+        <v>0</v>
+      </c>
+      <c r="AU455">
+        <v>0</v>
+      </c>
+      <c r="AV455">
+        <v>0</v>
+      </c>
+      <c r="AW455">
+        <v>0</v>
+      </c>
+      <c r="AX455">
+        <v>0</v>
+      </c>
+      <c r="AY455">
+        <v>0</v>
+      </c>
+      <c r="AZ455">
+        <v>0</v>
+      </c>
+      <c r="BA455">
+        <v>0</v>
+      </c>
+      <c r="BB455">
+        <v>0</v>
+      </c>
+      <c r="BC455">
+        <v>0</v>
+      </c>
+      <c r="BD455">
+        <v>0</v>
+      </c>
+      <c r="BE455">
+        <v>0</v>
+      </c>
+      <c r="BF455">
+        <v>0</v>
+      </c>
+      <c r="BG455">
+        <v>1</v>
+      </c>
+      <c r="BH455">
+        <v>11</v>
+      </c>
+      <c r="BI455">
+        <v>20</v>
+      </c>
+      <c r="BJ455">
+        <v>32</v>
+      </c>
+      <c r="BK455">
+        <v>13</v>
+      </c>
+      <c r="BL455">
+        <v>77</v>
+      </c>
+      <c r="BM455">
+        <v>0</v>
+      </c>
+      <c r="BN455">
+        <v>0</v>
+      </c>
+      <c r="BO455">
+        <v>1</v>
+      </c>
+      <c r="BP455">
+        <v>38</v>
+      </c>
+      <c r="BQ455">
+        <v>177</v>
+      </c>
+      <c r="BR455">
+        <v>171</v>
+      </c>
+      <c r="BS455">
+        <v>189</v>
+      </c>
+      <c r="BT455">
+        <v>576</v>
+      </c>
+      <c r="BU455" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV455" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW455" t="s">
+        <v>335</v>
+      </c>
+      <c r="BX455" t="s">
+        <v>336</v>
+      </c>
+      <c r="BY455" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ455" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA455" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB455" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC455" t="s">
+        <v>247</v>
+      </c>
+      <c r="CD455" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE455" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF455" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="456" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>84</v>
+      </c>
+      <c r="B456" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C456" t="s">
+        <v>178</v>
+      </c>
+      <c r="D456" t="s">
+        <v>86</v>
+      </c>
+      <c r="E456" t="s">
+        <v>192</v>
+      </c>
+      <c r="F456" t="s">
+        <v>88</v>
+      </c>
+      <c r="G456" t="s">
+        <v>89</v>
+      </c>
+      <c r="H456" t="s">
+        <v>293</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+      <c r="M456">
+        <v>1</v>
+      </c>
+      <c r="N456">
+        <v>0</v>
+      </c>
+      <c r="O456">
+        <v>1</v>
+      </c>
+      <c r="P456">
+        <v>2</v>
+      </c>
+      <c r="Q456">
+        <v>0</v>
+      </c>
+      <c r="R456">
+        <v>0</v>
+      </c>
+      <c r="S456">
+        <v>0</v>
+      </c>
+      <c r="T456">
+        <v>0</v>
+      </c>
+      <c r="U456">
+        <v>6</v>
+      </c>
+      <c r="V456">
+        <v>6</v>
+      </c>
+      <c r="W456">
+        <v>31</v>
+      </c>
+      <c r="X456">
+        <v>43</v>
+      </c>
+      <c r="Y456">
+        <v>0</v>
+      </c>
+      <c r="Z456">
+        <v>0</v>
+      </c>
+      <c r="AA456">
+        <v>0</v>
+      </c>
+      <c r="AB456">
+        <v>0</v>
+      </c>
+      <c r="AC456">
+        <v>0</v>
+      </c>
+      <c r="AD456">
+        <v>0</v>
+      </c>
+      <c r="AE456">
+        <v>0</v>
+      </c>
+      <c r="AF456">
+        <v>0</v>
+      </c>
+      <c r="AG456">
+        <v>0</v>
+      </c>
+      <c r="AH456">
+        <v>0</v>
+      </c>
+      <c r="AI456">
+        <v>0</v>
+      </c>
+      <c r="AJ456">
+        <v>0</v>
+      </c>
+      <c r="AK456">
+        <v>0</v>
+      </c>
+      <c r="AL456">
+        <v>0</v>
+      </c>
+      <c r="AM456">
+        <v>0</v>
+      </c>
+      <c r="AN456">
+        <v>0</v>
+      </c>
+      <c r="AO456">
+        <v>0</v>
+      </c>
+      <c r="AP456">
+        <v>0</v>
+      </c>
+      <c r="AQ456">
+        <v>0</v>
+      </c>
+      <c r="AR456">
+        <v>0</v>
+      </c>
+      <c r="AS456">
+        <v>0</v>
+      </c>
+      <c r="AT456">
+        <v>0</v>
+      </c>
+      <c r="AU456">
+        <v>0</v>
+      </c>
+      <c r="AV456">
+        <v>0</v>
+      </c>
+      <c r="AW456">
+        <v>0</v>
+      </c>
+      <c r="AX456">
+        <v>0</v>
+      </c>
+      <c r="AY456">
+        <v>0</v>
+      </c>
+      <c r="AZ456">
+        <v>0</v>
+      </c>
+      <c r="BA456">
+        <v>0</v>
+      </c>
+      <c r="BB456">
+        <v>1</v>
+      </c>
+      <c r="BC456">
+        <v>1</v>
+      </c>
+      <c r="BD456">
+        <v>2</v>
+      </c>
+      <c r="BE456">
+        <v>0</v>
+      </c>
+      <c r="BF456">
+        <v>0</v>
+      </c>
+      <c r="BG456">
+        <v>0</v>
+      </c>
+      <c r="BH456">
+        <v>0</v>
+      </c>
+      <c r="BI456">
+        <v>0</v>
+      </c>
+      <c r="BJ456">
+        <v>0</v>
+      </c>
+      <c r="BK456">
+        <v>0</v>
+      </c>
+      <c r="BL456">
+        <v>0</v>
+      </c>
+      <c r="BM456">
+        <v>0</v>
+      </c>
+      <c r="BN456">
+        <v>0</v>
+      </c>
+      <c r="BO456">
+        <v>0</v>
+      </c>
+      <c r="BP456">
+        <v>0</v>
+      </c>
+      <c r="BQ456">
+        <v>4</v>
+      </c>
+      <c r="BR456">
+        <v>0</v>
+      </c>
+      <c r="BS456">
+        <v>9</v>
+      </c>
+      <c r="BT456">
+        <v>13</v>
+      </c>
+      <c r="BU456" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV456" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW456" t="s">
+        <v>314</v>
+      </c>
+      <c r="BX456" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY456" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ456" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA456" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB456" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC456" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD456" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE456" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF456" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="457" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>84</v>
+      </c>
+      <c r="B457" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C457" t="s">
+        <v>178</v>
+      </c>
+      <c r="D457" t="s">
+        <v>86</v>
+      </c>
+      <c r="E457" t="s">
+        <v>227</v>
+      </c>
+      <c r="F457" t="s">
+        <v>88</v>
+      </c>
+      <c r="G457" t="s">
+        <v>89</v>
+      </c>
+      <c r="H457" t="s">
+        <v>725</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+      <c r="M457">
+        <v>0</v>
+      </c>
+      <c r="N457">
+        <v>0</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457">
+        <v>0</v>
+      </c>
+      <c r="Q457">
+        <v>0</v>
+      </c>
+      <c r="R457">
+        <v>0</v>
+      </c>
+      <c r="S457">
+        <v>0</v>
+      </c>
+      <c r="T457">
+        <v>0</v>
+      </c>
+      <c r="U457">
+        <v>0</v>
+      </c>
+      <c r="V457">
+        <v>0</v>
+      </c>
+      <c r="W457">
+        <v>0</v>
+      </c>
+      <c r="X457">
+        <v>0</v>
+      </c>
+      <c r="Y457">
+        <v>0</v>
+      </c>
+      <c r="Z457">
+        <v>0</v>
+      </c>
+      <c r="AA457">
+        <v>0</v>
+      </c>
+      <c r="AB457">
+        <v>0</v>
+      </c>
+      <c r="AC457">
+        <v>0</v>
+      </c>
+      <c r="AD457">
+        <v>0</v>
+      </c>
+      <c r="AE457">
+        <v>0</v>
+      </c>
+      <c r="AF457">
+        <v>0</v>
+      </c>
+      <c r="AG457">
+        <v>0</v>
+      </c>
+      <c r="AH457">
+        <v>0</v>
+      </c>
+      <c r="AI457">
+        <v>0</v>
+      </c>
+      <c r="AJ457">
+        <v>0</v>
+      </c>
+      <c r="AK457">
+        <v>0</v>
+      </c>
+      <c r="AL457">
+        <v>0</v>
+      </c>
+      <c r="AM457">
+        <v>0</v>
+      </c>
+      <c r="AN457">
+        <v>0</v>
+      </c>
+      <c r="AO457">
+        <v>0</v>
+      </c>
+      <c r="AP457">
+        <v>0</v>
+      </c>
+      <c r="AQ457">
+        <v>0</v>
+      </c>
+      <c r="AR457">
+        <v>0</v>
+      </c>
+      <c r="AS457">
+        <v>0</v>
+      </c>
+      <c r="AT457">
+        <v>0</v>
+      </c>
+      <c r="AU457">
+        <v>0</v>
+      </c>
+      <c r="AV457">
+        <v>0</v>
+      </c>
+      <c r="AW457">
+        <v>0</v>
+      </c>
+      <c r="AX457">
+        <v>0</v>
+      </c>
+      <c r="AY457">
+        <v>0</v>
+      </c>
+      <c r="AZ457">
+        <v>0</v>
+      </c>
+      <c r="BA457">
+        <v>0</v>
+      </c>
+      <c r="BB457">
+        <v>0</v>
+      </c>
+      <c r="BC457">
+        <v>0</v>
+      </c>
+      <c r="BD457">
+        <v>0</v>
+      </c>
+      <c r="BE457">
+        <v>1</v>
+      </c>
+      <c r="BF457">
+        <v>0</v>
+      </c>
+      <c r="BG457">
+        <v>10</v>
+      </c>
+      <c r="BH457">
+        <v>29</v>
+      </c>
+      <c r="BI457">
+        <v>20</v>
+      </c>
+      <c r="BJ457">
+        <v>12</v>
+      </c>
+      <c r="BK457">
+        <v>28</v>
+      </c>
+      <c r="BL457">
+        <v>100</v>
+      </c>
+      <c r="BM457">
+        <v>1</v>
+      </c>
+      <c r="BN457">
+        <v>0</v>
+      </c>
+      <c r="BO457">
+        <v>10</v>
+      </c>
+      <c r="BP457">
+        <v>29</v>
+      </c>
+      <c r="BQ457">
+        <v>20</v>
+      </c>
+      <c r="BR457">
+        <v>12</v>
+      </c>
+      <c r="BS457">
+        <v>28</v>
+      </c>
+      <c r="BT457">
+        <v>100</v>
+      </c>
+      <c r="BU457" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV457" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW457" t="s">
+        <v>726</v>
+      </c>
+      <c r="BX457" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY457" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ457" t="s">
+        <v>232</v>
+      </c>
+      <c r="CA457" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB457" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC457" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD457" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE457" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF457" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="458" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>84</v>
+      </c>
+      <c r="B458" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C458" t="s">
+        <v>178</v>
+      </c>
+      <c r="D458" t="s">
+        <v>86</v>
+      </c>
+      <c r="E458" t="s">
+        <v>204</v>
+      </c>
+      <c r="F458" t="s">
+        <v>297</v>
+      </c>
+      <c r="G458" t="s">
+        <v>89</v>
+      </c>
+      <c r="H458" t="s">
+        <v>472</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458">
+        <v>0</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458">
+        <v>0</v>
+      </c>
+      <c r="Q458">
+        <v>0</v>
+      </c>
+      <c r="R458">
+        <v>0</v>
+      </c>
+      <c r="S458">
+        <v>0</v>
+      </c>
+      <c r="T458">
+        <v>0</v>
+      </c>
+      <c r="U458">
+        <v>0</v>
+      </c>
+      <c r="V458">
+        <v>0</v>
+      </c>
+      <c r="W458">
+        <v>0</v>
+      </c>
+      <c r="X458">
+        <v>0</v>
+      </c>
+      <c r="Y458">
+        <v>0</v>
+      </c>
+      <c r="Z458">
+        <v>0</v>
+      </c>
+      <c r="AA458">
+        <v>0</v>
+      </c>
+      <c r="AB458">
+        <v>0</v>
+      </c>
+      <c r="AC458">
+        <v>0</v>
+      </c>
+      <c r="AD458">
+        <v>0</v>
+      </c>
+      <c r="AE458">
+        <v>0</v>
+      </c>
+      <c r="AF458">
+        <v>0</v>
+      </c>
+      <c r="AG458">
+        <v>0</v>
+      </c>
+      <c r="AH458">
+        <v>0</v>
+      </c>
+      <c r="AI458">
+        <v>0</v>
+      </c>
+      <c r="AJ458">
+        <v>0</v>
+      </c>
+      <c r="AK458">
+        <v>0</v>
+      </c>
+      <c r="AL458">
+        <v>0</v>
+      </c>
+      <c r="AM458">
+        <v>0</v>
+      </c>
+      <c r="AN458">
+        <v>0</v>
+      </c>
+      <c r="AO458">
+        <v>0</v>
+      </c>
+      <c r="AP458">
+        <v>0</v>
+      </c>
+      <c r="AQ458">
+        <v>0</v>
+      </c>
+      <c r="AR458">
+        <v>0</v>
+      </c>
+      <c r="AS458">
+        <v>0</v>
+      </c>
+      <c r="AT458">
+        <v>0</v>
+      </c>
+      <c r="AU458">
+        <v>0</v>
+      </c>
+      <c r="AV458">
+        <v>0</v>
+      </c>
+      <c r="AW458">
+        <v>0</v>
+      </c>
+      <c r="AX458">
+        <v>0</v>
+      </c>
+      <c r="AY458">
+        <v>0</v>
+      </c>
+      <c r="AZ458">
+        <v>0</v>
+      </c>
+      <c r="BA458">
+        <v>0</v>
+      </c>
+      <c r="BB458">
+        <v>0</v>
+      </c>
+      <c r="BC458">
+        <v>0</v>
+      </c>
+      <c r="BD458">
+        <v>0</v>
+      </c>
+      <c r="BE458">
+        <v>1</v>
+      </c>
+      <c r="BF458">
+        <v>1</v>
+      </c>
+      <c r="BG458">
+        <v>3</v>
+      </c>
+      <c r="BH458">
+        <v>8</v>
+      </c>
+      <c r="BI458">
+        <v>12</v>
+      </c>
+      <c r="BJ458">
+        <v>4</v>
+      </c>
+      <c r="BK458">
+        <v>4</v>
+      </c>
+      <c r="BL458">
+        <v>33</v>
+      </c>
+      <c r="BM458">
+        <v>64</v>
+      </c>
+      <c r="BN458">
+        <v>30</v>
+      </c>
+      <c r="BO458">
+        <v>88</v>
+      </c>
+      <c r="BP458">
+        <v>363</v>
+      </c>
+      <c r="BQ458">
+        <v>962</v>
+      </c>
+      <c r="BR458">
+        <v>791</v>
+      </c>
+      <c r="BS458">
+        <v>784</v>
+      </c>
+      <c r="BT458">
+        <v>3082</v>
+      </c>
+      <c r="BU458" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV458" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW458" t="s">
+        <v>535</v>
+      </c>
+      <c r="BX458" t="s">
+        <v>485</v>
+      </c>
+      <c r="BY458" t="s">
+        <v>505</v>
+      </c>
+      <c r="BZ458" t="s">
+        <v>506</v>
+      </c>
+      <c r="CA458" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB458" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC458" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD458" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE458" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF458" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="459" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>84</v>
+      </c>
+      <c r="B459" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C459" t="s">
+        <v>178</v>
+      </c>
+      <c r="D459" t="s">
+        <v>86</v>
+      </c>
+      <c r="E459" t="s">
+        <v>163</v>
+      </c>
+      <c r="F459" t="s">
+        <v>88</v>
+      </c>
+      <c r="G459" t="s">
+        <v>89</v>
+      </c>
+      <c r="H459" t="s">
+        <v>612</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+      <c r="M459">
+        <v>0</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>0</v>
+      </c>
+      <c r="P459">
+        <v>0</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <v>0</v>
+      </c>
+      <c r="S459">
+        <v>0</v>
+      </c>
+      <c r="T459">
+        <v>0</v>
+      </c>
+      <c r="U459">
+        <v>0</v>
+      </c>
+      <c r="V459">
+        <v>0</v>
+      </c>
+      <c r="W459">
+        <v>0</v>
+      </c>
+      <c r="X459">
+        <v>0</v>
+      </c>
+      <c r="Y459">
+        <v>0</v>
+      </c>
+      <c r="Z459">
+        <v>0</v>
+      </c>
+      <c r="AA459">
+        <v>0</v>
+      </c>
+      <c r="AB459">
+        <v>0</v>
+      </c>
+      <c r="AC459">
+        <v>0</v>
+      </c>
+      <c r="AD459">
+        <v>0</v>
+      </c>
+      <c r="AE459">
+        <v>0</v>
+      </c>
+      <c r="AF459">
+        <v>0</v>
+      </c>
+      <c r="AG459">
+        <v>0</v>
+      </c>
+      <c r="AH459">
+        <v>0</v>
+      </c>
+      <c r="AI459">
+        <v>0</v>
+      </c>
+      <c r="AJ459">
+        <v>0</v>
+      </c>
+      <c r="AK459">
+        <v>0</v>
+      </c>
+      <c r="AL459">
+        <v>0</v>
+      </c>
+      <c r="AM459">
+        <v>0</v>
+      </c>
+      <c r="AN459">
+        <v>0</v>
+      </c>
+      <c r="AO459">
+        <v>0</v>
+      </c>
+      <c r="AP459">
+        <v>0</v>
+      </c>
+      <c r="AQ459">
+        <v>0</v>
+      </c>
+      <c r="AR459">
+        <v>0</v>
+      </c>
+      <c r="AS459">
+        <v>0</v>
+      </c>
+      <c r="AT459">
+        <v>0</v>
+      </c>
+      <c r="AU459">
+        <v>0</v>
+      </c>
+      <c r="AV459">
+        <v>0</v>
+      </c>
+      <c r="AW459">
+        <v>0</v>
+      </c>
+      <c r="AX459">
+        <v>0</v>
+      </c>
+      <c r="AY459">
+        <v>0</v>
+      </c>
+      <c r="AZ459">
+        <v>0</v>
+      </c>
+      <c r="BA459">
+        <v>0</v>
+      </c>
+      <c r="BB459">
+        <v>0</v>
+      </c>
+      <c r="BC459">
+        <v>0</v>
+      </c>
+      <c r="BD459">
+        <v>0</v>
+      </c>
+      <c r="BE459">
+        <v>0</v>
+      </c>
+      <c r="BF459">
+        <v>1</v>
+      </c>
+      <c r="BG459">
+        <v>1</v>
+      </c>
+      <c r="BH459">
+        <v>12</v>
+      </c>
+      <c r="BI459">
+        <v>25</v>
+      </c>
+      <c r="BJ459">
+        <v>14</v>
+      </c>
+      <c r="BK459">
+        <v>37</v>
+      </c>
+      <c r="BL459">
+        <v>90</v>
+      </c>
+      <c r="BM459">
+        <v>12</v>
+      </c>
+      <c r="BN459">
+        <v>6</v>
+      </c>
+      <c r="BO459">
+        <v>23</v>
+      </c>
+      <c r="BP459">
+        <v>84</v>
+      </c>
+      <c r="BQ459">
+        <v>307</v>
+      </c>
+      <c r="BR459">
+        <v>508</v>
+      </c>
+      <c r="BS459">
+        <v>665</v>
+      </c>
+      <c r="BT459">
+        <v>1605</v>
+      </c>
+      <c r="BU459" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV459" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW459" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX459" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY459" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ459" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA459" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB459" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC459" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD459" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE459" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF459" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="460" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>84</v>
+      </c>
+      <c r="B460" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C460" t="s">
+        <v>178</v>
+      </c>
+      <c r="D460" t="s">
+        <v>86</v>
+      </c>
+      <c r="E460" t="s">
+        <v>163</v>
+      </c>
+      <c r="F460" t="s">
+        <v>170</v>
+      </c>
+      <c r="G460" t="s">
+        <v>89</v>
+      </c>
+      <c r="H460" t="s">
+        <v>561</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <v>0</v>
+      </c>
+      <c r="R460">
+        <v>0</v>
+      </c>
+      <c r="S460">
+        <v>0</v>
+      </c>
+      <c r="T460">
+        <v>0</v>
+      </c>
+      <c r="U460">
+        <v>0</v>
+      </c>
+      <c r="V460">
+        <v>0</v>
+      </c>
+      <c r="W460">
+        <v>0</v>
+      </c>
+      <c r="X460">
+        <v>0</v>
+      </c>
+      <c r="Y460">
+        <v>0</v>
+      </c>
+      <c r="Z460">
+        <v>0</v>
+      </c>
+      <c r="AA460">
+        <v>0</v>
+      </c>
+      <c r="AB460">
+        <v>0</v>
+      </c>
+      <c r="AC460">
+        <v>0</v>
+      </c>
+      <c r="AD460">
+        <v>0</v>
+      </c>
+      <c r="AE460">
+        <v>0</v>
+      </c>
+      <c r="AF460">
+        <v>0</v>
+      </c>
+      <c r="AG460">
+        <v>0</v>
+      </c>
+      <c r="AH460">
+        <v>0</v>
+      </c>
+      <c r="AI460">
+        <v>0</v>
+      </c>
+      <c r="AJ460">
+        <v>0</v>
+      </c>
+      <c r="AK460">
+        <v>0</v>
+      </c>
+      <c r="AL460">
+        <v>0</v>
+      </c>
+      <c r="AM460">
+        <v>0</v>
+      </c>
+      <c r="AN460">
+        <v>0</v>
+      </c>
+      <c r="AO460">
+        <v>0</v>
+      </c>
+      <c r="AP460">
+        <v>0</v>
+      </c>
+      <c r="AQ460">
+        <v>0</v>
+      </c>
+      <c r="AR460">
+        <v>0</v>
+      </c>
+      <c r="AS460">
+        <v>0</v>
+      </c>
+      <c r="AT460">
+        <v>0</v>
+      </c>
+      <c r="AU460">
+        <v>0</v>
+      </c>
+      <c r="AV460">
+        <v>0</v>
+      </c>
+      <c r="AW460">
+        <v>0</v>
+      </c>
+      <c r="AX460">
+        <v>0</v>
+      </c>
+      <c r="AY460">
+        <v>0</v>
+      </c>
+      <c r="AZ460">
+        <v>0</v>
+      </c>
+      <c r="BA460">
+        <v>0</v>
+      </c>
+      <c r="BB460">
+        <v>0</v>
+      </c>
+      <c r="BC460">
+        <v>0</v>
+      </c>
+      <c r="BD460">
+        <v>0</v>
+      </c>
+      <c r="BE460">
+        <v>7</v>
+      </c>
+      <c r="BF460">
+        <v>4</v>
+      </c>
+      <c r="BG460">
+        <v>22</v>
+      </c>
+      <c r="BH460">
+        <v>25</v>
+      </c>
+      <c r="BI460">
+        <v>37</v>
+      </c>
+      <c r="BJ460">
+        <v>22</v>
+      </c>
+      <c r="BK460">
+        <v>20</v>
+      </c>
+      <c r="BL460">
+        <v>137</v>
+      </c>
+      <c r="BM460">
+        <v>75</v>
+      </c>
+      <c r="BN460">
+        <v>43</v>
+      </c>
+      <c r="BO460">
+        <v>135</v>
+      </c>
+      <c r="BP460">
+        <v>249</v>
+      </c>
+      <c r="BQ460">
+        <v>506</v>
+      </c>
+      <c r="BR460">
+        <v>508</v>
+      </c>
+      <c r="BS460">
+        <v>413</v>
+      </c>
+      <c r="BT460">
+        <v>1929</v>
+      </c>
+      <c r="BU460" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV460" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW460" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX460" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY460" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ460" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA460" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB460" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC460" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD460" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE460" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF460" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="461" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>84</v>
+      </c>
+      <c r="B461" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C461" t="s">
+        <v>178</v>
+      </c>
+      <c r="D461" t="s">
+        <v>86</v>
+      </c>
+      <c r="E461" t="s">
+        <v>163</v>
+      </c>
+      <c r="F461" t="s">
+        <v>200</v>
+      </c>
+      <c r="G461" t="s">
+        <v>89</v>
+      </c>
+      <c r="H461" t="s">
+        <v>727</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461">
+        <v>0</v>
+      </c>
+      <c r="Q461">
+        <v>0</v>
+      </c>
+      <c r="R461">
+        <v>0</v>
+      </c>
+      <c r="S461">
+        <v>0</v>
+      </c>
+      <c r="T461">
+        <v>0</v>
+      </c>
+      <c r="U461">
+        <v>0</v>
+      </c>
+      <c r="V461">
+        <v>0</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>0</v>
+      </c>
+      <c r="Z461">
+        <v>0</v>
+      </c>
+      <c r="AA461">
+        <v>0</v>
+      </c>
+      <c r="AB461">
+        <v>0</v>
+      </c>
+      <c r="AC461">
+        <v>0</v>
+      </c>
+      <c r="AD461">
+        <v>0</v>
+      </c>
+      <c r="AE461">
+        <v>0</v>
+      </c>
+      <c r="AF461">
+        <v>0</v>
+      </c>
+      <c r="AG461">
+        <v>0</v>
+      </c>
+      <c r="AH461">
+        <v>0</v>
+      </c>
+      <c r="AI461">
+        <v>0</v>
+      </c>
+      <c r="AJ461">
+        <v>0</v>
+      </c>
+      <c r="AK461">
+        <v>0</v>
+      </c>
+      <c r="AL461">
+        <v>0</v>
+      </c>
+      <c r="AM461">
+        <v>0</v>
+      </c>
+      <c r="AN461">
+        <v>0</v>
+      </c>
+      <c r="AO461">
+        <v>0</v>
+      </c>
+      <c r="AP461">
+        <v>0</v>
+      </c>
+      <c r="AQ461">
+        <v>0</v>
+      </c>
+      <c r="AR461">
+        <v>0</v>
+      </c>
+      <c r="AS461">
+        <v>0</v>
+      </c>
+      <c r="AT461">
+        <v>0</v>
+      </c>
+      <c r="AU461">
+        <v>0</v>
+      </c>
+      <c r="AV461">
+        <v>0</v>
+      </c>
+      <c r="AW461">
+        <v>0</v>
+      </c>
+      <c r="AX461">
+        <v>0</v>
+      </c>
+      <c r="AY461">
+        <v>0</v>
+      </c>
+      <c r="AZ461">
+        <v>0</v>
+      </c>
+      <c r="BA461">
+        <v>0</v>
+      </c>
+      <c r="BB461">
+        <v>0</v>
+      </c>
+      <c r="BC461">
+        <v>0</v>
+      </c>
+      <c r="BD461">
+        <v>0</v>
+      </c>
+      <c r="BE461">
+        <v>0</v>
+      </c>
+      <c r="BF461">
+        <v>0</v>
+      </c>
+      <c r="BG461">
+        <v>0</v>
+      </c>
+      <c r="BH461">
+        <v>0</v>
+      </c>
+      <c r="BI461">
+        <v>1</v>
+      </c>
+      <c r="BJ461">
+        <v>3</v>
+      </c>
+      <c r="BK461">
+        <v>0</v>
+      </c>
+      <c r="BL461">
+        <v>4</v>
+      </c>
+      <c r="BM461">
+        <v>0</v>
+      </c>
+      <c r="BN461">
+        <v>1</v>
+      </c>
+      <c r="BO461">
+        <v>0</v>
+      </c>
+      <c r="BP461">
+        <v>2</v>
+      </c>
+      <c r="BQ461">
+        <v>59</v>
+      </c>
+      <c r="BR461">
+        <v>47</v>
+      </c>
+      <c r="BS461">
+        <v>6</v>
+      </c>
+      <c r="BT461">
+        <v>115</v>
+      </c>
+      <c r="BU461" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV461" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW461" t="s">
+        <v>403</v>
+      </c>
+      <c r="BX461" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY461" t="s">
+        <v>404</v>
+      </c>
+      <c r="BZ461" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA461" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB461" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC461" t="s">
+        <v>217</v>
+      </c>
+      <c r="CD461" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE461" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF461" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="462" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>84</v>
+      </c>
+      <c r="B462" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C462" t="s">
+        <v>178</v>
+      </c>
+      <c r="D462" t="s">
+        <v>86</v>
+      </c>
+      <c r="E462" t="s">
+        <v>163</v>
+      </c>
+      <c r="F462" t="s">
+        <v>173</v>
+      </c>
+      <c r="G462" t="s">
+        <v>89</v>
+      </c>
+      <c r="H462" t="s">
+        <v>324</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462">
+        <v>0</v>
+      </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
+      <c r="R462">
+        <v>0</v>
+      </c>
+      <c r="S462">
+        <v>0</v>
+      </c>
+      <c r="T462">
+        <v>0</v>
+      </c>
+      <c r="U462">
+        <v>0</v>
+      </c>
+      <c r="V462">
+        <v>0</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>0</v>
+      </c>
+      <c r="Z462">
+        <v>0</v>
+      </c>
+      <c r="AA462">
+        <v>0</v>
+      </c>
+      <c r="AB462">
+        <v>0</v>
+      </c>
+      <c r="AC462">
+        <v>0</v>
+      </c>
+      <c r="AD462">
+        <v>0</v>
+      </c>
+      <c r="AE462">
+        <v>0</v>
+      </c>
+      <c r="AF462">
+        <v>0</v>
+      </c>
+      <c r="AG462">
+        <v>0</v>
+      </c>
+      <c r="AH462">
+        <v>0</v>
+      </c>
+      <c r="AI462">
+        <v>0</v>
+      </c>
+      <c r="AJ462">
+        <v>0</v>
+      </c>
+      <c r="AK462">
+        <v>0</v>
+      </c>
+      <c r="AL462">
+        <v>0</v>
+      </c>
+      <c r="AM462">
+        <v>0</v>
+      </c>
+      <c r="AN462">
+        <v>0</v>
+      </c>
+      <c r="AO462">
+        <v>0</v>
+      </c>
+      <c r="AP462">
+        <v>0</v>
+      </c>
+      <c r="AQ462">
+        <v>0</v>
+      </c>
+      <c r="AR462">
+        <v>0</v>
+      </c>
+      <c r="AS462">
+        <v>0</v>
+      </c>
+      <c r="AT462">
+        <v>0</v>
+      </c>
+      <c r="AU462">
+        <v>0</v>
+      </c>
+      <c r="AV462">
+        <v>0</v>
+      </c>
+      <c r="AW462">
+        <v>0</v>
+      </c>
+      <c r="AX462">
+        <v>0</v>
+      </c>
+      <c r="AY462">
+        <v>0</v>
+      </c>
+      <c r="AZ462">
+        <v>0</v>
+      </c>
+      <c r="BA462">
+        <v>0</v>
+      </c>
+      <c r="BB462">
+        <v>0</v>
+      </c>
+      <c r="BC462">
+        <v>0</v>
+      </c>
+      <c r="BD462">
+        <v>0</v>
+      </c>
+      <c r="BE462">
+        <v>5</v>
+      </c>
+      <c r="BF462">
+        <v>2</v>
+      </c>
+      <c r="BG462">
+        <v>14</v>
+      </c>
+      <c r="BH462">
+        <v>22</v>
+      </c>
+      <c r="BI462">
+        <v>12</v>
+      </c>
+      <c r="BJ462">
+        <v>5</v>
+      </c>
+      <c r="BK462">
+        <v>1</v>
+      </c>
+      <c r="BL462">
+        <v>61</v>
+      </c>
+      <c r="BM462">
+        <v>52</v>
+      </c>
+      <c r="BN462">
+        <v>29</v>
+      </c>
+      <c r="BO462">
+        <v>80</v>
+      </c>
+      <c r="BP462">
+        <v>152</v>
+      </c>
+      <c r="BQ462">
+        <v>293</v>
+      </c>
+      <c r="BR462">
+        <v>154</v>
+      </c>
+      <c r="BS462">
+        <v>98</v>
+      </c>
+      <c r="BT462">
+        <v>858</v>
+      </c>
+      <c r="BU462" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV462" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW462" t="s">
+        <v>728</v>
+      </c>
+      <c r="BX462" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY462" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ462" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA462" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB462" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC462" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD462" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE462" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF462" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="463" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>84</v>
+      </c>
+      <c r="B463" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C463" t="s">
+        <v>178</v>
+      </c>
+      <c r="D463" t="s">
+        <v>86</v>
+      </c>
+      <c r="E463" t="s">
+        <v>177</v>
+      </c>
+      <c r="F463" t="s">
+        <v>88</v>
+      </c>
+      <c r="G463" t="s">
+        <v>89</v>
+      </c>
+      <c r="H463" t="s">
+        <v>322</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463">
+        <v>0</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <v>0</v>
+      </c>
+      <c r="R463">
+        <v>0</v>
+      </c>
+      <c r="S463">
+        <v>0</v>
+      </c>
+      <c r="T463">
+        <v>0</v>
+      </c>
+      <c r="U463">
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <v>0</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>0</v>
+      </c>
+      <c r="Z463">
+        <v>0</v>
+      </c>
+      <c r="AA463">
+        <v>0</v>
+      </c>
+      <c r="AB463">
+        <v>0</v>
+      </c>
+      <c r="AC463">
+        <v>0</v>
+      </c>
+      <c r="AD463">
+        <v>0</v>
+      </c>
+      <c r="AE463">
+        <v>0</v>
+      </c>
+      <c r="AF463">
+        <v>0</v>
+      </c>
+      <c r="AG463">
+        <v>0</v>
+      </c>
+      <c r="AH463">
+        <v>0</v>
+      </c>
+      <c r="AI463">
+        <v>0</v>
+      </c>
+      <c r="AJ463">
+        <v>0</v>
+      </c>
+      <c r="AK463">
+        <v>0</v>
+      </c>
+      <c r="AL463">
+        <v>0</v>
+      </c>
+      <c r="AM463">
+        <v>0</v>
+      </c>
+      <c r="AN463">
+        <v>0</v>
+      </c>
+      <c r="AO463">
+        <v>0</v>
+      </c>
+      <c r="AP463">
+        <v>0</v>
+      </c>
+      <c r="AQ463">
+        <v>0</v>
+      </c>
+      <c r="AR463">
+        <v>0</v>
+      </c>
+      <c r="AS463">
+        <v>0</v>
+      </c>
+      <c r="AT463">
+        <v>0</v>
+      </c>
+      <c r="AU463">
+        <v>0</v>
+      </c>
+      <c r="AV463">
+        <v>0</v>
+      </c>
+      <c r="AW463">
+        <v>0</v>
+      </c>
+      <c r="AX463">
+        <v>0</v>
+      </c>
+      <c r="AY463">
+        <v>0</v>
+      </c>
+      <c r="AZ463">
+        <v>0</v>
+      </c>
+      <c r="BA463">
+        <v>0</v>
+      </c>
+      <c r="BB463">
+        <v>0</v>
+      </c>
+      <c r="BC463">
+        <v>0</v>
+      </c>
+      <c r="BD463">
+        <v>0</v>
+      </c>
+      <c r="BE463">
+        <v>0</v>
+      </c>
+      <c r="BF463">
+        <v>0</v>
+      </c>
+      <c r="BG463">
+        <v>1</v>
+      </c>
+      <c r="BH463">
+        <v>1</v>
+      </c>
+      <c r="BI463">
+        <v>0</v>
+      </c>
+      <c r="BJ463">
+        <v>0</v>
+      </c>
+      <c r="BK463">
+        <v>0</v>
+      </c>
+      <c r="BL463">
+        <v>2</v>
+      </c>
+      <c r="BM463">
+        <v>3</v>
+      </c>
+      <c r="BN463">
+        <v>1</v>
+      </c>
+      <c r="BO463">
+        <v>5</v>
+      </c>
+      <c r="BP463">
+        <v>3</v>
+      </c>
+      <c r="BQ463">
+        <v>18</v>
+      </c>
+      <c r="BR463">
+        <v>31</v>
+      </c>
+      <c r="BS463">
+        <v>54</v>
+      </c>
+      <c r="BT463">
+        <v>115</v>
+      </c>
+      <c r="BU463" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV463" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW463" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX463" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY463" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ463" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA463" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB463" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC463" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD463" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE463" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF463" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="464" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>84</v>
+      </c>
+      <c r="B464" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C464" t="s">
+        <v>185</v>
+      </c>
+      <c r="D464" t="s">
+        <v>86</v>
+      </c>
+      <c r="E464" t="s">
+        <v>278</v>
+      </c>
+      <c r="F464" t="s">
+        <v>88</v>
+      </c>
+      <c r="G464" t="s">
+        <v>89</v>
+      </c>
+      <c r="H464" t="s">
+        <v>390</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>0</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <v>0</v>
+      </c>
+      <c r="R464">
+        <v>0</v>
+      </c>
+      <c r="S464">
+        <v>0</v>
+      </c>
+      <c r="T464">
+        <v>0</v>
+      </c>
+      <c r="U464">
+        <v>0</v>
+      </c>
+      <c r="V464">
+        <v>0</v>
+      </c>
+      <c r="W464">
+        <v>0</v>
+      </c>
+      <c r="X464">
+        <v>0</v>
+      </c>
+      <c r="Y464">
+        <v>0</v>
+      </c>
+      <c r="Z464">
+        <v>0</v>
+      </c>
+      <c r="AA464">
+        <v>0</v>
+      </c>
+      <c r="AB464">
+        <v>0</v>
+      </c>
+      <c r="AC464">
+        <v>0</v>
+      </c>
+      <c r="AD464">
+        <v>0</v>
+      </c>
+      <c r="AE464">
+        <v>0</v>
+      </c>
+      <c r="AF464">
+        <v>0</v>
+      </c>
+      <c r="AG464">
+        <v>0</v>
+      </c>
+      <c r="AH464">
+        <v>0</v>
+      </c>
+      <c r="AI464">
+        <v>0</v>
+      </c>
+      <c r="AJ464">
+        <v>0</v>
+      </c>
+      <c r="AK464">
+        <v>0</v>
+      </c>
+      <c r="AL464">
+        <v>0</v>
+      </c>
+      <c r="AM464">
+        <v>0</v>
+      </c>
+      <c r="AN464">
+        <v>0</v>
+      </c>
+      <c r="AO464">
+        <v>0</v>
+      </c>
+      <c r="AP464">
+        <v>0</v>
+      </c>
+      <c r="AQ464">
+        <v>0</v>
+      </c>
+      <c r="AR464">
+        <v>0</v>
+      </c>
+      <c r="AS464">
+        <v>0</v>
+      </c>
+      <c r="AT464">
+        <v>0</v>
+      </c>
+      <c r="AU464">
+        <v>0</v>
+      </c>
+      <c r="AV464">
+        <v>0</v>
+      </c>
+      <c r="AW464">
+        <v>0</v>
+      </c>
+      <c r="AX464">
+        <v>0</v>
+      </c>
+      <c r="AY464">
+        <v>0</v>
+      </c>
+      <c r="AZ464">
+        <v>0</v>
+      </c>
+      <c r="BA464">
+        <v>0</v>
+      </c>
+      <c r="BB464">
+        <v>0</v>
+      </c>
+      <c r="BC464">
+        <v>0</v>
+      </c>
+      <c r="BD464">
+        <v>0</v>
+      </c>
+      <c r="BE464">
+        <v>9</v>
+      </c>
+      <c r="BF464">
+        <v>5</v>
+      </c>
+      <c r="BG464">
+        <v>58</v>
+      </c>
+      <c r="BH464">
+        <v>61</v>
+      </c>
+      <c r="BI464">
+        <v>30</v>
+      </c>
+      <c r="BJ464">
+        <v>21</v>
+      </c>
+      <c r="BK464">
+        <v>64</v>
+      </c>
+      <c r="BL464">
+        <v>248</v>
+      </c>
+      <c r="BM464">
+        <v>25</v>
+      </c>
+      <c r="BN464">
+        <v>19</v>
+      </c>
+      <c r="BO464">
+        <v>108</v>
+      </c>
+      <c r="BP464">
+        <v>187</v>
+      </c>
+      <c r="BQ464">
+        <v>161</v>
+      </c>
+      <c r="BR464">
+        <v>158</v>
+      </c>
+      <c r="BS464">
+        <v>591</v>
+      </c>
+      <c r="BT464">
+        <v>1249</v>
+      </c>
+      <c r="BU464" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV464" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BW464" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX464" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY464" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ464" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA464" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB464" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC464" t="s">
+        <v>285</v>
+      </c>
+      <c r="CD464" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE464" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF464" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="465" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>84</v>
+      </c>
+      <c r="B465" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C465" t="s">
+        <v>178</v>
+      </c>
+      <c r="D465" t="s">
+        <v>86</v>
+      </c>
+      <c r="E465" t="s">
+        <v>278</v>
+      </c>
+      <c r="F465" t="s">
+        <v>88</v>
+      </c>
+      <c r="G465" t="s">
+        <v>89</v>
+      </c>
+      <c r="H465" t="s">
+        <v>439</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>0</v>
+      </c>
+      <c r="Q465">
+        <v>0</v>
+      </c>
+      <c r="R465">
+        <v>0</v>
+      </c>
+      <c r="S465">
+        <v>0</v>
+      </c>
+      <c r="T465">
+        <v>0</v>
+      </c>
+      <c r="U465">
+        <v>0</v>
+      </c>
+      <c r="V465">
+        <v>0</v>
+      </c>
+      <c r="W465">
+        <v>0</v>
+      </c>
+      <c r="X465">
+        <v>0</v>
+      </c>
+      <c r="Y465">
+        <v>0</v>
+      </c>
+      <c r="Z465">
+        <v>0</v>
+      </c>
+      <c r="AA465">
+        <v>0</v>
+      </c>
+      <c r="AB465">
+        <v>0</v>
+      </c>
+      <c r="AC465">
+        <v>0</v>
+      </c>
+      <c r="AD465">
+        <v>0</v>
+      </c>
+      <c r="AE465">
+        <v>0</v>
+      </c>
+      <c r="AF465">
+        <v>0</v>
+      </c>
+      <c r="AG465">
+        <v>0</v>
+      </c>
+      <c r="AH465">
+        <v>0</v>
+      </c>
+      <c r="AI465">
+        <v>0</v>
+      </c>
+      <c r="AJ465">
+        <v>0</v>
+      </c>
+      <c r="AK465">
+        <v>0</v>
+      </c>
+      <c r="AL465">
+        <v>0</v>
+      </c>
+      <c r="AM465">
+        <v>0</v>
+      </c>
+      <c r="AN465">
+        <v>0</v>
+      </c>
+      <c r="AO465">
+        <v>0</v>
+      </c>
+      <c r="AP465">
+        <v>0</v>
+      </c>
+      <c r="AQ465">
+        <v>0</v>
+      </c>
+      <c r="AR465">
+        <v>0</v>
+      </c>
+      <c r="AS465">
+        <v>0</v>
+      </c>
+      <c r="AT465">
+        <v>0</v>
+      </c>
+      <c r="AU465">
+        <v>0</v>
+      </c>
+      <c r="AV465">
+        <v>0</v>
+      </c>
+      <c r="AW465">
+        <v>0</v>
+      </c>
+      <c r="AX465">
+        <v>0</v>
+      </c>
+      <c r="AY465">
+        <v>0</v>
+      </c>
+      <c r="AZ465">
+        <v>0</v>
+      </c>
+      <c r="BA465">
+        <v>0</v>
+      </c>
+      <c r="BB465">
+        <v>0</v>
+      </c>
+      <c r="BC465">
+        <v>0</v>
+      </c>
+      <c r="BD465">
+        <v>0</v>
+      </c>
+      <c r="BE465">
+        <v>9</v>
+      </c>
+      <c r="BF465">
+        <v>11</v>
+      </c>
+      <c r="BG465">
+        <v>38</v>
+      </c>
+      <c r="BH465">
+        <v>78</v>
+      </c>
+      <c r="BI465">
+        <v>40</v>
+      </c>
+      <c r="BJ465">
+        <v>25</v>
+      </c>
+      <c r="BK465">
+        <v>41</v>
+      </c>
+      <c r="BL465">
+        <v>242</v>
+      </c>
+      <c r="BM465">
+        <v>42</v>
+      </c>
+      <c r="BN465">
+        <v>62</v>
+      </c>
+      <c r="BO465">
+        <v>183</v>
+      </c>
+      <c r="BP465">
+        <v>379</v>
+      </c>
+      <c r="BQ465">
+        <v>330</v>
+      </c>
+      <c r="BR465">
+        <v>380</v>
+      </c>
+      <c r="BS465">
+        <v>1346</v>
+      </c>
+      <c r="BT465">
+        <v>2722</v>
+      </c>
+      <c r="BU465" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV465" s="1">
+        <v>45019</v>
+      </c>
+      <c r="BW465" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX465" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY465" t="s">
+        <v>729</v>
+      </c>
+      <c r="BZ465" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA465" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB465" t="s">
+        <v>97</v>
+      </c>
+      <c r="CC465" t="s">
+        <v>285</v>
+      </c>
+      <c r="CD465" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE465" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF465" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
